--- a/落花机密表_糙汉子版.xlsx
+++ b/落花机密表_糙汉子版.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28245" windowHeight="12615"/>
+    <workbookView windowWidth="28800" windowHeight="12615"/>
   </bookViews>
   <sheets>
     <sheet name="8.26-9.1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2464" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2298" uniqueCount="429">
   <si>
     <t>QQ</t>
   </si>
@@ -182,240 +182,258 @@
     <t>落花@冷月小猫泪</t>
   </si>
   <si>
+    <t>2019-08-31 00:28:35</t>
+  </si>
+  <si>
+    <t>cydjl@qq.com</t>
+  </si>
+  <si>
+    <t>落花 花浔</t>
+  </si>
+  <si>
+    <t>2019-08-26 19:24:36</t>
+  </si>
+  <si>
+    <t>2019-08-27 23:44:43</t>
+  </si>
+  <si>
+    <t>2019-08-28 21:04:10</t>
+  </si>
+  <si>
+    <t>2019-08-29 19:28:46</t>
+  </si>
+  <si>
+    <t>2019-08-30 18:50:09</t>
+  </si>
+  <si>
+    <t>992526373</t>
+  </si>
+  <si>
+    <t>落花 slily</t>
+  </si>
+  <si>
+    <t>2019-08-26 21:54:02</t>
+  </si>
+  <si>
+    <t>2019-08-27 19:18:25</t>
+  </si>
+  <si>
+    <t>2019-08-28 23:39:19</t>
+  </si>
+  <si>
+    <t>2019-08-29 22:51:28</t>
+  </si>
+  <si>
+    <t>2019-08-30 13:53:43</t>
+  </si>
+  <si>
+    <t>974687361</t>
+  </si>
+  <si>
+    <t>落花-清水</t>
+  </si>
+  <si>
+    <t>2019-08-26 19:30:52</t>
+  </si>
+  <si>
+    <t>2019-08-30 06:08:29</t>
+  </si>
+  <si>
+    <t>924110951</t>
+  </si>
+  <si>
+    <t>落花@楚锦妮</t>
+  </si>
+  <si>
+    <t>923418164</t>
+  </si>
+  <si>
+    <t>落花🥳千早</t>
+  </si>
+  <si>
+    <t>2019-08-26 19:23:00</t>
+  </si>
+  <si>
+    <t>2019-08-27 15:18:48</t>
+  </si>
+  <si>
+    <t>2019-08-28 19:17:49</t>
+  </si>
+  <si>
+    <t>2019-08-29 13:08:31</t>
+  </si>
+  <si>
+    <t>2019-08-30 15:39:00</t>
+  </si>
+  <si>
+    <t>845423216</t>
+  </si>
+  <si>
+    <t>落花 ¿ Clear1</t>
+  </si>
+  <si>
+    <t>2019-08-26 07:00:53</t>
+  </si>
+  <si>
+    <t>2019-08-27 10:05:35</t>
+  </si>
+  <si>
+    <t>2019-08-28 06:12:36</t>
+  </si>
+  <si>
+    <t>2019-08-29 07:42:14</t>
+  </si>
+  <si>
+    <t>2019-08-30 05:36:49</t>
+  </si>
+  <si>
+    <t>823284435</t>
+  </si>
+  <si>
+    <t>落花—鸭小梨</t>
+  </si>
+  <si>
+    <t>821515617</t>
+  </si>
+  <si>
+    <t>落花-谢南</t>
+  </si>
+  <si>
+    <t>2019-08-27 13:28:34</t>
+  </si>
+  <si>
+    <t>2019-08-29 01:03:19</t>
+  </si>
+  <si>
+    <t>2019-08-30 20:44:27</t>
+  </si>
+  <si>
+    <t>793019511</t>
+  </si>
+  <si>
+    <t>落花ฅ稷晞【管住手，别氪了!!!】</t>
+  </si>
+  <si>
+    <t>2019-08-26 22:47:57</t>
+  </si>
+  <si>
+    <t>2019-08-27 07:57:50</t>
+  </si>
+  <si>
+    <t>2019-08-28 08:08:28</t>
+  </si>
+  <si>
+    <t>2019-08-29 08:40:08</t>
+  </si>
+  <si>
+    <t>2019-08-30 12:00:01</t>
+  </si>
+  <si>
+    <t>784945709</t>
+  </si>
+  <si>
+    <t>落花.花祭夜.今天打机密了嘛</t>
+  </si>
+  <si>
+    <t>2019-08-26 07:58:46</t>
+  </si>
+  <si>
+    <t>2019-08-27 07:50:44</t>
+  </si>
+  <si>
+    <t>2019-08-28 11:28:23</t>
+  </si>
+  <si>
+    <t>2019-08-29 16:36:15</t>
+  </si>
+  <si>
+    <t>2019-08-30 19:15:09</t>
+  </si>
+  <si>
+    <t>781898849</t>
+  </si>
+  <si>
+    <t>落花-KGAoi</t>
+  </si>
+  <si>
+    <t>2019-08-26 15:48:37</t>
+  </si>
+  <si>
+    <t>2019-08-27 09:35:37</t>
+  </si>
+  <si>
+    <t>2019-08-28 17:19:44</t>
+  </si>
+  <si>
+    <t>2019-08-29 08:52:51</t>
+  </si>
+  <si>
+    <t>2019-08-30 20:38:22</t>
+  </si>
+  <si>
+    <t>779867533</t>
+  </si>
+  <si>
+    <t>落花๑顾安白</t>
+  </si>
+  <si>
+    <t>2019-08-26 12:09:00</t>
+  </si>
+  <si>
+    <t>2019-08-27 12:00:05</t>
+  </si>
+  <si>
+    <t>2019-08-28 07:33:42</t>
+  </si>
+  <si>
+    <t>2019-08-29 07:39:38</t>
+  </si>
+  <si>
+    <t>2019-08-30 08:58:32</t>
+  </si>
+  <si>
+    <t>769521738</t>
+  </si>
+  <si>
+    <t>落花-白茶</t>
+  </si>
+  <si>
+    <t>2019-08-26 10:35:46</t>
+  </si>
+  <si>
+    <t>2019-08-27 10:22:49</t>
+  </si>
+  <si>
+    <t>2019-08-28 10:50:04</t>
+  </si>
+  <si>
+    <t>2019-08-29 08:12:41</t>
+  </si>
+  <si>
+    <t>2019-08-30 07:54:31</t>
+  </si>
+  <si>
+    <t>745415648</t>
+  </si>
+  <si>
+    <t>落花 小虚</t>
+  </si>
+  <si>
+    <t>2019-08-26 15:49:37</t>
+  </si>
+  <si>
+    <t>2019-08-27 10:09:49</t>
+  </si>
+  <si>
+    <t>2019-08-28 10:42:22</t>
+  </si>
+  <si>
+    <t>2019-08-29 11:34:20</t>
+  </si>
+  <si>
     <t>2019-08-30 14:19:34</t>
   </si>
   <si>
-    <t>cydjl@qq.com</t>
-  </si>
-  <si>
-    <t>落花 花浔</t>
-  </si>
-  <si>
-    <t>2019-08-26 19:24:36</t>
-  </si>
-  <si>
-    <t>2019-08-27 23:44:43</t>
-  </si>
-  <si>
-    <t>2019-08-28 21:04:10</t>
-  </si>
-  <si>
-    <t>2019-08-29 19:28:46</t>
-  </si>
-  <si>
-    <t>992526373</t>
-  </si>
-  <si>
-    <t>落花 slily</t>
-  </si>
-  <si>
-    <t>2019-08-26 21:54:02</t>
-  </si>
-  <si>
-    <t>2019-08-27 19:18:25</t>
-  </si>
-  <si>
-    <t>2019-08-28 23:39:19</t>
-  </si>
-  <si>
-    <t>2019-08-29 22:51:28</t>
-  </si>
-  <si>
-    <t>2019-08-30 13:53:43</t>
-  </si>
-  <si>
-    <t>974687361</t>
-  </si>
-  <si>
-    <t>落花-清水</t>
-  </si>
-  <si>
-    <t>2019-08-26 19:30:52</t>
-  </si>
-  <si>
-    <t>2019-08-30 06:08:29</t>
-  </si>
-  <si>
-    <t>924110951</t>
-  </si>
-  <si>
-    <t>落花@楚锦妮</t>
-  </si>
-  <si>
-    <t>923418164</t>
-  </si>
-  <si>
-    <t>落花 千早</t>
-  </si>
-  <si>
-    <t>2019-08-26 19:23:00</t>
-  </si>
-  <si>
-    <t>2019-08-27 15:18:48</t>
-  </si>
-  <si>
-    <t>2019-08-28 19:17:49</t>
-  </si>
-  <si>
-    <t>2019-08-29 13:08:31</t>
-  </si>
-  <si>
-    <t>845423216</t>
-  </si>
-  <si>
-    <t>落花-Clear1</t>
-  </si>
-  <si>
-    <t>2019-08-26 07:00:53</t>
-  </si>
-  <si>
-    <t>2019-08-27 10:05:35</t>
-  </si>
-  <si>
-    <t>2019-08-28 06:12:36</t>
-  </si>
-  <si>
-    <t>2019-08-29 07:42:14</t>
-  </si>
-  <si>
-    <t>2019-08-30 05:36:49</t>
-  </si>
-  <si>
-    <t>823284435</t>
-  </si>
-  <si>
-    <t>落花—鸭小梨</t>
-  </si>
-  <si>
-    <t>821515617</t>
-  </si>
-  <si>
-    <t>落花-谢南</t>
-  </si>
-  <si>
-    <t>2019-08-27 13:28:34</t>
-  </si>
-  <si>
-    <t>2019-08-29 01:03:19</t>
-  </si>
-  <si>
-    <t>793019511</t>
-  </si>
-  <si>
-    <t>落花ฅ稷晞</t>
-  </si>
-  <si>
-    <t>2019-08-26 22:47:57</t>
-  </si>
-  <si>
-    <t>2019-08-27 07:57:50</t>
-  </si>
-  <si>
-    <t>2019-08-28 08:08:28</t>
-  </si>
-  <si>
-    <t>2019-08-29 08:40:08</t>
-  </si>
-  <si>
-    <t>2019-08-30 12:00:01</t>
-  </si>
-  <si>
-    <t>784945709</t>
-  </si>
-  <si>
-    <t>落花.花祭夜.今天都打卡了嘛！</t>
-  </si>
-  <si>
-    <t>2019-08-26 07:58:46</t>
-  </si>
-  <si>
-    <t>2019-08-27 07:50:44</t>
-  </si>
-  <si>
-    <t>2019-08-28 11:28:23</t>
-  </si>
-  <si>
-    <t>2019-08-29 16:36:15</t>
-  </si>
-  <si>
-    <t>781898849</t>
-  </si>
-  <si>
-    <t>落花-KGAoi</t>
-  </si>
-  <si>
-    <t>2019-08-26 15:48:37</t>
-  </si>
-  <si>
-    <t>2019-08-27 09:35:37</t>
-  </si>
-  <si>
-    <t>2019-08-28 17:19:44</t>
-  </si>
-  <si>
-    <t>2019-08-29 08:52:51</t>
-  </si>
-  <si>
-    <t>779867533</t>
-  </si>
-  <si>
-    <t>落花๑顾安白</t>
-  </si>
-  <si>
-    <t>2019-08-26 12:09:00</t>
-  </si>
-  <si>
-    <t>2019-08-27 12:00:05</t>
-  </si>
-  <si>
-    <t>2019-08-28 07:33:42</t>
-  </si>
-  <si>
-    <t>2019-08-29 07:39:38</t>
-  </si>
-  <si>
-    <t>2019-08-30 08:58:32</t>
-  </si>
-  <si>
-    <t>769521738</t>
-  </si>
-  <si>
-    <t>落花-白茶</t>
-  </si>
-  <si>
-    <t>2019-08-26 10:35:46</t>
-  </si>
-  <si>
-    <t>2019-08-27 10:22:49</t>
-  </si>
-  <si>
-    <t>2019-08-28 10:50:04</t>
-  </si>
-  <si>
-    <t>2019-08-29 08:12:41</t>
-  </si>
-  <si>
-    <t>2019-08-30 07:54:31</t>
-  </si>
-  <si>
-    <t>745415648</t>
-  </si>
-  <si>
-    <t>落花 小虚</t>
-  </si>
-  <si>
-    <t>2019-08-26 15:49:37</t>
-  </si>
-  <si>
-    <t>2019-08-27 10:09:49</t>
-  </si>
-  <si>
-    <t>2019-08-28 10:42:22</t>
-  </si>
-  <si>
-    <t>2019-08-29 11:34:20</t>
-  </si>
-  <si>
     <t>727791466</t>
   </si>
   <si>
@@ -476,6 +494,9 @@
     <t>2019-08-29 16:15:31</t>
   </si>
   <si>
+    <t>2019-08-30 19:16:47</t>
+  </si>
+  <si>
     <t>651570472</t>
   </si>
   <si>
@@ -494,6 +515,9 @@
     <t>2019-08-29 12:04:02</t>
   </si>
   <si>
+    <t>2019-08-30 19:26:53</t>
+  </si>
+  <si>
     <t>648875355</t>
   </si>
   <si>
@@ -512,6 +536,9 @@
     <t>2019-08-29 19:39:51</t>
   </si>
   <si>
+    <t>2019-08-31 00:17:30</t>
+  </si>
+  <si>
     <t>535509797</t>
   </si>
   <si>
@@ -524,9 +551,15 @@
     <t>2019-08-27 18:33:27</t>
   </si>
   <si>
+    <t>2019-08-28 18:41:43</t>
+  </si>
+  <si>
     <t>2019-08-29 19:18:31</t>
   </si>
   <si>
+    <t>2019-08-30 22:35:56</t>
+  </si>
+  <si>
     <t>505644622</t>
   </si>
   <si>
@@ -542,6 +575,9 @@
     <t>2019-08-29 00:09:46</t>
   </si>
   <si>
+    <t>2019-08-31 00:14:44</t>
+  </si>
+  <si>
     <t>491384166</t>
   </si>
   <si>
@@ -560,6 +596,9 @@
     <t>2019-08-29 19:08:40</t>
   </si>
   <si>
+    <t>2019-08-30 19:09:50</t>
+  </si>
+  <si>
     <t>39302003</t>
   </si>
   <si>
@@ -611,6 +650,9 @@
     <t>2019-08-30 04:29:34</t>
   </si>
   <si>
+    <t>2019-08-30 21:02:54</t>
+  </si>
+  <si>
     <t>3240236818</t>
   </si>
   <si>
@@ -734,13 +776,16 @@
     <t>2019-08-29 00:40:49</t>
   </si>
   <si>
+    <t>2019-08-30 21:02:37</t>
+  </si>
+  <si>
     <t>2192665938</t>
   </si>
   <si>
     <t>落花 奶味汐月</t>
   </si>
   <si>
-    <t>2169226881</t>
+    <t>2479669821</t>
   </si>
   <si>
     <t>落花.薇尔莉特</t>
@@ -758,16 +803,25 @@
     <t>2019-08-29 12:40:19</t>
   </si>
   <si>
+    <t>2019-08-31 00:08:10</t>
+  </si>
+  <si>
     <t>1941489960</t>
   </si>
   <si>
     <t>落花 早纪畈枝</t>
   </si>
   <si>
+    <t>2019-08-30 23:59:28</t>
+  </si>
+  <si>
     <t>1937237519</t>
   </si>
   <si>
-    <t>落花 桃花换酒</t>
+    <t>落花 ♏ 桃花换酒</t>
+  </si>
+  <si>
+    <t>2019-08-30 16:56:24</t>
   </si>
   <si>
     <t>1841469477</t>
@@ -788,6 +842,9 @@
     <t>2019-08-29 19:05:36</t>
   </si>
   <si>
+    <t>2019-08-30 19:36:31</t>
+  </si>
+  <si>
     <t>1790016705</t>
   </si>
   <si>
@@ -797,6 +854,9 @@
     <t>2019-08-28 23:10:39</t>
   </si>
   <si>
+    <t>2019-08-30 23:16:47</t>
+  </si>
+  <si>
     <t>1755065148</t>
   </si>
   <si>
@@ -836,6 +896,9 @@
     <t>2019-08-29 19:31:06</t>
   </si>
   <si>
+    <t>2019-08-30 19:20:58</t>
+  </si>
+  <si>
     <t>16500928</t>
   </si>
   <si>
@@ -854,6 +917,9 @@
     <t>2019-08-29 12:39:30</t>
   </si>
   <si>
+    <t>2019-08-30 16:52:13</t>
+  </si>
+  <si>
     <t>15451377</t>
   </si>
   <si>
@@ -872,6 +938,9 @@
     <t>2019-08-29 12:31:52</t>
   </si>
   <si>
+    <t>2019-08-30 19:27:29</t>
+  </si>
+  <si>
     <t>1543607287</t>
   </si>
   <si>
@@ -884,6 +953,9 @@
     <t>2019-08-29 20:08:07</t>
   </si>
   <si>
+    <t>2019-08-31 00:00:52</t>
+  </si>
+  <si>
     <t>1393363961</t>
   </si>
   <si>
@@ -926,10 +998,13 @@
     <t>2019-08-28 13:08:31</t>
   </si>
   <si>
+    <t>2019-08-30 19:09:01</t>
+  </si>
+  <si>
     <t>1327354755</t>
   </si>
   <si>
-    <t>落花 清水奈绪子</t>
+    <t>落花 清水奈绪子（错过派对，错过一亿）</t>
   </si>
   <si>
     <t>2019-08-26 12:41:21</t>
@@ -944,10 +1019,13 @@
     <t>2019-08-29 08:55:25</t>
   </si>
   <si>
+    <t>2019-08-30 22:57:27</t>
+  </si>
+  <si>
     <t>1239530393</t>
   </si>
   <si>
-    <t>落花" 苏久久</t>
+    <t>落花" 苏久久【不要红钻买体力了】</t>
   </si>
   <si>
     <t>2019-08-26 08:15:32</t>
@@ -962,10 +1040,13 @@
     <t>2019-08-29 07:47:28</t>
   </si>
   <si>
+    <t>2019-08-30 23:56:25</t>
+  </si>
+  <si>
     <t>july401@qq.com</t>
   </si>
   <si>
-    <t>落花，初【我是群里的打机提醒小助手】</t>
+    <t>落花，初 - 我是群里的打机提醒小助手</t>
   </si>
   <si>
     <t>2019-08-26 20:48:33</t>
@@ -1028,6 +1109,9 @@
     <t>2019-08-29 11:46:47</t>
   </si>
   <si>
+    <t>2019-08-30 19:26:21</t>
+  </si>
+  <si>
     <t>1056711058</t>
   </si>
   <si>
@@ -1052,6 +1136,9 @@
     <t>2019-08-29 19:17:18</t>
   </si>
   <si>
+    <t>2019-08-30 23:33:18</t>
+  </si>
+  <si>
     <t>1041544486</t>
   </si>
   <si>
@@ -1082,9 +1169,15 @@
     <t>2019-08-27 12:53:05</t>
   </si>
   <si>
+    <t>2019-08-28 18:58:11</t>
+  </si>
+  <si>
     <t>2019-08-29 20:16:22</t>
   </si>
   <si>
+    <t>2019-08-30 19:41:07</t>
+  </si>
+  <si>
     <t>1025385659</t>
   </si>
   <si>
@@ -1118,7 +1211,7 @@
     <t>2019-08-30 08:01:58</t>
   </si>
   <si>
-    <t>2413241525</t>
+    <t>17535862313</t>
   </si>
   <si>
     <t>落花এ风采铃</t>
@@ -1157,10 +1250,13 @@
     <t>2019-08-29 11:32:43</t>
   </si>
   <si>
+    <t>2019-08-30 18:56:23</t>
+  </si>
+  <si>
     <t>641204920</t>
   </si>
   <si>
-    <t>落花.燃犀犀</t>
+    <t>落花.一只花卿</t>
   </si>
   <si>
     <t>2019-08-26 10:11:52</t>
@@ -1175,6 +1271,9 @@
     <t>2019-08-29 22:58:07</t>
   </si>
   <si>
+    <t>2019-08-30 17:49:52</t>
+  </si>
+  <si>
     <t>108932610</t>
   </si>
   <si>
@@ -1199,7 +1298,10 @@
     <t>965462652</t>
   </si>
   <si>
-    <t>落花-终年</t>
+    <t>落花*终年欧巴（括号里写点啥）</t>
+  </si>
+  <si>
+    <t>2019-08-30 16:41:53</t>
   </si>
 </sst>
 </file>
@@ -1207,10 +1309,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="21">
@@ -1230,15 +1332,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1253,13 +1376,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1267,7 +1383,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1275,15 +1391,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1320,38 +1428,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1372,6 +1451,29 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -1382,19 +1484,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1406,103 +1496,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1520,7 +1520,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1532,7 +1532,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1544,7 +1574,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1556,13 +1598,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1593,11 +1695,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1626,17 +1726,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1658,32 +1767,25 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1694,10 +1796,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1706,133 +1808,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2190,15 +2292,15 @@
   <sheetPr/>
   <dimension ref="A1:AT69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="AG6" sqref="AG3:AG6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.625" customWidth="1"/>
     <col min="2" max="2" width="22.625" customWidth="1"/>
-    <col min="3" max="3" width="37.875" customWidth="1"/>
+    <col min="3" max="3" width="39" customWidth="1"/>
     <col min="4" max="4" width="21.5" customWidth="1"/>
     <col min="5" max="6" width="7.625" customWidth="1"/>
     <col min="7" max="7" width="8.375" customWidth="1"/>
@@ -2223,7 +2325,7 @@
     <col min="29" max="30" width="7.625" customWidth="1"/>
     <col min="31" max="31" width="8.375" customWidth="1"/>
     <col min="32" max="32" width="21.5" customWidth="1"/>
-    <col min="33" max="33" width="7.625" customWidth="1"/>
+    <col min="33" max="33" width="17.375" customWidth="1"/>
     <col min="34" max="34" width="11.875" customWidth="1"/>
     <col min="35" max="37" width="7.625" customWidth="1"/>
     <col min="38" max="38" width="11.875" customWidth="1"/>
@@ -2609,9 +2711,7 @@
       <c r="AF3" t="s">
         <v>48</v>
       </c>
-      <c r="AG3" t="s">
-        <v>48</v>
-      </c>
+      <c r="AG3"/>
       <c r="AH3" t="s">
         <v>48</v>
       </c>
@@ -2737,21 +2837,19 @@
       <c r="AB4" t="s">
         <v>48</v>
       </c>
-      <c r="AC4" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>48</v>
+      <c r="AC4">
+        <v>7</v>
+      </c>
+      <c r="AD4">
+        <v>106000</v>
+      </c>
+      <c r="AE4">
+        <v>742000</v>
       </c>
       <c r="AF4" t="s">
-        <v>48</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>48</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="AG4"/>
       <c r="AH4" t="s">
         <v>48</v>
       </c>
@@ -2797,10 +2895,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D5" t="s">
         <v>48</v>
@@ -2815,7 +2913,7 @@
         <v>650000</v>
       </c>
       <c r="H5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I5" t="s">
         <v>48</v>
@@ -2833,7 +2931,7 @@
         <v>714000</v>
       </c>
       <c r="N5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O5" t="s">
         <v>48</v>
@@ -2851,7 +2949,7 @@
         <v>720000</v>
       </c>
       <c r="T5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="U5" t="s">
         <v>48</v>
@@ -2869,7 +2967,7 @@
         <v>720000</v>
       </c>
       <c r="Z5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AA5" t="s">
         <v>48</v>
@@ -2887,11 +2985,9 @@
         <v>720000</v>
       </c>
       <c r="AF5" t="s">
-        <v>68</v>
-      </c>
-      <c r="AG5" t="s">
-        <v>48</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="AG5"/>
       <c r="AH5" t="s">
         <v>48</v>
       </c>
@@ -2937,10 +3033,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D6" t="s">
         <v>48</v>
@@ -2955,7 +3051,7 @@
         <v>550000</v>
       </c>
       <c r="H6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I6" t="s">
         <v>48</v>
@@ -3027,11 +3123,9 @@
         <v>660000</v>
       </c>
       <c r="AF6" t="s">
-        <v>72</v>
-      </c>
-      <c r="AG6" t="s">
-        <v>48</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="AG6"/>
       <c r="AH6" t="s">
         <v>48</v>
       </c>
@@ -3077,10 +3171,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D7" t="s">
         <v>48</v>
@@ -3170,10 +3264,11 @@
         <v>48</v>
       </c>
       <c r="AG7" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH7" t="s">
-        <v>48</v>
+        <v>75</v>
+      </c>
+      <c r="AH7" t="str">
+        <f t="shared" ref="AH7:AH34" si="0">IF(AG7="","",AE7)</f>
+        <v/>
       </c>
       <c r="AI7" t="s">
         <v>48</v>
@@ -3217,10 +3312,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D8" t="s">
         <v>48</v>
@@ -3235,7 +3330,7 @@
         <v>475000</v>
       </c>
       <c r="H8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I8" t="s">
         <v>48</v>
@@ -3253,7 +3348,7 @@
         <v>702000</v>
       </c>
       <c r="N8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O8" t="s">
         <v>48</v>
@@ -3271,7 +3366,7 @@
         <v>696000</v>
       </c>
       <c r="T8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U8" t="s">
         <v>48</v>
@@ -3289,7 +3384,7 @@
         <v>702000</v>
       </c>
       <c r="Z8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA8" t="s">
         <v>48</v>
@@ -3297,23 +3392,24 @@
       <c r="AB8" t="s">
         <v>48</v>
       </c>
-      <c r="AC8" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE8" t="s">
-        <v>48</v>
+      <c r="AC8">
+        <v>6</v>
+      </c>
+      <c r="AD8">
+        <v>117000</v>
+      </c>
+      <c r="AE8">
+        <v>702000</v>
       </c>
       <c r="AF8" t="s">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="AG8" t="s">
         <v>48</v>
       </c>
-      <c r="AH8" t="s">
-        <v>48</v>
+      <c r="AH8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="AI8" t="s">
         <v>48</v>
@@ -3357,10 +3453,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C9" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D9" t="s">
         <v>48</v>
@@ -3375,7 +3471,7 @@
         <v>500000</v>
       </c>
       <c r="H9" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I9" t="s">
         <v>48</v>
@@ -3393,7 +3489,7 @@
         <v>660000</v>
       </c>
       <c r="N9" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="O9" t="s">
         <v>48</v>
@@ -3411,7 +3507,7 @@
         <v>660000</v>
       </c>
       <c r="T9" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="U9" t="s">
         <v>48</v>
@@ -3429,7 +3525,7 @@
         <v>660000</v>
       </c>
       <c r="Z9" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AA9" t="s">
         <v>48</v>
@@ -3447,13 +3543,14 @@
         <v>660000</v>
       </c>
       <c r="AF9" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AG9" t="s">
         <v>48</v>
       </c>
-      <c r="AH9" t="s">
-        <v>48</v>
+      <c r="AH9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="AI9" t="s">
         <v>48</v>
@@ -3497,10 +3594,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C10" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D10" t="s">
         <v>48</v>
@@ -3590,10 +3687,11 @@
         <v>48</v>
       </c>
       <c r="AG10" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH10" t="s">
-        <v>48</v>
+        <v>91</v>
+      </c>
+      <c r="AH10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="AI10" t="s">
         <v>48</v>
@@ -3637,10 +3735,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C11" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D11" t="s">
         <v>48</v>
@@ -3673,7 +3771,7 @@
         <v>728000</v>
       </c>
       <c r="N11" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="O11" t="s">
         <v>48</v>
@@ -3691,7 +3789,7 @@
         <v>840000</v>
       </c>
       <c r="T11" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="U11" t="s">
         <v>48</v>
@@ -3717,23 +3815,24 @@
       <c r="AB11" t="s">
         <v>48</v>
       </c>
-      <c r="AC11" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD11" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE11" t="s">
-        <v>48</v>
+      <c r="AC11">
+        <v>7</v>
+      </c>
+      <c r="AD11">
+        <v>104000</v>
+      </c>
+      <c r="AE11">
+        <v>728000</v>
       </c>
       <c r="AF11" t="s">
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="AG11" t="s">
         <v>48</v>
       </c>
-      <c r="AH11" t="s">
-        <v>48</v>
+      <c r="AH11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="AI11" t="s">
         <v>48</v>
@@ -3777,10 +3876,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C12" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D12" t="s">
         <v>48</v>
@@ -3795,7 +3894,7 @@
         <v>725000</v>
       </c>
       <c r="H12" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I12" t="s">
         <v>48</v>
@@ -3813,7 +3912,7 @@
         <v>750000</v>
       </c>
       <c r="N12" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="O12" t="s">
         <v>48</v>
@@ -3831,7 +3930,7 @@
         <v>768000</v>
       </c>
       <c r="T12" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="U12" t="s">
         <v>48</v>
@@ -3849,7 +3948,7 @@
         <v>670000</v>
       </c>
       <c r="Z12" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="AA12" t="s">
         <v>48</v>
@@ -3867,13 +3966,14 @@
         <v>705000</v>
       </c>
       <c r="AF12" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="AG12" t="s">
         <v>48</v>
       </c>
-      <c r="AH12" t="s">
-        <v>48</v>
+      <c r="AH12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="AI12" t="s">
         <v>48</v>
@@ -3917,10 +4017,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C13" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D13" t="s">
         <v>48</v>
@@ -3935,7 +4035,7 @@
         <v>525000</v>
       </c>
       <c r="H13" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="I13" t="s">
         <v>48</v>
@@ -3953,7 +4053,7 @@
         <v>720000</v>
       </c>
       <c r="N13" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="O13" t="s">
         <v>48</v>
@@ -3971,7 +4071,7 @@
         <v>700000</v>
       </c>
       <c r="T13" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="U13" t="s">
         <v>48</v>
@@ -3989,7 +4089,7 @@
         <v>770000</v>
       </c>
       <c r="Z13" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="AA13" t="s">
         <v>48</v>
@@ -3997,23 +4097,24 @@
       <c r="AB13" t="s">
         <v>48</v>
       </c>
-      <c r="AC13" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD13" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE13" t="s">
-        <v>48</v>
+      <c r="AC13">
+        <v>11</v>
+      </c>
+      <c r="AD13">
+        <v>111000</v>
+      </c>
+      <c r="AE13">
+        <v>1221000</v>
       </c>
       <c r="AF13" t="s">
-        <v>48</v>
+        <v>110</v>
       </c>
       <c r="AG13" t="s">
         <v>48</v>
       </c>
-      <c r="AH13" t="s">
-        <v>48</v>
+      <c r="AH13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="AI13" t="s">
         <v>48</v>
@@ -4057,10 +4158,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C14" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D14" t="s">
         <v>48</v>
@@ -4075,7 +4176,7 @@
         <v>2123000</v>
       </c>
       <c r="H14" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="I14" t="s">
         <v>48</v>
@@ -4093,7 +4194,7 @@
         <v>1845000</v>
       </c>
       <c r="N14" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="O14" t="s">
         <v>48</v>
@@ -4111,7 +4212,7 @@
         <v>1456000</v>
       </c>
       <c r="T14" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="U14" t="s">
         <v>48</v>
@@ -4129,7 +4230,7 @@
         <v>1040000</v>
       </c>
       <c r="Z14" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="AA14" t="s">
         <v>48</v>
@@ -4137,23 +4238,24 @@
       <c r="AB14" t="s">
         <v>48</v>
       </c>
-      <c r="AC14" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD14" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE14" t="s">
-        <v>48</v>
+      <c r="AC14">
+        <v>7</v>
+      </c>
+      <c r="AD14">
+        <v>213000</v>
+      </c>
+      <c r="AE14">
+        <v>1491000</v>
       </c>
       <c r="AF14" t="s">
-        <v>48</v>
+        <v>117</v>
       </c>
       <c r="AG14" t="s">
         <v>48</v>
       </c>
-      <c r="AH14" t="s">
-        <v>48</v>
+      <c r="AH14" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="AI14" t="s">
         <v>48</v>
@@ -4197,10 +4299,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="C15" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="D15" t="s">
         <v>48</v>
@@ -4215,7 +4317,7 @@
         <v>500000</v>
       </c>
       <c r="H15" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="I15" t="s">
         <v>48</v>
@@ -4233,7 +4335,7 @@
         <v>656382</v>
       </c>
       <c r="N15" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="O15" t="s">
         <v>48</v>
@@ -4251,7 +4353,7 @@
         <v>672000</v>
       </c>
       <c r="T15" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="U15" t="s">
         <v>48</v>
@@ -4269,7 +4371,7 @@
         <v>684000</v>
       </c>
       <c r="Z15" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="AA15" t="s">
         <v>48</v>
@@ -4287,13 +4389,14 @@
         <v>660000</v>
       </c>
       <c r="AF15" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="AG15" t="s">
         <v>48</v>
       </c>
-      <c r="AH15" t="s">
-        <v>48</v>
+      <c r="AH15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="AI15" t="s">
         <v>48</v>
@@ -4337,10 +4440,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="C16" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="D16" t="s">
         <v>48</v>
@@ -4355,7 +4458,7 @@
         <v>1872000</v>
       </c>
       <c r="H16" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="I16" t="s">
         <v>48</v>
@@ -4373,7 +4476,7 @@
         <v>740000</v>
       </c>
       <c r="N16" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="O16" t="s">
         <v>48</v>
@@ -4391,7 +4494,7 @@
         <v>750000</v>
       </c>
       <c r="T16" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="U16" t="s">
         <v>48</v>
@@ -4409,7 +4512,7 @@
         <v>785000</v>
       </c>
       <c r="Z16" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="AA16" t="s">
         <v>48</v>
@@ -4427,13 +4530,14 @@
         <v>760000</v>
       </c>
       <c r="AF16" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="AG16" t="s">
         <v>48</v>
       </c>
-      <c r="AH16" t="s">
-        <v>48</v>
+      <c r="AH16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="AI16" t="s">
         <v>48</v>
@@ -4477,10 +4581,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C17" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="D17" t="s">
         <v>48</v>
@@ -4495,7 +4599,7 @@
         <v>410000</v>
       </c>
       <c r="H17" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="I17" t="s">
         <v>48</v>
@@ -4513,7 +4617,7 @@
         <v>679000</v>
       </c>
       <c r="N17" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="O17" t="s">
         <v>48</v>
@@ -4531,7 +4635,7 @@
         <v>693000</v>
       </c>
       <c r="T17" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="U17" t="s">
         <v>48</v>
@@ -4549,7 +4653,7 @@
         <v>721000</v>
       </c>
       <c r="Z17" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="AA17" t="s">
         <v>48</v>
@@ -4567,13 +4671,14 @@
         <v>735000</v>
       </c>
       <c r="AF17" t="s">
-        <v>55</v>
+        <v>138</v>
       </c>
       <c r="AG17" t="s">
         <v>48</v>
       </c>
-      <c r="AH17" t="s">
-        <v>48</v>
+      <c r="AH17" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="AI17" t="s">
         <v>48</v>
@@ -4617,10 +4722,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="C18" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="D18" t="s">
         <v>48</v>
@@ -4635,7 +4740,7 @@
         <v>770000</v>
       </c>
       <c r="H18" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="I18" t="s">
         <v>48</v>
@@ -4653,7 +4758,7 @@
         <v>750000</v>
       </c>
       <c r="N18" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="O18" t="s">
         <v>48</v>
@@ -4671,7 +4776,7 @@
         <v>762000</v>
       </c>
       <c r="T18" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="U18" t="s">
         <v>48</v>
@@ -4689,7 +4794,7 @@
         <v>650000</v>
       </c>
       <c r="Z18" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="AA18" t="s">
         <v>48</v>
@@ -4707,13 +4812,14 @@
         <v>670000</v>
       </c>
       <c r="AF18" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="AG18" t="s">
         <v>48</v>
       </c>
-      <c r="AH18" t="s">
-        <v>48</v>
+      <c r="AH18" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="AI18" t="s">
         <v>48</v>
@@ -4757,10 +4863,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="C19" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="D19" t="s">
         <v>48</v>
@@ -4775,7 +4881,7 @@
         <v>475000</v>
       </c>
       <c r="H19" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="I19" t="s">
         <v>48</v>
@@ -4793,7 +4899,7 @@
         <v>666000</v>
       </c>
       <c r="N19" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="O19" t="s">
         <v>48</v>
@@ -4811,7 +4917,7 @@
         <v>656000</v>
       </c>
       <c r="T19" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="U19" t="s">
         <v>48</v>
@@ -4829,7 +4935,7 @@
         <v>736000</v>
       </c>
       <c r="Z19" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="AA19" t="s">
         <v>48</v>
@@ -4847,13 +4953,14 @@
         <v>700000</v>
       </c>
       <c r="AF19" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="AG19" t="s">
         <v>48</v>
       </c>
-      <c r="AH19" t="s">
-        <v>48</v>
+      <c r="AH19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="AI19" t="s">
         <v>48</v>
@@ -4897,10 +5004,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="C20" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="D20" t="s">
         <v>48</v>
@@ -4915,7 +5022,7 @@
         <v>575000</v>
       </c>
       <c r="H20" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="I20" t="s">
         <v>48</v>
@@ -4933,7 +5040,7 @@
         <v>672000</v>
       </c>
       <c r="N20" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="O20" t="s">
         <v>48</v>
@@ -4951,7 +5058,7 @@
         <v>678000</v>
       </c>
       <c r="T20" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="U20" t="s">
         <v>48</v>
@@ -4969,7 +5076,7 @@
         <v>678000</v>
       </c>
       <c r="Z20" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="AA20" t="s">
         <v>48</v>
@@ -4977,23 +5084,24 @@
       <c r="AB20" t="s">
         <v>48</v>
       </c>
-      <c r="AC20" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD20" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE20" t="s">
-        <v>48</v>
+      <c r="AC20">
+        <v>6</v>
+      </c>
+      <c r="AD20">
+        <v>114000</v>
+      </c>
+      <c r="AE20">
+        <v>684000</v>
       </c>
       <c r="AF20" t="s">
-        <v>48</v>
+        <v>159</v>
       </c>
       <c r="AG20" t="s">
         <v>48</v>
       </c>
-      <c r="AH20" t="s">
-        <v>48</v>
+      <c r="AH20" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="AI20" t="s">
         <v>48</v>
@@ -5037,10 +5145,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="C21" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="D21" t="s">
         <v>48</v>
@@ -5055,7 +5163,7 @@
         <v>325000</v>
       </c>
       <c r="H21" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="I21" t="s">
         <v>48</v>
@@ -5073,7 +5181,7 @@
         <v>330000</v>
       </c>
       <c r="N21" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="O21" t="s">
         <v>48</v>
@@ -5091,7 +5199,7 @@
         <v>680000</v>
       </c>
       <c r="T21" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="U21" t="s">
         <v>48</v>
@@ -5109,7 +5217,7 @@
         <v>657000</v>
       </c>
       <c r="Z21" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="AA21" t="s">
         <v>48</v>
@@ -5117,23 +5225,24 @@
       <c r="AB21" t="s">
         <v>48</v>
       </c>
-      <c r="AC21" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD21" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE21" t="s">
-        <v>48</v>
+      <c r="AC21">
+        <v>9</v>
+      </c>
+      <c r="AD21">
+        <v>73000</v>
+      </c>
+      <c r="AE21">
+        <v>657000</v>
       </c>
       <c r="AF21" t="s">
-        <v>48</v>
+        <v>166</v>
       </c>
       <c r="AG21" t="s">
         <v>48</v>
       </c>
-      <c r="AH21" t="s">
-        <v>48</v>
+      <c r="AH21" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="AI21" t="s">
         <v>48</v>
@@ -5177,10 +5286,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="C22" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="D22" t="s">
         <v>48</v>
@@ -5195,7 +5304,7 @@
         <v>700000</v>
       </c>
       <c r="H22" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="I22" t="s">
         <v>48</v>
@@ -5213,7 +5322,7 @@
         <v>660000</v>
       </c>
       <c r="N22" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="O22" t="s">
         <v>48</v>
@@ -5231,7 +5340,7 @@
         <v>708000</v>
       </c>
       <c r="T22" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="U22" t="s">
         <v>48</v>
@@ -5249,7 +5358,7 @@
         <v>720000</v>
       </c>
       <c r="Z22" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="AA22" t="s">
         <v>48</v>
@@ -5257,23 +5366,24 @@
       <c r="AB22" t="s">
         <v>48</v>
       </c>
-      <c r="AC22" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD22" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE22" t="s">
-        <v>48</v>
+      <c r="AC22">
+        <v>6</v>
+      </c>
+      <c r="AD22">
+        <v>126000</v>
+      </c>
+      <c r="AE22">
+        <v>756000</v>
       </c>
       <c r="AF22" t="s">
-        <v>48</v>
+        <v>173</v>
       </c>
       <c r="AG22" t="s">
         <v>48</v>
       </c>
-      <c r="AH22" t="s">
-        <v>48</v>
+      <c r="AH22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="AI22" t="s">
         <v>48</v>
@@ -5317,10 +5427,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="C23" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="D23" t="s">
         <v>48</v>
@@ -5335,7 +5445,7 @@
         <v>680000</v>
       </c>
       <c r="H23" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="I23" t="s">
         <v>48</v>
@@ -5353,7 +5463,7 @@
         <v>720000</v>
       </c>
       <c r="N23" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="O23" t="s">
         <v>48</v>
@@ -5361,17 +5471,17 @@
       <c r="P23" t="s">
         <v>48</v>
       </c>
-      <c r="Q23" t="s">
-        <v>48</v>
-      </c>
-      <c r="R23" t="s">
-        <v>48</v>
-      </c>
-      <c r="S23" t="s">
-        <v>48</v>
+      <c r="Q23">
+        <v>6</v>
+      </c>
+      <c r="R23">
+        <v>120000</v>
+      </c>
+      <c r="S23">
+        <v>720000</v>
       </c>
       <c r="T23" t="s">
-        <v>48</v>
+        <v>178</v>
       </c>
       <c r="U23" t="s">
         <v>48</v>
@@ -5389,7 +5499,7 @@
         <v>720000</v>
       </c>
       <c r="Z23" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="AA23" t="s">
         <v>48</v>
@@ -5397,23 +5507,24 @@
       <c r="AB23" t="s">
         <v>48</v>
       </c>
-      <c r="AC23" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD23" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE23" t="s">
-        <v>48</v>
+      <c r="AC23">
+        <v>6</v>
+      </c>
+      <c r="AD23">
+        <v>120000</v>
+      </c>
+      <c r="AE23">
+        <v>720000</v>
       </c>
       <c r="AF23" t="s">
-        <v>48</v>
+        <v>180</v>
       </c>
       <c r="AG23" t="s">
         <v>48</v>
       </c>
-      <c r="AH23" t="s">
-        <v>48</v>
+      <c r="AH23" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="AI23" t="s">
         <v>48</v>
@@ -5457,10 +5568,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="C24" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="D24" t="s">
         <v>48</v>
@@ -5475,7 +5586,7 @@
         <v>800000</v>
       </c>
       <c r="H24" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="I24" t="s">
         <v>48</v>
@@ -5493,7 +5604,7 @@
         <v>672000</v>
       </c>
       <c r="N24" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="O24" t="s">
         <v>48</v>
@@ -5511,7 +5622,7 @@
         <v>678000</v>
       </c>
       <c r="T24" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="U24" t="s">
         <v>48</v>
@@ -5537,23 +5648,24 @@
       <c r="AB24" t="s">
         <v>48</v>
       </c>
-      <c r="AC24" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD24" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE24" t="s">
-        <v>48</v>
+      <c r="AC24">
+        <v>6</v>
+      </c>
+      <c r="AD24">
+        <v>125000</v>
+      </c>
+      <c r="AE24">
+        <v>750000</v>
       </c>
       <c r="AF24" t="s">
-        <v>48</v>
+        <v>186</v>
       </c>
       <c r="AG24" t="s">
         <v>48</v>
       </c>
-      <c r="AH24" t="s">
-        <v>48</v>
+      <c r="AH24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="AI24" t="s">
         <v>48</v>
@@ -5597,10 +5709,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="C25" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="D25" t="s">
         <v>48</v>
@@ -5615,7 +5727,7 @@
         <v>545000</v>
       </c>
       <c r="H25" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="I25" t="s">
         <v>48</v>
@@ -5633,7 +5745,7 @@
         <v>728000</v>
       </c>
       <c r="N25" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="O25" t="s">
         <v>48</v>
@@ -5651,7 +5763,7 @@
         <v>735000</v>
       </c>
       <c r="T25" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="U25" t="s">
         <v>48</v>
@@ -5669,7 +5781,7 @@
         <v>678000</v>
       </c>
       <c r="Z25" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="AA25" t="s">
         <v>48</v>
@@ -5677,23 +5789,24 @@
       <c r="AB25" t="s">
         <v>48</v>
       </c>
-      <c r="AC25" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD25" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE25" t="s">
-        <v>48</v>
+      <c r="AC25">
+        <v>6</v>
+      </c>
+      <c r="AD25">
+        <v>113000</v>
+      </c>
+      <c r="AE25">
+        <v>678000</v>
       </c>
       <c r="AF25" t="s">
-        <v>48</v>
+        <v>193</v>
       </c>
       <c r="AG25" t="s">
         <v>48</v>
       </c>
-      <c r="AH25" t="s">
-        <v>48</v>
+      <c r="AH25" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="AI25" t="s">
         <v>48</v>
@@ -5737,10 +5850,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="C26" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="D26" t="s">
         <v>48</v>
@@ -5830,10 +5943,11 @@
         <v>48</v>
       </c>
       <c r="AG26" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH26" t="s">
-        <v>48</v>
+        <v>195</v>
+      </c>
+      <c r="AH26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="AI26" t="s">
         <v>48</v>
@@ -5877,10 +5991,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="C27" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="D27" t="s">
         <v>48</v>
@@ -5970,10 +6084,11 @@
         <v>48</v>
       </c>
       <c r="AG27" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH27" t="s">
-        <v>48</v>
+        <v>197</v>
+      </c>
+      <c r="AH27" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="AI27" t="s">
         <v>48</v>
@@ -6017,10 +6132,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="C28" t="s">
-        <v>186</v>
+        <v>199</v>
       </c>
       <c r="D28" t="s">
         <v>48</v>
@@ -6035,7 +6150,7 @@
         <v>665000</v>
       </c>
       <c r="H28" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="I28" t="s">
         <v>48</v>
@@ -6053,7 +6168,7 @@
         <v>680000</v>
       </c>
       <c r="N28" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="O28" t="s">
         <v>48</v>
@@ -6071,7 +6186,7 @@
         <v>720000</v>
       </c>
       <c r="T28" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="U28" t="s">
         <v>48</v>
@@ -6089,7 +6204,7 @@
         <v>655000</v>
       </c>
       <c r="Z28" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c r="AA28" t="s">
         <v>48</v>
@@ -6107,13 +6222,14 @@
         <v>660000</v>
       </c>
       <c r="AF28" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="AG28" t="s">
         <v>48</v>
       </c>
-      <c r="AH28" t="s">
-        <v>48</v>
+      <c r="AH28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="AI28" t="s">
         <v>48</v>
@@ -6157,10 +6273,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="C29" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="D29" t="s">
         <v>48</v>
@@ -6175,7 +6291,7 @@
         <v>490000</v>
       </c>
       <c r="H29" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="I29" t="s">
         <v>48</v>
@@ -6193,7 +6309,7 @@
         <v>700000</v>
       </c>
       <c r="N29" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="O29" t="s">
         <v>48</v>
@@ -6211,7 +6327,7 @@
         <v>700000</v>
       </c>
       <c r="T29" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="U29" t="s">
         <v>48</v>
@@ -6229,7 +6345,7 @@
         <v>700000</v>
       </c>
       <c r="Z29" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="AA29" t="s">
         <v>48</v>
@@ -6237,23 +6353,24 @@
       <c r="AB29" t="s">
         <v>48</v>
       </c>
-      <c r="AC29" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD29" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE29" t="s">
-        <v>48</v>
+      <c r="AC29">
+        <v>7</v>
+      </c>
+      <c r="AD29">
+        <v>105000</v>
+      </c>
+      <c r="AE29">
+        <v>735000</v>
       </c>
       <c r="AF29" t="s">
-        <v>48</v>
+        <v>211</v>
       </c>
       <c r="AG29" t="s">
         <v>48</v>
       </c>
-      <c r="AH29" t="s">
-        <v>48</v>
+      <c r="AH29" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="AI29" t="s">
         <v>48</v>
@@ -6297,10 +6414,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c r="C30" t="s">
-        <v>199</v>
+        <v>213</v>
       </c>
       <c r="D30" t="s">
         <v>48</v>
@@ -6315,7 +6432,7 @@
         <v>315000</v>
       </c>
       <c r="H30" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
       <c r="I30" t="s">
         <v>48</v>
@@ -6333,7 +6450,7 @@
         <v>315000</v>
       </c>
       <c r="N30" t="s">
-        <v>201</v>
+        <v>215</v>
       </c>
       <c r="O30" t="s">
         <v>48</v>
@@ -6351,7 +6468,7 @@
         <v>315000</v>
       </c>
       <c r="T30" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="U30" t="s">
         <v>48</v>
@@ -6369,7 +6486,7 @@
         <v>640000</v>
       </c>
       <c r="Z30" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="AA30" t="s">
         <v>48</v>
@@ -6387,13 +6504,14 @@
         <v>650000</v>
       </c>
       <c r="AF30" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="AG30" t="s">
         <v>48</v>
       </c>
-      <c r="AH30" t="s">
-        <v>48</v>
+      <c r="AH30" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="AI30" t="s">
         <v>48</v>
@@ -6437,10 +6555,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>205</v>
+        <v>219</v>
       </c>
       <c r="C31" t="s">
-        <v>206</v>
+        <v>220</v>
       </c>
       <c r="D31" t="s">
         <v>48</v>
@@ -6530,10 +6648,11 @@
         <v>48</v>
       </c>
       <c r="AG31" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH31" t="s">
-        <v>48</v>
+        <v>220</v>
+      </c>
+      <c r="AH31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="AI31" t="s">
         <v>48</v>
@@ -6577,10 +6696,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>207</v>
+        <v>221</v>
       </c>
       <c r="C32" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="D32" t="s">
         <v>48</v>
@@ -6670,10 +6789,11 @@
         <v>48</v>
       </c>
       <c r="AG32" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH32" t="s">
-        <v>48</v>
+        <v>222</v>
+      </c>
+      <c r="AH32" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="AI32" t="s">
         <v>48</v>
@@ -6717,10 +6837,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
       <c r="C33" t="s">
-        <v>210</v>
+        <v>224</v>
       </c>
       <c r="D33" t="s">
         <v>48</v>
@@ -6810,10 +6930,11 @@
         <v>48</v>
       </c>
       <c r="AG33" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH33" t="s">
-        <v>48</v>
+        <v>224</v>
+      </c>
+      <c r="AH33" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="AI33" t="s">
         <v>48</v>
@@ -6857,10 +6978,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>211</v>
+        <v>225</v>
       </c>
       <c r="C34" t="s">
-        <v>212</v>
+        <v>226</v>
       </c>
       <c r="D34" t="s">
         <v>48</v>
@@ -6950,10 +7071,11 @@
         <v>48</v>
       </c>
       <c r="AG34" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH34" t="s">
-        <v>48</v>
+        <v>226</v>
+      </c>
+      <c r="AH34" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="AI34" t="s">
         <v>48</v>
@@ -6997,10 +7119,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>213</v>
+        <v>227</v>
       </c>
       <c r="C35" t="s">
-        <v>214</v>
+        <v>228</v>
       </c>
       <c r="D35" t="s">
         <v>48</v>
@@ -7015,7 +7137,7 @@
         <v>642295</v>
       </c>
       <c r="H35" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="I35" t="s">
         <v>48</v>
@@ -7033,7 +7155,7 @@
         <v>4611140</v>
       </c>
       <c r="N35" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="O35" t="s">
         <v>48</v>
@@ -7051,7 +7173,7 @@
         <v>441145</v>
       </c>
       <c r="T35" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
       <c r="U35" t="s">
         <v>48</v>
@@ -7069,7 +7191,7 @@
         <v>459140</v>
       </c>
       <c r="Z35" t="s">
-        <v>218</v>
+        <v>232</v>
       </c>
       <c r="AA35" t="s">
         <v>48</v>
@@ -7087,13 +7209,14 @@
         <v>462410</v>
       </c>
       <c r="AF35" t="s">
-        <v>219</v>
+        <v>233</v>
       </c>
       <c r="AG35" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH35" t="s">
-        <v>48</v>
+        <v>228</v>
+      </c>
+      <c r="AH35">
+        <f>IF(AG35="","",AE35)</f>
+        <v>462410</v>
       </c>
       <c r="AI35" t="s">
         <v>48</v>
@@ -7137,10 +7260,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>220</v>
+        <v>234</v>
       </c>
       <c r="C36" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="D36" t="s">
         <v>48</v>
@@ -7155,7 +7278,7 @@
         <v>600000</v>
       </c>
       <c r="H36" t="s">
-        <v>222</v>
+        <v>236</v>
       </c>
       <c r="I36" t="s">
         <v>48</v>
@@ -7173,7 +7296,7 @@
         <v>720000</v>
       </c>
       <c r="N36" t="s">
-        <v>223</v>
+        <v>237</v>
       </c>
       <c r="O36" t="s">
         <v>48</v>
@@ -7191,7 +7314,7 @@
         <v>840000</v>
       </c>
       <c r="T36" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="U36" t="s">
         <v>48</v>
@@ -7209,7 +7332,7 @@
         <v>840000</v>
       </c>
       <c r="Z36" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="AA36" t="s">
         <v>48</v>
@@ -7227,13 +7350,14 @@
         <v>1170000</v>
       </c>
       <c r="AF36" t="s">
-        <v>226</v>
+        <v>240</v>
       </c>
       <c r="AG36" t="s">
         <v>48</v>
       </c>
-      <c r="AH36" t="s">
-        <v>48</v>
+      <c r="AH36" t="str">
+        <f t="shared" ref="AH36:AH64" si="1">IF(AG36="","",AE36)</f>
+        <v/>
       </c>
       <c r="AI36" t="s">
         <v>48</v>
@@ -7277,10 +7401,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>227</v>
+        <v>241</v>
       </c>
       <c r="C37" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="D37" t="s">
         <v>48</v>
@@ -7295,7 +7419,7 @@
         <v>600000</v>
       </c>
       <c r="H37" t="s">
-        <v>229</v>
+        <v>243</v>
       </c>
       <c r="I37" t="s">
         <v>48</v>
@@ -7313,7 +7437,7 @@
         <v>700000</v>
       </c>
       <c r="N37" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="O37" t="s">
         <v>48</v>
@@ -7331,7 +7455,7 @@
         <v>700000</v>
       </c>
       <c r="T37" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="U37" t="s">
         <v>48</v>
@@ -7349,7 +7473,7 @@
         <v>700000</v>
       </c>
       <c r="Z37" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="AA37" t="s">
         <v>48</v>
@@ -7367,13 +7491,14 @@
         <v>686886</v>
       </c>
       <c r="AF37" t="s">
-        <v>233</v>
+        <v>247</v>
       </c>
       <c r="AG37" t="s">
         <v>48</v>
       </c>
-      <c r="AH37" t="s">
-        <v>48</v>
+      <c r="AH37" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="AI37" t="s">
         <v>48</v>
@@ -7417,10 +7542,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="C38" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
       <c r="D38" t="s">
         <v>48</v>
@@ -7435,7 +7560,7 @@
         <v>275000</v>
       </c>
       <c r="H38" t="s">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="I38" t="s">
         <v>48</v>
@@ -7453,7 +7578,7 @@
         <v>270000</v>
       </c>
       <c r="N38" t="s">
-        <v>237</v>
+        <v>251</v>
       </c>
       <c r="O38" t="s">
         <v>48</v>
@@ -7471,7 +7596,7 @@
         <v>682000</v>
       </c>
       <c r="T38" t="s">
-        <v>238</v>
+        <v>252</v>
       </c>
       <c r="U38" t="s">
         <v>48</v>
@@ -7497,23 +7622,24 @@
       <c r="AB38" t="s">
         <v>48</v>
       </c>
-      <c r="AC38" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD38" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE38" t="s">
-        <v>48</v>
+      <c r="AC38">
+        <v>5</v>
+      </c>
+      <c r="AD38">
+        <v>62000</v>
+      </c>
+      <c r="AE38">
+        <v>310000</v>
       </c>
       <c r="AF38" t="s">
-        <v>48</v>
+        <v>253</v>
       </c>
       <c r="AG38" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH38" t="s">
-        <v>48</v>
+        <v>249</v>
+      </c>
+      <c r="AH38">
+        <f t="shared" si="1"/>
+        <v>310000</v>
       </c>
       <c r="AI38" t="s">
         <v>48</v>
@@ -7557,10 +7683,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>239</v>
+        <v>254</v>
       </c>
       <c r="C39" t="s">
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="D39" t="s">
         <v>48</v>
@@ -7637,23 +7763,22 @@
       <c r="AB39" t="s">
         <v>48</v>
       </c>
-      <c r="AC39" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD39" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE39" t="s">
-        <v>48</v>
+      <c r="AC39">
+        <v>15</v>
+      </c>
+      <c r="AD39">
+        <v>60000</v>
+      </c>
+      <c r="AE39">
+        <v>900000</v>
       </c>
       <c r="AF39" t="s">
-        <v>48</v>
-      </c>
-      <c r="AG39" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH39" t="s">
-        <v>48</v>
+        <v>55</v>
+      </c>
+      <c r="AG39"/>
+      <c r="AH39" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="AI39" t="s">
         <v>48</v>
@@ -7697,10 +7822,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>241</v>
+        <v>256</v>
       </c>
       <c r="C40" t="s">
-        <v>242</v>
+        <v>257</v>
       </c>
       <c r="D40" t="s">
         <v>48</v>
@@ -7715,7 +7840,7 @@
         <v>495000</v>
       </c>
       <c r="H40" t="s">
-        <v>243</v>
+        <v>258</v>
       </c>
       <c r="I40" t="s">
         <v>48</v>
@@ -7733,7 +7858,7 @@
         <v>679000</v>
       </c>
       <c r="N40" t="s">
-        <v>244</v>
+        <v>259</v>
       </c>
       <c r="O40" t="s">
         <v>48</v>
@@ -7751,7 +7876,7 @@
         <v>686000</v>
       </c>
       <c r="T40" t="s">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="U40" t="s">
         <v>48</v>
@@ -7769,7 +7894,7 @@
         <v>693000</v>
       </c>
       <c r="Z40" t="s">
-        <v>246</v>
+        <v>261</v>
       </c>
       <c r="AA40" t="s">
         <v>48</v>
@@ -7777,23 +7902,22 @@
       <c r="AB40" t="s">
         <v>48</v>
       </c>
-      <c r="AC40" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD40" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE40" t="s">
-        <v>48</v>
+      <c r="AC40">
+        <v>7</v>
+      </c>
+      <c r="AD40">
+        <v>99000</v>
+      </c>
+      <c r="AE40">
+        <v>693000</v>
       </c>
       <c r="AF40" t="s">
-        <v>48</v>
-      </c>
-      <c r="AG40" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH40" t="s">
-        <v>48</v>
+        <v>262</v>
+      </c>
+      <c r="AG40"/>
+      <c r="AH40" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="AI40" t="s">
         <v>48</v>
@@ -7837,10 +7961,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="C41" t="s">
-        <v>248</v>
+        <v>264</v>
       </c>
       <c r="D41" t="s">
         <v>48</v>
@@ -7917,23 +8041,24 @@
       <c r="AB41" t="s">
         <v>48</v>
       </c>
-      <c r="AC41" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD41" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE41" t="s">
-        <v>48</v>
+      <c r="AC41">
+        <v>10</v>
+      </c>
+      <c r="AD41">
+        <v>80000</v>
+      </c>
+      <c r="AE41">
+        <v>800000</v>
       </c>
       <c r="AF41" t="s">
-        <v>48</v>
+        <v>265</v>
       </c>
       <c r="AG41" t="s">
         <v>48</v>
       </c>
-      <c r="AH41" t="s">
-        <v>48</v>
+      <c r="AH41" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="AI41" t="s">
         <v>48</v>
@@ -7977,10 +8102,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>249</v>
+        <v>266</v>
       </c>
       <c r="C42" t="s">
-        <v>250</v>
+        <v>267</v>
       </c>
       <c r="D42" t="s">
         <v>48</v>
@@ -8057,23 +8182,24 @@
       <c r="AB42" t="s">
         <v>48</v>
       </c>
-      <c r="AC42" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD42" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE42" t="s">
-        <v>48</v>
+      <c r="AC42">
+        <v>11</v>
+      </c>
+      <c r="AD42">
+        <v>72000</v>
+      </c>
+      <c r="AE42">
+        <v>792000</v>
       </c>
       <c r="AF42" t="s">
-        <v>48</v>
+        <v>268</v>
       </c>
       <c r="AG42" t="s">
         <v>48</v>
       </c>
-      <c r="AH42" t="s">
-        <v>48</v>
+      <c r="AH42" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="AI42" t="s">
         <v>48</v>
@@ -8117,10 +8243,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>251</v>
+        <v>269</v>
       </c>
       <c r="C43" t="s">
-        <v>252</v>
+        <v>270</v>
       </c>
       <c r="D43" t="s">
         <v>48</v>
@@ -8135,7 +8261,7 @@
         <v>1650000</v>
       </c>
       <c r="H43" t="s">
-        <v>253</v>
+        <v>271</v>
       </c>
       <c r="I43" t="s">
         <v>48</v>
@@ -8153,7 +8279,7 @@
         <v>672000</v>
       </c>
       <c r="N43" t="s">
-        <v>254</v>
+        <v>272</v>
       </c>
       <c r="O43" t="s">
         <v>48</v>
@@ -8171,7 +8297,7 @@
         <v>693000</v>
       </c>
       <c r="T43" t="s">
-        <v>255</v>
+        <v>273</v>
       </c>
       <c r="U43" t="s">
         <v>48</v>
@@ -8189,7 +8315,7 @@
         <v>700000</v>
       </c>
       <c r="Z43" t="s">
-        <v>256</v>
+        <v>274</v>
       </c>
       <c r="AA43" t="s">
         <v>48</v>
@@ -8197,23 +8323,24 @@
       <c r="AB43" t="s">
         <v>48</v>
       </c>
-      <c r="AC43" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD43" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE43" t="s">
-        <v>48</v>
+      <c r="AC43">
+        <v>7</v>
+      </c>
+      <c r="AD43">
+        <v>104000</v>
+      </c>
+      <c r="AE43">
+        <v>728000</v>
       </c>
       <c r="AF43" t="s">
-        <v>48</v>
+        <v>275</v>
       </c>
       <c r="AG43" t="s">
         <v>48</v>
       </c>
-      <c r="AH43" t="s">
-        <v>48</v>
+      <c r="AH43" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="AI43" t="s">
         <v>48</v>
@@ -8257,10 +8384,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="C44" t="s">
-        <v>258</v>
+        <v>277</v>
       </c>
       <c r="D44" t="s">
         <v>48</v>
@@ -8311,7 +8438,7 @@
         <v>644000</v>
       </c>
       <c r="T44" t="s">
-        <v>259</v>
+        <v>278</v>
       </c>
       <c r="U44" t="s">
         <v>48</v>
@@ -8337,23 +8464,24 @@
       <c r="AB44" t="s">
         <v>48</v>
       </c>
-      <c r="AC44" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD44" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE44" t="s">
-        <v>48</v>
+      <c r="AC44">
+        <v>7</v>
+      </c>
+      <c r="AD44">
+        <v>93000</v>
+      </c>
+      <c r="AE44">
+        <v>651000</v>
       </c>
       <c r="AF44" t="s">
-        <v>48</v>
+        <v>279</v>
       </c>
       <c r="AG44" t="s">
         <v>48</v>
       </c>
-      <c r="AH44" t="s">
-        <v>48</v>
+      <c r="AH44" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="AI44" t="s">
         <v>48</v>
@@ -8397,10 +8525,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>260</v>
+        <v>280</v>
       </c>
       <c r="C45" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
       <c r="D45" t="s">
         <v>48</v>
@@ -8415,7 +8543,7 @@
         <v>500000</v>
       </c>
       <c r="H45" t="s">
-        <v>262</v>
+        <v>282</v>
       </c>
       <c r="I45" t="s">
         <v>48</v>
@@ -8433,7 +8561,7 @@
         <v>600000</v>
       </c>
       <c r="N45" t="s">
-        <v>263</v>
+        <v>283</v>
       </c>
       <c r="O45" t="s">
         <v>48</v>
@@ -8451,7 +8579,7 @@
         <v>684000</v>
       </c>
       <c r="T45" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="U45" t="s">
         <v>48</v>
@@ -8469,7 +8597,7 @@
         <v>666000</v>
       </c>
       <c r="Z45" t="s">
-        <v>265</v>
+        <v>285</v>
       </c>
       <c r="AA45" t="s">
         <v>48</v>
@@ -8487,13 +8615,14 @@
         <v>696000</v>
       </c>
       <c r="AF45" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="AG45" t="s">
         <v>48</v>
       </c>
-      <c r="AH45" t="s">
-        <v>48</v>
+      <c r="AH45" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="AI45" t="s">
         <v>48</v>
@@ -8537,10 +8666,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>267</v>
+        <v>287</v>
       </c>
       <c r="C46" t="s">
-        <v>268</v>
+        <v>288</v>
       </c>
       <c r="D46" t="s">
         <v>48</v>
@@ -8555,7 +8684,7 @@
         <v>470000</v>
       </c>
       <c r="H46" t="s">
-        <v>269</v>
+        <v>289</v>
       </c>
       <c r="I46" t="s">
         <v>48</v>
@@ -8573,7 +8702,7 @@
         <v>672000</v>
       </c>
       <c r="N46" t="s">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="O46" t="s">
         <v>48</v>
@@ -8591,7 +8720,7 @@
         <v>720000</v>
       </c>
       <c r="T46" t="s">
-        <v>271</v>
+        <v>291</v>
       </c>
       <c r="U46" t="s">
         <v>48</v>
@@ -8609,7 +8738,7 @@
         <v>732000</v>
       </c>
       <c r="Z46" t="s">
-        <v>272</v>
+        <v>292</v>
       </c>
       <c r="AA46" t="s">
         <v>48</v>
@@ -8617,23 +8746,24 @@
       <c r="AB46" t="s">
         <v>48</v>
       </c>
-      <c r="AC46" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD46" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE46" t="s">
-        <v>48</v>
+      <c r="AC46">
+        <v>6</v>
+      </c>
+      <c r="AD46">
+        <v>123000</v>
+      </c>
+      <c r="AE46">
+        <v>738000</v>
       </c>
       <c r="AF46" t="s">
-        <v>48</v>
+        <v>293</v>
       </c>
       <c r="AG46" t="s">
         <v>48</v>
       </c>
-      <c r="AH46" t="s">
-        <v>48</v>
+      <c r="AH46" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="AI46" t="s">
         <v>48</v>
@@ -8677,10 +8807,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>273</v>
+        <v>294</v>
       </c>
       <c r="C47" t="s">
-        <v>274</v>
+        <v>295</v>
       </c>
       <c r="D47" t="s">
         <v>48</v>
@@ -8695,7 +8825,7 @@
         <v>665000</v>
       </c>
       <c r="H47" t="s">
-        <v>275</v>
+        <v>296</v>
       </c>
       <c r="I47" t="s">
         <v>48</v>
@@ -8713,7 +8843,7 @@
         <v>720000</v>
       </c>
       <c r="N47" t="s">
-        <v>276</v>
+        <v>297</v>
       </c>
       <c r="O47" t="s">
         <v>48</v>
@@ -8731,7 +8861,7 @@
         <v>740000</v>
       </c>
       <c r="T47" t="s">
-        <v>277</v>
+        <v>298</v>
       </c>
       <c r="U47" t="s">
         <v>48</v>
@@ -8749,7 +8879,7 @@
         <v>770000</v>
       </c>
       <c r="Z47" t="s">
-        <v>278</v>
+        <v>299</v>
       </c>
       <c r="AA47" t="s">
         <v>48</v>
@@ -8757,23 +8887,24 @@
       <c r="AB47" t="s">
         <v>48</v>
       </c>
-      <c r="AC47" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD47" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE47" t="s">
-        <v>48</v>
+      <c r="AC47">
+        <v>5</v>
+      </c>
+      <c r="AD47">
+        <v>150000</v>
+      </c>
+      <c r="AE47">
+        <v>750000</v>
       </c>
       <c r="AF47" t="s">
-        <v>48</v>
+        <v>300</v>
       </c>
       <c r="AG47" t="s">
         <v>48</v>
       </c>
-      <c r="AH47" t="s">
-        <v>48</v>
+      <c r="AH47" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="AI47" t="s">
         <v>48</v>
@@ -8817,10 +8948,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>279</v>
+        <v>301</v>
       </c>
       <c r="C48" t="s">
-        <v>280</v>
+        <v>302</v>
       </c>
       <c r="D48" t="s">
         <v>48</v>
@@ -8835,7 +8966,7 @@
         <v>525000</v>
       </c>
       <c r="H48" t="s">
-        <v>281</v>
+        <v>303</v>
       </c>
       <c r="I48" t="s">
         <v>48</v>
@@ -8853,7 +8984,7 @@
         <v>704000</v>
       </c>
       <c r="N48" t="s">
-        <v>282</v>
+        <v>304</v>
       </c>
       <c r="O48" t="s">
         <v>48</v>
@@ -8871,7 +9002,7 @@
         <v>700000</v>
       </c>
       <c r="T48" t="s">
-        <v>283</v>
+        <v>305</v>
       </c>
       <c r="U48" t="s">
         <v>48</v>
@@ -8889,7 +9020,7 @@
         <v>651000</v>
       </c>
       <c r="Z48" t="s">
-        <v>284</v>
+        <v>306</v>
       </c>
       <c r="AA48" t="s">
         <v>48</v>
@@ -8897,23 +9028,24 @@
       <c r="AB48" t="s">
         <v>48</v>
       </c>
-      <c r="AC48" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD48" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE48" t="s">
-        <v>48</v>
+      <c r="AC48">
+        <v>7</v>
+      </c>
+      <c r="AD48">
+        <v>94000</v>
+      </c>
+      <c r="AE48">
+        <v>658000</v>
       </c>
       <c r="AF48" t="s">
-        <v>48</v>
+        <v>307</v>
       </c>
       <c r="AG48" t="s">
         <v>48</v>
       </c>
-      <c r="AH48" t="s">
-        <v>48</v>
+      <c r="AH48" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="AI48" t="s">
         <v>48</v>
@@ -8957,10 +9089,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>285</v>
+        <v>308</v>
       </c>
       <c r="C49" t="s">
-        <v>286</v>
+        <v>309</v>
       </c>
       <c r="D49" t="s">
         <v>48</v>
@@ -8975,7 +9107,7 @@
         <v>425000</v>
       </c>
       <c r="H49" t="s">
-        <v>287</v>
+        <v>310</v>
       </c>
       <c r="I49" t="s">
         <v>48</v>
@@ -9029,7 +9161,7 @@
         <v>840000</v>
       </c>
       <c r="Z49" t="s">
-        <v>288</v>
+        <v>311</v>
       </c>
       <c r="AA49" t="s">
         <v>48</v>
@@ -9037,23 +9169,24 @@
       <c r="AB49" t="s">
         <v>48</v>
       </c>
-      <c r="AC49" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD49" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE49" t="s">
-        <v>48</v>
+      <c r="AC49">
+        <v>6</v>
+      </c>
+      <c r="AD49">
+        <v>120000</v>
+      </c>
+      <c r="AE49">
+        <v>720000</v>
       </c>
       <c r="AF49" t="s">
-        <v>48</v>
+        <v>312</v>
       </c>
       <c r="AG49" t="s">
         <v>48</v>
       </c>
-      <c r="AH49" t="s">
-        <v>48</v>
+      <c r="AH49" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="AI49" t="s">
         <v>48</v>
@@ -9097,10 +9230,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>289</v>
+        <v>313</v>
       </c>
       <c r="C50" t="s">
-        <v>290</v>
+        <v>314</v>
       </c>
       <c r="D50" t="s">
         <v>48</v>
@@ -9115,7 +9248,7 @@
         <v>2100000</v>
       </c>
       <c r="H50" t="s">
-        <v>291</v>
+        <v>315</v>
       </c>
       <c r="I50" t="s">
         <v>48</v>
@@ -9133,7 +9266,7 @@
         <v>750000</v>
       </c>
       <c r="N50" t="s">
-        <v>292</v>
+        <v>316</v>
       </c>
       <c r="O50" t="s">
         <v>48</v>
@@ -9151,7 +9284,7 @@
         <v>750000</v>
       </c>
       <c r="T50" t="s">
-        <v>293</v>
+        <v>317</v>
       </c>
       <c r="U50" t="s">
         <v>48</v>
@@ -9169,7 +9302,7 @@
         <v>750000</v>
       </c>
       <c r="Z50" t="s">
-        <v>294</v>
+        <v>318</v>
       </c>
       <c r="AA50" t="s">
         <v>48</v>
@@ -9187,13 +9320,14 @@
         <v>750000</v>
       </c>
       <c r="AF50" t="s">
-        <v>295</v>
+        <v>319</v>
       </c>
       <c r="AG50" t="s">
         <v>48</v>
       </c>
-      <c r="AH50" t="s">
-        <v>48</v>
+      <c r="AH50" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="AI50" t="s">
         <v>48</v>
@@ -9237,10 +9371,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>296</v>
+        <v>320</v>
       </c>
       <c r="C51" t="s">
-        <v>297</v>
+        <v>321</v>
       </c>
       <c r="D51" t="s">
         <v>48</v>
@@ -9330,10 +9464,11 @@
         <v>48</v>
       </c>
       <c r="AG51" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH51" t="s">
-        <v>48</v>
+        <v>321</v>
+      </c>
+      <c r="AH51" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="AI51" t="s">
         <v>48</v>
@@ -9377,10 +9512,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>298</v>
+        <v>322</v>
       </c>
       <c r="C52" t="s">
-        <v>299</v>
+        <v>323</v>
       </c>
       <c r="D52" t="s">
         <v>48</v>
@@ -9395,7 +9530,7 @@
         <v>405000</v>
       </c>
       <c r="H52" t="s">
-        <v>300</v>
+        <v>324</v>
       </c>
       <c r="I52" t="s">
         <v>48</v>
@@ -9413,7 +9548,7 @@
         <v>720000</v>
       </c>
       <c r="N52" t="s">
-        <v>301</v>
+        <v>325</v>
       </c>
       <c r="O52" t="s">
         <v>48</v>
@@ -9431,7 +9566,7 @@
         <v>720000</v>
       </c>
       <c r="T52" t="s">
-        <v>302</v>
+        <v>326</v>
       </c>
       <c r="U52" t="s">
         <v>48</v>
@@ -9457,23 +9592,24 @@
       <c r="AB52" t="s">
         <v>48</v>
       </c>
-      <c r="AC52" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD52" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE52" t="s">
-        <v>48</v>
+      <c r="AC52">
+        <v>8</v>
+      </c>
+      <c r="AD52">
+        <v>90000</v>
+      </c>
+      <c r="AE52">
+        <v>720000</v>
       </c>
       <c r="AF52" t="s">
-        <v>48</v>
+        <v>327</v>
       </c>
       <c r="AG52" t="s">
         <v>48</v>
       </c>
-      <c r="AH52" t="s">
-        <v>48</v>
+      <c r="AH52" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="AI52" t="s">
         <v>48</v>
@@ -9517,10 +9653,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>303</v>
+        <v>328</v>
       </c>
       <c r="C53" t="s">
-        <v>304</v>
+        <v>329</v>
       </c>
       <c r="D53" t="s">
         <v>48</v>
@@ -9535,7 +9671,7 @@
         <v>530000</v>
       </c>
       <c r="H53" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="I53" t="s">
         <v>48</v>
@@ -9553,7 +9689,7 @@
         <v>650000</v>
       </c>
       <c r="N53" t="s">
-        <v>306</v>
+        <v>331</v>
       </c>
       <c r="O53" t="s">
         <v>48</v>
@@ -9571,7 +9707,7 @@
         <v>670000</v>
       </c>
       <c r="T53" t="s">
-        <v>307</v>
+        <v>332</v>
       </c>
       <c r="U53" t="s">
         <v>48</v>
@@ -9589,7 +9725,7 @@
         <v>690000</v>
       </c>
       <c r="Z53" t="s">
-        <v>308</v>
+        <v>333</v>
       </c>
       <c r="AA53" t="s">
         <v>48</v>
@@ -9597,23 +9733,24 @@
       <c r="AB53" t="s">
         <v>48</v>
       </c>
-      <c r="AC53" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD53" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE53" t="s">
-        <v>48</v>
+      <c r="AC53">
+        <v>5</v>
+      </c>
+      <c r="AD53">
+        <v>139000</v>
+      </c>
+      <c r="AE53">
+        <v>695000</v>
       </c>
       <c r="AF53" t="s">
-        <v>48</v>
+        <v>334</v>
       </c>
       <c r="AG53" t="s">
         <v>48</v>
       </c>
-      <c r="AH53" t="s">
-        <v>48</v>
+      <c r="AH53" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="AI53" t="s">
         <v>48</v>
@@ -9657,10 +9794,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>309</v>
+        <v>335</v>
       </c>
       <c r="C54" t="s">
-        <v>310</v>
+        <v>336</v>
       </c>
       <c r="D54" t="s">
         <v>48</v>
@@ -9675,7 +9812,7 @@
         <v>405000</v>
       </c>
       <c r="H54" t="s">
-        <v>311</v>
+        <v>337</v>
       </c>
       <c r="I54" t="s">
         <v>48</v>
@@ -9693,7 +9830,7 @@
         <v>48</v>
       </c>
       <c r="N54" t="s">
-        <v>312</v>
+        <v>338</v>
       </c>
       <c r="O54" t="s">
         <v>48</v>
@@ -9711,7 +9848,7 @@
         <v>635000</v>
       </c>
       <c r="T54" t="s">
-        <v>313</v>
+        <v>339</v>
       </c>
       <c r="U54" t="s">
         <v>48</v>
@@ -9729,7 +9866,7 @@
         <v>640000</v>
       </c>
       <c r="Z54" t="s">
-        <v>314</v>
+        <v>340</v>
       </c>
       <c r="AA54" t="s">
         <v>48</v>
@@ -9737,23 +9874,24 @@
       <c r="AB54" t="s">
         <v>48</v>
       </c>
-      <c r="AC54" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD54" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE54" t="s">
-        <v>48</v>
+      <c r="AC54">
+        <v>5</v>
+      </c>
+      <c r="AD54">
+        <v>127000</v>
+      </c>
+      <c r="AE54">
+        <v>635000</v>
       </c>
       <c r="AF54" t="s">
-        <v>48</v>
+        <v>341</v>
       </c>
       <c r="AG54" t="s">
         <v>48</v>
       </c>
-      <c r="AH54" t="s">
-        <v>48</v>
+      <c r="AH54" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="AI54" t="s">
         <v>48</v>
@@ -9797,10 +9935,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>315</v>
+        <v>342</v>
       </c>
       <c r="C55" t="s">
-        <v>316</v>
+        <v>343</v>
       </c>
       <c r="D55" t="s">
         <v>48</v>
@@ -9815,7 +9953,7 @@
         <v>570000</v>
       </c>
       <c r="H55" t="s">
-        <v>317</v>
+        <v>344</v>
       </c>
       <c r="I55" t="s">
         <v>48</v>
@@ -9833,7 +9971,7 @@
         <v>530000</v>
       </c>
       <c r="N55" t="s">
-        <v>318</v>
+        <v>345</v>
       </c>
       <c r="O55" t="s">
         <v>48</v>
@@ -9851,7 +9989,7 @@
         <v>728000</v>
       </c>
       <c r="T55" t="s">
-        <v>319</v>
+        <v>346</v>
       </c>
       <c r="U55" t="s">
         <v>48</v>
@@ -9869,7 +10007,7 @@
         <v>756000</v>
       </c>
       <c r="Z55" t="s">
-        <v>320</v>
+        <v>347</v>
       </c>
       <c r="AA55" t="s">
         <v>48</v>
@@ -9887,13 +10025,14 @@
         <v>749000</v>
       </c>
       <c r="AF55" t="s">
-        <v>321</v>
+        <v>348</v>
       </c>
       <c r="AG55" t="s">
         <v>48</v>
       </c>
-      <c r="AH55" t="s">
-        <v>48</v>
+      <c r="AH55" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="AI55" t="s">
         <v>48</v>
@@ -9937,10 +10076,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>322</v>
+        <v>349</v>
       </c>
       <c r="C56" t="s">
-        <v>323</v>
+        <v>350</v>
       </c>
       <c r="D56" t="s">
         <v>48</v>
@@ -9955,7 +10094,7 @@
         <v>500000</v>
       </c>
       <c r="H56" t="s">
-        <v>324</v>
+        <v>351</v>
       </c>
       <c r="I56" t="s">
         <v>48</v>
@@ -9973,7 +10112,7 @@
         <v>700000</v>
       </c>
       <c r="N56" t="s">
-        <v>325</v>
+        <v>352</v>
       </c>
       <c r="O56" t="s">
         <v>48</v>
@@ -9991,7 +10130,7 @@
         <v>840000</v>
       </c>
       <c r="T56" t="s">
-        <v>326</v>
+        <v>353</v>
       </c>
       <c r="U56" t="s">
         <v>48</v>
@@ -10009,7 +10148,7 @@
         <v>980000</v>
       </c>
       <c r="Z56" t="s">
-        <v>327</v>
+        <v>354</v>
       </c>
       <c r="AA56" t="s">
         <v>48</v>
@@ -10027,13 +10166,14 @@
         <v>980000</v>
       </c>
       <c r="AF56" t="s">
-        <v>328</v>
+        <v>355</v>
       </c>
       <c r="AG56" t="s">
         <v>48</v>
       </c>
-      <c r="AH56" t="s">
-        <v>48</v>
+      <c r="AH56" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="AI56" t="s">
         <v>48</v>
@@ -10077,10 +10217,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>329</v>
+        <v>356</v>
       </c>
       <c r="C57" t="s">
-        <v>330</v>
+        <v>357</v>
       </c>
       <c r="D57" t="s">
         <v>48</v>
@@ -10172,8 +10312,9 @@
       <c r="AG57" t="s">
         <v>48</v>
       </c>
-      <c r="AH57" t="s">
-        <v>48</v>
+      <c r="AH57" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="AI57" t="s">
         <v>48</v>
@@ -10217,10 +10358,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>331</v>
+        <v>358</v>
       </c>
       <c r="C58" t="s">
-        <v>332</v>
+        <v>359</v>
       </c>
       <c r="D58" t="s">
         <v>48</v>
@@ -10235,7 +10376,7 @@
         <v>470000</v>
       </c>
       <c r="H58" t="s">
-        <v>333</v>
+        <v>360</v>
       </c>
       <c r="I58" t="s">
         <v>48</v>
@@ -10253,7 +10394,7 @@
         <v>702000</v>
       </c>
       <c r="N58" t="s">
-        <v>334</v>
+        <v>361</v>
       </c>
       <c r="O58" t="s">
         <v>48</v>
@@ -10271,7 +10412,7 @@
         <v>651000</v>
       </c>
       <c r="T58" t="s">
-        <v>335</v>
+        <v>362</v>
       </c>
       <c r="U58" t="s">
         <v>48</v>
@@ -10289,7 +10430,7 @@
         <v>658000</v>
       </c>
       <c r="Z58" t="s">
-        <v>336</v>
+        <v>363</v>
       </c>
       <c r="AA58" t="s">
         <v>48</v>
@@ -10297,23 +10438,24 @@
       <c r="AB58" t="s">
         <v>48</v>
       </c>
-      <c r="AC58" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD58" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE58" t="s">
-        <v>48</v>
+      <c r="AC58">
+        <v>7</v>
+      </c>
+      <c r="AD58">
+        <v>94000</v>
+      </c>
+      <c r="AE58">
+        <v>658000</v>
       </c>
       <c r="AF58" t="s">
-        <v>48</v>
+        <v>364</v>
       </c>
       <c r="AG58" t="s">
         <v>48</v>
       </c>
-      <c r="AH58" t="s">
-        <v>48</v>
+      <c r="AH58" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="AI58" t="s">
         <v>48</v>
@@ -10357,10 +10499,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>337</v>
+        <v>365</v>
       </c>
       <c r="C59" t="s">
-        <v>338</v>
+        <v>366</v>
       </c>
       <c r="D59" t="s">
         <v>48</v>
@@ -10450,10 +10592,11 @@
         <v>48</v>
       </c>
       <c r="AG59" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH59" t="s">
-        <v>48</v>
+        <v>366</v>
+      </c>
+      <c r="AH59" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="AI59" t="s">
         <v>48</v>
@@ -10497,10 +10640,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>339</v>
+        <v>367</v>
       </c>
       <c r="C60" t="s">
-        <v>340</v>
+        <v>368</v>
       </c>
       <c r="D60" t="s">
         <v>48</v>
@@ -10515,7 +10658,7 @@
         <v>750000</v>
       </c>
       <c r="H60" t="s">
-        <v>341</v>
+        <v>369</v>
       </c>
       <c r="I60" t="s">
         <v>48</v>
@@ -10533,7 +10676,7 @@
         <v>720000</v>
       </c>
       <c r="N60" t="s">
-        <v>342</v>
+        <v>370</v>
       </c>
       <c r="O60" t="s">
         <v>48</v>
@@ -10551,7 +10694,7 @@
         <v>720000</v>
       </c>
       <c r="T60" t="s">
-        <v>343</v>
+        <v>371</v>
       </c>
       <c r="U60" t="s">
         <v>48</v>
@@ -10569,7 +10712,7 @@
         <v>774000</v>
       </c>
       <c r="Z60" t="s">
-        <v>344</v>
+        <v>372</v>
       </c>
       <c r="AA60" t="s">
         <v>48</v>
@@ -10577,23 +10720,24 @@
       <c r="AB60" t="s">
         <v>48</v>
       </c>
-      <c r="AC60" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD60" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE60" t="s">
-        <v>48</v>
+      <c r="AC60">
+        <v>5</v>
+      </c>
+      <c r="AD60">
+        <v>130000</v>
+      </c>
+      <c r="AE60">
+        <v>650000</v>
       </c>
       <c r="AF60" t="s">
-        <v>48</v>
+        <v>373</v>
       </c>
       <c r="AG60" t="s">
         <v>48</v>
       </c>
-      <c r="AH60" t="s">
-        <v>48</v>
+      <c r="AH60" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="AI60" t="s">
         <v>48</v>
@@ -10637,10 +10781,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>345</v>
+        <v>374</v>
       </c>
       <c r="C61" t="s">
-        <v>346</v>
+        <v>375</v>
       </c>
       <c r="D61" t="s">
         <v>48</v>
@@ -10655,7 +10799,7 @@
         <v>695000</v>
       </c>
       <c r="H61" t="s">
-        <v>347</v>
+        <v>376</v>
       </c>
       <c r="I61" t="s">
         <v>48</v>
@@ -10673,7 +10817,7 @@
         <v>650430</v>
       </c>
       <c r="N61" t="s">
-        <v>348</v>
+        <v>377</v>
       </c>
       <c r="O61" t="s">
         <v>48</v>
@@ -10691,7 +10835,7 @@
         <v>691188</v>
       </c>
       <c r="T61" t="s">
-        <v>349</v>
+        <v>378</v>
       </c>
       <c r="U61" t="s">
         <v>48</v>
@@ -10709,7 +10853,7 @@
         <v>701166</v>
       </c>
       <c r="Z61" t="s">
-        <v>350</v>
+        <v>379</v>
       </c>
       <c r="AA61" t="s">
         <v>48</v>
@@ -10727,13 +10871,14 @@
         <v>713370</v>
       </c>
       <c r="AF61" t="s">
-        <v>351</v>
+        <v>380</v>
       </c>
       <c r="AG61" t="s">
         <v>48</v>
       </c>
-      <c r="AH61" t="s">
-        <v>48</v>
+      <c r="AH61" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="AI61" t="s">
         <v>48</v>
@@ -10777,10 +10922,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>352</v>
+        <v>381</v>
       </c>
       <c r="C62" t="s">
-        <v>353</v>
+        <v>382</v>
       </c>
       <c r="D62" t="s">
         <v>48</v>
@@ -10813,7 +10958,7 @@
         <v>684000</v>
       </c>
       <c r="N62" t="s">
-        <v>354</v>
+        <v>383</v>
       </c>
       <c r="O62" t="s">
         <v>48</v>
@@ -10821,17 +10966,17 @@
       <c r="P62" t="s">
         <v>48</v>
       </c>
-      <c r="Q62" t="s">
-        <v>48</v>
-      </c>
-      <c r="R62" t="s">
-        <v>48</v>
-      </c>
-      <c r="S62" t="s">
-        <v>48</v>
+      <c r="Q62">
+        <v>9</v>
+      </c>
+      <c r="R62">
+        <v>78000</v>
+      </c>
+      <c r="S62">
+        <v>702000</v>
       </c>
       <c r="T62" t="s">
-        <v>48</v>
+        <v>384</v>
       </c>
       <c r="U62" t="s">
         <v>48</v>
@@ -10849,7 +10994,7 @@
         <v>656000</v>
       </c>
       <c r="Z62" t="s">
-        <v>355</v>
+        <v>385</v>
       </c>
       <c r="AA62" t="s">
         <v>48</v>
@@ -10857,23 +11002,24 @@
       <c r="AB62" t="s">
         <v>48</v>
       </c>
-      <c r="AC62" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD62" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE62" t="s">
-        <v>48</v>
+      <c r="AC62">
+        <v>8</v>
+      </c>
+      <c r="AD62">
+        <v>83000</v>
+      </c>
+      <c r="AE62">
+        <v>664000</v>
       </c>
       <c r="AF62" t="s">
-        <v>48</v>
+        <v>386</v>
       </c>
       <c r="AG62" t="s">
         <v>48</v>
       </c>
-      <c r="AH62" t="s">
-        <v>48</v>
+      <c r="AH62" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="AI62" t="s">
         <v>48</v>
@@ -10917,10 +11063,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>356</v>
+        <v>387</v>
       </c>
       <c r="C63" t="s">
-        <v>357</v>
+        <v>388</v>
       </c>
       <c r="D63" t="s">
         <v>48</v>
@@ -10989,7 +11135,7 @@
         <v>990000</v>
       </c>
       <c r="Z63" t="s">
-        <v>358</v>
+        <v>389</v>
       </c>
       <c r="AA63" t="s">
         <v>48</v>
@@ -11007,13 +11153,14 @@
         <v>679000</v>
       </c>
       <c r="AF63" t="s">
-        <v>359</v>
+        <v>390</v>
       </c>
       <c r="AG63" t="s">
         <v>48</v>
       </c>
-      <c r="AH63" t="s">
-        <v>48</v>
+      <c r="AH63" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="AI63" t="s">
         <v>48</v>
@@ -11057,10 +11204,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>360</v>
+        <v>391</v>
       </c>
       <c r="C64" t="s">
-        <v>361</v>
+        <v>392</v>
       </c>
       <c r="D64" t="s">
         <v>48</v>
@@ -11075,7 +11222,7 @@
         <v>430000</v>
       </c>
       <c r="H64" t="s">
-        <v>362</v>
+        <v>393</v>
       </c>
       <c r="I64" t="s">
         <v>48</v>
@@ -11093,7 +11240,7 @@
         <v>725000</v>
       </c>
       <c r="N64" t="s">
-        <v>363</v>
+        <v>394</v>
       </c>
       <c r="O64" t="s">
         <v>48</v>
@@ -11111,7 +11258,7 @@
         <v>770000</v>
       </c>
       <c r="T64" t="s">
-        <v>364</v>
+        <v>395</v>
       </c>
       <c r="U64" t="s">
         <v>48</v>
@@ -11129,7 +11276,7 @@
         <v>785000</v>
       </c>
       <c r="Z64" t="s">
-        <v>365</v>
+        <v>396</v>
       </c>
       <c r="AA64" t="s">
         <v>48</v>
@@ -11147,13 +11294,14 @@
         <v>810000</v>
       </c>
       <c r="AF64" t="s">
-        <v>366</v>
+        <v>397</v>
       </c>
       <c r="AG64" t="s">
         <v>48</v>
       </c>
-      <c r="AH64" t="s">
-        <v>48</v>
+      <c r="AH64" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="AI64" t="s">
         <v>48</v>
@@ -11197,10 +11345,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>367</v>
+        <v>398</v>
       </c>
       <c r="C65" t="s">
-        <v>368</v>
+        <v>399</v>
       </c>
       <c r="D65" t="s">
         <v>48</v>
@@ -11215,7 +11363,7 @@
         <v>340000</v>
       </c>
       <c r="H65" t="s">
-        <v>369</v>
+        <v>400</v>
       </c>
       <c r="I65" t="s">
         <v>48</v>
@@ -11233,7 +11381,7 @@
         <v>320000</v>
       </c>
       <c r="N65" t="s">
-        <v>370</v>
+        <v>401</v>
       </c>
       <c r="O65" t="s">
         <v>48</v>
@@ -11251,7 +11399,7 @@
         <v>675000</v>
       </c>
       <c r="T65" t="s">
-        <v>371</v>
+        <v>402</v>
       </c>
       <c r="U65" t="s">
         <v>48</v>
@@ -11269,7 +11417,7 @@
         <v>693000</v>
       </c>
       <c r="Z65" t="s">
-        <v>372</v>
+        <v>403</v>
       </c>
       <c r="AA65" t="s">
         <v>48</v>
@@ -11287,7 +11435,7 @@
         <v>693000</v>
       </c>
       <c r="AF65" t="s">
-        <v>373</v>
+        <v>404</v>
       </c>
       <c r="AG65" t="s">
         <v>48</v>
@@ -11337,10 +11485,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>374</v>
+        <v>405</v>
       </c>
       <c r="C66" t="s">
-        <v>375</v>
+        <v>406</v>
       </c>
       <c r="D66" t="s">
         <v>48</v>
@@ -11355,7 +11503,7 @@
         <v>500000</v>
       </c>
       <c r="H66" t="s">
-        <v>376</v>
+        <v>407</v>
       </c>
       <c r="I66" t="s">
         <v>48</v>
@@ -11373,7 +11521,7 @@
         <v>732000</v>
       </c>
       <c r="N66" t="s">
-        <v>377</v>
+        <v>408</v>
       </c>
       <c r="O66" t="s">
         <v>48</v>
@@ -11391,7 +11539,7 @@
         <v>738000</v>
       </c>
       <c r="T66" t="s">
-        <v>378</v>
+        <v>409</v>
       </c>
       <c r="U66" t="s">
         <v>48</v>
@@ -11409,7 +11557,7 @@
         <v>750000</v>
       </c>
       <c r="Z66" t="s">
-        <v>379</v>
+        <v>410</v>
       </c>
       <c r="AA66" t="s">
         <v>48</v>
@@ -11417,17 +11565,17 @@
       <c r="AB66" t="s">
         <v>48</v>
       </c>
-      <c r="AC66" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD66" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE66" t="s">
-        <v>48</v>
+      <c r="AC66">
+        <v>6</v>
+      </c>
+      <c r="AD66">
+        <v>125000</v>
+      </c>
+      <c r="AE66">
+        <v>750000</v>
       </c>
       <c r="AF66" t="s">
-        <v>48</v>
+        <v>411</v>
       </c>
       <c r="AG66" t="s">
         <v>48</v>
@@ -11477,10 +11625,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>380</v>
+        <v>412</v>
       </c>
       <c r="C67" t="s">
-        <v>381</v>
+        <v>413</v>
       </c>
       <c r="D67" t="s">
         <v>48</v>
@@ -11495,7 +11643,7 @@
         <v>522650</v>
       </c>
       <c r="H67" t="s">
-        <v>382</v>
+        <v>414</v>
       </c>
       <c r="I67" t="s">
         <v>48</v>
@@ -11513,7 +11661,7 @@
         <v>635815</v>
       </c>
       <c r="N67" t="s">
-        <v>383</v>
+        <v>415</v>
       </c>
       <c r="O67" t="s">
         <v>48</v>
@@ -11531,7 +11679,7 @@
         <v>399780</v>
       </c>
       <c r="T67" t="s">
-        <v>384</v>
+        <v>416</v>
       </c>
       <c r="U67" t="s">
         <v>48</v>
@@ -11549,7 +11697,7 @@
         <v>1206555</v>
       </c>
       <c r="Z67" t="s">
-        <v>385</v>
+        <v>417</v>
       </c>
       <c r="AA67" t="s">
         <v>48</v>
@@ -11557,17 +11705,17 @@
       <c r="AB67" t="s">
         <v>48</v>
       </c>
-      <c r="AC67" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD67" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE67" t="s">
-        <v>48</v>
+      <c r="AC67">
+        <v>6</v>
+      </c>
+      <c r="AD67">
+        <v>151400</v>
+      </c>
+      <c r="AE67">
+        <v>908400</v>
       </c>
       <c r="AF67" t="s">
-        <v>48</v>
+        <v>418</v>
       </c>
       <c r="AG67" t="s">
         <v>48</v>
@@ -11617,10 +11765,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>386</v>
+        <v>419</v>
       </c>
       <c r="C68" t="s">
-        <v>387</v>
+        <v>420</v>
       </c>
       <c r="D68" t="s">
         <v>48</v>
@@ -11635,7 +11783,7 @@
         <v>660000</v>
       </c>
       <c r="H68" t="s">
-        <v>388</v>
+        <v>421</v>
       </c>
       <c r="I68" t="s">
         <v>48</v>
@@ -11653,7 +11801,7 @@
         <v>655000</v>
       </c>
       <c r="N68" t="s">
-        <v>389</v>
+        <v>422</v>
       </c>
       <c r="O68" t="s">
         <v>48</v>
@@ -11671,7 +11819,7 @@
         <v>660000</v>
       </c>
       <c r="T68" t="s">
-        <v>390</v>
+        <v>423</v>
       </c>
       <c r="U68" t="s">
         <v>48</v>
@@ -11689,7 +11837,7 @@
         <v>670000</v>
       </c>
       <c r="Z68" t="s">
-        <v>391</v>
+        <v>424</v>
       </c>
       <c r="AA68" t="s">
         <v>48</v>
@@ -11707,7 +11855,7 @@
         <v>675000</v>
       </c>
       <c r="AF68" t="s">
-        <v>392</v>
+        <v>425</v>
       </c>
       <c r="AG68" t="s">
         <v>48</v>
@@ -11757,10 +11905,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>393</v>
+        <v>426</v>
       </c>
       <c r="C69" t="s">
-        <v>394</v>
+        <v>427</v>
       </c>
       <c r="D69" t="s">
         <v>48</v>
@@ -11837,17 +11985,17 @@
       <c r="AB69" t="s">
         <v>48</v>
       </c>
-      <c r="AC69" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD69" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE69" t="s">
-        <v>48</v>
+      <c r="AC69">
+        <v>5</v>
+      </c>
+      <c r="AD69">
+        <v>118000</v>
+      </c>
+      <c r="AE69">
+        <v>590000</v>
       </c>
       <c r="AF69" t="s">
-        <v>48</v>
+        <v>428</v>
       </c>
       <c r="AG69" t="s">
         <v>48</v>

--- a/落花机密表_糙汉子版.xlsx
+++ b/落花机密表_糙汉子版.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2298" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2357" uniqueCount="430">
   <si>
     <t>QQ</t>
   </si>
@@ -182,613 +182,637 @@
     <t>落花@冷月小猫泪</t>
   </si>
   <si>
+    <t>2019-08-31 00:55:18</t>
+  </si>
+  <si>
+    <t>cydjl@qq.com</t>
+  </si>
+  <si>
+    <t>落花 花浔</t>
+  </si>
+  <si>
+    <t>2019-08-26 19:24:36</t>
+  </si>
+  <si>
+    <t>2019-08-27 23:44:43</t>
+  </si>
+  <si>
+    <t>2019-08-28 21:04:10</t>
+  </si>
+  <si>
+    <t>2019-08-29 19:28:46</t>
+  </si>
+  <si>
+    <t>2019-08-30 18:50:09</t>
+  </si>
+  <si>
+    <t>992526373</t>
+  </si>
+  <si>
+    <t>落花 slily</t>
+  </si>
+  <si>
+    <t>2019-08-26 21:54:02</t>
+  </si>
+  <si>
+    <t>2019-08-27 19:18:25</t>
+  </si>
+  <si>
+    <t>2019-08-28 23:39:19</t>
+  </si>
+  <si>
+    <t>2019-08-29 22:51:28</t>
+  </si>
+  <si>
+    <t>2019-08-30 13:53:43</t>
+  </si>
+  <si>
+    <t>974687361</t>
+  </si>
+  <si>
+    <t>落花-清水</t>
+  </si>
+  <si>
+    <t>2019-08-26 19:30:52</t>
+  </si>
+  <si>
+    <t>2019-08-30 06:08:29</t>
+  </si>
+  <si>
+    <t>924110951</t>
+  </si>
+  <si>
+    <t>落花@楚锦妮</t>
+  </si>
+  <si>
+    <t>923418164</t>
+  </si>
+  <si>
+    <t>落花 千早</t>
+  </si>
+  <si>
+    <t>2019-08-26 19:23:00</t>
+  </si>
+  <si>
+    <t>2019-08-27 15:18:48</t>
+  </si>
+  <si>
+    <t>2019-08-28 19:17:49</t>
+  </si>
+  <si>
+    <t>2019-08-29 13:08:31</t>
+  </si>
+  <si>
+    <t>2019-08-30 15:39:00</t>
+  </si>
+  <si>
+    <t>845423216</t>
+  </si>
+  <si>
+    <t>落花-Clear1</t>
+  </si>
+  <si>
+    <t>2019-08-26 07:00:53</t>
+  </si>
+  <si>
+    <t>2019-08-27 10:05:35</t>
+  </si>
+  <si>
+    <t>2019-08-28 06:12:36</t>
+  </si>
+  <si>
+    <t>2019-08-29 07:42:14</t>
+  </si>
+  <si>
+    <t>2019-08-30 05:36:49</t>
+  </si>
+  <si>
+    <t>823284435</t>
+  </si>
+  <si>
+    <t>落花—鸭小梨</t>
+  </si>
+  <si>
+    <t>821515617</t>
+  </si>
+  <si>
+    <t>落花-谢南</t>
+  </si>
+  <si>
+    <t>2019-08-27 13:28:34</t>
+  </si>
+  <si>
+    <t>2019-08-29 01:03:19</t>
+  </si>
+  <si>
+    <t>2019-08-30 20:44:27</t>
+  </si>
+  <si>
+    <t>793019511</t>
+  </si>
+  <si>
+    <t>落花ฅ稷晞</t>
+  </si>
+  <si>
+    <t>2019-08-26 22:47:57</t>
+  </si>
+  <si>
+    <t>2019-08-27 07:57:50</t>
+  </si>
+  <si>
+    <t>2019-08-28 08:08:28</t>
+  </si>
+  <si>
+    <t>2019-08-29 08:40:08</t>
+  </si>
+  <si>
+    <t>2019-08-30 12:00:01</t>
+  </si>
+  <si>
+    <t>784945709</t>
+  </si>
+  <si>
+    <t>落花.花祭夜.今天都打卡了嘛！</t>
+  </si>
+  <si>
+    <t>2019-08-26 07:58:46</t>
+  </si>
+  <si>
+    <t>2019-08-27 07:50:44</t>
+  </si>
+  <si>
+    <t>2019-08-28 11:28:23</t>
+  </si>
+  <si>
+    <t>2019-08-29 16:36:15</t>
+  </si>
+  <si>
+    <t>2019-08-30 19:15:09</t>
+  </si>
+  <si>
+    <t>781898849</t>
+  </si>
+  <si>
+    <t>落花-KGAoi</t>
+  </si>
+  <si>
+    <t>2019-08-26 15:48:37</t>
+  </si>
+  <si>
+    <t>2019-08-27 09:35:37</t>
+  </si>
+  <si>
+    <t>2019-08-28 17:19:44</t>
+  </si>
+  <si>
+    <t>2019-08-29 08:52:51</t>
+  </si>
+  <si>
+    <t>2019-08-30 20:38:22</t>
+  </si>
+  <si>
+    <t>779867533</t>
+  </si>
+  <si>
+    <t>落花๑顾安白</t>
+  </si>
+  <si>
+    <t>2019-08-26 12:09:00</t>
+  </si>
+  <si>
+    <t>2019-08-27 12:00:05</t>
+  </si>
+  <si>
+    <t>2019-08-28 07:33:42</t>
+  </si>
+  <si>
+    <t>2019-08-29 07:39:38</t>
+  </si>
+  <si>
+    <t>2019-08-30 08:58:32</t>
+  </si>
+  <si>
+    <t>769521738</t>
+  </si>
+  <si>
+    <t>落花-白茶</t>
+  </si>
+  <si>
+    <t>2019-08-26 10:35:46</t>
+  </si>
+  <si>
+    <t>2019-08-27 10:22:49</t>
+  </si>
+  <si>
+    <t>2019-08-28 10:50:04</t>
+  </si>
+  <si>
+    <t>2019-08-29 08:12:41</t>
+  </si>
+  <si>
+    <t>2019-08-30 07:54:31</t>
+  </si>
+  <si>
+    <t>745415648</t>
+  </si>
+  <si>
+    <t>落花 小虚</t>
+  </si>
+  <si>
+    <t>2019-08-26 15:49:37</t>
+  </si>
+  <si>
+    <t>2019-08-27 10:09:49</t>
+  </si>
+  <si>
+    <t>2019-08-28 10:42:22</t>
+  </si>
+  <si>
+    <t>2019-08-29 11:34:20</t>
+  </si>
+  <si>
+    <t>2019-08-30 14:19:34</t>
+  </si>
+  <si>
+    <t>727791466</t>
+  </si>
+  <si>
+    <t>落花+天辟</t>
+  </si>
+  <si>
+    <t>2019-08-26 19:32:02</t>
+  </si>
+  <si>
+    <t>2019-08-27 12:08:17</t>
+  </si>
+  <si>
+    <t>2019-08-28 17:13:05</t>
+  </si>
+  <si>
+    <t>2019-08-29 18:40:40</t>
+  </si>
+  <si>
+    <t>2019-08-30 11:51:49</t>
+  </si>
+  <si>
+    <t>724187504</t>
+  </si>
+  <si>
+    <t>落花⭐Rai</t>
+  </si>
+  <si>
+    <t>2019-08-26 21:21:37</t>
+  </si>
+  <si>
+    <t>2019-08-27 21:14:07</t>
+  </si>
+  <si>
+    <t>2019-08-28 09:33:42</t>
+  </si>
+  <si>
+    <t>2019-08-29 09:45:46</t>
+  </si>
+  <si>
+    <t>2019-08-30 13:47:33</t>
+  </si>
+  <si>
+    <t>710237833</t>
+  </si>
+  <si>
+    <t>落花 可露丽</t>
+  </si>
+  <si>
+    <t>2019-08-26 06:57:01</t>
+  </si>
+  <si>
+    <t>2019-08-27 09:02:17</t>
+  </si>
+  <si>
+    <t>2019-08-28 11:28:01</t>
+  </si>
+  <si>
+    <t>2019-08-29 16:15:31</t>
+  </si>
+  <si>
+    <t>2019-08-30 19:16:47</t>
+  </si>
+  <si>
+    <t>651570472</t>
+  </si>
+  <si>
+    <t>落花 EXO</t>
+  </si>
+  <si>
+    <t>2019-08-26 19:05:24</t>
+  </si>
+  <si>
+    <t>2019-08-27 09:22:03</t>
+  </si>
+  <si>
+    <t>2019-08-28 09:30:25</t>
+  </si>
+  <si>
+    <t>2019-08-29 12:04:02</t>
+  </si>
+  <si>
+    <t>2019-08-30 19:26:53</t>
+  </si>
+  <si>
+    <t>648875355</t>
+  </si>
+  <si>
+    <t>落花—陆阮阮</t>
+  </si>
+  <si>
+    <t>2019-08-26 19:29:05</t>
+  </si>
+  <si>
+    <t>2019-08-27 09:45:59</t>
+  </si>
+  <si>
+    <t>2019-08-28 13:53:31</t>
+  </si>
+  <si>
+    <t>2019-08-29 19:39:51</t>
+  </si>
+  <si>
+    <t>2019-08-31 00:17:30</t>
+  </si>
+  <si>
+    <t>535509797</t>
+  </si>
+  <si>
+    <t>落花，灰姐</t>
+  </si>
+  <si>
+    <t>2019-08-26 19:43:11</t>
+  </si>
+  <si>
+    <t>2019-08-27 18:33:27</t>
+  </si>
+  <si>
+    <t>2019-08-28 18:41:43</t>
+  </si>
+  <si>
+    <t>2019-08-29 19:18:31</t>
+  </si>
+  <si>
+    <t>2019-08-30 22:35:56</t>
+  </si>
+  <si>
+    <t>505644622</t>
+  </si>
+  <si>
+    <t>落花◈啾啾</t>
+  </si>
+  <si>
+    <t>2019-08-26 21:24:53</t>
+  </si>
+  <si>
+    <t>2019-08-27 19:26:08</t>
+  </si>
+  <si>
+    <t>2019-08-29 00:09:46</t>
+  </si>
+  <si>
+    <t>2019-08-31 00:14:44</t>
+  </si>
+  <si>
+    <t>491384166</t>
+  </si>
+  <si>
+    <t>落花@藤原千花</t>
+  </si>
+  <si>
+    <t>2019-08-26 07:48:11</t>
+  </si>
+  <si>
+    <t>2019-08-27 20:33:21</t>
+  </si>
+  <si>
+    <t>2019-08-28 10:14:34</t>
+  </si>
+  <si>
+    <t>2019-08-29 19:08:40</t>
+  </si>
+  <si>
+    <t>2019-08-30 19:09:50</t>
+  </si>
+  <si>
+    <t>30137763</t>
+  </si>
+  <si>
+    <t>落花樱茶</t>
+  </si>
+  <si>
+    <t>1327354755</t>
+  </si>
+  <si>
+    <t>落花 清水奈绪子</t>
+  </si>
+  <si>
+    <t>2019-08-26 12:41:21</t>
+  </si>
+  <si>
+    <t>2019-08-27 07:54:49</t>
+  </si>
+  <si>
+    <t>2019-08-28 17:02:13</t>
+  </si>
+  <si>
+    <t>2019-08-29 08:55:25</t>
+  </si>
+  <si>
+    <t>2019-08-30 22:57:27</t>
+  </si>
+  <si>
+    <t>39302003</t>
+  </si>
+  <si>
+    <t>落花 神仙</t>
+  </si>
+  <si>
+    <t>3504245791</t>
+  </si>
+  <si>
+    <t>落花-瓷羽</t>
+  </si>
+  <si>
+    <t>2753247176</t>
+  </si>
+  <si>
+    <t>落花－白寄岚</t>
+  </si>
+  <si>
+    <t>2019-08-26 07:12:45</t>
+  </si>
+  <si>
+    <t>2019-08-27 05:18:11</t>
+  </si>
+  <si>
+    <t>2019-08-28 19:39:00</t>
+  </si>
+  <si>
+    <t>2019-08-29 07:42:21</t>
+  </si>
+  <si>
+    <t>2019-08-30 08:14:06</t>
+  </si>
+  <si>
+    <t>3476601463</t>
+  </si>
+  <si>
+    <t>落花 阿幼</t>
+  </si>
+  <si>
+    <t>2019-08-26 19:38:04</t>
+  </si>
+  <si>
+    <t>2019-08-27 07:40:24</t>
+  </si>
+  <si>
+    <t>2019-08-28 06:16:07</t>
+  </si>
+  <si>
+    <t>2019-08-30 04:29:34</t>
+  </si>
+  <si>
+    <t>2019-08-30 21:02:54</t>
+  </si>
+  <si>
+    <t>3240236818</t>
+  </si>
+  <si>
+    <t>落花 秦意</t>
+  </si>
+  <si>
+    <t>2019-08-26 11:21:54</t>
+  </si>
+  <si>
+    <t>2019-08-27 10:58:06</t>
+  </si>
+  <si>
+    <t>2019-08-28 09:03:41</t>
+  </si>
+  <si>
+    <t>2019-08-29 08:42:47</t>
+  </si>
+  <si>
+    <t>2019-08-30 09:04:35</t>
+  </si>
+  <si>
+    <t>3200441406</t>
+  </si>
+  <si>
+    <t>落花_草莓有点</t>
+  </si>
+  <si>
+    <t>2971057903</t>
+  </si>
+  <si>
+    <t>落花-细语</t>
+  </si>
+  <si>
+    <t>2940604709</t>
+  </si>
+  <si>
+    <t>落花-24k草莓小葵</t>
+  </si>
+  <si>
+    <t>2661759612</t>
+  </si>
+  <si>
+    <t>落花ˊૢ路希</t>
+  </si>
+  <si>
+    <t>2019-08-26 08:36:11</t>
+  </si>
+  <si>
+    <t>2019-08-27 08:06:48</t>
+  </si>
+  <si>
+    <t>2019-08-28 11:00:44</t>
+  </si>
+  <si>
+    <t>2019-08-29 18:14:48</t>
+  </si>
+  <si>
+    <t>2019-08-30 10:13:49</t>
+  </si>
+  <si>
+    <t>2638588219</t>
+  </si>
+  <si>
+    <t>落花-洱瓷(其他人都有括号那我也要搞一个)</t>
+  </si>
+  <si>
+    <t>2019-08-26 10:09:23</t>
+  </si>
+  <si>
+    <t>2019-08-27 20:47:08</t>
+  </si>
+  <si>
+    <t>2019-08-28 13:19:52</t>
+  </si>
+  <si>
+    <t>2019-08-29 10:58:02</t>
+  </si>
+  <si>
+    <t>2019-08-30 10:58:09</t>
+  </si>
+  <si>
+    <t>2473375876</t>
+  </si>
+  <si>
+    <t>落花林咕啾</t>
+  </si>
+  <si>
+    <t>2019-08-26 19:30:33</t>
+  </si>
+  <si>
+    <t>2019-08-27 12:25:26</t>
+  </si>
+  <si>
+    <t>2019-08-28 19:19:33</t>
+  </si>
+  <si>
+    <t>2019-08-29 14:04:10</t>
+  </si>
+  <si>
+    <t>2019-08-30 12:55:54</t>
+  </si>
+  <si>
+    <t>2406417774</t>
+  </si>
+  <si>
+    <t>落花 苏其凉</t>
+  </si>
+  <si>
+    <t>2019-08-27 01:31:16</t>
+  </si>
+  <si>
+    <t>2019-08-27 23:16:12</t>
+  </si>
+  <si>
+    <t>2019-08-29 00:40:49</t>
+  </si>
+  <si>
+    <t>2019-08-30 21:02:37</t>
+  </si>
+  <si>
+    <t>2192665938</t>
+  </si>
+  <si>
+    <t>落花 奶味汐月</t>
+  </si>
+  <si>
     <t>2019-08-31 00:28:35</t>
   </si>
   <si>
-    <t>cydjl@qq.com</t>
-  </si>
-  <si>
-    <t>落花 花浔</t>
-  </si>
-  <si>
-    <t>2019-08-26 19:24:36</t>
-  </si>
-  <si>
-    <t>2019-08-27 23:44:43</t>
-  </si>
-  <si>
-    <t>2019-08-28 21:04:10</t>
-  </si>
-  <si>
-    <t>2019-08-29 19:28:46</t>
-  </si>
-  <si>
-    <t>2019-08-30 18:50:09</t>
-  </si>
-  <si>
-    <t>992526373</t>
-  </si>
-  <si>
-    <t>落花 slily</t>
-  </si>
-  <si>
-    <t>2019-08-26 21:54:02</t>
-  </si>
-  <si>
-    <t>2019-08-27 19:18:25</t>
-  </si>
-  <si>
-    <t>2019-08-28 23:39:19</t>
-  </si>
-  <si>
-    <t>2019-08-29 22:51:28</t>
-  </si>
-  <si>
-    <t>2019-08-30 13:53:43</t>
-  </si>
-  <si>
-    <t>974687361</t>
-  </si>
-  <si>
-    <t>落花-清水</t>
-  </si>
-  <si>
-    <t>2019-08-26 19:30:52</t>
-  </si>
-  <si>
-    <t>2019-08-30 06:08:29</t>
-  </si>
-  <si>
-    <t>924110951</t>
-  </si>
-  <si>
-    <t>落花@楚锦妮</t>
-  </si>
-  <si>
-    <t>923418164</t>
-  </si>
-  <si>
-    <t>落花🥳千早</t>
-  </si>
-  <si>
-    <t>2019-08-26 19:23:00</t>
-  </si>
-  <si>
-    <t>2019-08-27 15:18:48</t>
-  </si>
-  <si>
-    <t>2019-08-28 19:17:49</t>
-  </si>
-  <si>
-    <t>2019-08-29 13:08:31</t>
-  </si>
-  <si>
-    <t>2019-08-30 15:39:00</t>
-  </si>
-  <si>
-    <t>845423216</t>
-  </si>
-  <si>
-    <t>落花 ¿ Clear1</t>
-  </si>
-  <si>
-    <t>2019-08-26 07:00:53</t>
-  </si>
-  <si>
-    <t>2019-08-27 10:05:35</t>
-  </si>
-  <si>
-    <t>2019-08-28 06:12:36</t>
-  </si>
-  <si>
-    <t>2019-08-29 07:42:14</t>
-  </si>
-  <si>
-    <t>2019-08-30 05:36:49</t>
-  </si>
-  <si>
-    <t>823284435</t>
-  </si>
-  <si>
-    <t>落花—鸭小梨</t>
-  </si>
-  <si>
-    <t>821515617</t>
-  </si>
-  <si>
-    <t>落花-谢南</t>
-  </si>
-  <si>
-    <t>2019-08-27 13:28:34</t>
-  </si>
-  <si>
-    <t>2019-08-29 01:03:19</t>
-  </si>
-  <si>
-    <t>2019-08-30 20:44:27</t>
-  </si>
-  <si>
-    <t>793019511</t>
-  </si>
-  <si>
-    <t>落花ฅ稷晞【管住手，别氪了!!!】</t>
-  </si>
-  <si>
-    <t>2019-08-26 22:47:57</t>
-  </si>
-  <si>
-    <t>2019-08-27 07:57:50</t>
-  </si>
-  <si>
-    <t>2019-08-28 08:08:28</t>
-  </si>
-  <si>
-    <t>2019-08-29 08:40:08</t>
-  </si>
-  <si>
-    <t>2019-08-30 12:00:01</t>
-  </si>
-  <si>
-    <t>784945709</t>
-  </si>
-  <si>
-    <t>落花.花祭夜.今天打机密了嘛</t>
-  </si>
-  <si>
-    <t>2019-08-26 07:58:46</t>
-  </si>
-  <si>
-    <t>2019-08-27 07:50:44</t>
-  </si>
-  <si>
-    <t>2019-08-28 11:28:23</t>
-  </si>
-  <si>
-    <t>2019-08-29 16:36:15</t>
-  </si>
-  <si>
-    <t>2019-08-30 19:15:09</t>
-  </si>
-  <si>
-    <t>781898849</t>
-  </si>
-  <si>
-    <t>落花-KGAoi</t>
-  </si>
-  <si>
-    <t>2019-08-26 15:48:37</t>
-  </si>
-  <si>
-    <t>2019-08-27 09:35:37</t>
-  </si>
-  <si>
-    <t>2019-08-28 17:19:44</t>
-  </si>
-  <si>
-    <t>2019-08-29 08:52:51</t>
-  </si>
-  <si>
-    <t>2019-08-30 20:38:22</t>
-  </si>
-  <si>
-    <t>779867533</t>
-  </si>
-  <si>
-    <t>落花๑顾安白</t>
-  </si>
-  <si>
-    <t>2019-08-26 12:09:00</t>
-  </si>
-  <si>
-    <t>2019-08-27 12:00:05</t>
-  </si>
-  <si>
-    <t>2019-08-28 07:33:42</t>
-  </si>
-  <si>
-    <t>2019-08-29 07:39:38</t>
-  </si>
-  <si>
-    <t>2019-08-30 08:58:32</t>
-  </si>
-  <si>
-    <t>769521738</t>
-  </si>
-  <si>
-    <t>落花-白茶</t>
-  </si>
-  <si>
-    <t>2019-08-26 10:35:46</t>
-  </si>
-  <si>
-    <t>2019-08-27 10:22:49</t>
-  </si>
-  <si>
-    <t>2019-08-28 10:50:04</t>
-  </si>
-  <si>
-    <t>2019-08-29 08:12:41</t>
-  </si>
-  <si>
-    <t>2019-08-30 07:54:31</t>
-  </si>
-  <si>
-    <t>745415648</t>
-  </si>
-  <si>
-    <t>落花 小虚</t>
-  </si>
-  <si>
-    <t>2019-08-26 15:49:37</t>
-  </si>
-  <si>
-    <t>2019-08-27 10:09:49</t>
-  </si>
-  <si>
-    <t>2019-08-28 10:42:22</t>
-  </si>
-  <si>
-    <t>2019-08-29 11:34:20</t>
-  </si>
-  <si>
-    <t>2019-08-30 14:19:34</t>
-  </si>
-  <si>
-    <t>727791466</t>
-  </si>
-  <si>
-    <t>落花+天辟</t>
-  </si>
-  <si>
-    <t>2019-08-26 19:32:02</t>
-  </si>
-  <si>
-    <t>2019-08-27 12:08:17</t>
-  </si>
-  <si>
-    <t>2019-08-28 17:13:05</t>
-  </si>
-  <si>
-    <t>2019-08-29 18:40:40</t>
-  </si>
-  <si>
-    <t>2019-08-30 11:51:49</t>
-  </si>
-  <si>
-    <t>724187504</t>
-  </si>
-  <si>
-    <t>落花⭐Rai</t>
-  </si>
-  <si>
-    <t>2019-08-26 21:21:37</t>
-  </si>
-  <si>
-    <t>2019-08-27 21:14:07</t>
-  </si>
-  <si>
-    <t>2019-08-28 09:33:42</t>
-  </si>
-  <si>
-    <t>2019-08-29 09:45:46</t>
-  </si>
-  <si>
-    <t>2019-08-30 13:47:33</t>
-  </si>
-  <si>
-    <t>710237833</t>
-  </si>
-  <si>
-    <t>落花 可露丽</t>
-  </si>
-  <si>
-    <t>2019-08-26 06:57:01</t>
-  </si>
-  <si>
-    <t>2019-08-27 09:02:17</t>
-  </si>
-  <si>
-    <t>2019-08-28 11:28:01</t>
-  </si>
-  <si>
-    <t>2019-08-29 16:15:31</t>
-  </si>
-  <si>
-    <t>2019-08-30 19:16:47</t>
-  </si>
-  <si>
-    <t>651570472</t>
-  </si>
-  <si>
-    <t>落花 EXO</t>
-  </si>
-  <si>
-    <t>2019-08-26 19:05:24</t>
-  </si>
-  <si>
-    <t>2019-08-27 09:22:03</t>
-  </si>
-  <si>
-    <t>2019-08-28 09:30:25</t>
-  </si>
-  <si>
-    <t>2019-08-29 12:04:02</t>
-  </si>
-  <si>
-    <t>2019-08-30 19:26:53</t>
-  </si>
-  <si>
-    <t>648875355</t>
-  </si>
-  <si>
-    <t>落花—陆阮阮</t>
-  </si>
-  <si>
-    <t>2019-08-26 19:29:05</t>
-  </si>
-  <si>
-    <t>2019-08-27 09:45:59</t>
-  </si>
-  <si>
-    <t>2019-08-28 13:53:31</t>
-  </si>
-  <si>
-    <t>2019-08-29 19:39:51</t>
-  </si>
-  <si>
-    <t>2019-08-31 00:17:30</t>
-  </si>
-  <si>
-    <t>535509797</t>
-  </si>
-  <si>
-    <t>落花，灰姐</t>
-  </si>
-  <si>
-    <t>2019-08-26 19:43:11</t>
-  </si>
-  <si>
-    <t>2019-08-27 18:33:27</t>
-  </si>
-  <si>
-    <t>2019-08-28 18:41:43</t>
-  </si>
-  <si>
-    <t>2019-08-29 19:18:31</t>
-  </si>
-  <si>
-    <t>2019-08-30 22:35:56</t>
-  </si>
-  <si>
-    <t>505644622</t>
-  </si>
-  <si>
-    <t>落花◈啾啾</t>
-  </si>
-  <si>
-    <t>2019-08-26 21:24:53</t>
-  </si>
-  <si>
-    <t>2019-08-27 19:26:08</t>
-  </si>
-  <si>
-    <t>2019-08-29 00:09:46</t>
-  </si>
-  <si>
-    <t>2019-08-31 00:14:44</t>
-  </si>
-  <si>
-    <t>491384166</t>
-  </si>
-  <si>
-    <t>落花@藤原千花</t>
-  </si>
-  <si>
-    <t>2019-08-26 07:48:11</t>
-  </si>
-  <si>
-    <t>2019-08-27 20:33:21</t>
-  </si>
-  <si>
-    <t>2019-08-28 10:14:34</t>
-  </si>
-  <si>
-    <t>2019-08-29 19:08:40</t>
-  </si>
-  <si>
-    <t>2019-08-30 19:09:50</t>
-  </si>
-  <si>
-    <t>39302003</t>
-  </si>
-  <si>
-    <t>落花 神仙</t>
-  </si>
-  <si>
-    <t>3504245791</t>
-  </si>
-  <si>
-    <t>落花-瓷羽</t>
-  </si>
-  <si>
-    <t>2753247176</t>
-  </si>
-  <si>
-    <t>落花－白寄岚</t>
-  </si>
-  <si>
-    <t>2019-08-26 07:12:45</t>
-  </si>
-  <si>
-    <t>2019-08-27 05:18:11</t>
-  </si>
-  <si>
-    <t>2019-08-28 19:39:00</t>
-  </si>
-  <si>
-    <t>2019-08-29 07:42:21</t>
-  </si>
-  <si>
-    <t>2019-08-30 08:14:06</t>
-  </si>
-  <si>
-    <t>3476601463</t>
-  </si>
-  <si>
-    <t>落花 阿幼</t>
-  </si>
-  <si>
-    <t>2019-08-26 19:38:04</t>
-  </si>
-  <si>
-    <t>2019-08-27 07:40:24</t>
-  </si>
-  <si>
-    <t>2019-08-28 06:16:07</t>
-  </si>
-  <si>
-    <t>2019-08-30 04:29:34</t>
-  </si>
-  <si>
-    <t>2019-08-30 21:02:54</t>
-  </si>
-  <si>
-    <t>3240236818</t>
-  </si>
-  <si>
-    <t>落花 秦意</t>
-  </si>
-  <si>
-    <t>2019-08-26 11:21:54</t>
-  </si>
-  <si>
-    <t>2019-08-27 10:58:06</t>
-  </si>
-  <si>
-    <t>2019-08-28 09:03:41</t>
-  </si>
-  <si>
-    <t>2019-08-29 08:42:47</t>
-  </si>
-  <si>
-    <t>2019-08-30 09:04:35</t>
-  </si>
-  <si>
-    <t>3200441406</t>
-  </si>
-  <si>
-    <t>落花_草莓有点</t>
-  </si>
-  <si>
-    <t>30137763</t>
-  </si>
-  <si>
-    <t>落花樱茶</t>
-  </si>
-  <si>
-    <t>2971057903</t>
-  </si>
-  <si>
-    <t>落花-细语</t>
-  </si>
-  <si>
-    <t>2940604709</t>
-  </si>
-  <si>
-    <t>落花-24k草莓小葵</t>
-  </si>
-  <si>
-    <t>2661759612</t>
-  </si>
-  <si>
-    <t>落花ˊૢ路希</t>
-  </si>
-  <si>
-    <t>2019-08-26 08:36:11</t>
-  </si>
-  <si>
-    <t>2019-08-27 08:06:48</t>
-  </si>
-  <si>
-    <t>2019-08-28 11:00:44</t>
-  </si>
-  <si>
-    <t>2019-08-29 18:14:48</t>
-  </si>
-  <si>
-    <t>2019-08-30 10:13:49</t>
-  </si>
-  <si>
-    <t>2638588219</t>
-  </si>
-  <si>
-    <t>落花–洱瓷</t>
-  </si>
-  <si>
-    <t>2019-08-26 10:09:23</t>
-  </si>
-  <si>
-    <t>2019-08-27 20:47:08</t>
-  </si>
-  <si>
-    <t>2019-08-28 13:19:52</t>
-  </si>
-  <si>
-    <t>2019-08-29 10:58:02</t>
-  </si>
-  <si>
-    <t>2019-08-30 10:58:09</t>
-  </si>
-  <si>
-    <t>2473375876</t>
-  </si>
-  <si>
-    <t>落花林咕啾</t>
-  </si>
-  <si>
-    <t>2019-08-26 19:30:33</t>
-  </si>
-  <si>
-    <t>2019-08-27 12:25:26</t>
-  </si>
-  <si>
-    <t>2019-08-28 19:19:33</t>
-  </si>
-  <si>
-    <t>2019-08-29 14:04:10</t>
-  </si>
-  <si>
-    <t>2019-08-30 12:55:54</t>
-  </si>
-  <si>
-    <t>2406417774</t>
-  </si>
-  <si>
-    <t>落花 苏其凉</t>
-  </si>
-  <si>
-    <t>2019-08-27 01:31:16</t>
-  </si>
-  <si>
-    <t>2019-08-27 23:16:12</t>
-  </si>
-  <si>
-    <t>2019-08-29 00:40:49</t>
-  </si>
-  <si>
-    <t>2019-08-30 21:02:37</t>
-  </si>
-  <si>
-    <t>2192665938</t>
-  </si>
-  <si>
-    <t>落花 奶味汐月</t>
-  </si>
-  <si>
-    <t>2479669821</t>
-  </si>
-  <si>
-    <t>落花.薇尔莉特</t>
+    <t>2169226881</t>
+  </si>
+  <si>
+    <t>落花＋薇尔莉特</t>
   </si>
   <si>
     <t>2019-08-26 20:43:54</t>
@@ -1001,31 +1025,10 @@
     <t>2019-08-30 19:09:01</t>
   </si>
   <si>
-    <t>1327354755</t>
-  </si>
-  <si>
-    <t>落花 清水奈绪子（错过派对，错过一亿）</t>
-  </si>
-  <si>
-    <t>2019-08-26 12:41:21</t>
-  </si>
-  <si>
-    <t>2019-08-27 07:54:49</t>
-  </si>
-  <si>
-    <t>2019-08-28 17:02:13</t>
-  </si>
-  <si>
-    <t>2019-08-29 08:55:25</t>
-  </si>
-  <si>
-    <t>2019-08-30 22:57:27</t>
-  </si>
-  <si>
     <t>1239530393</t>
   </si>
   <si>
-    <t>落花" 苏久久【不要红钻买体力了】</t>
+    <t>落花" 苏久久</t>
   </si>
   <si>
     <t>2019-08-26 08:15:32</t>
@@ -1046,7 +1049,7 @@
     <t>july401@qq.com</t>
   </si>
   <si>
-    <t>落花，初 - 我是群里的打机提醒小助手</t>
+    <t>落花，初【我是群里的打机提醒小助手】</t>
   </si>
   <si>
     <t>2019-08-26 20:48:33</t>
@@ -1256,7 +1259,7 @@
     <t>641204920</t>
   </si>
   <si>
-    <t>落花.一只花卿</t>
+    <t>落花.燃犀犀</t>
   </si>
   <si>
     <t>2019-08-26 10:11:52</t>
@@ -1309,11 +1312,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -1332,19 +1335,66 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -1367,31 +1417,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1405,26 +1447,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1436,42 +1470,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1484,7 +1487,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1496,7 +1655,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1508,163 +1667,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1693,39 +1696,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1741,11 +1711,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1767,6 +1743,39 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1776,17 +1785,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1796,10 +1799,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1808,133 +1811,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2292,15 +2295,15 @@
   <sheetPr/>
   <dimension ref="A1:AT69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="AG6" sqref="AG3:AG6"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.625" customWidth="1"/>
     <col min="2" max="2" width="22.625" customWidth="1"/>
-    <col min="3" max="3" width="39" customWidth="1"/>
+    <col min="3" max="3" width="41.25" customWidth="1"/>
     <col min="4" max="4" width="21.5" customWidth="1"/>
     <col min="5" max="6" width="7.625" customWidth="1"/>
     <col min="7" max="7" width="8.375" customWidth="1"/>
@@ -2711,7 +2714,9 @@
       <c r="AF3" t="s">
         <v>48</v>
       </c>
-      <c r="AG3"/>
+      <c r="AG3" t="s">
+        <v>48</v>
+      </c>
       <c r="AH3" t="s">
         <v>48</v>
       </c>
@@ -2849,7 +2854,9 @@
       <c r="AF4" t="s">
         <v>62</v>
       </c>
-      <c r="AG4"/>
+      <c r="AG4" t="s">
+        <v>48</v>
+      </c>
       <c r="AH4" t="s">
         <v>48</v>
       </c>
@@ -2987,7 +2994,9 @@
       <c r="AF5" t="s">
         <v>69</v>
       </c>
-      <c r="AG5"/>
+      <c r="AG5" t="s">
+        <v>48</v>
+      </c>
       <c r="AH5" t="s">
         <v>48</v>
       </c>
@@ -3125,7 +3134,9 @@
       <c r="AF6" t="s">
         <v>73</v>
       </c>
-      <c r="AG6"/>
+      <c r="AG6" t="s">
+        <v>48</v>
+      </c>
       <c r="AH6" t="s">
         <v>48</v>
       </c>
@@ -3266,9 +3277,8 @@
       <c r="AG7" t="s">
         <v>75</v>
       </c>
-      <c r="AH7" t="str">
-        <f t="shared" ref="AH7:AH34" si="0">IF(AG7="","",AE7)</f>
-        <v/>
+      <c r="AH7" t="s">
+        <v>48</v>
       </c>
       <c r="AI7" t="s">
         <v>48</v>
@@ -3407,9 +3417,8 @@
       <c r="AG8" t="s">
         <v>48</v>
       </c>
-      <c r="AH8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="AH8" t="s">
+        <v>48</v>
       </c>
       <c r="AI8" t="s">
         <v>48</v>
@@ -3548,9 +3557,8 @@
       <c r="AG9" t="s">
         <v>48</v>
       </c>
-      <c r="AH9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="AH9" t="s">
+        <v>48</v>
       </c>
       <c r="AI9" t="s">
         <v>48</v>
@@ -3689,9 +3697,8 @@
       <c r="AG10" t="s">
         <v>91</v>
       </c>
-      <c r="AH10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="AH10" t="s">
+        <v>48</v>
       </c>
       <c r="AI10" t="s">
         <v>48</v>
@@ -3830,9 +3837,8 @@
       <c r="AG11" t="s">
         <v>48</v>
       </c>
-      <c r="AH11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="AH11" t="s">
+        <v>48</v>
       </c>
       <c r="AI11" t="s">
         <v>48</v>
@@ -3971,9 +3977,8 @@
       <c r="AG12" t="s">
         <v>48</v>
       </c>
-      <c r="AH12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="AH12" t="s">
+        <v>48</v>
       </c>
       <c r="AI12" t="s">
         <v>48</v>
@@ -4112,9 +4117,8 @@
       <c r="AG13" t="s">
         <v>48</v>
       </c>
-      <c r="AH13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="AH13" t="s">
+        <v>48</v>
       </c>
       <c r="AI13" t="s">
         <v>48</v>
@@ -4253,9 +4257,8 @@
       <c r="AG14" t="s">
         <v>48</v>
       </c>
-      <c r="AH14" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="AH14" t="s">
+        <v>48</v>
       </c>
       <c r="AI14" t="s">
         <v>48</v>
@@ -4394,9 +4397,8 @@
       <c r="AG15" t="s">
         <v>48</v>
       </c>
-      <c r="AH15" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="AH15" t="s">
+        <v>48</v>
       </c>
       <c r="AI15" t="s">
         <v>48</v>
@@ -4535,9 +4537,8 @@
       <c r="AG16" t="s">
         <v>48</v>
       </c>
-      <c r="AH16" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="AH16" t="s">
+        <v>48</v>
       </c>
       <c r="AI16" t="s">
         <v>48</v>
@@ -4676,9 +4677,8 @@
       <c r="AG17" t="s">
         <v>48</v>
       </c>
-      <c r="AH17" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="AH17" t="s">
+        <v>48</v>
       </c>
       <c r="AI17" t="s">
         <v>48</v>
@@ -4817,9 +4817,8 @@
       <c r="AG18" t="s">
         <v>48</v>
       </c>
-      <c r="AH18" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="AH18" t="s">
+        <v>48</v>
       </c>
       <c r="AI18" t="s">
         <v>48</v>
@@ -4958,9 +4957,8 @@
       <c r="AG19" t="s">
         <v>48</v>
       </c>
-      <c r="AH19" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="AH19" t="s">
+        <v>48</v>
       </c>
       <c r="AI19" t="s">
         <v>48</v>
@@ -5099,9 +5097,8 @@
       <c r="AG20" t="s">
         <v>48</v>
       </c>
-      <c r="AH20" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="AH20" t="s">
+        <v>48</v>
       </c>
       <c r="AI20" t="s">
         <v>48</v>
@@ -5240,9 +5237,8 @@
       <c r="AG21" t="s">
         <v>48</v>
       </c>
-      <c r="AH21" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="AH21" t="s">
+        <v>48</v>
       </c>
       <c r="AI21" t="s">
         <v>48</v>
@@ -5381,9 +5377,8 @@
       <c r="AG22" t="s">
         <v>48</v>
       </c>
-      <c r="AH22" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="AH22" t="s">
+        <v>48</v>
       </c>
       <c r="AI22" t="s">
         <v>48</v>
@@ -5522,9 +5517,8 @@
       <c r="AG23" t="s">
         <v>48</v>
       </c>
-      <c r="AH23" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="AH23" t="s">
+        <v>48</v>
       </c>
       <c r="AI23" t="s">
         <v>48</v>
@@ -5663,9 +5657,8 @@
       <c r="AG24" t="s">
         <v>48</v>
       </c>
-      <c r="AH24" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="AH24" t="s">
+        <v>48</v>
       </c>
       <c r="AI24" t="s">
         <v>48</v>
@@ -5804,9 +5797,8 @@
       <c r="AG25" t="s">
         <v>48</v>
       </c>
-      <c r="AH25" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="AH25" t="s">
+        <v>48</v>
       </c>
       <c r="AI25" t="s">
         <v>48</v>
@@ -5945,9 +5937,8 @@
       <c r="AG26" t="s">
         <v>195</v>
       </c>
-      <c r="AH26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="AH26" t="s">
+        <v>48</v>
       </c>
       <c r="AI26" t="s">
         <v>48</v>
@@ -5999,17 +5990,17 @@
       <c r="D27" t="s">
         <v>48</v>
       </c>
-      <c r="E27" t="s">
-        <v>48</v>
-      </c>
-      <c r="F27" t="s">
-        <v>48</v>
-      </c>
-      <c r="G27" t="s">
-        <v>48</v>
+      <c r="E27">
+        <v>5</v>
+      </c>
+      <c r="F27">
+        <v>106000</v>
+      </c>
+      <c r="G27">
+        <v>530000</v>
       </c>
       <c r="H27" t="s">
-        <v>48</v>
+        <v>198</v>
       </c>
       <c r="I27" t="s">
         <v>48</v>
@@ -6017,17 +6008,17 @@
       <c r="J27" t="s">
         <v>48</v>
       </c>
-      <c r="K27" t="s">
-        <v>48</v>
-      </c>
-      <c r="L27" t="s">
-        <v>48</v>
-      </c>
-      <c r="M27" t="s">
-        <v>48</v>
+      <c r="K27">
+        <v>5</v>
+      </c>
+      <c r="L27">
+        <v>130000</v>
+      </c>
+      <c r="M27">
+        <v>650000</v>
       </c>
       <c r="N27" t="s">
-        <v>48</v>
+        <v>199</v>
       </c>
       <c r="O27" t="s">
         <v>48</v>
@@ -6035,17 +6026,17 @@
       <c r="P27" t="s">
         <v>48</v>
       </c>
-      <c r="Q27" t="s">
-        <v>48</v>
-      </c>
-      <c r="R27" t="s">
-        <v>48</v>
-      </c>
-      <c r="S27" t="s">
-        <v>48</v>
+      <c r="Q27">
+        <v>5</v>
+      </c>
+      <c r="R27">
+        <v>134000</v>
+      </c>
+      <c r="S27">
+        <v>670000</v>
       </c>
       <c r="T27" t="s">
-        <v>48</v>
+        <v>200</v>
       </c>
       <c r="U27" t="s">
         <v>48</v>
@@ -6053,17 +6044,17 @@
       <c r="V27" t="s">
         <v>48</v>
       </c>
-      <c r="W27" t="s">
-        <v>48</v>
-      </c>
-      <c r="X27" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y27" t="s">
-        <v>48</v>
+      <c r="W27">
+        <v>5</v>
+      </c>
+      <c r="X27">
+        <v>138000</v>
+      </c>
+      <c r="Y27">
+        <v>690000</v>
       </c>
       <c r="Z27" t="s">
-        <v>48</v>
+        <v>201</v>
       </c>
       <c r="AA27" t="s">
         <v>48</v>
@@ -6071,24 +6062,23 @@
       <c r="AB27" t="s">
         <v>48</v>
       </c>
-      <c r="AC27" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD27" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE27" t="s">
-        <v>48</v>
+      <c r="AC27">
+        <v>5</v>
+      </c>
+      <c r="AD27">
+        <v>139000</v>
+      </c>
+      <c r="AE27">
+        <v>695000</v>
       </c>
       <c r="AF27" t="s">
-        <v>48</v>
+        <v>202</v>
       </c>
       <c r="AG27" t="s">
-        <v>197</v>
-      </c>
-      <c r="AH27" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <v>48</v>
+      </c>
+      <c r="AH27" t="s">
+        <v>48</v>
       </c>
       <c r="AI27" t="s">
         <v>48</v>
@@ -6132,25 +6122,25 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="C28" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="D28" t="s">
         <v>48</v>
       </c>
-      <c r="E28">
-        <v>5</v>
-      </c>
-      <c r="F28">
-        <v>133000</v>
-      </c>
-      <c r="G28">
-        <v>665000</v>
+      <c r="E28" t="s">
+        <v>48</v>
+      </c>
+      <c r="F28" t="s">
+        <v>48</v>
+      </c>
+      <c r="G28" t="s">
+        <v>48</v>
       </c>
       <c r="H28" t="s">
-        <v>200</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
         <v>48</v>
@@ -6158,17 +6148,17 @@
       <c r="J28" t="s">
         <v>48</v>
       </c>
-      <c r="K28">
-        <v>5</v>
-      </c>
-      <c r="L28">
-        <v>136000</v>
-      </c>
-      <c r="M28">
-        <v>680000</v>
+      <c r="K28" t="s">
+        <v>48</v>
+      </c>
+      <c r="L28" t="s">
+        <v>48</v>
+      </c>
+      <c r="M28" t="s">
+        <v>48</v>
       </c>
       <c r="N28" t="s">
-        <v>201</v>
+        <v>48</v>
       </c>
       <c r="O28" t="s">
         <v>48</v>
@@ -6176,17 +6166,17 @@
       <c r="P28" t="s">
         <v>48</v>
       </c>
-      <c r="Q28">
-        <v>6</v>
-      </c>
-      <c r="R28">
-        <v>120000</v>
-      </c>
-      <c r="S28">
-        <v>720000</v>
+      <c r="Q28" t="s">
+        <v>48</v>
+      </c>
+      <c r="R28" t="s">
+        <v>48</v>
+      </c>
+      <c r="S28" t="s">
+        <v>48</v>
       </c>
       <c r="T28" t="s">
-        <v>202</v>
+        <v>48</v>
       </c>
       <c r="U28" t="s">
         <v>48</v>
@@ -6194,17 +6184,17 @@
       <c r="V28" t="s">
         <v>48</v>
       </c>
-      <c r="W28">
-        <v>5</v>
-      </c>
-      <c r="X28">
-        <v>131000</v>
-      </c>
-      <c r="Y28">
-        <v>655000</v>
+      <c r="W28" t="s">
+        <v>48</v>
+      </c>
+      <c r="X28" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>48</v>
       </c>
       <c r="Z28" t="s">
-        <v>203</v>
+        <v>48</v>
       </c>
       <c r="AA28" t="s">
         <v>48</v>
@@ -6213,23 +6203,22 @@
         <v>48</v>
       </c>
       <c r="AC28">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="AD28">
-        <v>132000</v>
+        <v>160000</v>
       </c>
       <c r="AE28">
-        <v>660000</v>
+        <v>2400000</v>
       </c>
       <c r="AF28" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG28" t="s">
         <v>204</v>
       </c>
-      <c r="AG28" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH28" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="AH28" t="s">
+        <v>48</v>
       </c>
       <c r="AI28" t="s">
         <v>48</v>
@@ -6281,17 +6270,17 @@
       <c r="D29" t="s">
         <v>48</v>
       </c>
-      <c r="E29">
-        <v>5</v>
-      </c>
-      <c r="F29">
-        <v>98000</v>
-      </c>
-      <c r="G29">
-        <v>490000</v>
+      <c r="E29" t="s">
+        <v>48</v>
+      </c>
+      <c r="F29" t="s">
+        <v>48</v>
+      </c>
+      <c r="G29" t="s">
+        <v>48</v>
       </c>
       <c r="H29" t="s">
-        <v>207</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
         <v>48</v>
@@ -6299,17 +6288,17 @@
       <c r="J29" t="s">
         <v>48</v>
       </c>
-      <c r="K29">
-        <v>7</v>
-      </c>
-      <c r="L29">
-        <v>100000</v>
-      </c>
-      <c r="M29">
-        <v>700000</v>
+      <c r="K29" t="s">
+        <v>48</v>
+      </c>
+      <c r="L29" t="s">
+        <v>48</v>
+      </c>
+      <c r="M29" t="s">
+        <v>48</v>
       </c>
       <c r="N29" t="s">
-        <v>208</v>
+        <v>48</v>
       </c>
       <c r="O29" t="s">
         <v>48</v>
@@ -6317,17 +6306,17 @@
       <c r="P29" t="s">
         <v>48</v>
       </c>
-      <c r="Q29">
-        <v>7</v>
-      </c>
-      <c r="R29">
-        <v>100000</v>
-      </c>
-      <c r="S29">
-        <v>700000</v>
+      <c r="Q29" t="s">
+        <v>48</v>
+      </c>
+      <c r="R29" t="s">
+        <v>48</v>
+      </c>
+      <c r="S29" t="s">
+        <v>48</v>
       </c>
       <c r="T29" t="s">
-        <v>209</v>
+        <v>48</v>
       </c>
       <c r="U29" t="s">
         <v>48</v>
@@ -6335,17 +6324,17 @@
       <c r="V29" t="s">
         <v>48</v>
       </c>
-      <c r="W29">
-        <v>7</v>
-      </c>
-      <c r="X29">
-        <v>100000</v>
-      </c>
-      <c r="Y29">
-        <v>700000</v>
+      <c r="W29" t="s">
+        <v>48</v>
+      </c>
+      <c r="X29" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>48</v>
       </c>
       <c r="Z29" t="s">
-        <v>210</v>
+        <v>48</v>
       </c>
       <c r="AA29" t="s">
         <v>48</v>
@@ -6353,24 +6342,23 @@
       <c r="AB29" t="s">
         <v>48</v>
       </c>
-      <c r="AC29">
-        <v>7</v>
-      </c>
-      <c r="AD29">
-        <v>105000</v>
-      </c>
-      <c r="AE29">
-        <v>735000</v>
+      <c r="AC29" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>48</v>
       </c>
       <c r="AF29" t="s">
-        <v>211</v>
+        <v>48</v>
       </c>
       <c r="AG29" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH29" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <v>206</v>
+      </c>
+      <c r="AH29" t="s">
+        <v>48</v>
       </c>
       <c r="AI29" t="s">
         <v>48</v>
@@ -6414,10 +6402,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C30" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D30" t="s">
         <v>48</v>
@@ -6426,13 +6414,13 @@
         <v>5</v>
       </c>
       <c r="F30">
-        <v>63000</v>
+        <v>133000</v>
       </c>
       <c r="G30">
-        <v>315000</v>
+        <v>665000</v>
       </c>
       <c r="H30" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="I30" t="s">
         <v>48</v>
@@ -6444,13 +6432,13 @@
         <v>5</v>
       </c>
       <c r="L30">
-        <v>63000</v>
+        <v>136000</v>
       </c>
       <c r="M30">
-        <v>315000</v>
+        <v>680000</v>
       </c>
       <c r="N30" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="O30" t="s">
         <v>48</v>
@@ -6459,34 +6447,34 @@
         <v>48</v>
       </c>
       <c r="Q30">
+        <v>6</v>
+      </c>
+      <c r="R30">
+        <v>120000</v>
+      </c>
+      <c r="S30">
+        <v>720000</v>
+      </c>
+      <c r="T30" t="s">
+        <v>211</v>
+      </c>
+      <c r="U30" t="s">
+        <v>48</v>
+      </c>
+      <c r="V30" t="s">
+        <v>48</v>
+      </c>
+      <c r="W30">
         <v>5</v>
       </c>
-      <c r="R30">
-        <v>63000</v>
-      </c>
-      <c r="S30">
-        <v>315000</v>
-      </c>
-      <c r="T30" t="s">
-        <v>216</v>
-      </c>
-      <c r="U30" t="s">
-        <v>48</v>
-      </c>
-      <c r="V30" t="s">
-        <v>48</v>
-      </c>
-      <c r="W30">
-        <v>10</v>
-      </c>
       <c r="X30">
-        <v>64000</v>
+        <v>131000</v>
       </c>
       <c r="Y30">
-        <v>640000</v>
+        <v>655000</v>
       </c>
       <c r="Z30" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="AA30" t="s">
         <v>48</v>
@@ -6495,23 +6483,22 @@
         <v>48</v>
       </c>
       <c r="AC30">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AD30">
-        <v>65000</v>
+        <v>132000</v>
       </c>
       <c r="AE30">
-        <v>650000</v>
+        <v>660000</v>
       </c>
       <c r="AF30" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="AG30" t="s">
         <v>48</v>
       </c>
-      <c r="AH30" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="AH30" t="s">
+        <v>48</v>
       </c>
       <c r="AI30" t="s">
         <v>48</v>
@@ -6555,104 +6542,103 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
+        <v>214</v>
+      </c>
+      <c r="C31" t="s">
+        <v>215</v>
+      </c>
+      <c r="D31" t="s">
+        <v>48</v>
+      </c>
+      <c r="E31">
+        <v>5</v>
+      </c>
+      <c r="F31">
+        <v>98000</v>
+      </c>
+      <c r="G31">
+        <v>490000</v>
+      </c>
+      <c r="H31" t="s">
+        <v>216</v>
+      </c>
+      <c r="I31" t="s">
+        <v>48</v>
+      </c>
+      <c r="J31" t="s">
+        <v>48</v>
+      </c>
+      <c r="K31">
+        <v>7</v>
+      </c>
+      <c r="L31">
+        <v>100000</v>
+      </c>
+      <c r="M31">
+        <v>700000</v>
+      </c>
+      <c r="N31" t="s">
+        <v>217</v>
+      </c>
+      <c r="O31" t="s">
+        <v>48</v>
+      </c>
+      <c r="P31" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q31">
+        <v>7</v>
+      </c>
+      <c r="R31">
+        <v>100000</v>
+      </c>
+      <c r="S31">
+        <v>700000</v>
+      </c>
+      <c r="T31" t="s">
+        <v>218</v>
+      </c>
+      <c r="U31" t="s">
+        <v>48</v>
+      </c>
+      <c r="V31" t="s">
+        <v>48</v>
+      </c>
+      <c r="W31">
+        <v>7</v>
+      </c>
+      <c r="X31">
+        <v>100000</v>
+      </c>
+      <c r="Y31">
+        <v>700000</v>
+      </c>
+      <c r="Z31" t="s">
         <v>219</v>
       </c>
-      <c r="C31" t="s">
+      <c r="AA31" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB31" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC31">
+        <v>7</v>
+      </c>
+      <c r="AD31">
+        <v>105000</v>
+      </c>
+      <c r="AE31">
+        <v>735000</v>
+      </c>
+      <c r="AF31" t="s">
         <v>220</v>
       </c>
-      <c r="D31" t="s">
-        <v>48</v>
-      </c>
-      <c r="E31" t="s">
-        <v>48</v>
-      </c>
-      <c r="F31" t="s">
-        <v>48</v>
-      </c>
-      <c r="G31" t="s">
-        <v>48</v>
-      </c>
-      <c r="H31" t="s">
-        <v>48</v>
-      </c>
-      <c r="I31" t="s">
-        <v>48</v>
-      </c>
-      <c r="J31" t="s">
-        <v>48</v>
-      </c>
-      <c r="K31" t="s">
-        <v>48</v>
-      </c>
-      <c r="L31" t="s">
-        <v>48</v>
-      </c>
-      <c r="M31" t="s">
-        <v>48</v>
-      </c>
-      <c r="N31" t="s">
-        <v>48</v>
-      </c>
-      <c r="O31" t="s">
-        <v>48</v>
-      </c>
-      <c r="P31" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>48</v>
-      </c>
-      <c r="R31" t="s">
-        <v>48</v>
-      </c>
-      <c r="S31" t="s">
-        <v>48</v>
-      </c>
-      <c r="T31" t="s">
-        <v>48</v>
-      </c>
-      <c r="U31" t="s">
-        <v>48</v>
-      </c>
-      <c r="V31" t="s">
-        <v>48</v>
-      </c>
-      <c r="W31" t="s">
-        <v>48</v>
-      </c>
-      <c r="X31" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y31" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z31" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA31" t="s">
-        <v>48</v>
-      </c>
-      <c r="AB31" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC31" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD31" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE31" t="s">
-        <v>48</v>
-      </c>
-      <c r="AF31" t="s">
-        <v>48</v>
-      </c>
       <c r="AG31" t="s">
-        <v>220</v>
-      </c>
-      <c r="AH31" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <v>48</v>
+      </c>
+      <c r="AH31" t="s">
+        <v>48</v>
       </c>
       <c r="AI31" t="s">
         <v>48</v>
@@ -6704,17 +6690,17 @@
       <c r="D32" t="s">
         <v>48</v>
       </c>
-      <c r="E32" t="s">
-        <v>48</v>
-      </c>
-      <c r="F32" t="s">
-        <v>48</v>
-      </c>
-      <c r="G32" t="s">
-        <v>48</v>
+      <c r="E32">
+        <v>5</v>
+      </c>
+      <c r="F32">
+        <v>63000</v>
+      </c>
+      <c r="G32">
+        <v>315000</v>
       </c>
       <c r="H32" t="s">
-        <v>48</v>
+        <v>223</v>
       </c>
       <c r="I32" t="s">
         <v>48</v>
@@ -6722,17 +6708,17 @@
       <c r="J32" t="s">
         <v>48</v>
       </c>
-      <c r="K32" t="s">
-        <v>48</v>
-      </c>
-      <c r="L32" t="s">
-        <v>48</v>
-      </c>
-      <c r="M32" t="s">
-        <v>48</v>
+      <c r="K32">
+        <v>5</v>
+      </c>
+      <c r="L32">
+        <v>63000</v>
+      </c>
+      <c r="M32">
+        <v>315000</v>
       </c>
       <c r="N32" t="s">
-        <v>48</v>
+        <v>224</v>
       </c>
       <c r="O32" t="s">
         <v>48</v>
@@ -6740,17 +6726,17 @@
       <c r="P32" t="s">
         <v>48</v>
       </c>
-      <c r="Q32" t="s">
-        <v>48</v>
-      </c>
-      <c r="R32" t="s">
-        <v>48</v>
-      </c>
-      <c r="S32" t="s">
-        <v>48</v>
+      <c r="Q32">
+        <v>5</v>
+      </c>
+      <c r="R32">
+        <v>63000</v>
+      </c>
+      <c r="S32">
+        <v>315000</v>
       </c>
       <c r="T32" t="s">
-        <v>48</v>
+        <v>225</v>
       </c>
       <c r="U32" t="s">
         <v>48</v>
@@ -6758,17 +6744,17 @@
       <c r="V32" t="s">
         <v>48</v>
       </c>
-      <c r="W32" t="s">
-        <v>48</v>
-      </c>
-      <c r="X32" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y32" t="s">
-        <v>48</v>
+      <c r="W32">
+        <v>10</v>
+      </c>
+      <c r="X32">
+        <v>64000</v>
+      </c>
+      <c r="Y32">
+        <v>640000</v>
       </c>
       <c r="Z32" t="s">
-        <v>48</v>
+        <v>226</v>
       </c>
       <c r="AA32" t="s">
         <v>48</v>
@@ -6776,24 +6762,23 @@
       <c r="AB32" t="s">
         <v>48</v>
       </c>
-      <c r="AC32" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD32" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE32" t="s">
-        <v>48</v>
+      <c r="AC32">
+        <v>10</v>
+      </c>
+      <c r="AD32">
+        <v>65000</v>
+      </c>
+      <c r="AE32">
+        <v>650000</v>
       </c>
       <c r="AF32" t="s">
-        <v>48</v>
+        <v>227</v>
       </c>
       <c r="AG32" t="s">
-        <v>222</v>
-      </c>
-      <c r="AH32" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <v>48</v>
+      </c>
+      <c r="AH32" t="s">
+        <v>48</v>
       </c>
       <c r="AI32" t="s">
         <v>48</v>
@@ -6837,10 +6822,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="C33" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="D33" t="s">
         <v>48</v>
@@ -6930,11 +6915,10 @@
         <v>48</v>
       </c>
       <c r="AG33" t="s">
-        <v>224</v>
-      </c>
-      <c r="AH33" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <v>229</v>
+      </c>
+      <c r="AH33" t="s">
+        <v>48</v>
       </c>
       <c r="AI33" t="s">
         <v>48</v>
@@ -6978,10 +6962,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="C34" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="D34" t="s">
         <v>48</v>
@@ -7071,11 +7055,10 @@
         <v>48</v>
       </c>
       <c r="AG34" t="s">
-        <v>226</v>
-      </c>
-      <c r="AH34" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <v>231</v>
+      </c>
+      <c r="AH34" t="s">
+        <v>48</v>
       </c>
       <c r="AI34" t="s">
         <v>48</v>
@@ -7119,25 +7102,25 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="C35" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="D35" t="s">
         <v>48</v>
       </c>
-      <c r="E35">
-        <v>5</v>
-      </c>
-      <c r="F35">
-        <v>128459</v>
-      </c>
-      <c r="G35">
-        <v>642295</v>
+      <c r="E35" t="s">
+        <v>48</v>
+      </c>
+      <c r="F35" t="s">
+        <v>48</v>
+      </c>
+      <c r="G35" t="s">
+        <v>48</v>
       </c>
       <c r="H35" t="s">
-        <v>229</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
         <v>48</v>
@@ -7145,17 +7128,17 @@
       <c r="J35" t="s">
         <v>48</v>
       </c>
-      <c r="K35">
-        <v>5</v>
-      </c>
-      <c r="L35">
-        <v>922228</v>
-      </c>
-      <c r="M35">
-        <v>4611140</v>
+      <c r="K35" t="s">
+        <v>48</v>
+      </c>
+      <c r="L35" t="s">
+        <v>48</v>
+      </c>
+      <c r="M35" t="s">
+        <v>48</v>
       </c>
       <c r="N35" t="s">
-        <v>230</v>
+        <v>48</v>
       </c>
       <c r="O35" t="s">
         <v>48</v>
@@ -7163,17 +7146,17 @@
       <c r="P35" t="s">
         <v>48</v>
       </c>
-      <c r="Q35">
-        <v>5</v>
-      </c>
-      <c r="R35">
-        <v>88229</v>
-      </c>
-      <c r="S35">
-        <v>441145</v>
+      <c r="Q35" t="s">
+        <v>48</v>
+      </c>
+      <c r="R35" t="s">
+        <v>48</v>
+      </c>
+      <c r="S35" t="s">
+        <v>48</v>
       </c>
       <c r="T35" t="s">
-        <v>231</v>
+        <v>48</v>
       </c>
       <c r="U35" t="s">
         <v>48</v>
@@ -7181,17 +7164,17 @@
       <c r="V35" t="s">
         <v>48</v>
       </c>
-      <c r="W35">
-        <v>5</v>
-      </c>
-      <c r="X35">
-        <v>91828</v>
-      </c>
-      <c r="Y35">
-        <v>459140</v>
+      <c r="W35" t="s">
+        <v>48</v>
+      </c>
+      <c r="X35" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>48</v>
       </c>
       <c r="Z35" t="s">
-        <v>232</v>
+        <v>48</v>
       </c>
       <c r="AA35" t="s">
         <v>48</v>
@@ -7199,24 +7182,23 @@
       <c r="AB35" t="s">
         <v>48</v>
       </c>
-      <c r="AC35">
-        <v>5</v>
-      </c>
-      <c r="AD35">
-        <v>92482</v>
-      </c>
-      <c r="AE35">
-        <v>462410</v>
+      <c r="AC35" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD35" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE35" t="s">
+        <v>48</v>
       </c>
       <c r="AF35" t="s">
+        <v>48</v>
+      </c>
+      <c r="AG35" t="s">
         <v>233</v>
       </c>
-      <c r="AG35" t="s">
-        <v>228</v>
-      </c>
-      <c r="AH35">
-        <f>IF(AG35="","",AE35)</f>
-        <v>462410</v>
+      <c r="AH35" t="s">
+        <v>48</v>
       </c>
       <c r="AI35" t="s">
         <v>48</v>
@@ -7272,10 +7254,10 @@
         <v>5</v>
       </c>
       <c r="F36">
-        <v>120000</v>
+        <v>128459</v>
       </c>
       <c r="G36">
-        <v>600000</v>
+        <v>642295</v>
       </c>
       <c r="H36" t="s">
         <v>236</v>
@@ -7287,13 +7269,13 @@
         <v>48</v>
       </c>
       <c r="K36">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L36">
-        <v>120000</v>
+        <v>922228</v>
       </c>
       <c r="M36">
-        <v>720000</v>
+        <v>4611140</v>
       </c>
       <c r="N36" t="s">
         <v>237</v>
@@ -7305,13 +7287,13 @@
         <v>48</v>
       </c>
       <c r="Q36">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="R36">
-        <v>120000</v>
+        <v>88229</v>
       </c>
       <c r="S36">
-        <v>840000</v>
+        <v>441145</v>
       </c>
       <c r="T36" t="s">
         <v>238</v>
@@ -7323,13 +7305,13 @@
         <v>48</v>
       </c>
       <c r="W36">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="X36">
-        <v>120000</v>
+        <v>91828</v>
       </c>
       <c r="Y36">
-        <v>840000</v>
+        <v>459140</v>
       </c>
       <c r="Z36" t="s">
         <v>239</v>
@@ -7341,23 +7323,22 @@
         <v>48</v>
       </c>
       <c r="AC36">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AD36">
-        <v>130000</v>
+        <v>92482</v>
       </c>
       <c r="AE36">
-        <v>1170000</v>
+        <v>462410</v>
       </c>
       <c r="AF36" t="s">
         <v>240</v>
       </c>
       <c r="AG36" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH36" t="str">
-        <f t="shared" ref="AH36:AH64" si="1">IF(AG36="","",AE36)</f>
-        <v/>
+        <v>235</v>
+      </c>
+      <c r="AH36">
+        <v>462410</v>
       </c>
       <c r="AI36" t="s">
         <v>48</v>
@@ -7428,13 +7409,13 @@
         <v>48</v>
       </c>
       <c r="K37">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L37">
-        <v>100000</v>
+        <v>120000</v>
       </c>
       <c r="M37">
-        <v>700000</v>
+        <v>720000</v>
       </c>
       <c r="N37" t="s">
         <v>244</v>
@@ -7449,10 +7430,10 @@
         <v>7</v>
       </c>
       <c r="R37">
-        <v>100000</v>
+        <v>120000</v>
       </c>
       <c r="S37">
-        <v>700000</v>
+        <v>840000</v>
       </c>
       <c r="T37" t="s">
         <v>245</v>
@@ -7467,10 +7448,10 @@
         <v>7</v>
       </c>
       <c r="X37">
-        <v>100000</v>
+        <v>120000</v>
       </c>
       <c r="Y37">
-        <v>700000</v>
+        <v>840000</v>
       </c>
       <c r="Z37" t="s">
         <v>246</v>
@@ -7482,13 +7463,13 @@
         <v>48</v>
       </c>
       <c r="AC37">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AD37">
-        <v>114481</v>
+        <v>130000</v>
       </c>
       <c r="AE37">
-        <v>686886</v>
+        <v>1170000</v>
       </c>
       <c r="AF37" t="s">
         <v>247</v>
@@ -7496,9 +7477,8 @@
       <c r="AG37" t="s">
         <v>48</v>
       </c>
-      <c r="AH37" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="AH37" t="s">
+        <v>48</v>
       </c>
       <c r="AI37" t="s">
         <v>48</v>
@@ -7554,10 +7534,10 @@
         <v>5</v>
       </c>
       <c r="F38">
-        <v>55000</v>
+        <v>120000</v>
       </c>
       <c r="G38">
-        <v>275000</v>
+        <v>600000</v>
       </c>
       <c r="H38" t="s">
         <v>250</v>
@@ -7569,13 +7549,13 @@
         <v>48</v>
       </c>
       <c r="K38">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L38">
-        <v>54000</v>
+        <v>100000</v>
       </c>
       <c r="M38">
-        <v>270000</v>
+        <v>700000</v>
       </c>
       <c r="N38" t="s">
         <v>251</v>
@@ -7587,13 +7567,13 @@
         <v>48</v>
       </c>
       <c r="Q38">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="R38">
-        <v>62000</v>
+        <v>100000</v>
       </c>
       <c r="S38">
-        <v>682000</v>
+        <v>700000</v>
       </c>
       <c r="T38" t="s">
         <v>252</v>
@@ -7604,17 +7584,17 @@
       <c r="V38" t="s">
         <v>48</v>
       </c>
-      <c r="W38" t="s">
-        <v>48</v>
-      </c>
-      <c r="X38" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y38" t="s">
-        <v>48</v>
+      <c r="W38">
+        <v>7</v>
+      </c>
+      <c r="X38">
+        <v>100000</v>
+      </c>
+      <c r="Y38">
+        <v>700000</v>
       </c>
       <c r="Z38" t="s">
-        <v>48</v>
+        <v>253</v>
       </c>
       <c r="AA38" t="s">
         <v>48</v>
@@ -7623,23 +7603,22 @@
         <v>48</v>
       </c>
       <c r="AC38">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AD38">
-        <v>62000</v>
+        <v>114481</v>
       </c>
       <c r="AE38">
-        <v>310000</v>
+        <v>686886</v>
       </c>
       <c r="AF38" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AG38" t="s">
-        <v>249</v>
-      </c>
-      <c r="AH38">
-        <f t="shared" si="1"/>
-        <v>310000</v>
+        <v>48</v>
+      </c>
+      <c r="AH38" t="s">
+        <v>48</v>
       </c>
       <c r="AI38" t="s">
         <v>48</v>
@@ -7683,25 +7662,25 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C39" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D39" t="s">
         <v>48</v>
       </c>
-      <c r="E39" t="s">
-        <v>48</v>
-      </c>
-      <c r="F39" t="s">
-        <v>48</v>
-      </c>
-      <c r="G39" t="s">
-        <v>48</v>
+      <c r="E39">
+        <v>5</v>
+      </c>
+      <c r="F39">
+        <v>55000</v>
+      </c>
+      <c r="G39">
+        <v>275000</v>
       </c>
       <c r="H39" t="s">
-        <v>48</v>
+        <v>257</v>
       </c>
       <c r="I39" t="s">
         <v>48</v>
@@ -7709,17 +7688,17 @@
       <c r="J39" t="s">
         <v>48</v>
       </c>
-      <c r="K39" t="s">
-        <v>48</v>
-      </c>
-      <c r="L39" t="s">
-        <v>48</v>
-      </c>
-      <c r="M39" t="s">
-        <v>48</v>
+      <c r="K39">
+        <v>5</v>
+      </c>
+      <c r="L39">
+        <v>54000</v>
+      </c>
+      <c r="M39">
+        <v>270000</v>
       </c>
       <c r="N39" t="s">
-        <v>48</v>
+        <v>258</v>
       </c>
       <c r="O39" t="s">
         <v>48</v>
@@ -7727,17 +7706,17 @@
       <c r="P39" t="s">
         <v>48</v>
       </c>
-      <c r="Q39" t="s">
-        <v>48</v>
-      </c>
-      <c r="R39" t="s">
-        <v>48</v>
-      </c>
-      <c r="S39" t="s">
-        <v>48</v>
+      <c r="Q39">
+        <v>11</v>
+      </c>
+      <c r="R39">
+        <v>62000</v>
+      </c>
+      <c r="S39">
+        <v>682000</v>
       </c>
       <c r="T39" t="s">
-        <v>48</v>
+        <v>259</v>
       </c>
       <c r="U39" t="s">
         <v>48</v>
@@ -7764,21 +7743,22 @@
         <v>48</v>
       </c>
       <c r="AC39">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AD39">
-        <v>60000</v>
+        <v>62000</v>
       </c>
       <c r="AE39">
-        <v>900000</v>
+        <v>310000</v>
       </c>
       <c r="AF39" t="s">
-        <v>55</v>
-      </c>
-      <c r="AG39"/>
-      <c r="AH39" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <v>260</v>
+      </c>
+      <c r="AG39" t="s">
+        <v>256</v>
+      </c>
+      <c r="AH39">
+        <v>310000</v>
       </c>
       <c r="AI39" t="s">
         <v>48</v>
@@ -7822,25 +7802,25 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="C40" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="D40" t="s">
         <v>48</v>
       </c>
-      <c r="E40">
-        <v>5</v>
-      </c>
-      <c r="F40">
-        <v>99000</v>
-      </c>
-      <c r="G40">
-        <v>495000</v>
+      <c r="E40" t="s">
+        <v>48</v>
+      </c>
+      <c r="F40" t="s">
+        <v>48</v>
+      </c>
+      <c r="G40" t="s">
+        <v>48</v>
       </c>
       <c r="H40" t="s">
-        <v>258</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
         <v>48</v>
@@ -7848,17 +7828,17 @@
       <c r="J40" t="s">
         <v>48</v>
       </c>
-      <c r="K40">
-        <v>7</v>
-      </c>
-      <c r="L40">
-        <v>97000</v>
-      </c>
-      <c r="M40">
-        <v>679000</v>
+      <c r="K40" t="s">
+        <v>48</v>
+      </c>
+      <c r="L40" t="s">
+        <v>48</v>
+      </c>
+      <c r="M40" t="s">
+        <v>48</v>
       </c>
       <c r="N40" t="s">
-        <v>259</v>
+        <v>48</v>
       </c>
       <c r="O40" t="s">
         <v>48</v>
@@ -7866,17 +7846,17 @@
       <c r="P40" t="s">
         <v>48</v>
       </c>
-      <c r="Q40">
-        <v>7</v>
-      </c>
-      <c r="R40">
-        <v>98000</v>
-      </c>
-      <c r="S40">
-        <v>686000</v>
+      <c r="Q40" t="s">
+        <v>48</v>
+      </c>
+      <c r="R40" t="s">
+        <v>48</v>
+      </c>
+      <c r="S40" t="s">
+        <v>48</v>
       </c>
       <c r="T40" t="s">
-        <v>260</v>
+        <v>48</v>
       </c>
       <c r="U40" t="s">
         <v>48</v>
@@ -7884,17 +7864,17 @@
       <c r="V40" t="s">
         <v>48</v>
       </c>
-      <c r="W40">
-        <v>7</v>
-      </c>
-      <c r="X40">
-        <v>99000</v>
-      </c>
-      <c r="Y40">
-        <v>693000</v>
+      <c r="W40" t="s">
+        <v>48</v>
+      </c>
+      <c r="X40" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>48</v>
       </c>
       <c r="Z40" t="s">
-        <v>261</v>
+        <v>48</v>
       </c>
       <c r="AA40" t="s">
         <v>48</v>
@@ -7903,21 +7883,22 @@
         <v>48</v>
       </c>
       <c r="AC40">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="AD40">
-        <v>99000</v>
+        <v>60000</v>
       </c>
       <c r="AE40">
-        <v>693000</v>
+        <v>900000</v>
       </c>
       <c r="AF40" t="s">
-        <v>262</v>
-      </c>
-      <c r="AG40"/>
-      <c r="AH40" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <v>263</v>
+      </c>
+      <c r="AG40" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH40" t="s">
+        <v>48</v>
       </c>
       <c r="AI40" t="s">
         <v>48</v>
@@ -7961,25 +7942,25 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C41" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D41" t="s">
         <v>48</v>
       </c>
-      <c r="E41" t="s">
-        <v>48</v>
-      </c>
-      <c r="F41" t="s">
-        <v>48</v>
-      </c>
-      <c r="G41" t="s">
-        <v>48</v>
+      <c r="E41">
+        <v>5</v>
+      </c>
+      <c r="F41">
+        <v>99000</v>
+      </c>
+      <c r="G41">
+        <v>495000</v>
       </c>
       <c r="H41" t="s">
-        <v>48</v>
+        <v>266</v>
       </c>
       <c r="I41" t="s">
         <v>48</v>
@@ -7987,17 +7968,17 @@
       <c r="J41" t="s">
         <v>48</v>
       </c>
-      <c r="K41" t="s">
-        <v>48</v>
-      </c>
-      <c r="L41" t="s">
-        <v>48</v>
-      </c>
-      <c r="M41" t="s">
-        <v>48</v>
+      <c r="K41">
+        <v>7</v>
+      </c>
+      <c r="L41">
+        <v>97000</v>
+      </c>
+      <c r="M41">
+        <v>679000</v>
       </c>
       <c r="N41" t="s">
-        <v>48</v>
+        <v>267</v>
       </c>
       <c r="O41" t="s">
         <v>48</v>
@@ -8005,17 +7986,17 @@
       <c r="P41" t="s">
         <v>48</v>
       </c>
-      <c r="Q41" t="s">
-        <v>48</v>
-      </c>
-      <c r="R41" t="s">
-        <v>48</v>
-      </c>
-      <c r="S41" t="s">
-        <v>48</v>
+      <c r="Q41">
+        <v>7</v>
+      </c>
+      <c r="R41">
+        <v>98000</v>
+      </c>
+      <c r="S41">
+        <v>686000</v>
       </c>
       <c r="T41" t="s">
-        <v>48</v>
+        <v>268</v>
       </c>
       <c r="U41" t="s">
         <v>48</v>
@@ -8023,17 +8004,17 @@
       <c r="V41" t="s">
         <v>48</v>
       </c>
-      <c r="W41" t="s">
-        <v>48</v>
-      </c>
-      <c r="X41" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y41" t="s">
-        <v>48</v>
+      <c r="W41">
+        <v>7</v>
+      </c>
+      <c r="X41">
+        <v>99000</v>
+      </c>
+      <c r="Y41">
+        <v>693000</v>
       </c>
       <c r="Z41" t="s">
-        <v>48</v>
+        <v>269</v>
       </c>
       <c r="AA41" t="s">
         <v>48</v>
@@ -8042,23 +8023,22 @@
         <v>48</v>
       </c>
       <c r="AC41">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AD41">
-        <v>80000</v>
+        <v>14238</v>
       </c>
       <c r="AE41">
-        <v>800000</v>
+        <v>71190</v>
       </c>
       <c r="AF41" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="AG41" t="s">
         <v>48</v>
       </c>
-      <c r="AH41" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="AH41" t="s">
+        <v>48</v>
       </c>
       <c r="AI41" t="s">
         <v>48</v>
@@ -8102,10 +8082,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="C42" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D42" t="s">
         <v>48</v>
@@ -8183,23 +8163,22 @@
         <v>48</v>
       </c>
       <c r="AC42">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD42">
-        <v>72000</v>
+        <v>80000</v>
       </c>
       <c r="AE42">
-        <v>792000</v>
+        <v>800000</v>
       </c>
       <c r="AF42" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="AG42" t="s">
         <v>48</v>
       </c>
-      <c r="AH42" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="AH42" t="s">
+        <v>48</v>
       </c>
       <c r="AI42" t="s">
         <v>48</v>
@@ -8243,25 +8222,25 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="C43" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="D43" t="s">
         <v>48</v>
       </c>
-      <c r="E43">
-        <v>15</v>
-      </c>
-      <c r="F43">
-        <v>110000</v>
-      </c>
-      <c r="G43">
-        <v>1650000</v>
+      <c r="E43" t="s">
+        <v>48</v>
+      </c>
+      <c r="F43" t="s">
+        <v>48</v>
+      </c>
+      <c r="G43" t="s">
+        <v>48</v>
       </c>
       <c r="H43" t="s">
-        <v>271</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
         <v>48</v>
@@ -8269,17 +8248,17 @@
       <c r="J43" t="s">
         <v>48</v>
       </c>
-      <c r="K43">
-        <v>7</v>
-      </c>
-      <c r="L43">
-        <v>96000</v>
-      </c>
-      <c r="M43">
-        <v>672000</v>
+      <c r="K43" t="s">
+        <v>48</v>
+      </c>
+      <c r="L43" t="s">
+        <v>48</v>
+      </c>
+      <c r="M43" t="s">
+        <v>48</v>
       </c>
       <c r="N43" t="s">
-        <v>272</v>
+        <v>48</v>
       </c>
       <c r="O43" t="s">
         <v>48</v>
@@ -8287,17 +8266,17 @@
       <c r="P43" t="s">
         <v>48</v>
       </c>
-      <c r="Q43">
-        <v>7</v>
-      </c>
-      <c r="R43">
-        <v>99000</v>
-      </c>
-      <c r="S43">
-        <v>693000</v>
+      <c r="Q43" t="s">
+        <v>48</v>
+      </c>
+      <c r="R43" t="s">
+        <v>48</v>
+      </c>
+      <c r="S43" t="s">
+        <v>48</v>
       </c>
       <c r="T43" t="s">
-        <v>273</v>
+        <v>48</v>
       </c>
       <c r="U43" t="s">
         <v>48</v>
@@ -8305,17 +8284,17 @@
       <c r="V43" t="s">
         <v>48</v>
       </c>
-      <c r="W43">
-        <v>7</v>
-      </c>
-      <c r="X43">
-        <v>100000</v>
-      </c>
-      <c r="Y43">
-        <v>700000</v>
+      <c r="W43" t="s">
+        <v>48</v>
+      </c>
+      <c r="X43" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>48</v>
       </c>
       <c r="Z43" t="s">
-        <v>274</v>
+        <v>48</v>
       </c>
       <c r="AA43" t="s">
         <v>48</v>
@@ -8324,23 +8303,22 @@
         <v>48</v>
       </c>
       <c r="AC43">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AD43">
-        <v>104000</v>
+        <v>72000</v>
       </c>
       <c r="AE43">
-        <v>728000</v>
+        <v>792000</v>
       </c>
       <c r="AF43" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AG43" t="s">
         <v>48</v>
       </c>
-      <c r="AH43" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="AH43" t="s">
+        <v>48</v>
       </c>
       <c r="AI43" t="s">
         <v>48</v>
@@ -8384,25 +8362,25 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C44" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D44" t="s">
         <v>48</v>
       </c>
       <c r="E44">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F44">
-        <v>92000</v>
+        <v>110000</v>
       </c>
       <c r="G44">
-        <v>460000</v>
-      </c>
-      <c r="H44" s="2">
-        <v>43703.9393518519</v>
+        <v>1650000</v>
+      </c>
+      <c r="H44" t="s">
+        <v>279</v>
       </c>
       <c r="I44" t="s">
         <v>48</v>
@@ -8410,17 +8388,17 @@
       <c r="J44" t="s">
         <v>48</v>
       </c>
-      <c r="K44" t="s">
-        <v>48</v>
-      </c>
-      <c r="L44" t="s">
-        <v>48</v>
-      </c>
-      <c r="M44" t="s">
-        <v>48</v>
+      <c r="K44">
+        <v>7</v>
+      </c>
+      <c r="L44">
+        <v>96000</v>
+      </c>
+      <c r="M44">
+        <v>672000</v>
       </c>
       <c r="N44" t="s">
-        <v>48</v>
+        <v>280</v>
       </c>
       <c r="O44" t="s">
         <v>48</v>
@@ -8432,13 +8410,13 @@
         <v>7</v>
       </c>
       <c r="R44">
-        <v>92000</v>
+        <v>99000</v>
       </c>
       <c r="S44">
-        <v>644000</v>
+        <v>693000</v>
       </c>
       <c r="T44" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="U44" t="s">
         <v>48</v>
@@ -8446,17 +8424,17 @@
       <c r="V44" t="s">
         <v>48</v>
       </c>
-      <c r="W44" t="s">
-        <v>48</v>
-      </c>
-      <c r="X44" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y44" t="s">
-        <v>48</v>
+      <c r="W44">
+        <v>7</v>
+      </c>
+      <c r="X44">
+        <v>100000</v>
+      </c>
+      <c r="Y44">
+        <v>700000</v>
       </c>
       <c r="Z44" t="s">
-        <v>48</v>
+        <v>282</v>
       </c>
       <c r="AA44" t="s">
         <v>48</v>
@@ -8468,20 +8446,19 @@
         <v>7</v>
       </c>
       <c r="AD44">
-        <v>93000</v>
+        <v>104000</v>
       </c>
       <c r="AE44">
-        <v>651000</v>
+        <v>728000</v>
       </c>
       <c r="AF44" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="AG44" t="s">
         <v>48</v>
       </c>
-      <c r="AH44" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="AH44" t="s">
+        <v>48</v>
       </c>
       <c r="AI44" t="s">
         <v>48</v>
@@ -8525,10 +8502,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="C45" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="D45" t="s">
         <v>48</v>
@@ -8537,13 +8514,13 @@
         <v>5</v>
       </c>
       <c r="F45">
-        <v>100000</v>
+        <v>92000</v>
       </c>
       <c r="G45">
-        <v>500000</v>
-      </c>
-      <c r="H45" t="s">
-        <v>282</v>
+        <v>460000</v>
+      </c>
+      <c r="H45" s="2">
+        <v>43703.9393518519</v>
       </c>
       <c r="I45" t="s">
         <v>48</v>
@@ -8551,17 +8528,17 @@
       <c r="J45" t="s">
         <v>48</v>
       </c>
-      <c r="K45">
-        <v>6</v>
-      </c>
-      <c r="L45">
-        <v>100000</v>
-      </c>
-      <c r="M45">
-        <v>600000</v>
+      <c r="K45" t="s">
+        <v>48</v>
+      </c>
+      <c r="L45" t="s">
+        <v>48</v>
+      </c>
+      <c r="M45" t="s">
+        <v>48</v>
       </c>
       <c r="N45" t="s">
-        <v>283</v>
+        <v>48</v>
       </c>
       <c r="O45" t="s">
         <v>48</v>
@@ -8570,16 +8547,16 @@
         <v>48</v>
       </c>
       <c r="Q45">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R45">
-        <v>114000</v>
+        <v>92000</v>
       </c>
       <c r="S45">
-        <v>684000</v>
+        <v>644000</v>
       </c>
       <c r="T45" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="U45" t="s">
         <v>48</v>
@@ -8587,17 +8564,17 @@
       <c r="V45" t="s">
         <v>48</v>
       </c>
-      <c r="W45">
-        <v>6</v>
-      </c>
-      <c r="X45">
-        <v>111000</v>
-      </c>
-      <c r="Y45">
-        <v>666000</v>
+      <c r="W45" t="s">
+        <v>48</v>
+      </c>
+      <c r="X45" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>48</v>
       </c>
       <c r="Z45" t="s">
-        <v>285</v>
+        <v>48</v>
       </c>
       <c r="AA45" t="s">
         <v>48</v>
@@ -8606,23 +8583,22 @@
         <v>48</v>
       </c>
       <c r="AC45">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AD45">
-        <v>116000</v>
+        <v>93000</v>
       </c>
       <c r="AE45">
-        <v>696000</v>
+        <v>651000</v>
       </c>
       <c r="AF45" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AG45" t="s">
         <v>48</v>
       </c>
-      <c r="AH45" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="AH45" t="s">
+        <v>48</v>
       </c>
       <c r="AI45" t="s">
         <v>48</v>
@@ -8666,10 +8642,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C46" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D46" t="s">
         <v>48</v>
@@ -8678,13 +8654,13 @@
         <v>5</v>
       </c>
       <c r="F46">
-        <v>94000</v>
+        <v>100000</v>
       </c>
       <c r="G46">
-        <v>470000</v>
+        <v>500000</v>
       </c>
       <c r="H46" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="I46" t="s">
         <v>48</v>
@@ -8696,13 +8672,13 @@
         <v>6</v>
       </c>
       <c r="L46">
-        <v>112000</v>
+        <v>100000</v>
       </c>
       <c r="M46">
-        <v>672000</v>
+        <v>600000</v>
       </c>
       <c r="N46" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="O46" t="s">
         <v>48</v>
@@ -8714,13 +8690,13 @@
         <v>6</v>
       </c>
       <c r="R46">
-        <v>120000</v>
+        <v>114000</v>
       </c>
       <c r="S46">
-        <v>720000</v>
+        <v>684000</v>
       </c>
       <c r="T46" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="U46" t="s">
         <v>48</v>
@@ -8732,13 +8708,13 @@
         <v>6</v>
       </c>
       <c r="X46">
-        <v>122000</v>
+        <v>111000</v>
       </c>
       <c r="Y46">
-        <v>732000</v>
+        <v>666000</v>
       </c>
       <c r="Z46" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AA46" t="s">
         <v>48</v>
@@ -8750,20 +8726,19 @@
         <v>6</v>
       </c>
       <c r="AD46">
-        <v>123000</v>
+        <v>116000</v>
       </c>
       <c r="AE46">
-        <v>738000</v>
+        <v>696000</v>
       </c>
       <c r="AF46" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AG46" t="s">
         <v>48</v>
       </c>
-      <c r="AH46" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="AH46" t="s">
+        <v>48</v>
       </c>
       <c r="AI46" t="s">
         <v>48</v>
@@ -8807,10 +8782,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C47" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D47" t="s">
         <v>48</v>
@@ -8819,13 +8794,13 @@
         <v>5</v>
       </c>
       <c r="F47">
-        <v>133000</v>
+        <v>94000</v>
       </c>
       <c r="G47">
-        <v>665000</v>
+        <v>470000</v>
       </c>
       <c r="H47" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="I47" t="s">
         <v>48</v>
@@ -8834,34 +8809,34 @@
         <v>48</v>
       </c>
       <c r="K47">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L47">
-        <v>144000</v>
+        <v>112000</v>
       </c>
       <c r="M47">
+        <v>672000</v>
+      </c>
+      <c r="N47" t="s">
+        <v>298</v>
+      </c>
+      <c r="O47" t="s">
+        <v>48</v>
+      </c>
+      <c r="P47" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q47">
+        <v>6</v>
+      </c>
+      <c r="R47">
+        <v>120000</v>
+      </c>
+      <c r="S47">
         <v>720000</v>
       </c>
-      <c r="N47" t="s">
-        <v>297</v>
-      </c>
-      <c r="O47" t="s">
-        <v>48</v>
-      </c>
-      <c r="P47" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q47">
-        <v>5</v>
-      </c>
-      <c r="R47">
-        <v>148000</v>
-      </c>
-      <c r="S47">
-        <v>740000</v>
-      </c>
       <c r="T47" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="U47" t="s">
         <v>48</v>
@@ -8870,16 +8845,16 @@
         <v>48</v>
       </c>
       <c r="W47">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="X47">
-        <v>154000</v>
+        <v>122000</v>
       </c>
       <c r="Y47">
-        <v>770000</v>
+        <v>732000</v>
       </c>
       <c r="Z47" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AA47" t="s">
         <v>48</v>
@@ -8888,23 +8863,22 @@
         <v>48</v>
       </c>
       <c r="AC47">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AD47">
-        <v>150000</v>
+        <v>123000</v>
       </c>
       <c r="AE47">
-        <v>750000</v>
+        <v>738000</v>
       </c>
       <c r="AF47" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AG47" t="s">
         <v>48</v>
       </c>
-      <c r="AH47" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="AH47" t="s">
+        <v>48</v>
       </c>
       <c r="AI47" t="s">
         <v>48</v>
@@ -8948,10 +8922,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C48" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D48" t="s">
         <v>48</v>
@@ -8960,13 +8934,13 @@
         <v>5</v>
       </c>
       <c r="F48">
-        <v>105000</v>
+        <v>133000</v>
       </c>
       <c r="G48">
-        <v>525000</v>
+        <v>665000</v>
       </c>
       <c r="H48" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="I48" t="s">
         <v>48</v>
@@ -8975,16 +8949,16 @@
         <v>48</v>
       </c>
       <c r="K48">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="L48">
-        <v>88000</v>
+        <v>144000</v>
       </c>
       <c r="M48">
-        <v>704000</v>
+        <v>720000</v>
       </c>
       <c r="N48" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="O48" t="s">
         <v>48</v>
@@ -8993,16 +8967,16 @@
         <v>48</v>
       </c>
       <c r="Q48">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="R48">
-        <v>100000</v>
+        <v>148000</v>
       </c>
       <c r="S48">
-        <v>700000</v>
+        <v>740000</v>
       </c>
       <c r="T48" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="U48" t="s">
         <v>48</v>
@@ -9011,16 +8985,16 @@
         <v>48</v>
       </c>
       <c r="W48">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="X48">
-        <v>93000</v>
+        <v>154000</v>
       </c>
       <c r="Y48">
-        <v>651000</v>
+        <v>770000</v>
       </c>
       <c r="Z48" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AA48" t="s">
         <v>48</v>
@@ -9029,23 +9003,22 @@
         <v>48</v>
       </c>
       <c r="AC48">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AD48">
-        <v>94000</v>
+        <v>150000</v>
       </c>
       <c r="AE48">
-        <v>658000</v>
+        <v>750000</v>
       </c>
       <c r="AF48" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AG48" t="s">
         <v>48</v>
       </c>
-      <c r="AH48" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="AH48" t="s">
+        <v>48</v>
       </c>
       <c r="AI48" t="s">
         <v>48</v>
@@ -9089,10 +9062,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C49" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D49" t="s">
         <v>48</v>
@@ -9101,13 +9074,13 @@
         <v>5</v>
       </c>
       <c r="F49">
-        <v>85000</v>
+        <v>105000</v>
       </c>
       <c r="G49">
-        <v>425000</v>
+        <v>525000</v>
       </c>
       <c r="H49" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="I49" t="s">
         <v>48</v>
@@ -9115,17 +9088,17 @@
       <c r="J49" t="s">
         <v>48</v>
       </c>
-      <c r="K49" t="s">
-        <v>48</v>
-      </c>
-      <c r="L49" t="s">
-        <v>48</v>
-      </c>
-      <c r="M49" t="s">
-        <v>48</v>
+      <c r="K49">
+        <v>8</v>
+      </c>
+      <c r="L49">
+        <v>88000</v>
+      </c>
+      <c r="M49">
+        <v>704000</v>
       </c>
       <c r="N49" t="s">
-        <v>48</v>
+        <v>312</v>
       </c>
       <c r="O49" t="s">
         <v>48</v>
@@ -9133,17 +9106,17 @@
       <c r="P49" t="s">
         <v>48</v>
       </c>
-      <c r="Q49" t="s">
-        <v>48</v>
-      </c>
-      <c r="R49" t="s">
-        <v>48</v>
-      </c>
-      <c r="S49" t="s">
-        <v>48</v>
+      <c r="Q49">
+        <v>7</v>
+      </c>
+      <c r="R49">
+        <v>100000</v>
+      </c>
+      <c r="S49">
+        <v>700000</v>
       </c>
       <c r="T49" t="s">
-        <v>48</v>
+        <v>313</v>
       </c>
       <c r="U49" t="s">
         <v>48</v>
@@ -9155,13 +9128,13 @@
         <v>7</v>
       </c>
       <c r="X49">
-        <v>120000</v>
+        <v>93000</v>
       </c>
       <c r="Y49">
-        <v>840000</v>
+        <v>651000</v>
       </c>
       <c r="Z49" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="AA49" t="s">
         <v>48</v>
@@ -9170,23 +9143,22 @@
         <v>48</v>
       </c>
       <c r="AC49">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AD49">
-        <v>120000</v>
+        <v>94000</v>
       </c>
       <c r="AE49">
-        <v>720000</v>
+        <v>658000</v>
       </c>
       <c r="AF49" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="AG49" t="s">
         <v>48</v>
       </c>
-      <c r="AH49" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="AH49" t="s">
+        <v>48</v>
       </c>
       <c r="AI49" t="s">
         <v>48</v>
@@ -9230,25 +9202,25 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C50" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="D50" t="s">
         <v>48</v>
       </c>
       <c r="E50">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="F50">
-        <v>140000</v>
+        <v>85000</v>
       </c>
       <c r="G50">
-        <v>2100000</v>
+        <v>425000</v>
       </c>
       <c r="H50" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="I50" t="s">
         <v>48</v>
@@ -9256,17 +9228,17 @@
       <c r="J50" t="s">
         <v>48</v>
       </c>
-      <c r="K50">
-        <v>5</v>
-      </c>
-      <c r="L50">
-        <v>150000</v>
-      </c>
-      <c r="M50">
-        <v>750000</v>
+      <c r="K50" t="s">
+        <v>48</v>
+      </c>
+      <c r="L50" t="s">
+        <v>48</v>
+      </c>
+      <c r="M50" t="s">
+        <v>48</v>
       </c>
       <c r="N50" t="s">
-        <v>316</v>
+        <v>48</v>
       </c>
       <c r="O50" t="s">
         <v>48</v>
@@ -9274,17 +9246,17 @@
       <c r="P50" t="s">
         <v>48</v>
       </c>
-      <c r="Q50">
-        <v>5</v>
-      </c>
-      <c r="R50">
-        <v>150000</v>
-      </c>
-      <c r="S50">
-        <v>750000</v>
+      <c r="Q50" t="s">
+        <v>48</v>
+      </c>
+      <c r="R50" t="s">
+        <v>48</v>
+      </c>
+      <c r="S50" t="s">
+        <v>48</v>
       </c>
       <c r="T50" t="s">
-        <v>317</v>
+        <v>48</v>
       </c>
       <c r="U50" t="s">
         <v>48</v>
@@ -9293,16 +9265,16 @@
         <v>48</v>
       </c>
       <c r="W50">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="X50">
-        <v>150000</v>
+        <v>120000</v>
       </c>
       <c r="Y50">
-        <v>750000</v>
+        <v>840000</v>
       </c>
       <c r="Z50" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AA50" t="s">
         <v>48</v>
@@ -9311,23 +9283,22 @@
         <v>48</v>
       </c>
       <c r="AC50">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AD50">
-        <v>150000</v>
+        <v>120000</v>
       </c>
       <c r="AE50">
-        <v>750000</v>
+        <v>720000</v>
       </c>
       <c r="AF50" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AG50" t="s">
         <v>48</v>
       </c>
-      <c r="AH50" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="AH50" t="s">
+        <v>48</v>
       </c>
       <c r="AI50" t="s">
         <v>48</v>
@@ -9371,25 +9342,25 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C51" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D51" t="s">
         <v>48</v>
       </c>
-      <c r="E51" t="s">
-        <v>48</v>
-      </c>
-      <c r="F51" t="s">
-        <v>48</v>
-      </c>
-      <c r="G51" t="s">
-        <v>48</v>
+      <c r="E51">
+        <v>15</v>
+      </c>
+      <c r="F51">
+        <v>140000</v>
+      </c>
+      <c r="G51">
+        <v>2100000</v>
       </c>
       <c r="H51" t="s">
-        <v>48</v>
+        <v>323</v>
       </c>
       <c r="I51" t="s">
         <v>48</v>
@@ -9397,17 +9368,17 @@
       <c r="J51" t="s">
         <v>48</v>
       </c>
-      <c r="K51" t="s">
-        <v>48</v>
-      </c>
-      <c r="L51" t="s">
-        <v>48</v>
-      </c>
-      <c r="M51" t="s">
-        <v>48</v>
+      <c r="K51">
+        <v>5</v>
+      </c>
+      <c r="L51">
+        <v>150000</v>
+      </c>
+      <c r="M51">
+        <v>750000</v>
       </c>
       <c r="N51" t="s">
-        <v>48</v>
+        <v>324</v>
       </c>
       <c r="O51" t="s">
         <v>48</v>
@@ -9415,17 +9386,17 @@
       <c r="P51" t="s">
         <v>48</v>
       </c>
-      <c r="Q51" t="s">
-        <v>48</v>
-      </c>
-      <c r="R51" t="s">
-        <v>48</v>
-      </c>
-      <c r="S51" t="s">
-        <v>48</v>
+      <c r="Q51">
+        <v>5</v>
+      </c>
+      <c r="R51">
+        <v>150000</v>
+      </c>
+      <c r="S51">
+        <v>750000</v>
       </c>
       <c r="T51" t="s">
-        <v>48</v>
+        <v>325</v>
       </c>
       <c r="U51" t="s">
         <v>48</v>
@@ -9433,17 +9404,17 @@
       <c r="V51" t="s">
         <v>48</v>
       </c>
-      <c r="W51" t="s">
-        <v>48</v>
-      </c>
-      <c r="X51" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y51" t="s">
-        <v>48</v>
+      <c r="W51">
+        <v>5</v>
+      </c>
+      <c r="X51">
+        <v>150000</v>
+      </c>
+      <c r="Y51">
+        <v>750000</v>
       </c>
       <c r="Z51" t="s">
-        <v>48</v>
+        <v>326</v>
       </c>
       <c r="AA51" t="s">
         <v>48</v>
@@ -9451,24 +9422,23 @@
       <c r="AB51" t="s">
         <v>48</v>
       </c>
-      <c r="AC51" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD51" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE51" t="s">
-        <v>48</v>
+      <c r="AC51">
+        <v>5</v>
+      </c>
+      <c r="AD51">
+        <v>150000</v>
+      </c>
+      <c r="AE51">
+        <v>750000</v>
       </c>
       <c r="AF51" t="s">
-        <v>48</v>
+        <v>327</v>
       </c>
       <c r="AG51" t="s">
-        <v>321</v>
-      </c>
-      <c r="AH51" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <v>48</v>
+      </c>
+      <c r="AH51" t="s">
+        <v>48</v>
       </c>
       <c r="AI51" t="s">
         <v>48</v>
@@ -9512,25 +9482,25 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="C52" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="D52" t="s">
         <v>48</v>
       </c>
-      <c r="E52">
-        <v>5</v>
-      </c>
-      <c r="F52">
-        <v>81000</v>
-      </c>
-      <c r="G52">
-        <v>405000</v>
+      <c r="E52" t="s">
+        <v>48</v>
+      </c>
+      <c r="F52" t="s">
+        <v>48</v>
+      </c>
+      <c r="G52" t="s">
+        <v>48</v>
       </c>
       <c r="H52" t="s">
-        <v>324</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
         <v>48</v>
@@ -9538,17 +9508,17 @@
       <c r="J52" t="s">
         <v>48</v>
       </c>
-      <c r="K52">
-        <v>8</v>
-      </c>
-      <c r="L52">
-        <v>90000</v>
-      </c>
-      <c r="M52">
-        <v>720000</v>
+      <c r="K52" t="s">
+        <v>48</v>
+      </c>
+      <c r="L52" t="s">
+        <v>48</v>
+      </c>
+      <c r="M52" t="s">
+        <v>48</v>
       </c>
       <c r="N52" t="s">
-        <v>325</v>
+        <v>48</v>
       </c>
       <c r="O52" t="s">
         <v>48</v>
@@ -9556,17 +9526,17 @@
       <c r="P52" t="s">
         <v>48</v>
       </c>
-      <c r="Q52">
-        <v>8</v>
-      </c>
-      <c r="R52">
-        <v>90000</v>
-      </c>
-      <c r="S52">
-        <v>720000</v>
+      <c r="Q52" t="s">
+        <v>48</v>
+      </c>
+      <c r="R52" t="s">
+        <v>48</v>
+      </c>
+      <c r="S52" t="s">
+        <v>48</v>
       </c>
       <c r="T52" t="s">
-        <v>326</v>
+        <v>48</v>
       </c>
       <c r="U52" t="s">
         <v>48</v>
@@ -9592,24 +9562,23 @@
       <c r="AB52" t="s">
         <v>48</v>
       </c>
-      <c r="AC52">
-        <v>8</v>
-      </c>
-      <c r="AD52">
-        <v>90000</v>
-      </c>
-      <c r="AE52">
-        <v>720000</v>
+      <c r="AC52" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD52" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE52" t="s">
+        <v>48</v>
       </c>
       <c r="AF52" t="s">
-        <v>327</v>
+        <v>48</v>
       </c>
       <c r="AG52" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH52" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <v>329</v>
+      </c>
+      <c r="AH52" t="s">
+        <v>48</v>
       </c>
       <c r="AI52" t="s">
         <v>48</v>
@@ -9653,10 +9622,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C53" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D53" t="s">
         <v>48</v>
@@ -9665,13 +9634,13 @@
         <v>5</v>
       </c>
       <c r="F53">
-        <v>106000</v>
+        <v>81000</v>
       </c>
       <c r="G53">
-        <v>530000</v>
+        <v>405000</v>
       </c>
       <c r="H53" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="I53" t="s">
         <v>48</v>
@@ -9680,16 +9649,16 @@
         <v>48</v>
       </c>
       <c r="K53">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="L53">
-        <v>130000</v>
+        <v>90000</v>
       </c>
       <c r="M53">
-        <v>650000</v>
+        <v>720000</v>
       </c>
       <c r="N53" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="O53" t="s">
         <v>48</v>
@@ -9698,16 +9667,16 @@
         <v>48</v>
       </c>
       <c r="Q53">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="R53">
-        <v>134000</v>
+        <v>90000</v>
       </c>
       <c r="S53">
-        <v>670000</v>
+        <v>720000</v>
       </c>
       <c r="T53" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="U53" t="s">
         <v>48</v>
@@ -9715,17 +9684,17 @@
       <c r="V53" t="s">
         <v>48</v>
       </c>
-      <c r="W53">
-        <v>5</v>
-      </c>
-      <c r="X53">
-        <v>138000</v>
-      </c>
-      <c r="Y53">
-        <v>690000</v>
+      <c r="W53" t="s">
+        <v>48</v>
+      </c>
+      <c r="X53" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>48</v>
       </c>
       <c r="Z53" t="s">
-        <v>333</v>
+        <v>48</v>
       </c>
       <c r="AA53" t="s">
         <v>48</v>
@@ -9734,23 +9703,22 @@
         <v>48</v>
       </c>
       <c r="AC53">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AD53">
-        <v>139000</v>
+        <v>90000</v>
       </c>
       <c r="AE53">
-        <v>695000</v>
+        <v>720000</v>
       </c>
       <c r="AF53" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AG53" t="s">
         <v>48</v>
       </c>
-      <c r="AH53" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="AH53" t="s">
+        <v>48</v>
       </c>
       <c r="AI53" t="s">
         <v>48</v>
@@ -9794,10 +9762,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C54" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D54" t="s">
         <v>48</v>
@@ -9812,7 +9780,7 @@
         <v>405000</v>
       </c>
       <c r="H54" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="I54" t="s">
         <v>48</v>
@@ -9830,7 +9798,7 @@
         <v>48</v>
       </c>
       <c r="N54" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="O54" t="s">
         <v>48</v>
@@ -9848,7 +9816,7 @@
         <v>635000</v>
       </c>
       <c r="T54" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="U54" t="s">
         <v>48</v>
@@ -9866,7 +9834,7 @@
         <v>640000</v>
       </c>
       <c r="Z54" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AA54" t="s">
         <v>48</v>
@@ -9884,14 +9852,13 @@
         <v>635000</v>
       </c>
       <c r="AF54" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AG54" t="s">
         <v>48</v>
       </c>
-      <c r="AH54" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="AH54" t="s">
+        <v>48</v>
       </c>
       <c r="AI54" t="s">
         <v>48</v>
@@ -9935,10 +9902,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C55" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D55" t="s">
         <v>48</v>
@@ -9953,7 +9920,7 @@
         <v>570000</v>
       </c>
       <c r="H55" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="I55" t="s">
         <v>48</v>
@@ -9971,7 +9938,7 @@
         <v>530000</v>
       </c>
       <c r="N55" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="O55" t="s">
         <v>48</v>
@@ -9989,7 +9956,7 @@
         <v>728000</v>
       </c>
       <c r="T55" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="U55" t="s">
         <v>48</v>
@@ -10007,7 +9974,7 @@
         <v>756000</v>
       </c>
       <c r="Z55" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AA55" t="s">
         <v>48</v>
@@ -10025,14 +9992,13 @@
         <v>749000</v>
       </c>
       <c r="AF55" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AG55" t="s">
         <v>48</v>
       </c>
-      <c r="AH55" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="AH55" t="s">
+        <v>48</v>
       </c>
       <c r="AI55" t="s">
         <v>48</v>
@@ -10076,10 +10042,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C56" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D56" t="s">
         <v>48</v>
@@ -10094,7 +10060,7 @@
         <v>500000</v>
       </c>
       <c r="H56" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="I56" t="s">
         <v>48</v>
@@ -10112,7 +10078,7 @@
         <v>700000</v>
       </c>
       <c r="N56" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="O56" t="s">
         <v>48</v>
@@ -10130,7 +10096,7 @@
         <v>840000</v>
       </c>
       <c r="T56" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="U56" t="s">
         <v>48</v>
@@ -10148,7 +10114,7 @@
         <v>980000</v>
       </c>
       <c r="Z56" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AA56" t="s">
         <v>48</v>
@@ -10166,14 +10132,13 @@
         <v>980000</v>
       </c>
       <c r="AF56" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AG56" t="s">
         <v>48</v>
       </c>
-      <c r="AH56" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="AH56" t="s">
+        <v>48</v>
       </c>
       <c r="AI56" t="s">
         <v>48</v>
@@ -10217,10 +10182,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C57" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D57" t="s">
         <v>48</v>
@@ -10312,9 +10277,8 @@
       <c r="AG57" t="s">
         <v>48</v>
       </c>
-      <c r="AH57" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="AH57" t="s">
+        <v>48</v>
       </c>
       <c r="AI57" t="s">
         <v>48</v>
@@ -10358,10 +10322,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C58" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D58" t="s">
         <v>48</v>
@@ -10376,7 +10340,7 @@
         <v>470000</v>
       </c>
       <c r="H58" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="I58" t="s">
         <v>48</v>
@@ -10394,7 +10358,7 @@
         <v>702000</v>
       </c>
       <c r="N58" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="O58" t="s">
         <v>48</v>
@@ -10412,7 +10376,7 @@
         <v>651000</v>
       </c>
       <c r="T58" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="U58" t="s">
         <v>48</v>
@@ -10430,7 +10394,7 @@
         <v>658000</v>
       </c>
       <c r="Z58" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AA58" t="s">
         <v>48</v>
@@ -10448,14 +10412,13 @@
         <v>658000</v>
       </c>
       <c r="AF58" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AG58" t="s">
         <v>48</v>
       </c>
-      <c r="AH58" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="AH58" t="s">
+        <v>48</v>
       </c>
       <c r="AI58" t="s">
         <v>48</v>
@@ -10499,10 +10462,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C59" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D59" t="s">
         <v>48</v>
@@ -10592,11 +10555,10 @@
         <v>48</v>
       </c>
       <c r="AG59" t="s">
-        <v>366</v>
-      </c>
-      <c r="AH59" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <v>367</v>
+      </c>
+      <c r="AH59" t="s">
+        <v>48</v>
       </c>
       <c r="AI59" t="s">
         <v>48</v>
@@ -10640,10 +10602,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C60" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D60" t="s">
         <v>48</v>
@@ -10658,7 +10620,7 @@
         <v>750000</v>
       </c>
       <c r="H60" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="I60" t="s">
         <v>48</v>
@@ -10676,7 +10638,7 @@
         <v>720000</v>
       </c>
       <c r="N60" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="O60" t="s">
         <v>48</v>
@@ -10694,7 +10656,7 @@
         <v>720000</v>
       </c>
       <c r="T60" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="U60" t="s">
         <v>48</v>
@@ -10712,7 +10674,7 @@
         <v>774000</v>
       </c>
       <c r="Z60" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AA60" t="s">
         <v>48</v>
@@ -10730,14 +10692,13 @@
         <v>650000</v>
       </c>
       <c r="AF60" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AG60" t="s">
         <v>48</v>
       </c>
-      <c r="AH60" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="AH60" t="s">
+        <v>48</v>
       </c>
       <c r="AI60" t="s">
         <v>48</v>
@@ -10781,10 +10742,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C61" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D61" t="s">
         <v>48</v>
@@ -10799,7 +10760,7 @@
         <v>695000</v>
       </c>
       <c r="H61" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="I61" t="s">
         <v>48</v>
@@ -10817,7 +10778,7 @@
         <v>650430</v>
       </c>
       <c r="N61" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="O61" t="s">
         <v>48</v>
@@ -10835,7 +10796,7 @@
         <v>691188</v>
       </c>
       <c r="T61" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="U61" t="s">
         <v>48</v>
@@ -10853,7 +10814,7 @@
         <v>701166</v>
       </c>
       <c r="Z61" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AA61" t="s">
         <v>48</v>
@@ -10871,14 +10832,13 @@
         <v>713370</v>
       </c>
       <c r="AF61" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AG61" t="s">
         <v>48</v>
       </c>
-      <c r="AH61" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="AH61" t="s">
+        <v>48</v>
       </c>
       <c r="AI61" t="s">
         <v>48</v>
@@ -10922,10 +10882,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C62" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D62" t="s">
         <v>48</v>
@@ -10958,7 +10918,7 @@
         <v>684000</v>
       </c>
       <c r="N62" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="O62" t="s">
         <v>48</v>
@@ -10976,7 +10936,7 @@
         <v>702000</v>
       </c>
       <c r="T62" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="U62" t="s">
         <v>48</v>
@@ -10994,7 +10954,7 @@
         <v>656000</v>
       </c>
       <c r="Z62" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AA62" t="s">
         <v>48</v>
@@ -11012,14 +10972,13 @@
         <v>664000</v>
       </c>
       <c r="AF62" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AG62" t="s">
         <v>48</v>
       </c>
-      <c r="AH62" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="AH62" t="s">
+        <v>48</v>
       </c>
       <c r="AI62" t="s">
         <v>48</v>
@@ -11063,10 +11022,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C63" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D63" t="s">
         <v>48</v>
@@ -11135,7 +11094,7 @@
         <v>990000</v>
       </c>
       <c r="Z63" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AA63" t="s">
         <v>48</v>
@@ -11153,14 +11112,13 @@
         <v>679000</v>
       </c>
       <c r="AF63" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AG63" t="s">
         <v>48</v>
       </c>
-      <c r="AH63" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="AH63" t="s">
+        <v>48</v>
       </c>
       <c r="AI63" t="s">
         <v>48</v>
@@ -11204,10 +11162,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C64" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D64" t="s">
         <v>48</v>
@@ -11222,7 +11180,7 @@
         <v>430000</v>
       </c>
       <c r="H64" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="I64" t="s">
         <v>48</v>
@@ -11240,7 +11198,7 @@
         <v>725000</v>
       </c>
       <c r="N64" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="O64" t="s">
         <v>48</v>
@@ -11258,7 +11216,7 @@
         <v>770000</v>
       </c>
       <c r="T64" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="U64" t="s">
         <v>48</v>
@@ -11276,7 +11234,7 @@
         <v>785000</v>
       </c>
       <c r="Z64" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AA64" t="s">
         <v>48</v>
@@ -11294,14 +11252,13 @@
         <v>810000</v>
       </c>
       <c r="AF64" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AG64" t="s">
         <v>48</v>
       </c>
-      <c r="AH64" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="AH64" t="s">
+        <v>48</v>
       </c>
       <c r="AI64" t="s">
         <v>48</v>
@@ -11345,10 +11302,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C65" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D65" t="s">
         <v>48</v>
@@ -11363,7 +11320,7 @@
         <v>340000</v>
       </c>
       <c r="H65" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="I65" t="s">
         <v>48</v>
@@ -11381,7 +11338,7 @@
         <v>320000</v>
       </c>
       <c r="N65" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="O65" t="s">
         <v>48</v>
@@ -11399,7 +11356,7 @@
         <v>675000</v>
       </c>
       <c r="T65" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="U65" t="s">
         <v>48</v>
@@ -11417,7 +11374,7 @@
         <v>693000</v>
       </c>
       <c r="Z65" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AA65" t="s">
         <v>48</v>
@@ -11435,7 +11392,7 @@
         <v>693000</v>
       </c>
       <c r="AF65" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AG65" t="s">
         <v>48</v>
@@ -11485,10 +11442,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C66" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D66" t="s">
         <v>48</v>
@@ -11503,7 +11460,7 @@
         <v>500000</v>
       </c>
       <c r="H66" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="I66" t="s">
         <v>48</v>
@@ -11521,7 +11478,7 @@
         <v>732000</v>
       </c>
       <c r="N66" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="O66" t="s">
         <v>48</v>
@@ -11539,7 +11496,7 @@
         <v>738000</v>
       </c>
       <c r="T66" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="U66" t="s">
         <v>48</v>
@@ -11557,7 +11514,7 @@
         <v>750000</v>
       </c>
       <c r="Z66" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AA66" t="s">
         <v>48</v>
@@ -11575,7 +11532,7 @@
         <v>750000</v>
       </c>
       <c r="AF66" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AG66" t="s">
         <v>48</v>
@@ -11625,10 +11582,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C67" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D67" t="s">
         <v>48</v>
@@ -11643,7 +11600,7 @@
         <v>522650</v>
       </c>
       <c r="H67" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="I67" t="s">
         <v>48</v>
@@ -11661,7 +11618,7 @@
         <v>635815</v>
       </c>
       <c r="N67" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="O67" t="s">
         <v>48</v>
@@ -11679,7 +11636,7 @@
         <v>399780</v>
       </c>
       <c r="T67" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="U67" t="s">
         <v>48</v>
@@ -11697,7 +11654,7 @@
         <v>1206555</v>
       </c>
       <c r="Z67" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AA67" t="s">
         <v>48</v>
@@ -11715,7 +11672,7 @@
         <v>908400</v>
       </c>
       <c r="AF67" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AG67" t="s">
         <v>48</v>
@@ -11765,10 +11722,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C68" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D68" t="s">
         <v>48</v>
@@ -11783,7 +11740,7 @@
         <v>660000</v>
       </c>
       <c r="H68" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="I68" t="s">
         <v>48</v>
@@ -11801,7 +11758,7 @@
         <v>655000</v>
       </c>
       <c r="N68" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="O68" t="s">
         <v>48</v>
@@ -11819,7 +11776,7 @@
         <v>660000</v>
       </c>
       <c r="T68" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="U68" t="s">
         <v>48</v>
@@ -11837,7 +11794,7 @@
         <v>670000</v>
       </c>
       <c r="Z68" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AA68" t="s">
         <v>48</v>
@@ -11855,7 +11812,7 @@
         <v>675000</v>
       </c>
       <c r="AF68" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AG68" t="s">
         <v>48</v>
@@ -11905,10 +11862,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C69" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D69" t="s">
         <v>48</v>
@@ -11995,7 +11952,7 @@
         <v>590000</v>
       </c>
       <c r="AF69" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AG69" t="s">
         <v>48</v>

--- a/落花机密表_糙汉子版.xlsx
+++ b/落花机密表_糙汉子版.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2934" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2627" uniqueCount="340">
   <si>
     <t>QQ</t>
   </si>
@@ -167,231 +167,327 @@
     <t>2019-09-03 18:58:30</t>
   </si>
   <si>
+    <t>2019-09-04 16:39:58</t>
+  </si>
+  <si>
     <t>happy.my.love@qq.com</t>
   </si>
   <si>
     <t>落花@冷月小猫泪</t>
   </si>
   <si>
+    <t>2019-09-04 17:28:35</t>
+  </si>
+  <si>
+    <t>78191877</t>
+  </si>
+  <si>
+    <t>落花 星光化作翅膀</t>
+  </si>
+  <si>
+    <t>2019-09-04 14:26:20</t>
+  </si>
+  <si>
+    <t>30137763</t>
+  </si>
+  <si>
+    <t>落花樱茶</t>
+  </si>
+  <si>
+    <t>1327354755</t>
+  </si>
+  <si>
+    <t>落花 清水奈绪子（错过派对，错过一亿）</t>
+  </si>
+  <si>
+    <t>2019-09-02 23:12:28</t>
+  </si>
+  <si>
+    <t>2019-09-03 13:15:06</t>
+  </si>
+  <si>
+    <t>39302003</t>
+  </si>
+  <si>
+    <t>落花 神仙</t>
+  </si>
+  <si>
+    <t>781898849</t>
+  </si>
+  <si>
+    <t>落花-KGAoi</t>
+  </si>
+  <si>
+    <t>2019-09-03 11:36:06</t>
+  </si>
+  <si>
+    <t>2019-09-04 10:34:36</t>
+  </si>
+  <si>
+    <t>2661759612</t>
+  </si>
+  <si>
+    <t>落花ˊૢ路希</t>
+  </si>
+  <si>
+    <t>2019-09-02 08:02:13</t>
+  </si>
+  <si>
+    <t>2019-09-03 09:35:51</t>
+  </si>
+  <si>
+    <t>2019-09-04 08:31:17</t>
+  </si>
+  <si>
+    <t>cydjl@qq.com</t>
+  </si>
+  <si>
+    <t>落花 花浔</t>
+  </si>
+  <si>
+    <t>2019-09-02 20:59:30</t>
+  </si>
+  <si>
+    <t>2019-09-03 12:24:45</t>
+  </si>
+  <si>
+    <t>992526373</t>
+  </si>
+  <si>
+    <t>落花 slily</t>
+  </si>
+  <si>
+    <t>2019-09-03 01:50:30</t>
+  </si>
+  <si>
+    <t>2019-09-03 13:05:10</t>
+  </si>
+  <si>
+    <t>2019-09-04 12:01:29</t>
+  </si>
+  <si>
+    <t>974687361</t>
+  </si>
+  <si>
+    <t>落花-清水</t>
+  </si>
+  <si>
+    <t>2019-09-02 20:12:49</t>
+  </si>
+  <si>
+    <t>2019-09-03 14:15:27</t>
+  </si>
+  <si>
+    <t>2019-09-04 08:31:58</t>
+  </si>
+  <si>
+    <t>924110951</t>
+  </si>
+  <si>
+    <t>落花@楚锦妮</t>
+  </si>
+  <si>
+    <t>2019-09-02 10:49:57</t>
+  </si>
+  <si>
+    <t>2019-09-03 19:43:00</t>
+  </si>
+  <si>
+    <t>923418164</t>
+  </si>
+  <si>
+    <t>落花 千早(</t>
+  </si>
+  <si>
+    <t>2019-09-02 19:37:32</t>
+  </si>
+  <si>
+    <t>2019-09-03 15:59:28</t>
+  </si>
+  <si>
+    <t>845423216</t>
+  </si>
+  <si>
+    <t>落花 ¿ Clear1</t>
+  </si>
+  <si>
+    <t>2019-09-02 05:43:45</t>
+  </si>
+  <si>
+    <t>2019-09-03 09:14:26</t>
+  </si>
+  <si>
+    <t>2019-09-04 05:56:58</t>
+  </si>
+  <si>
+    <t>821515617</t>
+  </si>
+  <si>
+    <t>落花-谢南</t>
+  </si>
+  <si>
+    <t>2019-09-02 11:29:18</t>
+  </si>
+  <si>
+    <t>2019-09-03 20:57:28</t>
+  </si>
+  <si>
+    <t>793019511</t>
+  </si>
+  <si>
+    <t>落花ฅ稷晞</t>
+  </si>
+  <si>
+    <t>2019-09-02 09:48:12</t>
+  </si>
+  <si>
+    <t>2019-09-03 09:36:12</t>
+  </si>
+  <si>
+    <t>2019-09-04 13:10:53</t>
+  </si>
+  <si>
+    <t>784945709</t>
+  </si>
+  <si>
+    <t>落花.花祭夜.今天机密68w分哦</t>
+  </si>
+  <si>
+    <t>2019-09-02 10:10:45</t>
+  </si>
+  <si>
+    <t>2019-09-03 12:40:36</t>
+  </si>
+  <si>
+    <t>2019-09-04 14:30:06</t>
+  </si>
+  <si>
+    <t>779867533</t>
+  </si>
+  <si>
+    <t>落花๑顾安白</t>
+  </si>
+  <si>
+    <t>2019-09-02 11:31:03</t>
+  </si>
+  <si>
+    <t>2019-09-03 06:37:42</t>
+  </si>
+  <si>
+    <t>2019-09-04 06:41:44</t>
+  </si>
+  <si>
+    <t>769521738</t>
+  </si>
+  <si>
+    <t>落花-白茶</t>
+  </si>
+  <si>
+    <t>2019-09-02 10:42:33</t>
+  </si>
+  <si>
+    <t>2019-09-03 09:16:17</t>
+  </si>
+  <si>
+    <t>2019-09-04 09:11:06</t>
+  </si>
+  <si>
+    <t>745415648</t>
+  </si>
+  <si>
+    <t>落花 小虚</t>
+  </si>
+  <si>
+    <t>2019-09-02 13:43:49</t>
+  </si>
+  <si>
+    <t>2019-09-03 14:28:40</t>
+  </si>
+  <si>
+    <t>727791466</t>
+  </si>
+  <si>
+    <t>落花+天辟</t>
+  </si>
+  <si>
+    <t>2019-09-02 09:06:43</t>
+  </si>
+  <si>
+    <t>2019-09-03 10:58:06</t>
+  </si>
+  <si>
+    <t>2019-09-04 08:21:01</t>
+  </si>
+  <si>
+    <t>724187504</t>
+  </si>
+  <si>
+    <t>落花⭐Rai</t>
+  </si>
+  <si>
+    <t>2019-09-02 10:56:17</t>
+  </si>
+  <si>
+    <t>2019-09-03 14:19:15</t>
+  </si>
+  <si>
+    <t>2019-09-04 14:30:08</t>
+  </si>
+  <si>
+    <t>710237833</t>
+  </si>
+  <si>
+    <t>落花 可露丽</t>
+  </si>
+  <si>
+    <t>2019-09-02 10:10:14</t>
+  </si>
+  <si>
+    <t>2019-09-03 12:20:29</t>
+  </si>
+  <si>
+    <t>2019-09-04 12:33:30</t>
+  </si>
+  <si>
+    <t>651570472</t>
+  </si>
+  <si>
+    <t>落花 EXO</t>
+  </si>
+  <si>
+    <t>2019-09-02 10:10:21</t>
+  </si>
+  <si>
+    <t>2019-09-03 11:00:17</t>
+  </si>
+  <si>
+    <t>2019-09-04 12:12:11</t>
+  </si>
+  <si>
+    <t>648875355</t>
+  </si>
+  <si>
+    <t>落花—陆阮阮</t>
+  </si>
+  <si>
+    <t>2019-09-02 09:54:10</t>
+  </si>
+  <si>
+    <t>2019-09-03 09:42:50</t>
+  </si>
+  <si>
+    <t>535509797</t>
+  </si>
+  <si>
+    <t>落花，灰姐</t>
+  </si>
+  <si>
+    <t>2019-09-02 19:36:35</t>
+  </si>
+  <si>
     <t>2019-09-03 19:18:15</t>
   </si>
   <si>
-    <t>cydjl@qq.com</t>
-  </si>
-  <si>
-    <t>落花 花浔</t>
-  </si>
-  <si>
-    <t>2019-09-02 20:59:30</t>
-  </si>
-  <si>
-    <t>2019-09-03 12:24:45</t>
-  </si>
-  <si>
-    <t>992526373</t>
-  </si>
-  <si>
-    <t>落花 slily</t>
-  </si>
-  <si>
-    <t>2019-09-03 01:50:30</t>
-  </si>
-  <si>
-    <t>2019-09-03 13:05:10</t>
-  </si>
-  <si>
-    <t>974687361</t>
-  </si>
-  <si>
-    <t>落花-清水</t>
-  </si>
-  <si>
-    <t>2019-09-02 20:12:49</t>
-  </si>
-  <si>
-    <t>2019-09-03 14:15:27</t>
-  </si>
-  <si>
-    <t>924110951</t>
-  </si>
-  <si>
-    <t>落花@楚锦妮</t>
-  </si>
-  <si>
-    <t>2019-09-02 10:49:57</t>
-  </si>
-  <si>
-    <t>923418164</t>
-  </si>
-  <si>
-    <t>落花 千早(</t>
-  </si>
-  <si>
-    <t>2019-09-02 19:37:32</t>
-  </si>
-  <si>
-    <t>2019-09-03 15:59:28</t>
-  </si>
-  <si>
-    <t>845423216</t>
-  </si>
-  <si>
-    <t>落花 ¿ Clear1</t>
-  </si>
-  <si>
-    <t>2019-09-02 05:43:45</t>
-  </si>
-  <si>
-    <t>2019-09-03 09:14:26</t>
-  </si>
-  <si>
-    <t>821515617</t>
-  </si>
-  <si>
-    <t>落花-谢南</t>
-  </si>
-  <si>
-    <t>2019-09-02 11:29:18</t>
-  </si>
-  <si>
-    <t>793019511</t>
-  </si>
-  <si>
-    <t>落花ฅ稷晞【管住手，别氪了!!!】</t>
-  </si>
-  <si>
-    <t>2019-09-02 09:48:12</t>
-  </si>
-  <si>
-    <t>2019-09-03 09:36:12</t>
-  </si>
-  <si>
-    <t>784945709</t>
-  </si>
-  <si>
-    <t>落花.花祭夜.今天机密68w分哦</t>
-  </si>
-  <si>
-    <t>2019-09-02 10:10:45</t>
-  </si>
-  <si>
-    <t>2019-09-03 12:40:36</t>
-  </si>
-  <si>
-    <t>781898849</t>
-  </si>
-  <si>
-    <t>落花-KGAoi</t>
-  </si>
-  <si>
-    <t>2019-09-03 11:36:06</t>
-  </si>
-  <si>
-    <t>779867533</t>
-  </si>
-  <si>
-    <t>落花๑顾安白</t>
-  </si>
-  <si>
-    <t>2019-09-02 11:31:03</t>
-  </si>
-  <si>
-    <t>2019-09-03 06:37:42</t>
-  </si>
-  <si>
-    <t>769521738</t>
-  </si>
-  <si>
-    <t>落花-白茶</t>
-  </si>
-  <si>
-    <t>2019-09-02 10:42:33</t>
-  </si>
-  <si>
-    <t>2019-09-03 09:16:17</t>
-  </si>
-  <si>
-    <t>745415648</t>
-  </si>
-  <si>
-    <t>落花 小虚</t>
-  </si>
-  <si>
-    <t>2019-09-02 13:43:49</t>
-  </si>
-  <si>
-    <t>2019-09-03 14:28:40</t>
-  </si>
-  <si>
-    <t>727791466</t>
-  </si>
-  <si>
-    <t>落花+天辟</t>
-  </si>
-  <si>
-    <t>2019-09-02 09:06:43</t>
-  </si>
-  <si>
-    <t>2019-09-03 10:58:06</t>
-  </si>
-  <si>
-    <t>724187504</t>
-  </si>
-  <si>
-    <t>落花⭐Rai</t>
-  </si>
-  <si>
-    <t>2019-09-02 10:56:17</t>
-  </si>
-  <si>
-    <t>2019-09-03 14:19:15</t>
-  </si>
-  <si>
-    <t>710237833</t>
-  </si>
-  <si>
-    <t>落花 可露丽</t>
-  </si>
-  <si>
-    <t>2019-09-02 10:10:14</t>
-  </si>
-  <si>
-    <t>2019-09-03 12:20:29</t>
-  </si>
-  <si>
-    <t>651570472</t>
-  </si>
-  <si>
-    <t>落花 EXO</t>
-  </si>
-  <si>
-    <t>2019-09-02 10:10:21</t>
-  </si>
-  <si>
-    <t>2019-09-03 11:00:17</t>
-  </si>
-  <si>
-    <t>648875355</t>
-  </si>
-  <si>
-    <t>落花—陆阮阮</t>
-  </si>
-  <si>
-    <t>2019-09-02 09:54:10</t>
-  </si>
-  <si>
-    <t>2019-09-03 09:42:50</t>
-  </si>
-  <si>
-    <t>535509797</t>
-  </si>
-  <si>
-    <t>落花，灰姐</t>
-  </si>
-  <si>
-    <t>2019-09-02 19:36:35</t>
-  </si>
-  <si>
     <t>505644622</t>
   </si>
   <si>
@@ -401,6 +497,9 @@
     <t>2019-09-02 19:18:55</t>
   </si>
   <si>
+    <t>2019-09-03 19:41:37</t>
+  </si>
+  <si>
     <t>491384166</t>
   </si>
   <si>
@@ -410,28 +509,7 @@
     <t>2019-09-02 09:48:14</t>
   </si>
   <si>
-    <t>30137763</t>
-  </si>
-  <si>
-    <t>落花樱茶</t>
-  </si>
-  <si>
-    <t>1327354755</t>
-  </si>
-  <si>
-    <t>落花 清水奈绪子（错过派对，错过一亿）</t>
-  </si>
-  <si>
-    <t>2019-09-02 23:12:28</t>
-  </si>
-  <si>
-    <t>2019-09-03 13:15:06</t>
-  </si>
-  <si>
-    <t>39302003</t>
-  </si>
-  <si>
-    <t>落花 神仙</t>
+    <t>2019-09-03 21:52:26</t>
   </si>
   <si>
     <t>3504245791</t>
@@ -449,6 +527,9 @@
     <t>2019-09-03 08:18:29</t>
   </si>
   <si>
+    <t>2019-09-04 05:54:12</t>
+  </si>
+  <si>
     <t>3476601463</t>
   </si>
   <si>
@@ -458,6 +539,9 @@
     <t>2019-09-02 22:03:09</t>
   </si>
   <si>
+    <t>2019-09-04 00:02:55</t>
+  </si>
+  <si>
     <t>3240236818</t>
   </si>
   <si>
@@ -467,6 +551,9 @@
     <t>2019-09-02 13:50:31</t>
   </si>
   <si>
+    <t>2019-09-03 19:57:17</t>
+  </si>
+  <si>
     <t>2971057903</t>
   </si>
   <si>
@@ -479,18 +566,6 @@
     <t>落花-24k草莓小葵</t>
   </si>
   <si>
-    <t>2661759612</t>
-  </si>
-  <si>
-    <t>落花ˊૢ路希</t>
-  </si>
-  <si>
-    <t>2019-09-02 08:02:13</t>
-  </si>
-  <si>
-    <t>2019-09-03 09:35:51</t>
-  </si>
-  <si>
     <t>2638588219</t>
   </si>
   <si>
@@ -500,6 +575,9 @@
     <t>2019-09-02 09:53:54</t>
   </si>
   <si>
+    <t>2019-09-03 19:44:01</t>
+  </si>
+  <si>
     <t>2473375876</t>
   </si>
   <si>
@@ -518,6 +596,9 @@
     <t>落花 苏其凉</t>
   </si>
   <si>
+    <t>2019-09-03 19:55:43</t>
+  </si>
+  <si>
     <t>2192665938</t>
   </si>
   <si>
@@ -530,12 +611,6 @@
     <t>2019-09-03 05:55:12</t>
   </si>
   <si>
-    <t>2169226881</t>
-  </si>
-  <si>
-    <t>落花.薇尔莉特</t>
-  </si>
-  <si>
     <t>1941489960</t>
   </si>
   <si>
@@ -548,6 +623,9 @@
     <t>2019-09-03 14:25:44</t>
   </si>
   <si>
+    <t>2019-09-04 11:48:54</t>
+  </si>
+  <si>
     <t>1937237519</t>
   </si>
   <si>
@@ -557,6 +635,9 @@
     <t>2019-09-02 09:33:45</t>
   </si>
   <si>
+    <t>2019-09-03 19:40:27</t>
+  </si>
+  <si>
     <t>1841469477</t>
   </si>
   <si>
@@ -575,6 +656,9 @@
     <t>落花      魚漁。</t>
   </si>
   <si>
+    <t>2019-09-03 21:35:59</t>
+  </si>
+  <si>
     <t>1755065148</t>
   </si>
   <si>
@@ -587,6 +671,9 @@
     <t>2019-09-03 12:45:02</t>
   </si>
   <si>
+    <t>2019-09-04 08:51:42</t>
+  </si>
+  <si>
     <t>1664171803</t>
   </si>
   <si>
@@ -596,6 +683,12 @@
     <t>2019-09-02 10:12:25</t>
   </si>
   <si>
+    <t>2019-09-03 20:09:00</t>
+  </si>
+  <si>
+    <t>2019-09-04 13:30:21</t>
+  </si>
+  <si>
     <t>16500928</t>
   </si>
   <si>
@@ -608,6 +701,9 @@
     <t>2019-09-03 08:29:18</t>
   </si>
   <si>
+    <t>2019-09-04 08:34:53</t>
+  </si>
+  <si>
     <t>15451377</t>
   </si>
   <si>
@@ -620,6 +716,9 @@
     <t>2019-09-03 12:08:27</t>
   </si>
   <si>
+    <t>2019-09-04 14:45:19</t>
+  </si>
+  <si>
     <t>1543607287</t>
   </si>
   <si>
@@ -644,6 +743,9 @@
     <t>2019-09-03 09:18:15</t>
   </si>
   <si>
+    <t>2019-09-04 14:39:17</t>
+  </si>
+  <si>
     <t>1369593175</t>
   </si>
   <si>
@@ -656,6 +758,9 @@
     <t>2019-09-03 07:27:11</t>
   </si>
   <si>
+    <t>2019-09-04 07:25:05</t>
+  </si>
+  <si>
     <t>1369562367</t>
   </si>
   <si>
@@ -665,6 +770,9 @@
     <t>2019-09-02 19:41:35</t>
   </si>
   <si>
+    <t>2019-09-03 19:43:37</t>
+  </si>
+  <si>
     <t>1239530393</t>
   </si>
   <si>
@@ -692,13 +800,19 @@
     <t>2019-09-02 20:20:12</t>
   </si>
   <si>
-    <t>1158425839</t>
+    <t>2019-09-03 21:39:27</t>
+  </si>
+  <si>
+    <t>2019-09-04 07:58:54</t>
+  </si>
+  <si>
+    <t>1441657502</t>
   </si>
   <si>
     <t>落花 樱井</t>
   </si>
   <si>
-    <t>落花 樱井翔子</t>
+    <t>2019-09-03 19:40:00</t>
   </si>
   <si>
     <t>1130056290</t>
@@ -713,12 +827,18 @@
     <t>2019-09-03 14:56:57</t>
   </si>
   <si>
+    <t>2019-09-04 10:49:26</t>
+  </si>
+  <si>
     <t>1056711058</t>
   </si>
   <si>
     <t>落花：翎羽</t>
   </si>
   <si>
+    <t>请假</t>
+  </si>
+  <si>
     <t>1055498540</t>
   </si>
   <si>
@@ -728,6 +848,9 @@
     <t>2019-09-02 14:27:28</t>
   </si>
   <si>
+    <t>2019-09-03 20:17:00</t>
+  </si>
+  <si>
     <t>1041544486</t>
   </si>
   <si>
@@ -749,6 +872,12 @@
     <t>2019-09-02 10:20:23</t>
   </si>
   <si>
+    <t>2019-09-03 19:42:40</t>
+  </si>
+  <si>
+    <t>2019-09-04 12:45:11</t>
+  </si>
+  <si>
     <t>1025385659</t>
   </si>
   <si>
@@ -773,6 +902,9 @@
     <t>2019-09-03 07:59:19</t>
   </si>
   <si>
+    <t>2019-09-04 08:34:02</t>
+  </si>
+  <si>
     <t>17535862313</t>
   </si>
   <si>
@@ -785,6 +917,9 @@
     <t>2019-09-03 07:19:21</t>
   </si>
   <si>
+    <t>2019-09-04 06:41:23</t>
+  </si>
+  <si>
     <t>2126851254</t>
   </si>
   <si>
@@ -821,6 +956,9 @@
     <t>2019-09-03 13:03:58</t>
   </si>
   <si>
+    <t>2019-09-04 14:52:53</t>
+  </si>
+  <si>
     <t>965462652</t>
   </si>
   <si>
@@ -833,6 +971,9 @@
     <t>2019-09-03 10:09:34</t>
   </si>
   <si>
+    <t>2019-09-04 09:57:49</t>
+  </si>
+  <si>
     <t>2953487480</t>
   </si>
   <si>
@@ -845,6 +986,9 @@
     <t>2019-09-03 15:42:30</t>
   </si>
   <si>
+    <t>2019-09-04 17:24:01</t>
+  </si>
+  <si>
     <t>1003242662</t>
   </si>
   <si>
@@ -857,6 +1001,9 @@
     <t>2019-09-03 08:28:25</t>
   </si>
   <si>
+    <t>2019-09-04 14:29:50</t>
+  </si>
+  <si>
     <t>957600168</t>
   </si>
   <si>
@@ -869,6 +1016,9 @@
     <t>2019-09-03 08:17:46</t>
   </si>
   <si>
+    <t>2019-09-04 07:08:37</t>
+  </si>
+  <si>
     <t>3191053965</t>
   </si>
   <si>
@@ -876,6 +1026,9 @@
   </si>
   <si>
     <t>2019-09-03 08:21:02</t>
+  </si>
+  <si>
+    <t>2019-09-04 09:27:32</t>
   </si>
   <si>
     <t>-1</t>
@@ -892,8 +1045,8 @@
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -912,31 +1065,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -956,47 +1094,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1019,9 +1131,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1041,8 +1161,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1055,8 +1207,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1071,7 +1224,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1083,7 +1284,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1095,7 +1368,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1107,151 +1404,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1280,17 +1433,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1299,32 +1446,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1345,6 +1466,56 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1359,169 +1530,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1892,16 +2045,17 @@
     <col min="5" max="6" width="7.625" customWidth="1"/>
     <col min="7" max="7" width="12.625" customWidth="1"/>
     <col min="8" max="8" width="21.5" customWidth="1"/>
-    <col min="9" max="9" width="17.5" customWidth="1"/>
+    <col min="9" max="9" width="21.375" customWidth="1"/>
     <col min="10" max="10" width="11.875" customWidth="1"/>
     <col min="11" max="12" width="7.625" customWidth="1"/>
     <col min="13" max="13" width="8.375" customWidth="1"/>
     <col min="14" max="14" width="21.5" customWidth="1"/>
-    <col min="15" max="15" width="41.25" customWidth="1"/>
+    <col min="15" max="15" width="37.875" customWidth="1"/>
     <col min="16" max="16" width="11.875" customWidth="1"/>
-    <col min="17" max="19" width="7.625" customWidth="1"/>
-    <col min="20" max="20" width="11.875" customWidth="1"/>
-    <col min="21" max="21" width="7.625" customWidth="1"/>
+    <col min="17" max="18" width="7.625" customWidth="1"/>
+    <col min="19" max="19" width="8.375" customWidth="1"/>
+    <col min="20" max="20" width="21.5" customWidth="1"/>
+    <col min="21" max="21" width="37.875" customWidth="1"/>
     <col min="22" max="22" width="11.875" customWidth="1"/>
     <col min="23" max="25" width="7.625" customWidth="1"/>
     <col min="26" max="26" width="11.875" customWidth="1"/>
@@ -2102,22 +2256,22 @@
         <v>49</v>
       </c>
       <c r="O2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="P2" t="s">
         <v>48</v>
       </c>
-      <c r="Q2" t="s">
-        <v>48</v>
-      </c>
-      <c r="R2" t="s">
-        <v>48</v>
-      </c>
-      <c r="S2" t="s">
-        <v>48</v>
+      <c r="Q2">
+        <v>5</v>
+      </c>
+      <c r="R2">
+        <v>82000</v>
+      </c>
+      <c r="S2">
+        <v>410000</v>
       </c>
       <c r="T2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="U2" t="s">
         <v>48</v>
@@ -2203,13 +2357,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E3" t="s">
         <v>48</v>
@@ -2224,7 +2378,7 @@
         <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J3" t="s">
         <v>48</v>
@@ -2242,7 +2396,7 @@
         <v>48</v>
       </c>
       <c r="O3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="P3" t="s">
         <v>48</v>
@@ -2259,8 +2413,9 @@
       <c r="T3" t="s">
         <v>48</v>
       </c>
-      <c r="U3" t="s">
-        <v>48</v>
+      <c r="U3" t="str">
+        <f>IF(OR(S3="",S3&lt;680000),$C3,"")</f>
+        <v>落花@冷月小猫泪</v>
       </c>
       <c r="V3" t="s">
         <v>48</v>
@@ -2343,25 +2498,25 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D4" t="s">
         <v>48</v>
       </c>
-      <c r="E4">
-        <v>6</v>
-      </c>
-      <c r="F4">
-        <v>120000</v>
-      </c>
-      <c r="G4">
-        <v>720000</v>
+      <c r="E4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" t="s">
+        <v>48</v>
       </c>
       <c r="H4" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
         <v>48</v>
@@ -2369,35 +2524,35 @@
       <c r="J4" t="s">
         <v>48</v>
       </c>
-      <c r="K4">
-        <v>6</v>
-      </c>
-      <c r="L4">
-        <v>123000</v>
-      </c>
-      <c r="M4">
-        <v>738000</v>
+      <c r="K4" t="s">
+        <v>48</v>
+      </c>
+      <c r="L4" t="s">
+        <v>48</v>
+      </c>
+      <c r="M4" t="s">
+        <v>48</v>
       </c>
       <c r="N4" t="s">
+        <v>48</v>
+      </c>
+      <c r="O4" t="s">
+        <v>48</v>
+      </c>
+      <c r="P4" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q4">
+        <v>5</v>
+      </c>
+      <c r="R4">
+        <v>180000</v>
+      </c>
+      <c r="S4">
+        <v>900000</v>
+      </c>
+      <c r="T4" t="s">
         <v>56</v>
-      </c>
-      <c r="O4" t="s">
-        <v>48</v>
-      </c>
-      <c r="P4" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>48</v>
-      </c>
-      <c r="R4" t="s">
-        <v>48</v>
-      </c>
-      <c r="S4" t="s">
-        <v>48</v>
-      </c>
-      <c r="T4" t="s">
-        <v>48</v>
       </c>
       <c r="U4" t="s">
         <v>48</v>
@@ -2491,38 +2646,40 @@
       <c r="D5" t="s">
         <v>48</v>
       </c>
-      <c r="E5">
-        <v>6</v>
-      </c>
-      <c r="F5">
-        <v>120000</v>
-      </c>
-      <c r="G5">
-        <v>720000</v>
+      <c r="E5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" t="s">
+        <v>48</v>
       </c>
       <c r="H5" t="s">
-        <v>59</v>
-      </c>
-      <c r="I5" t="s">
-        <v>48</v>
+        <v>48</v>
+      </c>
+      <c r="I5" t="str">
+        <f>IF(OR(G5="",G5&lt;680000),$C5,"")</f>
+        <v>落花樱茶</v>
       </c>
       <c r="J5" t="s">
         <v>48</v>
       </c>
-      <c r="K5">
-        <v>6</v>
-      </c>
-      <c r="L5">
-        <v>128000</v>
-      </c>
-      <c r="M5">
-        <v>768000</v>
+      <c r="K5" t="s">
+        <v>48</v>
+      </c>
+      <c r="L5" t="s">
+        <v>48</v>
+      </c>
+      <c r="M5" t="s">
+        <v>48</v>
       </c>
       <c r="N5" t="s">
-        <v>60</v>
-      </c>
-      <c r="O5" t="s">
-        <v>48</v>
+        <v>48</v>
+      </c>
+      <c r="O5" t="str">
+        <f>IF(OR(M5="",M5&lt;680000),$C5,"")</f>
+        <v>落花樱茶</v>
       </c>
       <c r="P5" t="s">
         <v>48</v>
@@ -2623,46 +2780,46 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6">
+        <v>132000</v>
+      </c>
+      <c r="G6">
+        <v>660000</v>
+      </c>
+      <c r="H6" t="s">
         <v>61</v>
       </c>
-      <c r="C6" t="s">
+      <c r="I6" t="s">
+        <v>48</v>
+      </c>
+      <c r="J6" t="s">
+        <v>48</v>
+      </c>
+      <c r="K6">
+        <v>6</v>
+      </c>
+      <c r="L6">
+        <v>125000</v>
+      </c>
+      <c r="M6">
+        <v>750000</v>
+      </c>
+      <c r="N6" t="s">
         <v>62</v>
       </c>
-      <c r="D6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E6">
-        <v>6</v>
-      </c>
-      <c r="F6">
-        <v>109000</v>
-      </c>
-      <c r="G6">
-        <v>654000</v>
-      </c>
-      <c r="H6" t="s">
-        <v>63</v>
-      </c>
-      <c r="I6" t="s">
-        <v>48</v>
-      </c>
-      <c r="J6" t="s">
-        <v>48</v>
-      </c>
-      <c r="K6">
-        <v>7</v>
-      </c>
-      <c r="L6">
-        <v>96000</v>
-      </c>
-      <c r="M6">
-        <v>672000</v>
-      </c>
-      <c r="N6" t="s">
-        <v>64</v>
-      </c>
       <c r="O6" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="P6" t="s">
         <v>48</v>
@@ -2763,25 +2920,25 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D7" t="s">
         <v>48</v>
       </c>
-      <c r="E7">
-        <v>5</v>
-      </c>
-      <c r="F7">
-        <v>186000</v>
-      </c>
-      <c r="G7">
-        <v>930000</v>
+      <c r="E7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" t="s">
+        <v>48</v>
       </c>
       <c r="H7" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
         <v>48</v>
@@ -2801,8 +2958,9 @@
       <c r="N7" t="s">
         <v>48</v>
       </c>
-      <c r="O7" t="s">
-        <v>66</v>
+      <c r="O7" t="str">
+        <f t="shared" ref="O7:O28" si="0">IF(OR(M7="",M7&lt;680000),$C7,"")</f>
+        <v>落花 神仙</v>
       </c>
       <c r="P7" t="s">
         <v>48</v>
@@ -2819,8 +2977,9 @@
       <c r="T7" t="s">
         <v>48</v>
       </c>
-      <c r="U7" t="s">
-        <v>48</v>
+      <c r="U7" t="str">
+        <f>IF(OR(S7="",S7&lt;680000),$C7,"")</f>
+        <v>落花 神仙</v>
       </c>
       <c r="V7" t="s">
         <v>48</v>
@@ -2903,64 +3062,67 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H8" t="s">
+        <v>48</v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" ref="I8:I28" si="1">IF(OR(G8="",G8&lt;680000),$C8,"")</f>
+        <v>落花-KGAoi</v>
+      </c>
+      <c r="J8" t="s">
+        <v>48</v>
+      </c>
+      <c r="K8">
+        <v>7</v>
+      </c>
+      <c r="L8">
+        <v>196000</v>
+      </c>
+      <c r="M8">
+        <v>1372000</v>
+      </c>
+      <c r="N8" t="s">
+        <v>67</v>
+      </c>
+      <c r="O8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P8" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q8">
+        <v>7</v>
+      </c>
+      <c r="R8">
+        <v>200000</v>
+      </c>
+      <c r="S8">
+        <v>1400000</v>
+      </c>
+      <c r="T8" t="s">
         <v>68</v>
       </c>
-      <c r="C8" t="s">
-        <v>69</v>
-      </c>
-      <c r="D8" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8">
-        <v>7</v>
-      </c>
-      <c r="F8">
-        <v>108000</v>
-      </c>
-      <c r="G8">
-        <v>756000</v>
-      </c>
-      <c r="H8" t="s">
-        <v>70</v>
-      </c>
-      <c r="I8" t="s">
-        <v>48</v>
-      </c>
-      <c r="J8" t="s">
-        <v>48</v>
-      </c>
-      <c r="K8">
-        <v>6</v>
-      </c>
-      <c r="L8">
-        <v>116000</v>
-      </c>
-      <c r="M8">
-        <v>696000</v>
-      </c>
-      <c r="N8" t="s">
-        <v>71</v>
-      </c>
-      <c r="O8" t="s">
-        <v>69</v>
-      </c>
-      <c r="P8" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>48</v>
-      </c>
-      <c r="R8" t="s">
-        <v>48</v>
-      </c>
-      <c r="S8" t="s">
-        <v>48</v>
-      </c>
-      <c r="T8" t="s">
-        <v>48</v>
-      </c>
-      <c r="U8" t="s">
-        <v>48</v>
+      <c r="U8" t="str">
+        <f>IF(OR(S8="",S8&lt;680000),$C8,"")</f>
+        <v/>
       </c>
       <c r="V8" t="s">
         <v>48</v>
@@ -3043,28 +3205,29 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C9" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D9" t="s">
         <v>48</v>
       </c>
       <c r="E9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F9">
-        <v>120000</v>
+        <v>711510</v>
       </c>
       <c r="G9">
-        <v>840000</v>
+        <v>4269060</v>
       </c>
       <c r="H9" t="s">
-        <v>74</v>
-      </c>
-      <c r="I9" t="s">
-        <v>48</v>
+        <v>71</v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="J9" t="s">
         <v>48</v>
@@ -3073,31 +3236,32 @@
         <v>6</v>
       </c>
       <c r="L9">
-        <v>110000</v>
+        <v>12447</v>
       </c>
       <c r="M9">
-        <v>660000</v>
+        <v>74682</v>
       </c>
       <c r="N9" t="s">
-        <v>75</v>
-      </c>
-      <c r="O9" t="s">
-        <v>48</v>
+        <v>72</v>
+      </c>
+      <c r="O9" t="str">
+        <f t="shared" si="0"/>
+        <v>落花ˊૢ路希</v>
       </c>
       <c r="P9" t="s">
         <v>48</v>
       </c>
-      <c r="Q9" t="s">
-        <v>48</v>
-      </c>
-      <c r="R9" t="s">
-        <v>48</v>
-      </c>
-      <c r="S9" t="s">
-        <v>48</v>
+      <c r="Q9">
+        <v>7</v>
+      </c>
+      <c r="R9">
+        <v>111042</v>
+      </c>
+      <c r="S9">
+        <v>777294</v>
       </c>
       <c r="T9" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="U9" t="s">
         <v>48</v>
@@ -3183,46 +3347,48 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10">
+        <v>6</v>
+      </c>
+      <c r="F10">
+        <v>120000</v>
+      </c>
+      <c r="G10">
+        <v>720000</v>
+      </c>
+      <c r="H10" t="s">
         <v>76</v>
       </c>
-      <c r="C10" t="s">
+      <c r="I10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J10" t="s">
+        <v>48</v>
+      </c>
+      <c r="K10">
+        <v>6</v>
+      </c>
+      <c r="L10">
+        <v>123000</v>
+      </c>
+      <c r="M10">
+        <v>738000</v>
+      </c>
+      <c r="N10" t="s">
         <v>77</v>
       </c>
-      <c r="D10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10">
-        <v>7</v>
-      </c>
-      <c r="F10">
-        <v>96000</v>
-      </c>
-      <c r="G10">
-        <v>672000</v>
-      </c>
-      <c r="H10" t="s">
-        <v>78</v>
-      </c>
-      <c r="I10" t="s">
-        <v>48</v>
-      </c>
-      <c r="J10" t="s">
-        <v>48</v>
-      </c>
-      <c r="K10" t="s">
-        <v>48</v>
-      </c>
-      <c r="L10" t="s">
-        <v>48</v>
-      </c>
-      <c r="M10" t="s">
-        <v>48</v>
-      </c>
-      <c r="N10" t="s">
-        <v>48</v>
-      </c>
-      <c r="O10" t="s">
-        <v>77</v>
+      <c r="O10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="P10" t="s">
         <v>48</v>
@@ -3239,8 +3405,9 @@
       <c r="T10" t="s">
         <v>48</v>
       </c>
-      <c r="U10" t="s">
-        <v>48</v>
+      <c r="U10" t="str">
+        <f>IF(OR(S10="",S10&lt;680000),$C10,"")</f>
+        <v>落花 花浔</v>
       </c>
       <c r="V10" t="s">
         <v>48</v>
@@ -3323,28 +3490,29 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" t="s">
         <v>79</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11">
+        <v>6</v>
+      </c>
+      <c r="F11">
+        <v>120000</v>
+      </c>
+      <c r="G11">
+        <v>720000</v>
+      </c>
+      <c r="H11" t="s">
         <v>80</v>
       </c>
-      <c r="D11" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11">
-        <v>5</v>
-      </c>
-      <c r="F11">
-        <v>200000</v>
-      </c>
-      <c r="G11">
-        <v>1000000</v>
-      </c>
-      <c r="H11" t="s">
-        <v>81</v>
-      </c>
-      <c r="I11" t="s">
-        <v>48</v>
+      <c r="I11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="J11" t="s">
         <v>48</v>
@@ -3353,34 +3521,36 @@
         <v>6</v>
       </c>
       <c r="L11">
-        <v>135000</v>
+        <v>128000</v>
       </c>
       <c r="M11">
-        <v>810000</v>
+        <v>768000</v>
       </c>
       <c r="N11" t="s">
+        <v>81</v>
+      </c>
+      <c r="O11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P11" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q11">
+        <v>6</v>
+      </c>
+      <c r="R11">
+        <v>133000</v>
+      </c>
+      <c r="S11">
+        <v>798000</v>
+      </c>
+      <c r="T11" t="s">
         <v>82</v>
       </c>
-      <c r="O11" t="s">
-        <v>48</v>
-      </c>
-      <c r="P11" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>48</v>
-      </c>
-      <c r="R11" t="s">
-        <v>48</v>
-      </c>
-      <c r="S11" t="s">
-        <v>48</v>
-      </c>
-      <c r="T11" t="s">
-        <v>48</v>
-      </c>
-      <c r="U11" t="s">
-        <v>48</v>
+      <c r="U11" t="str">
+        <f>IF(OR(S11="",S11&lt;680000),$C11,"")</f>
+        <v/>
       </c>
       <c r="V11" t="s">
         <v>48</v>
@@ -3472,19 +3642,20 @@
         <v>48</v>
       </c>
       <c r="E12">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F12">
-        <v>130000</v>
+        <v>109000</v>
       </c>
       <c r="G12">
-        <v>1170000</v>
+        <v>654000</v>
       </c>
       <c r="H12" t="s">
         <v>85</v>
       </c>
-      <c r="I12" t="s">
-        <v>48</v>
+      <c r="I12" t="str">
+        <f t="shared" si="1"/>
+        <v>落花-清水</v>
       </c>
       <c r="J12" t="s">
         <v>48</v>
@@ -3493,31 +3664,32 @@
         <v>7</v>
       </c>
       <c r="L12">
-        <v>135000</v>
+        <v>96000</v>
       </c>
       <c r="M12">
-        <v>945000</v>
+        <v>672000</v>
       </c>
       <c r="N12" t="s">
         <v>86</v>
       </c>
-      <c r="O12" t="s">
-        <v>48</v>
+      <c r="O12" t="str">
+        <f t="shared" si="0"/>
+        <v>落花-清水</v>
       </c>
       <c r="P12" t="s">
         <v>48</v>
       </c>
-      <c r="Q12" t="s">
-        <v>48</v>
-      </c>
-      <c r="R12" t="s">
-        <v>48</v>
-      </c>
-      <c r="S12" t="s">
-        <v>48</v>
+      <c r="Q12">
+        <v>7</v>
+      </c>
+      <c r="R12">
+        <v>96000</v>
+      </c>
+      <c r="S12">
+        <v>672000</v>
       </c>
       <c r="T12" t="s">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="U12" t="s">
         <v>48</v>
@@ -3603,46 +3775,48 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C13" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D13" t="s">
         <v>48</v>
       </c>
-      <c r="E13" t="s">
-        <v>48</v>
-      </c>
-      <c r="F13" t="s">
-        <v>48</v>
-      </c>
-      <c r="G13" t="s">
-        <v>48</v>
+      <c r="E13">
+        <v>5</v>
+      </c>
+      <c r="F13">
+        <v>186000</v>
+      </c>
+      <c r="G13">
+        <v>930000</v>
       </c>
       <c r="H13" t="s">
-        <v>48</v>
-      </c>
-      <c r="I13" t="s">
-        <v>88</v>
+        <v>90</v>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="J13" t="s">
         <v>48</v>
       </c>
       <c r="K13">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L13">
-        <v>196000</v>
+        <v>161000</v>
       </c>
       <c r="M13">
-        <v>1372000</v>
+        <v>805000</v>
       </c>
       <c r="N13" t="s">
-        <v>89</v>
-      </c>
-      <c r="O13" t="s">
-        <v>48</v>
+        <v>91</v>
+      </c>
+      <c r="O13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="P13" t="s">
         <v>48</v>
@@ -3743,28 +3917,29 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C14" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D14" t="s">
         <v>48</v>
       </c>
       <c r="E14">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F14">
-        <v>129000</v>
+        <v>108000</v>
       </c>
       <c r="G14">
-        <v>774000</v>
+        <v>756000</v>
       </c>
       <c r="H14" t="s">
-        <v>92</v>
-      </c>
-      <c r="I14" t="s">
-        <v>48</v>
+        <v>94</v>
+      </c>
+      <c r="I14" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="J14" t="s">
         <v>48</v>
@@ -3773,16 +3948,17 @@
         <v>6</v>
       </c>
       <c r="L14">
-        <v>112000</v>
+        <v>116000</v>
       </c>
       <c r="M14">
-        <v>672000</v>
+        <v>696000</v>
       </c>
       <c r="N14" t="s">
-        <v>93</v>
-      </c>
-      <c r="O14" t="s">
-        <v>48</v>
+        <v>95</v>
+      </c>
+      <c r="O14" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="P14" t="s">
         <v>48</v>
@@ -3799,8 +3975,9 @@
       <c r="T14" t="s">
         <v>48</v>
       </c>
-      <c r="U14" t="s">
-        <v>48</v>
+      <c r="U14" t="str">
+        <f>IF(OR(S14="",S14&lt;680000),$C14,"")</f>
+        <v>落花 千早(</v>
       </c>
       <c r="V14" t="s">
         <v>48</v>
@@ -3883,61 +4060,63 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C15" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D15" t="s">
         <v>48</v>
       </c>
       <c r="E15">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F15">
-        <v>142000</v>
+        <v>120000</v>
       </c>
       <c r="G15">
-        <v>710000</v>
+        <v>840000</v>
       </c>
       <c r="H15" t="s">
-        <v>96</v>
-      </c>
-      <c r="I15" t="s">
-        <v>48</v>
+        <v>98</v>
+      </c>
+      <c r="I15" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="J15" t="s">
         <v>48</v>
       </c>
       <c r="K15">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L15">
-        <v>90000</v>
+        <v>110000</v>
       </c>
       <c r="M15">
-        <v>720000</v>
+        <v>660000</v>
       </c>
       <c r="N15" t="s">
-        <v>97</v>
-      </c>
-      <c r="O15" t="s">
-        <v>48</v>
+        <v>99</v>
+      </c>
+      <c r="O15" t="str">
+        <f t="shared" si="0"/>
+        <v>落花 ¿ Clear1</v>
       </c>
       <c r="P15" t="s">
         <v>48</v>
       </c>
-      <c r="Q15" t="s">
-        <v>48</v>
-      </c>
-      <c r="R15" t="s">
-        <v>48</v>
-      </c>
-      <c r="S15" t="s">
-        <v>48</v>
+      <c r="Q15">
+        <v>7</v>
+      </c>
+      <c r="R15">
+        <v>110000</v>
+      </c>
+      <c r="S15">
+        <v>770000</v>
       </c>
       <c r="T15" t="s">
-        <v>48</v>
+        <v>100</v>
       </c>
       <c r="U15" t="s">
         <v>48</v>
@@ -4023,10 +4202,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C16" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D16" t="s">
         <v>48</v>
@@ -4035,34 +4214,36 @@
         <v>7</v>
       </c>
       <c r="F16">
-        <v>93000</v>
+        <v>96000</v>
       </c>
       <c r="G16">
-        <v>651000</v>
+        <v>672000</v>
       </c>
       <c r="H16" t="s">
-        <v>100</v>
-      </c>
-      <c r="I16" t="s">
-        <v>48</v>
+        <v>103</v>
+      </c>
+      <c r="I16" t="str">
+        <f t="shared" si="1"/>
+        <v>落花-谢南</v>
       </c>
       <c r="J16" t="s">
         <v>48</v>
       </c>
       <c r="K16">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L16">
-        <v>96000</v>
+        <v>95000</v>
       </c>
       <c r="M16">
-        <v>768000</v>
+        <v>665000</v>
       </c>
       <c r="N16" t="s">
-        <v>101</v>
-      </c>
-      <c r="O16" t="s">
-        <v>99</v>
+        <v>104</v>
+      </c>
+      <c r="O16" t="str">
+        <f t="shared" si="0"/>
+        <v>落花-谢南</v>
       </c>
       <c r="P16" t="s">
         <v>48</v>
@@ -4079,8 +4260,9 @@
       <c r="T16" t="s">
         <v>48</v>
       </c>
-      <c r="U16" t="s">
-        <v>48</v>
+      <c r="U16" t="str">
+        <f>IF(OR(S16="",S16&lt;680000),$C16,"")</f>
+        <v>落花-谢南</v>
       </c>
       <c r="V16" t="s">
         <v>48</v>
@@ -4163,10 +4345,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C17" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D17" t="s">
         <v>48</v>
@@ -4175,52 +4357,55 @@
         <v>5</v>
       </c>
       <c r="F17">
-        <v>145000</v>
+        <v>200000</v>
       </c>
       <c r="G17">
-        <v>725000</v>
+        <v>1000000</v>
       </c>
       <c r="H17" t="s">
-        <v>104</v>
-      </c>
-      <c r="I17" t="s">
-        <v>48</v>
+        <v>107</v>
+      </c>
+      <c r="I17" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="J17" t="s">
         <v>48</v>
       </c>
       <c r="K17">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L17">
-        <v>100000</v>
+        <v>135000</v>
       </c>
       <c r="M17">
-        <v>700000</v>
+        <v>810000</v>
       </c>
       <c r="N17" t="s">
-        <v>105</v>
-      </c>
-      <c r="O17" t="s">
-        <v>48</v>
+        <v>108</v>
+      </c>
+      <c r="O17" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="P17" t="s">
         <v>48</v>
       </c>
-      <c r="Q17" t="s">
-        <v>48</v>
-      </c>
-      <c r="R17" t="s">
-        <v>48</v>
-      </c>
-      <c r="S17" t="s">
-        <v>48</v>
+      <c r="Q17">
+        <v>5</v>
+      </c>
+      <c r="R17">
+        <v>136000</v>
+      </c>
+      <c r="S17">
+        <v>680000</v>
       </c>
       <c r="T17" t="s">
-        <v>48</v>
-      </c>
-      <c r="U17" t="s">
-        <v>48</v>
+        <v>109</v>
+      </c>
+      <c r="U17" t="str">
+        <f>IF(OR(S17="",S17&lt;680000),$C17,"")</f>
+        <v/>
       </c>
       <c r="V17" t="s">
         <v>48</v>
@@ -4303,28 +4488,29 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C18" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D18" t="s">
         <v>48</v>
       </c>
       <c r="E18">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F18">
-        <v>128000</v>
+        <v>130000</v>
       </c>
       <c r="G18">
-        <v>640000</v>
+        <v>1170000</v>
       </c>
       <c r="H18" t="s">
-        <v>108</v>
-      </c>
-      <c r="I18" t="s">
-        <v>48</v>
+        <v>112</v>
+      </c>
+      <c r="I18" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="J18" t="s">
         <v>48</v>
@@ -4333,34 +4519,36 @@
         <v>7</v>
       </c>
       <c r="L18">
-        <v>97000</v>
+        <v>135000</v>
       </c>
       <c r="M18">
-        <v>679000</v>
+        <v>945000</v>
       </c>
       <c r="N18" t="s">
-        <v>109</v>
-      </c>
-      <c r="O18" t="s">
-        <v>107</v>
+        <v>113</v>
+      </c>
+      <c r="O18" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="P18" t="s">
         <v>48</v>
       </c>
-      <c r="Q18" t="s">
-        <v>48</v>
-      </c>
-      <c r="R18" t="s">
-        <v>48</v>
-      </c>
-      <c r="S18" t="s">
-        <v>48</v>
+      <c r="Q18">
+        <v>9</v>
+      </c>
+      <c r="R18">
+        <v>136000</v>
+      </c>
+      <c r="S18">
+        <v>1224000</v>
       </c>
       <c r="T18" t="s">
-        <v>48</v>
-      </c>
-      <c r="U18" t="s">
-        <v>48</v>
+        <v>114</v>
+      </c>
+      <c r="U18" t="str">
+        <f>IF(OR(S18="",S18&lt;680000),$C18,"")</f>
+        <v/>
       </c>
       <c r="V18" t="s">
         <v>48</v>
@@ -4443,10 +4631,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C19" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D19" t="s">
         <v>48</v>
@@ -4455,16 +4643,17 @@
         <v>6</v>
       </c>
       <c r="F19">
-        <v>112000</v>
+        <v>129000</v>
       </c>
       <c r="G19">
-        <v>672000</v>
+        <v>774000</v>
       </c>
       <c r="H19" t="s">
-        <v>112</v>
-      </c>
-      <c r="I19" t="s">
-        <v>48</v>
+        <v>117</v>
+      </c>
+      <c r="I19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="J19" t="s">
         <v>48</v>
@@ -4473,34 +4662,36 @@
         <v>6</v>
       </c>
       <c r="L19">
-        <v>120000</v>
+        <v>112000</v>
       </c>
       <c r="M19">
-        <v>720000</v>
+        <v>672000</v>
       </c>
       <c r="N19" t="s">
-        <v>113</v>
-      </c>
-      <c r="O19" t="s">
-        <v>48</v>
+        <v>118</v>
+      </c>
+      <c r="O19" t="str">
+        <f t="shared" si="0"/>
+        <v>落花๑顾安白</v>
       </c>
       <c r="P19" t="s">
         <v>48</v>
       </c>
-      <c r="Q19" t="s">
-        <v>48</v>
-      </c>
-      <c r="R19" t="s">
-        <v>48</v>
-      </c>
-      <c r="S19" t="s">
-        <v>48</v>
+      <c r="Q19">
+        <v>6</v>
+      </c>
+      <c r="R19">
+        <v>113000</v>
+      </c>
+      <c r="S19">
+        <v>678000</v>
       </c>
       <c r="T19" t="s">
-        <v>48</v>
-      </c>
-      <c r="U19" t="s">
-        <v>48</v>
+        <v>119</v>
+      </c>
+      <c r="U19" t="str">
+        <f>IF(OR(S19="",S19&lt;680000),$C19,"")</f>
+        <v>落花๑顾安白</v>
       </c>
       <c r="V19" t="s">
         <v>48</v>
@@ -4583,61 +4774,63 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="C20" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="D20" t="s">
         <v>48</v>
       </c>
       <c r="E20">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F20">
-        <v>100000</v>
+        <v>142000</v>
       </c>
       <c r="G20">
-        <v>700000</v>
+        <v>710000</v>
       </c>
       <c r="H20" t="s">
-        <v>116</v>
-      </c>
-      <c r="I20" t="s">
-        <v>48</v>
+        <v>122</v>
+      </c>
+      <c r="I20" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="J20" t="s">
         <v>48</v>
       </c>
       <c r="K20">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L20">
-        <v>76000</v>
+        <v>90000</v>
       </c>
       <c r="M20">
-        <v>684000</v>
+        <v>720000</v>
       </c>
       <c r="N20" t="s">
-        <v>117</v>
-      </c>
-      <c r="O20" t="s">
-        <v>48</v>
+        <v>123</v>
+      </c>
+      <c r="O20" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="P20" t="s">
         <v>48</v>
       </c>
-      <c r="Q20" t="s">
-        <v>48</v>
-      </c>
-      <c r="R20" t="s">
-        <v>48</v>
-      </c>
-      <c r="S20" t="s">
-        <v>48</v>
+      <c r="Q20">
+        <v>8</v>
+      </c>
+      <c r="R20">
+        <v>90000</v>
+      </c>
+      <c r="S20">
+        <v>720000</v>
       </c>
       <c r="T20" t="s">
-        <v>48</v>
+        <v>124</v>
       </c>
       <c r="U20" t="s">
         <v>48</v>
@@ -4723,46 +4916,48 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="C21" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="D21" t="s">
         <v>48</v>
       </c>
       <c r="E21">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F21">
-        <v>160000</v>
+        <v>93000</v>
       </c>
       <c r="G21">
-        <v>800000</v>
+        <v>651000</v>
       </c>
       <c r="H21" t="s">
-        <v>120</v>
-      </c>
-      <c r="I21" t="s">
-        <v>48</v>
+        <v>127</v>
+      </c>
+      <c r="I21" t="str">
+        <f t="shared" si="1"/>
+        <v>落花 小虚</v>
       </c>
       <c r="J21" t="s">
         <v>48</v>
       </c>
       <c r="K21">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L21">
-        <v>118000</v>
+        <v>96000</v>
       </c>
       <c r="M21">
-        <v>708000</v>
+        <v>768000</v>
       </c>
       <c r="N21" t="s">
-        <v>121</v>
-      </c>
-      <c r="O21" t="s">
-        <v>48</v>
+        <v>128</v>
+      </c>
+      <c r="O21" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="P21" t="s">
         <v>48</v>
@@ -4779,8 +4974,9 @@
       <c r="T21" t="s">
         <v>48</v>
       </c>
-      <c r="U21" t="s">
-        <v>48</v>
+      <c r="U21" t="str">
+        <f>IF(OR(S21="",S21&lt;680000),$C21,"")</f>
+        <v>落花 小虚</v>
       </c>
       <c r="V21" t="s">
         <v>48</v>
@@ -4863,64 +5059,67 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="C22" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="D22" t="s">
         <v>48</v>
       </c>
       <c r="E22">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F22">
-        <v>124000</v>
+        <v>145000</v>
       </c>
       <c r="G22">
-        <v>744000</v>
+        <v>725000</v>
       </c>
       <c r="H22" t="s">
-        <v>124</v>
-      </c>
-      <c r="I22" t="s">
-        <v>48</v>
+        <v>131</v>
+      </c>
+      <c r="I22" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="J22" t="s">
         <v>48</v>
       </c>
       <c r="K22">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L22">
-        <v>128000</v>
+        <v>100000</v>
       </c>
       <c r="M22">
-        <v>768000</v>
+        <v>700000</v>
       </c>
       <c r="N22" t="s">
-        <v>52</v>
-      </c>
-      <c r="O22" t="s">
-        <v>123</v>
+        <v>132</v>
+      </c>
+      <c r="O22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="P22" t="s">
         <v>48</v>
       </c>
-      <c r="Q22" t="s">
-        <v>48</v>
-      </c>
-      <c r="R22" t="s">
-        <v>48</v>
-      </c>
-      <c r="S22" t="s">
-        <v>48</v>
+      <c r="Q22">
+        <v>7</v>
+      </c>
+      <c r="R22">
+        <v>100000</v>
+      </c>
+      <c r="S22">
+        <v>700000</v>
       </c>
       <c r="T22" t="s">
-        <v>48</v>
-      </c>
-      <c r="U22" t="s">
-        <v>48</v>
+        <v>133</v>
+      </c>
+      <c r="U22" t="str">
+        <f>IF(OR(S22="",S22&lt;680000),$C22,"")</f>
+        <v/>
       </c>
       <c r="V22" t="s">
         <v>48</v>
@@ -5003,10 +5202,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="C23" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="D23" t="s">
         <v>48</v>
@@ -5015,52 +5214,55 @@
         <v>5</v>
       </c>
       <c r="F23">
-        <v>134000</v>
+        <v>128000</v>
       </c>
       <c r="G23">
-        <v>670000</v>
+        <v>640000</v>
       </c>
       <c r="H23" t="s">
-        <v>127</v>
-      </c>
-      <c r="I23" t="s">
-        <v>48</v>
+        <v>136</v>
+      </c>
+      <c r="I23" t="str">
+        <f t="shared" si="1"/>
+        <v>落花⭐Rai</v>
       </c>
       <c r="J23" t="s">
         <v>48</v>
       </c>
-      <c r="K23" t="s">
-        <v>48</v>
-      </c>
-      <c r="L23" t="s">
-        <v>48</v>
-      </c>
-      <c r="M23" t="s">
-        <v>48</v>
+      <c r="K23">
+        <v>7</v>
+      </c>
+      <c r="L23">
+        <v>97000</v>
+      </c>
+      <c r="M23">
+        <v>679000</v>
       </c>
       <c r="N23" t="s">
-        <v>48</v>
-      </c>
-      <c r="O23" t="s">
-        <v>126</v>
+        <v>137</v>
+      </c>
+      <c r="O23" t="str">
+        <f t="shared" si="0"/>
+        <v>落花⭐Rai</v>
       </c>
       <c r="P23" t="s">
         <v>48</v>
       </c>
-      <c r="Q23" t="s">
-        <v>48</v>
-      </c>
-      <c r="R23" t="s">
-        <v>48</v>
-      </c>
-      <c r="S23" t="s">
-        <v>48</v>
+      <c r="Q23">
+        <v>8</v>
+      </c>
+      <c r="R23">
+        <v>98000</v>
+      </c>
+      <c r="S23">
+        <v>784000</v>
       </c>
       <c r="T23" t="s">
-        <v>48</v>
-      </c>
-      <c r="U23" t="s">
-        <v>48</v>
+        <v>138</v>
+      </c>
+      <c r="U23" t="str">
+        <f>IF(OR(S23="",S23&lt;680000),$C23,"")</f>
+        <v/>
       </c>
       <c r="V23" t="s">
         <v>48</v>
@@ -5143,64 +5345,67 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="C24" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="D24" t="s">
         <v>48</v>
       </c>
       <c r="E24">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F24">
-        <v>146000</v>
+        <v>112000</v>
       </c>
       <c r="G24">
-        <v>730000</v>
+        <v>672000</v>
       </c>
       <c r="H24" t="s">
-        <v>130</v>
-      </c>
-      <c r="I24" t="s">
-        <v>48</v>
+        <v>141</v>
+      </c>
+      <c r="I24" t="str">
+        <f t="shared" si="1"/>
+        <v>落花 可露丽</v>
       </c>
       <c r="J24" t="s">
         <v>48</v>
       </c>
-      <c r="K24" t="s">
-        <v>48</v>
-      </c>
-      <c r="L24" t="s">
-        <v>48</v>
-      </c>
-      <c r="M24" t="s">
-        <v>48</v>
+      <c r="K24">
+        <v>6</v>
+      </c>
+      <c r="L24">
+        <v>120000</v>
+      </c>
+      <c r="M24">
+        <v>720000</v>
       </c>
       <c r="N24" t="s">
-        <v>48</v>
-      </c>
-      <c r="O24" t="s">
-        <v>129</v>
+        <v>142</v>
+      </c>
+      <c r="O24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="P24" t="s">
         <v>48</v>
       </c>
-      <c r="Q24" t="s">
-        <v>48</v>
-      </c>
-      <c r="R24" t="s">
-        <v>48</v>
-      </c>
-      <c r="S24" t="s">
-        <v>48</v>
+      <c r="Q24">
+        <v>6</v>
+      </c>
+      <c r="R24">
+        <v>126000</v>
+      </c>
+      <c r="S24">
+        <v>756000</v>
       </c>
       <c r="T24" t="s">
-        <v>48</v>
-      </c>
-      <c r="U24" t="s">
-        <v>48</v>
+        <v>143</v>
+      </c>
+      <c r="U24" t="str">
+        <f>IF(OR(S24="",S24&lt;680000),$C24,"")</f>
+        <v/>
       </c>
       <c r="V24" t="s">
         <v>48</v>
@@ -5283,61 +5488,63 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="C25" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="D25" t="s">
         <v>48</v>
       </c>
-      <c r="E25" t="s">
-        <v>48</v>
-      </c>
-      <c r="F25" t="s">
-        <v>48</v>
-      </c>
-      <c r="G25" t="s">
-        <v>48</v>
+      <c r="E25">
+        <v>7</v>
+      </c>
+      <c r="F25">
+        <v>100000</v>
+      </c>
+      <c r="G25">
+        <v>700000</v>
       </c>
       <c r="H25" t="s">
-        <v>48</v>
-      </c>
-      <c r="I25" t="s">
-        <v>132</v>
+        <v>146</v>
+      </c>
+      <c r="I25" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="J25" t="s">
         <v>48</v>
       </c>
-      <c r="K25" t="s">
-        <v>48</v>
-      </c>
-      <c r="L25" t="s">
-        <v>48</v>
-      </c>
-      <c r="M25" t="s">
-        <v>48</v>
+      <c r="K25">
+        <v>9</v>
+      </c>
+      <c r="L25">
+        <v>76000</v>
+      </c>
+      <c r="M25">
+        <v>684000</v>
       </c>
       <c r="N25" t="s">
-        <v>48</v>
-      </c>
-      <c r="O25" t="s">
-        <v>132</v>
+        <v>147</v>
+      </c>
+      <c r="O25" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="P25" t="s">
         <v>48</v>
       </c>
-      <c r="Q25" t="s">
-        <v>48</v>
-      </c>
-      <c r="R25" t="s">
-        <v>48</v>
-      </c>
-      <c r="S25" t="s">
-        <v>48</v>
+      <c r="Q25">
+        <v>8</v>
+      </c>
+      <c r="R25">
+        <v>84000</v>
+      </c>
+      <c r="S25">
+        <v>672000</v>
       </c>
       <c r="T25" t="s">
-        <v>48</v>
+        <v>148</v>
       </c>
       <c r="U25" t="s">
         <v>48</v>
@@ -5423,10 +5630,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="C26" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="D26" t="s">
         <v>48</v>
@@ -5435,16 +5642,17 @@
         <v>5</v>
       </c>
       <c r="F26">
-        <v>132000</v>
+        <v>160000</v>
       </c>
       <c r="G26">
-        <v>660000</v>
+        <v>800000</v>
       </c>
       <c r="H26" t="s">
-        <v>135</v>
-      </c>
-      <c r="I26" t="s">
-        <v>48</v>
+        <v>151</v>
+      </c>
+      <c r="I26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="J26" t="s">
         <v>48</v>
@@ -5453,16 +5661,17 @@
         <v>6</v>
       </c>
       <c r="L26">
-        <v>125000</v>
+        <v>118000</v>
       </c>
       <c r="M26">
-        <v>750000</v>
+        <v>708000</v>
       </c>
       <c r="N26" t="s">
-        <v>136</v>
-      </c>
-      <c r="O26" t="s">
-        <v>48</v>
+        <v>152</v>
+      </c>
+      <c r="O26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="P26" t="s">
         <v>48</v>
@@ -5563,46 +5772,48 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="C27" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="D27" t="s">
         <v>48</v>
       </c>
-      <c r="E27" t="s">
-        <v>48</v>
-      </c>
-      <c r="F27" t="s">
-        <v>48</v>
-      </c>
-      <c r="G27" t="s">
-        <v>48</v>
+      <c r="E27">
+        <v>6</v>
+      </c>
+      <c r="F27">
+        <v>124000</v>
+      </c>
+      <c r="G27">
+        <v>744000</v>
       </c>
       <c r="H27" t="s">
-        <v>48</v>
-      </c>
-      <c r="I27" t="s">
-        <v>138</v>
+        <v>155</v>
+      </c>
+      <c r="I27" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="J27" t="s">
         <v>48</v>
       </c>
-      <c r="K27" t="s">
-        <v>48</v>
-      </c>
-      <c r="L27" t="s">
-        <v>48</v>
-      </c>
-      <c r="M27" t="s">
-        <v>48</v>
+      <c r="K27">
+        <v>6</v>
+      </c>
+      <c r="L27">
+        <v>128000</v>
+      </c>
+      <c r="M27">
+        <v>768000</v>
       </c>
       <c r="N27" t="s">
-        <v>48</v>
-      </c>
-      <c r="O27" t="s">
-        <v>138</v>
+        <v>156</v>
+      </c>
+      <c r="O27" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="P27" t="s">
         <v>48</v>
@@ -5703,46 +5914,48 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="C28" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="D28" t="s">
         <v>48</v>
       </c>
-      <c r="E28" t="s">
-        <v>48</v>
-      </c>
-      <c r="F28" t="s">
-        <v>48</v>
-      </c>
-      <c r="G28" t="s">
-        <v>48</v>
+      <c r="E28">
+        <v>5</v>
+      </c>
+      <c r="F28">
+        <v>134000</v>
+      </c>
+      <c r="G28">
+        <v>670000</v>
       </c>
       <c r="H28" t="s">
-        <v>48</v>
-      </c>
-      <c r="I28" t="s">
-        <v>140</v>
+        <v>159</v>
+      </c>
+      <c r="I28" t="str">
+        <f t="shared" si="1"/>
+        <v>落花◈啾啾</v>
       </c>
       <c r="J28" t="s">
         <v>48</v>
       </c>
-      <c r="K28" t="s">
-        <v>48</v>
-      </c>
-      <c r="L28" t="s">
-        <v>48</v>
-      </c>
-      <c r="M28" t="s">
-        <v>48</v>
+      <c r="K28">
+        <v>5</v>
+      </c>
+      <c r="L28">
+        <v>136000</v>
+      </c>
+      <c r="M28">
+        <v>680000</v>
       </c>
       <c r="N28" t="s">
-        <v>48</v>
-      </c>
-      <c r="O28" t="s">
-        <v>140</v>
+        <v>160</v>
+      </c>
+      <c r="O28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="P28" t="s">
         <v>48</v>
@@ -5843,43 +6056,43 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="C29" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="D29" t="s">
         <v>48</v>
       </c>
-      <c r="E29" t="s">
-        <v>48</v>
-      </c>
-      <c r="F29" t="s">
-        <v>48</v>
-      </c>
-      <c r="G29" t="s">
-        <v>48</v>
+      <c r="E29">
+        <v>5</v>
+      </c>
+      <c r="F29">
+        <v>146000</v>
+      </c>
+      <c r="G29">
+        <v>730000</v>
       </c>
       <c r="H29" t="s">
-        <v>48</v>
+        <v>163</v>
       </c>
       <c r="I29" t="s">
-        <v>142</v>
+        <v>48</v>
       </c>
       <c r="J29" t="s">
         <v>48</v>
       </c>
       <c r="K29">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="L29">
-        <v>110000</v>
+        <v>125000</v>
       </c>
       <c r="M29">
-        <v>990000</v>
+        <v>750000</v>
       </c>
       <c r="N29" t="s">
-        <v>143</v>
+        <v>164</v>
       </c>
       <c r="O29" t="s">
         <v>48</v>
@@ -5983,25 +6196,25 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>144</v>
+        <v>165</v>
       </c>
       <c r="C30" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="D30" t="s">
         <v>48</v>
       </c>
-      <c r="E30">
-        <v>7</v>
-      </c>
-      <c r="F30">
-        <v>100000</v>
-      </c>
-      <c r="G30">
-        <v>700000</v>
+      <c r="E30" t="s">
+        <v>48</v>
+      </c>
+      <c r="F30" t="s">
+        <v>48</v>
+      </c>
+      <c r="G30" t="s">
+        <v>48</v>
       </c>
       <c r="H30" t="s">
-        <v>146</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
         <v>48</v>
@@ -6021,8 +6234,9 @@
       <c r="N30" t="s">
         <v>48</v>
       </c>
-      <c r="O30" t="s">
-        <v>145</v>
+      <c r="O30" t="str">
+        <f>IF(OR(M30="",M30&lt;680000),$C30,"")</f>
+        <v>落花-瓷羽</v>
       </c>
       <c r="P30" t="s">
         <v>48</v>
@@ -6039,8 +6253,9 @@
       <c r="T30" t="s">
         <v>48</v>
       </c>
-      <c r="U30" t="s">
-        <v>48</v>
+      <c r="U30" t="str">
+        <f>IF(OR(S30="",S30&lt;680000),$C30,"")</f>
+        <v>落花-瓷羽</v>
       </c>
       <c r="V30" t="s">
         <v>48</v>
@@ -6123,61 +6338,63 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="C31" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="D31" t="s">
         <v>48</v>
       </c>
-      <c r="E31">
-        <v>13</v>
-      </c>
-      <c r="F31">
-        <v>50000</v>
-      </c>
-      <c r="G31">
-        <v>650000</v>
+      <c r="E31" t="s">
+        <v>48</v>
+      </c>
+      <c r="F31" t="s">
+        <v>48</v>
+      </c>
+      <c r="G31" t="s">
+        <v>48</v>
       </c>
       <c r="H31" t="s">
-        <v>149</v>
-      </c>
-      <c r="I31" t="s">
-        <v>48</v>
+        <v>48</v>
+      </c>
+      <c r="I31" t="str">
+        <f>IF(OR(G31="",G31&lt;680000),$C31,"")</f>
+        <v>落花－白寄岚</v>
       </c>
       <c r="J31" t="s">
         <v>48</v>
       </c>
-      <c r="K31" t="s">
-        <v>48</v>
-      </c>
-      <c r="L31" t="s">
-        <v>48</v>
-      </c>
-      <c r="M31" t="s">
-        <v>48</v>
+      <c r="K31">
+        <v>9</v>
+      </c>
+      <c r="L31">
+        <v>110000</v>
+      </c>
+      <c r="M31">
+        <v>990000</v>
       </c>
       <c r="N31" t="s">
-        <v>48</v>
-      </c>
-      <c r="O31" t="s">
-        <v>148</v>
+        <v>169</v>
+      </c>
+      <c r="O31" t="str">
+        <f>IF(OR(M31="",M31&lt;680000),$C31,"")</f>
+        <v/>
       </c>
       <c r="P31" t="s">
         <v>48</v>
       </c>
-      <c r="Q31" t="s">
-        <v>48</v>
-      </c>
-      <c r="R31" t="s">
-        <v>48</v>
-      </c>
-      <c r="S31" t="s">
-        <v>48</v>
+      <c r="Q31">
+        <v>7</v>
+      </c>
+      <c r="R31">
+        <v>110000</v>
+      </c>
+      <c r="S31">
+        <v>770000</v>
       </c>
       <c r="T31" t="s">
-        <v>48</v>
+        <v>170</v>
       </c>
       <c r="U31" t="s">
         <v>48</v>
@@ -6263,46 +6480,48 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
       <c r="C32" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c r="D32" t="s">
         <v>48</v>
       </c>
-      <c r="E32" t="s">
-        <v>48</v>
-      </c>
-      <c r="F32" t="s">
-        <v>48</v>
-      </c>
-      <c r="G32" t="s">
-        <v>48</v>
+      <c r="E32">
+        <v>7</v>
+      </c>
+      <c r="F32">
+        <v>100000</v>
+      </c>
+      <c r="G32">
+        <v>700000</v>
       </c>
       <c r="H32" t="s">
-        <v>48</v>
-      </c>
-      <c r="I32" t="s">
-        <v>151</v>
+        <v>173</v>
+      </c>
+      <c r="I32" t="str">
+        <f>IF(OR(G32="",G32&lt;680000),$C32,"")</f>
+        <v/>
       </c>
       <c r="J32" t="s">
         <v>48</v>
       </c>
-      <c r="K32" t="s">
-        <v>48</v>
-      </c>
-      <c r="L32" t="s">
-        <v>48</v>
-      </c>
-      <c r="M32" t="s">
-        <v>48</v>
+      <c r="K32">
+        <v>7</v>
+      </c>
+      <c r="L32">
+        <v>100000</v>
+      </c>
+      <c r="M32">
+        <v>700000</v>
       </c>
       <c r="N32" t="s">
-        <v>48</v>
-      </c>
-      <c r="O32" t="s">
-        <v>151</v>
+        <v>174</v>
+      </c>
+      <c r="O32" t="str">
+        <f>IF(OR(M32="",M32&lt;680000),$C32,"")</f>
+        <v/>
       </c>
       <c r="P32" t="s">
         <v>48</v>
@@ -6403,46 +6622,46 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>152</v>
+        <v>175</v>
       </c>
       <c r="C33" t="s">
-        <v>153</v>
+        <v>176</v>
       </c>
       <c r="D33" t="s">
         <v>48</v>
       </c>
-      <c r="E33" t="s">
-        <v>48</v>
-      </c>
-      <c r="F33" t="s">
-        <v>48</v>
-      </c>
-      <c r="G33" t="s">
-        <v>48</v>
+      <c r="E33">
+        <v>13</v>
+      </c>
+      <c r="F33">
+        <v>50000</v>
+      </c>
+      <c r="G33">
+        <v>650000</v>
       </c>
       <c r="H33" t="s">
-        <v>48</v>
+        <v>177</v>
       </c>
       <c r="I33" t="s">
-        <v>153</v>
+        <v>48</v>
       </c>
       <c r="J33" t="s">
         <v>48</v>
       </c>
-      <c r="K33" t="s">
-        <v>48</v>
-      </c>
-      <c r="L33" t="s">
-        <v>48</v>
-      </c>
-      <c r="M33" t="s">
-        <v>48</v>
+      <c r="K33">
+        <v>13</v>
+      </c>
+      <c r="L33">
+        <v>51000</v>
+      </c>
+      <c r="M33">
+        <v>663000</v>
       </c>
       <c r="N33" t="s">
-        <v>48</v>
+        <v>178</v>
       </c>
       <c r="O33" t="s">
-        <v>153</v>
+        <v>48</v>
       </c>
       <c r="P33" t="s">
         <v>48</v>
@@ -6543,25 +6762,25 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>154</v>
+        <v>179</v>
       </c>
       <c r="C34" t="s">
-        <v>155</v>
+        <v>180</v>
       </c>
       <c r="D34" t="s">
         <v>48</v>
       </c>
-      <c r="E34">
-        <v>6</v>
-      </c>
-      <c r="F34">
-        <v>711510</v>
-      </c>
-      <c r="G34">
-        <v>4269060</v>
+      <c r="E34" t="s">
+        <v>48</v>
+      </c>
+      <c r="F34" t="s">
+        <v>48</v>
+      </c>
+      <c r="G34" t="s">
+        <v>48</v>
       </c>
       <c r="H34" t="s">
-        <v>156</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
         <v>48</v>
@@ -6569,20 +6788,20 @@
       <c r="J34" t="s">
         <v>48</v>
       </c>
-      <c r="K34">
-        <v>6</v>
-      </c>
-      <c r="L34">
-        <v>12447</v>
-      </c>
-      <c r="M34">
-        <v>74682</v>
+      <c r="K34" t="s">
+        <v>48</v>
+      </c>
+      <c r="L34" t="s">
+        <v>48</v>
+      </c>
+      <c r="M34" t="s">
+        <v>48</v>
       </c>
       <c r="N34" t="s">
-        <v>157</v>
+        <v>48</v>
       </c>
       <c r="O34" t="s">
-        <v>155</v>
+        <v>48</v>
       </c>
       <c r="P34" t="s">
         <v>48</v>
@@ -6683,28 +6902,29 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>158</v>
+        <v>181</v>
       </c>
       <c r="C35" t="s">
-        <v>159</v>
+        <v>182</v>
       </c>
       <c r="D35" t="s">
         <v>48</v>
       </c>
-      <c r="E35">
-        <v>7</v>
-      </c>
-      <c r="F35">
-        <v>140000</v>
-      </c>
-      <c r="G35">
-        <v>980000</v>
+      <c r="E35" t="s">
+        <v>48</v>
+      </c>
+      <c r="F35" t="s">
+        <v>48</v>
+      </c>
+      <c r="G35" t="s">
+        <v>48</v>
       </c>
       <c r="H35" t="s">
-        <v>160</v>
-      </c>
-      <c r="I35" t="s">
-        <v>48</v>
+        <v>48</v>
+      </c>
+      <c r="I35" t="str">
+        <f>IF(OR(G35="",G35&lt;680000),$C35,"")</f>
+        <v>落花-24k草莓小葵</v>
       </c>
       <c r="J35" t="s">
         <v>48</v>
@@ -6721,8 +6941,9 @@
       <c r="N35" t="s">
         <v>48</v>
       </c>
-      <c r="O35" t="s">
-        <v>159</v>
+      <c r="O35" t="str">
+        <f t="shared" ref="O35:O50" si="2">IF(OR(M35="",M35&lt;680000),$C35,"")</f>
+        <v>落花-24k草莓小葵</v>
       </c>
       <c r="P35" t="s">
         <v>48</v>
@@ -6823,46 +7044,48 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>161</v>
+        <v>183</v>
       </c>
       <c r="C36" t="s">
-        <v>162</v>
+        <v>184</v>
       </c>
       <c r="D36" t="s">
         <v>48</v>
       </c>
       <c r="E36">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F36">
-        <v>112979</v>
+        <v>140000</v>
       </c>
       <c r="G36">
-        <v>677874</v>
+        <v>980000</v>
       </c>
       <c r="H36" t="s">
-        <v>163</v>
-      </c>
-      <c r="I36" t="s">
-        <v>48</v>
+        <v>185</v>
+      </c>
+      <c r="I36" t="str">
+        <f>IF(OR(G36="",G36&lt;680000),$C36,"")</f>
+        <v/>
       </c>
       <c r="J36" t="s">
         <v>48</v>
       </c>
       <c r="K36">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="L36">
-        <v>90000</v>
+        <v>128000</v>
       </c>
       <c r="M36">
-        <v>720000</v>
+        <v>1152000</v>
       </c>
       <c r="N36" t="s">
-        <v>164</v>
-      </c>
-      <c r="O36" t="s">
-        <v>48</v>
+        <v>186</v>
+      </c>
+      <c r="O36" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
       <c r="P36" t="s">
         <v>48</v>
@@ -6963,46 +7186,47 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>165</v>
+        <v>187</v>
       </c>
       <c r="C37" t="s">
-        <v>166</v>
+        <v>188</v>
       </c>
       <c r="D37" t="s">
         <v>48</v>
       </c>
-      <c r="E37" t="s">
-        <v>48</v>
-      </c>
-      <c r="F37" t="s">
-        <v>48</v>
-      </c>
-      <c r="G37" t="s">
-        <v>48</v>
+      <c r="E37">
+        <v>6</v>
+      </c>
+      <c r="F37">
+        <v>112979</v>
+      </c>
+      <c r="G37">
+        <v>677874</v>
       </c>
       <c r="H37" t="s">
-        <v>48</v>
+        <v>189</v>
       </c>
       <c r="I37" t="s">
-        <v>166</v>
+        <v>48</v>
       </c>
       <c r="J37" t="s">
         <v>48</v>
       </c>
-      <c r="K37" t="s">
-        <v>48</v>
-      </c>
-      <c r="L37" t="s">
-        <v>48</v>
-      </c>
-      <c r="M37" t="s">
-        <v>48</v>
+      <c r="K37">
+        <v>6</v>
+      </c>
+      <c r="L37">
+        <v>90000</v>
+      </c>
+      <c r="M37">
+        <v>720000</v>
       </c>
       <c r="N37" t="s">
-        <v>48</v>
-      </c>
-      <c r="O37" t="s">
-        <v>166</v>
+        <v>190</v>
+      </c>
+      <c r="O37" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
       <c r="P37" t="s">
         <v>48</v>
@@ -7103,46 +7327,48 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>167</v>
+        <v>191</v>
       </c>
       <c r="C38" t="s">
-        <v>168</v>
+        <v>192</v>
       </c>
       <c r="D38" t="s">
         <v>48</v>
       </c>
-      <c r="E38">
-        <v>10</v>
-      </c>
-      <c r="F38">
-        <v>70000</v>
-      </c>
-      <c r="G38">
-        <v>700000</v>
+      <c r="E38" t="s">
+        <v>48</v>
+      </c>
+      <c r="F38" t="s">
+        <v>48</v>
+      </c>
+      <c r="G38" t="s">
+        <v>48</v>
       </c>
       <c r="H38" t="s">
-        <v>169</v>
-      </c>
-      <c r="I38" t="s">
-        <v>48</v>
+        <v>48</v>
+      </c>
+      <c r="I38" t="str">
+        <f>IF(OR(G38="",G38&lt;680000),$C38,"")</f>
+        <v>落花 苏其凉</v>
       </c>
       <c r="J38" t="s">
         <v>48</v>
       </c>
       <c r="K38">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="L38">
-        <v>50000</v>
+        <v>83000</v>
       </c>
       <c r="M38">
-        <v>750000</v>
+        <v>747000</v>
       </c>
       <c r="N38" t="s">
-        <v>170</v>
-      </c>
-      <c r="O38" t="s">
-        <v>48</v>
+        <v>193</v>
+      </c>
+      <c r="O38" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
       <c r="P38" t="s">
         <v>48</v>
@@ -7243,46 +7469,48 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>171</v>
+        <v>194</v>
       </c>
       <c r="C39" t="s">
-        <v>172</v>
+        <v>195</v>
       </c>
       <c r="D39" t="s">
         <v>48</v>
       </c>
-      <c r="E39" t="s">
-        <v>48</v>
-      </c>
-      <c r="F39" t="s">
-        <v>48</v>
-      </c>
-      <c r="G39" t="s">
-        <v>48</v>
+      <c r="E39">
+        <v>10</v>
+      </c>
+      <c r="F39">
+        <v>70000</v>
+      </c>
+      <c r="G39">
+        <v>700000</v>
       </c>
       <c r="H39" t="s">
-        <v>48</v>
-      </c>
-      <c r="I39" t="s">
-        <v>172</v>
+        <v>196</v>
+      </c>
+      <c r="I39" t="str">
+        <f>IF(OR(G39="",G39&lt;680000),$C39,"")</f>
+        <v/>
       </c>
       <c r="J39" t="s">
         <v>48</v>
       </c>
-      <c r="K39" t="s">
-        <v>48</v>
-      </c>
-      <c r="L39" t="s">
-        <v>48</v>
-      </c>
-      <c r="M39" t="s">
-        <v>48</v>
+      <c r="K39">
+        <v>15</v>
+      </c>
+      <c r="L39">
+        <v>50000</v>
+      </c>
+      <c r="M39">
+        <v>750000</v>
       </c>
       <c r="N39" t="s">
-        <v>48</v>
-      </c>
-      <c r="O39" t="s">
-        <v>172</v>
+        <v>197</v>
+      </c>
+      <c r="O39" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
       <c r="P39" t="s">
         <v>48</v>
@@ -7299,8 +7527,9 @@
       <c r="T39" t="s">
         <v>48</v>
       </c>
-      <c r="U39" t="s">
-        <v>48</v>
+      <c r="U39" t="str">
+        <f>IF(OR(S39="",S39&lt;680000),$C39,"")</f>
+        <v>落花 奶味汐月</v>
       </c>
       <c r="V39" t="s">
         <v>48</v>
@@ -7383,10 +7612,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>173</v>
+        <v>198</v>
       </c>
       <c r="C40" t="s">
-        <v>174</v>
+        <v>199</v>
       </c>
       <c r="D40" t="s">
         <v>48</v>
@@ -7401,10 +7630,11 @@
         <v>688000</v>
       </c>
       <c r="H40" t="s">
-        <v>175</v>
-      </c>
-      <c r="I40" t="s">
-        <v>48</v>
+        <v>200</v>
+      </c>
+      <c r="I40" t="str">
+        <f>IF(OR(G40="",G40&lt;680000),$C40,"")</f>
+        <v/>
       </c>
       <c r="J40" t="s">
         <v>48</v>
@@ -7419,25 +7649,26 @@
         <v>696000</v>
       </c>
       <c r="N40" t="s">
-        <v>176</v>
-      </c>
-      <c r="O40" t="s">
-        <v>174</v>
+        <v>201</v>
+      </c>
+      <c r="O40" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
       <c r="P40" t="s">
         <v>48</v>
       </c>
-      <c r="Q40" t="s">
-        <v>48</v>
-      </c>
-      <c r="R40" t="s">
-        <v>48</v>
-      </c>
-      <c r="S40" t="s">
-        <v>48</v>
+      <c r="Q40">
+        <v>8</v>
+      </c>
+      <c r="R40">
+        <v>90000</v>
+      </c>
+      <c r="S40">
+        <v>720000</v>
       </c>
       <c r="T40" t="s">
-        <v>48</v>
+        <v>202</v>
       </c>
       <c r="U40" t="s">
         <v>48</v>
@@ -7523,10 +7754,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>177</v>
+        <v>203</v>
       </c>
       <c r="C41" t="s">
-        <v>178</v>
+        <v>204</v>
       </c>
       <c r="D41" t="s">
         <v>48</v>
@@ -7541,28 +7772,30 @@
         <v>840000</v>
       </c>
       <c r="H41" t="s">
-        <v>179</v>
-      </c>
-      <c r="I41" t="s">
-        <v>48</v>
+        <v>205</v>
+      </c>
+      <c r="I41" t="str">
+        <f>IF(OR(G41="",G41&lt;680000),$C41,"")</f>
+        <v/>
       </c>
       <c r="J41" t="s">
         <v>48</v>
       </c>
-      <c r="K41" t="s">
-        <v>48</v>
-      </c>
-      <c r="L41" t="s">
-        <v>48</v>
-      </c>
-      <c r="M41" t="s">
-        <v>48</v>
+      <c r="K41">
+        <v>10</v>
+      </c>
+      <c r="L41">
+        <v>86000</v>
+      </c>
+      <c r="M41">
+        <v>860000</v>
       </c>
       <c r="N41" t="s">
-        <v>48</v>
-      </c>
-      <c r="O41" t="s">
-        <v>178</v>
+        <v>206</v>
+      </c>
+      <c r="O41" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
       <c r="P41" t="s">
         <v>48</v>
@@ -7663,10 +7896,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>180</v>
+        <v>207</v>
       </c>
       <c r="C42" t="s">
-        <v>181</v>
+        <v>208</v>
       </c>
       <c r="D42" t="s">
         <v>48</v>
@@ -7681,7 +7914,7 @@
         <v>650000</v>
       </c>
       <c r="H42" t="s">
-        <v>182</v>
+        <v>209</v>
       </c>
       <c r="I42" t="s">
         <v>48</v>
@@ -7699,10 +7932,11 @@
         <v>660000</v>
       </c>
       <c r="N42" t="s">
-        <v>183</v>
-      </c>
-      <c r="O42" t="s">
-        <v>48</v>
+        <v>210</v>
+      </c>
+      <c r="O42" t="str">
+        <f t="shared" si="2"/>
+        <v>落花-天淼</v>
       </c>
       <c r="P42" t="s">
         <v>48</v>
@@ -7803,10 +8037,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>184</v>
+        <v>211</v>
       </c>
       <c r="C43" t="s">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="D43" t="s">
         <v>48</v>
@@ -7823,26 +8057,28 @@
       <c r="H43" t="s">
         <v>48</v>
       </c>
-      <c r="I43" t="s">
-        <v>185</v>
+      <c r="I43" t="str">
+        <f t="shared" ref="I43:I50" si="3">IF(OR(G43="",G43&lt;680000),$C43,"")</f>
+        <v>落花      魚漁。</v>
       </c>
       <c r="J43" t="s">
         <v>48</v>
       </c>
-      <c r="K43" t="s">
-        <v>48</v>
-      </c>
-      <c r="L43" t="s">
-        <v>48</v>
-      </c>
-      <c r="M43" t="s">
-        <v>48</v>
+      <c r="K43">
+        <v>8</v>
+      </c>
+      <c r="L43">
+        <v>92000</v>
+      </c>
+      <c r="M43">
+        <v>736000</v>
       </c>
       <c r="N43" t="s">
-        <v>48</v>
-      </c>
-      <c r="O43" t="s">
-        <v>185</v>
+        <v>213</v>
+      </c>
+      <c r="O43" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
       <c r="P43" t="s">
         <v>48</v>
@@ -7859,8 +8095,9 @@
       <c r="T43" t="s">
         <v>48</v>
       </c>
-      <c r="U43" t="s">
-        <v>48</v>
+      <c r="U43" t="str">
+        <f>IF(OR(S43="",S43&lt;680000),$C43,"")</f>
+        <v>落花      魚漁。</v>
       </c>
       <c r="V43" t="s">
         <v>48</v>
@@ -7943,10 +8180,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>186</v>
+        <v>214</v>
       </c>
       <c r="C44" t="s">
-        <v>187</v>
+        <v>215</v>
       </c>
       <c r="D44" t="s">
         <v>48</v>
@@ -7961,10 +8198,11 @@
         <v>636000</v>
       </c>
       <c r="H44" t="s">
-        <v>188</v>
-      </c>
-      <c r="I44" t="s">
-        <v>48</v>
+        <v>216</v>
+      </c>
+      <c r="I44" t="str">
+        <f t="shared" si="3"/>
+        <v>落花  赖皮蛇</v>
       </c>
       <c r="J44" t="s">
         <v>48</v>
@@ -7979,28 +8217,30 @@
         <v>684000</v>
       </c>
       <c r="N44" t="s">
-        <v>189</v>
-      </c>
-      <c r="O44" t="s">
-        <v>48</v>
+        <v>217</v>
+      </c>
+      <c r="O44" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
       <c r="P44" t="s">
         <v>48</v>
       </c>
-      <c r="Q44" t="s">
-        <v>48</v>
-      </c>
-      <c r="R44" t="s">
-        <v>48</v>
-      </c>
-      <c r="S44" t="s">
-        <v>48</v>
+      <c r="Q44">
+        <v>6</v>
+      </c>
+      <c r="R44">
+        <v>116000</v>
+      </c>
+      <c r="S44">
+        <v>696000</v>
       </c>
       <c r="T44" t="s">
-        <v>48</v>
-      </c>
-      <c r="U44" t="s">
-        <v>48</v>
+        <v>218</v>
+      </c>
+      <c r="U44" t="str">
+        <f>IF(OR(S44="",S44&lt;680000),$C44,"")</f>
+        <v/>
       </c>
       <c r="V44" t="s">
         <v>48</v>
@@ -8083,10 +8323,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>190</v>
+        <v>219</v>
       </c>
       <c r="C45" t="s">
-        <v>191</v>
+        <v>220</v>
       </c>
       <c r="D45" t="s">
         <v>48</v>
@@ -8101,46 +8341,49 @@
         <v>730000</v>
       </c>
       <c r="H45" t="s">
-        <v>192</v>
-      </c>
-      <c r="I45" t="s">
-        <v>48</v>
+        <v>221</v>
+      </c>
+      <c r="I45" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
       <c r="J45" t="s">
         <v>48</v>
       </c>
-      <c r="K45" t="s">
-        <v>48</v>
-      </c>
-      <c r="L45" t="s">
-        <v>48</v>
-      </c>
-      <c r="M45" t="s">
-        <v>48</v>
+      <c r="K45">
+        <v>6</v>
+      </c>
+      <c r="L45">
+        <v>118000</v>
+      </c>
+      <c r="M45">
+        <v>708000</v>
       </c>
       <c r="N45" t="s">
-        <v>48</v>
-      </c>
-      <c r="O45" t="s">
-        <v>191</v>
+        <v>222</v>
+      </c>
+      <c r="O45" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
       <c r="P45" t="s">
         <v>48</v>
       </c>
-      <c r="Q45" t="s">
-        <v>48</v>
-      </c>
-      <c r="R45" t="s">
-        <v>48</v>
-      </c>
-      <c r="S45" t="s">
-        <v>48</v>
+      <c r="Q45">
+        <v>6</v>
+      </c>
+      <c r="R45">
+        <v>125000</v>
+      </c>
+      <c r="S45">
+        <v>750000</v>
       </c>
       <c r="T45" t="s">
-        <v>48</v>
-      </c>
-      <c r="U45" t="s">
-        <v>48</v>
+        <v>223</v>
+      </c>
+      <c r="U45" t="str">
+        <f>IF(OR(S45="",S45&lt;680000),$C45,"")</f>
+        <v/>
       </c>
       <c r="V45" t="s">
         <v>48</v>
@@ -8223,10 +8466,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>193</v>
+        <v>224</v>
       </c>
       <c r="C46" t="s">
-        <v>194</v>
+        <v>225</v>
       </c>
       <c r="D46" t="s">
         <v>48</v>
@@ -8241,10 +8484,11 @@
         <v>730000</v>
       </c>
       <c r="H46" t="s">
-        <v>195</v>
-      </c>
-      <c r="I46" t="s">
-        <v>48</v>
+        <v>226</v>
+      </c>
+      <c r="I46" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
       <c r="J46" t="s">
         <v>48</v>
@@ -8259,28 +8503,30 @@
         <v>825000</v>
       </c>
       <c r="N46" t="s">
-        <v>196</v>
-      </c>
-      <c r="O46" t="s">
-        <v>48</v>
+        <v>227</v>
+      </c>
+      <c r="O46" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
       <c r="P46" t="s">
         <v>48</v>
       </c>
-      <c r="Q46" t="s">
-        <v>48</v>
-      </c>
-      <c r="R46" t="s">
-        <v>48</v>
-      </c>
-      <c r="S46" t="s">
-        <v>48</v>
+      <c r="Q46">
+        <v>5</v>
+      </c>
+      <c r="R46">
+        <v>163000</v>
+      </c>
+      <c r="S46">
+        <v>815000</v>
       </c>
       <c r="T46" t="s">
-        <v>48</v>
-      </c>
-      <c r="U46" t="s">
-        <v>48</v>
+        <v>228</v>
+      </c>
+      <c r="U46" t="str">
+        <f>IF(OR(S46="",S46&lt;680000),$C46,"")</f>
+        <v/>
       </c>
       <c r="V46" t="s">
         <v>48</v>
@@ -8363,10 +8609,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>197</v>
+        <v>229</v>
       </c>
       <c r="C47" t="s">
-        <v>198</v>
+        <v>230</v>
       </c>
       <c r="D47" t="s">
         <v>48</v>
@@ -8381,10 +8627,11 @@
         <v>780000</v>
       </c>
       <c r="H47" t="s">
-        <v>199</v>
-      </c>
-      <c r="I47" t="s">
-        <v>48</v>
+        <v>231</v>
+      </c>
+      <c r="I47" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
       <c r="J47" t="s">
         <v>48</v>
@@ -8399,25 +8646,26 @@
         <v>690000</v>
       </c>
       <c r="N47" t="s">
-        <v>200</v>
-      </c>
-      <c r="O47" t="s">
-        <v>48</v>
+        <v>232</v>
+      </c>
+      <c r="O47" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
       <c r="P47" t="s">
         <v>48</v>
       </c>
-      <c r="Q47" t="s">
-        <v>48</v>
-      </c>
-      <c r="R47" t="s">
-        <v>48</v>
-      </c>
-      <c r="S47" t="s">
-        <v>48</v>
+      <c r="Q47">
+        <v>6</v>
+      </c>
+      <c r="R47">
+        <v>120000</v>
+      </c>
+      <c r="S47">
+        <v>720000</v>
       </c>
       <c r="T47" t="s">
-        <v>48</v>
+        <v>233</v>
       </c>
       <c r="U47" t="s">
         <v>48</v>
@@ -8503,10 +8751,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>201</v>
+        <v>234</v>
       </c>
       <c r="C48" t="s">
-        <v>202</v>
+        <v>235</v>
       </c>
       <c r="D48" t="s">
         <v>48</v>
@@ -8521,28 +8769,30 @@
         <v>656000</v>
       </c>
       <c r="H48" t="s">
-        <v>203</v>
-      </c>
-      <c r="I48" t="s">
-        <v>48</v>
+        <v>236</v>
+      </c>
+      <c r="I48" t="str">
+        <f t="shared" si="3"/>
+        <v>落花兰摧玉折</v>
       </c>
       <c r="J48" t="s">
         <v>48</v>
       </c>
       <c r="K48">
-        <v>98000</v>
+        <v>8</v>
       </c>
       <c r="L48">
-        <v>96000</v>
+        <v>90000</v>
       </c>
       <c r="M48">
-        <v>768000</v>
+        <v>720000</v>
       </c>
       <c r="N48" t="s">
-        <v>204</v>
-      </c>
-      <c r="O48" t="s">
-        <v>202</v>
+        <v>237</v>
+      </c>
+      <c r="O48" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
       <c r="P48" t="s">
         <v>48</v>
@@ -8559,8 +8809,9 @@
       <c r="T48" t="s">
         <v>48</v>
       </c>
-      <c r="U48" t="s">
-        <v>48</v>
+      <c r="U48" t="str">
+        <f>IF(OR(S48="",S48&lt;680000),$C48,"")</f>
+        <v>落花兰摧玉折</v>
       </c>
       <c r="V48" t="s">
         <v>48</v>
@@ -8643,10 +8894,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>205</v>
+        <v>238</v>
       </c>
       <c r="C49" t="s">
-        <v>206</v>
+        <v>239</v>
       </c>
       <c r="D49" t="s">
         <v>48</v>
@@ -8661,10 +8912,11 @@
         <v>730000</v>
       </c>
       <c r="H49" t="s">
-        <v>207</v>
-      </c>
-      <c r="I49" t="s">
-        <v>48</v>
+        <v>240</v>
+      </c>
+      <c r="I49" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
       <c r="J49" t="s">
         <v>48</v>
@@ -8679,28 +8931,30 @@
         <v>650000</v>
       </c>
       <c r="N49" t="s">
-        <v>208</v>
-      </c>
-      <c r="O49" t="s">
-        <v>48</v>
+        <v>241</v>
+      </c>
+      <c r="O49" t="str">
+        <f t="shared" si="2"/>
+        <v>落花꒳红茶喵喵喵（联盟答题月入百万）</v>
       </c>
       <c r="P49" t="s">
         <v>48</v>
       </c>
-      <c r="Q49" t="s">
-        <v>48</v>
-      </c>
-      <c r="R49" t="s">
-        <v>48</v>
-      </c>
-      <c r="S49" t="s">
-        <v>48</v>
+      <c r="Q49">
+        <v>5</v>
+      </c>
+      <c r="R49">
+        <v>140000</v>
+      </c>
+      <c r="S49">
+        <v>700000</v>
       </c>
       <c r="T49" t="s">
-        <v>48</v>
-      </c>
-      <c r="U49" t="s">
-        <v>48</v>
+        <v>242</v>
+      </c>
+      <c r="U49" t="str">
+        <f>IF(OR(S49="",S49&lt;680000),$C49,"")</f>
+        <v/>
       </c>
       <c r="V49" t="s">
         <v>48</v>
@@ -8783,10 +9037,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>209</v>
+        <v>243</v>
       </c>
       <c r="C50" t="s">
-        <v>210</v>
+        <v>244</v>
       </c>
       <c r="D50" t="s">
         <v>48</v>
@@ -8801,10 +9055,11 @@
         <v>660000</v>
       </c>
       <c r="H50" t="s">
-        <v>211</v>
-      </c>
-      <c r="I50" t="s">
-        <v>48</v>
+        <v>245</v>
+      </c>
+      <c r="I50" t="str">
+        <f t="shared" si="3"/>
+        <v>落花～～心城</v>
       </c>
       <c r="J50" t="s">
         <v>48</v>
@@ -8819,25 +9074,26 @@
         <v>658000</v>
       </c>
       <c r="N50" t="s">
-        <v>212</v>
-      </c>
-      <c r="O50" t="s">
-        <v>48</v>
+        <v>246</v>
+      </c>
+      <c r="O50" t="str">
+        <f t="shared" si="2"/>
+        <v>落花～～心城</v>
       </c>
       <c r="P50" t="s">
         <v>48</v>
       </c>
-      <c r="Q50" t="s">
-        <v>48</v>
-      </c>
-      <c r="R50" t="s">
-        <v>48</v>
-      </c>
-      <c r="S50" t="s">
-        <v>48</v>
+      <c r="Q50">
+        <v>7</v>
+      </c>
+      <c r="R50">
+        <v>99000</v>
+      </c>
+      <c r="S50">
+        <v>693000</v>
       </c>
       <c r="T50" t="s">
-        <v>48</v>
+        <v>247</v>
       </c>
       <c r="U50" t="s">
         <v>48</v>
@@ -8923,10 +9179,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>213</v>
+        <v>248</v>
       </c>
       <c r="C51" t="s">
-        <v>214</v>
+        <v>249</v>
       </c>
       <c r="D51" t="s">
         <v>48</v>
@@ -8941,7 +9197,7 @@
         <v>696000</v>
       </c>
       <c r="H51" t="s">
-        <v>215</v>
+        <v>250</v>
       </c>
       <c r="I51" t="s">
         <v>48</v>
@@ -8949,20 +9205,20 @@
       <c r="J51" t="s">
         <v>48</v>
       </c>
-      <c r="K51" t="s">
-        <v>48</v>
-      </c>
-      <c r="L51" t="s">
-        <v>48</v>
-      </c>
-      <c r="M51" t="s">
-        <v>48</v>
+      <c r="K51">
+        <v>12</v>
+      </c>
+      <c r="L51">
+        <v>58000</v>
+      </c>
+      <c r="M51">
+        <v>696000</v>
       </c>
       <c r="N51" t="s">
-        <v>48</v>
+        <v>251</v>
       </c>
       <c r="O51" t="s">
-        <v>214</v>
+        <v>48</v>
       </c>
       <c r="P51" t="s">
         <v>48</v>
@@ -9063,10 +9319,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>216</v>
+        <v>252</v>
       </c>
       <c r="C52" t="s">
-        <v>217</v>
+        <v>253</v>
       </c>
       <c r="D52" t="s">
         <v>48</v>
@@ -9083,26 +9339,28 @@
       <c r="H52" t="s">
         <v>48</v>
       </c>
-      <c r="I52" t="s">
-        <v>48</v>
+      <c r="I52" t="str">
+        <f>IF(OR(G52="",G52&lt;680000),$C52,"")</f>
+        <v/>
       </c>
       <c r="J52" t="s">
         <v>48</v>
       </c>
-      <c r="K52" t="s">
-        <v>48</v>
-      </c>
-      <c r="L52" t="s">
-        <v>48</v>
-      </c>
-      <c r="M52" t="s">
-        <v>48</v>
+      <c r="K52">
+        <v>5</v>
+      </c>
+      <c r="L52">
+        <v>83000</v>
+      </c>
+      <c r="M52">
+        <v>415000</v>
       </c>
       <c r="N52" t="s">
         <v>48</v>
       </c>
-      <c r="O52" t="s">
-        <v>217</v>
+      <c r="O52" t="str">
+        <f>IF(OR(M52="",M52&lt;680000),$C52,"")</f>
+        <v>落花" 苏久久</v>
       </c>
       <c r="P52" t="s">
         <v>48</v>
@@ -9203,10 +9461,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>218</v>
+        <v>254</v>
       </c>
       <c r="C53" t="s">
-        <v>219</v>
+        <v>255</v>
       </c>
       <c r="D53" t="s">
         <v>48</v>
@@ -9221,10 +9479,11 @@
         <v>828933</v>
       </c>
       <c r="H53" t="s">
-        <v>220</v>
-      </c>
-      <c r="I53" t="s">
-        <v>48</v>
+        <v>256</v>
+      </c>
+      <c r="I53" t="str">
+        <f>IF(OR(G53="",G53&lt;680000),$C53,"")</f>
+        <v/>
       </c>
       <c r="J53" t="s">
         <v>48</v>
@@ -9239,10 +9498,11 @@
         <v>677880</v>
       </c>
       <c r="N53" t="s">
-        <v>221</v>
-      </c>
-      <c r="O53" t="s">
-        <v>48</v>
+        <v>257</v>
+      </c>
+      <c r="O53" t="str">
+        <f>IF(OR(M53="",M53&lt;680000),$C53,"")</f>
+        <v>落花，初【我是群里的打机提醒小助手】</v>
       </c>
       <c r="P53" t="s">
         <v>48</v>
@@ -9259,8 +9519,9 @@
       <c r="T53" t="s">
         <v>48</v>
       </c>
-      <c r="U53" t="s">
-        <v>48</v>
+      <c r="U53" t="str">
+        <f>IF(OR(S53="",S53&lt;680000),$C53,"")</f>
+        <v>落花，初【我是群里的打机提醒小助手】</v>
       </c>
       <c r="V53" t="s">
         <v>48</v>
@@ -9343,10 +9604,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>222</v>
+        <v>258</v>
       </c>
       <c r="C54" t="s">
-        <v>223</v>
+        <v>259</v>
       </c>
       <c r="D54" t="s">
         <v>48</v>
@@ -9361,7 +9622,7 @@
         <v>660000</v>
       </c>
       <c r="H54" t="s">
-        <v>224</v>
+        <v>260</v>
       </c>
       <c r="I54" t="s">
         <v>48</v>
@@ -9369,38 +9630,40 @@
       <c r="J54" t="s">
         <v>48</v>
       </c>
-      <c r="K54" t="s">
-        <v>48</v>
-      </c>
-      <c r="L54" t="s">
-        <v>48</v>
-      </c>
-      <c r="M54" t="s">
-        <v>48</v>
+      <c r="K54">
+        <v>7</v>
+      </c>
+      <c r="L54">
+        <v>120000</v>
+      </c>
+      <c r="M54">
+        <v>840000</v>
       </c>
       <c r="N54" t="s">
-        <v>48</v>
-      </c>
-      <c r="O54" t="s">
-        <v>223</v>
+        <v>261</v>
+      </c>
+      <c r="O54" t="str">
+        <f>IF(OR(M54="",M54&lt;680000),$C54,"")</f>
+        <v/>
       </c>
       <c r="P54" t="s">
         <v>48</v>
       </c>
-      <c r="Q54" t="s">
-        <v>48</v>
-      </c>
-      <c r="R54" t="s">
-        <v>48</v>
-      </c>
-      <c r="S54" t="s">
-        <v>48</v>
+      <c r="Q54">
+        <v>6</v>
+      </c>
+      <c r="R54">
+        <v>120000</v>
+      </c>
+      <c r="S54">
+        <v>720000</v>
       </c>
       <c r="T54" t="s">
-        <v>48</v>
-      </c>
-      <c r="U54" t="s">
-        <v>48</v>
+        <v>262</v>
+      </c>
+      <c r="U54" t="str">
+        <f>IF(OR(S54="",S54&lt;680000),$C54,"")</f>
+        <v/>
       </c>
       <c r="V54" t="s">
         <v>48</v>
@@ -9483,10 +9746,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>225</v>
+        <v>263</v>
       </c>
       <c r="C55" t="s">
-        <v>226</v>
+        <v>264</v>
       </c>
       <c r="D55" t="s">
         <v>48</v>
@@ -9503,44 +9766,47 @@
       <c r="H55" t="s">
         <v>48</v>
       </c>
-      <c r="I55" t="s">
-        <v>227</v>
+      <c r="I55" t="str">
+        <f>IF(OR(G55="",G55&lt;680000),$C55,"")</f>
+        <v>落花 樱井</v>
       </c>
       <c r="J55" t="s">
         <v>48</v>
       </c>
-      <c r="K55" t="s">
-        <v>48</v>
-      </c>
-      <c r="L55" t="s">
-        <v>48</v>
-      </c>
-      <c r="M55" t="s">
-        <v>48</v>
+      <c r="K55">
+        <v>10</v>
+      </c>
+      <c r="L55">
+        <v>70000</v>
+      </c>
+      <c r="M55">
+        <v>700000</v>
       </c>
       <c r="N55" t="s">
-        <v>48</v>
-      </c>
-      <c r="O55" t="s">
-        <v>226</v>
+        <v>265</v>
+      </c>
+      <c r="O55" t="str">
+        <f>IF(OR(M55="",M55&lt;680000),$C55,"")</f>
+        <v/>
       </c>
       <c r="P55" t="s">
         <v>48</v>
       </c>
-      <c r="Q55" t="s">
-        <v>48</v>
-      </c>
-      <c r="R55" t="s">
-        <v>48</v>
-      </c>
-      <c r="S55" t="s">
-        <v>48</v>
+      <c r="Q55">
+        <v>8</v>
+      </c>
+      <c r="R55">
+        <v>86000</v>
+      </c>
+      <c r="S55">
+        <v>688000</v>
       </c>
       <c r="T55" t="s">
-        <v>48</v>
-      </c>
-      <c r="U55" t="s">
-        <v>48</v>
+        <v>53</v>
+      </c>
+      <c r="U55" t="str">
+        <f>IF(OR(S55="",S55&lt;680000),$C55,"")</f>
+        <v/>
       </c>
       <c r="V55" t="s">
         <v>48</v>
@@ -9623,10 +9889,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>228</v>
+        <v>266</v>
       </c>
       <c r="C56" t="s">
-        <v>229</v>
+        <v>267</v>
       </c>
       <c r="D56" t="s">
         <v>48</v>
@@ -9641,7 +9907,7 @@
         <v>720000</v>
       </c>
       <c r="H56" t="s">
-        <v>230</v>
+        <v>268</v>
       </c>
       <c r="I56" t="s">
         <v>48</v>
@@ -9650,34 +9916,34 @@
         <v>48</v>
       </c>
       <c r="K56">
+        <v>7</v>
+      </c>
+      <c r="L56">
         <v>103000</v>
       </c>
-      <c r="L56">
-        <v>96000</v>
-      </c>
       <c r="M56">
-        <v>768000</v>
+        <v>721000</v>
       </c>
       <c r="N56" t="s">
-        <v>231</v>
+        <v>269</v>
       </c>
       <c r="O56" t="s">
-        <v>229</v>
+        <v>48</v>
       </c>
       <c r="P56" t="s">
         <v>48</v>
       </c>
-      <c r="Q56" t="s">
-        <v>48</v>
-      </c>
-      <c r="R56" t="s">
-        <v>48</v>
-      </c>
-      <c r="S56" t="s">
-        <v>48</v>
+      <c r="Q56">
+        <v>7</v>
+      </c>
+      <c r="R56">
+        <v>105000</v>
+      </c>
+      <c r="S56">
+        <v>735000</v>
       </c>
       <c r="T56" t="s">
-        <v>48</v>
+        <v>270</v>
       </c>
       <c r="U56" t="s">
         <v>48</v>
@@ -9763,10 +10029,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>232</v>
+        <v>271</v>
       </c>
       <c r="C57" t="s">
-        <v>233</v>
+        <v>272</v>
       </c>
       <c r="D57" t="s">
         <v>48</v>
@@ -9783,14 +10049,15 @@
       <c r="H57" t="s">
         <v>48</v>
       </c>
-      <c r="I57" t="s">
-        <v>233</v>
+      <c r="I57" t="str">
+        <f t="shared" ref="I57:I69" si="4">IF(OR(G57="",G57&lt;680000),$C57,"")</f>
+        <v>落花：翎羽</v>
       </c>
       <c r="J57" t="s">
         <v>48</v>
       </c>
       <c r="K57" t="s">
-        <v>48</v>
+        <v>273</v>
       </c>
       <c r="L57" t="s">
         <v>48</v>
@@ -9801,8 +10068,9 @@
       <c r="N57" t="s">
         <v>48</v>
       </c>
-      <c r="O57" t="s">
-        <v>233</v>
+      <c r="O57" t="str">
+        <f t="shared" ref="O57:O70" si="5">IF(OR(M57="",M57&lt;680000),$C57,"")</f>
+        <v>落花：翎羽</v>
       </c>
       <c r="P57" t="s">
         <v>48</v>
@@ -9903,10 +10171,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>234</v>
+        <v>274</v>
       </c>
       <c r="C58" t="s">
-        <v>235</v>
+        <v>275</v>
       </c>
       <c r="D58" t="s">
         <v>48</v>
@@ -9921,28 +10189,30 @@
         <v>690000</v>
       </c>
       <c r="H58" t="s">
-        <v>236</v>
-      </c>
-      <c r="I58" t="s">
-        <v>48</v>
+        <v>276</v>
+      </c>
+      <c r="I58" t="str">
+        <f t="shared" si="4"/>
+        <v/>
       </c>
       <c r="J58" t="s">
         <v>48</v>
       </c>
-      <c r="K58" t="s">
-        <v>48</v>
-      </c>
-      <c r="L58" t="s">
-        <v>48</v>
-      </c>
-      <c r="M58" t="s">
-        <v>48</v>
+      <c r="K58">
+        <v>5</v>
+      </c>
+      <c r="L58">
+        <v>140000</v>
+      </c>
+      <c r="M58">
+        <v>700000</v>
       </c>
       <c r="N58" t="s">
-        <v>48</v>
-      </c>
-      <c r="O58" t="s">
-        <v>235</v>
+        <v>277</v>
+      </c>
+      <c r="O58" t="str">
+        <f t="shared" si="5"/>
+        <v/>
       </c>
       <c r="P58" t="s">
         <v>48</v>
@@ -10043,10 +10313,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>237</v>
+        <v>278</v>
       </c>
       <c r="C59" t="s">
-        <v>238</v>
+        <v>279</v>
       </c>
       <c r="D59" t="s">
         <v>48</v>
@@ -10061,10 +10331,11 @@
         <v>696246</v>
       </c>
       <c r="H59" t="s">
-        <v>239</v>
-      </c>
-      <c r="I59" t="s">
-        <v>48</v>
+        <v>280</v>
+      </c>
+      <c r="I59" t="str">
+        <f t="shared" si="4"/>
+        <v/>
       </c>
       <c r="J59" t="s">
         <v>48</v>
@@ -10079,10 +10350,11 @@
         <v>738096</v>
       </c>
       <c r="N59" t="s">
-        <v>240</v>
-      </c>
-      <c r="O59" t="s">
-        <v>238</v>
+        <v>281</v>
+      </c>
+      <c r="O59" t="str">
+        <f t="shared" si="5"/>
+        <v/>
       </c>
       <c r="P59" t="s">
         <v>48</v>
@@ -10099,8 +10371,9 @@
       <c r="T59" t="s">
         <v>48</v>
       </c>
-      <c r="U59" t="s">
-        <v>48</v>
+      <c r="U59" t="str">
+        <f>IF(OR(S59="",S59&lt;680000),$C59,"")</f>
+        <v>落花 青青子衿</v>
       </c>
       <c r="V59" t="s">
         <v>48</v>
@@ -10183,10 +10456,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>241</v>
+        <v>282</v>
       </c>
       <c r="C60" t="s">
-        <v>242</v>
+        <v>283</v>
       </c>
       <c r="D60" t="s">
         <v>48</v>
@@ -10201,43 +10474,45 @@
         <v>672000</v>
       </c>
       <c r="H60" t="s">
-        <v>243</v>
-      </c>
-      <c r="I60" t="s">
-        <v>48</v>
+        <v>284</v>
+      </c>
+      <c r="I60" t="str">
+        <f t="shared" si="4"/>
+        <v>落花ʚ阿喵王子他父王ɞ</v>
       </c>
       <c r="J60" t="s">
         <v>48</v>
       </c>
-      <c r="K60" t="s">
-        <v>48</v>
-      </c>
-      <c r="L60" t="s">
-        <v>48</v>
-      </c>
-      <c r="M60" t="s">
-        <v>48</v>
+      <c r="K60">
+        <v>9</v>
+      </c>
+      <c r="L60">
+        <v>76000</v>
+      </c>
+      <c r="M60">
+        <v>684000</v>
       </c>
       <c r="N60" t="s">
-        <v>48</v>
-      </c>
-      <c r="O60" t="s">
-        <v>242</v>
+        <v>285</v>
+      </c>
+      <c r="O60" t="str">
+        <f t="shared" si="5"/>
+        <v/>
       </c>
       <c r="P60" t="s">
         <v>48</v>
       </c>
-      <c r="Q60" t="s">
-        <v>48</v>
-      </c>
-      <c r="R60" t="s">
-        <v>48</v>
-      </c>
-      <c r="S60" t="s">
-        <v>48</v>
+      <c r="Q60">
+        <v>9</v>
+      </c>
+      <c r="R60">
+        <v>84000</v>
+      </c>
+      <c r="S60">
+        <v>756000</v>
       </c>
       <c r="T60" t="s">
-        <v>48</v>
+        <v>286</v>
       </c>
       <c r="U60" t="s">
         <v>48</v>
@@ -10323,10 +10598,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>244</v>
+        <v>287</v>
       </c>
       <c r="C61" t="s">
-        <v>245</v>
+        <v>288</v>
       </c>
       <c r="D61" t="s">
         <v>48</v>
@@ -10341,10 +10616,11 @@
         <v>700000</v>
       </c>
       <c r="H61" t="s">
-        <v>246</v>
-      </c>
-      <c r="I61" t="s">
-        <v>48</v>
+        <v>289</v>
+      </c>
+      <c r="I61" t="str">
+        <f t="shared" si="4"/>
+        <v/>
       </c>
       <c r="J61" t="s">
         <v>48</v>
@@ -10359,10 +10635,11 @@
         <v>700000</v>
       </c>
       <c r="N61" t="s">
-        <v>247</v>
-      </c>
-      <c r="O61" t="s">
-        <v>48</v>
+        <v>290</v>
+      </c>
+      <c r="O61" t="str">
+        <f t="shared" si="5"/>
+        <v/>
       </c>
       <c r="P61" t="s">
         <v>48</v>
@@ -10379,8 +10656,9 @@
       <c r="T61" t="s">
         <v>48</v>
       </c>
-      <c r="U61" t="s">
-        <v>48</v>
+      <c r="U61" t="str">
+        <f>IF(OR(S61="",S61&lt;680000),$C61,"")</f>
+        <v>落花 柚歆</v>
       </c>
       <c r="V61" t="s">
         <v>48</v>
@@ -10463,10 +10741,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>248</v>
+        <v>291</v>
       </c>
       <c r="C62" t="s">
-        <v>249</v>
+        <v>292</v>
       </c>
       <c r="D62" t="s">
         <v>48</v>
@@ -10481,10 +10759,11 @@
         <v>1000000</v>
       </c>
       <c r="H62" t="s">
-        <v>250</v>
-      </c>
-      <c r="I62" t="s">
-        <v>48</v>
+        <v>293</v>
+      </c>
+      <c r="I62" t="str">
+        <f t="shared" si="4"/>
+        <v/>
       </c>
       <c r="J62" t="s">
         <v>48</v>
@@ -10499,28 +10778,30 @@
         <v>740000</v>
       </c>
       <c r="N62" t="s">
-        <v>251</v>
-      </c>
-      <c r="O62" t="s">
-        <v>48</v>
+        <v>294</v>
+      </c>
+      <c r="O62" t="str">
+        <f t="shared" si="5"/>
+        <v/>
       </c>
       <c r="P62" t="s">
         <v>48</v>
       </c>
-      <c r="Q62" t="s">
-        <v>48</v>
-      </c>
-      <c r="R62" t="s">
-        <v>48</v>
-      </c>
-      <c r="S62" t="s">
-        <v>48</v>
+      <c r="Q62">
+        <v>5</v>
+      </c>
+      <c r="R62">
+        <v>154000</v>
+      </c>
+      <c r="S62">
+        <v>770000</v>
       </c>
       <c r="T62" t="s">
-        <v>48</v>
-      </c>
-      <c r="U62" t="s">
-        <v>48</v>
+        <v>295</v>
+      </c>
+      <c r="U62" t="str">
+        <f>IF(OR(S62="",S62&lt;680000),$C62,"")</f>
+        <v/>
       </c>
       <c r="V62" t="s">
         <v>48</v>
@@ -10603,10 +10884,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>252</v>
+        <v>296</v>
       </c>
       <c r="C63" t="s">
-        <v>253</v>
+        <v>297</v>
       </c>
       <c r="D63" t="s">
         <v>48</v>
@@ -10621,10 +10902,11 @@
         <v>704000</v>
       </c>
       <c r="H63" t="s">
-        <v>254</v>
-      </c>
-      <c r="I63" t="s">
-        <v>48</v>
+        <v>298</v>
+      </c>
+      <c r="I63" t="str">
+        <f t="shared" si="4"/>
+        <v/>
       </c>
       <c r="J63" t="s">
         <v>48</v>
@@ -10639,25 +10921,26 @@
         <v>728000</v>
       </c>
       <c r="N63" t="s">
-        <v>255</v>
-      </c>
-      <c r="O63" t="s">
-        <v>48</v>
+        <v>299</v>
+      </c>
+      <c r="O63" t="str">
+        <f t="shared" si="5"/>
+        <v/>
       </c>
       <c r="P63" t="s">
         <v>48</v>
       </c>
-      <c r="Q63" t="s">
-        <v>48</v>
-      </c>
-      <c r="R63" t="s">
-        <v>48</v>
-      </c>
-      <c r="S63" t="s">
-        <v>48</v>
+      <c r="Q63">
+        <v>8</v>
+      </c>
+      <c r="R63">
+        <v>92000</v>
+      </c>
+      <c r="S63">
+        <v>736000</v>
       </c>
       <c r="T63" t="s">
-        <v>48</v>
+        <v>300</v>
       </c>
       <c r="U63" t="s">
         <v>48</v>
@@ -10743,10 +11026,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>256</v>
+        <v>301</v>
       </c>
       <c r="C64" t="s">
-        <v>257</v>
+        <v>302</v>
       </c>
       <c r="D64" t="s">
         <v>48</v>
@@ -10761,10 +11044,11 @@
         <v>693000</v>
       </c>
       <c r="H64" t="s">
-        <v>258</v>
-      </c>
-      <c r="I64" t="s">
-        <v>48</v>
+        <v>303</v>
+      </c>
+      <c r="I64" t="str">
+        <f t="shared" si="4"/>
+        <v/>
       </c>
       <c r="J64" t="s">
         <v>48</v>
@@ -10779,10 +11063,11 @@
         <v>735000</v>
       </c>
       <c r="N64" t="s">
-        <v>259</v>
-      </c>
-      <c r="O64" t="s">
-        <v>257</v>
+        <v>304</v>
+      </c>
+      <c r="O64" t="str">
+        <f t="shared" si="5"/>
+        <v/>
       </c>
       <c r="P64" t="s">
         <v>48</v>
@@ -10883,10 +11168,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>260</v>
+        <v>305</v>
       </c>
       <c r="C65" t="s">
-        <v>261</v>
+        <v>306</v>
       </c>
       <c r="D65" t="s">
         <v>48</v>
@@ -10901,10 +11186,11 @@
         <v>814175</v>
       </c>
       <c r="H65" t="s">
-        <v>262</v>
-      </c>
-      <c r="I65" t="s">
-        <v>48</v>
+        <v>307</v>
+      </c>
+      <c r="I65" t="str">
+        <f t="shared" si="4"/>
+        <v/>
       </c>
       <c r="J65" t="s">
         <v>48</v>
@@ -10919,10 +11205,11 @@
         <v>650820</v>
       </c>
       <c r="N65" t="s">
-        <v>263</v>
-      </c>
-      <c r="O65" t="s">
-        <v>261</v>
+        <v>308</v>
+      </c>
+      <c r="O65" t="str">
+        <f t="shared" si="5"/>
+        <v>落花.燃犀犀</v>
       </c>
       <c r="P65" t="s">
         <v>48</v>
@@ -10939,8 +11226,9 @@
       <c r="T65" t="s">
         <v>48</v>
       </c>
-      <c r="U65" t="s">
-        <v>48</v>
+      <c r="U65" t="str">
+        <f t="shared" ref="U65:U70" si="6">IF(OR(S65="",S65&lt;680000),$C65,"")</f>
+        <v>落花.燃犀犀</v>
       </c>
       <c r="V65" t="s">
         <v>48</v>
@@ -11023,10 +11311,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>264</v>
+        <v>309</v>
       </c>
       <c r="C66" t="s">
-        <v>265</v>
+        <v>310</v>
       </c>
       <c r="D66" t="s">
         <v>48</v>
@@ -11041,10 +11329,11 @@
         <v>805000</v>
       </c>
       <c r="H66" t="s">
-        <v>266</v>
-      </c>
-      <c r="I66" t="s">
-        <v>48</v>
+        <v>311</v>
+      </c>
+      <c r="I66" t="str">
+        <f t="shared" si="4"/>
+        <v/>
       </c>
       <c r="J66" t="s">
         <v>48</v>
@@ -11059,28 +11348,30 @@
         <v>840000</v>
       </c>
       <c r="N66" t="s">
-        <v>267</v>
-      </c>
-      <c r="O66" t="s">
-        <v>48</v>
+        <v>312</v>
+      </c>
+      <c r="O66" t="str">
+        <f t="shared" si="5"/>
+        <v/>
       </c>
       <c r="P66" t="s">
         <v>48</v>
       </c>
-      <c r="Q66" t="s">
-        <v>48</v>
-      </c>
-      <c r="R66" t="s">
-        <v>48</v>
-      </c>
-      <c r="S66" t="s">
-        <v>48</v>
+      <c r="Q66">
+        <v>5</v>
+      </c>
+      <c r="R66">
+        <v>169000</v>
+      </c>
+      <c r="S66">
+        <v>845000</v>
       </c>
       <c r="T66" t="s">
-        <v>48</v>
-      </c>
-      <c r="U66" t="s">
-        <v>48</v>
+        <v>313</v>
+      </c>
+      <c r="U66" t="str">
+        <f t="shared" si="6"/>
+        <v/>
       </c>
       <c r="V66" t="s">
         <v>48</v>
@@ -11163,10 +11454,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>268</v>
+        <v>314</v>
       </c>
       <c r="C67" t="s">
-        <v>269</v>
+        <v>315</v>
       </c>
       <c r="D67" t="s">
         <v>48</v>
@@ -11181,10 +11472,11 @@
         <v>850000</v>
       </c>
       <c r="H67" t="s">
-        <v>270</v>
-      </c>
-      <c r="I67" t="s">
-        <v>48</v>
+        <v>316</v>
+      </c>
+      <c r="I67" t="str">
+        <f t="shared" si="4"/>
+        <v/>
       </c>
       <c r="J67" t="s">
         <v>48</v>
@@ -11199,28 +11491,30 @@
         <v>868000</v>
       </c>
       <c r="N67" t="s">
-        <v>271</v>
-      </c>
-      <c r="O67" t="s">
-        <v>48</v>
+        <v>317</v>
+      </c>
+      <c r="O67" t="str">
+        <f t="shared" si="5"/>
+        <v/>
       </c>
       <c r="P67" t="s">
         <v>48</v>
       </c>
-      <c r="Q67" t="s">
-        <v>48</v>
-      </c>
-      <c r="R67" t="s">
-        <v>48</v>
-      </c>
-      <c r="S67" t="s">
-        <v>48</v>
+      <c r="Q67">
+        <v>7</v>
+      </c>
+      <c r="R67">
+        <v>127000</v>
+      </c>
+      <c r="S67">
+        <v>889000</v>
       </c>
       <c r="T67" t="s">
-        <v>48</v>
-      </c>
-      <c r="U67" t="s">
-        <v>48</v>
+        <v>318</v>
+      </c>
+      <c r="U67" t="str">
+        <f t="shared" si="6"/>
+        <v/>
       </c>
       <c r="V67" t="s">
         <v>48</v>
@@ -11303,10 +11597,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>272</v>
+        <v>319</v>
       </c>
       <c r="C68" t="s">
-        <v>273</v>
+        <v>320</v>
       </c>
       <c r="D68" t="s">
         <v>48</v>
@@ -11321,10 +11615,11 @@
         <v>1000000</v>
       </c>
       <c r="H68" t="s">
-        <v>274</v>
-      </c>
-      <c r="I68" t="s">
-        <v>48</v>
+        <v>321</v>
+      </c>
+      <c r="I68" t="str">
+        <f t="shared" si="4"/>
+        <v/>
       </c>
       <c r="J68" t="s">
         <v>48</v>
@@ -11339,28 +11634,30 @@
         <v>695000</v>
       </c>
       <c r="N68" t="s">
-        <v>275</v>
-      </c>
-      <c r="O68" t="s">
-        <v>273</v>
+        <v>322</v>
+      </c>
+      <c r="O68" t="str">
+        <f t="shared" si="5"/>
+        <v/>
       </c>
       <c r="P68" t="s">
         <v>48</v>
       </c>
-      <c r="Q68" t="s">
-        <v>48</v>
-      </c>
-      <c r="R68" t="s">
-        <v>48</v>
-      </c>
-      <c r="S68" t="s">
-        <v>48</v>
+      <c r="Q68">
+        <v>5</v>
+      </c>
+      <c r="R68">
+        <v>141000</v>
+      </c>
+      <c r="S68">
+        <v>705000</v>
       </c>
       <c r="T68" t="s">
-        <v>48</v>
-      </c>
-      <c r="U68" t="s">
-        <v>48</v>
+        <v>323</v>
+      </c>
+      <c r="U68" t="str">
+        <f t="shared" si="6"/>
+        <v/>
       </c>
       <c r="V68" t="s">
         <v>48</v>
@@ -11443,10 +11740,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>276</v>
+        <v>324</v>
       </c>
       <c r="C69" t="s">
-        <v>277</v>
+        <v>325</v>
       </c>
       <c r="D69" t="s">
         <v>48</v>
@@ -11461,10 +11758,11 @@
         <v>4269060</v>
       </c>
       <c r="H69" t="s">
-        <v>278</v>
-      </c>
-      <c r="I69" t="s">
-        <v>48</v>
+        <v>326</v>
+      </c>
+      <c r="I69" t="str">
+        <f t="shared" si="4"/>
+        <v/>
       </c>
       <c r="J69" t="s">
         <v>48</v>
@@ -11479,28 +11777,30 @@
         <v>762000</v>
       </c>
       <c r="N69" t="s">
-        <v>279</v>
-      </c>
-      <c r="O69" t="s">
-        <v>48</v>
+        <v>327</v>
+      </c>
+      <c r="O69" t="str">
+        <f t="shared" si="5"/>
+        <v/>
       </c>
       <c r="P69" t="s">
         <v>48</v>
       </c>
-      <c r="Q69" t="s">
-        <v>48</v>
-      </c>
-      <c r="R69" t="s">
-        <v>48</v>
-      </c>
-      <c r="S69" t="s">
-        <v>48</v>
+      <c r="Q69">
+        <v>6</v>
+      </c>
+      <c r="R69">
+        <v>135000</v>
+      </c>
+      <c r="S69">
+        <v>810000</v>
       </c>
       <c r="T69" t="s">
-        <v>48</v>
-      </c>
-      <c r="U69" t="s">
-        <v>48</v>
+        <v>328</v>
+      </c>
+      <c r="U69" t="str">
+        <f t="shared" si="6"/>
+        <v/>
       </c>
       <c r="V69" t="s">
         <v>48</v>
@@ -11583,10 +11883,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>280</v>
+        <v>329</v>
       </c>
       <c r="C70" t="s">
-        <v>281</v>
+        <v>330</v>
       </c>
       <c r="D70" t="s">
         <v>48</v>
@@ -11601,7 +11901,7 @@
         <v>670000</v>
       </c>
       <c r="H70" t="s">
-        <v>282</v>
+        <v>331</v>
       </c>
       <c r="I70" t="s">
         <v>48</v>
@@ -11619,28 +11919,30 @@
         <v>715000</v>
       </c>
       <c r="N70" t="s">
-        <v>283</v>
-      </c>
-      <c r="O70" t="s">
-        <v>48</v>
+        <v>332</v>
+      </c>
+      <c r="O70" t="str">
+        <f t="shared" si="5"/>
+        <v/>
       </c>
       <c r="P70" t="s">
         <v>48</v>
       </c>
-      <c r="Q70" t="s">
-        <v>48</v>
-      </c>
-      <c r="R70" t="s">
-        <v>48</v>
-      </c>
-      <c r="S70" t="s">
-        <v>48</v>
+      <c r="Q70">
+        <v>5</v>
+      </c>
+      <c r="R70">
+        <v>144000</v>
+      </c>
+      <c r="S70">
+        <v>720000</v>
       </c>
       <c r="T70" t="s">
-        <v>48</v>
-      </c>
-      <c r="U70" t="s">
-        <v>48</v>
+        <v>333</v>
+      </c>
+      <c r="U70" t="str">
+        <f t="shared" si="6"/>
+        <v/>
       </c>
       <c r="V70" t="s">
         <v>48</v>
@@ -11723,10 +12025,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>284</v>
+        <v>334</v>
       </c>
       <c r="C71" t="s">
-        <v>285</v>
+        <v>335</v>
       </c>
       <c r="D71" t="s">
         <v>48</v>
@@ -11759,7 +12061,7 @@
         <v>702000</v>
       </c>
       <c r="N71" t="s">
-        <v>286</v>
+        <v>336</v>
       </c>
       <c r="O71" t="s">
         <v>48</v>
@@ -11767,17 +12069,17 @@
       <c r="P71" t="s">
         <v>48</v>
       </c>
-      <c r="Q71" t="s">
-        <v>48</v>
-      </c>
-      <c r="R71" t="s">
-        <v>48</v>
-      </c>
-      <c r="S71" t="s">
-        <v>48</v>
+      <c r="Q71">
+        <v>6</v>
+      </c>
+      <c r="R71">
+        <v>118000</v>
+      </c>
+      <c r="S71">
+        <v>708000</v>
       </c>
       <c r="T71" t="s">
-        <v>48</v>
+        <v>337</v>
       </c>
       <c r="U71" t="s">
         <v>48</v>
@@ -11863,10 +12165,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>287</v>
+        <v>338</v>
       </c>
       <c r="C72" t="s">
-        <v>288</v>
+        <v>339</v>
       </c>
       <c r="D72" t="s">
         <v>48</v>
@@ -11884,8 +12186,9 @@
       <c r="H72" t="s">
         <v>48</v>
       </c>
-      <c r="I72" t="s">
-        <v>48</v>
+      <c r="I72" t="str">
+        <f>IF(OR(G1="",G1&lt;680000),$C1,"")</f>
+        <v/>
       </c>
       <c r="J72" t="s">
         <v>48</v>
@@ -11902,8 +12205,9 @@
       <c r="N72" t="s">
         <v>48</v>
       </c>
-      <c r="O72" t="s">
-        <v>48</v>
+      <c r="O72" t="str">
+        <f>IF(OR(M1="",M1&lt;680000),$C1,"")</f>
+        <v/>
       </c>
       <c r="P72" t="s">
         <v>48</v>
@@ -11920,8 +12224,9 @@
       <c r="T72" t="s">
         <v>48</v>
       </c>
-      <c r="U72" t="s">
-        <v>48</v>
+      <c r="U72" t="str">
+        <f>IF(OR(S1="",S1&lt;680000),$C1,"")</f>
+        <v/>
       </c>
       <c r="V72" t="s">
         <v>48</v>

--- a/落花机密表_糙汉子版.xlsx
+++ b/落花机密表_糙汉子版.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView/>
+    <workbookView windowWidth="28245" windowHeight="12615"/>
   </bookViews>
   <sheets>
     <sheet name="9.2-9.8" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2627" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2599" uniqueCount="380">
   <si>
     <t>QQ</t>
   </si>
@@ -176,643 +176,733 @@
     <t>落花@冷月小猫泪</t>
   </si>
   <si>
+    <t>2019-09-05 19:27:24</t>
+  </si>
+  <si>
+    <t>78191877</t>
+  </si>
+  <si>
+    <t>落花 星光化作翅膀</t>
+  </si>
+  <si>
+    <t>2019-09-04 14:26:20</t>
+  </si>
+  <si>
+    <t>2019-09-05 07:41:21</t>
+  </si>
+  <si>
+    <t>30137763</t>
+  </si>
+  <si>
+    <t>落花樱茶</t>
+  </si>
+  <si>
+    <t>1327354755</t>
+  </si>
+  <si>
+    <t>落花 清水奈绪子（错过派对，错过一亿）</t>
+  </si>
+  <si>
+    <t>2019-09-02 23:12:28</t>
+  </si>
+  <si>
+    <t>2019-09-03 13:15:06</t>
+  </si>
+  <si>
+    <t>39302003</t>
+  </si>
+  <si>
+    <t>落花 神仙</t>
+  </si>
+  <si>
+    <t>781898849</t>
+  </si>
+  <si>
+    <t>落花-KGAoi</t>
+  </si>
+  <si>
+    <t>2019-09-03 11:36:06</t>
+  </si>
+  <si>
+    <t>2019-09-04 10:34:36</t>
+  </si>
+  <si>
+    <t>2019-09-05 13:45:10</t>
+  </si>
+  <si>
+    <t>2661759612</t>
+  </si>
+  <si>
+    <t>落花ˊૢ路希</t>
+  </si>
+  <si>
+    <t>2019-09-02 08:02:13</t>
+  </si>
+  <si>
+    <t>2019-09-03 09:35:51</t>
+  </si>
+  <si>
+    <t>2019-09-04 08:31:17</t>
+  </si>
+  <si>
+    <t>2019-09-05 10:23:23</t>
+  </si>
+  <si>
+    <t>cydjl@qq.com</t>
+  </si>
+  <si>
+    <t>落花 花浔</t>
+  </si>
+  <si>
+    <t>2019-09-02 20:59:30</t>
+  </si>
+  <si>
+    <t>2019-09-03 12:24:45</t>
+  </si>
+  <si>
+    <t>2019-09-05 18:28:20</t>
+  </si>
+  <si>
+    <t>992526373</t>
+  </si>
+  <si>
+    <t>落花 slily</t>
+  </si>
+  <si>
+    <t>2019-09-03 01:50:30</t>
+  </si>
+  <si>
+    <t>2019-09-03 13:05:10</t>
+  </si>
+  <si>
+    <t>2019-09-04 12:01:29</t>
+  </si>
+  <si>
+    <t>974687361</t>
+  </si>
+  <si>
+    <t>落花-清水</t>
+  </si>
+  <si>
+    <t>2019-09-02 20:12:49</t>
+  </si>
+  <si>
+    <t>2019-09-03 14:15:27</t>
+  </si>
+  <si>
+    <t>2019-09-04 08:31:58</t>
+  </si>
+  <si>
+    <t>2019-09-05 05:54:04</t>
+  </si>
+  <si>
+    <t>924110951</t>
+  </si>
+  <si>
+    <t>落花@楚锦妮</t>
+  </si>
+  <si>
+    <t>2019-09-02 10:49:57</t>
+  </si>
+  <si>
+    <t>2019-09-03 19:43:00</t>
+  </si>
+  <si>
+    <t>923418164</t>
+  </si>
+  <si>
+    <t>落花 千早(</t>
+  </si>
+  <si>
+    <t>2019-09-02 19:37:32</t>
+  </si>
+  <si>
+    <t>2019-09-03 15:59:28</t>
+  </si>
+  <si>
+    <t>2019-09-05 19:26:06</t>
+  </si>
+  <si>
+    <t>845423216</t>
+  </si>
+  <si>
+    <t>落花 ¿ Clear1</t>
+  </si>
+  <si>
+    <t>2019-09-02 05:43:45</t>
+  </si>
+  <si>
+    <t>2019-09-03 09:14:26</t>
+  </si>
+  <si>
+    <t>2019-09-04 05:56:58</t>
+  </si>
+  <si>
+    <t>2019-09-05 05:56:50</t>
+  </si>
+  <si>
+    <t>821515617</t>
+  </si>
+  <si>
+    <t>落花-谢南</t>
+  </si>
+  <si>
+    <t>2019-09-02 11:29:18</t>
+  </si>
+  <si>
+    <t>2019-09-03 20:57:28</t>
+  </si>
+  <si>
+    <t>793019511</t>
+  </si>
+  <si>
+    <t>落花ฅ稷晞【管住手，别氪了!!!】</t>
+  </si>
+  <si>
+    <t>2019-09-02 09:48:12</t>
+  </si>
+  <si>
+    <t>2019-09-03 09:36:12</t>
+  </si>
+  <si>
+    <t>2019-09-04 13:10:53</t>
+  </si>
+  <si>
+    <t>2019-09-05 12:53:05</t>
+  </si>
+  <si>
+    <t>784945709</t>
+  </si>
+  <si>
+    <t>落花.花祭夜.今天机密65w分哦</t>
+  </si>
+  <si>
+    <t>2019-09-02 10:10:45</t>
+  </si>
+  <si>
+    <t>2019-09-03 12:40:36</t>
+  </si>
+  <si>
+    <t>2019-09-04 14:30:06</t>
+  </si>
+  <si>
+    <t>779867533</t>
+  </si>
+  <si>
+    <t>落花๑顾安白</t>
+  </si>
+  <si>
+    <t>2019-09-02 11:31:03</t>
+  </si>
+  <si>
+    <t>2019-09-03 06:37:42</t>
+  </si>
+  <si>
+    <t>2019-09-04 06:41:44</t>
+  </si>
+  <si>
+    <t>2019-09-05 19:08:40</t>
+  </si>
+  <si>
+    <t>769521738</t>
+  </si>
+  <si>
+    <t>落花-白茶</t>
+  </si>
+  <si>
+    <t>2019-09-02 10:42:33</t>
+  </si>
+  <si>
+    <t>2019-09-03 09:16:17</t>
+  </si>
+  <si>
+    <t>2019-09-04 09:11:06</t>
+  </si>
+  <si>
+    <t>745415648</t>
+  </si>
+  <si>
+    <t>落花 小虚</t>
+  </si>
+  <si>
+    <t>2019-09-02 13:43:49</t>
+  </si>
+  <si>
+    <t>2019-09-03 14:28:40</t>
+  </si>
+  <si>
+    <t>727791466</t>
+  </si>
+  <si>
+    <t>落花+天辟</t>
+  </si>
+  <si>
+    <t>2019-09-02 09:06:43</t>
+  </si>
+  <si>
+    <t>2019-09-03 10:58:06</t>
+  </si>
+  <si>
+    <t>2019-09-04 08:21:01</t>
+  </si>
+  <si>
+    <t>2019-09-05 12:37:05</t>
+  </si>
+  <si>
+    <t>724187504</t>
+  </si>
+  <si>
+    <t>落花⭐Rai</t>
+  </si>
+  <si>
+    <t>2019-09-02 10:56:17</t>
+  </si>
+  <si>
+    <t>2019-09-03 14:19:15</t>
+  </si>
+  <si>
+    <t>2019-09-04 14:30:08</t>
+  </si>
+  <si>
+    <t>710237833</t>
+  </si>
+  <si>
+    <t>落花 可露丽</t>
+  </si>
+  <si>
+    <t>2019-09-02 10:10:14</t>
+  </si>
+  <si>
+    <t>2019-09-03 12:20:29</t>
+  </si>
+  <si>
+    <t>2019-09-04 12:33:30</t>
+  </si>
+  <si>
+    <t>651570472</t>
+  </si>
+  <si>
+    <t>落花 EXO</t>
+  </si>
+  <si>
+    <t>2019-09-02 10:10:21</t>
+  </si>
+  <si>
+    <t>2019-09-03 11:00:17</t>
+  </si>
+  <si>
+    <t>2019-09-04 12:12:11</t>
+  </si>
+  <si>
+    <t>2019-09-05 12:28:32</t>
+  </si>
+  <si>
+    <t>648875355</t>
+  </si>
+  <si>
+    <t>落花—陆阮阮</t>
+  </si>
+  <si>
+    <t>2019-09-02 09:54:10</t>
+  </si>
+  <si>
+    <t>2019-09-03 09:42:50</t>
+  </si>
+  <si>
+    <t>535509797</t>
+  </si>
+  <si>
+    <t>落花，灰姐</t>
+  </si>
+  <si>
+    <t>2019-09-02 19:36:35</t>
+  </si>
+  <si>
+    <t>2019-09-03 19:18:15</t>
+  </si>
+  <si>
+    <t>505644622</t>
+  </si>
+  <si>
+    <t>落花◈啾啾</t>
+  </si>
+  <si>
+    <t>2019-09-02 19:18:55</t>
+  </si>
+  <si>
+    <t>2019-09-03 19:41:37</t>
+  </si>
+  <si>
+    <t>2019-09-05 19:19:32</t>
+  </si>
+  <si>
+    <t>491384166</t>
+  </si>
+  <si>
+    <t>落花@藤原千花</t>
+  </si>
+  <si>
+    <t>2019-09-02 09:48:14</t>
+  </si>
+  <si>
+    <t>2019-09-03 21:52:26</t>
+  </si>
+  <si>
+    <t>3504245791</t>
+  </si>
+  <si>
+    <t>落花-瓷羽</t>
+  </si>
+  <si>
+    <t>2753247176</t>
+  </si>
+  <si>
+    <t>落花－白寄岚</t>
+  </si>
+  <si>
+    <t>2019-09-03 08:18:29</t>
+  </si>
+  <si>
+    <t>2019-09-04 05:54:12</t>
+  </si>
+  <si>
+    <t>2019-09-05 13:52:30</t>
+  </si>
+  <si>
+    <t>3476601463</t>
+  </si>
+  <si>
+    <t>落花 阿幼</t>
+  </si>
+  <si>
+    <t>2019-09-02 22:03:09</t>
+  </si>
+  <si>
+    <t>2019-09-04 00:02:55</t>
+  </si>
+  <si>
+    <t>3240236818</t>
+  </si>
+  <si>
+    <t>落花 秦意</t>
+  </si>
+  <si>
+    <t>2019-09-02 13:50:31</t>
+  </si>
+  <si>
+    <t>2019-09-03 19:57:17</t>
+  </si>
+  <si>
+    <t>2019-09-05 09:45:30</t>
+  </si>
+  <si>
+    <t>2971057903</t>
+  </si>
+  <si>
+    <t>落花-细语</t>
+  </si>
+  <si>
+    <t>2019-09-05 15:37:24</t>
+  </si>
+  <si>
+    <t>2940604709</t>
+  </si>
+  <si>
+    <t>落花-24k草莓小葵</t>
+  </si>
+  <si>
+    <t>2638588219</t>
+  </si>
+  <si>
+    <t>落花-洱瓷(其他人都有括号那我也要搞一个)</t>
+  </si>
+  <si>
+    <t>2019-09-02 09:53:54</t>
+  </si>
+  <si>
+    <t>2019-09-03 19:44:01</t>
+  </si>
+  <si>
+    <t>2019-09-05 09:57:45</t>
+  </si>
+  <si>
+    <t>2473375876</t>
+  </si>
+  <si>
+    <t>落花 林咕啾（星期六jjc结算记得留次数</t>
+  </si>
+  <si>
+    <t>2019-09-02 19:35:17</t>
+  </si>
+  <si>
+    <t>2019-09-03 11:19:28</t>
+  </si>
+  <si>
+    <t>2019-09-05 12:36:03</t>
+  </si>
+  <si>
+    <t>2406417774</t>
+  </si>
+  <si>
+    <t>落花 苏其凉</t>
+  </si>
+  <si>
+    <t>2019-09-03 19:55:43</t>
+  </si>
+  <si>
+    <t>2192665938</t>
+  </si>
+  <si>
+    <t>落花 奶味汐月</t>
+  </si>
+  <si>
+    <t>2019-09-02 21:58:06</t>
+  </si>
+  <si>
+    <t>2019-09-03 05:55:12</t>
+  </si>
+  <si>
+    <t>2019-09-05 18:43:28</t>
+  </si>
+  <si>
+    <t>1941489960</t>
+  </si>
+  <si>
+    <t>落花 早纪畈枝</t>
+  </si>
+  <si>
+    <t>2019-09-02 19:56:22</t>
+  </si>
+  <si>
+    <t>2019-09-03 14:25:44</t>
+  </si>
+  <si>
+    <t>2019-09-04 11:48:54</t>
+  </si>
+  <si>
+    <t>1937237519</t>
+  </si>
+  <si>
+    <t>落花 ♏ 桃花换酒</t>
+  </si>
+  <si>
+    <t>2019-09-02 09:33:45</t>
+  </si>
+  <si>
+    <t>2019-09-03 19:40:27</t>
+  </si>
+  <si>
+    <t>2019-09-05 12:10:23</t>
+  </si>
+  <si>
+    <t>1841469477</t>
+  </si>
+  <si>
+    <t>落花-天淼</t>
+  </si>
+  <si>
+    <t>2019-09-02 09:55:42</t>
+  </si>
+  <si>
+    <t>2019-09-03 12:11:39</t>
+  </si>
+  <si>
+    <t>1790016705</t>
+  </si>
+  <si>
+    <t>落花      魚漁。</t>
+  </si>
+  <si>
+    <t>2019-09-03 21:35:59</t>
+  </si>
+  <si>
+    <t>1755065148</t>
+  </si>
+  <si>
+    <t>落花  赖皮蛇</t>
+  </si>
+  <si>
+    <t>2019-09-02 12:55:26</t>
+  </si>
+  <si>
+    <t>2019-09-03 12:45:02</t>
+  </si>
+  <si>
+    <t>2019-09-04 08:51:42</t>
+  </si>
+  <si>
+    <t>2019-09-05 13:02:34</t>
+  </si>
+  <si>
+    <t>1664171803</t>
+  </si>
+  <si>
+    <t>落花ෆ总攻大人</t>
+  </si>
+  <si>
+    <t>2019-09-02 10:12:25</t>
+  </si>
+  <si>
+    <t>2019-09-03 20:09:00</t>
+  </si>
+  <si>
+    <t>2019-09-04 13:30:21</t>
+  </si>
+  <si>
+    <t>16500928</t>
+  </si>
+  <si>
+    <t>落花 羽川</t>
+  </si>
+  <si>
+    <t>2019-09-02 08:55:42</t>
+  </si>
+  <si>
+    <t>2019-09-03 08:29:18</t>
+  </si>
+  <si>
+    <t>2019-09-04 08:34:53</t>
+  </si>
+  <si>
+    <t>2019-09-05 08:51:27</t>
+  </si>
+  <si>
+    <t>15451377</t>
+  </si>
+  <si>
+    <t>落花·紫</t>
+  </si>
+  <si>
+    <t>2019-09-02 09:50:29</t>
+  </si>
+  <si>
+    <t>2019-09-03 12:08:27</t>
+  </si>
+  <si>
+    <t>2019-09-04 14:45:19</t>
+  </si>
+  <si>
+    <t>2019-09-05 12:25:57</t>
+  </si>
+  <si>
+    <t>1543607287</t>
+  </si>
+  <si>
+    <t>落花兰摧玉折</t>
+  </si>
+  <si>
+    <t>2019-09-03 01:44:52</t>
+  </si>
+  <si>
+    <t>2019-09-03 14:56:31</t>
+  </si>
+  <si>
+    <t>2019-09-05 01:29:24</t>
+  </si>
+  <si>
+    <t>1393363961</t>
+  </si>
+  <si>
+    <t>落花꒳红茶喵喵喵（联盟答题月入百万）</t>
+  </si>
+  <si>
+    <t>2019-09-02 10:44:05</t>
+  </si>
+  <si>
+    <t>2019-09-03 09:18:15</t>
+  </si>
+  <si>
+    <t>2019-09-04 14:39:17</t>
+  </si>
+  <si>
+    <t>2019-09-05 10:11:50</t>
+  </si>
+  <si>
+    <t>1369593175</t>
+  </si>
+  <si>
+    <t>落花～～心城</t>
+  </si>
+  <si>
+    <t>2019-09-02 07:26:53</t>
+  </si>
+  <si>
+    <t>2019-09-03 07:27:11</t>
+  </si>
+  <si>
+    <t>2019-09-04 07:25:05</t>
+  </si>
+  <si>
+    <t>2019-09-05 13:00:19</t>
+  </si>
+  <si>
+    <t>1369562367</t>
+  </si>
+  <si>
+    <t>落花ω天天</t>
+  </si>
+  <si>
+    <t>2019-09-02 19:41:35</t>
+  </si>
+  <si>
+    <t>2019-09-03 19:43:37</t>
+  </si>
+  <si>
+    <t>2019-09-05 19:09:43</t>
+  </si>
+  <si>
+    <t>1239530393</t>
+  </si>
+  <si>
+    <t>落花" 苏久久</t>
+  </si>
+  <si>
+    <t>july401@qq.com</t>
+  </si>
+  <si>
+    <t>落花，初【我是群里的打机提醒小助手】</t>
+  </si>
+  <si>
+    <t>2019-09-02 10:12:17</t>
+  </si>
+  <si>
+    <t>2019-09-03 07:05:04</t>
+  </si>
+  <si>
+    <t>2019-09-05 14:30:31</t>
+  </si>
+  <si>
+    <t>121398489</t>
+  </si>
+  <si>
+    <t>落花_鸭鸭</t>
+  </si>
+  <si>
+    <t>2019-09-02 20:20:12</t>
+  </si>
+  <si>
+    <t>2019-09-03 21:39:27</t>
+  </si>
+  <si>
+    <t>2019-09-04 07:58:54</t>
+  </si>
+  <si>
+    <t>2019-09-05 07:53:58</t>
+  </si>
+  <si>
+    <t>1441657502</t>
+  </si>
+  <si>
+    <t>落花 樱井</t>
+  </si>
+  <si>
+    <t>2019-09-03 19:40:00</t>
+  </si>
+  <si>
     <t>2019-09-04 17:28:35</t>
   </si>
   <si>
-    <t>78191877</t>
-  </si>
-  <si>
-    <t>落花 星光化作翅膀</t>
-  </si>
-  <si>
-    <t>2019-09-04 14:26:20</t>
-  </si>
-  <si>
-    <t>30137763</t>
-  </si>
-  <si>
-    <t>落花樱茶</t>
-  </si>
-  <si>
-    <t>1327354755</t>
-  </si>
-  <si>
-    <t>落花 清水奈绪子（错过派对，错过一亿）</t>
-  </si>
-  <si>
-    <t>2019-09-02 23:12:28</t>
-  </si>
-  <si>
-    <t>2019-09-03 13:15:06</t>
-  </si>
-  <si>
-    <t>39302003</t>
-  </si>
-  <si>
-    <t>落花 神仙</t>
-  </si>
-  <si>
-    <t>781898849</t>
-  </si>
-  <si>
-    <t>落花-KGAoi</t>
-  </si>
-  <si>
-    <t>2019-09-03 11:36:06</t>
-  </si>
-  <si>
-    <t>2019-09-04 10:34:36</t>
-  </si>
-  <si>
-    <t>2661759612</t>
-  </si>
-  <si>
-    <t>落花ˊૢ路希</t>
-  </si>
-  <si>
-    <t>2019-09-02 08:02:13</t>
-  </si>
-  <si>
-    <t>2019-09-03 09:35:51</t>
-  </si>
-  <si>
-    <t>2019-09-04 08:31:17</t>
-  </si>
-  <si>
-    <t>cydjl@qq.com</t>
-  </si>
-  <si>
-    <t>落花 花浔</t>
-  </si>
-  <si>
-    <t>2019-09-02 20:59:30</t>
-  </si>
-  <si>
-    <t>2019-09-03 12:24:45</t>
-  </si>
-  <si>
-    <t>992526373</t>
-  </si>
-  <si>
-    <t>落花 slily</t>
-  </si>
-  <si>
-    <t>2019-09-03 01:50:30</t>
-  </si>
-  <si>
-    <t>2019-09-03 13:05:10</t>
-  </si>
-  <si>
-    <t>2019-09-04 12:01:29</t>
-  </si>
-  <si>
-    <t>974687361</t>
-  </si>
-  <si>
-    <t>落花-清水</t>
-  </si>
-  <si>
-    <t>2019-09-02 20:12:49</t>
-  </si>
-  <si>
-    <t>2019-09-03 14:15:27</t>
-  </si>
-  <si>
-    <t>2019-09-04 08:31:58</t>
-  </si>
-  <si>
-    <t>924110951</t>
-  </si>
-  <si>
-    <t>落花@楚锦妮</t>
-  </si>
-  <si>
-    <t>2019-09-02 10:49:57</t>
-  </si>
-  <si>
-    <t>2019-09-03 19:43:00</t>
-  </si>
-  <si>
-    <t>923418164</t>
-  </si>
-  <si>
-    <t>落花 千早(</t>
-  </si>
-  <si>
-    <t>2019-09-02 19:37:32</t>
-  </si>
-  <si>
-    <t>2019-09-03 15:59:28</t>
-  </si>
-  <si>
-    <t>845423216</t>
-  </si>
-  <si>
-    <t>落花 ¿ Clear1</t>
-  </si>
-  <si>
-    <t>2019-09-02 05:43:45</t>
-  </si>
-  <si>
-    <t>2019-09-03 09:14:26</t>
-  </si>
-  <si>
-    <t>2019-09-04 05:56:58</t>
-  </si>
-  <si>
-    <t>821515617</t>
-  </si>
-  <si>
-    <t>落花-谢南</t>
-  </si>
-  <si>
-    <t>2019-09-02 11:29:18</t>
-  </si>
-  <si>
-    <t>2019-09-03 20:57:28</t>
-  </si>
-  <si>
-    <t>793019511</t>
-  </si>
-  <si>
-    <t>落花ฅ稷晞</t>
-  </si>
-  <si>
-    <t>2019-09-02 09:48:12</t>
-  </si>
-  <si>
-    <t>2019-09-03 09:36:12</t>
-  </si>
-  <si>
-    <t>2019-09-04 13:10:53</t>
-  </si>
-  <si>
-    <t>784945709</t>
-  </si>
-  <si>
-    <t>落花.花祭夜.今天机密68w分哦</t>
-  </si>
-  <si>
-    <t>2019-09-02 10:10:45</t>
-  </si>
-  <si>
-    <t>2019-09-03 12:40:36</t>
-  </si>
-  <si>
-    <t>2019-09-04 14:30:06</t>
-  </si>
-  <si>
-    <t>779867533</t>
-  </si>
-  <si>
-    <t>落花๑顾安白</t>
-  </si>
-  <si>
-    <t>2019-09-02 11:31:03</t>
-  </si>
-  <si>
-    <t>2019-09-03 06:37:42</t>
-  </si>
-  <si>
-    <t>2019-09-04 06:41:44</t>
-  </si>
-  <si>
-    <t>769521738</t>
-  </si>
-  <si>
-    <t>落花-白茶</t>
-  </si>
-  <si>
-    <t>2019-09-02 10:42:33</t>
-  </si>
-  <si>
-    <t>2019-09-03 09:16:17</t>
-  </si>
-  <si>
-    <t>2019-09-04 09:11:06</t>
-  </si>
-  <si>
-    <t>745415648</t>
-  </si>
-  <si>
-    <t>落花 小虚</t>
-  </si>
-  <si>
-    <t>2019-09-02 13:43:49</t>
-  </si>
-  <si>
-    <t>2019-09-03 14:28:40</t>
-  </si>
-  <si>
-    <t>727791466</t>
-  </si>
-  <si>
-    <t>落花+天辟</t>
-  </si>
-  <si>
-    <t>2019-09-02 09:06:43</t>
-  </si>
-  <si>
-    <t>2019-09-03 10:58:06</t>
-  </si>
-  <si>
-    <t>2019-09-04 08:21:01</t>
-  </si>
-  <si>
-    <t>724187504</t>
-  </si>
-  <si>
-    <t>落花⭐Rai</t>
-  </si>
-  <si>
-    <t>2019-09-02 10:56:17</t>
-  </si>
-  <si>
-    <t>2019-09-03 14:19:15</t>
-  </si>
-  <si>
-    <t>2019-09-04 14:30:08</t>
-  </si>
-  <si>
-    <t>710237833</t>
-  </si>
-  <si>
-    <t>落花 可露丽</t>
-  </si>
-  <si>
-    <t>2019-09-02 10:10:14</t>
-  </si>
-  <si>
-    <t>2019-09-03 12:20:29</t>
-  </si>
-  <si>
-    <t>2019-09-04 12:33:30</t>
-  </si>
-  <si>
-    <t>651570472</t>
-  </si>
-  <si>
-    <t>落花 EXO</t>
-  </si>
-  <si>
-    <t>2019-09-02 10:10:21</t>
-  </si>
-  <si>
-    <t>2019-09-03 11:00:17</t>
-  </si>
-  <si>
-    <t>2019-09-04 12:12:11</t>
-  </si>
-  <si>
-    <t>648875355</t>
-  </si>
-  <si>
-    <t>落花—陆阮阮</t>
-  </si>
-  <si>
-    <t>2019-09-02 09:54:10</t>
-  </si>
-  <si>
-    <t>2019-09-03 09:42:50</t>
-  </si>
-  <si>
-    <t>535509797</t>
-  </si>
-  <si>
-    <t>落花，灰姐</t>
-  </si>
-  <si>
-    <t>2019-09-02 19:36:35</t>
-  </si>
-  <si>
-    <t>2019-09-03 19:18:15</t>
-  </si>
-  <si>
-    <t>505644622</t>
-  </si>
-  <si>
-    <t>落花◈啾啾</t>
-  </si>
-  <si>
-    <t>2019-09-02 19:18:55</t>
-  </si>
-  <si>
-    <t>2019-09-03 19:41:37</t>
-  </si>
-  <si>
-    <t>491384166</t>
-  </si>
-  <si>
-    <t>落花@藤原千花</t>
-  </si>
-  <si>
-    <t>2019-09-02 09:48:14</t>
-  </si>
-  <si>
-    <t>2019-09-03 21:52:26</t>
-  </si>
-  <si>
-    <t>3504245791</t>
-  </si>
-  <si>
-    <t>落花-瓷羽</t>
-  </si>
-  <si>
-    <t>2753247176</t>
-  </si>
-  <si>
-    <t>落花－白寄岚</t>
-  </si>
-  <si>
-    <t>2019-09-03 08:18:29</t>
-  </si>
-  <si>
-    <t>2019-09-04 05:54:12</t>
-  </si>
-  <si>
-    <t>3476601463</t>
-  </si>
-  <si>
-    <t>落花 阿幼</t>
-  </si>
-  <si>
-    <t>2019-09-02 22:03:09</t>
-  </si>
-  <si>
-    <t>2019-09-04 00:02:55</t>
-  </si>
-  <si>
-    <t>3240236818</t>
-  </si>
-  <si>
-    <t>落花 秦意</t>
-  </si>
-  <si>
-    <t>2019-09-02 13:50:31</t>
-  </si>
-  <si>
-    <t>2019-09-03 19:57:17</t>
-  </si>
-  <si>
-    <t>2971057903</t>
-  </si>
-  <si>
-    <t>落花-细语</t>
-  </si>
-  <si>
-    <t>2940604709</t>
-  </si>
-  <si>
-    <t>落花-24k草莓小葵</t>
-  </si>
-  <si>
-    <t>2638588219</t>
-  </si>
-  <si>
-    <t>落花-洱瓷(其他人都有括号那我也要搞一个)</t>
-  </si>
-  <si>
-    <t>2019-09-02 09:53:54</t>
-  </si>
-  <si>
-    <t>2019-09-03 19:44:01</t>
-  </si>
-  <si>
-    <t>2473375876</t>
-  </si>
-  <si>
-    <t>落花 林咕啾（星期六jjc结算记得留次数</t>
-  </si>
-  <si>
-    <t>2019-09-02 19:35:17</t>
-  </si>
-  <si>
-    <t>2019-09-03 11:19:28</t>
-  </si>
-  <si>
-    <t>2406417774</t>
-  </si>
-  <si>
-    <t>落花 苏其凉</t>
-  </si>
-  <si>
-    <t>2019-09-03 19:55:43</t>
-  </si>
-  <si>
-    <t>2192665938</t>
-  </si>
-  <si>
-    <t>落花 奶味汐月</t>
-  </si>
-  <si>
-    <t>2019-09-02 21:58:06</t>
-  </si>
-  <si>
-    <t>2019-09-03 05:55:12</t>
-  </si>
-  <si>
-    <t>1941489960</t>
-  </si>
-  <si>
-    <t>落花 早纪畈枝</t>
-  </si>
-  <si>
-    <t>2019-09-02 19:56:22</t>
-  </si>
-  <si>
-    <t>2019-09-03 14:25:44</t>
-  </si>
-  <si>
-    <t>2019-09-04 11:48:54</t>
-  </si>
-  <si>
-    <t>1937237519</t>
-  </si>
-  <si>
-    <t>落花 ♏ 桃花换酒</t>
-  </si>
-  <si>
-    <t>2019-09-02 09:33:45</t>
-  </si>
-  <si>
-    <t>2019-09-03 19:40:27</t>
-  </si>
-  <si>
-    <t>1841469477</t>
-  </si>
-  <si>
-    <t>落花-天淼</t>
-  </si>
-  <si>
-    <t>2019-09-02 09:55:42</t>
-  </si>
-  <si>
-    <t>2019-09-03 12:11:39</t>
-  </si>
-  <si>
-    <t>1790016705</t>
-  </si>
-  <si>
-    <t>落花      魚漁。</t>
-  </si>
-  <si>
-    <t>2019-09-03 21:35:59</t>
-  </si>
-  <si>
-    <t>1755065148</t>
-  </si>
-  <si>
-    <t>落花  赖皮蛇</t>
-  </si>
-  <si>
-    <t>2019-09-02 12:55:26</t>
-  </si>
-  <si>
-    <t>2019-09-03 12:45:02</t>
-  </si>
-  <si>
-    <t>2019-09-04 08:51:42</t>
-  </si>
-  <si>
-    <t>1664171803</t>
-  </si>
-  <si>
-    <t>落花ෆ总攻大人</t>
-  </si>
-  <si>
-    <t>2019-09-02 10:12:25</t>
-  </si>
-  <si>
-    <t>2019-09-03 20:09:00</t>
-  </si>
-  <si>
-    <t>2019-09-04 13:30:21</t>
-  </si>
-  <si>
-    <t>16500928</t>
-  </si>
-  <si>
-    <t>落花 羽川</t>
-  </si>
-  <si>
-    <t>2019-09-02 08:55:42</t>
-  </si>
-  <si>
-    <t>2019-09-03 08:29:18</t>
-  </si>
-  <si>
-    <t>2019-09-04 08:34:53</t>
-  </si>
-  <si>
-    <t>15451377</t>
-  </si>
-  <si>
-    <t>落花·紫</t>
-  </si>
-  <si>
-    <t>2019-09-02 09:50:29</t>
-  </si>
-  <si>
-    <t>2019-09-03 12:08:27</t>
-  </si>
-  <si>
-    <t>2019-09-04 14:45:19</t>
-  </si>
-  <si>
-    <t>1543607287</t>
-  </si>
-  <si>
-    <t>落花兰摧玉折</t>
-  </si>
-  <si>
-    <t>2019-09-03 01:44:52</t>
-  </si>
-  <si>
-    <t>2019-09-03 14:56:31</t>
-  </si>
-  <si>
-    <t>1393363961</t>
-  </si>
-  <si>
-    <t>落花꒳红茶喵喵喵（联盟答题月入百万）</t>
-  </si>
-  <si>
-    <t>2019-09-02 10:44:05</t>
-  </si>
-  <si>
-    <t>2019-09-03 09:18:15</t>
-  </si>
-  <si>
-    <t>2019-09-04 14:39:17</t>
-  </si>
-  <si>
-    <t>1369593175</t>
-  </si>
-  <si>
-    <t>落花～～心城</t>
-  </si>
-  <si>
-    <t>2019-09-02 07:26:53</t>
-  </si>
-  <si>
-    <t>2019-09-03 07:27:11</t>
-  </si>
-  <si>
-    <t>2019-09-04 07:25:05</t>
-  </si>
-  <si>
-    <t>1369562367</t>
-  </si>
-  <si>
-    <t>落花ω天天</t>
-  </si>
-  <si>
-    <t>2019-09-02 19:41:35</t>
-  </si>
-  <si>
-    <t>2019-09-03 19:43:37</t>
-  </si>
-  <si>
-    <t>1239530393</t>
-  </si>
-  <si>
-    <t>落花" 苏久久</t>
-  </si>
-  <si>
-    <t>july401@qq.com</t>
-  </si>
-  <si>
-    <t>落花，初【我是群里的打机提醒小助手】</t>
-  </si>
-  <si>
-    <t>2019-09-02 10:12:17</t>
-  </si>
-  <si>
-    <t>2019-09-03 07:05:04</t>
-  </si>
-  <si>
-    <t>121398489</t>
-  </si>
-  <si>
-    <t>落花_鸭鸭</t>
-  </si>
-  <si>
-    <t>2019-09-02 20:20:12</t>
-  </si>
-  <si>
-    <t>2019-09-03 21:39:27</t>
-  </si>
-  <si>
-    <t>2019-09-04 07:58:54</t>
-  </si>
-  <si>
-    <t>1441657502</t>
-  </si>
-  <si>
-    <t>落花 樱井</t>
-  </si>
-  <si>
-    <t>2019-09-03 19:40:00</t>
+    <t>2019-09-05 17:55:24</t>
   </si>
   <si>
     <t>1130056290</t>
@@ -830,6 +920,9 @@
     <t>2019-09-04 10:49:26</t>
   </si>
   <si>
+    <t>2019-09-05 16:59:30</t>
+  </si>
+  <si>
     <t>1056711058</t>
   </si>
   <si>
@@ -890,10 +983,13 @@
     <t>2019-09-03 13:22:56</t>
   </si>
   <si>
+    <t>2019-09-05 13:20:14</t>
+  </si>
+  <si>
     <t>2605384970</t>
   </si>
   <si>
-    <t>落花-清茶</t>
+    <t>落花い清茶（非洲酋长）</t>
   </si>
   <si>
     <t>2019-09-02 07:40:02</t>
@@ -905,6 +1001,9 @@
     <t>2019-09-04 08:34:02</t>
   </si>
   <si>
+    <t>2019-09-05 07:39:50</t>
+  </si>
+  <si>
     <t>17535862313</t>
   </si>
   <si>
@@ -920,6 +1019,9 @@
     <t>2019-09-04 06:41:23</t>
   </si>
   <si>
+    <t>2019-09-05 09:00:26</t>
+  </si>
+  <si>
     <t>2126851254</t>
   </si>
   <si>
@@ -959,6 +1061,9 @@
     <t>2019-09-04 14:52:53</t>
   </si>
   <si>
+    <t>2019-09-05 14:48:28</t>
+  </si>
+  <si>
     <t>965462652</t>
   </si>
   <si>
@@ -974,6 +1079,9 @@
     <t>2019-09-04 09:57:49</t>
   </si>
   <si>
+    <t>2019-09-05 10:40:01</t>
+  </si>
+  <si>
     <t>2953487480</t>
   </si>
   <si>
@@ -989,10 +1097,13 @@
     <t>2019-09-04 17:24:01</t>
   </si>
   <si>
+    <t>2019-09-05 13:49:43</t>
+  </si>
+  <si>
     <t>1003242662</t>
   </si>
   <si>
-    <t>落月︴帽儿</t>
+    <t>落花︴帽儿</t>
   </si>
   <si>
     <t>2019-09-02 08:33:15</t>
@@ -1004,6 +1115,9 @@
     <t>2019-09-04 14:29:50</t>
   </si>
   <si>
+    <t>2019-09-05 08:56:30</t>
+  </si>
+  <si>
     <t>957600168</t>
   </si>
   <si>
@@ -1019,6 +1133,9 @@
     <t>2019-09-04 07:08:37</t>
   </si>
   <si>
+    <t>2019-09-05 07:46:57</t>
+  </si>
+  <si>
     <t>3191053965</t>
   </si>
   <si>
@@ -1029,6 +1146,9 @@
   </si>
   <si>
     <t>2019-09-04 09:27:32</t>
+  </si>
+  <si>
+    <t>2019-09-05 09:57:14</t>
   </si>
   <si>
     <t>-1</t>
@@ -1043,12 +1163,12 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1065,28 +1185,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1095,6 +1193,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1114,48 +1220,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1178,15 +1245,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1201,6 +1276,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1209,7 +1315,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1236,7 +1349,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1248,25 +1415,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1278,37 +1445,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1320,13 +1487,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1338,67 +1505,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1429,50 +1542,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1530,151 +1599,195 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2032,8 +2145,8 @@
   <sheetPr/>
   <dimension ref="A1:AT72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="V16" workbookViewId="0">
+      <selection activeCell="X51" sqref="X51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2057,8 +2170,9 @@
     <col min="20" max="20" width="21.5" customWidth="1"/>
     <col min="21" max="21" width="37.875" customWidth="1"/>
     <col min="22" max="22" width="11.875" customWidth="1"/>
-    <col min="23" max="25" width="7.625" customWidth="1"/>
-    <col min="26" max="26" width="11.875" customWidth="1"/>
+    <col min="23" max="24" width="7.625" customWidth="1"/>
+    <col min="25" max="25" width="8.375" customWidth="1"/>
+    <col min="26" max="26" width="21.5" customWidth="1"/>
     <col min="27" max="27" width="7.625" customWidth="1"/>
     <col min="28" max="28" width="11.875" customWidth="1"/>
     <col min="29" max="31" width="7.625" customWidth="1"/>
@@ -2413,9 +2527,8 @@
       <c r="T3" t="s">
         <v>48</v>
       </c>
-      <c r="U3" t="str">
-        <f>IF(OR(S3="",S3&lt;680000),$C3,"")</f>
-        <v>落花@冷月小猫泪</v>
+      <c r="U3" t="s">
+        <v>52</v>
       </c>
       <c r="V3" t="s">
         <v>48</v>
@@ -2560,17 +2673,17 @@
       <c r="V4" t="s">
         <v>48</v>
       </c>
-      <c r="W4" t="s">
-        <v>48</v>
-      </c>
-      <c r="X4" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>48</v>
+      <c r="W4">
+        <v>5</v>
+      </c>
+      <c r="X4">
+        <v>180000</v>
+      </c>
+      <c r="Y4">
+        <v>900000</v>
       </c>
       <c r="Z4" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="AA4" t="s">
         <v>48</v>
@@ -2638,10 +2751,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D5" t="s">
         <v>48</v>
@@ -2658,9 +2771,8 @@
       <c r="H5" t="s">
         <v>48</v>
       </c>
-      <c r="I5" t="str">
-        <f>IF(OR(G5="",G5&lt;680000),$C5,"")</f>
-        <v>落花樱茶</v>
+      <c r="I5" t="s">
+        <v>59</v>
       </c>
       <c r="J5" t="s">
         <v>48</v>
@@ -2677,9 +2789,8 @@
       <c r="N5" t="s">
         <v>48</v>
       </c>
-      <c r="O5" t="str">
-        <f>IF(OR(M5="",M5&lt;680000),$C5,"")</f>
-        <v>落花樱茶</v>
+      <c r="O5" t="s">
+        <v>59</v>
       </c>
       <c r="P5" t="s">
         <v>48</v>
@@ -2780,10 +2891,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D6" t="s">
         <v>48</v>
@@ -2798,7 +2909,7 @@
         <v>660000</v>
       </c>
       <c r="H6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I6" t="s">
         <v>48</v>
@@ -2816,7 +2927,7 @@
         <v>750000</v>
       </c>
       <c r="N6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O6" t="s">
         <v>48</v>
@@ -2920,10 +3031,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D7" t="s">
         <v>48</v>
@@ -2958,9 +3069,8 @@
       <c r="N7" t="s">
         <v>48</v>
       </c>
-      <c r="O7" t="str">
-        <f t="shared" ref="O7:O28" si="0">IF(OR(M7="",M7&lt;680000),$C7,"")</f>
-        <v>落花 神仙</v>
+      <c r="O7" t="s">
+        <v>65</v>
       </c>
       <c r="P7" t="s">
         <v>48</v>
@@ -2977,9 +3087,8 @@
       <c r="T7" t="s">
         <v>48</v>
       </c>
-      <c r="U7" t="str">
-        <f>IF(OR(S7="",S7&lt;680000),$C7,"")</f>
-        <v>落花 神仙</v>
+      <c r="U7" t="s">
+        <v>65</v>
       </c>
       <c r="V7" t="s">
         <v>48</v>
@@ -3062,10 +3171,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D8" t="s">
         <v>48</v>
@@ -3082,9 +3191,8 @@
       <c r="H8" t="s">
         <v>48</v>
       </c>
-      <c r="I8" t="str">
-        <f t="shared" ref="I8:I28" si="1">IF(OR(G8="",G8&lt;680000),$C8,"")</f>
-        <v>落花-KGAoi</v>
+      <c r="I8" t="s">
+        <v>67</v>
       </c>
       <c r="J8" t="s">
         <v>48</v>
@@ -3099,11 +3207,10 @@
         <v>1372000</v>
       </c>
       <c r="N8" t="s">
-        <v>67</v>
-      </c>
-      <c r="O8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <v>68</v>
+      </c>
+      <c r="O8" t="s">
+        <v>48</v>
       </c>
       <c r="P8" t="s">
         <v>48</v>
@@ -3118,26 +3225,25 @@
         <v>1400000</v>
       </c>
       <c r="T8" t="s">
-        <v>68</v>
-      </c>
-      <c r="U8" t="str">
-        <f>IF(OR(S8="",S8&lt;680000),$C8,"")</f>
-        <v/>
+        <v>69</v>
+      </c>
+      <c r="U8" t="s">
+        <v>48</v>
       </c>
       <c r="V8" t="s">
         <v>48</v>
       </c>
-      <c r="W8" t="s">
-        <v>48</v>
-      </c>
-      <c r="X8" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>48</v>
+      <c r="W8">
+        <v>7</v>
+      </c>
+      <c r="X8">
+        <v>210000</v>
+      </c>
+      <c r="Y8">
+        <v>1470000</v>
       </c>
       <c r="Z8" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="AA8" t="s">
         <v>48</v>
@@ -3205,10 +3311,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C9" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D9" t="s">
         <v>48</v>
@@ -3223,11 +3329,10 @@
         <v>4269060</v>
       </c>
       <c r="H9" t="s">
-        <v>71</v>
-      </c>
-      <c r="I9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <v>73</v>
+      </c>
+      <c r="I9" t="s">
+        <v>48</v>
       </c>
       <c r="J9" t="s">
         <v>48</v>
@@ -3242,11 +3347,10 @@
         <v>74682</v>
       </c>
       <c r="N9" t="s">
+        <v>74</v>
+      </c>
+      <c r="O9" t="s">
         <v>72</v>
-      </c>
-      <c r="O9" t="str">
-        <f t="shared" si="0"/>
-        <v>落花ˊૢ路希</v>
       </c>
       <c r="P9" t="s">
         <v>48</v>
@@ -3261,7 +3365,7 @@
         <v>777294</v>
       </c>
       <c r="T9" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U9" t="s">
         <v>48</v>
@@ -3269,17 +3373,17 @@
       <c r="V9" t="s">
         <v>48</v>
       </c>
-      <c r="W9" t="s">
-        <v>48</v>
-      </c>
-      <c r="X9" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>48</v>
+      <c r="W9">
+        <v>6</v>
+      </c>
+      <c r="X9">
+        <v>121372</v>
+      </c>
+      <c r="Y9">
+        <v>728232</v>
       </c>
       <c r="Z9" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="AA9" t="s">
         <v>48</v>
@@ -3347,10 +3451,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C10" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D10" t="s">
         <v>48</v>
@@ -3365,11 +3469,10 @@
         <v>720000</v>
       </c>
       <c r="H10" t="s">
-        <v>76</v>
-      </c>
-      <c r="I10" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <v>79</v>
+      </c>
+      <c r="I10" t="s">
+        <v>48</v>
       </c>
       <c r="J10" t="s">
         <v>48</v>
@@ -3384,11 +3487,10 @@
         <v>738000</v>
       </c>
       <c r="N10" t="s">
-        <v>77</v>
-      </c>
-      <c r="O10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <v>80</v>
+      </c>
+      <c r="O10" t="s">
+        <v>48</v>
       </c>
       <c r="P10" t="s">
         <v>48</v>
@@ -3405,24 +3507,23 @@
       <c r="T10" t="s">
         <v>48</v>
       </c>
-      <c r="U10" t="str">
-        <f>IF(OR(S10="",S10&lt;680000),$C10,"")</f>
-        <v>落花 花浔</v>
+      <c r="U10" t="s">
+        <v>78</v>
       </c>
       <c r="V10" t="s">
         <v>48</v>
       </c>
-      <c r="W10" t="s">
-        <v>48</v>
-      </c>
-      <c r="X10" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>48</v>
+      <c r="W10">
+        <v>6</v>
+      </c>
+      <c r="X10">
+        <v>126000</v>
+      </c>
+      <c r="Y10">
+        <v>756000</v>
       </c>
       <c r="Z10" t="s">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="AA10" t="s">
         <v>48</v>
@@ -3490,10 +3591,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C11" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D11" t="s">
         <v>48</v>
@@ -3508,11 +3609,10 @@
         <v>720000</v>
       </c>
       <c r="H11" t="s">
-        <v>80</v>
-      </c>
-      <c r="I11" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <v>84</v>
+      </c>
+      <c r="I11" t="s">
+        <v>48</v>
       </c>
       <c r="J11" t="s">
         <v>48</v>
@@ -3527,11 +3627,10 @@
         <v>768000</v>
       </c>
       <c r="N11" t="s">
-        <v>81</v>
-      </c>
-      <c r="O11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <v>85</v>
+      </c>
+      <c r="O11" t="s">
+        <v>48</v>
       </c>
       <c r="P11" t="s">
         <v>48</v>
@@ -3546,26 +3645,25 @@
         <v>798000</v>
       </c>
       <c r="T11" t="s">
-        <v>82</v>
-      </c>
-      <c r="U11" t="str">
-        <f>IF(OR(S11="",S11&lt;680000),$C11,"")</f>
-        <v/>
+        <v>86</v>
+      </c>
+      <c r="U11" t="s">
+        <v>48</v>
       </c>
       <c r="V11" t="s">
         <v>48</v>
       </c>
-      <c r="W11" t="s">
-        <v>48</v>
-      </c>
-      <c r="X11" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>48</v>
+      <c r="W11">
+        <v>6</v>
+      </c>
+      <c r="X11">
+        <v>133000</v>
+      </c>
+      <c r="Y11">
+        <v>798000</v>
       </c>
       <c r="Z11" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="AA11" t="s">
         <v>48</v>
@@ -3633,10 +3731,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C12" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D12" t="s">
         <v>48</v>
@@ -3651,11 +3749,10 @@
         <v>654000</v>
       </c>
       <c r="H12" t="s">
-        <v>85</v>
-      </c>
-      <c r="I12" t="str">
-        <f t="shared" si="1"/>
-        <v>落花-清水</v>
+        <v>89</v>
+      </c>
+      <c r="I12" t="s">
+        <v>88</v>
       </c>
       <c r="J12" t="s">
         <v>48</v>
@@ -3670,11 +3767,10 @@
         <v>672000</v>
       </c>
       <c r="N12" t="s">
-        <v>86</v>
-      </c>
-      <c r="O12" t="str">
-        <f t="shared" si="0"/>
-        <v>落花-清水</v>
+        <v>90</v>
+      </c>
+      <c r="O12" t="s">
+        <v>88</v>
       </c>
       <c r="P12" t="s">
         <v>48</v>
@@ -3689,7 +3785,7 @@
         <v>672000</v>
       </c>
       <c r="T12" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="U12" t="s">
         <v>48</v>
@@ -3697,17 +3793,17 @@
       <c r="V12" t="s">
         <v>48</v>
       </c>
-      <c r="W12" t="s">
-        <v>48</v>
-      </c>
-      <c r="X12" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>48</v>
+      <c r="W12">
+        <v>8</v>
+      </c>
+      <c r="X12">
+        <v>96000</v>
+      </c>
+      <c r="Y12">
+        <v>768000</v>
       </c>
       <c r="Z12" t="s">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="AA12" t="s">
         <v>48</v>
@@ -3775,10 +3871,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C13" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D13" t="s">
         <v>48</v>
@@ -3793,11 +3889,10 @@
         <v>930000</v>
       </c>
       <c r="H13" t="s">
-        <v>90</v>
-      </c>
-      <c r="I13" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <v>95</v>
+      </c>
+      <c r="I13" t="s">
+        <v>48</v>
       </c>
       <c r="J13" t="s">
         <v>48</v>
@@ -3812,11 +3907,10 @@
         <v>805000</v>
       </c>
       <c r="N13" t="s">
-        <v>91</v>
-      </c>
-      <c r="O13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <v>96</v>
+      </c>
+      <c r="O13" t="s">
+        <v>48</v>
       </c>
       <c r="P13" t="s">
         <v>48</v>
@@ -3851,8 +3945,9 @@
       <c r="Z13" t="s">
         <v>48</v>
       </c>
-      <c r="AA13" t="s">
-        <v>48</v>
+      <c r="AA13" t="str">
+        <f>IF(Y13="",C13,"")</f>
+        <v>落花@楚锦妮</v>
       </c>
       <c r="AB13" t="s">
         <v>48</v>
@@ -3917,10 +4012,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C14" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D14" t="s">
         <v>48</v>
@@ -3935,11 +4030,10 @@
         <v>756000</v>
       </c>
       <c r="H14" t="s">
-        <v>94</v>
-      </c>
-      <c r="I14" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <v>99</v>
+      </c>
+      <c r="I14" t="s">
+        <v>48</v>
       </c>
       <c r="J14" t="s">
         <v>48</v>
@@ -3954,48 +4048,47 @@
         <v>696000</v>
       </c>
       <c r="N14" t="s">
-        <v>95</v>
-      </c>
-      <c r="O14" t="str">
-        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="O14" t="s">
+        <v>48</v>
+      </c>
+      <c r="P14" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>48</v>
+      </c>
+      <c r="R14" t="s">
+        <v>48</v>
+      </c>
+      <c r="S14" t="s">
+        <v>48</v>
+      </c>
+      <c r="T14" t="s">
+        <v>48</v>
+      </c>
+      <c r="U14" t="s">
+        <v>98</v>
+      </c>
+      <c r="V14" t="s">
+        <v>48</v>
+      </c>
+      <c r="W14">
+        <v>6</v>
+      </c>
+      <c r="X14">
+        <v>113000</v>
+      </c>
+      <c r="Y14">
+        <v>678000</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA14" t="str">
+        <f t="shared" ref="AA14:AA45" si="0">IF(Y14="",C14,"")</f>
         <v/>
-      </c>
-      <c r="P14" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>48</v>
-      </c>
-      <c r="R14" t="s">
-        <v>48</v>
-      </c>
-      <c r="S14" t="s">
-        <v>48</v>
-      </c>
-      <c r="T14" t="s">
-        <v>48</v>
-      </c>
-      <c r="U14" t="str">
-        <f>IF(OR(S14="",S14&lt;680000),$C14,"")</f>
-        <v>落花 千早(</v>
-      </c>
-      <c r="V14" t="s">
-        <v>48</v>
-      </c>
-      <c r="W14" t="s">
-        <v>48</v>
-      </c>
-      <c r="X14" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z14" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA14" t="s">
-        <v>48</v>
       </c>
       <c r="AB14" t="s">
         <v>48</v>
@@ -4060,10 +4153,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="C15" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="D15" t="s">
         <v>48</v>
@@ -4078,11 +4171,10 @@
         <v>840000</v>
       </c>
       <c r="H15" t="s">
-        <v>98</v>
-      </c>
-      <c r="I15" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <v>104</v>
+      </c>
+      <c r="I15" t="s">
+        <v>48</v>
       </c>
       <c r="J15" t="s">
         <v>48</v>
@@ -4097,11 +4189,10 @@
         <v>660000</v>
       </c>
       <c r="N15" t="s">
-        <v>99</v>
-      </c>
-      <c r="O15" t="str">
-        <f t="shared" si="0"/>
-        <v>落花 ¿ Clear1</v>
+        <v>105</v>
+      </c>
+      <c r="O15" t="s">
+        <v>103</v>
       </c>
       <c r="P15" t="s">
         <v>48</v>
@@ -4116,7 +4207,7 @@
         <v>770000</v>
       </c>
       <c r="T15" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="U15" t="s">
         <v>48</v>
@@ -4124,20 +4215,21 @@
       <c r="V15" t="s">
         <v>48</v>
       </c>
-      <c r="W15" t="s">
-        <v>48</v>
-      </c>
-      <c r="X15" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>48</v>
+      <c r="W15">
+        <v>6</v>
+      </c>
+      <c r="X15">
+        <v>120000</v>
+      </c>
+      <c r="Y15">
+        <v>720000</v>
       </c>
       <c r="Z15" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA15" t="s">
-        <v>48</v>
+        <v>107</v>
+      </c>
+      <c r="AA15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="AB15" t="s">
         <v>48</v>
@@ -4202,10 +4294,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="C16" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="D16" t="s">
         <v>48</v>
@@ -4220,11 +4312,10 @@
         <v>672000</v>
       </c>
       <c r="H16" t="s">
-        <v>103</v>
-      </c>
-      <c r="I16" t="str">
-        <f t="shared" si="1"/>
-        <v>落花-谢南</v>
+        <v>110</v>
+      </c>
+      <c r="I16" t="s">
+        <v>109</v>
       </c>
       <c r="J16" t="s">
         <v>48</v>
@@ -4239,48 +4330,47 @@
         <v>665000</v>
       </c>
       <c r="N16" t="s">
-        <v>104</v>
-      </c>
-      <c r="O16" t="str">
+        <v>111</v>
+      </c>
+      <c r="O16" t="s">
+        <v>109</v>
+      </c>
+      <c r="P16" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>48</v>
+      </c>
+      <c r="R16" t="s">
+        <v>48</v>
+      </c>
+      <c r="S16" t="s">
+        <v>48</v>
+      </c>
+      <c r="T16" t="s">
+        <v>48</v>
+      </c>
+      <c r="U16" t="s">
+        <v>109</v>
+      </c>
+      <c r="V16" t="s">
+        <v>48</v>
+      </c>
+      <c r="W16" t="s">
+        <v>48</v>
+      </c>
+      <c r="X16" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA16" t="str">
         <f t="shared" si="0"/>
         <v>落花-谢南</v>
-      </c>
-      <c r="P16" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>48</v>
-      </c>
-      <c r="R16" t="s">
-        <v>48</v>
-      </c>
-      <c r="S16" t="s">
-        <v>48</v>
-      </c>
-      <c r="T16" t="s">
-        <v>48</v>
-      </c>
-      <c r="U16" t="str">
-        <f>IF(OR(S16="",S16&lt;680000),$C16,"")</f>
-        <v>落花-谢南</v>
-      </c>
-      <c r="V16" t="s">
-        <v>48</v>
-      </c>
-      <c r="W16" t="s">
-        <v>48</v>
-      </c>
-      <c r="X16" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z16" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA16" t="s">
-        <v>48</v>
       </c>
       <c r="AB16" t="s">
         <v>48</v>
@@ -4345,10 +4435,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="C17" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="D17" t="s">
         <v>48</v>
@@ -4363,11 +4453,10 @@
         <v>1000000</v>
       </c>
       <c r="H17" t="s">
-        <v>107</v>
-      </c>
-      <c r="I17" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <v>114</v>
+      </c>
+      <c r="I17" t="s">
+        <v>48</v>
       </c>
       <c r="J17" t="s">
         <v>48</v>
@@ -4382,48 +4471,47 @@
         <v>810000</v>
       </c>
       <c r="N17" t="s">
-        <v>108</v>
-      </c>
-      <c r="O17" t="str">
+        <v>115</v>
+      </c>
+      <c r="O17" t="s">
+        <v>48</v>
+      </c>
+      <c r="P17" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q17">
+        <v>5</v>
+      </c>
+      <c r="R17">
+        <v>136000</v>
+      </c>
+      <c r="S17">
+        <v>680000</v>
+      </c>
+      <c r="T17" t="s">
+        <v>116</v>
+      </c>
+      <c r="U17" t="s">
+        <v>48</v>
+      </c>
+      <c r="V17" t="s">
+        <v>48</v>
+      </c>
+      <c r="W17">
+        <v>5</v>
+      </c>
+      <c r="X17">
+        <v>138000</v>
+      </c>
+      <c r="Y17">
+        <v>690000</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA17" t="str">
         <f t="shared" si="0"/>
         <v/>
-      </c>
-      <c r="P17" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q17">
-        <v>5</v>
-      </c>
-      <c r="R17">
-        <v>136000</v>
-      </c>
-      <c r="S17">
-        <v>680000</v>
-      </c>
-      <c r="T17" t="s">
-        <v>109</v>
-      </c>
-      <c r="U17" t="str">
-        <f>IF(OR(S17="",S17&lt;680000),$C17,"")</f>
-        <v/>
-      </c>
-      <c r="V17" t="s">
-        <v>48</v>
-      </c>
-      <c r="W17" t="s">
-        <v>48</v>
-      </c>
-      <c r="X17" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z17" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA17" t="s">
-        <v>48</v>
       </c>
       <c r="AB17" t="s">
         <v>48</v>
@@ -4488,10 +4576,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="C18" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="D18" t="s">
         <v>48</v>
@@ -4506,11 +4594,10 @@
         <v>1170000</v>
       </c>
       <c r="H18" t="s">
-        <v>112</v>
-      </c>
-      <c r="I18" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <v>120</v>
+      </c>
+      <c r="I18" t="s">
+        <v>48</v>
       </c>
       <c r="J18" t="s">
         <v>48</v>
@@ -4525,11 +4612,10 @@
         <v>945000</v>
       </c>
       <c r="N18" t="s">
-        <v>113</v>
-      </c>
-      <c r="O18" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <v>121</v>
+      </c>
+      <c r="O18" t="s">
+        <v>48</v>
       </c>
       <c r="P18" t="s">
         <v>48</v>
@@ -4544,11 +4630,10 @@
         <v>1224000</v>
       </c>
       <c r="T18" t="s">
-        <v>114</v>
-      </c>
-      <c r="U18" t="str">
-        <f>IF(OR(S18="",S18&lt;680000),$C18,"")</f>
-        <v/>
+        <v>122</v>
+      </c>
+      <c r="U18" t="s">
+        <v>48</v>
       </c>
       <c r="V18" t="s">
         <v>48</v>
@@ -4565,8 +4650,9 @@
       <c r="Z18" t="s">
         <v>48</v>
       </c>
-      <c r="AA18" t="s">
-        <v>48</v>
+      <c r="AA18" t="str">
+        <f t="shared" si="0"/>
+        <v>落花.花祭夜.今天机密65w分哦</v>
       </c>
       <c r="AB18" t="s">
         <v>48</v>
@@ -4631,10 +4717,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="C19" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="D19" t="s">
         <v>48</v>
@@ -4649,11 +4735,10 @@
         <v>774000</v>
       </c>
       <c r="H19" t="s">
-        <v>117</v>
-      </c>
-      <c r="I19" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <v>125</v>
+      </c>
+      <c r="I19" t="s">
+        <v>48</v>
       </c>
       <c r="J19" t="s">
         <v>48</v>
@@ -4668,11 +4753,10 @@
         <v>672000</v>
       </c>
       <c r="N19" t="s">
-        <v>118</v>
-      </c>
-      <c r="O19" t="str">
-        <f t="shared" si="0"/>
-        <v>落花๑顾安白</v>
+        <v>126</v>
+      </c>
+      <c r="O19" t="s">
+        <v>124</v>
       </c>
       <c r="P19" t="s">
         <v>48</v>
@@ -4687,29 +4771,29 @@
         <v>678000</v>
       </c>
       <c r="T19" t="s">
-        <v>119</v>
-      </c>
-      <c r="U19" t="str">
-        <f>IF(OR(S19="",S19&lt;680000),$C19,"")</f>
-        <v>落花๑顾安白</v>
+        <v>127</v>
+      </c>
+      <c r="U19" t="s">
+        <v>124</v>
       </c>
       <c r="V19" t="s">
         <v>48</v>
       </c>
-      <c r="W19" t="s">
-        <v>48</v>
-      </c>
-      <c r="X19" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y19" t="s">
-        <v>48</v>
+      <c r="W19">
+        <v>6</v>
+      </c>
+      <c r="X19">
+        <v>114000</v>
+      </c>
+      <c r="Y19">
+        <v>684000</v>
       </c>
       <c r="Z19" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA19" t="s">
-        <v>48</v>
+        <v>128</v>
+      </c>
+      <c r="AA19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="AB19" t="s">
         <v>48</v>
@@ -4774,10 +4858,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="C20" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="D20" t="s">
         <v>48</v>
@@ -4792,11 +4876,10 @@
         <v>710000</v>
       </c>
       <c r="H20" t="s">
-        <v>122</v>
-      </c>
-      <c r="I20" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <v>131</v>
+      </c>
+      <c r="I20" t="s">
+        <v>48</v>
       </c>
       <c r="J20" t="s">
         <v>48</v>
@@ -4811,11 +4894,10 @@
         <v>720000</v>
       </c>
       <c r="N20" t="s">
-        <v>123</v>
-      </c>
-      <c r="O20" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <v>132</v>
+      </c>
+      <c r="O20" t="s">
+        <v>48</v>
       </c>
       <c r="P20" t="s">
         <v>48</v>
@@ -4830,7 +4912,7 @@
         <v>720000</v>
       </c>
       <c r="T20" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="U20" t="s">
         <v>48</v>
@@ -4850,8 +4932,9 @@
       <c r="Z20" t="s">
         <v>48</v>
       </c>
-      <c r="AA20" t="s">
-        <v>48</v>
+      <c r="AA20" t="str">
+        <f t="shared" si="0"/>
+        <v>落花-白茶</v>
       </c>
       <c r="AB20" t="s">
         <v>48</v>
@@ -4916,10 +4999,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="C21" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="D21" t="s">
         <v>48</v>
@@ -4934,11 +5017,10 @@
         <v>651000</v>
       </c>
       <c r="H21" t="s">
-        <v>127</v>
-      </c>
-      <c r="I21" t="str">
-        <f t="shared" si="1"/>
-        <v>落花 小虚</v>
+        <v>136</v>
+      </c>
+      <c r="I21" t="s">
+        <v>135</v>
       </c>
       <c r="J21" t="s">
         <v>48</v>
@@ -4953,48 +5035,47 @@
         <v>768000</v>
       </c>
       <c r="N21" t="s">
-        <v>128</v>
-      </c>
-      <c r="O21" t="str">
+        <v>137</v>
+      </c>
+      <c r="O21" t="s">
+        <v>48</v>
+      </c>
+      <c r="P21" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>48</v>
+      </c>
+      <c r="R21" t="s">
+        <v>48</v>
+      </c>
+      <c r="S21" t="s">
+        <v>48</v>
+      </c>
+      <c r="T21" t="s">
+        <v>48</v>
+      </c>
+      <c r="U21" t="s">
+        <v>135</v>
+      </c>
+      <c r="V21" t="s">
+        <v>48</v>
+      </c>
+      <c r="W21" t="s">
+        <v>48</v>
+      </c>
+      <c r="X21" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA21" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="P21" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>48</v>
-      </c>
-      <c r="R21" t="s">
-        <v>48</v>
-      </c>
-      <c r="S21" t="s">
-        <v>48</v>
-      </c>
-      <c r="T21" t="s">
-        <v>48</v>
-      </c>
-      <c r="U21" t="str">
-        <f>IF(OR(S21="",S21&lt;680000),$C21,"")</f>
         <v>落花 小虚</v>
-      </c>
-      <c r="V21" t="s">
-        <v>48</v>
-      </c>
-      <c r="W21" t="s">
-        <v>48</v>
-      </c>
-      <c r="X21" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y21" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z21" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA21" t="s">
-        <v>48</v>
       </c>
       <c r="AB21" t="s">
         <v>48</v>
@@ -5059,10 +5140,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="C22" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="D22" t="s">
         <v>48</v>
@@ -5077,11 +5158,10 @@
         <v>725000</v>
       </c>
       <c r="H22" t="s">
-        <v>131</v>
-      </c>
-      <c r="I22" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <v>140</v>
+      </c>
+      <c r="I22" t="s">
+        <v>48</v>
       </c>
       <c r="J22" t="s">
         <v>48</v>
@@ -5096,48 +5176,47 @@
         <v>700000</v>
       </c>
       <c r="N22" t="s">
-        <v>132</v>
-      </c>
-      <c r="O22" t="str">
+        <v>141</v>
+      </c>
+      <c r="O22" t="s">
+        <v>48</v>
+      </c>
+      <c r="P22" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q22">
+        <v>7</v>
+      </c>
+      <c r="R22">
+        <v>100000</v>
+      </c>
+      <c r="S22">
+        <v>700000</v>
+      </c>
+      <c r="T22" t="s">
+        <v>142</v>
+      </c>
+      <c r="U22" t="s">
+        <v>48</v>
+      </c>
+      <c r="V22" t="s">
+        <v>48</v>
+      </c>
+      <c r="W22">
+        <v>7</v>
+      </c>
+      <c r="X22">
+        <v>100000</v>
+      </c>
+      <c r="Y22">
+        <v>700000</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA22" t="str">
         <f t="shared" si="0"/>
         <v/>
-      </c>
-      <c r="P22" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q22">
-        <v>7</v>
-      </c>
-      <c r="R22">
-        <v>100000</v>
-      </c>
-      <c r="S22">
-        <v>700000</v>
-      </c>
-      <c r="T22" t="s">
-        <v>133</v>
-      </c>
-      <c r="U22" t="str">
-        <f>IF(OR(S22="",S22&lt;680000),$C22,"")</f>
-        <v/>
-      </c>
-      <c r="V22" t="s">
-        <v>48</v>
-      </c>
-      <c r="W22" t="s">
-        <v>48</v>
-      </c>
-      <c r="X22" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y22" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z22" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA22" t="s">
-        <v>48</v>
       </c>
       <c r="AB22" t="s">
         <v>48</v>
@@ -5202,10 +5281,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="C23" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="D23" t="s">
         <v>48</v>
@@ -5220,11 +5299,10 @@
         <v>640000</v>
       </c>
       <c r="H23" t="s">
-        <v>136</v>
-      </c>
-      <c r="I23" t="str">
-        <f t="shared" si="1"/>
-        <v>落花⭐Rai</v>
+        <v>146</v>
+      </c>
+      <c r="I23" t="s">
+        <v>145</v>
       </c>
       <c r="J23" t="s">
         <v>48</v>
@@ -5239,48 +5317,47 @@
         <v>679000</v>
       </c>
       <c r="N23" t="s">
-        <v>137</v>
-      </c>
-      <c r="O23" t="str">
+        <v>147</v>
+      </c>
+      <c r="O23" t="s">
+        <v>145</v>
+      </c>
+      <c r="P23" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q23">
+        <v>8</v>
+      </c>
+      <c r="R23">
+        <v>98000</v>
+      </c>
+      <c r="S23">
+        <v>784000</v>
+      </c>
+      <c r="T23" t="s">
+        <v>148</v>
+      </c>
+      <c r="U23" t="s">
+        <v>48</v>
+      </c>
+      <c r="V23" t="s">
+        <v>48</v>
+      </c>
+      <c r="W23" t="s">
+        <v>48</v>
+      </c>
+      <c r="X23" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA23" t="str">
         <f t="shared" si="0"/>
         <v>落花⭐Rai</v>
-      </c>
-      <c r="P23" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q23">
-        <v>8</v>
-      </c>
-      <c r="R23">
-        <v>98000</v>
-      </c>
-      <c r="S23">
-        <v>784000</v>
-      </c>
-      <c r="T23" t="s">
-        <v>138</v>
-      </c>
-      <c r="U23" t="str">
-        <f>IF(OR(S23="",S23&lt;680000),$C23,"")</f>
-        <v/>
-      </c>
-      <c r="V23" t="s">
-        <v>48</v>
-      </c>
-      <c r="W23" t="s">
-        <v>48</v>
-      </c>
-      <c r="X23" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y23" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z23" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA23" t="s">
-        <v>48</v>
       </c>
       <c r="AB23" t="s">
         <v>48</v>
@@ -5345,10 +5422,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="C24" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D24" t="s">
         <v>48</v>
@@ -5363,11 +5440,10 @@
         <v>672000</v>
       </c>
       <c r="H24" t="s">
-        <v>141</v>
-      </c>
-      <c r="I24" t="str">
-        <f t="shared" si="1"/>
-        <v>落花 可露丽</v>
+        <v>151</v>
+      </c>
+      <c r="I24" t="s">
+        <v>150</v>
       </c>
       <c r="J24" t="s">
         <v>48</v>
@@ -5382,11 +5458,10 @@
         <v>720000</v>
       </c>
       <c r="N24" t="s">
-        <v>142</v>
-      </c>
-      <c r="O24" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <v>152</v>
+      </c>
+      <c r="O24" t="s">
+        <v>48</v>
       </c>
       <c r="P24" t="s">
         <v>48</v>
@@ -5401,11 +5476,10 @@
         <v>756000</v>
       </c>
       <c r="T24" t="s">
-        <v>143</v>
-      </c>
-      <c r="U24" t="str">
-        <f>IF(OR(S24="",S24&lt;680000),$C24,"")</f>
-        <v/>
+        <v>153</v>
+      </c>
+      <c r="U24" t="s">
+        <v>48</v>
       </c>
       <c r="V24" t="s">
         <v>48</v>
@@ -5422,8 +5496,9 @@
       <c r="Z24" t="s">
         <v>48</v>
       </c>
-      <c r="AA24" t="s">
-        <v>48</v>
+      <c r="AA24" t="str">
+        <f t="shared" si="0"/>
+        <v>落花 可露丽</v>
       </c>
       <c r="AB24" t="s">
         <v>48</v>
@@ -5488,10 +5563,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="C25" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="D25" t="s">
         <v>48</v>
@@ -5506,11 +5581,10 @@
         <v>700000</v>
       </c>
       <c r="H25" t="s">
-        <v>146</v>
-      </c>
-      <c r="I25" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <v>156</v>
+      </c>
+      <c r="I25" t="s">
+        <v>48</v>
       </c>
       <c r="J25" t="s">
         <v>48</v>
@@ -5525,47 +5599,47 @@
         <v>684000</v>
       </c>
       <c r="N25" t="s">
-        <v>147</v>
-      </c>
-      <c r="O25" t="str">
+        <v>157</v>
+      </c>
+      <c r="O25" t="s">
+        <v>48</v>
+      </c>
+      <c r="P25" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q25">
+        <v>8</v>
+      </c>
+      <c r="R25">
+        <v>84000</v>
+      </c>
+      <c r="S25">
+        <v>672000</v>
+      </c>
+      <c r="T25" t="s">
+        <v>158</v>
+      </c>
+      <c r="U25" t="s">
+        <v>48</v>
+      </c>
+      <c r="V25" t="s">
+        <v>48</v>
+      </c>
+      <c r="W25">
+        <v>8</v>
+      </c>
+      <c r="X25">
+        <v>83000</v>
+      </c>
+      <c r="Y25">
+        <v>664000</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>159</v>
+      </c>
+      <c r="AA25" t="str">
         <f t="shared" si="0"/>
         <v/>
-      </c>
-      <c r="P25" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q25">
-        <v>8</v>
-      </c>
-      <c r="R25">
-        <v>84000</v>
-      </c>
-      <c r="S25">
-        <v>672000</v>
-      </c>
-      <c r="T25" t="s">
-        <v>148</v>
-      </c>
-      <c r="U25" t="s">
-        <v>48</v>
-      </c>
-      <c r="V25" t="s">
-        <v>48</v>
-      </c>
-      <c r="W25" t="s">
-        <v>48</v>
-      </c>
-      <c r="X25" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y25" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z25" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA25" t="s">
-        <v>48</v>
       </c>
       <c r="AB25" t="s">
         <v>48</v>
@@ -5630,10 +5704,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="C26" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="D26" t="s">
         <v>48</v>
@@ -5648,11 +5722,10 @@
         <v>800000</v>
       </c>
       <c r="H26" t="s">
-        <v>151</v>
-      </c>
-      <c r="I26" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <v>162</v>
+      </c>
+      <c r="I26" t="s">
+        <v>48</v>
       </c>
       <c r="J26" t="s">
         <v>48</v>
@@ -5667,47 +5740,47 @@
         <v>708000</v>
       </c>
       <c r="N26" t="s">
-        <v>152</v>
-      </c>
-      <c r="O26" t="str">
+        <v>163</v>
+      </c>
+      <c r="O26" t="s">
+        <v>48</v>
+      </c>
+      <c r="P26" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>48</v>
+      </c>
+      <c r="R26" t="s">
+        <v>48</v>
+      </c>
+      <c r="S26" t="s">
+        <v>48</v>
+      </c>
+      <c r="T26" t="s">
+        <v>48</v>
+      </c>
+      <c r="U26" t="s">
+        <v>48</v>
+      </c>
+      <c r="V26" t="s">
+        <v>48</v>
+      </c>
+      <c r="W26" t="s">
+        <v>48</v>
+      </c>
+      <c r="X26" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA26" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="P26" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>48</v>
-      </c>
-      <c r="R26" t="s">
-        <v>48</v>
-      </c>
-      <c r="S26" t="s">
-        <v>48</v>
-      </c>
-      <c r="T26" t="s">
-        <v>48</v>
-      </c>
-      <c r="U26" t="s">
-        <v>48</v>
-      </c>
-      <c r="V26" t="s">
-        <v>48</v>
-      </c>
-      <c r="W26" t="s">
-        <v>48</v>
-      </c>
-      <c r="X26" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y26" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z26" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA26" t="s">
-        <v>48</v>
+        <v>落花—陆阮阮</v>
       </c>
       <c r="AB26" t="s">
         <v>48</v>
@@ -5772,10 +5845,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="C27" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="D27" t="s">
         <v>48</v>
@@ -5790,11 +5863,10 @@
         <v>744000</v>
       </c>
       <c r="H27" t="s">
-        <v>155</v>
-      </c>
-      <c r="I27" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <v>166</v>
+      </c>
+      <c r="I27" t="s">
+        <v>48</v>
       </c>
       <c r="J27" t="s">
         <v>48</v>
@@ -5809,47 +5881,47 @@
         <v>768000</v>
       </c>
       <c r="N27" t="s">
-        <v>156</v>
-      </c>
-      <c r="O27" t="str">
+        <v>167</v>
+      </c>
+      <c r="O27" t="s">
+        <v>48</v>
+      </c>
+      <c r="P27" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>48</v>
+      </c>
+      <c r="R27" t="s">
+        <v>48</v>
+      </c>
+      <c r="S27" t="s">
+        <v>48</v>
+      </c>
+      <c r="T27" t="s">
+        <v>48</v>
+      </c>
+      <c r="U27" t="s">
+        <v>48</v>
+      </c>
+      <c r="V27" t="s">
+        <v>48</v>
+      </c>
+      <c r="W27" t="s">
+        <v>48</v>
+      </c>
+      <c r="X27" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA27" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="P27" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>48</v>
-      </c>
-      <c r="R27" t="s">
-        <v>48</v>
-      </c>
-      <c r="S27" t="s">
-        <v>48</v>
-      </c>
-      <c r="T27" t="s">
-        <v>48</v>
-      </c>
-      <c r="U27" t="s">
-        <v>48</v>
-      </c>
-      <c r="V27" t="s">
-        <v>48</v>
-      </c>
-      <c r="W27" t="s">
-        <v>48</v>
-      </c>
-      <c r="X27" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y27" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z27" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA27" t="s">
-        <v>48</v>
+        <v>落花，灰姐</v>
       </c>
       <c r="AB27" t="s">
         <v>48</v>
@@ -5914,10 +5986,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="C28" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="D28" t="s">
         <v>48</v>
@@ -5932,11 +6004,10 @@
         <v>670000</v>
       </c>
       <c r="H28" t="s">
-        <v>159</v>
-      </c>
-      <c r="I28" t="str">
-        <f t="shared" si="1"/>
-        <v>落花◈啾啾</v>
+        <v>170</v>
+      </c>
+      <c r="I28" t="s">
+        <v>169</v>
       </c>
       <c r="J28" t="s">
         <v>48</v>
@@ -5951,47 +6022,47 @@
         <v>680000</v>
       </c>
       <c r="N28" t="s">
-        <v>160</v>
-      </c>
-      <c r="O28" t="str">
+        <v>171</v>
+      </c>
+      <c r="O28" t="s">
+        <v>48</v>
+      </c>
+      <c r="P28" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>48</v>
+      </c>
+      <c r="R28" t="s">
+        <v>48</v>
+      </c>
+      <c r="S28" t="s">
+        <v>48</v>
+      </c>
+      <c r="T28" t="s">
+        <v>48</v>
+      </c>
+      <c r="U28" t="s">
+        <v>48</v>
+      </c>
+      <c r="V28" t="s">
+        <v>48</v>
+      </c>
+      <c r="W28">
+        <v>5</v>
+      </c>
+      <c r="X28">
+        <v>149000</v>
+      </c>
+      <c r="Y28">
+        <v>745000</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>172</v>
+      </c>
+      <c r="AA28" t="str">
         <f t="shared" si="0"/>
         <v/>
-      </c>
-      <c r="P28" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>48</v>
-      </c>
-      <c r="R28" t="s">
-        <v>48</v>
-      </c>
-      <c r="S28" t="s">
-        <v>48</v>
-      </c>
-      <c r="T28" t="s">
-        <v>48</v>
-      </c>
-      <c r="U28" t="s">
-        <v>48</v>
-      </c>
-      <c r="V28" t="s">
-        <v>48</v>
-      </c>
-      <c r="W28" t="s">
-        <v>48</v>
-      </c>
-      <c r="X28" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y28" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z28" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA28" t="s">
-        <v>48</v>
       </c>
       <c r="AB28" t="s">
         <v>48</v>
@@ -6056,10 +6127,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="C29" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="D29" t="s">
         <v>48</v>
@@ -6074,7 +6145,7 @@
         <v>730000</v>
       </c>
       <c r="H29" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="I29" t="s">
         <v>48</v>
@@ -6092,7 +6163,7 @@
         <v>750000</v>
       </c>
       <c r="N29" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="O29" t="s">
         <v>48</v>
@@ -6130,8 +6201,9 @@
       <c r="Z29" t="s">
         <v>48</v>
       </c>
-      <c r="AA29" t="s">
-        <v>48</v>
+      <c r="AA29" t="str">
+        <f t="shared" si="0"/>
+        <v>落花@藤原千花</v>
       </c>
       <c r="AB29" t="s">
         <v>48</v>
@@ -6196,10 +6268,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="C30" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="D30" t="s">
         <v>48</v>
@@ -6234,46 +6306,45 @@
       <c r="N30" t="s">
         <v>48</v>
       </c>
-      <c r="O30" t="str">
-        <f>IF(OR(M30="",M30&lt;680000),$C30,"")</f>
+      <c r="O30" t="s">
+        <v>178</v>
+      </c>
+      <c r="P30" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>48</v>
+      </c>
+      <c r="R30" t="s">
+        <v>48</v>
+      </c>
+      <c r="S30" t="s">
+        <v>48</v>
+      </c>
+      <c r="T30" t="s">
+        <v>48</v>
+      </c>
+      <c r="U30" t="s">
+        <v>178</v>
+      </c>
+      <c r="V30" t="s">
+        <v>48</v>
+      </c>
+      <c r="W30" t="s">
+        <v>48</v>
+      </c>
+      <c r="X30" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA30" t="str">
+        <f t="shared" si="0"/>
         <v>落花-瓷羽</v>
-      </c>
-      <c r="P30" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>48</v>
-      </c>
-      <c r="R30" t="s">
-        <v>48</v>
-      </c>
-      <c r="S30" t="s">
-        <v>48</v>
-      </c>
-      <c r="T30" t="s">
-        <v>48</v>
-      </c>
-      <c r="U30" t="str">
-        <f>IF(OR(S30="",S30&lt;680000),$C30,"")</f>
-        <v>落花-瓷羽</v>
-      </c>
-      <c r="V30" t="s">
-        <v>48</v>
-      </c>
-      <c r="W30" t="s">
-        <v>48</v>
-      </c>
-      <c r="X30" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y30" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z30" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA30" t="s">
-        <v>48</v>
       </c>
       <c r="AB30" t="s">
         <v>48</v>
@@ -6338,10 +6409,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="C31" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="D31" t="s">
         <v>48</v>
@@ -6358,9 +6429,8 @@
       <c r="H31" t="s">
         <v>48</v>
       </c>
-      <c r="I31" t="str">
-        <f>IF(OR(G31="",G31&lt;680000),$C31,"")</f>
-        <v>落花－白寄岚</v>
+      <c r="I31" t="s">
+        <v>180</v>
       </c>
       <c r="J31" t="s">
         <v>48</v>
@@ -6375,11 +6445,10 @@
         <v>990000</v>
       </c>
       <c r="N31" t="s">
-        <v>169</v>
-      </c>
-      <c r="O31" t="str">
-        <f>IF(OR(M31="",M31&lt;680000),$C31,"")</f>
-        <v/>
+        <v>181</v>
+      </c>
+      <c r="O31" t="s">
+        <v>48</v>
       </c>
       <c r="P31" t="s">
         <v>48</v>
@@ -6394,7 +6463,7 @@
         <v>770000</v>
       </c>
       <c r="T31" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="U31" t="s">
         <v>48</v>
@@ -6402,20 +6471,21 @@
       <c r="V31" t="s">
         <v>48</v>
       </c>
-      <c r="W31" t="s">
-        <v>48</v>
-      </c>
-      <c r="X31" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y31" t="s">
-        <v>48</v>
+      <c r="W31">
+        <v>9</v>
+      </c>
+      <c r="X31">
+        <v>115000</v>
+      </c>
+      <c r="Y31">
+        <v>1035000</v>
       </c>
       <c r="Z31" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA31" t="s">
-        <v>48</v>
+        <v>183</v>
+      </c>
+      <c r="AA31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="AB31" t="s">
         <v>48</v>
@@ -6480,10 +6550,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="C32" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="D32" t="s">
         <v>48</v>
@@ -6498,11 +6568,10 @@
         <v>700000</v>
       </c>
       <c r="H32" t="s">
-        <v>173</v>
-      </c>
-      <c r="I32" t="str">
-        <f>IF(OR(G32="",G32&lt;680000),$C32,"")</f>
-        <v/>
+        <v>186</v>
+      </c>
+      <c r="I32" t="s">
+        <v>48</v>
       </c>
       <c r="J32" t="s">
         <v>48</v>
@@ -6517,11 +6586,10 @@
         <v>700000</v>
       </c>
       <c r="N32" t="s">
-        <v>174</v>
-      </c>
-      <c r="O32" t="str">
-        <f>IF(OR(M32="",M32&lt;680000),$C32,"")</f>
-        <v/>
+        <v>187</v>
+      </c>
+      <c r="O32" t="s">
+        <v>48</v>
       </c>
       <c r="P32" t="s">
         <v>48</v>
@@ -6556,8 +6624,9 @@
       <c r="Z32" t="s">
         <v>48</v>
       </c>
-      <c r="AA32" t="s">
-        <v>48</v>
+      <c r="AA32" t="str">
+        <f t="shared" si="0"/>
+        <v>落花 阿幼</v>
       </c>
       <c r="AB32" t="s">
         <v>48</v>
@@ -6622,10 +6691,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="C33" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="D33" t="s">
         <v>48</v>
@@ -6640,7 +6709,7 @@
         <v>650000</v>
       </c>
       <c r="H33" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="I33" t="s">
         <v>48</v>
@@ -6658,7 +6727,7 @@
         <v>663000</v>
       </c>
       <c r="N33" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="O33" t="s">
         <v>48</v>
@@ -6684,20 +6753,21 @@
       <c r="V33" t="s">
         <v>48</v>
       </c>
-      <c r="W33" t="s">
-        <v>48</v>
-      </c>
-      <c r="X33" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y33" t="s">
-        <v>48</v>
+      <c r="W33">
+        <v>13</v>
+      </c>
+      <c r="X33">
+        <v>51000</v>
+      </c>
+      <c r="Y33">
+        <v>663000</v>
       </c>
       <c r="Z33" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA33" t="s">
-        <v>48</v>
+        <v>192</v>
+      </c>
+      <c r="AA33" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="AB33" t="s">
         <v>48</v>
@@ -6762,10 +6832,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="C34" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="D34" t="s">
         <v>48</v>
@@ -6824,20 +6894,21 @@
       <c r="V34" t="s">
         <v>48</v>
       </c>
-      <c r="W34" t="s">
-        <v>48</v>
-      </c>
-      <c r="X34" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y34" t="s">
-        <v>48</v>
+      <c r="W34">
+        <v>8</v>
+      </c>
+      <c r="X34">
+        <v>78000</v>
+      </c>
+      <c r="Y34">
+        <v>624000</v>
       </c>
       <c r="Z34" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA34" t="s">
-        <v>48</v>
+        <v>195</v>
+      </c>
+      <c r="AA34" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="AB34" t="s">
         <v>48</v>
@@ -6902,10 +6973,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="C35" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="D35" t="s">
         <v>48</v>
@@ -6922,64 +6993,63 @@
       <c r="H35" t="s">
         <v>48</v>
       </c>
-      <c r="I35" t="str">
-        <f>IF(OR(G35="",G35&lt;680000),$C35,"")</f>
+      <c r="I35" t="s">
+        <v>197</v>
+      </c>
+      <c r="J35" t="s">
+        <v>48</v>
+      </c>
+      <c r="K35" t="s">
+        <v>48</v>
+      </c>
+      <c r="L35" t="s">
+        <v>48</v>
+      </c>
+      <c r="M35" t="s">
+        <v>48</v>
+      </c>
+      <c r="N35" t="s">
+        <v>48</v>
+      </c>
+      <c r="O35" t="s">
+        <v>197</v>
+      </c>
+      <c r="P35" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>48</v>
+      </c>
+      <c r="R35" t="s">
+        <v>48</v>
+      </c>
+      <c r="S35" t="s">
+        <v>48</v>
+      </c>
+      <c r="T35" t="s">
+        <v>48</v>
+      </c>
+      <c r="U35" t="s">
+        <v>48</v>
+      </c>
+      <c r="V35" t="s">
+        <v>48</v>
+      </c>
+      <c r="W35" t="s">
+        <v>48</v>
+      </c>
+      <c r="X35" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA35" t="str">
+        <f t="shared" si="0"/>
         <v>落花-24k草莓小葵</v>
-      </c>
-      <c r="J35" t="s">
-        <v>48</v>
-      </c>
-      <c r="K35" t="s">
-        <v>48</v>
-      </c>
-      <c r="L35" t="s">
-        <v>48</v>
-      </c>
-      <c r="M35" t="s">
-        <v>48</v>
-      </c>
-      <c r="N35" t="s">
-        <v>48</v>
-      </c>
-      <c r="O35" t="str">
-        <f t="shared" ref="O35:O50" si="2">IF(OR(M35="",M35&lt;680000),$C35,"")</f>
-        <v>落花-24k草莓小葵</v>
-      </c>
-      <c r="P35" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>48</v>
-      </c>
-      <c r="R35" t="s">
-        <v>48</v>
-      </c>
-      <c r="S35" t="s">
-        <v>48</v>
-      </c>
-      <c r="T35" t="s">
-        <v>48</v>
-      </c>
-      <c r="U35" t="s">
-        <v>48</v>
-      </c>
-      <c r="V35" t="s">
-        <v>48</v>
-      </c>
-      <c r="W35" t="s">
-        <v>48</v>
-      </c>
-      <c r="X35" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y35" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z35" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA35" t="s">
-        <v>48</v>
       </c>
       <c r="AB35" t="s">
         <v>48</v>
@@ -7044,10 +7114,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="C36" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="D36" t="s">
         <v>48</v>
@@ -7062,11 +7132,10 @@
         <v>980000</v>
       </c>
       <c r="H36" t="s">
-        <v>185</v>
-      </c>
-      <c r="I36" t="str">
-        <f>IF(OR(G36="",G36&lt;680000),$C36,"")</f>
-        <v/>
+        <v>200</v>
+      </c>
+      <c r="I36" t="s">
+        <v>48</v>
       </c>
       <c r="J36" t="s">
         <v>48</v>
@@ -7081,47 +7150,47 @@
         <v>1152000</v>
       </c>
       <c r="N36" t="s">
-        <v>186</v>
-      </c>
-      <c r="O36" t="str">
-        <f t="shared" si="2"/>
+        <v>201</v>
+      </c>
+      <c r="O36" t="s">
+        <v>48</v>
+      </c>
+      <c r="P36" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>48</v>
+      </c>
+      <c r="R36" t="s">
+        <v>48</v>
+      </c>
+      <c r="S36" t="s">
+        <v>48</v>
+      </c>
+      <c r="T36" t="s">
+        <v>48</v>
+      </c>
+      <c r="U36" t="s">
+        <v>48</v>
+      </c>
+      <c r="V36" t="s">
+        <v>48</v>
+      </c>
+      <c r="W36">
+        <v>7</v>
+      </c>
+      <c r="X36">
+        <v>130000</v>
+      </c>
+      <c r="Y36">
+        <v>910000</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>202</v>
+      </c>
+      <c r="AA36" t="str">
+        <f t="shared" si="0"/>
         <v/>
-      </c>
-      <c r="P36" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q36" t="s">
-        <v>48</v>
-      </c>
-      <c r="R36" t="s">
-        <v>48</v>
-      </c>
-      <c r="S36" t="s">
-        <v>48</v>
-      </c>
-      <c r="T36" t="s">
-        <v>48</v>
-      </c>
-      <c r="U36" t="s">
-        <v>48</v>
-      </c>
-      <c r="V36" t="s">
-        <v>48</v>
-      </c>
-      <c r="W36" t="s">
-        <v>48</v>
-      </c>
-      <c r="X36" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y36" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z36" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA36" t="s">
-        <v>48</v>
       </c>
       <c r="AB36" t="s">
         <v>48</v>
@@ -7186,10 +7255,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="C37" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="D37" t="s">
         <v>48</v>
@@ -7204,7 +7273,7 @@
         <v>677874</v>
       </c>
       <c r="H37" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="I37" t="s">
         <v>48</v>
@@ -7222,47 +7291,47 @@
         <v>720000</v>
       </c>
       <c r="N37" t="s">
-        <v>190</v>
-      </c>
-      <c r="O37" t="str">
-        <f t="shared" si="2"/>
+        <v>206</v>
+      </c>
+      <c r="O37" t="s">
+        <v>48</v>
+      </c>
+      <c r="P37" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>48</v>
+      </c>
+      <c r="R37" t="s">
+        <v>48</v>
+      </c>
+      <c r="S37" t="s">
+        <v>48</v>
+      </c>
+      <c r="T37" t="s">
+        <v>48</v>
+      </c>
+      <c r="U37" t="s">
+        <v>48</v>
+      </c>
+      <c r="V37" t="s">
+        <v>48</v>
+      </c>
+      <c r="W37">
+        <v>6</v>
+      </c>
+      <c r="X37">
+        <v>118605</v>
+      </c>
+      <c r="Y37">
+        <v>711630</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>207</v>
+      </c>
+      <c r="AA37" t="str">
+        <f t="shared" si="0"/>
         <v/>
-      </c>
-      <c r="P37" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q37" t="s">
-        <v>48</v>
-      </c>
-      <c r="R37" t="s">
-        <v>48</v>
-      </c>
-      <c r="S37" t="s">
-        <v>48</v>
-      </c>
-      <c r="T37" t="s">
-        <v>48</v>
-      </c>
-      <c r="U37" t="s">
-        <v>48</v>
-      </c>
-      <c r="V37" t="s">
-        <v>48</v>
-      </c>
-      <c r="W37" t="s">
-        <v>48</v>
-      </c>
-      <c r="X37" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y37" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z37" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA37" t="s">
-        <v>48</v>
       </c>
       <c r="AB37" t="s">
         <v>48</v>
@@ -7327,10 +7396,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="C38" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="D38" t="s">
         <v>48</v>
@@ -7347,9 +7416,8 @@
       <c r="H38" t="s">
         <v>48</v>
       </c>
-      <c r="I38" t="str">
-        <f>IF(OR(G38="",G38&lt;680000),$C38,"")</f>
-        <v>落花 苏其凉</v>
+      <c r="I38" t="s">
+        <v>209</v>
       </c>
       <c r="J38" t="s">
         <v>48</v>
@@ -7364,11 +7432,10 @@
         <v>747000</v>
       </c>
       <c r="N38" t="s">
-        <v>193</v>
-      </c>
-      <c r="O38" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <v>210</v>
+      </c>
+      <c r="O38" t="s">
+        <v>48</v>
       </c>
       <c r="P38" t="s">
         <v>48</v>
@@ -7403,8 +7470,9 @@
       <c r="Z38" t="s">
         <v>48</v>
       </c>
-      <c r="AA38" t="s">
-        <v>48</v>
+      <c r="AA38" t="str">
+        <f t="shared" si="0"/>
+        <v>落花 苏其凉</v>
       </c>
       <c r="AB38" t="s">
         <v>48</v>
@@ -7469,10 +7537,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="C39" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="D39" t="s">
         <v>48</v>
@@ -7487,11 +7555,10 @@
         <v>700000</v>
       </c>
       <c r="H39" t="s">
-        <v>196</v>
-      </c>
-      <c r="I39" t="str">
-        <f>IF(OR(G39="",G39&lt;680000),$C39,"")</f>
-        <v/>
+        <v>213</v>
+      </c>
+      <c r="I39" t="s">
+        <v>48</v>
       </c>
       <c r="J39" t="s">
         <v>48</v>
@@ -7506,48 +7573,47 @@
         <v>750000</v>
       </c>
       <c r="N39" t="s">
-        <v>197</v>
-      </c>
-      <c r="O39" t="str">
-        <f t="shared" si="2"/>
+        <v>214</v>
+      </c>
+      <c r="O39" t="s">
+        <v>48</v>
+      </c>
+      <c r="P39" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>48</v>
+      </c>
+      <c r="R39" t="s">
+        <v>48</v>
+      </c>
+      <c r="S39" t="s">
+        <v>48</v>
+      </c>
+      <c r="T39" t="s">
+        <v>48</v>
+      </c>
+      <c r="U39" t="s">
+        <v>212</v>
+      </c>
+      <c r="V39" t="s">
+        <v>48</v>
+      </c>
+      <c r="W39">
+        <v>15</v>
+      </c>
+      <c r="X39">
+        <v>70000</v>
+      </c>
+      <c r="Y39">
+        <v>1050000</v>
+      </c>
+      <c r="Z39" t="s">
+        <v>215</v>
+      </c>
+      <c r="AA39" t="str">
+        <f t="shared" si="0"/>
         <v/>
-      </c>
-      <c r="P39" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q39" t="s">
-        <v>48</v>
-      </c>
-      <c r="R39" t="s">
-        <v>48</v>
-      </c>
-      <c r="S39" t="s">
-        <v>48</v>
-      </c>
-      <c r="T39" t="s">
-        <v>48</v>
-      </c>
-      <c r="U39" t="str">
-        <f>IF(OR(S39="",S39&lt;680000),$C39,"")</f>
-        <v>落花 奶味汐月</v>
-      </c>
-      <c r="V39" t="s">
-        <v>48</v>
-      </c>
-      <c r="W39" t="s">
-        <v>48</v>
-      </c>
-      <c r="X39" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y39" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z39" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA39" t="s">
-        <v>48</v>
       </c>
       <c r="AB39" t="s">
         <v>48</v>
@@ -7612,10 +7678,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
       <c r="C40" t="s">
-        <v>199</v>
+        <v>217</v>
       </c>
       <c r="D40" t="s">
         <v>48</v>
@@ -7630,11 +7696,10 @@
         <v>688000</v>
       </c>
       <c r="H40" t="s">
-        <v>200</v>
-      </c>
-      <c r="I40" t="str">
-        <f>IF(OR(G40="",G40&lt;680000),$C40,"")</f>
-        <v/>
+        <v>218</v>
+      </c>
+      <c r="I40" t="s">
+        <v>48</v>
       </c>
       <c r="J40" t="s">
         <v>48</v>
@@ -7649,11 +7714,10 @@
         <v>696000</v>
       </c>
       <c r="N40" t="s">
-        <v>201</v>
-      </c>
-      <c r="O40" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <v>219</v>
+      </c>
+      <c r="O40" t="s">
+        <v>48</v>
       </c>
       <c r="P40" t="s">
         <v>48</v>
@@ -7668,7 +7732,7 @@
         <v>720000</v>
       </c>
       <c r="T40" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="U40" t="s">
         <v>48</v>
@@ -7688,8 +7752,9 @@
       <c r="Z40" t="s">
         <v>48</v>
       </c>
-      <c r="AA40" t="s">
-        <v>48</v>
+      <c r="AA40" t="str">
+        <f t="shared" si="0"/>
+        <v>落花 早纪畈枝</v>
       </c>
       <c r="AB40" t="s">
         <v>48</v>
@@ -7754,10 +7819,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="C41" t="s">
-        <v>204</v>
+        <v>222</v>
       </c>
       <c r="D41" t="s">
         <v>48</v>
@@ -7772,11 +7837,10 @@
         <v>840000</v>
       </c>
       <c r="H41" t="s">
-        <v>205</v>
-      </c>
-      <c r="I41" t="str">
-        <f>IF(OR(G41="",G41&lt;680000),$C41,"")</f>
-        <v/>
+        <v>223</v>
+      </c>
+      <c r="I41" t="s">
+        <v>48</v>
       </c>
       <c r="J41" t="s">
         <v>48</v>
@@ -7791,47 +7855,47 @@
         <v>860000</v>
       </c>
       <c r="N41" t="s">
-        <v>206</v>
-      </c>
-      <c r="O41" t="str">
-        <f t="shared" si="2"/>
+        <v>224</v>
+      </c>
+      <c r="O41" t="s">
+        <v>48</v>
+      </c>
+      <c r="P41" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>48</v>
+      </c>
+      <c r="R41" t="s">
+        <v>48</v>
+      </c>
+      <c r="S41" t="s">
+        <v>48</v>
+      </c>
+      <c r="T41" t="s">
+        <v>48</v>
+      </c>
+      <c r="U41" t="s">
+        <v>48</v>
+      </c>
+      <c r="V41" t="s">
+        <v>48</v>
+      </c>
+      <c r="W41">
+        <v>10</v>
+      </c>
+      <c r="X41">
+        <v>85000</v>
+      </c>
+      <c r="Y41">
+        <v>850000</v>
+      </c>
+      <c r="Z41" t="s">
+        <v>225</v>
+      </c>
+      <c r="AA41" t="str">
+        <f t="shared" si="0"/>
         <v/>
-      </c>
-      <c r="P41" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q41" t="s">
-        <v>48</v>
-      </c>
-      <c r="R41" t="s">
-        <v>48</v>
-      </c>
-      <c r="S41" t="s">
-        <v>48</v>
-      </c>
-      <c r="T41" t="s">
-        <v>48</v>
-      </c>
-      <c r="U41" t="s">
-        <v>48</v>
-      </c>
-      <c r="V41" t="s">
-        <v>48</v>
-      </c>
-      <c r="W41" t="s">
-        <v>48</v>
-      </c>
-      <c r="X41" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y41" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z41" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA41" t="s">
-        <v>48</v>
       </c>
       <c r="AB41" t="s">
         <v>48</v>
@@ -7896,10 +7960,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="C42" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="D42" t="s">
         <v>48</v>
@@ -7914,7 +7978,7 @@
         <v>650000</v>
       </c>
       <c r="H42" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="I42" t="s">
         <v>48</v>
@@ -7932,47 +7996,47 @@
         <v>660000</v>
       </c>
       <c r="N42" t="s">
-        <v>210</v>
-      </c>
-      <c r="O42" t="str">
-        <f t="shared" si="2"/>
+        <v>229</v>
+      </c>
+      <c r="O42" t="s">
+        <v>227</v>
+      </c>
+      <c r="P42" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>48</v>
+      </c>
+      <c r="R42" t="s">
+        <v>48</v>
+      </c>
+      <c r="S42" t="s">
+        <v>48</v>
+      </c>
+      <c r="T42" t="s">
+        <v>48</v>
+      </c>
+      <c r="U42" t="s">
+        <v>48</v>
+      </c>
+      <c r="V42" t="s">
+        <v>48</v>
+      </c>
+      <c r="W42" t="s">
+        <v>48</v>
+      </c>
+      <c r="X42" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z42" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA42" t="str">
+        <f t="shared" si="0"/>
         <v>落花-天淼</v>
-      </c>
-      <c r="P42" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q42" t="s">
-        <v>48</v>
-      </c>
-      <c r="R42" t="s">
-        <v>48</v>
-      </c>
-      <c r="S42" t="s">
-        <v>48</v>
-      </c>
-      <c r="T42" t="s">
-        <v>48</v>
-      </c>
-      <c r="U42" t="s">
-        <v>48</v>
-      </c>
-      <c r="V42" t="s">
-        <v>48</v>
-      </c>
-      <c r="W42" t="s">
-        <v>48</v>
-      </c>
-      <c r="X42" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y42" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z42" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA42" t="s">
-        <v>48</v>
       </c>
       <c r="AB42" t="s">
         <v>48</v>
@@ -8037,10 +8101,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>211</v>
+        <v>230</v>
       </c>
       <c r="C43" t="s">
-        <v>212</v>
+        <v>231</v>
       </c>
       <c r="D43" t="s">
         <v>48</v>
@@ -8057,9 +8121,8 @@
       <c r="H43" t="s">
         <v>48</v>
       </c>
-      <c r="I43" t="str">
-        <f t="shared" ref="I43:I50" si="3">IF(OR(G43="",G43&lt;680000),$C43,"")</f>
-        <v>落花      魚漁。</v>
+      <c r="I43" t="s">
+        <v>231</v>
       </c>
       <c r="J43" t="s">
         <v>48</v>
@@ -8074,11 +8137,10 @@
         <v>736000</v>
       </c>
       <c r="N43" t="s">
-        <v>213</v>
-      </c>
-      <c r="O43" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <v>232</v>
+      </c>
+      <c r="O43" t="s">
+        <v>48</v>
       </c>
       <c r="P43" t="s">
         <v>48</v>
@@ -8095,27 +8157,27 @@
       <c r="T43" t="s">
         <v>48</v>
       </c>
-      <c r="U43" t="str">
-        <f>IF(OR(S43="",S43&lt;680000),$C43,"")</f>
+      <c r="U43" t="s">
+        <v>231</v>
+      </c>
+      <c r="V43" t="s">
+        <v>48</v>
+      </c>
+      <c r="W43" t="s">
+        <v>48</v>
+      </c>
+      <c r="X43" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z43" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA43" t="str">
+        <f t="shared" si="0"/>
         <v>落花      魚漁。</v>
-      </c>
-      <c r="V43" t="s">
-        <v>48</v>
-      </c>
-      <c r="W43" t="s">
-        <v>48</v>
-      </c>
-      <c r="X43" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y43" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z43" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA43" t="s">
-        <v>48</v>
       </c>
       <c r="AB43" t="s">
         <v>48</v>
@@ -8180,10 +8242,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="C44" t="s">
-        <v>215</v>
+        <v>234</v>
       </c>
       <c r="D44" t="s">
         <v>48</v>
@@ -8198,11 +8260,10 @@
         <v>636000</v>
       </c>
       <c r="H44" t="s">
-        <v>216</v>
-      </c>
-      <c r="I44" t="str">
-        <f t="shared" si="3"/>
-        <v>落花  赖皮蛇</v>
+        <v>235</v>
+      </c>
+      <c r="I44" t="s">
+        <v>234</v>
       </c>
       <c r="J44" t="s">
         <v>48</v>
@@ -8217,11 +8278,10 @@
         <v>684000</v>
       </c>
       <c r="N44" t="s">
-        <v>217</v>
-      </c>
-      <c r="O44" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <v>236</v>
+      </c>
+      <c r="O44" t="s">
+        <v>48</v>
       </c>
       <c r="P44" t="s">
         <v>48</v>
@@ -8236,29 +8296,29 @@
         <v>696000</v>
       </c>
       <c r="T44" t="s">
-        <v>218</v>
-      </c>
-      <c r="U44" t="str">
-        <f>IF(OR(S44="",S44&lt;680000),$C44,"")</f>
+        <v>237</v>
+      </c>
+      <c r="U44" t="s">
+        <v>48</v>
+      </c>
+      <c r="V44" t="s">
+        <v>48</v>
+      </c>
+      <c r="W44">
+        <v>6</v>
+      </c>
+      <c r="X44">
+        <v>113000</v>
+      </c>
+      <c r="Y44">
+        <v>678000</v>
+      </c>
+      <c r="Z44" t="s">
+        <v>238</v>
+      </c>
+      <c r="AA44" t="str">
+        <f t="shared" si="0"/>
         <v/>
-      </c>
-      <c r="V44" t="s">
-        <v>48</v>
-      </c>
-      <c r="W44" t="s">
-        <v>48</v>
-      </c>
-      <c r="X44" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y44" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z44" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA44" t="s">
-        <v>48</v>
       </c>
       <c r="AB44" t="s">
         <v>48</v>
@@ -8323,10 +8383,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>219</v>
+        <v>239</v>
       </c>
       <c r="C45" t="s">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="D45" t="s">
         <v>48</v>
@@ -8341,11 +8401,10 @@
         <v>730000</v>
       </c>
       <c r="H45" t="s">
-        <v>221</v>
-      </c>
-      <c r="I45" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+        <v>241</v>
+      </c>
+      <c r="I45" t="s">
+        <v>48</v>
       </c>
       <c r="J45" t="s">
         <v>48</v>
@@ -8360,11 +8419,10 @@
         <v>708000</v>
       </c>
       <c r="N45" t="s">
-        <v>222</v>
-      </c>
-      <c r="O45" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <v>242</v>
+      </c>
+      <c r="O45" t="s">
+        <v>48</v>
       </c>
       <c r="P45" t="s">
         <v>48</v>
@@ -8379,11 +8437,10 @@
         <v>750000</v>
       </c>
       <c r="T45" t="s">
-        <v>223</v>
-      </c>
-      <c r="U45" t="str">
-        <f>IF(OR(S45="",S45&lt;680000),$C45,"")</f>
-        <v/>
+        <v>243</v>
+      </c>
+      <c r="U45" t="s">
+        <v>48</v>
       </c>
       <c r="V45" t="s">
         <v>48</v>
@@ -8400,8 +8457,9 @@
       <c r="Z45" t="s">
         <v>48</v>
       </c>
-      <c r="AA45" t="s">
-        <v>48</v>
+      <c r="AA45" t="str">
+        <f t="shared" si="0"/>
+        <v>落花ෆ总攻大人</v>
       </c>
       <c r="AB45" t="s">
         <v>48</v>
@@ -8466,10 +8524,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>224</v>
+        <v>244</v>
       </c>
       <c r="C46" t="s">
-        <v>225</v>
+        <v>245</v>
       </c>
       <c r="D46" t="s">
         <v>48</v>
@@ -8484,11 +8542,10 @@
         <v>730000</v>
       </c>
       <c r="H46" t="s">
-        <v>226</v>
-      </c>
-      <c r="I46" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+        <v>246</v>
+      </c>
+      <c r="I46" t="s">
+        <v>48</v>
       </c>
       <c r="J46" t="s">
         <v>48</v>
@@ -8503,11 +8560,10 @@
         <v>825000</v>
       </c>
       <c r="N46" t="s">
-        <v>227</v>
-      </c>
-      <c r="O46" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <v>247</v>
+      </c>
+      <c r="O46" t="s">
+        <v>48</v>
       </c>
       <c r="P46" t="s">
         <v>48</v>
@@ -8522,29 +8578,29 @@
         <v>815000</v>
       </c>
       <c r="T46" t="s">
-        <v>228</v>
-      </c>
-      <c r="U46" t="str">
-        <f>IF(OR(S46="",S46&lt;680000),$C46,"")</f>
+        <v>248</v>
+      </c>
+      <c r="U46" t="s">
+        <v>48</v>
+      </c>
+      <c r="V46" t="s">
+        <v>48</v>
+      </c>
+      <c r="W46">
+        <v>5</v>
+      </c>
+      <c r="X46">
+        <v>162000</v>
+      </c>
+      <c r="Y46">
+        <v>810000</v>
+      </c>
+      <c r="Z46" t="s">
+        <v>249</v>
+      </c>
+      <c r="AA46" t="str">
+        <f t="shared" ref="AA46:AA71" si="1">IF(Y46="",C46,"")</f>
         <v/>
-      </c>
-      <c r="V46" t="s">
-        <v>48</v>
-      </c>
-      <c r="W46" t="s">
-        <v>48</v>
-      </c>
-      <c r="X46" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y46" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z46" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA46" t="s">
-        <v>48</v>
       </c>
       <c r="AB46" t="s">
         <v>48</v>
@@ -8609,10 +8665,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>229</v>
+        <v>250</v>
       </c>
       <c r="C47" t="s">
-        <v>230</v>
+        <v>251</v>
       </c>
       <c r="D47" t="s">
         <v>48</v>
@@ -8627,11 +8683,10 @@
         <v>780000</v>
       </c>
       <c r="H47" t="s">
-        <v>231</v>
-      </c>
-      <c r="I47" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+        <v>252</v>
+      </c>
+      <c r="I47" t="s">
+        <v>48</v>
       </c>
       <c r="J47" t="s">
         <v>48</v>
@@ -8646,11 +8701,10 @@
         <v>690000</v>
       </c>
       <c r="N47" t="s">
-        <v>232</v>
-      </c>
-      <c r="O47" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <v>253</v>
+      </c>
+      <c r="O47" t="s">
+        <v>48</v>
       </c>
       <c r="P47" t="s">
         <v>48</v>
@@ -8665,7 +8719,7 @@
         <v>720000</v>
       </c>
       <c r="T47" t="s">
-        <v>233</v>
+        <v>254</v>
       </c>
       <c r="U47" t="s">
         <v>48</v>
@@ -8673,20 +8727,21 @@
       <c r="V47" t="s">
         <v>48</v>
       </c>
-      <c r="W47" t="s">
-        <v>48</v>
-      </c>
-      <c r="X47" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y47" t="s">
-        <v>48</v>
+      <c r="W47">
+        <v>6</v>
+      </c>
+      <c r="X47">
+        <v>122000</v>
+      </c>
+      <c r="Y47">
+        <v>732000</v>
       </c>
       <c r="Z47" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA47" t="s">
-        <v>48</v>
+        <v>255</v>
+      </c>
+      <c r="AA47" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="AB47" t="s">
         <v>48</v>
@@ -8751,10 +8806,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>234</v>
+        <v>256</v>
       </c>
       <c r="C48" t="s">
-        <v>235</v>
+        <v>257</v>
       </c>
       <c r="D48" t="s">
         <v>48</v>
@@ -8769,11 +8824,10 @@
         <v>656000</v>
       </c>
       <c r="H48" t="s">
-        <v>236</v>
-      </c>
-      <c r="I48" t="str">
-        <f t="shared" si="3"/>
-        <v>落花兰摧玉折</v>
+        <v>258</v>
+      </c>
+      <c r="I48" t="s">
+        <v>257</v>
       </c>
       <c r="J48" t="s">
         <v>48</v>
@@ -8788,48 +8842,47 @@
         <v>720000</v>
       </c>
       <c r="N48" t="s">
-        <v>237</v>
-      </c>
-      <c r="O48" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <v>259</v>
+      </c>
+      <c r="O48" t="s">
+        <v>48</v>
       </c>
       <c r="P48" t="s">
         <v>48</v>
       </c>
-      <c r="Q48" t="s">
-        <v>48</v>
-      </c>
-      <c r="R48" t="s">
-        <v>48</v>
-      </c>
-      <c r="S48" t="s">
-        <v>48</v>
+      <c r="Q48">
+        <v>8</v>
+      </c>
+      <c r="R48">
+        <v>95000</v>
+      </c>
+      <c r="S48">
+        <v>760000</v>
       </c>
       <c r="T48" t="s">
-        <v>48</v>
-      </c>
-      <c r="U48" t="str">
-        <f>IF(OR(S48="",S48&lt;680000),$C48,"")</f>
+        <v>260</v>
+      </c>
+      <c r="U48" t="s">
+        <v>257</v>
+      </c>
+      <c r="V48" t="s">
+        <v>48</v>
+      </c>
+      <c r="W48" t="s">
+        <v>48</v>
+      </c>
+      <c r="X48" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z48" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA48" t="str">
+        <f t="shared" si="1"/>
         <v>落花兰摧玉折</v>
-      </c>
-      <c r="V48" t="s">
-        <v>48</v>
-      </c>
-      <c r="W48" t="s">
-        <v>48</v>
-      </c>
-      <c r="X48" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y48" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z48" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA48" t="s">
-        <v>48</v>
       </c>
       <c r="AB48" t="s">
         <v>48</v>
@@ -8894,10 +8947,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>238</v>
+        <v>261</v>
       </c>
       <c r="C49" t="s">
-        <v>239</v>
+        <v>262</v>
       </c>
       <c r="D49" t="s">
         <v>48</v>
@@ -8912,11 +8965,10 @@
         <v>730000</v>
       </c>
       <c r="H49" t="s">
-        <v>240</v>
-      </c>
-      <c r="I49" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+        <v>263</v>
+      </c>
+      <c r="I49" t="s">
+        <v>48</v>
       </c>
       <c r="J49" t="s">
         <v>48</v>
@@ -8931,11 +8983,10 @@
         <v>650000</v>
       </c>
       <c r="N49" t="s">
-        <v>241</v>
-      </c>
-      <c r="O49" t="str">
-        <f t="shared" si="2"/>
-        <v>落花꒳红茶喵喵喵（联盟答题月入百万）</v>
+        <v>264</v>
+      </c>
+      <c r="O49" t="s">
+        <v>262</v>
       </c>
       <c r="P49" t="s">
         <v>48</v>
@@ -8950,29 +9001,29 @@
         <v>700000</v>
       </c>
       <c r="T49" t="s">
-        <v>242</v>
-      </c>
-      <c r="U49" t="str">
-        <f>IF(OR(S49="",S49&lt;680000),$C49,"")</f>
+        <v>265</v>
+      </c>
+      <c r="U49" t="s">
+        <v>48</v>
+      </c>
+      <c r="V49" t="s">
+        <v>48</v>
+      </c>
+      <c r="W49">
+        <v>5</v>
+      </c>
+      <c r="X49">
+        <v>140000</v>
+      </c>
+      <c r="Y49">
+        <v>700000</v>
+      </c>
+      <c r="Z49" t="s">
+        <v>266</v>
+      </c>
+      <c r="AA49" t="str">
+        <f t="shared" si="1"/>
         <v/>
-      </c>
-      <c r="V49" t="s">
-        <v>48</v>
-      </c>
-      <c r="W49" t="s">
-        <v>48</v>
-      </c>
-      <c r="X49" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y49" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z49" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA49" t="s">
-        <v>48</v>
       </c>
       <c r="AB49" t="s">
         <v>48</v>
@@ -9037,10 +9088,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>243</v>
+        <v>267</v>
       </c>
       <c r="C50" t="s">
-        <v>244</v>
+        <v>268</v>
       </c>
       <c r="D50" t="s">
         <v>48</v>
@@ -9055,11 +9106,10 @@
         <v>660000</v>
       </c>
       <c r="H50" t="s">
-        <v>245</v>
-      </c>
-      <c r="I50" t="str">
-        <f t="shared" si="3"/>
-        <v>落花～～心城</v>
+        <v>269</v>
+      </c>
+      <c r="I50" t="s">
+        <v>268</v>
       </c>
       <c r="J50" t="s">
         <v>48</v>
@@ -9074,11 +9124,10 @@
         <v>658000</v>
       </c>
       <c r="N50" t="s">
-        <v>246</v>
-      </c>
-      <c r="O50" t="str">
-        <f t="shared" si="2"/>
-        <v>落花～～心城</v>
+        <v>270</v>
+      </c>
+      <c r="O50" t="s">
+        <v>268</v>
       </c>
       <c r="P50" t="s">
         <v>48</v>
@@ -9093,7 +9142,7 @@
         <v>693000</v>
       </c>
       <c r="T50" t="s">
-        <v>247</v>
+        <v>271</v>
       </c>
       <c r="U50" t="s">
         <v>48</v>
@@ -9101,20 +9150,21 @@
       <c r="V50" t="s">
         <v>48</v>
       </c>
-      <c r="W50" t="s">
-        <v>48</v>
-      </c>
-      <c r="X50" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y50" t="s">
-        <v>48</v>
+      <c r="W50">
+        <v>8</v>
+      </c>
+      <c r="X50">
+        <v>95000</v>
+      </c>
+      <c r="Y50">
+        <v>760000</v>
       </c>
       <c r="Z50" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA50" t="s">
-        <v>48</v>
+        <v>272</v>
+      </c>
+      <c r="AA50" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="AB50" t="s">
         <v>48</v>
@@ -9179,10 +9229,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>248</v>
+        <v>273</v>
       </c>
       <c r="C51" t="s">
-        <v>249</v>
+        <v>274</v>
       </c>
       <c r="D51" t="s">
         <v>48</v>
@@ -9197,7 +9247,7 @@
         <v>696000</v>
       </c>
       <c r="H51" t="s">
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="I51" t="s">
         <v>48</v>
@@ -9215,7 +9265,7 @@
         <v>696000</v>
       </c>
       <c r="N51" t="s">
-        <v>251</v>
+        <v>276</v>
       </c>
       <c r="O51" t="s">
         <v>48</v>
@@ -9241,20 +9291,21 @@
       <c r="V51" t="s">
         <v>48</v>
       </c>
-      <c r="W51" t="s">
-        <v>48</v>
-      </c>
-      <c r="X51" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y51" t="s">
-        <v>48</v>
+      <c r="W51">
+        <v>12</v>
+      </c>
+      <c r="X51">
+        <v>59000</v>
+      </c>
+      <c r="Y51">
+        <v>708000</v>
       </c>
       <c r="Z51" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA51" t="s">
-        <v>48</v>
+        <v>277</v>
+      </c>
+      <c r="AA51" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="AB51" t="s">
         <v>48</v>
@@ -9319,10 +9370,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>252</v>
+        <v>278</v>
       </c>
       <c r="C52" t="s">
-        <v>253</v>
+        <v>279</v>
       </c>
       <c r="D52" t="s">
         <v>48</v>
@@ -9339,9 +9390,8 @@
       <c r="H52" t="s">
         <v>48</v>
       </c>
-      <c r="I52" t="str">
-        <f>IF(OR(G52="",G52&lt;680000),$C52,"")</f>
-        <v/>
+      <c r="I52" t="s">
+        <v>48</v>
       </c>
       <c r="J52" t="s">
         <v>48</v>
@@ -9358,45 +9408,45 @@
       <c r="N52" t="s">
         <v>48</v>
       </c>
-      <c r="O52" t="str">
-        <f>IF(OR(M52="",M52&lt;680000),$C52,"")</f>
+      <c r="O52" t="s">
+        <v>279</v>
+      </c>
+      <c r="P52" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>48</v>
+      </c>
+      <c r="R52" t="s">
+        <v>48</v>
+      </c>
+      <c r="S52" t="s">
+        <v>48</v>
+      </c>
+      <c r="T52" t="s">
+        <v>48</v>
+      </c>
+      <c r="U52" t="s">
+        <v>48</v>
+      </c>
+      <c r="V52" t="s">
+        <v>48</v>
+      </c>
+      <c r="W52" t="s">
+        <v>48</v>
+      </c>
+      <c r="X52" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z52" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA52" t="str">
+        <f t="shared" si="1"/>
         <v>落花" 苏久久</v>
-      </c>
-      <c r="P52" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q52" t="s">
-        <v>48</v>
-      </c>
-      <c r="R52" t="s">
-        <v>48</v>
-      </c>
-      <c r="S52" t="s">
-        <v>48</v>
-      </c>
-      <c r="T52" t="s">
-        <v>48</v>
-      </c>
-      <c r="U52" t="s">
-        <v>48</v>
-      </c>
-      <c r="V52" t="s">
-        <v>48</v>
-      </c>
-      <c r="W52" t="s">
-        <v>48</v>
-      </c>
-      <c r="X52" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y52" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z52" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA52" t="s">
-        <v>48</v>
       </c>
       <c r="AB52" t="s">
         <v>48</v>
@@ -9461,10 +9511,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>254</v>
+        <v>280</v>
       </c>
       <c r="C53" t="s">
-        <v>255</v>
+        <v>281</v>
       </c>
       <c r="D53" t="s">
         <v>48</v>
@@ -9479,11 +9529,10 @@
         <v>828933</v>
       </c>
       <c r="H53" t="s">
-        <v>256</v>
-      </c>
-      <c r="I53" t="str">
-        <f>IF(OR(G53="",G53&lt;680000),$C53,"")</f>
-        <v/>
+        <v>282</v>
+      </c>
+      <c r="I53" t="s">
+        <v>48</v>
       </c>
       <c r="J53" t="s">
         <v>48</v>
@@ -9498,11 +9547,10 @@
         <v>677880</v>
       </c>
       <c r="N53" t="s">
-        <v>257</v>
-      </c>
-      <c r="O53" t="str">
-        <f>IF(OR(M53="",M53&lt;680000),$C53,"")</f>
-        <v>落花，初【我是群里的打机提醒小助手】</v>
+        <v>283</v>
+      </c>
+      <c r="O53" t="s">
+        <v>281</v>
       </c>
       <c r="P53" t="s">
         <v>48</v>
@@ -9519,27 +9567,27 @@
       <c r="T53" t="s">
         <v>48</v>
       </c>
-      <c r="U53" t="str">
-        <f>IF(OR(S53="",S53&lt;680000),$C53,"")</f>
-        <v>落花，初【我是群里的打机提醒小助手】</v>
+      <c r="U53" t="s">
+        <v>281</v>
       </c>
       <c r="V53" t="s">
         <v>48</v>
       </c>
-      <c r="W53" t="s">
-        <v>48</v>
-      </c>
-      <c r="X53" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y53" t="s">
-        <v>48</v>
+      <c r="W53">
+        <v>8</v>
+      </c>
+      <c r="X53">
+        <v>86000</v>
+      </c>
+      <c r="Y53">
+        <v>688000</v>
       </c>
       <c r="Z53" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA53" t="s">
-        <v>48</v>
+        <v>284</v>
+      </c>
+      <c r="AA53" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="AB53" t="s">
         <v>48</v>
@@ -9604,10 +9652,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>258</v>
+        <v>285</v>
       </c>
       <c r="C54" t="s">
-        <v>259</v>
+        <v>286</v>
       </c>
       <c r="D54" t="s">
         <v>48</v>
@@ -9622,7 +9670,7 @@
         <v>660000</v>
       </c>
       <c r="H54" t="s">
-        <v>260</v>
+        <v>287</v>
       </c>
       <c r="I54" t="s">
         <v>48</v>
@@ -9640,11 +9688,10 @@
         <v>840000</v>
       </c>
       <c r="N54" t="s">
-        <v>261</v>
-      </c>
-      <c r="O54" t="str">
-        <f>IF(OR(M54="",M54&lt;680000),$C54,"")</f>
-        <v/>
+        <v>288</v>
+      </c>
+      <c r="O54" t="s">
+        <v>48</v>
       </c>
       <c r="P54" t="s">
         <v>48</v>
@@ -9659,29 +9706,29 @@
         <v>720000</v>
       </c>
       <c r="T54" t="s">
-        <v>262</v>
-      </c>
-      <c r="U54" t="str">
-        <f>IF(OR(S54="",S54&lt;680000),$C54,"")</f>
+        <v>289</v>
+      </c>
+      <c r="U54" t="s">
+        <v>48</v>
+      </c>
+      <c r="V54" t="s">
+        <v>48</v>
+      </c>
+      <c r="W54">
+        <v>5</v>
+      </c>
+      <c r="X54">
+        <v>140000</v>
+      </c>
+      <c r="Y54">
+        <v>700000</v>
+      </c>
+      <c r="Z54" t="s">
+        <v>290</v>
+      </c>
+      <c r="AA54" t="str">
+        <f t="shared" si="1"/>
         <v/>
-      </c>
-      <c r="V54" t="s">
-        <v>48</v>
-      </c>
-      <c r="W54" t="s">
-        <v>48</v>
-      </c>
-      <c r="X54" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y54" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z54" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA54" t="s">
-        <v>48</v>
       </c>
       <c r="AB54" t="s">
         <v>48</v>
@@ -9746,10 +9793,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>263</v>
+        <v>291</v>
       </c>
       <c r="C55" t="s">
-        <v>264</v>
+        <v>292</v>
       </c>
       <c r="D55" t="s">
         <v>48</v>
@@ -9766,9 +9813,8 @@
       <c r="H55" t="s">
         <v>48</v>
       </c>
-      <c r="I55" t="str">
-        <f>IF(OR(G55="",G55&lt;680000),$C55,"")</f>
-        <v>落花 樱井</v>
+      <c r="I55" t="s">
+        <v>292</v>
       </c>
       <c r="J55" t="s">
         <v>48</v>
@@ -9783,11 +9829,10 @@
         <v>700000</v>
       </c>
       <c r="N55" t="s">
-        <v>265</v>
-      </c>
-      <c r="O55" t="str">
-        <f>IF(OR(M55="",M55&lt;680000),$C55,"")</f>
-        <v/>
+        <v>293</v>
+      </c>
+      <c r="O55" t="s">
+        <v>48</v>
       </c>
       <c r="P55" t="s">
         <v>48</v>
@@ -9802,29 +9847,29 @@
         <v>688000</v>
       </c>
       <c r="T55" t="s">
-        <v>53</v>
-      </c>
-      <c r="U55" t="str">
-        <f>IF(OR(S55="",S55&lt;680000),$C55,"")</f>
+        <v>294</v>
+      </c>
+      <c r="U55" t="s">
+        <v>48</v>
+      </c>
+      <c r="V55" t="s">
+        <v>48</v>
+      </c>
+      <c r="W55">
+        <v>8</v>
+      </c>
+      <c r="X55">
+        <v>87000</v>
+      </c>
+      <c r="Y55">
+        <v>696000</v>
+      </c>
+      <c r="Z55" t="s">
+        <v>295</v>
+      </c>
+      <c r="AA55" t="str">
+        <f t="shared" si="1"/>
         <v/>
-      </c>
-      <c r="V55" t="s">
-        <v>48</v>
-      </c>
-      <c r="W55" t="s">
-        <v>48</v>
-      </c>
-      <c r="X55" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y55" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z55" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA55" t="s">
-        <v>48</v>
       </c>
       <c r="AB55" t="s">
         <v>48</v>
@@ -9889,10 +9934,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>266</v>
+        <v>296</v>
       </c>
       <c r="C56" t="s">
-        <v>267</v>
+        <v>297</v>
       </c>
       <c r="D56" t="s">
         <v>48</v>
@@ -9907,7 +9952,7 @@
         <v>720000</v>
       </c>
       <c r="H56" t="s">
-        <v>268</v>
+        <v>298</v>
       </c>
       <c r="I56" t="s">
         <v>48</v>
@@ -9925,7 +9970,7 @@
         <v>721000</v>
       </c>
       <c r="N56" t="s">
-        <v>269</v>
+        <v>299</v>
       </c>
       <c r="O56" t="s">
         <v>48</v>
@@ -9943,7 +9988,7 @@
         <v>735000</v>
       </c>
       <c r="T56" t="s">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="U56" t="s">
         <v>48</v>
@@ -9951,20 +9996,21 @@
       <c r="V56" t="s">
         <v>48</v>
       </c>
-      <c r="W56" t="s">
-        <v>48</v>
-      </c>
-      <c r="X56" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y56" t="s">
-        <v>48</v>
+      <c r="W56">
+        <v>7</v>
+      </c>
+      <c r="X56">
+        <v>106000</v>
+      </c>
+      <c r="Y56">
+        <v>742000</v>
       </c>
       <c r="Z56" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA56" t="s">
-        <v>48</v>
+        <v>301</v>
+      </c>
+      <c r="AA56" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="AB56" t="s">
         <v>48</v>
@@ -10029,10 +10075,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>271</v>
+        <v>302</v>
       </c>
       <c r="C57" t="s">
-        <v>272</v>
+        <v>303</v>
       </c>
       <c r="D57" t="s">
         <v>48</v>
@@ -10049,64 +10095,63 @@
       <c r="H57" t="s">
         <v>48</v>
       </c>
-      <c r="I57" t="str">
-        <f t="shared" ref="I57:I69" si="4">IF(OR(G57="",G57&lt;680000),$C57,"")</f>
+      <c r="I57" t="s">
+        <v>303</v>
+      </c>
+      <c r="J57" t="s">
+        <v>48</v>
+      </c>
+      <c r="K57" t="s">
+        <v>304</v>
+      </c>
+      <c r="L57" t="s">
+        <v>48</v>
+      </c>
+      <c r="M57" t="s">
+        <v>48</v>
+      </c>
+      <c r="N57" t="s">
+        <v>48</v>
+      </c>
+      <c r="O57" t="s">
+        <v>303</v>
+      </c>
+      <c r="P57" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>48</v>
+      </c>
+      <c r="R57" t="s">
+        <v>48</v>
+      </c>
+      <c r="S57" t="s">
+        <v>48</v>
+      </c>
+      <c r="T57" t="s">
+        <v>48</v>
+      </c>
+      <c r="U57" t="s">
+        <v>48</v>
+      </c>
+      <c r="V57" t="s">
+        <v>48</v>
+      </c>
+      <c r="W57" t="s">
+        <v>48</v>
+      </c>
+      <c r="X57" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z57" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA57" t="str">
+        <f t="shared" si="1"/>
         <v>落花：翎羽</v>
-      </c>
-      <c r="J57" t="s">
-        <v>48</v>
-      </c>
-      <c r="K57" t="s">
-        <v>273</v>
-      </c>
-      <c r="L57" t="s">
-        <v>48</v>
-      </c>
-      <c r="M57" t="s">
-        <v>48</v>
-      </c>
-      <c r="N57" t="s">
-        <v>48</v>
-      </c>
-      <c r="O57" t="str">
-        <f t="shared" ref="O57:O70" si="5">IF(OR(M57="",M57&lt;680000),$C57,"")</f>
-        <v>落花：翎羽</v>
-      </c>
-      <c r="P57" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q57" t="s">
-        <v>48</v>
-      </c>
-      <c r="R57" t="s">
-        <v>48</v>
-      </c>
-      <c r="S57" t="s">
-        <v>48</v>
-      </c>
-      <c r="T57" t="s">
-        <v>48</v>
-      </c>
-      <c r="U57" t="s">
-        <v>48</v>
-      </c>
-      <c r="V57" t="s">
-        <v>48</v>
-      </c>
-      <c r="W57" t="s">
-        <v>48</v>
-      </c>
-      <c r="X57" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y57" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z57" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA57" t="s">
-        <v>48</v>
       </c>
       <c r="AB57" t="s">
         <v>48</v>
@@ -10171,10 +10216,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>274</v>
+        <v>305</v>
       </c>
       <c r="C58" t="s">
-        <v>275</v>
+        <v>306</v>
       </c>
       <c r="D58" t="s">
         <v>48</v>
@@ -10189,11 +10234,10 @@
         <v>690000</v>
       </c>
       <c r="H58" t="s">
-        <v>276</v>
-      </c>
-      <c r="I58" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <v>307</v>
+      </c>
+      <c r="I58" t="s">
+        <v>48</v>
       </c>
       <c r="J58" t="s">
         <v>48</v>
@@ -10208,11 +10252,10 @@
         <v>700000</v>
       </c>
       <c r="N58" t="s">
-        <v>277</v>
-      </c>
-      <c r="O58" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+        <v>308</v>
+      </c>
+      <c r="O58" t="s">
+        <v>48</v>
       </c>
       <c r="P58" t="s">
         <v>48</v>
@@ -10247,8 +10290,9 @@
       <c r="Z58" t="s">
         <v>48</v>
       </c>
-      <c r="AA58" t="s">
-        <v>48</v>
+      <c r="AA58" t="str">
+        <f t="shared" si="1"/>
+        <v>落花-凛喵</v>
       </c>
       <c r="AB58" t="s">
         <v>48</v>
@@ -10313,10 +10357,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>278</v>
+        <v>309</v>
       </c>
       <c r="C59" t="s">
-        <v>279</v>
+        <v>310</v>
       </c>
       <c r="D59" t="s">
         <v>48</v>
@@ -10331,11 +10375,10 @@
         <v>696246</v>
       </c>
       <c r="H59" t="s">
-        <v>280</v>
-      </c>
-      <c r="I59" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <v>311</v>
+      </c>
+      <c r="I59" t="s">
+        <v>48</v>
       </c>
       <c r="J59" t="s">
         <v>48</v>
@@ -10350,11 +10393,10 @@
         <v>738096</v>
       </c>
       <c r="N59" t="s">
-        <v>281</v>
-      </c>
-      <c r="O59" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+        <v>312</v>
+      </c>
+      <c r="O59" t="s">
+        <v>48</v>
       </c>
       <c r="P59" t="s">
         <v>48</v>
@@ -10371,27 +10413,27 @@
       <c r="T59" t="s">
         <v>48</v>
       </c>
-      <c r="U59" t="str">
-        <f>IF(OR(S59="",S59&lt;680000),$C59,"")</f>
+      <c r="U59" t="s">
+        <v>310</v>
+      </c>
+      <c r="V59" t="s">
+        <v>48</v>
+      </c>
+      <c r="W59" t="s">
+        <v>48</v>
+      </c>
+      <c r="X59" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z59" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA59" t="str">
+        <f t="shared" si="1"/>
         <v>落花 青青子衿</v>
-      </c>
-      <c r="V59" t="s">
-        <v>48</v>
-      </c>
-      <c r="W59" t="s">
-        <v>48</v>
-      </c>
-      <c r="X59" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y59" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z59" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA59" t="s">
-        <v>48</v>
       </c>
       <c r="AB59" t="s">
         <v>48</v>
@@ -10456,10 +10498,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>282</v>
+        <v>313</v>
       </c>
       <c r="C60" t="s">
-        <v>283</v>
+        <v>314</v>
       </c>
       <c r="D60" t="s">
         <v>48</v>
@@ -10474,11 +10516,10 @@
         <v>672000</v>
       </c>
       <c r="H60" t="s">
-        <v>284</v>
-      </c>
-      <c r="I60" t="str">
-        <f t="shared" si="4"/>
-        <v>落花ʚ阿喵王子他父王ɞ</v>
+        <v>315</v>
+      </c>
+      <c r="I60" t="s">
+        <v>314</v>
       </c>
       <c r="J60" t="s">
         <v>48</v>
@@ -10493,11 +10534,10 @@
         <v>684000</v>
       </c>
       <c r="N60" t="s">
-        <v>285</v>
-      </c>
-      <c r="O60" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+        <v>316</v>
+      </c>
+      <c r="O60" t="s">
+        <v>48</v>
       </c>
       <c r="P60" t="s">
         <v>48</v>
@@ -10512,7 +10552,7 @@
         <v>756000</v>
       </c>
       <c r="T60" t="s">
-        <v>286</v>
+        <v>317</v>
       </c>
       <c r="U60" t="s">
         <v>48</v>
@@ -10532,8 +10572,9 @@
       <c r="Z60" t="s">
         <v>48</v>
       </c>
-      <c r="AA60" t="s">
-        <v>48</v>
+      <c r="AA60" t="str">
+        <f t="shared" si="1"/>
+        <v>落花ʚ阿喵王子他父王ɞ</v>
       </c>
       <c r="AB60" t="s">
         <v>48</v>
@@ -10598,10 +10639,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>287</v>
+        <v>318</v>
       </c>
       <c r="C61" t="s">
-        <v>288</v>
+        <v>319</v>
       </c>
       <c r="D61" t="s">
         <v>48</v>
@@ -10616,11 +10657,10 @@
         <v>700000</v>
       </c>
       <c r="H61" t="s">
-        <v>289</v>
-      </c>
-      <c r="I61" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <v>320</v>
+      </c>
+      <c r="I61" t="s">
+        <v>48</v>
       </c>
       <c r="J61" t="s">
         <v>48</v>
@@ -10635,48 +10675,47 @@
         <v>700000</v>
       </c>
       <c r="N61" t="s">
-        <v>290</v>
-      </c>
-      <c r="O61" t="str">
-        <f t="shared" si="5"/>
+        <v>321</v>
+      </c>
+      <c r="O61" t="s">
+        <v>48</v>
+      </c>
+      <c r="P61" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>48</v>
+      </c>
+      <c r="R61" t="s">
+        <v>48</v>
+      </c>
+      <c r="S61" t="s">
+        <v>48</v>
+      </c>
+      <c r="T61" t="s">
+        <v>48</v>
+      </c>
+      <c r="U61" t="s">
+        <v>319</v>
+      </c>
+      <c r="V61" t="s">
+        <v>48</v>
+      </c>
+      <c r="W61">
+        <v>7</v>
+      </c>
+      <c r="X61">
+        <v>110000</v>
+      </c>
+      <c r="Y61">
+        <v>770000</v>
+      </c>
+      <c r="Z61" t="s">
+        <v>322</v>
+      </c>
+      <c r="AA61" t="str">
+        <f t="shared" si="1"/>
         <v/>
-      </c>
-      <c r="P61" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q61" t="s">
-        <v>48</v>
-      </c>
-      <c r="R61" t="s">
-        <v>48</v>
-      </c>
-      <c r="S61" t="s">
-        <v>48</v>
-      </c>
-      <c r="T61" t="s">
-        <v>48</v>
-      </c>
-      <c r="U61" t="str">
-        <f>IF(OR(S61="",S61&lt;680000),$C61,"")</f>
-        <v>落花 柚歆</v>
-      </c>
-      <c r="V61" t="s">
-        <v>48</v>
-      </c>
-      <c r="W61" t="s">
-        <v>48</v>
-      </c>
-      <c r="X61" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y61" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z61" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA61" t="s">
-        <v>48</v>
       </c>
       <c r="AB61" t="s">
         <v>48</v>
@@ -10741,10 +10780,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>291</v>
+        <v>323</v>
       </c>
       <c r="C62" t="s">
-        <v>292</v>
+        <v>324</v>
       </c>
       <c r="D62" t="s">
         <v>48</v>
@@ -10759,11 +10798,10 @@
         <v>1000000</v>
       </c>
       <c r="H62" t="s">
-        <v>293</v>
-      </c>
-      <c r="I62" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <v>325</v>
+      </c>
+      <c r="I62" t="s">
+        <v>48</v>
       </c>
       <c r="J62" t="s">
         <v>48</v>
@@ -10778,11 +10816,10 @@
         <v>740000</v>
       </c>
       <c r="N62" t="s">
-        <v>294</v>
-      </c>
-      <c r="O62" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+        <v>326</v>
+      </c>
+      <c r="O62" t="s">
+        <v>48</v>
       </c>
       <c r="P62" t="s">
         <v>48</v>
@@ -10797,29 +10834,29 @@
         <v>770000</v>
       </c>
       <c r="T62" t="s">
-        <v>295</v>
-      </c>
-      <c r="U62" t="str">
-        <f>IF(OR(S62="",S62&lt;680000),$C62,"")</f>
+        <v>327</v>
+      </c>
+      <c r="U62" t="s">
+        <v>48</v>
+      </c>
+      <c r="V62" t="s">
+        <v>48</v>
+      </c>
+      <c r="W62">
+        <v>5</v>
+      </c>
+      <c r="X62">
+        <v>159000</v>
+      </c>
+      <c r="Y62">
+        <v>795000</v>
+      </c>
+      <c r="Z62" t="s">
+        <v>328</v>
+      </c>
+      <c r="AA62" t="str">
+        <f t="shared" si="1"/>
         <v/>
-      </c>
-      <c r="V62" t="s">
-        <v>48</v>
-      </c>
-      <c r="W62" t="s">
-        <v>48</v>
-      </c>
-      <c r="X62" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y62" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z62" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA62" t="s">
-        <v>48</v>
       </c>
       <c r="AB62" t="s">
         <v>48</v>
@@ -10884,10 +10921,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>296</v>
+        <v>329</v>
       </c>
       <c r="C63" t="s">
-        <v>297</v>
+        <v>330</v>
       </c>
       <c r="D63" t="s">
         <v>48</v>
@@ -10902,11 +10939,10 @@
         <v>704000</v>
       </c>
       <c r="H63" t="s">
-        <v>298</v>
-      </c>
-      <c r="I63" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <v>331</v>
+      </c>
+      <c r="I63" t="s">
+        <v>48</v>
       </c>
       <c r="J63" t="s">
         <v>48</v>
@@ -10921,11 +10957,10 @@
         <v>728000</v>
       </c>
       <c r="N63" t="s">
-        <v>299</v>
-      </c>
-      <c r="O63" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+        <v>332</v>
+      </c>
+      <c r="O63" t="s">
+        <v>48</v>
       </c>
       <c r="P63" t="s">
         <v>48</v>
@@ -10940,7 +10975,7 @@
         <v>736000</v>
       </c>
       <c r="T63" t="s">
-        <v>300</v>
+        <v>333</v>
       </c>
       <c r="U63" t="s">
         <v>48</v>
@@ -10948,20 +10983,21 @@
       <c r="V63" t="s">
         <v>48</v>
       </c>
-      <c r="W63" t="s">
-        <v>48</v>
-      </c>
-      <c r="X63" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y63" t="s">
-        <v>48</v>
+      <c r="W63">
+        <v>8</v>
+      </c>
+      <c r="X63">
+        <v>94000</v>
+      </c>
+      <c r="Y63">
+        <v>752000</v>
       </c>
       <c r="Z63" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA63" t="s">
-        <v>48</v>
+        <v>334</v>
+      </c>
+      <c r="AA63" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="AB63" t="s">
         <v>48</v>
@@ -11026,10 +11062,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>301</v>
+        <v>335</v>
       </c>
       <c r="C64" t="s">
-        <v>302</v>
+        <v>336</v>
       </c>
       <c r="D64" t="s">
         <v>48</v>
@@ -11044,11 +11080,10 @@
         <v>693000</v>
       </c>
       <c r="H64" t="s">
-        <v>303</v>
-      </c>
-      <c r="I64" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <v>337</v>
+      </c>
+      <c r="I64" t="s">
+        <v>48</v>
       </c>
       <c r="J64" t="s">
         <v>48</v>
@@ -11063,11 +11098,10 @@
         <v>735000</v>
       </c>
       <c r="N64" t="s">
-        <v>304</v>
-      </c>
-      <c r="O64" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+        <v>338</v>
+      </c>
+      <c r="O64" t="s">
+        <v>48</v>
       </c>
       <c r="P64" t="s">
         <v>48</v>
@@ -11102,8 +11136,9 @@
       <c r="Z64" t="s">
         <v>48</v>
       </c>
-      <c r="AA64" t="s">
-        <v>48</v>
+      <c r="AA64" t="str">
+        <f t="shared" si="1"/>
+        <v>落花  啾啾哧哧</v>
       </c>
       <c r="AB64" t="s">
         <v>48</v>
@@ -11168,10 +11203,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>305</v>
+        <v>339</v>
       </c>
       <c r="C65" t="s">
-        <v>306</v>
+        <v>340</v>
       </c>
       <c r="D65" t="s">
         <v>48</v>
@@ -11186,11 +11221,10 @@
         <v>814175</v>
       </c>
       <c r="H65" t="s">
-        <v>307</v>
-      </c>
-      <c r="I65" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <v>341</v>
+      </c>
+      <c r="I65" t="s">
+        <v>48</v>
       </c>
       <c r="J65" t="s">
         <v>48</v>
@@ -11205,48 +11239,47 @@
         <v>650820</v>
       </c>
       <c r="N65" t="s">
-        <v>308</v>
-      </c>
-      <c r="O65" t="str">
-        <f t="shared" si="5"/>
+        <v>342</v>
+      </c>
+      <c r="O65" t="s">
+        <v>340</v>
+      </c>
+      <c r="P65" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>48</v>
+      </c>
+      <c r="R65" t="s">
+        <v>48</v>
+      </c>
+      <c r="S65" t="s">
+        <v>48</v>
+      </c>
+      <c r="T65" t="s">
+        <v>48</v>
+      </c>
+      <c r="U65" t="s">
+        <v>340</v>
+      </c>
+      <c r="V65" t="s">
+        <v>48</v>
+      </c>
+      <c r="W65" t="s">
+        <v>48</v>
+      </c>
+      <c r="X65" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z65" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA65" t="str">
+        <f t="shared" si="1"/>
         <v>落花.燃犀犀</v>
-      </c>
-      <c r="P65" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q65" t="s">
-        <v>48</v>
-      </c>
-      <c r="R65" t="s">
-        <v>48</v>
-      </c>
-      <c r="S65" t="s">
-        <v>48</v>
-      </c>
-      <c r="T65" t="s">
-        <v>48</v>
-      </c>
-      <c r="U65" t="str">
-        <f t="shared" ref="U65:U70" si="6">IF(OR(S65="",S65&lt;680000),$C65,"")</f>
-        <v>落花.燃犀犀</v>
-      </c>
-      <c r="V65" t="s">
-        <v>48</v>
-      </c>
-      <c r="W65" t="s">
-        <v>48</v>
-      </c>
-      <c r="X65" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y65" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z65" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA65" t="s">
-        <v>48</v>
       </c>
       <c r="AB65" t="s">
         <v>48</v>
@@ -11311,10 +11344,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>309</v>
+        <v>343</v>
       </c>
       <c r="C66" t="s">
-        <v>310</v>
+        <v>344</v>
       </c>
       <c r="D66" t="s">
         <v>48</v>
@@ -11329,11 +11362,10 @@
         <v>805000</v>
       </c>
       <c r="H66" t="s">
-        <v>311</v>
-      </c>
-      <c r="I66" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <v>345</v>
+      </c>
+      <c r="I66" t="s">
+        <v>48</v>
       </c>
       <c r="J66" t="s">
         <v>48</v>
@@ -11348,11 +11380,10 @@
         <v>840000</v>
       </c>
       <c r="N66" t="s">
-        <v>312</v>
-      </c>
-      <c r="O66" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+        <v>346</v>
+      </c>
+      <c r="O66" t="s">
+        <v>48</v>
       </c>
       <c r="P66" t="s">
         <v>48</v>
@@ -11367,29 +11398,29 @@
         <v>845000</v>
       </c>
       <c r="T66" t="s">
-        <v>313</v>
-      </c>
-      <c r="U66" t="str">
-        <f t="shared" si="6"/>
+        <v>347</v>
+      </c>
+      <c r="U66" t="s">
+        <v>48</v>
+      </c>
+      <c r="V66" t="s">
+        <v>48</v>
+      </c>
+      <c r="W66">
+        <v>5</v>
+      </c>
+      <c r="X66">
+        <v>171000</v>
+      </c>
+      <c r="Y66">
+        <v>855000</v>
+      </c>
+      <c r="Z66" t="s">
+        <v>348</v>
+      </c>
+      <c r="AA66" t="str">
+        <f t="shared" si="1"/>
         <v/>
-      </c>
-      <c r="V66" t="s">
-        <v>48</v>
-      </c>
-      <c r="W66" t="s">
-        <v>48</v>
-      </c>
-      <c r="X66" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y66" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z66" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA66" t="s">
-        <v>48</v>
       </c>
       <c r="AB66" t="s">
         <v>48</v>
@@ -11454,10 +11485,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>314</v>
+        <v>349</v>
       </c>
       <c r="C67" t="s">
-        <v>315</v>
+        <v>350</v>
       </c>
       <c r="D67" t="s">
         <v>48</v>
@@ -11472,11 +11503,10 @@
         <v>850000</v>
       </c>
       <c r="H67" t="s">
-        <v>316</v>
-      </c>
-      <c r="I67" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <v>351</v>
+      </c>
+      <c r="I67" t="s">
+        <v>48</v>
       </c>
       <c r="J67" t="s">
         <v>48</v>
@@ -11491,11 +11521,10 @@
         <v>868000</v>
       </c>
       <c r="N67" t="s">
-        <v>317</v>
-      </c>
-      <c r="O67" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+        <v>352</v>
+      </c>
+      <c r="O67" t="s">
+        <v>48</v>
       </c>
       <c r="P67" t="s">
         <v>48</v>
@@ -11510,29 +11539,29 @@
         <v>889000</v>
       </c>
       <c r="T67" t="s">
-        <v>318</v>
-      </c>
-      <c r="U67" t="str">
-        <f t="shared" si="6"/>
+        <v>353</v>
+      </c>
+      <c r="U67" t="s">
+        <v>48</v>
+      </c>
+      <c r="V67" t="s">
+        <v>48</v>
+      </c>
+      <c r="W67">
+        <v>7</v>
+      </c>
+      <c r="X67">
+        <v>130000</v>
+      </c>
+      <c r="Y67">
+        <v>910000</v>
+      </c>
+      <c r="Z67" t="s">
+        <v>354</v>
+      </c>
+      <c r="AA67" t="str">
+        <f t="shared" si="1"/>
         <v/>
-      </c>
-      <c r="V67" t="s">
-        <v>48</v>
-      </c>
-      <c r="W67" t="s">
-        <v>48</v>
-      </c>
-      <c r="X67" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y67" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z67" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA67" t="s">
-        <v>48</v>
       </c>
       <c r="AB67" t="s">
         <v>48</v>
@@ -11597,10 +11626,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>319</v>
+        <v>355</v>
       </c>
       <c r="C68" t="s">
-        <v>320</v>
+        <v>356</v>
       </c>
       <c r="D68" t="s">
         <v>48</v>
@@ -11615,11 +11644,10 @@
         <v>1000000</v>
       </c>
       <c r="H68" t="s">
-        <v>321</v>
-      </c>
-      <c r="I68" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <v>357</v>
+      </c>
+      <c r="I68" t="s">
+        <v>48</v>
       </c>
       <c r="J68" t="s">
         <v>48</v>
@@ -11634,11 +11662,10 @@
         <v>695000</v>
       </c>
       <c r="N68" t="s">
-        <v>322</v>
-      </c>
-      <c r="O68" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+        <v>358</v>
+      </c>
+      <c r="O68" t="s">
+        <v>48</v>
       </c>
       <c r="P68" t="s">
         <v>48</v>
@@ -11653,29 +11680,29 @@
         <v>705000</v>
       </c>
       <c r="T68" t="s">
-        <v>323</v>
-      </c>
-      <c r="U68" t="str">
-        <f t="shared" si="6"/>
+        <v>359</v>
+      </c>
+      <c r="U68" t="s">
+        <v>48</v>
+      </c>
+      <c r="V68" t="s">
+        <v>48</v>
+      </c>
+      <c r="W68">
+        <v>5</v>
+      </c>
+      <c r="X68">
+        <v>141000</v>
+      </c>
+      <c r="Y68">
+        <v>705000</v>
+      </c>
+      <c r="Z68" t="s">
+        <v>360</v>
+      </c>
+      <c r="AA68" t="str">
+        <f t="shared" si="1"/>
         <v/>
-      </c>
-      <c r="V68" t="s">
-        <v>48</v>
-      </c>
-      <c r="W68" t="s">
-        <v>48</v>
-      </c>
-      <c r="X68" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y68" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z68" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA68" t="s">
-        <v>48</v>
       </c>
       <c r="AB68" t="s">
         <v>48</v>
@@ -11740,10 +11767,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>324</v>
+        <v>361</v>
       </c>
       <c r="C69" t="s">
-        <v>325</v>
+        <v>362</v>
       </c>
       <c r="D69" t="s">
         <v>48</v>
@@ -11758,11 +11785,10 @@
         <v>4269060</v>
       </c>
       <c r="H69" t="s">
-        <v>326</v>
-      </c>
-      <c r="I69" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <v>363</v>
+      </c>
+      <c r="I69" t="s">
+        <v>48</v>
       </c>
       <c r="J69" t="s">
         <v>48</v>
@@ -11777,11 +11803,10 @@
         <v>762000</v>
       </c>
       <c r="N69" t="s">
-        <v>327</v>
-      </c>
-      <c r="O69" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+        <v>364</v>
+      </c>
+      <c r="O69" t="s">
+        <v>48</v>
       </c>
       <c r="P69" t="s">
         <v>48</v>
@@ -11796,29 +11821,29 @@
         <v>810000</v>
       </c>
       <c r="T69" t="s">
-        <v>328</v>
-      </c>
-      <c r="U69" t="str">
-        <f t="shared" si="6"/>
+        <v>365</v>
+      </c>
+      <c r="U69" t="s">
+        <v>48</v>
+      </c>
+      <c r="V69" t="s">
+        <v>48</v>
+      </c>
+      <c r="W69">
+        <v>5</v>
+      </c>
+      <c r="X69">
+        <v>140000</v>
+      </c>
+      <c r="Y69">
+        <v>700000</v>
+      </c>
+      <c r="Z69" t="s">
+        <v>366</v>
+      </c>
+      <c r="AA69" t="str">
+        <f t="shared" si="1"/>
         <v/>
-      </c>
-      <c r="V69" t="s">
-        <v>48</v>
-      </c>
-      <c r="W69" t="s">
-        <v>48</v>
-      </c>
-      <c r="X69" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y69" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z69" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA69" t="s">
-        <v>48</v>
       </c>
       <c r="AB69" t="s">
         <v>48</v>
@@ -11883,10 +11908,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>329</v>
+        <v>367</v>
       </c>
       <c r="C70" t="s">
-        <v>330</v>
+        <v>368</v>
       </c>
       <c r="D70" t="s">
         <v>48</v>
@@ -11901,7 +11926,7 @@
         <v>670000</v>
       </c>
       <c r="H70" t="s">
-        <v>331</v>
+        <v>369</v>
       </c>
       <c r="I70" t="s">
         <v>48</v>
@@ -11919,11 +11944,10 @@
         <v>715000</v>
       </c>
       <c r="N70" t="s">
-        <v>332</v>
-      </c>
-      <c r="O70" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+        <v>370</v>
+      </c>
+      <c r="O70" t="s">
+        <v>48</v>
       </c>
       <c r="P70" t="s">
         <v>48</v>
@@ -11938,29 +11962,29 @@
         <v>720000</v>
       </c>
       <c r="T70" t="s">
-        <v>333</v>
-      </c>
-      <c r="U70" t="str">
-        <f t="shared" si="6"/>
+        <v>371</v>
+      </c>
+      <c r="U70" t="s">
+        <v>48</v>
+      </c>
+      <c r="V70" t="s">
+        <v>48</v>
+      </c>
+      <c r="W70">
+        <v>5</v>
+      </c>
+      <c r="X70">
+        <v>144000</v>
+      </c>
+      <c r="Y70">
+        <v>720000</v>
+      </c>
+      <c r="Z70" t="s">
+        <v>372</v>
+      </c>
+      <c r="AA70" t="str">
+        <f t="shared" si="1"/>
         <v/>
-      </c>
-      <c r="V70" t="s">
-        <v>48</v>
-      </c>
-      <c r="W70" t="s">
-        <v>48</v>
-      </c>
-      <c r="X70" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y70" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z70" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA70" t="s">
-        <v>48</v>
       </c>
       <c r="AB70" t="s">
         <v>48</v>
@@ -12025,10 +12049,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>334</v>
+        <v>373</v>
       </c>
       <c r="C71" t="s">
-        <v>335</v>
+        <v>374</v>
       </c>
       <c r="D71" t="s">
         <v>48</v>
@@ -12061,7 +12085,7 @@
         <v>702000</v>
       </c>
       <c r="N71" t="s">
-        <v>336</v>
+        <v>375</v>
       </c>
       <c r="O71" t="s">
         <v>48</v>
@@ -12079,7 +12103,7 @@
         <v>708000</v>
       </c>
       <c r="T71" t="s">
-        <v>337</v>
+        <v>376</v>
       </c>
       <c r="U71" t="s">
         <v>48</v>
@@ -12087,20 +12111,21 @@
       <c r="V71" t="s">
         <v>48</v>
       </c>
-      <c r="W71" t="s">
-        <v>48</v>
-      </c>
-      <c r="X71" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y71" t="s">
-        <v>48</v>
+      <c r="W71">
+        <v>6</v>
+      </c>
+      <c r="X71">
+        <v>120000</v>
+      </c>
+      <c r="Y71">
+        <v>720000</v>
       </c>
       <c r="Z71" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA71" t="s">
-        <v>48</v>
+        <v>377</v>
+      </c>
+      <c r="AA71" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="AB71" t="s">
         <v>48</v>
@@ -12165,10 +12190,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>338</v>
+        <v>378</v>
       </c>
       <c r="C72" t="s">
-        <v>339</v>
+        <v>379</v>
       </c>
       <c r="D72" t="s">
         <v>48</v>
@@ -12186,9 +12211,8 @@
       <c r="H72" t="s">
         <v>48</v>
       </c>
-      <c r="I72" t="str">
-        <f>IF(OR(G1="",G1&lt;680000),$C1,"")</f>
-        <v/>
+      <c r="I72" t="s">
+        <v>48</v>
       </c>
       <c r="J72" t="s">
         <v>48</v>
@@ -12205,9 +12229,8 @@
       <c r="N72" t="s">
         <v>48</v>
       </c>
-      <c r="O72" t="str">
-        <f>IF(OR(M1="",M1&lt;680000),$C1,"")</f>
-        <v/>
+      <c r="O72" t="s">
+        <v>48</v>
       </c>
       <c r="P72" t="s">
         <v>48</v>
@@ -12224,9 +12247,8 @@
       <c r="T72" t="s">
         <v>48</v>
       </c>
-      <c r="U72" t="str">
-        <f>IF(OR(S1="",S1&lt;680000),$C1,"")</f>
-        <v/>
+      <c r="U72" t="s">
+        <v>48</v>
       </c>
       <c r="V72" t="s">
         <v>48</v>

--- a/落花机密表_糙汉子版.xlsx
+++ b/落花机密表_糙汉子版.xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28245" windowHeight="12615"/>
+    <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="9.2-9.8" sheetId="1" r:id="rId1"/>
+    <sheet name="9.9-9.15" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2599" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3123" uniqueCount="224">
   <si>
     <t>QQ</t>
   </si>
@@ -158,25 +158,19 @@
     <t>落花~HAMEL</t>
   </si>
   <si>
-    <t>2019-09-02 10:02:28</t>
+    <t>2019-09-09 09:16:39</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>2019-09-03 18:58:30</t>
-  </si>
-  <si>
-    <t>2019-09-04 16:39:58</t>
-  </si>
-  <si>
     <t>happy.my.love@qq.com</t>
   </si>
   <si>
     <t>落花@冷月小猫泪</t>
   </si>
   <si>
-    <t>2019-09-05 19:27:24</t>
+    <t>2019-09-09 13:51:41</t>
   </si>
   <si>
     <t>78191877</t>
@@ -185,12 +179,6 @@
     <t>落花 星光化作翅膀</t>
   </si>
   <si>
-    <t>2019-09-04 14:26:20</t>
-  </si>
-  <si>
-    <t>2019-09-05 07:41:21</t>
-  </si>
-  <si>
     <t>30137763</t>
   </si>
   <si>
@@ -203,12 +191,6 @@
     <t>落花 清水奈绪子（错过派对，错过一亿）</t>
   </si>
   <si>
-    <t>2019-09-02 23:12:28</t>
-  </si>
-  <si>
-    <t>2019-09-03 13:15:06</t>
-  </si>
-  <si>
     <t>39302003</t>
   </si>
   <si>
@@ -218,16 +200,10 @@
     <t>781898849</t>
   </si>
   <si>
-    <t>落花-KGAoi</t>
-  </si>
-  <si>
-    <t>2019-09-03 11:36:06</t>
-  </si>
-  <si>
-    <t>2019-09-04 10:34:36</t>
-  </si>
-  <si>
-    <t>2019-09-05 13:45:10</t>
+    <t>落花-KGAoi（错过派对专业户）</t>
+  </si>
+  <si>
+    <t>2019-09-09 13:43:56</t>
   </si>
   <si>
     <t>2661759612</t>
@@ -236,16 +212,7 @@
     <t>落花ˊૢ路希</t>
   </si>
   <si>
-    <t>2019-09-02 08:02:13</t>
-  </si>
-  <si>
-    <t>2019-09-03 09:35:51</t>
-  </si>
-  <si>
-    <t>2019-09-04 08:31:17</t>
-  </si>
-  <si>
-    <t>2019-09-05 10:23:23</t>
+    <t>2019-09-09 10:03:47</t>
   </si>
   <si>
     <t>cydjl@qq.com</t>
@@ -254,28 +221,13 @@
     <t>落花 花浔</t>
   </si>
   <si>
-    <t>2019-09-02 20:59:30</t>
-  </si>
-  <si>
-    <t>2019-09-03 12:24:45</t>
-  </si>
-  <si>
-    <t>2019-09-05 18:28:20</t>
-  </si>
-  <si>
     <t>992526373</t>
   </si>
   <si>
     <t>落花 slily</t>
   </si>
   <si>
-    <t>2019-09-03 01:50:30</t>
-  </si>
-  <si>
-    <t>2019-09-03 13:05:10</t>
-  </si>
-  <si>
-    <t>2019-09-04 12:01:29</t>
+    <t>2019-09-09 12:53:10</t>
   </si>
   <si>
     <t>974687361</t>
@@ -284,16 +236,7 @@
     <t>落花-清水</t>
   </si>
   <si>
-    <t>2019-09-02 20:12:49</t>
-  </si>
-  <si>
-    <t>2019-09-03 14:15:27</t>
-  </si>
-  <si>
-    <t>2019-09-04 08:31:58</t>
-  </si>
-  <si>
-    <t>2019-09-05 05:54:04</t>
+    <t>2019-09-09 05:53:40</t>
   </si>
   <si>
     <t>924110951</t>
@@ -302,43 +245,22 @@
     <t>落花@楚锦妮</t>
   </si>
   <si>
-    <t>2019-09-02 10:49:57</t>
-  </si>
-  <si>
-    <t>2019-09-03 19:43:00</t>
-  </si>
-  <si>
     <t>923418164</t>
   </si>
   <si>
     <t>落花 千早(</t>
   </si>
   <si>
-    <t>2019-09-02 19:37:32</t>
-  </si>
-  <si>
-    <t>2019-09-03 15:59:28</t>
-  </si>
-  <si>
-    <t>2019-09-05 19:26:06</t>
+    <t>2019-09-09 13:34:11</t>
   </si>
   <si>
     <t>845423216</t>
   </si>
   <si>
-    <t>落花 ¿ Clear1</t>
-  </si>
-  <si>
-    <t>2019-09-02 05:43:45</t>
-  </si>
-  <si>
-    <t>2019-09-03 09:14:26</t>
-  </si>
-  <si>
-    <t>2019-09-04 05:56:58</t>
-  </si>
-  <si>
-    <t>2019-09-05 05:56:50</t>
+    <t>落花 ¿ Clear1（给我也整一个）</t>
+  </si>
+  <si>
+    <t>2019-09-09 05:51:01</t>
   </si>
   <si>
     <t>821515617</t>
@@ -347,43 +269,22 @@
     <t>落花-谢南</t>
   </si>
   <si>
-    <t>2019-09-02 11:29:18</t>
-  </si>
-  <si>
-    <t>2019-09-03 20:57:28</t>
-  </si>
-  <si>
     <t>793019511</t>
   </si>
   <si>
-    <t>落花ฅ稷晞【管住手，别氪了!!!】</t>
-  </si>
-  <si>
-    <t>2019-09-02 09:48:12</t>
-  </si>
-  <si>
-    <t>2019-09-03 09:36:12</t>
-  </si>
-  <si>
-    <t>2019-09-04 13:10:53</t>
-  </si>
-  <si>
-    <t>2019-09-05 12:53:05</t>
+    <t>落花ฅ稷晞</t>
+  </si>
+  <si>
+    <t>2019-09-09 13:22:55</t>
   </si>
   <si>
     <t>784945709</t>
   </si>
   <si>
-    <t>落花.花祭夜.今天机密65w分哦</t>
-  </si>
-  <si>
-    <t>2019-09-02 10:10:45</t>
-  </si>
-  <si>
-    <t>2019-09-03 12:40:36</t>
-  </si>
-  <si>
-    <t>2019-09-04 14:30:06</t>
+    <t>落花.花祭夜.今天机密68w分哦</t>
+  </si>
+  <si>
+    <t>2019-09-09 08:03:18</t>
   </si>
   <si>
     <t>779867533</t>
@@ -392,31 +293,13 @@
     <t>落花๑顾安白</t>
   </si>
   <si>
-    <t>2019-09-02 11:31:03</t>
-  </si>
-  <si>
-    <t>2019-09-03 06:37:42</t>
-  </si>
-  <si>
-    <t>2019-09-04 06:41:44</t>
-  </si>
-  <si>
-    <t>2019-09-05 19:08:40</t>
-  </si>
-  <si>
     <t>769521738</t>
   </si>
   <si>
     <t>落花-白茶</t>
   </si>
   <si>
-    <t>2019-09-02 10:42:33</t>
-  </si>
-  <si>
-    <t>2019-09-03 09:16:17</t>
-  </si>
-  <si>
-    <t>2019-09-04 09:11:06</t>
+    <t>2019-09-09 08:50:18</t>
   </si>
   <si>
     <t>745415648</t>
@@ -425,10 +308,7 @@
     <t>落花 小虚</t>
   </si>
   <si>
-    <t>2019-09-02 13:43:49</t>
-  </si>
-  <si>
-    <t>2019-09-03 14:28:40</t>
+    <t>2019-09-09 13:29:36</t>
   </si>
   <si>
     <t>727791466</t>
@@ -437,46 +317,19 @@
     <t>落花+天辟</t>
   </si>
   <si>
-    <t>2019-09-02 09:06:43</t>
-  </si>
-  <si>
-    <t>2019-09-03 10:58:06</t>
-  </si>
-  <si>
-    <t>2019-09-04 08:21:01</t>
-  </si>
-  <si>
-    <t>2019-09-05 12:37:05</t>
-  </si>
-  <si>
     <t>724187504</t>
   </si>
   <si>
     <t>落花⭐Rai</t>
   </si>
   <si>
-    <t>2019-09-02 10:56:17</t>
-  </si>
-  <si>
-    <t>2019-09-03 14:19:15</t>
-  </si>
-  <si>
-    <t>2019-09-04 14:30:08</t>
-  </si>
-  <si>
     <t>710237833</t>
   </si>
   <si>
     <t>落花 可露丽</t>
   </si>
   <si>
-    <t>2019-09-02 10:10:14</t>
-  </si>
-  <si>
-    <t>2019-09-03 12:20:29</t>
-  </si>
-  <si>
-    <t>2019-09-04 12:33:30</t>
+    <t>2019-09-09 06:37:40</t>
   </si>
   <si>
     <t>651570472</t>
@@ -485,16 +338,7 @@
     <t>落花 EXO</t>
   </si>
   <si>
-    <t>2019-09-02 10:10:21</t>
-  </si>
-  <si>
-    <t>2019-09-03 11:00:17</t>
-  </si>
-  <si>
-    <t>2019-09-04 12:12:11</t>
-  </si>
-  <si>
-    <t>2019-09-05 12:28:32</t>
+    <t>2019-09-09 13:29:08</t>
   </si>
   <si>
     <t>648875355</t>
@@ -503,10 +347,7 @@
     <t>落花—陆阮阮</t>
   </si>
   <si>
-    <t>2019-09-02 09:54:10</t>
-  </si>
-  <si>
-    <t>2019-09-03 09:42:50</t>
+    <t>2019-09-09 13:31:35</t>
   </si>
   <si>
     <t>535509797</t>
@@ -515,37 +356,19 @@
     <t>落花，灰姐</t>
   </si>
   <si>
-    <t>2019-09-02 19:36:35</t>
-  </si>
-  <si>
-    <t>2019-09-03 19:18:15</t>
-  </si>
-  <si>
     <t>505644622</t>
   </si>
   <si>
     <t>落花◈啾啾</t>
   </si>
   <si>
-    <t>2019-09-02 19:18:55</t>
-  </si>
-  <si>
-    <t>2019-09-03 19:41:37</t>
-  </si>
-  <si>
-    <t>2019-09-05 19:19:32</t>
-  </si>
-  <si>
     <t>491384166</t>
   </si>
   <si>
     <t>落花@藤原千花</t>
   </si>
   <si>
-    <t>2019-09-02 09:48:14</t>
-  </si>
-  <si>
-    <t>2019-09-03 21:52:26</t>
+    <t>2019-09-09 13:26:12</t>
   </si>
   <si>
     <t>3504245791</t>
@@ -560,13 +383,7 @@
     <t>落花－白寄岚</t>
   </si>
   <si>
-    <t>2019-09-03 08:18:29</t>
-  </si>
-  <si>
-    <t>2019-09-04 05:54:12</t>
-  </si>
-  <si>
-    <t>2019-09-05 13:52:30</t>
+    <t>2019-09-09 06:26:42</t>
   </si>
   <si>
     <t>3476601463</t>
@@ -575,40 +392,19 @@
     <t>落花 阿幼</t>
   </si>
   <si>
-    <t>2019-09-02 22:03:09</t>
-  </si>
-  <si>
-    <t>2019-09-04 00:02:55</t>
-  </si>
-  <si>
     <t>3240236818</t>
   </si>
   <si>
     <t>落花 秦意</t>
   </si>
   <si>
-    <t>2019-09-02 13:50:31</t>
-  </si>
-  <si>
-    <t>2019-09-03 19:57:17</t>
-  </si>
-  <si>
-    <t>2019-09-05 09:45:30</t>
-  </si>
-  <si>
     <t>2971057903</t>
   </si>
   <si>
     <t>落花-细语</t>
   </si>
   <si>
-    <t>2019-09-05 15:37:24</t>
-  </si>
-  <si>
-    <t>2940604709</t>
-  </si>
-  <si>
-    <t>落花-24k草莓小葵</t>
+    <t>2019-09-09 08:31:00</t>
   </si>
   <si>
     <t>2638588219</t>
@@ -617,28 +413,13 @@
     <t>落花-洱瓷(其他人都有括号那我也要搞一个)</t>
   </si>
   <si>
-    <t>2019-09-02 09:53:54</t>
-  </si>
-  <si>
-    <t>2019-09-03 19:44:01</t>
-  </si>
-  <si>
-    <t>2019-09-05 09:57:45</t>
-  </si>
-  <si>
     <t>2473375876</t>
   </si>
   <si>
     <t>落花 林咕啾（星期六jjc结算记得留次数</t>
   </si>
   <si>
-    <t>2019-09-02 19:35:17</t>
-  </si>
-  <si>
-    <t>2019-09-03 11:19:28</t>
-  </si>
-  <si>
-    <t>2019-09-05 12:36:03</t>
+    <t>2019-09-09 13:19:07</t>
   </si>
   <si>
     <t>2406417774</t>
@@ -647,37 +428,13 @@
     <t>落花 苏其凉</t>
   </si>
   <si>
-    <t>2019-09-03 19:55:43</t>
-  </si>
-  <si>
-    <t>2192665938</t>
-  </si>
-  <si>
-    <t>落花 奶味汐月</t>
-  </si>
-  <si>
-    <t>2019-09-02 21:58:06</t>
-  </si>
-  <si>
-    <t>2019-09-03 05:55:12</t>
-  </si>
-  <si>
-    <t>2019-09-05 18:43:28</t>
-  </si>
-  <si>
     <t>1941489960</t>
   </si>
   <si>
     <t>落花 早纪畈枝</t>
   </si>
   <si>
-    <t>2019-09-02 19:56:22</t>
-  </si>
-  <si>
-    <t>2019-09-03 14:25:44</t>
-  </si>
-  <si>
-    <t>2019-09-04 11:48:54</t>
+    <t>2019-09-09 09:43:04</t>
   </si>
   <si>
     <t>1937237519</t>
@@ -686,13 +443,7 @@
     <t>落花 ♏ 桃花换酒</t>
   </si>
   <si>
-    <t>2019-09-02 09:33:45</t>
-  </si>
-  <si>
-    <t>2019-09-03 19:40:27</t>
-  </si>
-  <si>
-    <t>2019-09-05 12:10:23</t>
+    <t>2019-09-09 12:27:22</t>
   </si>
   <si>
     <t>1841469477</t>
@@ -701,52 +452,25 @@
     <t>落花-天淼</t>
   </si>
   <si>
-    <t>2019-09-02 09:55:42</t>
-  </si>
-  <si>
-    <t>2019-09-03 12:11:39</t>
-  </si>
-  <si>
     <t>1790016705</t>
   </si>
   <si>
     <t>落花      魚漁。</t>
   </si>
   <si>
-    <t>2019-09-03 21:35:59</t>
-  </si>
-  <si>
     <t>1755065148</t>
   </si>
   <si>
     <t>落花  赖皮蛇</t>
   </si>
   <si>
-    <t>2019-09-02 12:55:26</t>
-  </si>
-  <si>
-    <t>2019-09-03 12:45:02</t>
-  </si>
-  <si>
-    <t>2019-09-04 08:51:42</t>
-  </si>
-  <si>
-    <t>2019-09-05 13:02:34</t>
-  </si>
-  <si>
     <t>1664171803</t>
   </si>
   <si>
     <t>落花ෆ总攻大人</t>
   </si>
   <si>
-    <t>2019-09-02 10:12:25</t>
-  </si>
-  <si>
-    <t>2019-09-03 20:09:00</t>
-  </si>
-  <si>
-    <t>2019-09-04 13:30:21</t>
+    <t>2019-09-09 09:51:33</t>
   </si>
   <si>
     <t>16500928</t>
@@ -755,16 +479,7 @@
     <t>落花 羽川</t>
   </si>
   <si>
-    <t>2019-09-02 08:55:42</t>
-  </si>
-  <si>
-    <t>2019-09-03 08:29:18</t>
-  </si>
-  <si>
-    <t>2019-09-04 08:34:53</t>
-  </si>
-  <si>
-    <t>2019-09-05 08:51:27</t>
+    <t>2019-09-09 09:09:39</t>
   </si>
   <si>
     <t>15451377</t>
@@ -773,16 +488,7 @@
     <t>落花·紫</t>
   </si>
   <si>
-    <t>2019-09-02 09:50:29</t>
-  </si>
-  <si>
-    <t>2019-09-03 12:08:27</t>
-  </si>
-  <si>
-    <t>2019-09-04 14:45:19</t>
-  </si>
-  <si>
-    <t>2019-09-05 12:25:57</t>
+    <t>2019-09-09 13:44:52</t>
   </si>
   <si>
     <t>1543607287</t>
@@ -791,31 +497,13 @@
     <t>落花兰摧玉折</t>
   </si>
   <si>
-    <t>2019-09-03 01:44:52</t>
-  </si>
-  <si>
-    <t>2019-09-03 14:56:31</t>
-  </si>
-  <si>
-    <t>2019-09-05 01:29:24</t>
-  </si>
-  <si>
     <t>1393363961</t>
   </si>
   <si>
     <t>落花꒳红茶喵喵喵（联盟答题月入百万）</t>
   </si>
   <si>
-    <t>2019-09-02 10:44:05</t>
-  </si>
-  <si>
-    <t>2019-09-03 09:18:15</t>
-  </si>
-  <si>
-    <t>2019-09-04 14:39:17</t>
-  </si>
-  <si>
-    <t>2019-09-05 10:11:50</t>
+    <t>2019-09-09 06:58:45</t>
   </si>
   <si>
     <t>1369593175</t>
@@ -824,16 +512,7 @@
     <t>落花～～心城</t>
   </si>
   <si>
-    <t>2019-09-02 07:26:53</t>
-  </si>
-  <si>
-    <t>2019-09-03 07:27:11</t>
-  </si>
-  <si>
-    <t>2019-09-04 07:25:05</t>
-  </si>
-  <si>
-    <t>2019-09-05 13:00:19</t>
+    <t>2019-09-09 10:04:06</t>
   </si>
   <si>
     <t>1369562367</t>
@@ -842,15 +521,6 @@
     <t>落花ω天天</t>
   </si>
   <si>
-    <t>2019-09-02 19:41:35</t>
-  </si>
-  <si>
-    <t>2019-09-03 19:43:37</t>
-  </si>
-  <si>
-    <t>2019-09-05 19:09:43</t>
-  </si>
-  <si>
     <t>1239530393</t>
   </si>
   <si>
@@ -863,13 +533,7 @@
     <t>落花，初【我是群里的打机提醒小助手】</t>
   </si>
   <si>
-    <t>2019-09-02 10:12:17</t>
-  </si>
-  <si>
-    <t>2019-09-03 07:05:04</t>
-  </si>
-  <si>
-    <t>2019-09-05 14:30:31</t>
+    <t>2019-09-09 13:28:57</t>
   </si>
   <si>
     <t>121398489</t>
@@ -878,31 +542,13 @@
     <t>落花_鸭鸭</t>
   </si>
   <si>
-    <t>2019-09-02 20:20:12</t>
-  </si>
-  <si>
-    <t>2019-09-03 21:39:27</t>
-  </si>
-  <si>
-    <t>2019-09-04 07:58:54</t>
-  </si>
-  <si>
-    <t>2019-09-05 07:53:58</t>
-  </si>
-  <si>
     <t>1441657502</t>
   </si>
   <si>
     <t>落花 樱井</t>
   </si>
   <si>
-    <t>2019-09-03 19:40:00</t>
-  </si>
-  <si>
-    <t>2019-09-04 17:28:35</t>
-  </si>
-  <si>
-    <t>2019-09-05 17:55:24</t>
+    <t>2019-09-09 08:30:23</t>
   </si>
   <si>
     <t>1130056290</t>
@@ -911,49 +557,25 @@
     <t>落花～辉光叶</t>
   </si>
   <si>
-    <t>2019-09-02 12:01:00</t>
-  </si>
-  <si>
-    <t>2019-09-03 14:56:57</t>
-  </si>
-  <si>
-    <t>2019-09-04 10:49:26</t>
-  </si>
-  <si>
-    <t>2019-09-05 16:59:30</t>
-  </si>
-  <si>
     <t>1056711058</t>
   </si>
   <si>
     <t>落花：翎羽</t>
   </si>
   <si>
-    <t>请假</t>
-  </si>
-  <si>
     <t>1055498540</t>
   </si>
   <si>
     <t>落花-凛喵</t>
   </si>
   <si>
-    <t>2019-09-02 14:27:28</t>
-  </si>
-  <si>
-    <t>2019-09-03 20:17:00</t>
-  </si>
-  <si>
     <t>1041544486</t>
   </si>
   <si>
     <t>落花 青青子衿</t>
   </si>
   <si>
-    <t>2019-09-02 22:38:16</t>
-  </si>
-  <si>
-    <t>2019-09-03 18:28:19</t>
+    <t>2019-09-09 13:21:22</t>
   </si>
   <si>
     <t>1040250547</t>
@@ -962,46 +584,19 @@
     <t>落花ʚ阿喵王子他父王ɞ</t>
   </si>
   <si>
-    <t>2019-09-02 10:20:23</t>
-  </si>
-  <si>
-    <t>2019-09-03 19:42:40</t>
-  </si>
-  <si>
-    <t>2019-09-04 12:45:11</t>
-  </si>
-  <si>
     <t>1025385659</t>
   </si>
   <si>
     <t>落花 柚歆</t>
   </si>
   <si>
-    <t>2019-09-02 11:01:50</t>
-  </si>
-  <si>
-    <t>2019-09-03 13:22:56</t>
-  </si>
-  <si>
-    <t>2019-09-05 13:20:14</t>
-  </si>
-  <si>
     <t>2605384970</t>
   </si>
   <si>
     <t>落花い清茶（非洲酋长）</t>
   </si>
   <si>
-    <t>2019-09-02 07:40:02</t>
-  </si>
-  <si>
-    <t>2019-09-03 07:59:19</t>
-  </si>
-  <si>
-    <t>2019-09-04 08:34:02</t>
-  </si>
-  <si>
-    <t>2019-09-05 07:39:50</t>
+    <t>2019-09-09 08:26:06</t>
   </si>
   <si>
     <t>17535862313</t>
@@ -1010,16 +605,7 @@
     <t>落花এ风采铃</t>
   </si>
   <si>
-    <t>2019-09-02 09:10:26</t>
-  </si>
-  <si>
-    <t>2019-09-03 07:19:21</t>
-  </si>
-  <si>
-    <t>2019-09-04 06:41:23</t>
-  </si>
-  <si>
-    <t>2019-09-05 09:00:26</t>
+    <t>2019-09-09 13:21:40</t>
   </si>
   <si>
     <t>2126851254</t>
@@ -1028,58 +614,25 @@
     <t>落花  啾啾哧哧</t>
   </si>
   <si>
-    <t>2019-09-02 23:02:22</t>
-  </si>
-  <si>
-    <t>2019-09-03 18:10:03</t>
-  </si>
-  <si>
     <t>641204920</t>
   </si>
   <si>
     <t>落花.燃犀犀</t>
   </si>
   <si>
-    <t>2019-09-02 20:09:13</t>
-  </si>
-  <si>
-    <t>2019-09-03 17:18:42</t>
-  </si>
-  <si>
     <t>108932610</t>
   </si>
   <si>
     <t>落花～羽汐</t>
   </si>
   <si>
-    <t>2019-09-02 12:50:21</t>
-  </si>
-  <si>
-    <t>2019-09-03 13:03:58</t>
-  </si>
-  <si>
-    <t>2019-09-04 14:52:53</t>
-  </si>
-  <si>
-    <t>2019-09-05 14:48:28</t>
-  </si>
-  <si>
     <t>965462652</t>
   </si>
   <si>
     <t>落花*终年欧巴（括号里写点啥）</t>
   </si>
   <si>
-    <t>2019-09-02 09:57:30</t>
-  </si>
-  <si>
-    <t>2019-09-03 10:09:34</t>
-  </si>
-  <si>
-    <t>2019-09-04 09:57:49</t>
-  </si>
-  <si>
-    <t>2019-09-05 10:40:01</t>
+    <t>2019-09-09 13:46:15</t>
   </si>
   <si>
     <t>2953487480</t>
@@ -1088,16 +641,7 @@
     <t>落花 蓝二</t>
   </si>
   <si>
-    <t>2019-09-02 09:49:24</t>
-  </si>
-  <si>
-    <t>2019-09-03 15:42:30</t>
-  </si>
-  <si>
-    <t>2019-09-04 17:24:01</t>
-  </si>
-  <si>
-    <t>2019-09-05 13:49:43</t>
+    <t>2019-09-09 13:46:34</t>
   </si>
   <si>
     <t>1003242662</t>
@@ -1106,16 +650,7 @@
     <t>落花︴帽儿</t>
   </si>
   <si>
-    <t>2019-09-02 08:33:15</t>
-  </si>
-  <si>
-    <t>2019-09-03 08:28:25</t>
-  </si>
-  <si>
-    <t>2019-09-04 14:29:50</t>
-  </si>
-  <si>
-    <t>2019-09-05 08:56:30</t>
+    <t>2019-09-09 12:20:54</t>
   </si>
   <si>
     <t>957600168</t>
@@ -1124,16 +659,7 @@
     <t>落花   莫名</t>
   </si>
   <si>
-    <t>2019-09-02 14:50:44</t>
-  </si>
-  <si>
-    <t>2019-09-03 08:17:46</t>
-  </si>
-  <si>
-    <t>2019-09-04 07:08:37</t>
-  </si>
-  <si>
-    <t>2019-09-05 07:46:57</t>
+    <t>2019-09-09 12:40:11</t>
   </si>
   <si>
     <t>3191053965</t>
@@ -1142,13 +668,19 @@
     <t>落花—星煌</t>
   </si>
   <si>
-    <t>2019-09-03 08:21:02</t>
-  </si>
-  <si>
-    <t>2019-09-04 09:27:32</t>
-  </si>
-  <si>
-    <t>2019-09-05 09:57:14</t>
+    <t>2019-09-09 13:47:33</t>
+  </si>
+  <si>
+    <t>1584039297</t>
+  </si>
+  <si>
+    <t>2019-09-09 07:51:37</t>
+  </si>
+  <si>
+    <t>花朝廿八</t>
+  </si>
+  <si>
+    <t>2019-09-09 10:23:05</t>
   </si>
   <si>
     <t>-1</t>
@@ -1163,12 +695,12 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1185,7 +717,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1199,7 +738,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1207,7 +746,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1220,9 +766,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1230,14 +784,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1245,9 +792,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1267,6 +814,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -1276,38 +838,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1315,14 +846,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1337,7 +876,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1349,103 +1032,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1457,67 +1056,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1550,22 +1089,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1581,21 +1105,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1617,9 +1126,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1628,130 +1139,164 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1760,34 +1305,28 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2145,8 +1684,8 @@
   <sheetPr/>
   <dimension ref="A1:AT72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V16" workbookViewId="0">
-      <selection activeCell="X51" sqref="X51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2158,21 +1697,18 @@
     <col min="5" max="6" width="7.625" customWidth="1"/>
     <col min="7" max="7" width="12.625" customWidth="1"/>
     <col min="8" max="8" width="21.5" customWidth="1"/>
-    <col min="9" max="9" width="21.375" customWidth="1"/>
+    <col min="9" max="9" width="7.625" customWidth="1"/>
     <col min="10" max="10" width="11.875" customWidth="1"/>
-    <col min="11" max="12" width="7.625" customWidth="1"/>
-    <col min="13" max="13" width="8.375" customWidth="1"/>
-    <col min="14" max="14" width="21.5" customWidth="1"/>
-    <col min="15" max="15" width="37.875" customWidth="1"/>
+    <col min="11" max="13" width="7.625" customWidth="1"/>
+    <col min="14" max="14" width="11.875" customWidth="1"/>
+    <col min="15" max="15" width="7.625" customWidth="1"/>
     <col min="16" max="16" width="11.875" customWidth="1"/>
-    <col min="17" max="18" width="7.625" customWidth="1"/>
-    <col min="19" max="19" width="8.375" customWidth="1"/>
-    <col min="20" max="20" width="21.5" customWidth="1"/>
-    <col min="21" max="21" width="37.875" customWidth="1"/>
+    <col min="17" max="19" width="7.625" customWidth="1"/>
+    <col min="20" max="20" width="11.875" customWidth="1"/>
+    <col min="21" max="21" width="7.625" customWidth="1"/>
     <col min="22" max="22" width="11.875" customWidth="1"/>
-    <col min="23" max="24" width="7.625" customWidth="1"/>
-    <col min="25" max="25" width="8.375" customWidth="1"/>
-    <col min="26" max="26" width="21.5" customWidth="1"/>
+    <col min="23" max="25" width="7.625" customWidth="1"/>
+    <col min="26" max="26" width="11.875" customWidth="1"/>
     <col min="27" max="27" width="7.625" customWidth="1"/>
     <col min="28" max="28" width="11.875" customWidth="1"/>
     <col min="29" max="31" width="7.625" customWidth="1"/>
@@ -2337,16 +1873,16 @@
         <v>46</v>
       </c>
       <c r="D2" s="2">
-        <v>43710.2083333333</v>
+        <v>43717.2083333333</v>
       </c>
       <c r="E2">
         <v>5</v>
       </c>
       <c r="F2">
-        <v>185000</v>
+        <v>183000</v>
       </c>
       <c r="G2">
-        <v>925000</v>
+        <v>915000</v>
       </c>
       <c r="H2" t="s">
         <v>47</v>
@@ -2357,17 +1893,17 @@
       <c r="J2" t="s">
         <v>48</v>
       </c>
-      <c r="K2">
-        <v>5</v>
-      </c>
-      <c r="L2">
-        <v>80000</v>
-      </c>
-      <c r="M2">
-        <v>400000</v>
+      <c r="K2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M2" t="s">
+        <v>48</v>
       </c>
       <c r="N2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O2" t="s">
         <v>48</v>
@@ -2375,17 +1911,17 @@
       <c r="P2" t="s">
         <v>48</v>
       </c>
-      <c r="Q2">
-        <v>5</v>
-      </c>
-      <c r="R2">
-        <v>82000</v>
-      </c>
-      <c r="S2">
-        <v>410000</v>
+      <c r="Q2" t="s">
+        <v>48</v>
+      </c>
+      <c r="R2" t="s">
+        <v>48</v>
+      </c>
+      <c r="S2" t="s">
+        <v>48</v>
       </c>
       <c r="T2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="U2" t="s">
         <v>48</v>
@@ -2471,14 +2007,14 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" t="s">
         <v>51</v>
       </c>
-      <c r="C3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D3" t="s">
-        <v>53</v>
-      </c>
       <c r="E3" t="s">
         <v>48</v>
       </c>
@@ -2528,7 +2064,7 @@
         <v>48</v>
       </c>
       <c r="U3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="V3" t="s">
         <v>48</v>
@@ -2611,10 +2147,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D4" t="s">
         <v>48</v>
@@ -2655,17 +2191,17 @@
       <c r="P4" t="s">
         <v>48</v>
       </c>
-      <c r="Q4">
-        <v>5</v>
-      </c>
-      <c r="R4">
-        <v>180000</v>
-      </c>
-      <c r="S4">
-        <v>900000</v>
+      <c r="Q4" t="s">
+        <v>48</v>
+      </c>
+      <c r="R4" t="s">
+        <v>48</v>
+      </c>
+      <c r="S4" t="s">
+        <v>48</v>
       </c>
       <c r="T4" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="U4" t="s">
         <v>48</v>
@@ -2673,17 +2209,17 @@
       <c r="V4" t="s">
         <v>48</v>
       </c>
-      <c r="W4">
-        <v>5</v>
-      </c>
-      <c r="X4">
-        <v>180000</v>
-      </c>
-      <c r="Y4">
-        <v>900000</v>
+      <c r="W4" t="s">
+        <v>48</v>
+      </c>
+      <c r="X4" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>48</v>
       </c>
       <c r="Z4" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="AA4" t="s">
         <v>48</v>
@@ -2751,10 +2287,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C5" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D5" t="s">
         <v>48</v>
@@ -2772,7 +2308,7 @@
         <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="J5" t="s">
         <v>48</v>
@@ -2790,7 +2326,7 @@
         <v>48</v>
       </c>
       <c r="O5" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="P5" t="s">
         <v>48</v>
@@ -2891,25 +2427,25 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C6" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D6" t="s">
         <v>48</v>
       </c>
-      <c r="E6">
-        <v>5</v>
-      </c>
-      <c r="F6">
-        <v>132000</v>
-      </c>
-      <c r="G6">
-        <v>660000</v>
+      <c r="E6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" t="s">
+        <v>48</v>
       </c>
       <c r="H6" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
         <v>48</v>
@@ -2917,17 +2453,17 @@
       <c r="J6" t="s">
         <v>48</v>
       </c>
-      <c r="K6">
-        <v>6</v>
-      </c>
-      <c r="L6">
-        <v>125000</v>
-      </c>
-      <c r="M6">
-        <v>750000</v>
+      <c r="K6" t="s">
+        <v>48</v>
+      </c>
+      <c r="L6" t="s">
+        <v>48</v>
+      </c>
+      <c r="M6" t="s">
+        <v>48</v>
       </c>
       <c r="N6" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="O6" t="s">
         <v>48</v>
@@ -3031,10 +2567,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C7" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D7" t="s">
         <v>48</v>
@@ -3070,7 +2606,7 @@
         <v>48</v>
       </c>
       <c r="O7" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="P7" t="s">
         <v>48</v>
@@ -3088,7 +2624,7 @@
         <v>48</v>
       </c>
       <c r="U7" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="V7" t="s">
         <v>48</v>
@@ -3171,43 +2707,43 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C8" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D8" t="s">
         <v>48</v>
       </c>
-      <c r="E8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8" t="s">
-        <v>48</v>
-      </c>
-      <c r="G8" t="s">
-        <v>48</v>
+      <c r="E8">
+        <v>5</v>
+      </c>
+      <c r="F8">
+        <v>256000</v>
+      </c>
+      <c r="G8">
+        <v>1280000</v>
       </c>
       <c r="H8" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="I8" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="J8" t="s">
         <v>48</v>
       </c>
-      <c r="K8">
-        <v>7</v>
-      </c>
-      <c r="L8">
-        <v>196000</v>
-      </c>
-      <c r="M8">
-        <v>1372000</v>
+      <c r="K8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L8" t="s">
+        <v>48</v>
+      </c>
+      <c r="M8" t="s">
+        <v>48</v>
       </c>
       <c r="N8" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="O8" t="s">
         <v>48</v>
@@ -3215,17 +2751,17 @@
       <c r="P8" t="s">
         <v>48</v>
       </c>
-      <c r="Q8">
-        <v>7</v>
-      </c>
-      <c r="R8">
-        <v>200000</v>
-      </c>
-      <c r="S8">
-        <v>1400000</v>
+      <c r="Q8" t="s">
+        <v>48</v>
+      </c>
+      <c r="R8" t="s">
+        <v>48</v>
+      </c>
+      <c r="S8" t="s">
+        <v>48</v>
       </c>
       <c r="T8" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="U8" t="s">
         <v>48</v>
@@ -3233,17 +2769,17 @@
       <c r="V8" t="s">
         <v>48</v>
       </c>
-      <c r="W8">
-        <v>7</v>
-      </c>
-      <c r="X8">
-        <v>210000</v>
-      </c>
-      <c r="Y8">
-        <v>1470000</v>
+      <c r="W8" t="s">
+        <v>48</v>
+      </c>
+      <c r="X8" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>48</v>
       </c>
       <c r="Z8" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="AA8" t="s">
         <v>48</v>
@@ -3311,25 +2847,25 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C9" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D9" t="s">
         <v>48</v>
       </c>
       <c r="E9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F9">
-        <v>711510</v>
+        <v>161289</v>
       </c>
       <c r="G9">
-        <v>4269060</v>
+        <v>806445</v>
       </c>
       <c r="H9" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="I9" t="s">
         <v>48</v>
@@ -3337,35 +2873,35 @@
       <c r="J9" t="s">
         <v>48</v>
       </c>
-      <c r="K9">
-        <v>6</v>
-      </c>
-      <c r="L9">
-        <v>12447</v>
-      </c>
-      <c r="M9">
-        <v>74682</v>
+      <c r="K9" t="s">
+        <v>48</v>
+      </c>
+      <c r="L9" t="s">
+        <v>48</v>
+      </c>
+      <c r="M9" t="s">
+        <v>48</v>
       </c>
       <c r="N9" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="O9" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="P9" t="s">
         <v>48</v>
       </c>
-      <c r="Q9">
-        <v>7</v>
-      </c>
-      <c r="R9">
-        <v>111042</v>
-      </c>
-      <c r="S9">
-        <v>777294</v>
+      <c r="Q9" t="s">
+        <v>48</v>
+      </c>
+      <c r="R9" t="s">
+        <v>48</v>
+      </c>
+      <c r="S9" t="s">
+        <v>48</v>
       </c>
       <c r="T9" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="U9" t="s">
         <v>48</v>
@@ -3373,17 +2909,17 @@
       <c r="V9" t="s">
         <v>48</v>
       </c>
-      <c r="W9">
-        <v>6</v>
-      </c>
-      <c r="X9">
-        <v>121372</v>
-      </c>
-      <c r="Y9">
-        <v>728232</v>
+      <c r="W9" t="s">
+        <v>48</v>
+      </c>
+      <c r="X9" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>48</v>
       </c>
       <c r="Z9" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="AA9" t="s">
         <v>48</v>
@@ -3451,25 +2987,25 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="C10" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="D10" t="s">
         <v>48</v>
       </c>
-      <c r="E10">
-        <v>6</v>
-      </c>
-      <c r="F10">
-        <v>120000</v>
-      </c>
-      <c r="G10">
-        <v>720000</v>
+      <c r="E10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" t="s">
+        <v>48</v>
       </c>
       <c r="H10" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
         <v>48</v>
@@ -3477,17 +3013,17 @@
       <c r="J10" t="s">
         <v>48</v>
       </c>
-      <c r="K10">
-        <v>6</v>
-      </c>
-      <c r="L10">
-        <v>123000</v>
-      </c>
-      <c r="M10">
-        <v>738000</v>
+      <c r="K10" t="s">
+        <v>48</v>
+      </c>
+      <c r="L10" t="s">
+        <v>48</v>
+      </c>
+      <c r="M10" t="s">
+        <v>48</v>
       </c>
       <c r="N10" t="s">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="O10" t="s">
         <v>48</v>
@@ -3508,22 +3044,22 @@
         <v>48</v>
       </c>
       <c r="U10" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="V10" t="s">
         <v>48</v>
       </c>
-      <c r="W10">
-        <v>6</v>
-      </c>
-      <c r="X10">
-        <v>126000</v>
-      </c>
-      <c r="Y10">
-        <v>756000</v>
+      <c r="W10" t="s">
+        <v>48</v>
+      </c>
+      <c r="X10" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>48</v>
       </c>
       <c r="Z10" t="s">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="AA10" t="s">
         <v>48</v>
@@ -3591,25 +3127,25 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="C11" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="D11" t="s">
         <v>48</v>
       </c>
       <c r="E11">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F11">
-        <v>120000</v>
+        <v>150000</v>
       </c>
       <c r="G11">
-        <v>720000</v>
+        <v>750000</v>
       </c>
       <c r="H11" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="I11" t="s">
         <v>48</v>
@@ -3617,17 +3153,17 @@
       <c r="J11" t="s">
         <v>48</v>
       </c>
-      <c r="K11">
-        <v>6</v>
-      </c>
-      <c r="L11">
-        <v>128000</v>
-      </c>
-      <c r="M11">
-        <v>768000</v>
+      <c r="K11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L11" t="s">
+        <v>48</v>
+      </c>
+      <c r="M11" t="s">
+        <v>48</v>
       </c>
       <c r="N11" t="s">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c r="O11" t="s">
         <v>48</v>
@@ -3635,17 +3171,17 @@
       <c r="P11" t="s">
         <v>48</v>
       </c>
-      <c r="Q11">
-        <v>6</v>
-      </c>
-      <c r="R11">
-        <v>133000</v>
-      </c>
-      <c r="S11">
-        <v>798000</v>
+      <c r="Q11" t="s">
+        <v>48</v>
+      </c>
+      <c r="R11" t="s">
+        <v>48</v>
+      </c>
+      <c r="S11" t="s">
+        <v>48</v>
       </c>
       <c r="T11" t="s">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="U11" t="s">
         <v>48</v>
@@ -3653,17 +3189,17 @@
       <c r="V11" t="s">
         <v>48</v>
       </c>
-      <c r="W11">
-        <v>6</v>
-      </c>
-      <c r="X11">
-        <v>133000</v>
-      </c>
-      <c r="Y11">
-        <v>798000</v>
+      <c r="W11" t="s">
+        <v>48</v>
+      </c>
+      <c r="X11" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>48</v>
       </c>
       <c r="Z11" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="AA11" t="s">
         <v>48</v>
@@ -3731,61 +3267,61 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="C12" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="D12" t="s">
         <v>48</v>
       </c>
       <c r="E12">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F12">
-        <v>109000</v>
+        <v>138000</v>
       </c>
       <c r="G12">
-        <v>654000</v>
+        <v>966000</v>
       </c>
       <c r="H12" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="I12" t="s">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="J12" t="s">
         <v>48</v>
       </c>
-      <c r="K12">
-        <v>7</v>
-      </c>
-      <c r="L12">
-        <v>96000</v>
-      </c>
-      <c r="M12">
-        <v>672000</v>
+      <c r="K12" t="s">
+        <v>48</v>
+      </c>
+      <c r="L12" t="s">
+        <v>48</v>
+      </c>
+      <c r="M12" t="s">
+        <v>48</v>
       </c>
       <c r="N12" t="s">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="O12" t="s">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="P12" t="s">
         <v>48</v>
       </c>
-      <c r="Q12">
-        <v>7</v>
-      </c>
-      <c r="R12">
-        <v>96000</v>
-      </c>
-      <c r="S12">
-        <v>672000</v>
+      <c r="Q12" t="s">
+        <v>48</v>
+      </c>
+      <c r="R12" t="s">
+        <v>48</v>
+      </c>
+      <c r="S12" t="s">
+        <v>48</v>
       </c>
       <c r="T12" t="s">
-        <v>91</v>
+        <v>48</v>
       </c>
       <c r="U12" t="s">
         <v>48</v>
@@ -3793,17 +3329,17 @@
       <c r="V12" t="s">
         <v>48</v>
       </c>
-      <c r="W12">
-        <v>8</v>
-      </c>
-      <c r="X12">
-        <v>96000</v>
-      </c>
-      <c r="Y12">
-        <v>768000</v>
+      <c r="W12" t="s">
+        <v>48</v>
+      </c>
+      <c r="X12" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>48</v>
       </c>
       <c r="Z12" t="s">
-        <v>92</v>
+        <v>48</v>
       </c>
       <c r="AA12" t="s">
         <v>48</v>
@@ -3871,25 +3407,25 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="C13" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="D13" t="s">
         <v>48</v>
       </c>
-      <c r="E13">
-        <v>5</v>
-      </c>
-      <c r="F13">
-        <v>186000</v>
-      </c>
-      <c r="G13">
-        <v>930000</v>
+      <c r="E13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" t="s">
+        <v>48</v>
+      </c>
+      <c r="G13" t="s">
+        <v>48</v>
       </c>
       <c r="H13" t="s">
-        <v>95</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
         <v>48</v>
@@ -3897,17 +3433,17 @@
       <c r="J13" t="s">
         <v>48</v>
       </c>
-      <c r="K13">
-        <v>5</v>
-      </c>
-      <c r="L13">
-        <v>161000</v>
-      </c>
-      <c r="M13">
-        <v>805000</v>
+      <c r="K13" t="s">
+        <v>48</v>
+      </c>
+      <c r="L13" t="s">
+        <v>48</v>
+      </c>
+      <c r="M13" t="s">
+        <v>48</v>
       </c>
       <c r="N13" t="s">
-        <v>96</v>
+        <v>48</v>
       </c>
       <c r="O13" t="s">
         <v>48</v>
@@ -3945,9 +3481,8 @@
       <c r="Z13" t="s">
         <v>48</v>
       </c>
-      <c r="AA13" t="str">
-        <f>IF(Y13="",C13,"")</f>
-        <v>落花@楚锦妮</v>
+      <c r="AA13" t="s">
+        <v>48</v>
       </c>
       <c r="AB13" t="s">
         <v>48</v>
@@ -4012,25 +3547,25 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="C14" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="D14" t="s">
         <v>48</v>
       </c>
       <c r="E14">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F14">
-        <v>108000</v>
+        <v>153000</v>
       </c>
       <c r="G14">
-        <v>756000</v>
+        <v>918000</v>
       </c>
       <c r="H14" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="I14" t="s">
         <v>48</v>
@@ -4038,17 +3573,17 @@
       <c r="J14" t="s">
         <v>48</v>
       </c>
-      <c r="K14">
-        <v>6</v>
-      </c>
-      <c r="L14">
-        <v>116000</v>
-      </c>
-      <c r="M14">
-        <v>696000</v>
+      <c r="K14" t="s">
+        <v>48</v>
+      </c>
+      <c r="L14" t="s">
+        <v>48</v>
+      </c>
+      <c r="M14" t="s">
+        <v>48</v>
       </c>
       <c r="N14" t="s">
-        <v>100</v>
+        <v>48</v>
       </c>
       <c r="O14" t="s">
         <v>48</v>
@@ -4069,26 +3604,25 @@
         <v>48</v>
       </c>
       <c r="U14" t="s">
-        <v>98</v>
+        <v>48</v>
       </c>
       <c r="V14" t="s">
         <v>48</v>
       </c>
-      <c r="W14">
-        <v>6</v>
-      </c>
-      <c r="X14">
-        <v>113000</v>
-      </c>
-      <c r="Y14">
-        <v>678000</v>
+      <c r="W14" t="s">
+        <v>48</v>
+      </c>
+      <c r="X14" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>48</v>
       </c>
       <c r="Z14" t="s">
-        <v>101</v>
-      </c>
-      <c r="AA14" t="str">
-        <f t="shared" ref="AA14:AA45" si="0">IF(Y14="",C14,"")</f>
-        <v/>
+        <v>48</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>48</v>
       </c>
       <c r="AB14" t="s">
         <v>48</v>
@@ -4153,25 +3687,25 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="C15" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="D15" t="s">
         <v>48</v>
       </c>
       <c r="E15">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F15">
-        <v>120000</v>
+        <v>150000</v>
       </c>
       <c r="G15">
-        <v>840000</v>
+        <v>750000</v>
       </c>
       <c r="H15" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="I15" t="s">
         <v>48</v>
@@ -4179,35 +3713,35 @@
       <c r="J15" t="s">
         <v>48</v>
       </c>
-      <c r="K15">
-        <v>6</v>
-      </c>
-      <c r="L15">
-        <v>110000</v>
-      </c>
-      <c r="M15">
-        <v>660000</v>
+      <c r="K15" t="s">
+        <v>48</v>
+      </c>
+      <c r="L15" t="s">
+        <v>48</v>
+      </c>
+      <c r="M15" t="s">
+        <v>48</v>
       </c>
       <c r="N15" t="s">
-        <v>105</v>
+        <v>48</v>
       </c>
       <c r="O15" t="s">
-        <v>103</v>
+        <v>48</v>
       </c>
       <c r="P15" t="s">
         <v>48</v>
       </c>
-      <c r="Q15">
-        <v>7</v>
-      </c>
-      <c r="R15">
-        <v>110000</v>
-      </c>
-      <c r="S15">
-        <v>770000</v>
+      <c r="Q15" t="s">
+        <v>48</v>
+      </c>
+      <c r="R15" t="s">
+        <v>48</v>
+      </c>
+      <c r="S15" t="s">
+        <v>48</v>
       </c>
       <c r="T15" t="s">
-        <v>106</v>
+        <v>48</v>
       </c>
       <c r="U15" t="s">
         <v>48</v>
@@ -4215,21 +3749,20 @@
       <c r="V15" t="s">
         <v>48</v>
       </c>
-      <c r="W15">
-        <v>6</v>
-      </c>
-      <c r="X15">
-        <v>120000</v>
-      </c>
-      <c r="Y15">
-        <v>720000</v>
+      <c r="W15" t="s">
+        <v>48</v>
+      </c>
+      <c r="X15" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>48</v>
       </c>
       <c r="Z15" t="s">
-        <v>107</v>
-      </c>
-      <c r="AA15" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <v>48</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>48</v>
       </c>
       <c r="AB15" t="s">
         <v>48</v>
@@ -4294,46 +3827,46 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="C16" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="D16" t="s">
         <v>48</v>
       </c>
-      <c r="E16">
-        <v>7</v>
-      </c>
-      <c r="F16">
-        <v>96000</v>
-      </c>
-      <c r="G16">
-        <v>672000</v>
+      <c r="E16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F16" t="s">
+        <v>48</v>
+      </c>
+      <c r="G16" t="s">
+        <v>48</v>
       </c>
       <c r="H16" t="s">
-        <v>110</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>109</v>
+        <v>48</v>
       </c>
       <c r="J16" t="s">
         <v>48</v>
       </c>
-      <c r="K16">
-        <v>7</v>
-      </c>
-      <c r="L16">
-        <v>95000</v>
-      </c>
-      <c r="M16">
-        <v>665000</v>
+      <c r="K16" t="s">
+        <v>48</v>
+      </c>
+      <c r="L16" t="s">
+        <v>48</v>
+      </c>
+      <c r="M16" t="s">
+        <v>48</v>
       </c>
       <c r="N16" t="s">
-        <v>111</v>
+        <v>48</v>
       </c>
       <c r="O16" t="s">
-        <v>109</v>
+        <v>48</v>
       </c>
       <c r="P16" t="s">
         <v>48</v>
@@ -4351,7 +3884,7 @@
         <v>48</v>
       </c>
       <c r="U16" t="s">
-        <v>109</v>
+        <v>48</v>
       </c>
       <c r="V16" t="s">
         <v>48</v>
@@ -4368,9 +3901,8 @@
       <c r="Z16" t="s">
         <v>48</v>
       </c>
-      <c r="AA16" t="str">
-        <f t="shared" si="0"/>
-        <v>落花-谢南</v>
+      <c r="AA16" t="s">
+        <v>48</v>
       </c>
       <c r="AB16" t="s">
         <v>48</v>
@@ -4435,10 +3967,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="C17" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="D17" t="s">
         <v>48</v>
@@ -4447,13 +3979,13 @@
         <v>5</v>
       </c>
       <c r="F17">
-        <v>200000</v>
+        <v>217000</v>
       </c>
       <c r="G17">
-        <v>1000000</v>
+        <v>1085000</v>
       </c>
       <c r="H17" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="I17" t="s">
         <v>48</v>
@@ -4461,17 +3993,17 @@
       <c r="J17" t="s">
         <v>48</v>
       </c>
-      <c r="K17">
-        <v>6</v>
-      </c>
-      <c r="L17">
-        <v>135000</v>
-      </c>
-      <c r="M17">
-        <v>810000</v>
+      <c r="K17" t="s">
+        <v>48</v>
+      </c>
+      <c r="L17" t="s">
+        <v>48</v>
+      </c>
+      <c r="M17" t="s">
+        <v>48</v>
       </c>
       <c r="N17" t="s">
-        <v>115</v>
+        <v>48</v>
       </c>
       <c r="O17" t="s">
         <v>48</v>
@@ -4479,17 +4011,17 @@
       <c r="P17" t="s">
         <v>48</v>
       </c>
-      <c r="Q17">
-        <v>5</v>
-      </c>
-      <c r="R17">
-        <v>136000</v>
-      </c>
-      <c r="S17">
-        <v>680000</v>
+      <c r="Q17" t="s">
+        <v>48</v>
+      </c>
+      <c r="R17" t="s">
+        <v>48</v>
+      </c>
+      <c r="S17" t="s">
+        <v>48</v>
       </c>
       <c r="T17" t="s">
-        <v>116</v>
+        <v>48</v>
       </c>
       <c r="U17" t="s">
         <v>48</v>
@@ -4497,21 +4029,20 @@
       <c r="V17" t="s">
         <v>48</v>
       </c>
-      <c r="W17">
-        <v>5</v>
-      </c>
-      <c r="X17">
-        <v>138000</v>
-      </c>
-      <c r="Y17">
-        <v>690000</v>
+      <c r="W17" t="s">
+        <v>48</v>
+      </c>
+      <c r="X17" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>48</v>
       </c>
       <c r="Z17" t="s">
-        <v>117</v>
-      </c>
-      <c r="AA17" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <v>48</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>48</v>
       </c>
       <c r="AB17" t="s">
         <v>48</v>
@@ -4576,25 +4107,25 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="C18" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="D18" t="s">
         <v>48</v>
       </c>
       <c r="E18">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F18">
-        <v>130000</v>
+        <v>165000</v>
       </c>
       <c r="G18">
-        <v>1170000</v>
+        <v>1155000</v>
       </c>
       <c r="H18" t="s">
-        <v>120</v>
+        <v>89</v>
       </c>
       <c r="I18" t="s">
         <v>48</v>
@@ -4602,17 +4133,17 @@
       <c r="J18" t="s">
         <v>48</v>
       </c>
-      <c r="K18">
-        <v>7</v>
-      </c>
-      <c r="L18">
-        <v>135000</v>
-      </c>
-      <c r="M18">
-        <v>945000</v>
+      <c r="K18" t="s">
+        <v>48</v>
+      </c>
+      <c r="L18" t="s">
+        <v>48</v>
+      </c>
+      <c r="M18" t="s">
+        <v>48</v>
       </c>
       <c r="N18" t="s">
-        <v>121</v>
+        <v>48</v>
       </c>
       <c r="O18" t="s">
         <v>48</v>
@@ -4620,17 +4151,17 @@
       <c r="P18" t="s">
         <v>48</v>
       </c>
-      <c r="Q18">
-        <v>9</v>
-      </c>
-      <c r="R18">
-        <v>136000</v>
-      </c>
-      <c r="S18">
-        <v>1224000</v>
+      <c r="Q18" t="s">
+        <v>48</v>
+      </c>
+      <c r="R18" t="s">
+        <v>48</v>
+      </c>
+      <c r="S18" t="s">
+        <v>48</v>
       </c>
       <c r="T18" t="s">
-        <v>122</v>
+        <v>48</v>
       </c>
       <c r="U18" t="s">
         <v>48</v>
@@ -4650,9 +4181,8 @@
       <c r="Z18" t="s">
         <v>48</v>
       </c>
-      <c r="AA18" t="str">
-        <f t="shared" si="0"/>
-        <v>落花.花祭夜.今天机密65w分哦</v>
+      <c r="AA18" t="s">
+        <v>48</v>
       </c>
       <c r="AB18" t="s">
         <v>48</v>
@@ -4717,25 +4247,25 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>123</v>
+        <v>90</v>
       </c>
       <c r="C19" t="s">
-        <v>124</v>
+        <v>91</v>
       </c>
       <c r="D19" t="s">
         <v>48</v>
       </c>
-      <c r="E19">
-        <v>6</v>
-      </c>
-      <c r="F19">
-        <v>129000</v>
-      </c>
-      <c r="G19">
-        <v>774000</v>
+      <c r="E19" t="s">
+        <v>48</v>
+      </c>
+      <c r="F19" t="s">
+        <v>48</v>
+      </c>
+      <c r="G19" t="s">
+        <v>48</v>
       </c>
       <c r="H19" t="s">
-        <v>125</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
         <v>48</v>
@@ -4743,57 +4273,56 @@
       <c r="J19" t="s">
         <v>48</v>
       </c>
-      <c r="K19">
-        <v>6</v>
-      </c>
-      <c r="L19">
-        <v>112000</v>
-      </c>
-      <c r="M19">
-        <v>672000</v>
+      <c r="K19" t="s">
+        <v>48</v>
+      </c>
+      <c r="L19" t="s">
+        <v>48</v>
+      </c>
+      <c r="M19" t="s">
+        <v>48</v>
       </c>
       <c r="N19" t="s">
-        <v>126</v>
+        <v>48</v>
       </c>
       <c r="O19" t="s">
-        <v>124</v>
+        <v>48</v>
       </c>
       <c r="P19" t="s">
         <v>48</v>
       </c>
-      <c r="Q19">
-        <v>6</v>
-      </c>
-      <c r="R19">
-        <v>113000</v>
-      </c>
-      <c r="S19">
-        <v>678000</v>
+      <c r="Q19" t="s">
+        <v>48</v>
+      </c>
+      <c r="R19" t="s">
+        <v>48</v>
+      </c>
+      <c r="S19" t="s">
+        <v>48</v>
       </c>
       <c r="T19" t="s">
-        <v>127</v>
+        <v>48</v>
       </c>
       <c r="U19" t="s">
-        <v>124</v>
+        <v>48</v>
       </c>
       <c r="V19" t="s">
         <v>48</v>
       </c>
-      <c r="W19">
-        <v>6</v>
-      </c>
-      <c r="X19">
-        <v>114000</v>
-      </c>
-      <c r="Y19">
-        <v>684000</v>
+      <c r="W19" t="s">
+        <v>48</v>
+      </c>
+      <c r="X19" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>48</v>
       </c>
       <c r="Z19" t="s">
-        <v>128</v>
-      </c>
-      <c r="AA19" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <v>48</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>48</v>
       </c>
       <c r="AB19" t="s">
         <v>48</v>
@@ -4858,10 +4387,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>129</v>
+        <v>92</v>
       </c>
       <c r="C20" t="s">
-        <v>130</v>
+        <v>93</v>
       </c>
       <c r="D20" t="s">
         <v>48</v>
@@ -4870,13 +4399,13 @@
         <v>5</v>
       </c>
       <c r="F20">
-        <v>142000</v>
+        <v>170000</v>
       </c>
       <c r="G20">
-        <v>710000</v>
+        <v>850000</v>
       </c>
       <c r="H20" t="s">
-        <v>131</v>
+        <v>94</v>
       </c>
       <c r="I20" t="s">
         <v>48</v>
@@ -4884,17 +4413,17 @@
       <c r="J20" t="s">
         <v>48</v>
       </c>
-      <c r="K20">
-        <v>8</v>
-      </c>
-      <c r="L20">
-        <v>90000</v>
-      </c>
-      <c r="M20">
-        <v>720000</v>
+      <c r="K20" t="s">
+        <v>48</v>
+      </c>
+      <c r="L20" t="s">
+        <v>48</v>
+      </c>
+      <c r="M20" t="s">
+        <v>48</v>
       </c>
       <c r="N20" t="s">
-        <v>132</v>
+        <v>48</v>
       </c>
       <c r="O20" t="s">
         <v>48</v>
@@ -4902,17 +4431,17 @@
       <c r="P20" t="s">
         <v>48</v>
       </c>
-      <c r="Q20">
-        <v>8</v>
-      </c>
-      <c r="R20">
-        <v>90000</v>
-      </c>
-      <c r="S20">
-        <v>720000</v>
+      <c r="Q20" t="s">
+        <v>48</v>
+      </c>
+      <c r="R20" t="s">
+        <v>48</v>
+      </c>
+      <c r="S20" t="s">
+        <v>48</v>
       </c>
       <c r="T20" t="s">
-        <v>133</v>
+        <v>48</v>
       </c>
       <c r="U20" t="s">
         <v>48</v>
@@ -4932,9 +4461,8 @@
       <c r="Z20" t="s">
         <v>48</v>
       </c>
-      <c r="AA20" t="str">
-        <f t="shared" si="0"/>
-        <v>落花-白茶</v>
+      <c r="AA20" t="s">
+        <v>48</v>
       </c>
       <c r="AB20" t="s">
         <v>48</v>
@@ -4999,43 +4527,43 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="C21" t="s">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="D21" t="s">
         <v>48</v>
       </c>
       <c r="E21">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F21">
-        <v>93000</v>
+        <v>131000</v>
       </c>
       <c r="G21">
-        <v>651000</v>
+        <v>786000</v>
       </c>
       <c r="H21" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="I21" t="s">
-        <v>135</v>
+        <v>48</v>
       </c>
       <c r="J21" t="s">
         <v>48</v>
       </c>
-      <c r="K21">
-        <v>8</v>
-      </c>
-      <c r="L21">
-        <v>96000</v>
-      </c>
-      <c r="M21">
-        <v>768000</v>
+      <c r="K21" t="s">
+        <v>48</v>
+      </c>
+      <c r="L21" t="s">
+        <v>48</v>
+      </c>
+      <c r="M21" t="s">
+        <v>48</v>
       </c>
       <c r="N21" t="s">
-        <v>137</v>
+        <v>48</v>
       </c>
       <c r="O21" t="s">
         <v>48</v>
@@ -5056,7 +4584,7 @@
         <v>48</v>
       </c>
       <c r="U21" t="s">
-        <v>135</v>
+        <v>48</v>
       </c>
       <c r="V21" t="s">
         <v>48</v>
@@ -5073,9 +4601,8 @@
       <c r="Z21" t="s">
         <v>48</v>
       </c>
-      <c r="AA21" t="str">
-        <f t="shared" si="0"/>
-        <v>落花 小虚</v>
+      <c r="AA21" t="s">
+        <v>48</v>
       </c>
       <c r="AB21" t="s">
         <v>48</v>
@@ -5140,25 +4667,25 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>138</v>
+        <v>98</v>
       </c>
       <c r="C22" t="s">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="D22" t="s">
         <v>48</v>
       </c>
-      <c r="E22">
-        <v>5</v>
-      </c>
-      <c r="F22">
-        <v>145000</v>
-      </c>
-      <c r="G22">
-        <v>725000</v>
+      <c r="E22" t="s">
+        <v>48</v>
+      </c>
+      <c r="F22" t="s">
+        <v>48</v>
+      </c>
+      <c r="G22" t="s">
+        <v>48</v>
       </c>
       <c r="H22" t="s">
-        <v>140</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
         <v>48</v>
@@ -5166,17 +4693,17 @@
       <c r="J22" t="s">
         <v>48</v>
       </c>
-      <c r="K22">
-        <v>7</v>
-      </c>
-      <c r="L22">
-        <v>100000</v>
-      </c>
-      <c r="M22">
-        <v>700000</v>
+      <c r="K22" t="s">
+        <v>48</v>
+      </c>
+      <c r="L22" t="s">
+        <v>48</v>
+      </c>
+      <c r="M22" t="s">
+        <v>48</v>
       </c>
       <c r="N22" t="s">
-        <v>141</v>
+        <v>48</v>
       </c>
       <c r="O22" t="s">
         <v>48</v>
@@ -5184,17 +4711,17 @@
       <c r="P22" t="s">
         <v>48</v>
       </c>
-      <c r="Q22">
-        <v>7</v>
-      </c>
-      <c r="R22">
-        <v>100000</v>
-      </c>
-      <c r="S22">
-        <v>700000</v>
+      <c r="Q22" t="s">
+        <v>48</v>
+      </c>
+      <c r="R22" t="s">
+        <v>48</v>
+      </c>
+      <c r="S22" t="s">
+        <v>48</v>
       </c>
       <c r="T22" t="s">
-        <v>142</v>
+        <v>48</v>
       </c>
       <c r="U22" t="s">
         <v>48</v>
@@ -5202,21 +4729,20 @@
       <c r="V22" t="s">
         <v>48</v>
       </c>
-      <c r="W22">
-        <v>7</v>
-      </c>
-      <c r="X22">
-        <v>100000</v>
-      </c>
-      <c r="Y22">
-        <v>700000</v>
+      <c r="W22" t="s">
+        <v>48</v>
+      </c>
+      <c r="X22" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>48</v>
       </c>
       <c r="Z22" t="s">
-        <v>143</v>
-      </c>
-      <c r="AA22" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <v>48</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>48</v>
       </c>
       <c r="AB22" t="s">
         <v>48</v>
@@ -5281,61 +4807,61 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>144</v>
+        <v>100</v>
       </c>
       <c r="C23" t="s">
-        <v>145</v>
+        <v>101</v>
       </c>
       <c r="D23" t="s">
         <v>48</v>
       </c>
-      <c r="E23">
-        <v>5</v>
-      </c>
-      <c r="F23">
-        <v>128000</v>
-      </c>
-      <c r="G23">
-        <v>640000</v>
+      <c r="E23" t="s">
+        <v>48</v>
+      </c>
+      <c r="F23" t="s">
+        <v>48</v>
+      </c>
+      <c r="G23" t="s">
+        <v>48</v>
       </c>
       <c r="H23" t="s">
-        <v>146</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>145</v>
+        <v>48</v>
       </c>
       <c r="J23" t="s">
         <v>48</v>
       </c>
-      <c r="K23">
-        <v>7</v>
-      </c>
-      <c r="L23">
-        <v>97000</v>
-      </c>
-      <c r="M23">
-        <v>679000</v>
+      <c r="K23" t="s">
+        <v>48</v>
+      </c>
+      <c r="L23" t="s">
+        <v>48</v>
+      </c>
+      <c r="M23" t="s">
+        <v>48</v>
       </c>
       <c r="N23" t="s">
-        <v>147</v>
+        <v>48</v>
       </c>
       <c r="O23" t="s">
-        <v>145</v>
+        <v>48</v>
       </c>
       <c r="P23" t="s">
         <v>48</v>
       </c>
-      <c r="Q23">
-        <v>8</v>
-      </c>
-      <c r="R23">
-        <v>98000</v>
-      </c>
-      <c r="S23">
-        <v>784000</v>
+      <c r="Q23" t="s">
+        <v>48</v>
+      </c>
+      <c r="R23" t="s">
+        <v>48</v>
+      </c>
+      <c r="S23" t="s">
+        <v>48</v>
       </c>
       <c r="T23" t="s">
-        <v>148</v>
+        <v>48</v>
       </c>
       <c r="U23" t="s">
         <v>48</v>
@@ -5355,9 +4881,8 @@
       <c r="Z23" t="s">
         <v>48</v>
       </c>
-      <c r="AA23" t="str">
-        <f t="shared" si="0"/>
-        <v>落花⭐Rai</v>
+      <c r="AA23" t="s">
+        <v>48</v>
       </c>
       <c r="AB23" t="s">
         <v>48</v>
@@ -5422,43 +4947,43 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>149</v>
+        <v>102</v>
       </c>
       <c r="C24" t="s">
-        <v>150</v>
+        <v>103</v>
       </c>
       <c r="D24" t="s">
         <v>48</v>
       </c>
       <c r="E24">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F24">
-        <v>112000</v>
+        <v>166000</v>
       </c>
       <c r="G24">
-        <v>672000</v>
+        <v>830000</v>
       </c>
       <c r="H24" t="s">
-        <v>151</v>
+        <v>104</v>
       </c>
       <c r="I24" t="s">
-        <v>150</v>
+        <v>48</v>
       </c>
       <c r="J24" t="s">
         <v>48</v>
       </c>
-      <c r="K24">
-        <v>6</v>
-      </c>
-      <c r="L24">
-        <v>120000</v>
-      </c>
-      <c r="M24">
-        <v>720000</v>
+      <c r="K24" t="s">
+        <v>48</v>
+      </c>
+      <c r="L24" t="s">
+        <v>48</v>
+      </c>
+      <c r="M24" t="s">
+        <v>48</v>
       </c>
       <c r="N24" t="s">
-        <v>152</v>
+        <v>48</v>
       </c>
       <c r="O24" t="s">
         <v>48</v>
@@ -5466,17 +4991,17 @@
       <c r="P24" t="s">
         <v>48</v>
       </c>
-      <c r="Q24">
-        <v>6</v>
-      </c>
-      <c r="R24">
-        <v>126000</v>
-      </c>
-      <c r="S24">
-        <v>756000</v>
+      <c r="Q24" t="s">
+        <v>48</v>
+      </c>
+      <c r="R24" t="s">
+        <v>48</v>
+      </c>
+      <c r="S24" t="s">
+        <v>48</v>
       </c>
       <c r="T24" t="s">
-        <v>153</v>
+        <v>48</v>
       </c>
       <c r="U24" t="s">
         <v>48</v>
@@ -5496,9 +5021,8 @@
       <c r="Z24" t="s">
         <v>48</v>
       </c>
-      <c r="AA24" t="str">
-        <f t="shared" si="0"/>
-        <v>落花 可露丽</v>
+      <c r="AA24" t="s">
+        <v>48</v>
       </c>
       <c r="AB24" t="s">
         <v>48</v>
@@ -5563,10 +5087,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>154</v>
+        <v>105</v>
       </c>
       <c r="C25" t="s">
-        <v>155</v>
+        <v>106</v>
       </c>
       <c r="D25" t="s">
         <v>48</v>
@@ -5575,13 +5099,13 @@
         <v>7</v>
       </c>
       <c r="F25">
-        <v>100000</v>
+        <v>99000</v>
       </c>
       <c r="G25">
-        <v>700000</v>
+        <v>693000</v>
       </c>
       <c r="H25" t="s">
-        <v>156</v>
+        <v>107</v>
       </c>
       <c r="I25" t="s">
         <v>48</v>
@@ -5589,17 +5113,17 @@
       <c r="J25" t="s">
         <v>48</v>
       </c>
-      <c r="K25">
-        <v>9</v>
-      </c>
-      <c r="L25">
-        <v>76000</v>
-      </c>
-      <c r="M25">
-        <v>684000</v>
+      <c r="K25" t="s">
+        <v>48</v>
+      </c>
+      <c r="L25" t="s">
+        <v>48</v>
+      </c>
+      <c r="M25" t="s">
+        <v>48</v>
       </c>
       <c r="N25" t="s">
-        <v>157</v>
+        <v>48</v>
       </c>
       <c r="O25" t="s">
         <v>48</v>
@@ -5607,17 +5131,17 @@
       <c r="P25" t="s">
         <v>48</v>
       </c>
-      <c r="Q25">
-        <v>8</v>
-      </c>
-      <c r="R25">
-        <v>84000</v>
-      </c>
-      <c r="S25">
-        <v>672000</v>
+      <c r="Q25" t="s">
+        <v>48</v>
+      </c>
+      <c r="R25" t="s">
+        <v>48</v>
+      </c>
+      <c r="S25" t="s">
+        <v>48</v>
       </c>
       <c r="T25" t="s">
-        <v>158</v>
+        <v>48</v>
       </c>
       <c r="U25" t="s">
         <v>48</v>
@@ -5625,21 +5149,20 @@
       <c r="V25" t="s">
         <v>48</v>
       </c>
-      <c r="W25">
-        <v>8</v>
-      </c>
-      <c r="X25">
-        <v>83000</v>
-      </c>
-      <c r="Y25">
-        <v>664000</v>
+      <c r="W25" t="s">
+        <v>48</v>
+      </c>
+      <c r="X25" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>48</v>
       </c>
       <c r="Z25" t="s">
-        <v>159</v>
-      </c>
-      <c r="AA25" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <v>48</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>48</v>
       </c>
       <c r="AB25" t="s">
         <v>48</v>
@@ -5704,10 +5227,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>160</v>
+        <v>108</v>
       </c>
       <c r="C26" t="s">
-        <v>161</v>
+        <v>109</v>
       </c>
       <c r="D26" t="s">
         <v>48</v>
@@ -5716,13 +5239,13 @@
         <v>5</v>
       </c>
       <c r="F26">
-        <v>160000</v>
+        <v>165000</v>
       </c>
       <c r="G26">
-        <v>800000</v>
+        <v>825000</v>
       </c>
       <c r="H26" t="s">
-        <v>162</v>
+        <v>110</v>
       </c>
       <c r="I26" t="s">
         <v>48</v>
@@ -5730,17 +5253,17 @@
       <c r="J26" t="s">
         <v>48</v>
       </c>
-      <c r="K26">
-        <v>6</v>
-      </c>
-      <c r="L26">
-        <v>118000</v>
-      </c>
-      <c r="M26">
-        <v>708000</v>
+      <c r="K26" t="s">
+        <v>48</v>
+      </c>
+      <c r="L26" t="s">
+        <v>48</v>
+      </c>
+      <c r="M26" t="s">
+        <v>48</v>
       </c>
       <c r="N26" t="s">
-        <v>163</v>
+        <v>48</v>
       </c>
       <c r="O26" t="s">
         <v>48</v>
@@ -5778,9 +5301,8 @@
       <c r="Z26" t="s">
         <v>48</v>
       </c>
-      <c r="AA26" t="str">
-        <f t="shared" si="0"/>
-        <v>落花—陆阮阮</v>
+      <c r="AA26" t="s">
+        <v>48</v>
       </c>
       <c r="AB26" t="s">
         <v>48</v>
@@ -5845,25 +5367,25 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>164</v>
+        <v>111</v>
       </c>
       <c r="C27" t="s">
-        <v>165</v>
+        <v>112</v>
       </c>
       <c r="D27" t="s">
         <v>48</v>
       </c>
-      <c r="E27">
-        <v>6</v>
-      </c>
-      <c r="F27">
-        <v>124000</v>
-      </c>
-      <c r="G27">
-        <v>744000</v>
+      <c r="E27" t="s">
+        <v>48</v>
+      </c>
+      <c r="F27" t="s">
+        <v>48</v>
+      </c>
+      <c r="G27" t="s">
+        <v>48</v>
       </c>
       <c r="H27" t="s">
-        <v>166</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
         <v>48</v>
@@ -5871,17 +5393,17 @@
       <c r="J27" t="s">
         <v>48</v>
       </c>
-      <c r="K27">
-        <v>6</v>
-      </c>
-      <c r="L27">
-        <v>128000</v>
-      </c>
-      <c r="M27">
-        <v>768000</v>
+      <c r="K27" t="s">
+        <v>48</v>
+      </c>
+      <c r="L27" t="s">
+        <v>48</v>
+      </c>
+      <c r="M27" t="s">
+        <v>48</v>
       </c>
       <c r="N27" t="s">
-        <v>167</v>
+        <v>48</v>
       </c>
       <c r="O27" t="s">
         <v>48</v>
@@ -5919,9 +5441,8 @@
       <c r="Z27" t="s">
         <v>48</v>
       </c>
-      <c r="AA27" t="str">
-        <f t="shared" si="0"/>
-        <v>落花，灰姐</v>
+      <c r="AA27" t="s">
+        <v>48</v>
       </c>
       <c r="AB27" t="s">
         <v>48</v>
@@ -5986,43 +5507,43 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>168</v>
+        <v>113</v>
       </c>
       <c r="C28" t="s">
-        <v>169</v>
+        <v>114</v>
       </c>
       <c r="D28" t="s">
         <v>48</v>
       </c>
-      <c r="E28">
-        <v>5</v>
-      </c>
-      <c r="F28">
-        <v>134000</v>
-      </c>
-      <c r="G28">
-        <v>670000</v>
+      <c r="E28" t="s">
+        <v>48</v>
+      </c>
+      <c r="F28" t="s">
+        <v>48</v>
+      </c>
+      <c r="G28" t="s">
+        <v>48</v>
       </c>
       <c r="H28" t="s">
-        <v>170</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>169</v>
+        <v>48</v>
       </c>
       <c r="J28" t="s">
         <v>48</v>
       </c>
-      <c r="K28">
-        <v>5</v>
-      </c>
-      <c r="L28">
-        <v>136000</v>
-      </c>
-      <c r="M28">
-        <v>680000</v>
+      <c r="K28" t="s">
+        <v>48</v>
+      </c>
+      <c r="L28" t="s">
+        <v>48</v>
+      </c>
+      <c r="M28" t="s">
+        <v>48</v>
       </c>
       <c r="N28" t="s">
-        <v>171</v>
+        <v>48</v>
       </c>
       <c r="O28" t="s">
         <v>48</v>
@@ -6048,21 +5569,20 @@
       <c r="V28" t="s">
         <v>48</v>
       </c>
-      <c r="W28">
-        <v>5</v>
-      </c>
-      <c r="X28">
-        <v>149000</v>
-      </c>
-      <c r="Y28">
-        <v>745000</v>
+      <c r="W28" t="s">
+        <v>48</v>
+      </c>
+      <c r="X28" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>48</v>
       </c>
       <c r="Z28" t="s">
-        <v>172</v>
-      </c>
-      <c r="AA28" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <v>48</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>48</v>
       </c>
       <c r="AB28" t="s">
         <v>48</v>
@@ -6127,10 +5647,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>173</v>
+        <v>115</v>
       </c>
       <c r="C29" t="s">
-        <v>174</v>
+        <v>116</v>
       </c>
       <c r="D29" t="s">
         <v>48</v>
@@ -6139,13 +5659,13 @@
         <v>5</v>
       </c>
       <c r="F29">
-        <v>146000</v>
+        <v>160000</v>
       </c>
       <c r="G29">
-        <v>730000</v>
+        <v>800000</v>
       </c>
       <c r="H29" t="s">
-        <v>175</v>
+        <v>117</v>
       </c>
       <c r="I29" t="s">
         <v>48</v>
@@ -6153,17 +5673,17 @@
       <c r="J29" t="s">
         <v>48</v>
       </c>
-      <c r="K29">
-        <v>6</v>
-      </c>
-      <c r="L29">
-        <v>125000</v>
-      </c>
-      <c r="M29">
-        <v>750000</v>
+      <c r="K29" t="s">
+        <v>48</v>
+      </c>
+      <c r="L29" t="s">
+        <v>48</v>
+      </c>
+      <c r="M29" t="s">
+        <v>48</v>
       </c>
       <c r="N29" t="s">
-        <v>176</v>
+        <v>48</v>
       </c>
       <c r="O29" t="s">
         <v>48</v>
@@ -6201,9 +5721,8 @@
       <c r="Z29" t="s">
         <v>48</v>
       </c>
-      <c r="AA29" t="str">
-        <f t="shared" si="0"/>
-        <v>落花@藤原千花</v>
+      <c r="AA29" t="s">
+        <v>48</v>
       </c>
       <c r="AB29" t="s">
         <v>48</v>
@@ -6268,10 +5787,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>177</v>
+        <v>118</v>
       </c>
       <c r="C30" t="s">
-        <v>178</v>
+        <v>119</v>
       </c>
       <c r="D30" t="s">
         <v>48</v>
@@ -6307,7 +5826,7 @@
         <v>48</v>
       </c>
       <c r="O30" t="s">
-        <v>178</v>
+        <v>48</v>
       </c>
       <c r="P30" t="s">
         <v>48</v>
@@ -6325,7 +5844,7 @@
         <v>48</v>
       </c>
       <c r="U30" t="s">
-        <v>178</v>
+        <v>48</v>
       </c>
       <c r="V30" t="s">
         <v>48</v>
@@ -6342,9 +5861,8 @@
       <c r="Z30" t="s">
         <v>48</v>
       </c>
-      <c r="AA30" t="str">
-        <f t="shared" si="0"/>
-        <v>落花-瓷羽</v>
+      <c r="AA30" t="s">
+        <v>48</v>
       </c>
       <c r="AB30" t="s">
         <v>48</v>
@@ -6409,43 +5927,43 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>179</v>
+        <v>120</v>
       </c>
       <c r="C31" t="s">
-        <v>180</v>
+        <v>121</v>
       </c>
       <c r="D31" t="s">
         <v>48</v>
       </c>
-      <c r="E31" t="s">
-        <v>48</v>
-      </c>
-      <c r="F31" t="s">
-        <v>48</v>
-      </c>
-      <c r="G31" t="s">
-        <v>48</v>
+      <c r="E31">
+        <v>7</v>
+      </c>
+      <c r="F31">
+        <v>160000</v>
+      </c>
+      <c r="G31">
+        <v>1120000</v>
       </c>
       <c r="H31" t="s">
-        <v>48</v>
+        <v>122</v>
       </c>
       <c r="I31" t="s">
-        <v>180</v>
+        <v>48</v>
       </c>
       <c r="J31" t="s">
         <v>48</v>
       </c>
-      <c r="K31">
-        <v>9</v>
-      </c>
-      <c r="L31">
-        <v>110000</v>
-      </c>
-      <c r="M31">
-        <v>990000</v>
+      <c r="K31" t="s">
+        <v>48</v>
+      </c>
+      <c r="L31" t="s">
+        <v>48</v>
+      </c>
+      <c r="M31" t="s">
+        <v>48</v>
       </c>
       <c r="N31" t="s">
-        <v>181</v>
+        <v>48</v>
       </c>
       <c r="O31" t="s">
         <v>48</v>
@@ -6453,17 +5971,17 @@
       <c r="P31" t="s">
         <v>48</v>
       </c>
-      <c r="Q31">
-        <v>7</v>
-      </c>
-      <c r="R31">
-        <v>110000</v>
-      </c>
-      <c r="S31">
-        <v>770000</v>
+      <c r="Q31" t="s">
+        <v>48</v>
+      </c>
+      <c r="R31" t="s">
+        <v>48</v>
+      </c>
+      <c r="S31" t="s">
+        <v>48</v>
       </c>
       <c r="T31" t="s">
-        <v>182</v>
+        <v>48</v>
       </c>
       <c r="U31" t="s">
         <v>48</v>
@@ -6471,21 +5989,20 @@
       <c r="V31" t="s">
         <v>48</v>
       </c>
-      <c r="W31">
-        <v>9</v>
-      </c>
-      <c r="X31">
-        <v>115000</v>
-      </c>
-      <c r="Y31">
-        <v>1035000</v>
+      <c r="W31" t="s">
+        <v>48</v>
+      </c>
+      <c r="X31" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>48</v>
       </c>
       <c r="Z31" t="s">
-        <v>183</v>
-      </c>
-      <c r="AA31" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <v>48</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>48</v>
       </c>
       <c r="AB31" t="s">
         <v>48</v>
@@ -6550,25 +6067,25 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="C32" t="s">
-        <v>185</v>
+        <v>124</v>
       </c>
       <c r="D32" t="s">
         <v>48</v>
       </c>
-      <c r="E32">
-        <v>7</v>
-      </c>
-      <c r="F32">
-        <v>100000</v>
-      </c>
-      <c r="G32">
-        <v>700000</v>
+      <c r="E32" t="s">
+        <v>48</v>
+      </c>
+      <c r="F32" t="s">
+        <v>48</v>
+      </c>
+      <c r="G32" t="s">
+        <v>48</v>
       </c>
       <c r="H32" t="s">
-        <v>186</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
         <v>48</v>
@@ -6576,17 +6093,17 @@
       <c r="J32" t="s">
         <v>48</v>
       </c>
-      <c r="K32">
-        <v>7</v>
-      </c>
-      <c r="L32">
-        <v>100000</v>
-      </c>
-      <c r="M32">
-        <v>700000</v>
+      <c r="K32" t="s">
+        <v>48</v>
+      </c>
+      <c r="L32" t="s">
+        <v>48</v>
+      </c>
+      <c r="M32" t="s">
+        <v>48</v>
       </c>
       <c r="N32" t="s">
-        <v>187</v>
+        <v>48</v>
       </c>
       <c r="O32" t="s">
         <v>48</v>
@@ -6624,9 +6141,8 @@
       <c r="Z32" t="s">
         <v>48</v>
       </c>
-      <c r="AA32" t="str">
-        <f t="shared" si="0"/>
-        <v>落花 阿幼</v>
+      <c r="AA32" t="s">
+        <v>48</v>
       </c>
       <c r="AB32" t="s">
         <v>48</v>
@@ -6691,25 +6207,25 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>188</v>
+        <v>125</v>
       </c>
       <c r="C33" t="s">
-        <v>189</v>
+        <v>126</v>
       </c>
       <c r="D33" t="s">
         <v>48</v>
       </c>
-      <c r="E33">
-        <v>13</v>
-      </c>
-      <c r="F33">
-        <v>50000</v>
-      </c>
-      <c r="G33">
-        <v>650000</v>
+      <c r="E33" t="s">
+        <v>48</v>
+      </c>
+      <c r="F33" t="s">
+        <v>48</v>
+      </c>
+      <c r="G33" t="s">
+        <v>48</v>
       </c>
       <c r="H33" t="s">
-        <v>190</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
         <v>48</v>
@@ -6717,17 +6233,17 @@
       <c r="J33" t="s">
         <v>48</v>
       </c>
-      <c r="K33">
-        <v>13</v>
-      </c>
-      <c r="L33">
-        <v>51000</v>
-      </c>
-      <c r="M33">
-        <v>663000</v>
+      <c r="K33" t="s">
+        <v>48</v>
+      </c>
+      <c r="L33" t="s">
+        <v>48</v>
+      </c>
+      <c r="M33" t="s">
+        <v>48</v>
       </c>
       <c r="N33" t="s">
-        <v>191</v>
+        <v>48</v>
       </c>
       <c r="O33" t="s">
         <v>48</v>
@@ -6753,21 +6269,20 @@
       <c r="V33" t="s">
         <v>48</v>
       </c>
-      <c r="W33">
-        <v>13</v>
-      </c>
-      <c r="X33">
-        <v>51000</v>
-      </c>
-      <c r="Y33">
-        <v>663000</v>
+      <c r="W33" t="s">
+        <v>48</v>
+      </c>
+      <c r="X33" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>48</v>
       </c>
       <c r="Z33" t="s">
-        <v>192</v>
-      </c>
-      <c r="AA33" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <v>48</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>48</v>
       </c>
       <c r="AB33" t="s">
         <v>48</v>
@@ -6832,25 +6347,25 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>193</v>
+        <v>127</v>
       </c>
       <c r="C34" t="s">
-        <v>194</v>
+        <v>128</v>
       </c>
       <c r="D34" t="s">
         <v>48</v>
       </c>
-      <c r="E34" t="s">
-        <v>48</v>
-      </c>
-      <c r="F34" t="s">
-        <v>48</v>
-      </c>
-      <c r="G34" t="s">
-        <v>48</v>
+      <c r="E34">
+        <v>7</v>
+      </c>
+      <c r="F34">
+        <v>74000</v>
+      </c>
+      <c r="G34">
+        <v>518000</v>
       </c>
       <c r="H34" t="s">
-        <v>48</v>
+        <v>129</v>
       </c>
       <c r="I34" t="s">
         <v>48</v>
@@ -6894,21 +6409,20 @@
       <c r="V34" t="s">
         <v>48</v>
       </c>
-      <c r="W34">
-        <v>8</v>
-      </c>
-      <c r="X34">
-        <v>78000</v>
-      </c>
-      <c r="Y34">
-        <v>624000</v>
+      <c r="W34" t="s">
+        <v>48</v>
+      </c>
+      <c r="X34" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>48</v>
       </c>
       <c r="Z34" t="s">
-        <v>195</v>
-      </c>
-      <c r="AA34" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <v>48</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>48</v>
       </c>
       <c r="AB34" t="s">
         <v>48</v>
@@ -6973,10 +6487,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>196</v>
+        <v>130</v>
       </c>
       <c r="C35" t="s">
-        <v>197</v>
+        <v>131</v>
       </c>
       <c r="D35" t="s">
         <v>48</v>
@@ -6994,7 +6508,7 @@
         <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>197</v>
+        <v>48</v>
       </c>
       <c r="J35" t="s">
         <v>48</v>
@@ -7012,7 +6526,7 @@
         <v>48</v>
       </c>
       <c r="O35" t="s">
-        <v>197</v>
+        <v>48</v>
       </c>
       <c r="P35" t="s">
         <v>48</v>
@@ -7047,9 +6561,8 @@
       <c r="Z35" t="s">
         <v>48</v>
       </c>
-      <c r="AA35" t="str">
-        <f t="shared" si="0"/>
-        <v>落花-24k草莓小葵</v>
+      <c r="AA35" t="s">
+        <v>48</v>
       </c>
       <c r="AB35" t="s">
         <v>48</v>
@@ -7114,25 +6627,25 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>198</v>
+        <v>132</v>
       </c>
       <c r="C36" t="s">
-        <v>199</v>
+        <v>133</v>
       </c>
       <c r="D36" t="s">
         <v>48</v>
       </c>
       <c r="E36">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F36">
-        <v>140000</v>
+        <v>169474</v>
       </c>
       <c r="G36">
-        <v>980000</v>
+        <v>847370</v>
       </c>
       <c r="H36" t="s">
-        <v>200</v>
+        <v>134</v>
       </c>
       <c r="I36" t="s">
         <v>48</v>
@@ -7140,17 +6653,17 @@
       <c r="J36" t="s">
         <v>48</v>
       </c>
-      <c r="K36">
-        <v>9</v>
-      </c>
-      <c r="L36">
-        <v>128000</v>
-      </c>
-      <c r="M36">
-        <v>1152000</v>
+      <c r="K36" t="s">
+        <v>48</v>
+      </c>
+      <c r="L36" t="s">
+        <v>48</v>
+      </c>
+      <c r="M36" t="s">
+        <v>48</v>
       </c>
       <c r="N36" t="s">
-        <v>201</v>
+        <v>48</v>
       </c>
       <c r="O36" t="s">
         <v>48</v>
@@ -7176,21 +6689,20 @@
       <c r="V36" t="s">
         <v>48</v>
       </c>
-      <c r="W36">
-        <v>7</v>
-      </c>
-      <c r="X36">
-        <v>130000</v>
-      </c>
-      <c r="Y36">
-        <v>910000</v>
+      <c r="W36" t="s">
+        <v>48</v>
+      </c>
+      <c r="X36" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>48</v>
       </c>
       <c r="Z36" t="s">
-        <v>202</v>
-      </c>
-      <c r="AA36" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <v>48</v>
+      </c>
+      <c r="AA36" t="s">
+        <v>48</v>
       </c>
       <c r="AB36" t="s">
         <v>48</v>
@@ -7255,25 +6767,25 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>203</v>
+        <v>135</v>
       </c>
       <c r="C37" t="s">
-        <v>204</v>
+        <v>136</v>
       </c>
       <c r="D37" t="s">
         <v>48</v>
       </c>
-      <c r="E37">
-        <v>6</v>
-      </c>
-      <c r="F37">
-        <v>112979</v>
-      </c>
-      <c r="G37">
-        <v>677874</v>
+      <c r="E37" t="s">
+        <v>48</v>
+      </c>
+      <c r="F37" t="s">
+        <v>48</v>
+      </c>
+      <c r="G37" t="s">
+        <v>48</v>
       </c>
       <c r="H37" t="s">
-        <v>205</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
         <v>48</v>
@@ -7281,17 +6793,17 @@
       <c r="J37" t="s">
         <v>48</v>
       </c>
-      <c r="K37">
-        <v>6</v>
-      </c>
-      <c r="L37">
-        <v>90000</v>
-      </c>
-      <c r="M37">
-        <v>720000</v>
+      <c r="K37" t="s">
+        <v>48</v>
+      </c>
+      <c r="L37" t="s">
+        <v>48</v>
+      </c>
+      <c r="M37" t="s">
+        <v>48</v>
       </c>
       <c r="N37" t="s">
-        <v>206</v>
+        <v>48</v>
       </c>
       <c r="O37" t="s">
         <v>48</v>
@@ -7317,21 +6829,20 @@
       <c r="V37" t="s">
         <v>48</v>
       </c>
-      <c r="W37">
-        <v>6</v>
-      </c>
-      <c r="X37">
-        <v>118605</v>
-      </c>
-      <c r="Y37">
-        <v>711630</v>
+      <c r="W37" t="s">
+        <v>48</v>
+      </c>
+      <c r="X37" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>48</v>
       </c>
       <c r="Z37" t="s">
-        <v>207</v>
-      </c>
-      <c r="AA37" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <v>48</v>
+      </c>
+      <c r="AA37" t="s">
+        <v>48</v>
       </c>
       <c r="AB37" t="s">
         <v>48</v>
@@ -7396,43 +6907,43 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>208</v>
+        <v>137</v>
       </c>
       <c r="C38" t="s">
-        <v>209</v>
+        <v>138</v>
       </c>
       <c r="D38" t="s">
         <v>48</v>
       </c>
-      <c r="E38" t="s">
-        <v>48</v>
-      </c>
-      <c r="F38" t="s">
-        <v>48</v>
-      </c>
-      <c r="G38" t="s">
-        <v>48</v>
+      <c r="E38">
+        <v>12</v>
+      </c>
+      <c r="F38">
+        <v>100000</v>
+      </c>
+      <c r="G38">
+        <v>1200000</v>
       </c>
       <c r="H38" t="s">
-        <v>48</v>
+        <v>139</v>
       </c>
       <c r="I38" t="s">
-        <v>209</v>
+        <v>48</v>
       </c>
       <c r="J38" t="s">
         <v>48</v>
       </c>
-      <c r="K38">
-        <v>9</v>
-      </c>
-      <c r="L38">
-        <v>83000</v>
-      </c>
-      <c r="M38">
-        <v>747000</v>
+      <c r="K38" t="s">
+        <v>48</v>
+      </c>
+      <c r="L38" t="s">
+        <v>48</v>
+      </c>
+      <c r="M38" t="s">
+        <v>48</v>
       </c>
       <c r="N38" t="s">
-        <v>210</v>
+        <v>48</v>
       </c>
       <c r="O38" t="s">
         <v>48</v>
@@ -7470,9 +6981,8 @@
       <c r="Z38" t="s">
         <v>48</v>
       </c>
-      <c r="AA38" t="str">
-        <f t="shared" si="0"/>
-        <v>落花 苏其凉</v>
+      <c r="AA38" t="s">
+        <v>48</v>
       </c>
       <c r="AB38" t="s">
         <v>48</v>
@@ -7537,10 +7047,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>211</v>
+        <v>140</v>
       </c>
       <c r="C39" t="s">
-        <v>212</v>
+        <v>141</v>
       </c>
       <c r="D39" t="s">
         <v>48</v>
@@ -7549,13 +7059,13 @@
         <v>10</v>
       </c>
       <c r="F39">
-        <v>70000</v>
+        <v>99000</v>
       </c>
       <c r="G39">
-        <v>700000</v>
+        <v>990000</v>
       </c>
       <c r="H39" t="s">
-        <v>213</v>
+        <v>142</v>
       </c>
       <c r="I39" t="s">
         <v>48</v>
@@ -7563,17 +7073,17 @@
       <c r="J39" t="s">
         <v>48</v>
       </c>
-      <c r="K39">
-        <v>15</v>
-      </c>
-      <c r="L39">
-        <v>50000</v>
-      </c>
-      <c r="M39">
-        <v>750000</v>
+      <c r="K39" t="s">
+        <v>48</v>
+      </c>
+      <c r="L39" t="s">
+        <v>48</v>
+      </c>
+      <c r="M39" t="s">
+        <v>48</v>
       </c>
       <c r="N39" t="s">
-        <v>214</v>
+        <v>48</v>
       </c>
       <c r="O39" t="s">
         <v>48</v>
@@ -7594,26 +7104,25 @@
         <v>48</v>
       </c>
       <c r="U39" t="s">
-        <v>212</v>
+        <v>48</v>
       </c>
       <c r="V39" t="s">
         <v>48</v>
       </c>
-      <c r="W39">
-        <v>15</v>
-      </c>
-      <c r="X39">
-        <v>70000</v>
-      </c>
-      <c r="Y39">
-        <v>1050000</v>
+      <c r="W39" t="s">
+        <v>48</v>
+      </c>
+      <c r="X39" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>48</v>
       </c>
       <c r="Z39" t="s">
-        <v>215</v>
-      </c>
-      <c r="AA39" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <v>48</v>
+      </c>
+      <c r="AA39" t="s">
+        <v>48</v>
       </c>
       <c r="AB39" t="s">
         <v>48</v>
@@ -7678,25 +7187,25 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>216</v>
+        <v>143</v>
       </c>
       <c r="C40" t="s">
-        <v>217</v>
+        <v>144</v>
       </c>
       <c r="D40" t="s">
         <v>48</v>
       </c>
-      <c r="E40">
-        <v>8</v>
-      </c>
-      <c r="F40">
-        <v>86000</v>
-      </c>
-      <c r="G40">
-        <v>688000</v>
+      <c r="E40" t="s">
+        <v>48</v>
+      </c>
+      <c r="F40" t="s">
+        <v>48</v>
+      </c>
+      <c r="G40" t="s">
+        <v>48</v>
       </c>
       <c r="H40" t="s">
-        <v>218</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
         <v>48</v>
@@ -7704,17 +7213,17 @@
       <c r="J40" t="s">
         <v>48</v>
       </c>
-      <c r="K40">
-        <v>8</v>
-      </c>
-      <c r="L40">
-        <v>87000</v>
-      </c>
-      <c r="M40">
-        <v>696000</v>
+      <c r="K40" t="s">
+        <v>48</v>
+      </c>
+      <c r="L40" t="s">
+        <v>48</v>
+      </c>
+      <c r="M40" t="s">
+        <v>48</v>
       </c>
       <c r="N40" t="s">
-        <v>219</v>
+        <v>48</v>
       </c>
       <c r="O40" t="s">
         <v>48</v>
@@ -7722,17 +7231,17 @@
       <c r="P40" t="s">
         <v>48</v>
       </c>
-      <c r="Q40">
-        <v>8</v>
-      </c>
-      <c r="R40">
-        <v>90000</v>
-      </c>
-      <c r="S40">
-        <v>720000</v>
+      <c r="Q40" t="s">
+        <v>48</v>
+      </c>
+      <c r="R40" t="s">
+        <v>48</v>
+      </c>
+      <c r="S40" t="s">
+        <v>48</v>
       </c>
       <c r="T40" t="s">
-        <v>220</v>
+        <v>48</v>
       </c>
       <c r="U40" t="s">
         <v>48</v>
@@ -7752,9 +7261,8 @@
       <c r="Z40" t="s">
         <v>48</v>
       </c>
-      <c r="AA40" t="str">
-        <f t="shared" si="0"/>
-        <v>落花 早纪畈枝</v>
+      <c r="AA40" t="s">
+        <v>48</v>
       </c>
       <c r="AB40" t="s">
         <v>48</v>
@@ -7819,25 +7327,25 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>221</v>
+        <v>145</v>
       </c>
       <c r="C41" t="s">
-        <v>222</v>
+        <v>146</v>
       </c>
       <c r="D41" t="s">
         <v>48</v>
       </c>
-      <c r="E41">
-        <v>10</v>
-      </c>
-      <c r="F41">
-        <v>84000</v>
-      </c>
-      <c r="G41">
-        <v>840000</v>
+      <c r="E41" t="s">
+        <v>48</v>
+      </c>
+      <c r="F41" t="s">
+        <v>48</v>
+      </c>
+      <c r="G41" t="s">
+        <v>48</v>
       </c>
       <c r="H41" t="s">
-        <v>223</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
         <v>48</v>
@@ -7845,17 +7353,17 @@
       <c r="J41" t="s">
         <v>48</v>
       </c>
-      <c r="K41">
-        <v>10</v>
-      </c>
-      <c r="L41">
-        <v>86000</v>
-      </c>
-      <c r="M41">
-        <v>860000</v>
+      <c r="K41" t="s">
+        <v>48</v>
+      </c>
+      <c r="L41" t="s">
+        <v>48</v>
+      </c>
+      <c r="M41" t="s">
+        <v>48</v>
       </c>
       <c r="N41" t="s">
-        <v>224</v>
+        <v>48</v>
       </c>
       <c r="O41" t="s">
         <v>48</v>
@@ -7881,21 +7389,20 @@
       <c r="V41" t="s">
         <v>48</v>
       </c>
-      <c r="W41">
-        <v>10</v>
-      </c>
-      <c r="X41">
-        <v>85000</v>
-      </c>
-      <c r="Y41">
-        <v>850000</v>
+      <c r="W41" t="s">
+        <v>48</v>
+      </c>
+      <c r="X41" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>48</v>
       </c>
       <c r="Z41" t="s">
-        <v>225</v>
-      </c>
-      <c r="AA41" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <v>48</v>
+      </c>
+      <c r="AA41" t="s">
+        <v>48</v>
       </c>
       <c r="AB41" t="s">
         <v>48</v>
@@ -7960,25 +7467,25 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>226</v>
+        <v>147</v>
       </c>
       <c r="C42" t="s">
-        <v>227</v>
+        <v>148</v>
       </c>
       <c r="D42" t="s">
         <v>48</v>
       </c>
-      <c r="E42">
-        <v>5</v>
-      </c>
-      <c r="F42">
-        <v>130000</v>
-      </c>
-      <c r="G42">
-        <v>650000</v>
+      <c r="E42" t="s">
+        <v>48</v>
+      </c>
+      <c r="F42" t="s">
+        <v>48</v>
+      </c>
+      <c r="G42" t="s">
+        <v>48</v>
       </c>
       <c r="H42" t="s">
-        <v>228</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
         <v>48</v>
@@ -7986,20 +7493,20 @@
       <c r="J42" t="s">
         <v>48</v>
       </c>
-      <c r="K42">
-        <v>6</v>
-      </c>
-      <c r="L42">
-        <v>110000</v>
-      </c>
-      <c r="M42">
-        <v>660000</v>
+      <c r="K42" t="s">
+        <v>48</v>
+      </c>
+      <c r="L42" t="s">
+        <v>48</v>
+      </c>
+      <c r="M42" t="s">
+        <v>48</v>
       </c>
       <c r="N42" t="s">
-        <v>229</v>
+        <v>48</v>
       </c>
       <c r="O42" t="s">
-        <v>227</v>
+        <v>48</v>
       </c>
       <c r="P42" t="s">
         <v>48</v>
@@ -8034,9 +7541,8 @@
       <c r="Z42" t="s">
         <v>48</v>
       </c>
-      <c r="AA42" t="str">
-        <f t="shared" si="0"/>
-        <v>落花-天淼</v>
+      <c r="AA42" t="s">
+        <v>48</v>
       </c>
       <c r="AB42" t="s">
         <v>48</v>
@@ -8101,43 +7607,43 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>230</v>
+        <v>149</v>
       </c>
       <c r="C43" t="s">
-        <v>231</v>
+        <v>150</v>
       </c>
       <c r="D43" t="s">
         <v>48</v>
       </c>
-      <c r="E43" t="s">
-        <v>48</v>
-      </c>
-      <c r="F43" t="s">
-        <v>48</v>
-      </c>
-      <c r="G43" t="s">
-        <v>48</v>
+      <c r="E43">
+        <v>5</v>
+      </c>
+      <c r="F43">
+        <v>152000</v>
+      </c>
+      <c r="G43">
+        <v>760000</v>
       </c>
       <c r="H43" t="s">
-        <v>48</v>
+        <v>151</v>
       </c>
       <c r="I43" t="s">
-        <v>231</v>
+        <v>48</v>
       </c>
       <c r="J43" t="s">
         <v>48</v>
       </c>
-      <c r="K43">
-        <v>8</v>
-      </c>
-      <c r="L43">
-        <v>92000</v>
-      </c>
-      <c r="M43">
-        <v>736000</v>
+      <c r="K43" t="s">
+        <v>48</v>
+      </c>
+      <c r="L43" t="s">
+        <v>48</v>
+      </c>
+      <c r="M43" t="s">
+        <v>48</v>
       </c>
       <c r="N43" t="s">
-        <v>232</v>
+        <v>48</v>
       </c>
       <c r="O43" t="s">
         <v>48</v>
@@ -8158,7 +7664,7 @@
         <v>48</v>
       </c>
       <c r="U43" t="s">
-        <v>231</v>
+        <v>48</v>
       </c>
       <c r="V43" t="s">
         <v>48</v>
@@ -8175,9 +7681,8 @@
       <c r="Z43" t="s">
         <v>48</v>
       </c>
-      <c r="AA43" t="str">
-        <f t="shared" si="0"/>
-        <v>落花      魚漁。</v>
+      <c r="AA43" t="s">
+        <v>48</v>
       </c>
       <c r="AB43" t="s">
         <v>48</v>
@@ -8242,43 +7747,43 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>233</v>
+        <v>152</v>
       </c>
       <c r="C44" t="s">
-        <v>234</v>
+        <v>153</v>
       </c>
       <c r="D44" t="s">
         <v>48</v>
       </c>
       <c r="E44">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F44">
-        <v>106000</v>
+        <v>167000</v>
       </c>
       <c r="G44">
-        <v>636000</v>
+        <v>835000</v>
       </c>
       <c r="H44" t="s">
-        <v>235</v>
+        <v>154</v>
       </c>
       <c r="I44" t="s">
-        <v>234</v>
+        <v>48</v>
       </c>
       <c r="J44" t="s">
         <v>48</v>
       </c>
-      <c r="K44">
-        <v>6</v>
-      </c>
-      <c r="L44">
-        <v>114000</v>
-      </c>
-      <c r="M44">
-        <v>684000</v>
+      <c r="K44" t="s">
+        <v>48</v>
+      </c>
+      <c r="L44" t="s">
+        <v>48</v>
+      </c>
+      <c r="M44" t="s">
+        <v>48</v>
       </c>
       <c r="N44" t="s">
-        <v>236</v>
+        <v>48</v>
       </c>
       <c r="O44" t="s">
         <v>48</v>
@@ -8286,17 +7791,17 @@
       <c r="P44" t="s">
         <v>48</v>
       </c>
-      <c r="Q44">
-        <v>6</v>
-      </c>
-      <c r="R44">
-        <v>116000</v>
-      </c>
-      <c r="S44">
-        <v>696000</v>
+      <c r="Q44" t="s">
+        <v>48</v>
+      </c>
+      <c r="R44" t="s">
+        <v>48</v>
+      </c>
+      <c r="S44" t="s">
+        <v>48</v>
       </c>
       <c r="T44" t="s">
-        <v>237</v>
+        <v>48</v>
       </c>
       <c r="U44" t="s">
         <v>48</v>
@@ -8304,21 +7809,20 @@
       <c r="V44" t="s">
         <v>48</v>
       </c>
-      <c r="W44">
-        <v>6</v>
-      </c>
-      <c r="X44">
-        <v>113000</v>
-      </c>
-      <c r="Y44">
-        <v>678000</v>
+      <c r="W44" t="s">
+        <v>48</v>
+      </c>
+      <c r="X44" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>48</v>
       </c>
       <c r="Z44" t="s">
-        <v>238</v>
-      </c>
-      <c r="AA44" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <v>48</v>
+      </c>
+      <c r="AA44" t="s">
+        <v>48</v>
       </c>
       <c r="AB44" t="s">
         <v>48</v>
@@ -8383,10 +7887,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>239</v>
+        <v>155</v>
       </c>
       <c r="C45" t="s">
-        <v>240</v>
+        <v>156</v>
       </c>
       <c r="D45" t="s">
         <v>48</v>
@@ -8395,13 +7899,13 @@
         <v>5</v>
       </c>
       <c r="F45">
-        <v>146000</v>
+        <v>147000</v>
       </c>
       <c r="G45">
-        <v>730000</v>
+        <v>735000</v>
       </c>
       <c r="H45" t="s">
-        <v>241</v>
+        <v>157</v>
       </c>
       <c r="I45" t="s">
         <v>48</v>
@@ -8409,17 +7913,17 @@
       <c r="J45" t="s">
         <v>48</v>
       </c>
-      <c r="K45">
-        <v>6</v>
-      </c>
-      <c r="L45">
-        <v>118000</v>
-      </c>
-      <c r="M45">
-        <v>708000</v>
+      <c r="K45" t="s">
+        <v>48</v>
+      </c>
+      <c r="L45" t="s">
+        <v>48</v>
+      </c>
+      <c r="M45" t="s">
+        <v>48</v>
       </c>
       <c r="N45" t="s">
-        <v>242</v>
+        <v>48</v>
       </c>
       <c r="O45" t="s">
         <v>48</v>
@@ -8427,17 +7931,17 @@
       <c r="P45" t="s">
         <v>48</v>
       </c>
-      <c r="Q45">
-        <v>6</v>
-      </c>
-      <c r="R45">
-        <v>125000</v>
-      </c>
-      <c r="S45">
-        <v>750000</v>
+      <c r="Q45" t="s">
+        <v>48</v>
+      </c>
+      <c r="R45" t="s">
+        <v>48</v>
+      </c>
+      <c r="S45" t="s">
+        <v>48</v>
       </c>
       <c r="T45" t="s">
-        <v>243</v>
+        <v>48</v>
       </c>
       <c r="U45" t="s">
         <v>48</v>
@@ -8457,9 +7961,8 @@
       <c r="Z45" t="s">
         <v>48</v>
       </c>
-      <c r="AA45" t="str">
-        <f t="shared" si="0"/>
-        <v>落花ෆ总攻大人</v>
+      <c r="AA45" t="s">
+        <v>48</v>
       </c>
       <c r="AB45" t="s">
         <v>48</v>
@@ -8524,25 +8027,25 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>244</v>
+        <v>158</v>
       </c>
       <c r="C46" t="s">
-        <v>245</v>
+        <v>159</v>
       </c>
       <c r="D46" t="s">
         <v>48</v>
       </c>
-      <c r="E46">
-        <v>5</v>
-      </c>
-      <c r="F46">
-        <v>146000</v>
-      </c>
-      <c r="G46">
-        <v>730000</v>
+      <c r="E46" t="s">
+        <v>48</v>
+      </c>
+      <c r="F46" t="s">
+        <v>48</v>
+      </c>
+      <c r="G46" t="s">
+        <v>48</v>
       </c>
       <c r="H46" t="s">
-        <v>246</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
         <v>48</v>
@@ -8550,17 +8053,17 @@
       <c r="J46" t="s">
         <v>48</v>
       </c>
-      <c r="K46">
-        <v>5</v>
-      </c>
-      <c r="L46">
-        <v>165000</v>
-      </c>
-      <c r="M46">
-        <v>825000</v>
+      <c r="K46" t="s">
+        <v>48</v>
+      </c>
+      <c r="L46" t="s">
+        <v>48</v>
+      </c>
+      <c r="M46" t="s">
+        <v>48</v>
       </c>
       <c r="N46" t="s">
-        <v>247</v>
+        <v>48</v>
       </c>
       <c r="O46" t="s">
         <v>48</v>
@@ -8568,17 +8071,17 @@
       <c r="P46" t="s">
         <v>48</v>
       </c>
-      <c r="Q46">
-        <v>5</v>
-      </c>
-      <c r="R46">
-        <v>163000</v>
-      </c>
-      <c r="S46">
-        <v>815000</v>
+      <c r="Q46" t="s">
+        <v>48</v>
+      </c>
+      <c r="R46" t="s">
+        <v>48</v>
+      </c>
+      <c r="S46" t="s">
+        <v>48</v>
       </c>
       <c r="T46" t="s">
-        <v>248</v>
+        <v>48</v>
       </c>
       <c r="U46" t="s">
         <v>48</v>
@@ -8586,21 +8089,20 @@
       <c r="V46" t="s">
         <v>48</v>
       </c>
-      <c r="W46">
-        <v>5</v>
-      </c>
-      <c r="X46">
-        <v>162000</v>
-      </c>
-      <c r="Y46">
-        <v>810000</v>
+      <c r="W46" t="s">
+        <v>48</v>
+      </c>
+      <c r="X46" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>48</v>
       </c>
       <c r="Z46" t="s">
-        <v>249</v>
-      </c>
-      <c r="AA46" t="str">
-        <f t="shared" ref="AA46:AA71" si="1">IF(Y46="",C46,"")</f>
-        <v/>
+        <v>48</v>
+      </c>
+      <c r="AA46" t="s">
+        <v>48</v>
       </c>
       <c r="AB46" t="s">
         <v>48</v>
@@ -8665,10 +8167,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="C47" t="s">
-        <v>251</v>
+        <v>161</v>
       </c>
       <c r="D47" t="s">
         <v>48</v>
@@ -8677,13 +8179,13 @@
         <v>5</v>
       </c>
       <c r="F47">
-        <v>156000</v>
+        <v>230000</v>
       </c>
       <c r="G47">
-        <v>780000</v>
+        <v>1150000</v>
       </c>
       <c r="H47" t="s">
-        <v>252</v>
+        <v>162</v>
       </c>
       <c r="I47" t="s">
         <v>48</v>
@@ -8691,17 +8193,17 @@
       <c r="J47" t="s">
         <v>48</v>
       </c>
-      <c r="K47">
-        <v>6</v>
-      </c>
-      <c r="L47">
-        <v>115000</v>
-      </c>
-      <c r="M47">
-        <v>690000</v>
+      <c r="K47" t="s">
+        <v>48</v>
+      </c>
+      <c r="L47" t="s">
+        <v>48</v>
+      </c>
+      <c r="M47" t="s">
+        <v>48</v>
       </c>
       <c r="N47" t="s">
-        <v>253</v>
+        <v>48</v>
       </c>
       <c r="O47" t="s">
         <v>48</v>
@@ -8709,17 +8211,17 @@
       <c r="P47" t="s">
         <v>48</v>
       </c>
-      <c r="Q47">
-        <v>6</v>
-      </c>
-      <c r="R47">
-        <v>120000</v>
-      </c>
-      <c r="S47">
-        <v>720000</v>
+      <c r="Q47" t="s">
+        <v>48</v>
+      </c>
+      <c r="R47" t="s">
+        <v>48</v>
+      </c>
+      <c r="S47" t="s">
+        <v>48</v>
       </c>
       <c r="T47" t="s">
-        <v>254</v>
+        <v>48</v>
       </c>
       <c r="U47" t="s">
         <v>48</v>
@@ -8727,21 +8229,20 @@
       <c r="V47" t="s">
         <v>48</v>
       </c>
-      <c r="W47">
-        <v>6</v>
-      </c>
-      <c r="X47">
-        <v>122000</v>
-      </c>
-      <c r="Y47">
-        <v>732000</v>
+      <c r="W47" t="s">
+        <v>48</v>
+      </c>
+      <c r="X47" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>48</v>
       </c>
       <c r="Z47" t="s">
-        <v>255</v>
-      </c>
-      <c r="AA47" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <v>48</v>
+      </c>
+      <c r="AA47" t="s">
+        <v>48</v>
       </c>
       <c r="AB47" t="s">
         <v>48</v>
@@ -8806,43 +8307,43 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>256</v>
+        <v>163</v>
       </c>
       <c r="C48" t="s">
-        <v>257</v>
+        <v>164</v>
       </c>
       <c r="D48" t="s">
         <v>48</v>
       </c>
       <c r="E48">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F48">
-        <v>82000</v>
+        <v>120000</v>
       </c>
       <c r="G48">
-        <v>656000</v>
+        <v>720000</v>
       </c>
       <c r="H48" t="s">
-        <v>258</v>
+        <v>165</v>
       </c>
       <c r="I48" t="s">
-        <v>257</v>
+        <v>48</v>
       </c>
       <c r="J48" t="s">
         <v>48</v>
       </c>
-      <c r="K48">
-        <v>8</v>
-      </c>
-      <c r="L48">
-        <v>90000</v>
-      </c>
-      <c r="M48">
-        <v>720000</v>
+      <c r="K48" t="s">
+        <v>48</v>
+      </c>
+      <c r="L48" t="s">
+        <v>48</v>
+      </c>
+      <c r="M48" t="s">
+        <v>48</v>
       </c>
       <c r="N48" t="s">
-        <v>259</v>
+        <v>48</v>
       </c>
       <c r="O48" t="s">
         <v>48</v>
@@ -8850,20 +8351,20 @@
       <c r="P48" t="s">
         <v>48</v>
       </c>
-      <c r="Q48">
-        <v>8</v>
-      </c>
-      <c r="R48">
-        <v>95000</v>
-      </c>
-      <c r="S48">
-        <v>760000</v>
+      <c r="Q48" t="s">
+        <v>48</v>
+      </c>
+      <c r="R48" t="s">
+        <v>48</v>
+      </c>
+      <c r="S48" t="s">
+        <v>48</v>
       </c>
       <c r="T48" t="s">
-        <v>260</v>
+        <v>48</v>
       </c>
       <c r="U48" t="s">
-        <v>257</v>
+        <v>48</v>
       </c>
       <c r="V48" t="s">
         <v>48</v>
@@ -8880,9 +8381,8 @@
       <c r="Z48" t="s">
         <v>48</v>
       </c>
-      <c r="AA48" t="str">
-        <f t="shared" si="1"/>
-        <v>落花兰摧玉折</v>
+      <c r="AA48" t="s">
+        <v>48</v>
       </c>
       <c r="AB48" t="s">
         <v>48</v>
@@ -8947,25 +8447,25 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>261</v>
+        <v>166</v>
       </c>
       <c r="C49" t="s">
-        <v>262</v>
+        <v>167</v>
       </c>
       <c r="D49" t="s">
         <v>48</v>
       </c>
-      <c r="E49">
-        <v>5</v>
-      </c>
-      <c r="F49">
-        <v>146000</v>
-      </c>
-      <c r="G49">
-        <v>730000</v>
+      <c r="E49" t="s">
+        <v>48</v>
+      </c>
+      <c r="F49" t="s">
+        <v>48</v>
+      </c>
+      <c r="G49" t="s">
+        <v>48</v>
       </c>
       <c r="H49" t="s">
-        <v>263</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
         <v>48</v>
@@ -8973,35 +8473,35 @@
       <c r="J49" t="s">
         <v>48</v>
       </c>
-      <c r="K49">
-        <v>5</v>
-      </c>
-      <c r="L49">
-        <v>130000</v>
-      </c>
-      <c r="M49">
-        <v>650000</v>
+      <c r="K49" t="s">
+        <v>48</v>
+      </c>
+      <c r="L49" t="s">
+        <v>48</v>
+      </c>
+      <c r="M49" t="s">
+        <v>48</v>
       </c>
       <c r="N49" t="s">
-        <v>264</v>
+        <v>48</v>
       </c>
       <c r="O49" t="s">
-        <v>262</v>
+        <v>48</v>
       </c>
       <c r="P49" t="s">
         <v>48</v>
       </c>
-      <c r="Q49">
-        <v>5</v>
-      </c>
-      <c r="R49">
-        <v>140000</v>
-      </c>
-      <c r="S49">
-        <v>700000</v>
+      <c r="Q49" t="s">
+        <v>48</v>
+      </c>
+      <c r="R49" t="s">
+        <v>48</v>
+      </c>
+      <c r="S49" t="s">
+        <v>48</v>
       </c>
       <c r="T49" t="s">
-        <v>265</v>
+        <v>48</v>
       </c>
       <c r="U49" t="s">
         <v>48</v>
@@ -9009,21 +8509,20 @@
       <c r="V49" t="s">
         <v>48</v>
       </c>
-      <c r="W49">
-        <v>5</v>
-      </c>
-      <c r="X49">
-        <v>140000</v>
-      </c>
-      <c r="Y49">
-        <v>700000</v>
+      <c r="W49" t="s">
+        <v>48</v>
+      </c>
+      <c r="X49" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>48</v>
       </c>
       <c r="Z49" t="s">
-        <v>266</v>
-      </c>
-      <c r="AA49" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <v>48</v>
+      </c>
+      <c r="AA49" t="s">
+        <v>48</v>
       </c>
       <c r="AB49" t="s">
         <v>48</v>
@@ -9088,61 +8587,61 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>267</v>
+        <v>168</v>
       </c>
       <c r="C50" t="s">
-        <v>268</v>
+        <v>169</v>
       </c>
       <c r="D50" t="s">
         <v>48</v>
       </c>
-      <c r="E50">
-        <v>6</v>
-      </c>
-      <c r="F50">
-        <v>110000</v>
-      </c>
-      <c r="G50">
-        <v>660000</v>
+      <c r="E50" t="s">
+        <v>48</v>
+      </c>
+      <c r="F50" t="s">
+        <v>48</v>
+      </c>
+      <c r="G50" t="s">
+        <v>48</v>
       </c>
       <c r="H50" t="s">
-        <v>269</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>268</v>
+        <v>48</v>
       </c>
       <c r="J50" t="s">
         <v>48</v>
       </c>
-      <c r="K50">
-        <v>7</v>
-      </c>
-      <c r="L50">
-        <v>94000</v>
-      </c>
-      <c r="M50">
-        <v>658000</v>
+      <c r="K50" t="s">
+        <v>48</v>
+      </c>
+      <c r="L50" t="s">
+        <v>48</v>
+      </c>
+      <c r="M50" t="s">
+        <v>48</v>
       </c>
       <c r="N50" t="s">
-        <v>270</v>
+        <v>48</v>
       </c>
       <c r="O50" t="s">
-        <v>268</v>
+        <v>48</v>
       </c>
       <c r="P50" t="s">
         <v>48</v>
       </c>
-      <c r="Q50">
-        <v>7</v>
-      </c>
-      <c r="R50">
-        <v>99000</v>
-      </c>
-      <c r="S50">
-        <v>693000</v>
+      <c r="Q50" t="s">
+        <v>48</v>
+      </c>
+      <c r="R50" t="s">
+        <v>48</v>
+      </c>
+      <c r="S50" t="s">
+        <v>48</v>
       </c>
       <c r="T50" t="s">
-        <v>271</v>
+        <v>48</v>
       </c>
       <c r="U50" t="s">
         <v>48</v>
@@ -9150,21 +8649,20 @@
       <c r="V50" t="s">
         <v>48</v>
       </c>
-      <c r="W50">
-        <v>8</v>
-      </c>
-      <c r="X50">
-        <v>95000</v>
-      </c>
-      <c r="Y50">
-        <v>760000</v>
+      <c r="W50" t="s">
+        <v>48</v>
+      </c>
+      <c r="X50" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>48</v>
       </c>
       <c r="Z50" t="s">
-        <v>272</v>
-      </c>
-      <c r="AA50" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <v>48</v>
+      </c>
+      <c r="AA50" t="s">
+        <v>48</v>
       </c>
       <c r="AB50" t="s">
         <v>48</v>
@@ -9229,25 +8727,25 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>273</v>
+        <v>170</v>
       </c>
       <c r="C51" t="s">
-        <v>274</v>
+        <v>171</v>
       </c>
       <c r="D51" t="s">
         <v>48</v>
       </c>
       <c r="E51">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F51">
-        <v>58000</v>
+        <v>152000</v>
       </c>
       <c r="G51">
-        <v>696000</v>
+        <v>912000</v>
       </c>
       <c r="H51" t="s">
-        <v>275</v>
+        <v>172</v>
       </c>
       <c r="I51" t="s">
         <v>48</v>
@@ -9255,17 +8753,17 @@
       <c r="J51" t="s">
         <v>48</v>
       </c>
-      <c r="K51">
-        <v>12</v>
-      </c>
-      <c r="L51">
-        <v>58000</v>
-      </c>
-      <c r="M51">
-        <v>696000</v>
+      <c r="K51" t="s">
+        <v>48</v>
+      </c>
+      <c r="L51" t="s">
+        <v>48</v>
+      </c>
+      <c r="M51" t="s">
+        <v>48</v>
       </c>
       <c r="N51" t="s">
-        <v>276</v>
+        <v>48</v>
       </c>
       <c r="O51" t="s">
         <v>48</v>
@@ -9291,21 +8789,20 @@
       <c r="V51" t="s">
         <v>48</v>
       </c>
-      <c r="W51">
-        <v>12</v>
-      </c>
-      <c r="X51">
-        <v>59000</v>
-      </c>
-      <c r="Y51">
-        <v>708000</v>
+      <c r="W51" t="s">
+        <v>48</v>
+      </c>
+      <c r="X51" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>48</v>
       </c>
       <c r="Z51" t="s">
-        <v>277</v>
-      </c>
-      <c r="AA51" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <v>48</v>
+      </c>
+      <c r="AA51" t="s">
+        <v>48</v>
       </c>
       <c r="AB51" t="s">
         <v>48</v>
@@ -9370,22 +8867,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>278</v>
+        <v>173</v>
       </c>
       <c r="C52" t="s">
-        <v>279</v>
+        <v>174</v>
       </c>
       <c r="D52" t="s">
         <v>48</v>
       </c>
-      <c r="E52">
-        <v>5</v>
-      </c>
-      <c r="F52">
-        <v>150000</v>
-      </c>
-      <c r="G52">
-        <v>750000</v>
+      <c r="E52" t="s">
+        <v>48</v>
+      </c>
+      <c r="F52" t="s">
+        <v>48</v>
+      </c>
+      <c r="G52" t="s">
+        <v>48</v>
       </c>
       <c r="H52" t="s">
         <v>48</v>
@@ -9396,20 +8893,20 @@
       <c r="J52" t="s">
         <v>48</v>
       </c>
-      <c r="K52">
-        <v>5</v>
-      </c>
-      <c r="L52">
-        <v>83000</v>
-      </c>
-      <c r="M52">
-        <v>415000</v>
+      <c r="K52" t="s">
+        <v>48</v>
+      </c>
+      <c r="L52" t="s">
+        <v>48</v>
+      </c>
+      <c r="M52" t="s">
+        <v>48</v>
       </c>
       <c r="N52" t="s">
         <v>48</v>
       </c>
       <c r="O52" t="s">
-        <v>279</v>
+        <v>48</v>
       </c>
       <c r="P52" t="s">
         <v>48</v>
@@ -9444,9 +8941,8 @@
       <c r="Z52" t="s">
         <v>48</v>
       </c>
-      <c r="AA52" t="str">
-        <f t="shared" si="1"/>
-        <v>落花" 苏久久</v>
+      <c r="AA52" t="s">
+        <v>48</v>
       </c>
       <c r="AB52" t="s">
         <v>48</v>
@@ -9511,25 +9007,25 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>280</v>
+        <v>175</v>
       </c>
       <c r="C53" t="s">
-        <v>281</v>
+        <v>176</v>
       </c>
       <c r="D53" t="s">
         <v>48</v>
       </c>
       <c r="E53">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F53">
-        <v>118419</v>
+        <v>71000</v>
       </c>
       <c r="G53">
-        <v>828933</v>
+        <v>710000</v>
       </c>
       <c r="H53" t="s">
-        <v>282</v>
+        <v>177</v>
       </c>
       <c r="I53" t="s">
         <v>48</v>
@@ -9537,20 +9033,20 @@
       <c r="J53" t="s">
         <v>48</v>
       </c>
-      <c r="K53">
-        <v>8</v>
-      </c>
-      <c r="L53">
-        <v>84735</v>
-      </c>
-      <c r="M53">
-        <v>677880</v>
+      <c r="K53" t="s">
+        <v>48</v>
+      </c>
+      <c r="L53" t="s">
+        <v>48</v>
+      </c>
+      <c r="M53" t="s">
+        <v>48</v>
       </c>
       <c r="N53" t="s">
-        <v>283</v>
+        <v>48</v>
       </c>
       <c r="O53" t="s">
-        <v>281</v>
+        <v>48</v>
       </c>
       <c r="P53" t="s">
         <v>48</v>
@@ -9568,26 +9064,25 @@
         <v>48</v>
       </c>
       <c r="U53" t="s">
-        <v>281</v>
+        <v>48</v>
       </c>
       <c r="V53" t="s">
         <v>48</v>
       </c>
-      <c r="W53">
-        <v>8</v>
-      </c>
-      <c r="X53">
-        <v>86000</v>
-      </c>
-      <c r="Y53">
-        <v>688000</v>
+      <c r="W53" t="s">
+        <v>48</v>
+      </c>
+      <c r="X53" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>48</v>
       </c>
       <c r="Z53" t="s">
-        <v>284</v>
-      </c>
-      <c r="AA53" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <v>48</v>
+      </c>
+      <c r="AA53" t="s">
+        <v>48</v>
       </c>
       <c r="AB53" t="s">
         <v>48</v>
@@ -9652,25 +9147,25 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>285</v>
+        <v>178</v>
       </c>
       <c r="C54" t="s">
-        <v>286</v>
+        <v>179</v>
       </c>
       <c r="D54" t="s">
         <v>48</v>
       </c>
-      <c r="E54">
-        <v>6</v>
-      </c>
-      <c r="F54">
-        <v>110000</v>
-      </c>
-      <c r="G54">
-        <v>660000</v>
+      <c r="E54" t="s">
+        <v>48</v>
+      </c>
+      <c r="F54" t="s">
+        <v>48</v>
+      </c>
+      <c r="G54" t="s">
+        <v>48</v>
       </c>
       <c r="H54" t="s">
-        <v>287</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
         <v>48</v>
@@ -9678,17 +9173,17 @@
       <c r="J54" t="s">
         <v>48</v>
       </c>
-      <c r="K54">
-        <v>7</v>
-      </c>
-      <c r="L54">
-        <v>120000</v>
-      </c>
-      <c r="M54">
-        <v>840000</v>
+      <c r="K54" t="s">
+        <v>48</v>
+      </c>
+      <c r="L54" t="s">
+        <v>48</v>
+      </c>
+      <c r="M54" t="s">
+        <v>48</v>
       </c>
       <c r="N54" t="s">
-        <v>288</v>
+        <v>48</v>
       </c>
       <c r="O54" t="s">
         <v>48</v>
@@ -9696,17 +9191,17 @@
       <c r="P54" t="s">
         <v>48</v>
       </c>
-      <c r="Q54">
-        <v>6</v>
-      </c>
-      <c r="R54">
-        <v>120000</v>
-      </c>
-      <c r="S54">
-        <v>720000</v>
+      <c r="Q54" t="s">
+        <v>48</v>
+      </c>
+      <c r="R54" t="s">
+        <v>48</v>
+      </c>
+      <c r="S54" t="s">
+        <v>48</v>
       </c>
       <c r="T54" t="s">
-        <v>289</v>
+        <v>48</v>
       </c>
       <c r="U54" t="s">
         <v>48</v>
@@ -9714,21 +9209,20 @@
       <c r="V54" t="s">
         <v>48</v>
       </c>
-      <c r="W54">
-        <v>5</v>
-      </c>
-      <c r="X54">
-        <v>140000</v>
-      </c>
-      <c r="Y54">
-        <v>700000</v>
+      <c r="W54" t="s">
+        <v>48</v>
+      </c>
+      <c r="X54" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>48</v>
       </c>
       <c r="Z54" t="s">
-        <v>290</v>
-      </c>
-      <c r="AA54" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <v>48</v>
+      </c>
+      <c r="AA54" t="s">
+        <v>48</v>
       </c>
       <c r="AB54" t="s">
         <v>48</v>
@@ -9793,10 +9287,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>291</v>
+        <v>180</v>
       </c>
       <c r="C55" t="s">
-        <v>292</v>
+        <v>181</v>
       </c>
       <c r="D55" t="s">
         <v>48</v>
@@ -9814,22 +9308,22 @@
         <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>292</v>
+        <v>48</v>
       </c>
       <c r="J55" t="s">
         <v>48</v>
       </c>
-      <c r="K55">
-        <v>10</v>
-      </c>
-      <c r="L55">
-        <v>70000</v>
-      </c>
-      <c r="M55">
-        <v>700000</v>
+      <c r="K55" t="s">
+        <v>48</v>
+      </c>
+      <c r="L55" t="s">
+        <v>48</v>
+      </c>
+      <c r="M55" t="s">
+        <v>48</v>
       </c>
       <c r="N55" t="s">
-        <v>293</v>
+        <v>48</v>
       </c>
       <c r="O55" t="s">
         <v>48</v>
@@ -9837,17 +9331,17 @@
       <c r="P55" t="s">
         <v>48</v>
       </c>
-      <c r="Q55">
-        <v>8</v>
-      </c>
-      <c r="R55">
-        <v>86000</v>
-      </c>
-      <c r="S55">
-        <v>688000</v>
+      <c r="Q55" t="s">
+        <v>48</v>
+      </c>
+      <c r="R55" t="s">
+        <v>48</v>
+      </c>
+      <c r="S55" t="s">
+        <v>48</v>
       </c>
       <c r="T55" t="s">
-        <v>294</v>
+        <v>48</v>
       </c>
       <c r="U55" t="s">
         <v>48</v>
@@ -9855,21 +9349,20 @@
       <c r="V55" t="s">
         <v>48</v>
       </c>
-      <c r="W55">
-        <v>8</v>
-      </c>
-      <c r="X55">
-        <v>87000</v>
-      </c>
-      <c r="Y55">
-        <v>696000</v>
+      <c r="W55" t="s">
+        <v>48</v>
+      </c>
+      <c r="X55" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>48</v>
       </c>
       <c r="Z55" t="s">
-        <v>295</v>
-      </c>
-      <c r="AA55" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <v>48</v>
+      </c>
+      <c r="AA55" t="s">
+        <v>48</v>
       </c>
       <c r="AB55" t="s">
         <v>48</v>
@@ -9934,25 +9427,25 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>296</v>
+        <v>182</v>
       </c>
       <c r="C56" t="s">
-        <v>297</v>
+        <v>183</v>
       </c>
       <c r="D56" t="s">
         <v>48</v>
       </c>
       <c r="E56">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F56">
-        <v>120000</v>
+        <v>180000</v>
       </c>
       <c r="G56">
-        <v>720000</v>
+        <v>900000</v>
       </c>
       <c r="H56" t="s">
-        <v>298</v>
+        <v>51</v>
       </c>
       <c r="I56" t="s">
         <v>48</v>
@@ -9960,17 +9453,17 @@
       <c r="J56" t="s">
         <v>48</v>
       </c>
-      <c r="K56">
-        <v>7</v>
-      </c>
-      <c r="L56">
-        <v>103000</v>
-      </c>
-      <c r="M56">
-        <v>721000</v>
+      <c r="K56" t="s">
+        <v>48</v>
+      </c>
+      <c r="L56" t="s">
+        <v>48</v>
+      </c>
+      <c r="M56" t="s">
+        <v>48</v>
       </c>
       <c r="N56" t="s">
-        <v>299</v>
+        <v>48</v>
       </c>
       <c r="O56" t="s">
         <v>48</v>
@@ -9978,17 +9471,17 @@
       <c r="P56" t="s">
         <v>48</v>
       </c>
-      <c r="Q56">
-        <v>7</v>
-      </c>
-      <c r="R56">
-        <v>105000</v>
-      </c>
-      <c r="S56">
-        <v>735000</v>
+      <c r="Q56" t="s">
+        <v>48</v>
+      </c>
+      <c r="R56" t="s">
+        <v>48</v>
+      </c>
+      <c r="S56" t="s">
+        <v>48</v>
       </c>
       <c r="T56" t="s">
-        <v>300</v>
+        <v>48</v>
       </c>
       <c r="U56" t="s">
         <v>48</v>
@@ -9996,21 +9489,20 @@
       <c r="V56" t="s">
         <v>48</v>
       </c>
-      <c r="W56">
-        <v>7</v>
-      </c>
-      <c r="X56">
-        <v>106000</v>
-      </c>
-      <c r="Y56">
-        <v>742000</v>
+      <c r="W56" t="s">
+        <v>48</v>
+      </c>
+      <c r="X56" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>48</v>
       </c>
       <c r="Z56" t="s">
-        <v>301</v>
-      </c>
-      <c r="AA56" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <v>48</v>
+      </c>
+      <c r="AA56" t="s">
+        <v>48</v>
       </c>
       <c r="AB56" t="s">
         <v>48</v>
@@ -10075,34 +9567,34 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>302</v>
+        <v>184</v>
       </c>
       <c r="C57" t="s">
-        <v>303</v>
+        <v>185</v>
       </c>
       <c r="D57" t="s">
         <v>48</v>
       </c>
-      <c r="E57" t="s">
-        <v>48</v>
-      </c>
-      <c r="F57" t="s">
-        <v>48</v>
-      </c>
-      <c r="G57" t="s">
-        <v>48</v>
+      <c r="E57">
+        <v>5</v>
+      </c>
+      <c r="F57">
+        <v>205000</v>
+      </c>
+      <c r="G57">
+        <v>1025000</v>
       </c>
       <c r="H57" t="s">
-        <v>48</v>
+        <v>186</v>
       </c>
       <c r="I57" t="s">
-        <v>303</v>
+        <v>48</v>
       </c>
       <c r="J57" t="s">
         <v>48</v>
       </c>
       <c r="K57" t="s">
-        <v>304</v>
+        <v>48</v>
       </c>
       <c r="L57" t="s">
         <v>48</v>
@@ -10114,7 +9606,7 @@
         <v>48</v>
       </c>
       <c r="O57" t="s">
-        <v>303</v>
+        <v>48</v>
       </c>
       <c r="P57" t="s">
         <v>48</v>
@@ -10149,9 +9641,8 @@
       <c r="Z57" t="s">
         <v>48</v>
       </c>
-      <c r="AA57" t="str">
-        <f t="shared" si="1"/>
-        <v>落花：翎羽</v>
+      <c r="AA57" t="s">
+        <v>48</v>
       </c>
       <c r="AB57" t="s">
         <v>48</v>
@@ -10216,25 +9707,25 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>305</v>
+        <v>187</v>
       </c>
       <c r="C58" t="s">
-        <v>306</v>
+        <v>188</v>
       </c>
       <c r="D58" t="s">
         <v>48</v>
       </c>
-      <c r="E58">
-        <v>5</v>
-      </c>
-      <c r="F58">
-        <v>138000</v>
-      </c>
-      <c r="G58">
-        <v>690000</v>
+      <c r="E58" t="s">
+        <v>48</v>
+      </c>
+      <c r="F58" t="s">
+        <v>48</v>
+      </c>
+      <c r="G58" t="s">
+        <v>48</v>
       </c>
       <c r="H58" t="s">
-        <v>307</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
         <v>48</v>
@@ -10242,17 +9733,17 @@
       <c r="J58" t="s">
         <v>48</v>
       </c>
-      <c r="K58">
-        <v>5</v>
-      </c>
-      <c r="L58">
-        <v>140000</v>
-      </c>
-      <c r="M58">
-        <v>700000</v>
+      <c r="K58" t="s">
+        <v>48</v>
+      </c>
+      <c r="L58" t="s">
+        <v>48</v>
+      </c>
+      <c r="M58" t="s">
+        <v>48</v>
       </c>
       <c r="N58" t="s">
-        <v>308</v>
+        <v>48</v>
       </c>
       <c r="O58" t="s">
         <v>48</v>
@@ -10290,9 +9781,8 @@
       <c r="Z58" t="s">
         <v>48</v>
       </c>
-      <c r="AA58" t="str">
-        <f t="shared" si="1"/>
-        <v>落花-凛喵</v>
+      <c r="AA58" t="s">
+        <v>48</v>
       </c>
       <c r="AB58" t="s">
         <v>48</v>
@@ -10357,25 +9847,25 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>309</v>
+        <v>189</v>
       </c>
       <c r="C59" t="s">
-        <v>310</v>
+        <v>190</v>
       </c>
       <c r="D59" t="s">
         <v>48</v>
       </c>
-      <c r="E59">
-        <v>6</v>
-      </c>
-      <c r="F59">
-        <v>116041</v>
-      </c>
-      <c r="G59">
-        <v>696246</v>
+      <c r="E59" t="s">
+        <v>48</v>
+      </c>
+      <c r="F59" t="s">
+        <v>48</v>
+      </c>
+      <c r="G59" t="s">
+        <v>48</v>
       </c>
       <c r="H59" t="s">
-        <v>311</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
         <v>48</v>
@@ -10383,17 +9873,17 @@
       <c r="J59" t="s">
         <v>48</v>
       </c>
-      <c r="K59">
-        <v>6</v>
-      </c>
-      <c r="L59">
-        <v>123016</v>
-      </c>
-      <c r="M59">
-        <v>738096</v>
+      <c r="K59" t="s">
+        <v>48</v>
+      </c>
+      <c r="L59" t="s">
+        <v>48</v>
+      </c>
+      <c r="M59" t="s">
+        <v>48</v>
       </c>
       <c r="N59" t="s">
-        <v>312</v>
+        <v>48</v>
       </c>
       <c r="O59" t="s">
         <v>48</v>
@@ -10414,7 +9904,7 @@
         <v>48</v>
       </c>
       <c r="U59" t="s">
-        <v>310</v>
+        <v>48</v>
       </c>
       <c r="V59" t="s">
         <v>48</v>
@@ -10431,9 +9921,8 @@
       <c r="Z59" t="s">
         <v>48</v>
       </c>
-      <c r="AA59" t="str">
-        <f t="shared" si="1"/>
-        <v>落花 青青子衿</v>
+      <c r="AA59" t="s">
+        <v>48</v>
       </c>
       <c r="AB59" t="s">
         <v>48</v>
@@ -10498,43 +9987,43 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>313</v>
+        <v>191</v>
       </c>
       <c r="C60" t="s">
-        <v>314</v>
+        <v>192</v>
       </c>
       <c r="D60" t="s">
         <v>48</v>
       </c>
       <c r="E60">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F60">
-        <v>84000</v>
+        <v>210000</v>
       </c>
       <c r="G60">
-        <v>672000</v>
+        <v>1470000</v>
       </c>
       <c r="H60" t="s">
-        <v>315</v>
+        <v>193</v>
       </c>
       <c r="I60" t="s">
-        <v>314</v>
+        <v>48</v>
       </c>
       <c r="J60" t="s">
         <v>48</v>
       </c>
-      <c r="K60">
-        <v>9</v>
-      </c>
-      <c r="L60">
-        <v>76000</v>
-      </c>
-      <c r="M60">
-        <v>684000</v>
+      <c r="K60" t="s">
+        <v>48</v>
+      </c>
+      <c r="L60" t="s">
+        <v>48</v>
+      </c>
+      <c r="M60" t="s">
+        <v>48</v>
       </c>
       <c r="N60" t="s">
-        <v>316</v>
+        <v>48</v>
       </c>
       <c r="O60" t="s">
         <v>48</v>
@@ -10542,17 +10031,17 @@
       <c r="P60" t="s">
         <v>48</v>
       </c>
-      <c r="Q60">
-        <v>9</v>
-      </c>
-      <c r="R60">
-        <v>84000</v>
-      </c>
-      <c r="S60">
-        <v>756000</v>
+      <c r="Q60" t="s">
+        <v>48</v>
+      </c>
+      <c r="R60" t="s">
+        <v>48</v>
+      </c>
+      <c r="S60" t="s">
+        <v>48</v>
       </c>
       <c r="T60" t="s">
-        <v>317</v>
+        <v>48</v>
       </c>
       <c r="U60" t="s">
         <v>48</v>
@@ -10572,9 +10061,8 @@
       <c r="Z60" t="s">
         <v>48</v>
       </c>
-      <c r="AA60" t="str">
-        <f t="shared" si="1"/>
-        <v>落花ʚ阿喵王子他父王ɞ</v>
+      <c r="AA60" t="s">
+        <v>48</v>
       </c>
       <c r="AB60" t="s">
         <v>48</v>
@@ -10639,25 +10127,25 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>318</v>
+        <v>194</v>
       </c>
       <c r="C61" t="s">
-        <v>319</v>
+        <v>195</v>
       </c>
       <c r="D61" t="s">
         <v>48</v>
       </c>
       <c r="E61">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F61">
-        <v>100000</v>
+        <v>120000</v>
       </c>
       <c r="G61">
-        <v>700000</v>
+        <v>720000</v>
       </c>
       <c r="H61" t="s">
-        <v>320</v>
+        <v>196</v>
       </c>
       <c r="I61" t="s">
         <v>48</v>
@@ -10665,17 +10153,17 @@
       <c r="J61" t="s">
         <v>48</v>
       </c>
-      <c r="K61">
-        <v>7</v>
-      </c>
-      <c r="L61">
-        <v>100000</v>
-      </c>
-      <c r="M61">
-        <v>700000</v>
+      <c r="K61" t="s">
+        <v>48</v>
+      </c>
+      <c r="L61" t="s">
+        <v>48</v>
+      </c>
+      <c r="M61" t="s">
+        <v>48</v>
       </c>
       <c r="N61" t="s">
-        <v>321</v>
+        <v>48</v>
       </c>
       <c r="O61" t="s">
         <v>48</v>
@@ -10696,26 +10184,25 @@
         <v>48</v>
       </c>
       <c r="U61" t="s">
-        <v>319</v>
+        <v>48</v>
       </c>
       <c r="V61" t="s">
         <v>48</v>
       </c>
-      <c r="W61">
-        <v>7</v>
-      </c>
-      <c r="X61">
-        <v>110000</v>
-      </c>
-      <c r="Y61">
-        <v>770000</v>
+      <c r="W61" t="s">
+        <v>48</v>
+      </c>
+      <c r="X61" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>48</v>
       </c>
       <c r="Z61" t="s">
-        <v>322</v>
-      </c>
-      <c r="AA61" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <v>48</v>
+      </c>
+      <c r="AA61" t="s">
+        <v>48</v>
       </c>
       <c r="AB61" t="s">
         <v>48</v>
@@ -10780,25 +10267,25 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>323</v>
+        <v>197</v>
       </c>
       <c r="C62" t="s">
-        <v>324</v>
+        <v>198</v>
       </c>
       <c r="D62" t="s">
         <v>48</v>
       </c>
-      <c r="E62">
-        <v>5</v>
-      </c>
-      <c r="F62">
-        <v>200000</v>
-      </c>
-      <c r="G62">
-        <v>1000000</v>
+      <c r="E62" t="s">
+        <v>48</v>
+      </c>
+      <c r="F62" t="s">
+        <v>48</v>
+      </c>
+      <c r="G62" t="s">
+        <v>48</v>
       </c>
       <c r="H62" t="s">
-        <v>325</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
         <v>48</v>
@@ -10806,17 +10293,17 @@
       <c r="J62" t="s">
         <v>48</v>
       </c>
-      <c r="K62">
-        <v>5</v>
-      </c>
-      <c r="L62">
-        <v>148000</v>
-      </c>
-      <c r="M62">
-        <v>740000</v>
+      <c r="K62" t="s">
+        <v>48</v>
+      </c>
+      <c r="L62" t="s">
+        <v>48</v>
+      </c>
+      <c r="M62" t="s">
+        <v>48</v>
       </c>
       <c r="N62" t="s">
-        <v>326</v>
+        <v>48</v>
       </c>
       <c r="O62" t="s">
         <v>48</v>
@@ -10824,17 +10311,17 @@
       <c r="P62" t="s">
         <v>48</v>
       </c>
-      <c r="Q62">
-        <v>5</v>
-      </c>
-      <c r="R62">
-        <v>154000</v>
-      </c>
-      <c r="S62">
-        <v>770000</v>
+      <c r="Q62" t="s">
+        <v>48</v>
+      </c>
+      <c r="R62" t="s">
+        <v>48</v>
+      </c>
+      <c r="S62" t="s">
+        <v>48</v>
       </c>
       <c r="T62" t="s">
-        <v>327</v>
+        <v>48</v>
       </c>
       <c r="U62" t="s">
         <v>48</v>
@@ -10842,21 +10329,20 @@
       <c r="V62" t="s">
         <v>48</v>
       </c>
-      <c r="W62">
-        <v>5</v>
-      </c>
-      <c r="X62">
-        <v>159000</v>
-      </c>
-      <c r="Y62">
-        <v>795000</v>
+      <c r="W62" t="s">
+        <v>48</v>
+      </c>
+      <c r="X62" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>48</v>
       </c>
       <c r="Z62" t="s">
-        <v>328</v>
-      </c>
-      <c r="AA62" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <v>48</v>
+      </c>
+      <c r="AA62" t="s">
+        <v>48</v>
       </c>
       <c r="AB62" t="s">
         <v>48</v>
@@ -10921,25 +10407,25 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>329</v>
+        <v>199</v>
       </c>
       <c r="C63" t="s">
-        <v>330</v>
+        <v>200</v>
       </c>
       <c r="D63" t="s">
         <v>48</v>
       </c>
-      <c r="E63">
-        <v>8</v>
-      </c>
-      <c r="F63">
-        <v>88000</v>
-      </c>
-      <c r="G63">
-        <v>704000</v>
+      <c r="E63" t="s">
+        <v>48</v>
+      </c>
+      <c r="F63" t="s">
+        <v>48</v>
+      </c>
+      <c r="G63" t="s">
+        <v>48</v>
       </c>
       <c r="H63" t="s">
-        <v>331</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
         <v>48</v>
@@ -10947,17 +10433,17 @@
       <c r="J63" t="s">
         <v>48</v>
       </c>
-      <c r="K63">
-        <v>8</v>
-      </c>
-      <c r="L63">
-        <v>91000</v>
-      </c>
-      <c r="M63">
-        <v>728000</v>
+      <c r="K63" t="s">
+        <v>48</v>
+      </c>
+      <c r="L63" t="s">
+        <v>48</v>
+      </c>
+      <c r="M63" t="s">
+        <v>48</v>
       </c>
       <c r="N63" t="s">
-        <v>332</v>
+        <v>48</v>
       </c>
       <c r="O63" t="s">
         <v>48</v>
@@ -10965,17 +10451,17 @@
       <c r="P63" t="s">
         <v>48</v>
       </c>
-      <c r="Q63">
-        <v>8</v>
-      </c>
-      <c r="R63">
-        <v>92000</v>
-      </c>
-      <c r="S63">
-        <v>736000</v>
+      <c r="Q63" t="s">
+        <v>48</v>
+      </c>
+      <c r="R63" t="s">
+        <v>48</v>
+      </c>
+      <c r="S63" t="s">
+        <v>48</v>
       </c>
       <c r="T63" t="s">
-        <v>333</v>
+        <v>48</v>
       </c>
       <c r="U63" t="s">
         <v>48</v>
@@ -10983,21 +10469,20 @@
       <c r="V63" t="s">
         <v>48</v>
       </c>
-      <c r="W63">
-        <v>8</v>
-      </c>
-      <c r="X63">
-        <v>94000</v>
-      </c>
-      <c r="Y63">
-        <v>752000</v>
+      <c r="W63" t="s">
+        <v>48</v>
+      </c>
+      <c r="X63" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>48</v>
       </c>
       <c r="Z63" t="s">
-        <v>334</v>
-      </c>
-      <c r="AA63" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <v>48</v>
+      </c>
+      <c r="AA63" t="s">
+        <v>48</v>
       </c>
       <c r="AB63" t="s">
         <v>48</v>
@@ -11062,25 +10547,25 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>335</v>
+        <v>201</v>
       </c>
       <c r="C64" t="s">
-        <v>336</v>
+        <v>202</v>
       </c>
       <c r="D64" t="s">
         <v>48</v>
       </c>
-      <c r="E64">
-        <v>7</v>
-      </c>
-      <c r="F64">
-        <v>99000</v>
-      </c>
-      <c r="G64">
-        <v>693000</v>
+      <c r="E64" t="s">
+        <v>48</v>
+      </c>
+      <c r="F64" t="s">
+        <v>48</v>
+      </c>
+      <c r="G64" t="s">
+        <v>48</v>
       </c>
       <c r="H64" t="s">
-        <v>337</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
         <v>48</v>
@@ -11088,17 +10573,17 @@
       <c r="J64" t="s">
         <v>48</v>
       </c>
-      <c r="K64">
-        <v>7</v>
-      </c>
-      <c r="L64">
-        <v>105000</v>
-      </c>
-      <c r="M64">
-        <v>735000</v>
+      <c r="K64" t="s">
+        <v>48</v>
+      </c>
+      <c r="L64" t="s">
+        <v>48</v>
+      </c>
+      <c r="M64" t="s">
+        <v>48</v>
       </c>
       <c r="N64" t="s">
-        <v>338</v>
+        <v>48</v>
       </c>
       <c r="O64" t="s">
         <v>48</v>
@@ -11136,9 +10621,8 @@
       <c r="Z64" t="s">
         <v>48</v>
       </c>
-      <c r="AA64" t="str">
-        <f t="shared" si="1"/>
-        <v>落花  啾啾哧哧</v>
+      <c r="AA64" t="s">
+        <v>48</v>
       </c>
       <c r="AB64" t="s">
         <v>48</v>
@@ -11203,25 +10687,25 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>339</v>
+        <v>203</v>
       </c>
       <c r="C65" t="s">
-        <v>340</v>
+        <v>204</v>
       </c>
       <c r="D65" t="s">
         <v>48</v>
       </c>
       <c r="E65">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F65">
-        <v>162835</v>
+        <v>182000</v>
       </c>
       <c r="G65">
-        <v>814175</v>
+        <v>1274000</v>
       </c>
       <c r="H65" t="s">
-        <v>341</v>
+        <v>205</v>
       </c>
       <c r="I65" t="s">
         <v>48</v>
@@ -11229,20 +10713,20 @@
       <c r="J65" t="s">
         <v>48</v>
       </c>
-      <c r="K65">
-        <v>5</v>
-      </c>
-      <c r="L65">
-        <v>130164</v>
-      </c>
-      <c r="M65">
-        <v>650820</v>
+      <c r="K65" t="s">
+        <v>48</v>
+      </c>
+      <c r="L65" t="s">
+        <v>48</v>
+      </c>
+      <c r="M65" t="s">
+        <v>48</v>
       </c>
       <c r="N65" t="s">
-        <v>342</v>
+        <v>48</v>
       </c>
       <c r="O65" t="s">
-        <v>340</v>
+        <v>48</v>
       </c>
       <c r="P65" t="s">
         <v>48</v>
@@ -11260,7 +10744,7 @@
         <v>48</v>
       </c>
       <c r="U65" t="s">
-        <v>340</v>
+        <v>48</v>
       </c>
       <c r="V65" t="s">
         <v>48</v>
@@ -11277,9 +10761,8 @@
       <c r="Z65" t="s">
         <v>48</v>
       </c>
-      <c r="AA65" t="str">
-        <f t="shared" si="1"/>
-        <v>落花.燃犀犀</v>
+      <c r="AA65" t="s">
+        <v>48</v>
       </c>
       <c r="AB65" t="s">
         <v>48</v>
@@ -11344,10 +10827,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>343</v>
+        <v>206</v>
       </c>
       <c r="C66" t="s">
-        <v>344</v>
+        <v>207</v>
       </c>
       <c r="D66" t="s">
         <v>48</v>
@@ -11356,13 +10839,13 @@
         <v>5</v>
       </c>
       <c r="F66">
-        <v>161000</v>
+        <v>194000</v>
       </c>
       <c r="G66">
-        <v>805000</v>
+        <v>970000</v>
       </c>
       <c r="H66" t="s">
-        <v>345</v>
+        <v>208</v>
       </c>
       <c r="I66" t="s">
         <v>48</v>
@@ -11370,17 +10853,17 @@
       <c r="J66" t="s">
         <v>48</v>
       </c>
-      <c r="K66">
-        <v>5</v>
-      </c>
-      <c r="L66">
-        <v>168000</v>
-      </c>
-      <c r="M66">
-        <v>840000</v>
+      <c r="K66" t="s">
+        <v>48</v>
+      </c>
+      <c r="L66" t="s">
+        <v>48</v>
+      </c>
+      <c r="M66" t="s">
+        <v>48</v>
       </c>
       <c r="N66" t="s">
-        <v>346</v>
+        <v>48</v>
       </c>
       <c r="O66" t="s">
         <v>48</v>
@@ -11388,17 +10871,17 @@
       <c r="P66" t="s">
         <v>48</v>
       </c>
-      <c r="Q66">
-        <v>5</v>
-      </c>
-      <c r="R66">
-        <v>169000</v>
-      </c>
-      <c r="S66">
-        <v>845000</v>
+      <c r="Q66" t="s">
+        <v>48</v>
+      </c>
+      <c r="R66" t="s">
+        <v>48</v>
+      </c>
+      <c r="S66" t="s">
+        <v>48</v>
       </c>
       <c r="T66" t="s">
-        <v>347</v>
+        <v>48</v>
       </c>
       <c r="U66" t="s">
         <v>48</v>
@@ -11406,21 +10889,20 @@
       <c r="V66" t="s">
         <v>48</v>
       </c>
-      <c r="W66">
-        <v>5</v>
-      </c>
-      <c r="X66">
-        <v>171000</v>
-      </c>
-      <c r="Y66">
-        <v>855000</v>
+      <c r="W66" t="s">
+        <v>48</v>
+      </c>
+      <c r="X66" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>48</v>
       </c>
       <c r="Z66" t="s">
-        <v>348</v>
-      </c>
-      <c r="AA66" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <v>48</v>
+      </c>
+      <c r="AA66" t="s">
+        <v>48</v>
       </c>
       <c r="AB66" t="s">
         <v>48</v>
@@ -11485,10 +10967,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>349</v>
+        <v>209</v>
       </c>
       <c r="C67" t="s">
-        <v>350</v>
+        <v>210</v>
       </c>
       <c r="D67" t="s">
         <v>48</v>
@@ -11497,13 +10979,13 @@
         <v>5</v>
       </c>
       <c r="F67">
-        <v>170000</v>
+        <v>162000</v>
       </c>
       <c r="G67">
-        <v>850000</v>
+        <v>810000</v>
       </c>
       <c r="H67" t="s">
-        <v>351</v>
+        <v>211</v>
       </c>
       <c r="I67" t="s">
         <v>48</v>
@@ -11511,17 +10993,17 @@
       <c r="J67" t="s">
         <v>48</v>
       </c>
-      <c r="K67">
-        <v>7</v>
-      </c>
-      <c r="L67">
-        <v>124000</v>
-      </c>
-      <c r="M67">
-        <v>868000</v>
+      <c r="K67" t="s">
+        <v>48</v>
+      </c>
+      <c r="L67" t="s">
+        <v>48</v>
+      </c>
+      <c r="M67" t="s">
+        <v>48</v>
       </c>
       <c r="N67" t="s">
-        <v>352</v>
+        <v>48</v>
       </c>
       <c r="O67" t="s">
         <v>48</v>
@@ -11529,17 +11011,17 @@
       <c r="P67" t="s">
         <v>48</v>
       </c>
-      <c r="Q67">
-        <v>7</v>
-      </c>
-      <c r="R67">
-        <v>127000</v>
-      </c>
-      <c r="S67">
-        <v>889000</v>
+      <c r="Q67" t="s">
+        <v>48</v>
+      </c>
+      <c r="R67" t="s">
+        <v>48</v>
+      </c>
+      <c r="S67" t="s">
+        <v>48</v>
       </c>
       <c r="T67" t="s">
-        <v>353</v>
+        <v>48</v>
       </c>
       <c r="U67" t="s">
         <v>48</v>
@@ -11547,21 +11029,20 @@
       <c r="V67" t="s">
         <v>48</v>
       </c>
-      <c r="W67">
-        <v>7</v>
-      </c>
-      <c r="X67">
-        <v>130000</v>
-      </c>
-      <c r="Y67">
-        <v>910000</v>
+      <c r="W67" t="s">
+        <v>48</v>
+      </c>
+      <c r="X67" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>48</v>
       </c>
       <c r="Z67" t="s">
-        <v>354</v>
-      </c>
-      <c r="AA67" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <v>48</v>
+      </c>
+      <c r="AA67" t="s">
+        <v>48</v>
       </c>
       <c r="AB67" t="s">
         <v>48</v>
@@ -11626,10 +11107,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>355</v>
+        <v>212</v>
       </c>
       <c r="C68" t="s">
-        <v>356</v>
+        <v>213</v>
       </c>
       <c r="D68" t="s">
         <v>48</v>
@@ -11638,13 +11119,13 @@
         <v>5</v>
       </c>
       <c r="F68">
-        <v>200000</v>
+        <v>161000</v>
       </c>
       <c r="G68">
-        <v>1000000</v>
+        <v>805000</v>
       </c>
       <c r="H68" t="s">
-        <v>357</v>
+        <v>214</v>
       </c>
       <c r="I68" t="s">
         <v>48</v>
@@ -11652,17 +11133,17 @@
       <c r="J68" t="s">
         <v>48</v>
       </c>
-      <c r="K68">
-        <v>5</v>
-      </c>
-      <c r="L68">
-        <v>139000</v>
-      </c>
-      <c r="M68">
-        <v>695000</v>
+      <c r="K68" t="s">
+        <v>48</v>
+      </c>
+      <c r="L68" t="s">
+        <v>48</v>
+      </c>
+      <c r="M68" t="s">
+        <v>48</v>
       </c>
       <c r="N68" t="s">
-        <v>358</v>
+        <v>48</v>
       </c>
       <c r="O68" t="s">
         <v>48</v>
@@ -11670,17 +11151,17 @@
       <c r="P68" t="s">
         <v>48</v>
       </c>
-      <c r="Q68">
-        <v>5</v>
-      </c>
-      <c r="R68">
-        <v>141000</v>
-      </c>
-      <c r="S68">
-        <v>705000</v>
+      <c r="Q68" t="s">
+        <v>48</v>
+      </c>
+      <c r="R68" t="s">
+        <v>48</v>
+      </c>
+      <c r="S68" t="s">
+        <v>48</v>
       </c>
       <c r="T68" t="s">
-        <v>359</v>
+        <v>48</v>
       </c>
       <c r="U68" t="s">
         <v>48</v>
@@ -11688,21 +11169,20 @@
       <c r="V68" t="s">
         <v>48</v>
       </c>
-      <c r="W68">
-        <v>5</v>
-      </c>
-      <c r="X68">
-        <v>141000</v>
-      </c>
-      <c r="Y68">
-        <v>705000</v>
+      <c r="W68" t="s">
+        <v>48</v>
+      </c>
+      <c r="X68" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>48</v>
       </c>
       <c r="Z68" t="s">
-        <v>360</v>
-      </c>
-      <c r="AA68" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <v>48</v>
+      </c>
+      <c r="AA68" t="s">
+        <v>48</v>
       </c>
       <c r="AB68" t="s">
         <v>48</v>
@@ -11767,25 +11247,25 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>361</v>
+        <v>215</v>
       </c>
       <c r="C69" t="s">
-        <v>362</v>
+        <v>216</v>
       </c>
       <c r="D69" t="s">
         <v>48</v>
       </c>
       <c r="E69">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F69">
-        <v>711510</v>
+        <v>139000</v>
       </c>
       <c r="G69">
-        <v>4269060</v>
+        <v>695000</v>
       </c>
       <c r="H69" t="s">
-        <v>363</v>
+        <v>217</v>
       </c>
       <c r="I69" t="s">
         <v>48</v>
@@ -11793,17 +11273,17 @@
       <c r="J69" t="s">
         <v>48</v>
       </c>
-      <c r="K69">
-        <v>6</v>
-      </c>
-      <c r="L69">
-        <v>127000</v>
-      </c>
-      <c r="M69">
-        <v>762000</v>
+      <c r="K69" t="s">
+        <v>48</v>
+      </c>
+      <c r="L69" t="s">
+        <v>48</v>
+      </c>
+      <c r="M69" t="s">
+        <v>48</v>
       </c>
       <c r="N69" t="s">
-        <v>364</v>
+        <v>48</v>
       </c>
       <c r="O69" t="s">
         <v>48</v>
@@ -11811,17 +11291,17 @@
       <c r="P69" t="s">
         <v>48</v>
       </c>
-      <c r="Q69">
-        <v>6</v>
-      </c>
-      <c r="R69">
-        <v>135000</v>
-      </c>
-      <c r="S69">
-        <v>810000</v>
+      <c r="Q69" t="s">
+        <v>48</v>
+      </c>
+      <c r="R69" t="s">
+        <v>48</v>
+      </c>
+      <c r="S69" t="s">
+        <v>48</v>
       </c>
       <c r="T69" t="s">
-        <v>365</v>
+        <v>48</v>
       </c>
       <c r="U69" t="s">
         <v>48</v>
@@ -11829,21 +11309,20 @@
       <c r="V69" t="s">
         <v>48</v>
       </c>
-      <c r="W69">
-        <v>5</v>
-      </c>
-      <c r="X69">
-        <v>140000</v>
-      </c>
-      <c r="Y69">
-        <v>700000</v>
+      <c r="W69" t="s">
+        <v>48</v>
+      </c>
+      <c r="X69" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>48</v>
       </c>
       <c r="Z69" t="s">
-        <v>366</v>
-      </c>
-      <c r="AA69" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <v>48</v>
+      </c>
+      <c r="AA69" t="s">
+        <v>48</v>
       </c>
       <c r="AB69" t="s">
         <v>48</v>
@@ -11908,25 +11387,25 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>367</v>
+        <v>218</v>
       </c>
       <c r="C70" t="s">
-        <v>368</v>
+        <v>48</v>
       </c>
       <c r="D70" t="s">
         <v>48</v>
       </c>
       <c r="E70">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F70">
-        <v>134000</v>
+        <v>110000</v>
       </c>
       <c r="G70">
-        <v>670000</v>
+        <v>770000</v>
       </c>
       <c r="H70" t="s">
-        <v>369</v>
+        <v>219</v>
       </c>
       <c r="I70" t="s">
         <v>48</v>
@@ -11934,17 +11413,17 @@
       <c r="J70" t="s">
         <v>48</v>
       </c>
-      <c r="K70">
-        <v>5</v>
-      </c>
-      <c r="L70">
-        <v>143000</v>
-      </c>
-      <c r="M70">
-        <v>715000</v>
+      <c r="K70" t="s">
+        <v>48</v>
+      </c>
+      <c r="L70" t="s">
+        <v>48</v>
+      </c>
+      <c r="M70" t="s">
+        <v>48</v>
       </c>
       <c r="N70" t="s">
-        <v>370</v>
+        <v>48</v>
       </c>
       <c r="O70" t="s">
         <v>48</v>
@@ -11952,17 +11431,17 @@
       <c r="P70" t="s">
         <v>48</v>
       </c>
-      <c r="Q70">
-        <v>5</v>
-      </c>
-      <c r="R70">
-        <v>144000</v>
-      </c>
-      <c r="S70">
-        <v>720000</v>
+      <c r="Q70" t="s">
+        <v>48</v>
+      </c>
+      <c r="R70" t="s">
+        <v>48</v>
+      </c>
+      <c r="S70" t="s">
+        <v>48</v>
       </c>
       <c r="T70" t="s">
-        <v>371</v>
+        <v>48</v>
       </c>
       <c r="U70" t="s">
         <v>48</v>
@@ -11970,21 +11449,20 @@
       <c r="V70" t="s">
         <v>48</v>
       </c>
-      <c r="W70">
-        <v>5</v>
-      </c>
-      <c r="X70">
-        <v>144000</v>
-      </c>
-      <c r="Y70">
-        <v>720000</v>
+      <c r="W70" t="s">
+        <v>48</v>
+      </c>
+      <c r="X70" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>48</v>
       </c>
       <c r="Z70" t="s">
-        <v>372</v>
-      </c>
-      <c r="AA70" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <v>48</v>
+      </c>
+      <c r="AA70" t="s">
+        <v>48</v>
       </c>
       <c r="AB70" t="s">
         <v>48</v>
@@ -12048,26 +11526,26 @@
       <c r="A71" s="1">
         <v>69</v>
       </c>
-      <c r="B71" t="s">
-        <v>373</v>
+      <c r="B71">
+        <v>1305819830</v>
       </c>
       <c r="C71" t="s">
-        <v>374</v>
+        <v>220</v>
       </c>
       <c r="D71" t="s">
         <v>48</v>
       </c>
-      <c r="E71" t="s">
-        <v>48</v>
-      </c>
-      <c r="F71" t="s">
-        <v>48</v>
-      </c>
-      <c r="G71" t="s">
-        <v>48</v>
+      <c r="E71">
+        <v>5</v>
+      </c>
+      <c r="F71">
+        <v>190000</v>
+      </c>
+      <c r="G71">
+        <v>950000</v>
       </c>
       <c r="H71" t="s">
-        <v>48</v>
+        <v>221</v>
       </c>
       <c r="I71" t="s">
         <v>48</v>
@@ -12075,17 +11553,17 @@
       <c r="J71" t="s">
         <v>48</v>
       </c>
-      <c r="K71">
-        <v>6</v>
-      </c>
-      <c r="L71">
-        <v>117000</v>
-      </c>
-      <c r="M71">
-        <v>702000</v>
+      <c r="K71" t="s">
+        <v>48</v>
+      </c>
+      <c r="L71" t="s">
+        <v>48</v>
+      </c>
+      <c r="M71" t="s">
+        <v>48</v>
       </c>
       <c r="N71" t="s">
-        <v>375</v>
+        <v>48</v>
       </c>
       <c r="O71" t="s">
         <v>48</v>
@@ -12093,17 +11571,17 @@
       <c r="P71" t="s">
         <v>48</v>
       </c>
-      <c r="Q71">
-        <v>6</v>
-      </c>
-      <c r="R71">
-        <v>118000</v>
-      </c>
-      <c r="S71">
-        <v>708000</v>
+      <c r="Q71" t="s">
+        <v>48</v>
+      </c>
+      <c r="R71" t="s">
+        <v>48</v>
+      </c>
+      <c r="S71" t="s">
+        <v>48</v>
       </c>
       <c r="T71" t="s">
-        <v>376</v>
+        <v>48</v>
       </c>
       <c r="U71" t="s">
         <v>48</v>
@@ -12111,21 +11589,20 @@
       <c r="V71" t="s">
         <v>48</v>
       </c>
-      <c r="W71">
-        <v>6</v>
-      </c>
-      <c r="X71">
-        <v>120000</v>
-      </c>
-      <c r="Y71">
-        <v>720000</v>
+      <c r="W71" t="s">
+        <v>48</v>
+      </c>
+      <c r="X71" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>48</v>
       </c>
       <c r="Z71" t="s">
-        <v>377</v>
-      </c>
-      <c r="AA71" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <v>48</v>
+      </c>
+      <c r="AA71" t="s">
+        <v>48</v>
       </c>
       <c r="AB71" t="s">
         <v>48</v>
@@ -12190,10 +11667,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>378</v>
+        <v>222</v>
       </c>
       <c r="C72" t="s">
-        <v>379</v>
+        <v>223</v>
       </c>
       <c r="D72" t="s">
         <v>48</v>
@@ -12206,7 +11683,7 @@
       </c>
       <c r="G72">
         <f>AVERAGE(G2:G71)</f>
-        <v>877827.642857143</v>
+        <v>902521.447368421</v>
       </c>
       <c r="H72" t="s">
         <v>48</v>
@@ -12223,8 +11700,8 @@
       <c r="L72" t="s">
         <v>48</v>
       </c>
-      <c r="M72">
-        <v>32</v>
+      <c r="M72" t="s">
+        <v>48</v>
       </c>
       <c r="N72" t="s">
         <v>48</v>

--- a/落花机密表_糙汉子版.xlsx
+++ b/落花机密表_糙汉子版.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3123" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3158" uniqueCount="246">
   <si>
     <t>QQ</t>
   </si>
@@ -170,405 +170,447 @@
     <t>落花@冷月小猫泪</t>
   </si>
   <si>
+    <t>2019-09-09 21:11:38</t>
+  </si>
+  <si>
+    <t>78191877</t>
+  </si>
+  <si>
+    <t>落花 星光化作翅膀</t>
+  </si>
+  <si>
+    <t>30137763</t>
+  </si>
+  <si>
+    <t>落花樱茶【出号价格可议私我</t>
+  </si>
+  <si>
+    <t>2019-09-09 14:02:51</t>
+  </si>
+  <si>
+    <t>1327354755</t>
+  </si>
+  <si>
+    <t>落花 清水奈绪子（错过派对，错过一亿）</t>
+  </si>
+  <si>
+    <t>39302003</t>
+  </si>
+  <si>
+    <t>落花 神仙</t>
+  </si>
+  <si>
+    <t>781898849</t>
+  </si>
+  <si>
+    <t>落花-KGAoi（错过派对专业户）</t>
+  </si>
+  <si>
+    <t>2019-09-09 13:43:56</t>
+  </si>
+  <si>
+    <t>2661759612</t>
+  </si>
+  <si>
+    <t>落花ˊૢ路希</t>
+  </si>
+  <si>
+    <t>2019-09-09 10:03:47</t>
+  </si>
+  <si>
+    <t>cydjl@qq.com</t>
+  </si>
+  <si>
+    <t>落花 花浔</t>
+  </si>
+  <si>
+    <t>2019-09-09 19:20:47</t>
+  </si>
+  <si>
+    <t>992526373</t>
+  </si>
+  <si>
+    <t>落花 slily</t>
+  </si>
+  <si>
+    <t>2019-09-09 12:53:10</t>
+  </si>
+  <si>
+    <t>974687361</t>
+  </si>
+  <si>
+    <t>落花-清水</t>
+  </si>
+  <si>
+    <t>2019-09-09 13:53:54</t>
+  </si>
+  <si>
+    <t>924110951</t>
+  </si>
+  <si>
+    <t>落花@楚锦妮</t>
+  </si>
+  <si>
+    <t>923418164</t>
+  </si>
+  <si>
+    <t>落花 千早(</t>
+  </si>
+  <si>
+    <t>2019-09-09 13:34:11</t>
+  </si>
+  <si>
+    <t>845423216</t>
+  </si>
+  <si>
+    <t>落花 ¿ Clear1（给我也整一个）</t>
+  </si>
+  <si>
+    <t>821515617</t>
+  </si>
+  <si>
+    <t>落花-谢南</t>
+  </si>
+  <si>
+    <t>2019-09-09 20:19:47</t>
+  </si>
+  <si>
+    <t>793019511</t>
+  </si>
+  <si>
+    <t>落花ฅ稷晞</t>
+  </si>
+  <si>
+    <t>2019-09-09 13:22:55</t>
+  </si>
+  <si>
+    <t>784945709</t>
+  </si>
+  <si>
+    <t>落花.花祭夜.今天机密85w分哦</t>
+  </si>
+  <si>
+    <t>2019-09-09 20:10:27</t>
+  </si>
+  <si>
+    <t>779867533</t>
+  </si>
+  <si>
+    <t>落花๑顾安白</t>
+  </si>
+  <si>
+    <t>2019-09-09 14:56:51</t>
+  </si>
+  <si>
+    <t>769521738</t>
+  </si>
+  <si>
+    <t>落花-白茶</t>
+  </si>
+  <si>
+    <t>2019-09-09 08:50:18</t>
+  </si>
+  <si>
+    <t>745415648</t>
+  </si>
+  <si>
+    <t>落花 小虚</t>
+  </si>
+  <si>
+    <t>2019-09-09 13:29:36</t>
+  </si>
+  <si>
+    <t>727791466</t>
+  </si>
+  <si>
+    <t>落花+天辟</t>
+  </si>
+  <si>
+    <t>2019-09-09 19:23:44</t>
+  </si>
+  <si>
+    <t>724187504</t>
+  </si>
+  <si>
+    <t>落花⭐Rai</t>
+  </si>
+  <si>
+    <t>710237833</t>
+  </si>
+  <si>
+    <t>落花 可露丽</t>
+  </si>
+  <si>
+    <t>2019-09-09 06:37:40</t>
+  </si>
+  <si>
+    <t>651570472</t>
+  </si>
+  <si>
+    <t>落花 EXO</t>
+  </si>
+  <si>
+    <t>2019-09-09 13:29:08</t>
+  </si>
+  <si>
+    <t>648875355</t>
+  </si>
+  <si>
+    <t>落花—陆阮阮</t>
+  </si>
+  <si>
+    <t>2019-09-09 13:31:35</t>
+  </si>
+  <si>
+    <t>535509797</t>
+  </si>
+  <si>
+    <t>落花，灰姐</t>
+  </si>
+  <si>
+    <t>2019-09-09 19:21:23</t>
+  </si>
+  <si>
+    <t>505644622</t>
+  </si>
+  <si>
+    <t>落花◈啾啾</t>
+  </si>
+  <si>
+    <t>2019-09-09 19:19:44</t>
+  </si>
+  <si>
+    <t>491384166</t>
+  </si>
+  <si>
+    <t>落花@藤原千花</t>
+  </si>
+  <si>
+    <t>2019-09-09 13:26:12</t>
+  </si>
+  <si>
+    <t>3504245791</t>
+  </si>
+  <si>
+    <t>落花-瓷羽</t>
+  </si>
+  <si>
+    <t>2753247176</t>
+  </si>
+  <si>
+    <t>落花－白寄岚</t>
+  </si>
+  <si>
+    <t>2019-09-09 06:26:42</t>
+  </si>
+  <si>
+    <t>3476601463</t>
+  </si>
+  <si>
+    <t>落花 阿幼</t>
+  </si>
+  <si>
+    <t>2019-09-09 20:19:37</t>
+  </si>
+  <si>
+    <t>3240236818</t>
+  </si>
+  <si>
+    <t>落花 秦意</t>
+  </si>
+  <si>
+    <t>2971057903</t>
+  </si>
+  <si>
+    <t>落花-细语</t>
+  </si>
+  <si>
+    <t>2019-09-09 08:31:00</t>
+  </si>
+  <si>
+    <t>2638588219</t>
+  </si>
+  <si>
+    <t>落花-洱瓷(其他人都有括号那我也要搞一个)</t>
+  </si>
+  <si>
+    <t>2019-09-09 16:20:58</t>
+  </si>
+  <si>
+    <t>2473375876</t>
+  </si>
+  <si>
+    <t>落花 林咕啾（星期六jjc结算记得留次数</t>
+  </si>
+  <si>
+    <t>2019-09-09 20:18:37</t>
+  </si>
+  <si>
+    <t>2406417774</t>
+  </si>
+  <si>
+    <t>落花 苏其凉</t>
+  </si>
+  <si>
+    <t>1941489960</t>
+  </si>
+  <si>
+    <t>落花 早纪畈枝</t>
+  </si>
+  <si>
+    <t>2019-09-09 09:43:04</t>
+  </si>
+  <si>
+    <t>1937237519</t>
+  </si>
+  <si>
+    <t>落花 ♏ 桃花换酒</t>
+  </si>
+  <si>
+    <t>2019-09-09 12:27:22</t>
+  </si>
+  <si>
+    <t>1841469477</t>
+  </si>
+  <si>
+    <t>落花-天淼</t>
+  </si>
+  <si>
+    <t>2019-09-09 19:48:58</t>
+  </si>
+  <si>
+    <t>1790016705</t>
+  </si>
+  <si>
+    <t>落花      魚漁。</t>
+  </si>
+  <si>
+    <t>1755065148</t>
+  </si>
+  <si>
+    <t>落花  赖皮蛇</t>
+  </si>
+  <si>
+    <t>2019-09-09 19:20:06</t>
+  </si>
+  <si>
+    <t>1664171803</t>
+  </si>
+  <si>
+    <t>落花ෆ总攻大人</t>
+  </si>
+  <si>
+    <t>2019-09-09 20:45:00</t>
+  </si>
+  <si>
+    <t>16500928</t>
+  </si>
+  <si>
+    <t>落花 羽川</t>
+  </si>
+  <si>
+    <t>2019-09-09 09:09:39</t>
+  </si>
+  <si>
+    <t>15451377</t>
+  </si>
+  <si>
+    <t>落花·紫</t>
+  </si>
+  <si>
+    <t>2019-09-09 13:44:52</t>
+  </si>
+  <si>
+    <t>1543607287</t>
+  </si>
+  <si>
+    <t>落花兰摧玉折</t>
+  </si>
+  <si>
+    <t>1393363961</t>
+  </si>
+  <si>
+    <t>落花꒳红茶喵喵喵（联盟答题月入百万）</t>
+  </si>
+  <si>
+    <t>2019-09-09 06:58:45</t>
+  </si>
+  <si>
+    <t>1369593175</t>
+  </si>
+  <si>
+    <t>落花～～心城</t>
+  </si>
+  <si>
+    <t>2019-09-09 10:04:06</t>
+  </si>
+  <si>
+    <t>1369562367</t>
+  </si>
+  <si>
+    <t>落花ω天天</t>
+  </si>
+  <si>
+    <t>2019-09-09 20:37:20</t>
+  </si>
+  <si>
+    <t>1239530393</t>
+  </si>
+  <si>
+    <t>落花" 苏久久</t>
+  </si>
+  <si>
+    <t>july401@qq.com</t>
+  </si>
+  <si>
+    <t>落花，初【我是群里的打机提醒小助手】</t>
+  </si>
+  <si>
+    <t>2019-09-09 13:38:39</t>
+  </si>
+  <si>
+    <t>121398489</t>
+  </si>
+  <si>
+    <t>落花_鸭鸭</t>
+  </si>
+  <si>
+    <t>2019-09-09 20:24:05</t>
+  </si>
+  <si>
+    <t>1441657502</t>
+  </si>
+  <si>
+    <t>落月 樱井</t>
+  </si>
+  <si>
+    <t>2019-09-09 08:30:23</t>
+  </si>
+  <si>
+    <t>1130056290</t>
+  </si>
+  <si>
+    <t>落花～辉光叶</t>
+  </si>
+  <si>
+    <t>2019-09-09 20:20:00</t>
+  </si>
+  <si>
+    <t>1056711058</t>
+  </si>
+  <si>
+    <t>落花：翎羽</t>
+  </si>
+  <si>
+    <t>1055498540</t>
+  </si>
+  <si>
+    <t>落花-凛喵</t>
+  </si>
+  <si>
     <t>2019-09-09 13:51:41</t>
   </si>
   <si>
-    <t>78191877</t>
-  </si>
-  <si>
-    <t>落花 星光化作翅膀</t>
-  </si>
-  <si>
-    <t>30137763</t>
-  </si>
-  <si>
-    <t>落花樱茶</t>
-  </si>
-  <si>
-    <t>1327354755</t>
-  </si>
-  <si>
-    <t>落花 清水奈绪子（错过派对，错过一亿）</t>
-  </si>
-  <si>
-    <t>39302003</t>
-  </si>
-  <si>
-    <t>落花 神仙</t>
-  </si>
-  <si>
-    <t>781898849</t>
-  </si>
-  <si>
-    <t>落花-KGAoi（错过派对专业户）</t>
-  </si>
-  <si>
-    <t>2019-09-09 13:43:56</t>
-  </si>
-  <si>
-    <t>2661759612</t>
-  </si>
-  <si>
-    <t>落花ˊૢ路希</t>
-  </si>
-  <si>
-    <t>2019-09-09 10:03:47</t>
-  </si>
-  <si>
-    <t>cydjl@qq.com</t>
-  </si>
-  <si>
-    <t>落花 花浔</t>
-  </si>
-  <si>
-    <t>992526373</t>
-  </si>
-  <si>
-    <t>落花 slily</t>
-  </si>
-  <si>
-    <t>2019-09-09 12:53:10</t>
-  </si>
-  <si>
-    <t>974687361</t>
-  </si>
-  <si>
-    <t>落花-清水</t>
-  </si>
-  <si>
-    <t>2019-09-09 05:53:40</t>
-  </si>
-  <si>
-    <t>924110951</t>
-  </si>
-  <si>
-    <t>落花@楚锦妮</t>
-  </si>
-  <si>
-    <t>923418164</t>
-  </si>
-  <si>
-    <t>落花 千早(</t>
-  </si>
-  <si>
-    <t>2019-09-09 13:34:11</t>
-  </si>
-  <si>
-    <t>845423216</t>
-  </si>
-  <si>
-    <t>落花 ¿ Clear1（给我也整一个）</t>
-  </si>
-  <si>
-    <t>2019-09-09 05:51:01</t>
-  </si>
-  <si>
-    <t>821515617</t>
-  </si>
-  <si>
-    <t>落花-谢南</t>
-  </si>
-  <si>
-    <t>793019511</t>
-  </si>
-  <si>
-    <t>落花ฅ稷晞</t>
-  </si>
-  <si>
-    <t>2019-09-09 13:22:55</t>
-  </si>
-  <si>
-    <t>784945709</t>
-  </si>
-  <si>
-    <t>落花.花祭夜.今天机密68w分哦</t>
-  </si>
-  <si>
-    <t>2019-09-09 08:03:18</t>
-  </si>
-  <si>
-    <t>779867533</t>
-  </si>
-  <si>
-    <t>落花๑顾安白</t>
-  </si>
-  <si>
-    <t>769521738</t>
-  </si>
-  <si>
-    <t>落花-白茶</t>
-  </si>
-  <si>
-    <t>2019-09-09 08:50:18</t>
-  </si>
-  <si>
-    <t>745415648</t>
-  </si>
-  <si>
-    <t>落花 小虚</t>
-  </si>
-  <si>
-    <t>2019-09-09 13:29:36</t>
-  </si>
-  <si>
-    <t>727791466</t>
-  </si>
-  <si>
-    <t>落花+天辟</t>
-  </si>
-  <si>
-    <t>724187504</t>
-  </si>
-  <si>
-    <t>落花⭐Rai</t>
-  </si>
-  <si>
-    <t>710237833</t>
-  </si>
-  <si>
-    <t>落花 可露丽</t>
-  </si>
-  <si>
-    <t>2019-09-09 06:37:40</t>
-  </si>
-  <si>
-    <t>651570472</t>
-  </si>
-  <si>
-    <t>落花 EXO</t>
-  </si>
-  <si>
-    <t>2019-09-09 13:29:08</t>
-  </si>
-  <si>
-    <t>648875355</t>
-  </si>
-  <si>
-    <t>落花—陆阮阮</t>
-  </si>
-  <si>
-    <t>2019-09-09 13:31:35</t>
-  </si>
-  <si>
-    <t>535509797</t>
-  </si>
-  <si>
-    <t>落花，灰姐</t>
-  </si>
-  <si>
-    <t>505644622</t>
-  </si>
-  <si>
-    <t>落花◈啾啾</t>
-  </si>
-  <si>
-    <t>491384166</t>
-  </si>
-  <si>
-    <t>落花@藤原千花</t>
-  </si>
-  <si>
-    <t>2019-09-09 13:26:12</t>
-  </si>
-  <si>
-    <t>3504245791</t>
-  </si>
-  <si>
-    <t>落花-瓷羽</t>
-  </si>
-  <si>
-    <t>2753247176</t>
-  </si>
-  <si>
-    <t>落花－白寄岚</t>
-  </si>
-  <si>
-    <t>2019-09-09 06:26:42</t>
-  </si>
-  <si>
-    <t>3476601463</t>
-  </si>
-  <si>
-    <t>落花 阿幼</t>
-  </si>
-  <si>
-    <t>3240236818</t>
-  </si>
-  <si>
-    <t>落花 秦意</t>
-  </si>
-  <si>
-    <t>2971057903</t>
-  </si>
-  <si>
-    <t>落花-细语</t>
-  </si>
-  <si>
-    <t>2019-09-09 08:31:00</t>
-  </si>
-  <si>
-    <t>2638588219</t>
-  </si>
-  <si>
-    <t>落花-洱瓷(其他人都有括号那我也要搞一个)</t>
-  </si>
-  <si>
-    <t>2473375876</t>
-  </si>
-  <si>
-    <t>落花 林咕啾（星期六jjc结算记得留次数</t>
-  </si>
-  <si>
-    <t>2019-09-09 13:19:07</t>
-  </si>
-  <si>
-    <t>2406417774</t>
-  </si>
-  <si>
-    <t>落花 苏其凉</t>
-  </si>
-  <si>
-    <t>1941489960</t>
-  </si>
-  <si>
-    <t>落花 早纪畈枝</t>
-  </si>
-  <si>
-    <t>2019-09-09 09:43:04</t>
-  </si>
-  <si>
-    <t>1937237519</t>
-  </si>
-  <si>
-    <t>落花 ♏ 桃花换酒</t>
-  </si>
-  <si>
-    <t>2019-09-09 12:27:22</t>
-  </si>
-  <si>
-    <t>1841469477</t>
-  </si>
-  <si>
-    <t>落花-天淼</t>
-  </si>
-  <si>
-    <t>1790016705</t>
-  </si>
-  <si>
-    <t>落花      魚漁。</t>
-  </si>
-  <si>
-    <t>1755065148</t>
-  </si>
-  <si>
-    <t>落花  赖皮蛇</t>
-  </si>
-  <si>
-    <t>1664171803</t>
-  </si>
-  <si>
-    <t>落花ෆ总攻大人</t>
-  </si>
-  <si>
-    <t>2019-09-09 09:51:33</t>
-  </si>
-  <si>
-    <t>16500928</t>
-  </si>
-  <si>
-    <t>落花 羽川</t>
-  </si>
-  <si>
-    <t>2019-09-09 09:09:39</t>
-  </si>
-  <si>
-    <t>15451377</t>
-  </si>
-  <si>
-    <t>落花·紫</t>
-  </si>
-  <si>
-    <t>2019-09-09 13:44:52</t>
-  </si>
-  <si>
-    <t>1543607287</t>
-  </si>
-  <si>
-    <t>落花兰摧玉折</t>
-  </si>
-  <si>
-    <t>1393363961</t>
-  </si>
-  <si>
-    <t>落花꒳红茶喵喵喵（联盟答题月入百万）</t>
-  </si>
-  <si>
-    <t>2019-09-09 06:58:45</t>
-  </si>
-  <si>
-    <t>1369593175</t>
-  </si>
-  <si>
-    <t>落花～～心城</t>
-  </si>
-  <si>
-    <t>2019-09-09 10:04:06</t>
-  </si>
-  <si>
-    <t>1369562367</t>
-  </si>
-  <si>
-    <t>落花ω天天</t>
-  </si>
-  <si>
-    <t>1239530393</t>
-  </si>
-  <si>
-    <t>落花" 苏久久</t>
-  </si>
-  <si>
-    <t>july401@qq.com</t>
-  </si>
-  <si>
-    <t>落花，初【我是群里的打机提醒小助手】</t>
-  </si>
-  <si>
-    <t>2019-09-09 13:28:57</t>
-  </si>
-  <si>
-    <t>121398489</t>
-  </si>
-  <si>
-    <t>落花_鸭鸭</t>
-  </si>
-  <si>
-    <t>1441657502</t>
-  </si>
-  <si>
-    <t>落花 樱井</t>
-  </si>
-  <si>
-    <t>2019-09-09 08:30:23</t>
-  </si>
-  <si>
-    <t>1130056290</t>
-  </si>
-  <si>
-    <t>落花～辉光叶</t>
-  </si>
-  <si>
-    <t>1056711058</t>
-  </si>
-  <si>
-    <t>落花：翎羽</t>
-  </si>
-  <si>
-    <t>1055498540</t>
-  </si>
-  <si>
-    <t>落花-凛喵</t>
-  </si>
-  <si>
     <t>1041544486</t>
   </si>
   <si>
@@ -584,6 +626,9 @@
     <t>落花ʚ阿喵王子他父王ɞ</t>
   </si>
   <si>
+    <t>2019-09-09 14:00:19</t>
+  </si>
+  <si>
     <t>1025385659</t>
   </si>
   <si>
@@ -620,19 +665,25 @@
     <t>落花.燃犀犀</t>
   </si>
   <si>
+    <t>2019-09-09 17:03:22</t>
+  </si>
+  <si>
     <t>108932610</t>
   </si>
   <si>
     <t>落花～羽汐</t>
   </si>
   <si>
+    <t>2019-09-09 14:45:14</t>
+  </si>
+  <si>
     <t>965462652</t>
   </si>
   <si>
     <t>落花*终年欧巴（括号里写点啥）</t>
   </si>
   <si>
-    <t>2019-09-09 13:46:15</t>
+    <t>2019-09-09 20:16:37</t>
   </si>
   <si>
     <t>2953487480</t>
@@ -674,13 +725,28 @@
     <t>1584039297</t>
   </si>
   <si>
-    <t>2019-09-09 07:51:37</t>
-  </si>
-  <si>
-    <t>花朝廿八</t>
+    <t>落花-第四片柠檬</t>
+  </si>
+  <si>
+    <t>2019-09-09 20:10:51</t>
+  </si>
+  <si>
+    <t>落花~芝士年糕</t>
   </si>
   <si>
     <t>2019-09-09 10:23:05</t>
+  </si>
+  <si>
+    <t>1012527207</t>
+  </si>
+  <si>
+    <t>落花 阿呜</t>
+  </si>
+  <si>
+    <t>2019-09-09 15:04:53</t>
+  </si>
+  <si>
+    <t>落花 桃花不沾衣</t>
   </si>
   <si>
     <t>-1</t>
@@ -694,11 +760,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -711,13 +777,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -738,6 +797,59 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -752,28 +864,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -782,27 +872,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -821,32 +894,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -860,8 +925,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -876,19 +942,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -906,7 +990,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -924,37 +1086,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -966,37 +1110,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1008,55 +1122,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1110,16 +1176,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1138,23 +1204,32 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1173,160 +1248,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1682,7 +1748,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AT72"/>
+  <dimension ref="A1:AT74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1697,7 +1763,7 @@
     <col min="5" max="6" width="7.625" customWidth="1"/>
     <col min="7" max="7" width="12.625" customWidth="1"/>
     <col min="8" max="8" width="21.5" customWidth="1"/>
-    <col min="9" max="9" width="7.625" customWidth="1"/>
+    <col min="9" max="9" width="17.5" customWidth="1"/>
     <col min="10" max="10" width="11.875" customWidth="1"/>
     <col min="11" max="13" width="7.625" customWidth="1"/>
     <col min="14" max="14" width="11.875" customWidth="1"/>
@@ -2295,17 +2361,17 @@
       <c r="D5" t="s">
         <v>48</v>
       </c>
-      <c r="E5" t="s">
-        <v>48</v>
-      </c>
-      <c r="F5" t="s">
-        <v>48</v>
-      </c>
-      <c r="G5" t="s">
-        <v>48</v>
+      <c r="E5">
+        <v>7</v>
+      </c>
+      <c r="F5">
+        <v>330000</v>
+      </c>
+      <c r="G5">
+        <v>2310000</v>
       </c>
       <c r="H5" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="I5" t="s">
         <v>48</v>
@@ -2427,10 +2493,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D6" t="s">
         <v>48</v>
@@ -2567,10 +2633,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D7" t="s">
         <v>48</v>
@@ -2707,10 +2773,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D8" t="s">
         <v>48</v>
@@ -2725,7 +2791,7 @@
         <v>1280000</v>
       </c>
       <c r="H8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I8" t="s">
         <v>48</v>
@@ -2847,10 +2913,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D9" t="s">
         <v>48</v>
@@ -2865,7 +2931,7 @@
         <v>806445</v>
       </c>
       <c r="H9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I9" t="s">
         <v>48</v>
@@ -2987,25 +3053,25 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D10" t="s">
         <v>48</v>
       </c>
-      <c r="E10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F10" t="s">
-        <v>48</v>
-      </c>
-      <c r="G10" t="s">
-        <v>48</v>
+      <c r="E10">
+        <v>6</v>
+      </c>
+      <c r="F10">
+        <v>132000</v>
+      </c>
+      <c r="G10">
+        <v>792000</v>
       </c>
       <c r="H10" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="I10" t="s">
         <v>48</v>
@@ -3127,10 +3193,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C11" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D11" t="s">
         <v>48</v>
@@ -3145,7 +3211,7 @@
         <v>750000</v>
       </c>
       <c r="H11" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I11" t="s">
         <v>48</v>
@@ -3267,10 +3333,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C12" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D12" t="s">
         <v>48</v>
@@ -3285,7 +3351,7 @@
         <v>966000</v>
       </c>
       <c r="H12" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I12" t="s">
         <v>48</v>
@@ -3407,10 +3473,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C13" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D13" t="s">
         <v>48</v>
@@ -3428,7 +3494,7 @@
         <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="J13" t="s">
         <v>48</v>
@@ -3547,10 +3613,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C14" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D14" t="s">
         <v>48</v>
@@ -3565,7 +3631,7 @@
         <v>918000</v>
       </c>
       <c r="H14" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I14" t="s">
         <v>48</v>
@@ -3687,10 +3753,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C15" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D15" t="s">
         <v>48</v>
@@ -3705,7 +3771,7 @@
         <v>750000</v>
       </c>
       <c r="H15" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="I15" t="s">
         <v>48</v>
@@ -3827,25 +3893,25 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C16" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D16" t="s">
         <v>48</v>
       </c>
-      <c r="E16" t="s">
-        <v>48</v>
-      </c>
-      <c r="F16" t="s">
-        <v>48</v>
-      </c>
-      <c r="G16" t="s">
-        <v>48</v>
+      <c r="E16">
+        <v>7</v>
+      </c>
+      <c r="F16">
+        <v>139000</v>
+      </c>
+      <c r="G16">
+        <v>973000</v>
       </c>
       <c r="H16" t="s">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="I16" t="s">
         <v>48</v>
@@ -3967,10 +4033,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C17" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D17" t="s">
         <v>48</v>
@@ -3985,7 +4051,7 @@
         <v>1085000</v>
       </c>
       <c r="H17" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I17" t="s">
         <v>48</v>
@@ -4107,10 +4173,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C18" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D18" t="s">
         <v>48</v>
@@ -4125,7 +4191,7 @@
         <v>1155000</v>
       </c>
       <c r="H18" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I18" t="s">
         <v>48</v>
@@ -4247,25 +4313,25 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C19" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D19" t="s">
         <v>48</v>
       </c>
-      <c r="E19" t="s">
-        <v>48</v>
-      </c>
-      <c r="F19" t="s">
-        <v>48</v>
-      </c>
-      <c r="G19" t="s">
-        <v>48</v>
+      <c r="E19">
+        <v>5</v>
+      </c>
+      <c r="F19">
+        <v>162000</v>
+      </c>
+      <c r="G19">
+        <v>810000</v>
       </c>
       <c r="H19" t="s">
-        <v>48</v>
+        <v>94</v>
       </c>
       <c r="I19" t="s">
         <v>48</v>
@@ -4387,10 +4453,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C20" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D20" t="s">
         <v>48</v>
@@ -4405,7 +4471,7 @@
         <v>850000</v>
       </c>
       <c r="H20" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="I20" t="s">
         <v>48</v>
@@ -4527,10 +4593,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C21" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D21" t="s">
         <v>48</v>
@@ -4545,7 +4611,7 @@
         <v>786000</v>
       </c>
       <c r="H21" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I21" t="s">
         <v>48</v>
@@ -4667,25 +4733,25 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C22" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D22" t="s">
         <v>48</v>
       </c>
-      <c r="E22" t="s">
-        <v>48</v>
-      </c>
-      <c r="F22" t="s">
-        <v>48</v>
-      </c>
-      <c r="G22" t="s">
-        <v>48</v>
+      <c r="E22">
+        <v>5</v>
+      </c>
+      <c r="F22">
+        <v>165000</v>
+      </c>
+      <c r="G22">
+        <v>825000</v>
       </c>
       <c r="H22" t="s">
-        <v>48</v>
+        <v>103</v>
       </c>
       <c r="I22" t="s">
         <v>48</v>
@@ -4807,10 +4873,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C23" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D23" t="s">
         <v>48</v>
@@ -4828,7 +4894,7 @@
         <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>48</v>
+        <v>105</v>
       </c>
       <c r="J23" t="s">
         <v>48</v>
@@ -4947,10 +5013,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C24" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D24" t="s">
         <v>48</v>
@@ -4965,7 +5031,7 @@
         <v>830000</v>
       </c>
       <c r="H24" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="I24" t="s">
         <v>48</v>
@@ -5087,10 +5153,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C25" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D25" t="s">
         <v>48</v>
@@ -5105,7 +5171,7 @@
         <v>693000</v>
       </c>
       <c r="H25" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="I25" t="s">
         <v>48</v>
@@ -5227,10 +5293,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C26" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D26" t="s">
         <v>48</v>
@@ -5245,7 +5311,7 @@
         <v>825000</v>
       </c>
       <c r="H26" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="I26" t="s">
         <v>48</v>
@@ -5367,25 +5433,25 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C27" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D27" t="s">
         <v>48</v>
       </c>
-      <c r="E27" t="s">
-        <v>48</v>
-      </c>
-      <c r="F27" t="s">
-        <v>48</v>
-      </c>
-      <c r="G27" t="s">
-        <v>48</v>
+      <c r="E27">
+        <v>6</v>
+      </c>
+      <c r="F27">
+        <v>146000</v>
+      </c>
+      <c r="G27">
+        <v>876000</v>
       </c>
       <c r="H27" t="s">
-        <v>48</v>
+        <v>117</v>
       </c>
       <c r="I27" t="s">
         <v>48</v>
@@ -5507,25 +5573,25 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="C28" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="D28" t="s">
         <v>48</v>
       </c>
-      <c r="E28" t="s">
-        <v>48</v>
-      </c>
-      <c r="F28" t="s">
-        <v>48</v>
-      </c>
-      <c r="G28" t="s">
-        <v>48</v>
+      <c r="E28">
+        <v>5</v>
+      </c>
+      <c r="F28">
+        <v>140000</v>
+      </c>
+      <c r="G28">
+        <v>700000</v>
       </c>
       <c r="H28" t="s">
-        <v>48</v>
+        <v>120</v>
       </c>
       <c r="I28" t="s">
         <v>48</v>
@@ -5647,10 +5713,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="C29" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="D29" t="s">
         <v>48</v>
@@ -5665,7 +5731,7 @@
         <v>800000</v>
       </c>
       <c r="H29" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="I29" t="s">
         <v>48</v>
@@ -5787,10 +5853,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="C30" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="D30" t="s">
         <v>48</v>
@@ -5808,7 +5874,7 @@
         <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>48</v>
+        <v>125</v>
       </c>
       <c r="J30" t="s">
         <v>48</v>
@@ -5927,10 +5993,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="C31" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="D31" t="s">
         <v>48</v>
@@ -5945,7 +6011,7 @@
         <v>1120000</v>
       </c>
       <c r="H31" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="I31" t="s">
         <v>48</v>
@@ -6067,25 +6133,25 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="C32" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="D32" t="s">
         <v>48</v>
       </c>
-      <c r="E32" t="s">
-        <v>48</v>
-      </c>
-      <c r="F32" t="s">
-        <v>48</v>
-      </c>
-      <c r="G32" t="s">
-        <v>48</v>
+      <c r="E32">
+        <v>7</v>
+      </c>
+      <c r="F32">
+        <v>120000</v>
+      </c>
+      <c r="G32">
+        <v>840000</v>
       </c>
       <c r="H32" t="s">
-        <v>48</v>
+        <v>131</v>
       </c>
       <c r="I32" t="s">
         <v>48</v>
@@ -6207,10 +6273,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="C33" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="D33" t="s">
         <v>48</v>
@@ -6228,7 +6294,7 @@
         <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>48</v>
+        <v>133</v>
       </c>
       <c r="J33" t="s">
         <v>48</v>
@@ -6347,10 +6413,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="C34" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="D34" t="s">
         <v>48</v>
@@ -6365,7 +6431,7 @@
         <v>518000</v>
       </c>
       <c r="H34" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="I34" t="s">
         <v>48</v>
@@ -6487,25 +6553,25 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="C35" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="D35" t="s">
         <v>48</v>
       </c>
-      <c r="E35" t="s">
-        <v>48</v>
-      </c>
-      <c r="F35" t="s">
-        <v>48</v>
-      </c>
-      <c r="G35" t="s">
-        <v>48</v>
+      <c r="E35">
+        <v>7</v>
+      </c>
+      <c r="F35">
+        <v>157000</v>
+      </c>
+      <c r="G35">
+        <v>1099000</v>
       </c>
       <c r="H35" t="s">
-        <v>48</v>
+        <v>139</v>
       </c>
       <c r="I35" t="s">
         <v>48</v>
@@ -6627,10 +6693,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="C36" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="D36" t="s">
         <v>48</v>
@@ -6645,7 +6711,7 @@
         <v>847370</v>
       </c>
       <c r="H36" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="I36" t="s">
         <v>48</v>
@@ -6767,10 +6833,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="C37" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="D37" t="s">
         <v>48</v>
@@ -6788,7 +6854,7 @@
         <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>48</v>
+        <v>144</v>
       </c>
       <c r="J37" t="s">
         <v>48</v>
@@ -6907,10 +6973,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="C38" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="D38" t="s">
         <v>48</v>
@@ -6925,7 +6991,7 @@
         <v>1200000</v>
       </c>
       <c r="H38" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="I38" t="s">
         <v>48</v>
@@ -7047,10 +7113,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="C39" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="D39" t="s">
         <v>48</v>
@@ -7065,7 +7131,7 @@
         <v>990000</v>
       </c>
       <c r="H39" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="I39" t="s">
         <v>48</v>
@@ -7187,25 +7253,25 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="C40" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="D40" t="s">
         <v>48</v>
       </c>
-      <c r="E40" t="s">
-        <v>48</v>
-      </c>
-      <c r="F40" t="s">
-        <v>48</v>
-      </c>
-      <c r="G40" t="s">
-        <v>48</v>
+      <c r="E40">
+        <v>5</v>
+      </c>
+      <c r="F40">
+        <v>140000</v>
+      </c>
+      <c r="G40">
+        <v>700000</v>
       </c>
       <c r="H40" t="s">
-        <v>48</v>
+        <v>153</v>
       </c>
       <c r="I40" t="s">
         <v>48</v>
@@ -7327,10 +7393,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="C41" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="D41" t="s">
         <v>48</v>
@@ -7348,7 +7414,7 @@
         <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>48</v>
+        <v>155</v>
       </c>
       <c r="J41" t="s">
         <v>48</v>
@@ -7467,25 +7533,25 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="C42" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="D42" t="s">
         <v>48</v>
       </c>
-      <c r="E42" t="s">
-        <v>48</v>
-      </c>
-      <c r="F42" t="s">
-        <v>48</v>
-      </c>
-      <c r="G42" t="s">
-        <v>48</v>
+      <c r="E42">
+        <v>5</v>
+      </c>
+      <c r="F42">
+        <v>136000</v>
+      </c>
+      <c r="G42">
+        <v>680000</v>
       </c>
       <c r="H42" t="s">
-        <v>48</v>
+        <v>158</v>
       </c>
       <c r="I42" t="s">
         <v>48</v>
@@ -7607,10 +7673,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="C43" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="D43" t="s">
         <v>48</v>
@@ -7625,7 +7691,7 @@
         <v>760000</v>
       </c>
       <c r="H43" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="I43" t="s">
         <v>48</v>
@@ -7747,10 +7813,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="C44" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="D44" t="s">
         <v>48</v>
@@ -7765,7 +7831,7 @@
         <v>835000</v>
       </c>
       <c r="H44" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="I44" t="s">
         <v>48</v>
@@ -7887,10 +7953,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="C45" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="D45" t="s">
         <v>48</v>
@@ -7905,7 +7971,7 @@
         <v>735000</v>
       </c>
       <c r="H45" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="I45" t="s">
         <v>48</v>
@@ -8027,10 +8093,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="C46" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="D46" t="s">
         <v>48</v>
@@ -8048,7 +8114,7 @@
         <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>48</v>
+        <v>169</v>
       </c>
       <c r="J46" t="s">
         <v>48</v>
@@ -8167,10 +8233,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="C47" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="D47" t="s">
         <v>48</v>
@@ -8185,7 +8251,7 @@
         <v>1150000</v>
       </c>
       <c r="H47" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="I47" t="s">
         <v>48</v>
@@ -8307,10 +8373,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="C48" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="D48" t="s">
         <v>48</v>
@@ -8325,7 +8391,7 @@
         <v>720000</v>
       </c>
       <c r="H48" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="I48" t="s">
         <v>48</v>
@@ -8447,25 +8513,25 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="C49" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="D49" t="s">
         <v>48</v>
       </c>
-      <c r="E49" t="s">
-        <v>48</v>
-      </c>
-      <c r="F49" t="s">
-        <v>48</v>
-      </c>
-      <c r="G49" t="s">
-        <v>48</v>
+      <c r="E49">
+        <v>8</v>
+      </c>
+      <c r="F49">
+        <v>100000</v>
+      </c>
+      <c r="G49">
+        <v>800000</v>
       </c>
       <c r="H49" t="s">
-        <v>48</v>
+        <v>178</v>
       </c>
       <c r="I49" t="s">
         <v>48</v>
@@ -8587,10 +8653,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="C50" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="D50" t="s">
         <v>48</v>
@@ -8608,7 +8674,7 @@
         <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>48</v>
+        <v>180</v>
       </c>
       <c r="J50" t="s">
         <v>48</v>
@@ -8727,10 +8793,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="C51" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="D51" t="s">
         <v>48</v>
@@ -8745,7 +8811,7 @@
         <v>912000</v>
       </c>
       <c r="H51" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="I51" t="s">
         <v>48</v>
@@ -8867,25 +8933,25 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="C52" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="D52" t="s">
         <v>48</v>
       </c>
-      <c r="E52" t="s">
-        <v>48</v>
-      </c>
-      <c r="F52" t="s">
-        <v>48</v>
-      </c>
-      <c r="G52" t="s">
-        <v>48</v>
+      <c r="E52">
+        <v>5</v>
+      </c>
+      <c r="F52">
+        <v>171000</v>
+      </c>
+      <c r="G52">
+        <v>855000</v>
       </c>
       <c r="H52" t="s">
-        <v>48</v>
+        <v>186</v>
       </c>
       <c r="I52" t="s">
         <v>48</v>
@@ -9007,10 +9073,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="C53" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="D53" t="s">
         <v>48</v>
@@ -9025,7 +9091,7 @@
         <v>710000</v>
       </c>
       <c r="H53" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="I53" t="s">
         <v>48</v>
@@ -9147,25 +9213,25 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="C54" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="D54" t="s">
         <v>48</v>
       </c>
-      <c r="E54" t="s">
-        <v>48</v>
-      </c>
-      <c r="F54" t="s">
-        <v>48</v>
-      </c>
-      <c r="G54" t="s">
-        <v>48</v>
+      <c r="E54">
+        <v>7</v>
+      </c>
+      <c r="F54">
+        <v>123000</v>
+      </c>
+      <c r="G54">
+        <v>861000</v>
       </c>
       <c r="H54" t="s">
-        <v>48</v>
+        <v>192</v>
       </c>
       <c r="I54" t="s">
         <v>48</v>
@@ -9287,10 +9353,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="C55" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="D55" t="s">
         <v>48</v>
@@ -9308,7 +9374,7 @@
         <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>48</v>
+        <v>194</v>
       </c>
       <c r="J55" t="s">
         <v>48</v>
@@ -9427,10 +9493,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="C56" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="D56" t="s">
         <v>48</v>
@@ -9445,7 +9511,7 @@
         <v>900000</v>
       </c>
       <c r="H56" t="s">
-        <v>51</v>
+        <v>197</v>
       </c>
       <c r="I56" t="s">
         <v>48</v>
@@ -9567,10 +9633,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="C57" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="D57" t="s">
         <v>48</v>
@@ -9585,7 +9651,7 @@
         <v>1025000</v>
       </c>
       <c r="H57" t="s">
-        <v>186</v>
+        <v>200</v>
       </c>
       <c r="I57" t="s">
         <v>48</v>
@@ -9707,25 +9773,25 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
       <c r="C58" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="D58" t="s">
         <v>48</v>
       </c>
-      <c r="E58" t="s">
-        <v>48</v>
-      </c>
-      <c r="F58" t="s">
-        <v>48</v>
-      </c>
-      <c r="G58" t="s">
-        <v>48</v>
+      <c r="E58">
+        <v>7</v>
+      </c>
+      <c r="F58">
+        <v>105000</v>
+      </c>
+      <c r="G58">
+        <v>735000</v>
       </c>
       <c r="H58" t="s">
-        <v>48</v>
+        <v>203</v>
       </c>
       <c r="I58" t="s">
         <v>48</v>
@@ -9847,10 +9913,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="C59" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="D59" t="s">
         <v>48</v>
@@ -9868,7 +9934,7 @@
         <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>48</v>
+        <v>205</v>
       </c>
       <c r="J59" t="s">
         <v>48</v>
@@ -9987,10 +10053,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="C60" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="D60" t="s">
         <v>48</v>
@@ -10005,7 +10071,7 @@
         <v>1470000</v>
       </c>
       <c r="H60" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="I60" t="s">
         <v>48</v>
@@ -10127,10 +10193,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="C61" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="D61" t="s">
         <v>48</v>
@@ -10145,7 +10211,7 @@
         <v>720000</v>
       </c>
       <c r="H61" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="I61" t="s">
         <v>48</v>
@@ -10267,10 +10333,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="C62" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="D62" t="s">
         <v>48</v>
@@ -10288,7 +10354,7 @@
         <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>48</v>
+        <v>213</v>
       </c>
       <c r="J62" t="s">
         <v>48</v>
@@ -10407,25 +10473,25 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="C63" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="D63" t="s">
         <v>48</v>
       </c>
-      <c r="E63" t="s">
-        <v>48</v>
-      </c>
-      <c r="F63" t="s">
-        <v>48</v>
-      </c>
-      <c r="G63" t="s">
-        <v>48</v>
+      <c r="E63">
+        <v>5</v>
+      </c>
+      <c r="F63">
+        <v>195409</v>
+      </c>
+      <c r="G63">
+        <v>977045</v>
       </c>
       <c r="H63" t="s">
-        <v>48</v>
+        <v>216</v>
       </c>
       <c r="I63" t="s">
         <v>48</v>
@@ -10547,25 +10613,25 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>201</v>
+        <v>217</v>
       </c>
       <c r="C64" t="s">
-        <v>202</v>
+        <v>218</v>
       </c>
       <c r="D64" t="s">
         <v>48</v>
       </c>
-      <c r="E64" t="s">
-        <v>48</v>
-      </c>
-      <c r="F64" t="s">
-        <v>48</v>
-      </c>
-      <c r="G64" t="s">
-        <v>48</v>
+      <c r="E64">
+        <v>5</v>
+      </c>
+      <c r="F64">
+        <v>174000</v>
+      </c>
+      <c r="G64">
+        <v>870000</v>
       </c>
       <c r="H64" t="s">
-        <v>48</v>
+        <v>219</v>
       </c>
       <c r="I64" t="s">
         <v>48</v>
@@ -10687,10 +10753,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="C65" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="D65" t="s">
         <v>48</v>
@@ -10705,7 +10771,7 @@
         <v>1274000</v>
       </c>
       <c r="H65" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="I65" t="s">
         <v>48</v>
@@ -10827,10 +10893,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="C66" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="D66" t="s">
         <v>48</v>
@@ -10845,7 +10911,7 @@
         <v>970000</v>
       </c>
       <c r="H66" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="I66" t="s">
         <v>48</v>
@@ -10967,10 +11033,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="C67" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="D67" t="s">
         <v>48</v>
@@ -10985,7 +11051,7 @@
         <v>810000</v>
       </c>
       <c r="H67" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="I67" t="s">
         <v>48</v>
@@ -11107,10 +11173,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="C68" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="D68" t="s">
         <v>48</v>
@@ -11125,7 +11191,7 @@
         <v>805000</v>
       </c>
       <c r="H68" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="I68" t="s">
         <v>48</v>
@@ -11247,10 +11313,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="C69" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="D69" t="s">
         <v>48</v>
@@ -11265,7 +11331,7 @@
         <v>695000</v>
       </c>
       <c r="H69" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="I69" t="s">
         <v>48</v>
@@ -11387,10 +11453,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="C70" t="s">
-        <v>48</v>
+        <v>236</v>
       </c>
       <c r="D70" t="s">
         <v>48</v>
@@ -11405,7 +11471,7 @@
         <v>770000</v>
       </c>
       <c r="H70" t="s">
-        <v>219</v>
+        <v>237</v>
       </c>
       <c r="I70" t="s">
         <v>48</v>
@@ -11530,7 +11596,7 @@
         <v>1305819830</v>
       </c>
       <c r="C71" t="s">
-        <v>220</v>
+        <v>238</v>
       </c>
       <c r="D71" t="s">
         <v>48</v>
@@ -11545,7 +11611,7 @@
         <v>950000</v>
       </c>
       <c r="H71" t="s">
-        <v>221</v>
+        <v>239</v>
       </c>
       <c r="I71" t="s">
         <v>48</v>
@@ -11667,26 +11733,25 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>222</v>
+        <v>240</v>
       </c>
       <c r="C72" t="s">
-        <v>223</v>
+        <v>241</v>
       </c>
       <c r="D72" t="s">
         <v>48</v>
       </c>
-      <c r="E72" t="s">
-        <v>48</v>
-      </c>
-      <c r="F72" t="s">
-        <v>48</v>
+      <c r="E72">
+        <v>5</v>
+      </c>
+      <c r="F72">
+        <v>159000</v>
       </c>
       <c r="G72">
-        <f>AVERAGE(G2:G71)</f>
-        <v>902521.447368421</v>
+        <v>795000</v>
       </c>
       <c r="H72" t="s">
-        <v>48</v>
+        <v>242</v>
       </c>
       <c r="I72" t="s">
         <v>48</v>
@@ -11800,6 +11865,287 @@
         <v>48</v>
       </c>
       <c r="AT72" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="73" spans="1:46">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73">
+        <v>3430132910</v>
+      </c>
+      <c r="C73" t="s">
+        <v>243</v>
+      </c>
+      <c r="D73" t="s">
+        <v>48</v>
+      </c>
+      <c r="E73" t="s">
+        <v>48</v>
+      </c>
+      <c r="F73" t="s">
+        <v>48</v>
+      </c>
+      <c r="G73" t="s">
+        <v>48</v>
+      </c>
+      <c r="H73" t="s">
+        <v>48</v>
+      </c>
+      <c r="I73" t="s">
+        <v>48</v>
+      </c>
+      <c r="J73" t="s">
+        <v>48</v>
+      </c>
+      <c r="K73" t="s">
+        <v>48</v>
+      </c>
+      <c r="L73" t="s">
+        <v>48</v>
+      </c>
+      <c r="M73" t="s">
+        <v>48</v>
+      </c>
+      <c r="N73" t="s">
+        <v>48</v>
+      </c>
+      <c r="O73" t="s">
+        <v>48</v>
+      </c>
+      <c r="P73" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>48</v>
+      </c>
+      <c r="R73" t="s">
+        <v>48</v>
+      </c>
+      <c r="S73" t="s">
+        <v>48</v>
+      </c>
+      <c r="T73" t="s">
+        <v>48</v>
+      </c>
+      <c r="U73" t="s">
+        <v>48</v>
+      </c>
+      <c r="V73" t="s">
+        <v>48</v>
+      </c>
+      <c r="W73" t="s">
+        <v>48</v>
+      </c>
+      <c r="X73" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z73" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA73" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB73" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC73" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD73" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE73" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF73" t="s">
+        <v>48</v>
+      </c>
+      <c r="AG73" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH73" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI73" t="s">
+        <v>48</v>
+      </c>
+      <c r="AJ73" t="s">
+        <v>48</v>
+      </c>
+      <c r="AK73" t="s">
+        <v>48</v>
+      </c>
+      <c r="AL73" t="s">
+        <v>48</v>
+      </c>
+      <c r="AM73" t="s">
+        <v>48</v>
+      </c>
+      <c r="AN73" t="s">
+        <v>48</v>
+      </c>
+      <c r="AO73" t="s">
+        <v>48</v>
+      </c>
+      <c r="AP73" t="s">
+        <v>48</v>
+      </c>
+      <c r="AQ73" t="s">
+        <v>48</v>
+      </c>
+      <c r="AR73" t="s">
+        <v>48</v>
+      </c>
+      <c r="AS73" t="s">
+        <v>48</v>
+      </c>
+      <c r="AT73" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="74" spans="1:46">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
+        <v>244</v>
+      </c>
+      <c r="C74" t="s">
+        <v>245</v>
+      </c>
+      <c r="D74" t="s">
+        <v>48</v>
+      </c>
+      <c r="E74" t="s">
+        <v>48</v>
+      </c>
+      <c r="F74" t="s">
+        <v>48</v>
+      </c>
+      <c r="G74">
+        <f>AVERAGE(G2:G73)</f>
+        <v>907033.214285714</v>
+      </c>
+      <c r="H74" t="s">
+        <v>48</v>
+      </c>
+      <c r="I74" t="s">
+        <v>48</v>
+      </c>
+      <c r="J74" t="s">
+        <v>48</v>
+      </c>
+      <c r="K74" t="s">
+        <v>48</v>
+      </c>
+      <c r="L74" t="s">
+        <v>48</v>
+      </c>
+      <c r="M74" t="s">
+        <v>48</v>
+      </c>
+      <c r="N74" t="s">
+        <v>48</v>
+      </c>
+      <c r="O74" t="s">
+        <v>48</v>
+      </c>
+      <c r="P74" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>48</v>
+      </c>
+      <c r="R74" t="s">
+        <v>48</v>
+      </c>
+      <c r="S74" t="s">
+        <v>48</v>
+      </c>
+      <c r="T74" t="s">
+        <v>48</v>
+      </c>
+      <c r="U74" t="s">
+        <v>48</v>
+      </c>
+      <c r="V74" t="s">
+        <v>48</v>
+      </c>
+      <c r="W74" t="s">
+        <v>48</v>
+      </c>
+      <c r="X74" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z74" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA74" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB74" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC74" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD74" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE74" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF74" t="s">
+        <v>48</v>
+      </c>
+      <c r="AG74" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH74" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI74" t="s">
+        <v>48</v>
+      </c>
+      <c r="AJ74" t="s">
+        <v>48</v>
+      </c>
+      <c r="AK74" t="s">
+        <v>48</v>
+      </c>
+      <c r="AL74" t="s">
+        <v>48</v>
+      </c>
+      <c r="AM74" t="s">
+        <v>48</v>
+      </c>
+      <c r="AN74" t="s">
+        <v>48</v>
+      </c>
+      <c r="AO74" t="s">
+        <v>48</v>
+      </c>
+      <c r="AP74" t="s">
+        <v>48</v>
+      </c>
+      <c r="AQ74" t="s">
+        <v>48</v>
+      </c>
+      <c r="AR74" t="s">
+        <v>48</v>
+      </c>
+      <c r="AS74" t="s">
+        <v>48</v>
+      </c>
+      <c r="AT74" t="s">
         <v>48</v>
       </c>
     </row>

--- a/落花机密表_糙汉子版.xlsx
+++ b/落花机密表_糙汉子版.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView/>
+    <workbookView windowWidth="28245" windowHeight="12615"/>
   </bookViews>
   <sheets>
     <sheet name="9.9-9.15" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3158" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2873" uniqueCount="298">
   <si>
     <t>QQ</t>
   </si>
@@ -164,19 +164,19 @@
     <t/>
   </si>
   <si>
+    <t>2019-09-10 18:11:23</t>
+  </si>
+  <si>
     <t>happy.my.love@qq.com</t>
   </si>
   <si>
-    <t>落花@冷月小猫泪</t>
-  </si>
-  <si>
-    <t>2019-09-09 21:11:38</t>
-  </si>
-  <si>
-    <t>78191877</t>
-  </si>
-  <si>
-    <t>落花 星光化作翅膀</t>
+    <t>落花@冷月小猫泪【商店非凡分解没有结晶</t>
+  </si>
+  <si>
+    <t>2019-09-10 20:45:02</t>
+  </si>
+  <si>
+    <t>2019-09-10 17:10:49</t>
   </si>
   <si>
     <t>30137763</t>
@@ -194,12 +194,24 @@
     <t>落花 清水奈绪子（错过派对，错过一亿）</t>
   </si>
   <si>
+    <t>2019-09-10 20:40:11</t>
+  </si>
+  <si>
     <t>39302003</t>
   </si>
   <si>
     <t>落花 神仙</t>
   </si>
   <si>
+    <t>2605384970</t>
+  </si>
+  <si>
+    <t>落花い清茶（非洲酋长）</t>
+  </si>
+  <si>
+    <t>2019-09-09 08:26:06</t>
+  </si>
+  <si>
     <t>781898849</t>
   </si>
   <si>
@@ -218,6 +230,75 @@
     <t>2019-09-09 10:03:47</t>
   </si>
   <si>
+    <t>2019-09-10 20:02:57</t>
+  </si>
+  <si>
+    <t>924110951</t>
+  </si>
+  <si>
+    <t>落花@楚锦妮</t>
+  </si>
+  <si>
+    <t>1584039297</t>
+  </si>
+  <si>
+    <t>落花-第四片柠檬</t>
+  </si>
+  <si>
+    <t>2019-09-09 20:10:51</t>
+  </si>
+  <si>
+    <t>2019-09-10 20:06:26</t>
+  </si>
+  <si>
+    <t>1305819830</t>
+  </si>
+  <si>
+    <t>落花~芝士年糕</t>
+  </si>
+  <si>
+    <t>2019-09-09 10:23:05</t>
+  </si>
+  <si>
+    <t>2019-09-10 16:53:43</t>
+  </si>
+  <si>
+    <t>1012527207</t>
+  </si>
+  <si>
+    <t>落花 阿呜</t>
+  </si>
+  <si>
+    <t>2019-09-09 15:04:53</t>
+  </si>
+  <si>
+    <t>2019-09-10 17:32:46</t>
+  </si>
+  <si>
+    <t>9854540</t>
+  </si>
+  <si>
+    <t>落花-淼姬</t>
+  </si>
+  <si>
+    <t>2019-09-10 15:26:02</t>
+  </si>
+  <si>
+    <t>1327856459</t>
+  </si>
+  <si>
+    <t>落花  花落不沾衣</t>
+  </si>
+  <si>
+    <t>2019-09-10 17:58:39</t>
+  </si>
+  <si>
+    <t>28854836</t>
+  </si>
+  <si>
+    <t>落花-伊莎贝拉</t>
+  </si>
+  <si>
     <t>cydjl@qq.com</t>
   </si>
   <si>
@@ -227,6 +308,9 @@
     <t>2019-09-09 19:20:47</t>
   </si>
   <si>
+    <t>2019-09-10 17:35:23</t>
+  </si>
+  <si>
     <t>992526373</t>
   </si>
   <si>
@@ -236,6 +320,9 @@
     <t>2019-09-09 12:53:10</t>
   </si>
   <si>
+    <t>2019-09-10 20:20:45</t>
+  </si>
+  <si>
     <t>974687361</t>
   </si>
   <si>
@@ -245,12 +332,6 @@
     <t>2019-09-09 13:53:54</t>
   </si>
   <si>
-    <t>924110951</t>
-  </si>
-  <si>
-    <t>落花@楚锦妮</t>
-  </si>
-  <si>
     <t>923418164</t>
   </si>
   <si>
@@ -260,12 +341,21 @@
     <t>2019-09-09 13:34:11</t>
   </si>
   <si>
+    <t>2019-09-10 17:47:31</t>
+  </si>
+  <si>
     <t>845423216</t>
   </si>
   <si>
     <t>落花 ¿ Clear1（给我也整一个）</t>
   </si>
   <si>
+    <t>2019-09-09 05:51:01</t>
+  </si>
+  <si>
+    <t>2019-09-10 17:22:35</t>
+  </si>
+  <si>
     <t>821515617</t>
   </si>
   <si>
@@ -284,15 +374,21 @@
     <t>2019-09-09 13:22:55</t>
   </si>
   <si>
+    <t>2019-09-10 16:48:17</t>
+  </si>
+  <si>
     <t>784945709</t>
   </si>
   <si>
+    <t>落花.花祭夜.今天机密68w分哦</t>
+  </si>
+  <si>
+    <t>2019-09-09 09:57:45</t>
+  </si>
+  <si>
     <t>落花.花祭夜.今天机密85w分哦</t>
   </si>
   <si>
-    <t>2019-09-09 20:10:27</t>
-  </si>
-  <si>
     <t>779867533</t>
   </si>
   <si>
@@ -302,6 +398,9 @@
     <t>2019-09-09 14:56:51</t>
   </si>
   <si>
+    <t>2019-09-10 16:40:00</t>
+  </si>
+  <si>
     <t>769521738</t>
   </si>
   <si>
@@ -311,6 +410,9 @@
     <t>2019-09-09 08:50:18</t>
   </si>
   <si>
+    <t>2019-09-10 19:20:34</t>
+  </si>
+  <si>
     <t>745415648</t>
   </si>
   <si>
@@ -320,6 +422,9 @@
     <t>2019-09-09 13:29:36</t>
   </si>
   <si>
+    <t>2019-09-10 20:26:10</t>
+  </si>
+  <si>
     <t>727791466</t>
   </si>
   <si>
@@ -329,10 +434,7 @@
     <t>2019-09-09 19:23:44</t>
   </si>
   <si>
-    <t>724187504</t>
-  </si>
-  <si>
-    <t>落花⭐Rai</t>
+    <t>2019-09-10 17:06:14</t>
   </si>
   <si>
     <t>710237833</t>
@@ -344,6 +446,9 @@
     <t>2019-09-09 06:37:40</t>
   </si>
   <si>
+    <t>2019-09-10 19:41:52</t>
+  </si>
+  <si>
     <t>651570472</t>
   </si>
   <si>
@@ -353,6 +458,9 @@
     <t>2019-09-09 13:29:08</t>
   </si>
   <si>
+    <t>2019-09-10 17:54:52</t>
+  </si>
+  <si>
     <t>648875355</t>
   </si>
   <si>
@@ -362,6 +470,9 @@
     <t>2019-09-09 13:31:35</t>
   </si>
   <si>
+    <t>2019-09-10 18:43:33</t>
+  </si>
+  <si>
     <t>535509797</t>
   </si>
   <si>
@@ -371,6 +482,9 @@
     <t>2019-09-09 19:21:23</t>
   </si>
   <si>
+    <t>2019-09-10 19:31:37</t>
+  </si>
+  <si>
     <t>505644622</t>
   </si>
   <si>
@@ -389,6 +503,9 @@
     <t>2019-09-09 13:26:12</t>
   </si>
   <si>
+    <t>2019-09-10 17:42:13</t>
+  </si>
+  <si>
     <t>3504245791</t>
   </si>
   <si>
@@ -404,6 +521,9 @@
     <t>2019-09-09 06:26:42</t>
   </si>
   <si>
+    <t>2019-09-10 19:59:48</t>
+  </si>
+  <si>
     <t>3476601463</t>
   </si>
   <si>
@@ -413,10 +533,7 @@
     <t>2019-09-09 20:19:37</t>
   </si>
   <si>
-    <t>3240236818</t>
-  </si>
-  <si>
-    <t>落花 秦意</t>
+    <t>2019-09-10 19:58:05</t>
   </si>
   <si>
     <t>2971057903</t>
@@ -428,6 +545,9 @@
     <t>2019-09-09 08:31:00</t>
   </si>
   <si>
+    <t>2019-09-10 17:43:28</t>
+  </si>
+  <si>
     <t>2638588219</t>
   </si>
   <si>
@@ -437,13 +557,19 @@
     <t>2019-09-09 16:20:58</t>
   </si>
   <si>
+    <t>2019-09-10 16:39:10</t>
+  </si>
+  <si>
     <t>2473375876</t>
   </si>
   <si>
     <t>落花 林咕啾（星期六jjc结算记得留次数</t>
   </si>
   <si>
-    <t>2019-09-09 20:18:37</t>
+    <t>2019-09-09 13:19:07</t>
+  </si>
+  <si>
+    <t>2019-09-10 19:24:10</t>
   </si>
   <si>
     <t>2406417774</t>
@@ -470,6 +596,9 @@
     <t>2019-09-09 12:27:22</t>
   </si>
   <si>
+    <t>2019-09-10 19:34:38</t>
+  </si>
+  <si>
     <t>1841469477</t>
   </si>
   <si>
@@ -494,13 +623,19 @@
     <t>2019-09-09 19:20:06</t>
   </si>
   <si>
+    <t>2019-09-10 16:33:34</t>
+  </si>
+  <si>
     <t>1664171803</t>
   </si>
   <si>
     <t>落花ෆ总攻大人</t>
   </si>
   <si>
-    <t>2019-09-09 20:45:00</t>
+    <t>2019-09-09 09:51:33</t>
+  </si>
+  <si>
+    <t>2019-09-10 17:44:43</t>
   </si>
   <si>
     <t>16500928</t>
@@ -512,6 +647,9 @@
     <t>2019-09-09 09:09:39</t>
   </si>
   <si>
+    <t>2019-09-10 19:16:23</t>
+  </si>
+  <si>
     <t>15451377</t>
   </si>
   <si>
@@ -521,6 +659,9 @@
     <t>2019-09-09 13:44:52</t>
   </si>
   <si>
+    <t>2019-09-10 17:30:22</t>
+  </si>
+  <si>
     <t>1543607287</t>
   </si>
   <si>
@@ -536,6 +677,9 @@
     <t>2019-09-09 06:58:45</t>
   </si>
   <si>
+    <t>2019-09-10 19:17:15</t>
+  </si>
+  <si>
     <t>1369593175</t>
   </si>
   <si>
@@ -545,6 +689,9 @@
     <t>2019-09-09 10:04:06</t>
   </si>
   <si>
+    <t>2019-09-10 16:39:30</t>
+  </si>
+  <si>
     <t>1369562367</t>
   </si>
   <si>
@@ -554,12 +701,21 @@
     <t>2019-09-09 20:37:20</t>
   </si>
   <si>
+    <t>2019-09-10 19:19:19</t>
+  </si>
+  <si>
     <t>1239530393</t>
   </si>
   <si>
+    <t>落花" 苏久久【樱茶的腿部挂件一号】</t>
+  </si>
+  <si>
     <t>落花" 苏久久</t>
   </si>
   <si>
+    <t>2019-09-10 18:38:30</t>
+  </si>
+  <si>
     <t>july401@qq.com</t>
   </si>
   <si>
@@ -569,6 +725,12 @@
     <t>2019-09-09 13:38:39</t>
   </si>
   <si>
+    <t>2019-09-10 16:56:43</t>
+  </si>
+  <si>
+    <t>@落花 蓝二 这次也像海滩一样，衣服对迷宫闯关有加成是么</t>
+  </si>
+  <si>
     <t>121398489</t>
   </si>
   <si>
@@ -578,175 +740,169 @@
     <t>2019-09-09 20:24:05</t>
   </si>
   <si>
+    <t>2019-09-10 19:16:47</t>
+  </si>
+  <si>
+    <t>1130056290</t>
+  </si>
+  <si>
+    <t>落花～辉光叶</t>
+  </si>
+  <si>
+    <t>2019-09-09 20:20:00</t>
+  </si>
+  <si>
+    <t>2019-09-10 19:19:54</t>
+  </si>
+  <si>
+    <t>1055498540</t>
+  </si>
+  <si>
+    <t>落花-凛喵</t>
+  </si>
+  <si>
+    <t>2019-09-09 13:51:41</t>
+  </si>
+  <si>
+    <t>1041544486</t>
+  </si>
+  <si>
+    <t>落花 青青子衿</t>
+  </si>
+  <si>
+    <t>2019-09-09 13:21:22</t>
+  </si>
+  <si>
+    <t>2019-09-10 20:33:01</t>
+  </si>
+  <si>
+    <t>1040250547</t>
+  </si>
+  <si>
+    <t>落花ʚ阿喵王子他父王ɞ</t>
+  </si>
+  <si>
+    <t>2019-09-09 14:00:19</t>
+  </si>
+  <si>
+    <t>2019-09-10 19:56:57</t>
+  </si>
+  <si>
+    <t>1025385659</t>
+  </si>
+  <si>
+    <t>落花 柚歆</t>
+  </si>
+  <si>
+    <t>17535862313</t>
+  </si>
+  <si>
+    <t>落花এ风采铃</t>
+  </si>
+  <si>
+    <t>2019-09-09 13:21:40</t>
+  </si>
+  <si>
+    <t>2019-09-10 18:55:29</t>
+  </si>
+  <si>
+    <t>2126851254</t>
+  </si>
+  <si>
+    <t>落花  啾啾哧哧</t>
+  </si>
+  <si>
+    <t>2019-09-10 17:49:27</t>
+  </si>
+  <si>
+    <t>641204920</t>
+  </si>
+  <si>
+    <t>落花.燃犀犀</t>
+  </si>
+  <si>
+    <t>2019-09-09 17:03:22</t>
+  </si>
+  <si>
+    <t>2019-09-10 19:06:06</t>
+  </si>
+  <si>
+    <t>108932610</t>
+  </si>
+  <si>
+    <t>落花～羽汐</t>
+  </si>
+  <si>
+    <t>2019-09-09 14:45:14</t>
+  </si>
+  <si>
+    <t>2019-09-10 19:18:59</t>
+  </si>
+  <si>
+    <t>965462652</t>
+  </si>
+  <si>
+    <t>落花*终年欧巴（括号里写点啥）</t>
+  </si>
+  <si>
+    <t>2019-09-09 14:16:23</t>
+  </si>
+  <si>
+    <t>2019-09-10 18:35:43</t>
+  </si>
+  <si>
+    <t>2953487480</t>
+  </si>
+  <si>
+    <t>落花 蓝二</t>
+  </si>
+  <si>
+    <t>2019-09-09 13:46:34</t>
+  </si>
+  <si>
+    <t>2019-09-10 17:54:09</t>
+  </si>
+  <si>
+    <t>1003242662</t>
+  </si>
+  <si>
+    <t>落花︴帽儿</t>
+  </si>
+  <si>
+    <t>2019-09-09 12:20:54</t>
+  </si>
+  <si>
+    <t>2019-09-10 17:05:39</t>
+  </si>
+  <si>
+    <t>957600168</t>
+  </si>
+  <si>
+    <t>落花   莫名</t>
+  </si>
+  <si>
+    <t>2019-09-09 12:40:11</t>
+  </si>
+  <si>
+    <t>2019-09-10 17:19:23</t>
+  </si>
+  <si>
+    <t>3191053965</t>
+  </si>
+  <si>
+    <t>落花—星煌</t>
+  </si>
+  <si>
+    <t>2019-09-09 13:47:33</t>
+  </si>
+  <si>
+    <t>2019-09-10 19:24:06</t>
+  </si>
+  <si>
     <t>1441657502</t>
   </si>
   <si>
-    <t>落月 樱井</t>
-  </si>
-  <si>
-    <t>2019-09-09 08:30:23</t>
-  </si>
-  <si>
-    <t>1130056290</t>
-  </si>
-  <si>
-    <t>落花～辉光叶</t>
-  </si>
-  <si>
-    <t>2019-09-09 20:20:00</t>
-  </si>
-  <si>
-    <t>1056711058</t>
-  </si>
-  <si>
-    <t>落花：翎羽</t>
-  </si>
-  <si>
-    <t>1055498540</t>
-  </si>
-  <si>
-    <t>落花-凛喵</t>
-  </si>
-  <si>
-    <t>2019-09-09 13:51:41</t>
-  </si>
-  <si>
-    <t>1041544486</t>
-  </si>
-  <si>
-    <t>落花 青青子衿</t>
-  </si>
-  <si>
-    <t>2019-09-09 13:21:22</t>
-  </si>
-  <si>
-    <t>1040250547</t>
-  </si>
-  <si>
-    <t>落花ʚ阿喵王子他父王ɞ</t>
-  </si>
-  <si>
-    <t>2019-09-09 14:00:19</t>
-  </si>
-  <si>
-    <t>1025385659</t>
-  </si>
-  <si>
-    <t>落花 柚歆</t>
-  </si>
-  <si>
-    <t>2605384970</t>
-  </si>
-  <si>
-    <t>落花い清茶（非洲酋长）</t>
-  </si>
-  <si>
-    <t>2019-09-09 08:26:06</t>
-  </si>
-  <si>
-    <t>17535862313</t>
-  </si>
-  <si>
-    <t>落花এ风采铃</t>
-  </si>
-  <si>
-    <t>2019-09-09 13:21:40</t>
-  </si>
-  <si>
-    <t>2126851254</t>
-  </si>
-  <si>
-    <t>落花  啾啾哧哧</t>
-  </si>
-  <si>
-    <t>641204920</t>
-  </si>
-  <si>
-    <t>落花.燃犀犀</t>
-  </si>
-  <si>
-    <t>2019-09-09 17:03:22</t>
-  </si>
-  <si>
-    <t>108932610</t>
-  </si>
-  <si>
-    <t>落花～羽汐</t>
-  </si>
-  <si>
-    <t>2019-09-09 14:45:14</t>
-  </si>
-  <si>
-    <t>965462652</t>
-  </si>
-  <si>
-    <t>落花*终年欧巴（括号里写点啥）</t>
-  </si>
-  <si>
-    <t>2019-09-09 20:16:37</t>
-  </si>
-  <si>
-    <t>2953487480</t>
-  </si>
-  <si>
-    <t>落花 蓝二</t>
-  </si>
-  <si>
-    <t>2019-09-09 13:46:34</t>
-  </si>
-  <si>
-    <t>1003242662</t>
-  </si>
-  <si>
-    <t>落花︴帽儿</t>
-  </si>
-  <si>
-    <t>2019-09-09 12:20:54</t>
-  </si>
-  <si>
-    <t>957600168</t>
-  </si>
-  <si>
-    <t>落花   莫名</t>
-  </si>
-  <si>
-    <t>2019-09-09 12:40:11</t>
-  </si>
-  <si>
-    <t>3191053965</t>
-  </si>
-  <si>
-    <t>落花—星煌</t>
-  </si>
-  <si>
-    <t>2019-09-09 13:47:33</t>
-  </si>
-  <si>
-    <t>1584039297</t>
-  </si>
-  <si>
-    <t>落花-第四片柠檬</t>
-  </si>
-  <si>
-    <t>2019-09-09 20:10:51</t>
-  </si>
-  <si>
-    <t>落花~芝士年糕</t>
-  </si>
-  <si>
-    <t>2019-09-09 10:23:05</t>
-  </si>
-  <si>
-    <t>1012527207</t>
-  </si>
-  <si>
-    <t>落花 阿呜</t>
-  </si>
-  <si>
-    <t>2019-09-09 15:04:53</t>
-  </si>
-  <si>
-    <t>落花 桃花不沾衣</t>
+    <t>落花 樱井</t>
   </si>
   <si>
     <t>-1</t>
@@ -761,12 +917,12 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -782,8 +938,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -796,11 +953,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -811,8 +974,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -834,21 +1029,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -857,16 +1037,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -879,34 +1052,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -925,9 +1075,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -942,7 +1091,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -954,25 +1115,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -984,43 +1127,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1038,7 +1151,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1050,19 +1193,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1074,55 +1259,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1151,15 +1300,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1171,21 +1311,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1204,8 +1329,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1234,6 +1359,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1251,46 +1400,52 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1299,100 +1454,94 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1748,10 +1897,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AT74"/>
+  <dimension ref="A1:AT72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="E22" workbookViewId="0">
+      <selection activeCell="M45" sqref="M45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1765,10 +1914,11 @@
     <col min="8" max="8" width="21.5" customWidth="1"/>
     <col min="9" max="9" width="17.5" customWidth="1"/>
     <col min="10" max="10" width="11.875" customWidth="1"/>
-    <col min="11" max="13" width="7.625" customWidth="1"/>
-    <col min="14" max="14" width="11.875" customWidth="1"/>
-    <col min="15" max="15" width="7.625" customWidth="1"/>
-    <col min="16" max="16" width="11.875" customWidth="1"/>
+    <col min="11" max="12" width="7.625" customWidth="1"/>
+    <col min="13" max="13" width="8.375" customWidth="1"/>
+    <col min="14" max="14" width="21.5" customWidth="1"/>
+    <col min="15" max="15" width="39" customWidth="1"/>
+    <col min="16" max="16" width="55.875" customWidth="1"/>
     <col min="17" max="19" width="7.625" customWidth="1"/>
     <col min="20" max="20" width="11.875" customWidth="1"/>
     <col min="21" max="21" width="7.625" customWidth="1"/>
@@ -1959,17 +2109,17 @@
       <c r="J2" t="s">
         <v>48</v>
       </c>
-      <c r="K2" t="s">
-        <v>48</v>
-      </c>
-      <c r="L2" t="s">
-        <v>48</v>
-      </c>
-      <c r="M2" t="s">
-        <v>48</v>
+      <c r="K2">
+        <v>7</v>
+      </c>
+      <c r="L2">
+        <v>122000</v>
+      </c>
+      <c r="M2">
+        <v>854000</v>
       </c>
       <c r="N2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O2" t="s">
         <v>48</v>
@@ -2073,13 +2223,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E3" t="s">
         <v>48</v>
@@ -2099,24 +2249,20 @@
       <c r="J3" t="s">
         <v>48</v>
       </c>
-      <c r="K3" t="s">
-        <v>48</v>
-      </c>
-      <c r="L3" t="s">
-        <v>48</v>
-      </c>
-      <c r="M3" t="s">
-        <v>48</v>
+      <c r="K3">
+        <v>5</v>
+      </c>
+      <c r="L3">
+        <v>230000</v>
+      </c>
+      <c r="M3">
+        <v>1150000</v>
       </c>
       <c r="N3" t="s">
-        <v>48</v>
-      </c>
-      <c r="O3" t="s">
-        <v>48</v>
-      </c>
-      <c r="P3" t="s">
-        <v>48</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="O3"/>
+      <c r="P3"/>
       <c r="Q3" t="s">
         <v>48</v>
       </c>
@@ -2213,25 +2359,25 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D4" t="s">
         <v>48</v>
       </c>
-      <c r="E4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F4" t="s">
-        <v>48</v>
-      </c>
-      <c r="G4" t="s">
-        <v>48</v>
+      <c r="E4">
+        <v>7</v>
+      </c>
+      <c r="F4">
+        <v>330000</v>
+      </c>
+      <c r="G4">
+        <v>2310000</v>
       </c>
       <c r="H4" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="I4" t="s">
         <v>48</v>
@@ -2251,12 +2397,8 @@
       <c r="N4" t="s">
         <v>48</v>
       </c>
-      <c r="O4" t="s">
-        <v>48</v>
-      </c>
-      <c r="P4" t="s">
-        <v>48</v>
-      </c>
+      <c r="O4"/>
+      <c r="P4"/>
       <c r="Q4" t="s">
         <v>48</v>
       </c>
@@ -2353,25 +2495,25 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D5" t="s">
         <v>48</v>
       </c>
-      <c r="E5">
-        <v>7</v>
-      </c>
-      <c r="F5">
-        <v>330000</v>
-      </c>
-      <c r="G5">
-        <v>2310000</v>
+      <c r="E5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" t="s">
+        <v>48</v>
       </c>
       <c r="H5" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
         <v>48</v>
@@ -2379,24 +2521,20 @@
       <c r="J5" t="s">
         <v>48</v>
       </c>
-      <c r="K5" t="s">
-        <v>48</v>
-      </c>
-      <c r="L5" t="s">
-        <v>48</v>
-      </c>
-      <c r="M5" t="s">
-        <v>48</v>
+      <c r="K5">
+        <v>6</v>
+      </c>
+      <c r="L5">
+        <v>159000</v>
+      </c>
+      <c r="M5">
+        <v>954000</v>
       </c>
       <c r="N5" t="s">
-        <v>48</v>
-      </c>
-      <c r="O5" t="s">
-        <v>48</v>
-      </c>
-      <c r="P5" t="s">
-        <v>48</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="O5"/>
+      <c r="P5"/>
       <c r="Q5" t="s">
         <v>48</v>
       </c>
@@ -2493,10 +2631,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D6" t="s">
         <v>48</v>
@@ -2531,12 +2669,8 @@
       <c r="N6" t="s">
         <v>48</v>
       </c>
-      <c r="O6" t="s">
-        <v>48</v>
-      </c>
-      <c r="P6" t="s">
-        <v>48</v>
-      </c>
+      <c r="O6"/>
+      <c r="P6"/>
       <c r="Q6" t="s">
         <v>48</v>
       </c>
@@ -2633,25 +2767,25 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D7" t="s">
         <v>48</v>
       </c>
-      <c r="E7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G7" t="s">
-        <v>48</v>
+      <c r="E7">
+        <v>7</v>
+      </c>
+      <c r="F7">
+        <v>210000</v>
+      </c>
+      <c r="G7">
+        <v>1470000</v>
       </c>
       <c r="H7" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="I7" t="s">
         <v>48</v>
@@ -2671,12 +2805,8 @@
       <c r="N7" t="s">
         <v>48</v>
       </c>
-      <c r="O7" t="s">
-        <v>48</v>
-      </c>
-      <c r="P7" t="s">
-        <v>48</v>
-      </c>
+      <c r="O7"/>
+      <c r="P7"/>
       <c r="Q7" t="s">
         <v>48</v>
       </c>
@@ -2773,10 +2903,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C8" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D8" t="s">
         <v>48</v>
@@ -2791,7 +2921,7 @@
         <v>1280000</v>
       </c>
       <c r="H8" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="I8" t="s">
         <v>48</v>
@@ -2811,12 +2941,8 @@
       <c r="N8" t="s">
         <v>48</v>
       </c>
-      <c r="O8" t="s">
-        <v>48</v>
-      </c>
-      <c r="P8" t="s">
-        <v>48</v>
-      </c>
+      <c r="O8"/>
+      <c r="P8"/>
       <c r="Q8" t="s">
         <v>48</v>
       </c>
@@ -2913,10 +3039,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C9" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D9" t="s">
         <v>48</v>
@@ -2931,7 +3057,7 @@
         <v>806445</v>
       </c>
       <c r="H9" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="I9" t="s">
         <v>48</v>
@@ -2939,24 +3065,20 @@
       <c r="J9" t="s">
         <v>48</v>
       </c>
-      <c r="K9" t="s">
-        <v>48</v>
-      </c>
-      <c r="L9" t="s">
-        <v>48</v>
-      </c>
-      <c r="M9" t="s">
-        <v>48</v>
+      <c r="K9">
+        <v>7</v>
+      </c>
+      <c r="L9">
+        <v>131562</v>
+      </c>
+      <c r="M9">
+        <v>920934</v>
       </c>
       <c r="N9" t="s">
-        <v>48</v>
-      </c>
-      <c r="O9" t="s">
-        <v>48</v>
-      </c>
-      <c r="P9" t="s">
-        <v>48</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="O9"/>
+      <c r="P9"/>
       <c r="Q9" t="s">
         <v>48</v>
       </c>
@@ -3053,28 +3175,28 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C10" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D10" t="s">
         <v>48</v>
       </c>
-      <c r="E10">
-        <v>6</v>
-      </c>
-      <c r="F10">
-        <v>132000</v>
-      </c>
-      <c r="G10">
-        <v>792000</v>
+      <c r="E10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" t="s">
+        <v>48</v>
       </c>
       <c r="H10" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="J10" t="s">
         <v>48</v>
@@ -3091,12 +3213,8 @@
       <c r="N10" t="s">
         <v>48</v>
       </c>
-      <c r="O10" t="s">
-        <v>48</v>
-      </c>
-      <c r="P10" t="s">
-        <v>48</v>
-      </c>
+      <c r="O10"/>
+      <c r="P10"/>
       <c r="Q10" t="s">
         <v>48</v>
       </c>
@@ -3193,25 +3311,25 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C11" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D11" t="s">
         <v>48</v>
       </c>
       <c r="E11">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F11">
-        <v>150000</v>
+        <v>110000</v>
       </c>
       <c r="G11">
-        <v>750000</v>
+        <v>770000</v>
       </c>
       <c r="H11" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="I11" t="s">
         <v>48</v>
@@ -3219,24 +3337,22 @@
       <c r="J11" t="s">
         <v>48</v>
       </c>
-      <c r="K11" t="s">
-        <v>48</v>
-      </c>
-      <c r="L11" t="s">
-        <v>48</v>
-      </c>
-      <c r="M11" t="s">
-        <v>48</v>
+      <c r="K11">
+        <v>7</v>
+      </c>
+      <c r="L11">
+        <v>137000</v>
+      </c>
+      <c r="M11">
+        <v>959000</v>
       </c>
       <c r="N11" t="s">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="O11" t="s">
         <v>48</v>
       </c>
-      <c r="P11" t="s">
-        <v>48</v>
-      </c>
+      <c r="P11"/>
       <c r="Q11" t="s">
         <v>48</v>
       </c>
@@ -3333,25 +3449,25 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C12" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D12" t="s">
         <v>48</v>
       </c>
       <c r="E12">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F12">
-        <v>138000</v>
+        <v>190000</v>
       </c>
       <c r="G12">
-        <v>966000</v>
+        <v>950000</v>
       </c>
       <c r="H12" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="I12" t="s">
         <v>48</v>
@@ -3359,24 +3475,22 @@
       <c r="J12" t="s">
         <v>48</v>
       </c>
-      <c r="K12" t="s">
-        <v>48</v>
-      </c>
-      <c r="L12" t="s">
-        <v>48</v>
-      </c>
-      <c r="M12" t="s">
-        <v>48</v>
+      <c r="K12">
+        <v>5</v>
+      </c>
+      <c r="L12">
+        <v>180000</v>
+      </c>
+      <c r="M12">
+        <v>900000</v>
       </c>
       <c r="N12" t="s">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="O12" t="s">
         <v>48</v>
       </c>
-      <c r="P12" t="s">
-        <v>48</v>
-      </c>
+      <c r="P12"/>
       <c r="Q12" t="s">
         <v>48</v>
       </c>
@@ -3473,50 +3587,48 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C13" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D13" t="s">
         <v>48</v>
       </c>
-      <c r="E13" t="s">
-        <v>48</v>
-      </c>
-      <c r="F13" t="s">
-        <v>48</v>
-      </c>
-      <c r="G13" t="s">
-        <v>48</v>
+      <c r="E13">
+        <v>5</v>
+      </c>
+      <c r="F13">
+        <v>159000</v>
+      </c>
+      <c r="G13">
+        <v>795000</v>
       </c>
       <c r="H13" t="s">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="I13" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="J13" t="s">
         <v>48</v>
       </c>
-      <c r="K13" t="s">
-        <v>48</v>
-      </c>
-      <c r="L13" t="s">
-        <v>48</v>
-      </c>
-      <c r="M13" t="s">
-        <v>48</v>
+      <c r="K13">
+        <v>7</v>
+      </c>
+      <c r="L13">
+        <v>144000</v>
+      </c>
+      <c r="M13">
+        <v>1008000</v>
       </c>
       <c r="N13" t="s">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="O13" t="s">
         <v>48</v>
       </c>
-      <c r="P13" t="s">
-        <v>48</v>
-      </c>
+      <c r="P13"/>
       <c r="Q13" t="s">
         <v>48</v>
       </c>
@@ -3613,25 +3725,25 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="C14" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="D14" t="s">
         <v>48</v>
       </c>
-      <c r="E14">
-        <v>6</v>
-      </c>
-      <c r="F14">
-        <v>153000</v>
-      </c>
-      <c r="G14">
-        <v>918000</v>
+      <c r="E14" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" t="s">
+        <v>48</v>
+      </c>
+      <c r="G14" t="s">
+        <v>48</v>
       </c>
       <c r="H14" t="s">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
         <v>48</v>
@@ -3649,14 +3761,10 @@
         <v>48</v>
       </c>
       <c r="N14" t="s">
-        <v>48</v>
-      </c>
-      <c r="O14" t="s">
-        <v>48</v>
-      </c>
-      <c r="P14" t="s">
-        <v>48</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="O14"/>
+      <c r="P14"/>
       <c r="Q14" t="s">
         <v>48</v>
       </c>
@@ -3753,25 +3861,25 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="C15" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="D15" t="s">
         <v>48</v>
       </c>
-      <c r="E15">
-        <v>5</v>
-      </c>
-      <c r="F15">
-        <v>150000</v>
-      </c>
-      <c r="G15">
-        <v>750000</v>
+      <c r="E15" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" t="s">
+        <v>48</v>
+      </c>
+      <c r="G15" t="s">
+        <v>48</v>
       </c>
       <c r="H15" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
         <v>48</v>
@@ -3779,24 +3887,21 @@
       <c r="J15" t="s">
         <v>48</v>
       </c>
-      <c r="K15" t="s">
-        <v>48</v>
-      </c>
-      <c r="L15" t="s">
-        <v>48</v>
-      </c>
-      <c r="M15" t="s">
-        <v>48</v>
+      <c r="K15">
+        <v>6</v>
+      </c>
+      <c r="L15">
+        <v>152000</v>
+      </c>
+      <c r="M15">
+        <f>L15*K15</f>
+        <v>912000</v>
       </c>
       <c r="N15" t="s">
-        <v>48</v>
-      </c>
-      <c r="O15" t="s">
-        <v>48</v>
-      </c>
-      <c r="P15" t="s">
-        <v>48</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="O15"/>
+      <c r="P15"/>
       <c r="Q15" t="s">
         <v>48</v>
       </c>
@@ -3893,25 +3998,25 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="C16" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="D16" t="s">
         <v>48</v>
       </c>
-      <c r="E16">
-        <v>7</v>
-      </c>
-      <c r="F16">
-        <v>139000</v>
-      </c>
-      <c r="G16">
-        <v>973000</v>
+      <c r="E16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F16" t="s">
+        <v>48</v>
+      </c>
+      <c r="G16" t="s">
+        <v>48</v>
       </c>
       <c r="H16" t="s">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
         <v>48</v>
@@ -3932,11 +4037,9 @@
         <v>48</v>
       </c>
       <c r="O16" t="s">
-        <v>48</v>
-      </c>
-      <c r="P16" t="s">
-        <v>48</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="P16"/>
       <c r="Q16" t="s">
         <v>48</v>
       </c>
@@ -4033,25 +4136,25 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="C17" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="D17" t="s">
         <v>48</v>
       </c>
       <c r="E17">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F17">
-        <v>217000</v>
+        <v>132000</v>
       </c>
       <c r="G17">
-        <v>1085000</v>
+        <v>792000</v>
       </c>
       <c r="H17" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="I17" t="s">
         <v>48</v>
@@ -4059,24 +4162,22 @@
       <c r="J17" t="s">
         <v>48</v>
       </c>
-      <c r="K17" t="s">
-        <v>48</v>
-      </c>
-      <c r="L17" t="s">
-        <v>48</v>
-      </c>
-      <c r="M17" t="s">
-        <v>48</v>
+      <c r="K17">
+        <v>8</v>
+      </c>
+      <c r="L17">
+        <v>133000</v>
+      </c>
+      <c r="M17">
+        <v>1064000</v>
       </c>
       <c r="N17" t="s">
-        <v>48</v>
+        <v>97</v>
       </c>
       <c r="O17" t="s">
         <v>48</v>
       </c>
-      <c r="P17" t="s">
-        <v>48</v>
-      </c>
+      <c r="P17"/>
       <c r="Q17" t="s">
         <v>48</v>
       </c>
@@ -4173,50 +4274,46 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="C18" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="D18" t="s">
         <v>48</v>
       </c>
       <c r="E18">
+        <v>5</v>
+      </c>
+      <c r="F18">
+        <v>150000</v>
+      </c>
+      <c r="G18">
+        <v>750000</v>
+      </c>
+      <c r="H18" t="s">
+        <v>100</v>
+      </c>
+      <c r="I18" t="s">
+        <v>48</v>
+      </c>
+      <c r="J18" t="s">
+        <v>48</v>
+      </c>
+      <c r="K18">
         <v>7</v>
       </c>
-      <c r="F18">
-        <v>165000</v>
-      </c>
-      <c r="G18">
-        <v>1155000</v>
-      </c>
-      <c r="H18" t="s">
-        <v>91</v>
-      </c>
-      <c r="I18" t="s">
-        <v>48</v>
-      </c>
-      <c r="J18" t="s">
-        <v>48</v>
-      </c>
-      <c r="K18" t="s">
-        <v>48</v>
-      </c>
-      <c r="L18" t="s">
-        <v>48</v>
-      </c>
-      <c r="M18" t="s">
-        <v>48</v>
+      <c r="L18">
+        <v>135000</v>
+      </c>
+      <c r="M18">
+        <v>945000</v>
       </c>
       <c r="N18" t="s">
-        <v>48</v>
-      </c>
-      <c r="O18" t="s">
-        <v>48</v>
-      </c>
-      <c r="P18" t="s">
-        <v>48</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="O18"/>
+      <c r="P18"/>
       <c r="Q18" t="s">
         <v>48</v>
       </c>
@@ -4313,25 +4410,25 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="C19" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="D19" t="s">
         <v>48</v>
       </c>
       <c r="E19">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F19">
-        <v>162000</v>
+        <v>138000</v>
       </c>
       <c r="G19">
-        <v>810000</v>
+        <v>966000</v>
       </c>
       <c r="H19" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="I19" t="s">
         <v>48</v>
@@ -4352,11 +4449,9 @@
         <v>48</v>
       </c>
       <c r="O19" t="s">
-        <v>48</v>
-      </c>
-      <c r="P19" t="s">
-        <v>48</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="P19"/>
       <c r="Q19" t="s">
         <v>48</v>
       </c>
@@ -4453,25 +4548,25 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="C20" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="D20" t="s">
         <v>48</v>
       </c>
       <c r="E20">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F20">
-        <v>170000</v>
+        <v>153000</v>
       </c>
       <c r="G20">
-        <v>850000</v>
+        <v>918000</v>
       </c>
       <c r="H20" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="I20" t="s">
         <v>48</v>
@@ -4479,24 +4574,22 @@
       <c r="J20" t="s">
         <v>48</v>
       </c>
-      <c r="K20" t="s">
-        <v>48</v>
-      </c>
-      <c r="L20" t="s">
-        <v>48</v>
-      </c>
-      <c r="M20" t="s">
-        <v>48</v>
+      <c r="K20">
+        <v>6</v>
+      </c>
+      <c r="L20">
+        <v>144000</v>
+      </c>
+      <c r="M20">
+        <v>864000</v>
       </c>
       <c r="N20" t="s">
-        <v>48</v>
+        <v>108</v>
       </c>
       <c r="O20" t="s">
         <v>48</v>
       </c>
-      <c r="P20" t="s">
-        <v>48</v>
-      </c>
+      <c r="P20"/>
       <c r="Q20" t="s">
         <v>48</v>
       </c>
@@ -4593,43 +4686,43 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="C21" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="D21" t="s">
         <v>48</v>
       </c>
       <c r="E21">
+        <v>5</v>
+      </c>
+      <c r="F21">
+        <v>150000</v>
+      </c>
+      <c r="G21">
+        <v>750000</v>
+      </c>
+      <c r="H21" t="s">
+        <v>111</v>
+      </c>
+      <c r="I21" t="s">
+        <v>48</v>
+      </c>
+      <c r="J21" t="s">
+        <v>48</v>
+      </c>
+      <c r="K21">
         <v>6</v>
       </c>
-      <c r="F21">
-        <v>131000</v>
-      </c>
-      <c r="G21">
-        <v>786000</v>
-      </c>
-      <c r="H21" t="s">
-        <v>100</v>
-      </c>
-      <c r="I21" t="s">
-        <v>48</v>
-      </c>
-      <c r="J21" t="s">
-        <v>48</v>
-      </c>
-      <c r="K21" t="s">
-        <v>48</v>
-      </c>
-      <c r="L21" t="s">
-        <v>48</v>
-      </c>
-      <c r="M21" t="s">
-        <v>48</v>
+      <c r="L21">
+        <v>160000</v>
+      </c>
+      <c r="M21">
+        <v>960000</v>
       </c>
       <c r="N21" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="O21" t="s">
         <v>48</v>
@@ -4733,25 +4826,25 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="C22" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="D22" t="s">
         <v>48</v>
       </c>
       <c r="E22">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F22">
-        <v>165000</v>
+        <v>139000</v>
       </c>
       <c r="G22">
-        <v>825000</v>
+        <v>973000</v>
       </c>
       <c r="H22" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="I22" t="s">
         <v>48</v>
@@ -4772,7 +4865,7 @@
         <v>48</v>
       </c>
       <c r="O22" t="s">
-        <v>48</v>
+        <v>114</v>
       </c>
       <c r="P22" t="s">
         <v>48</v>
@@ -4873,43 +4966,43 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="C23" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="D23" t="s">
         <v>48</v>
       </c>
-      <c r="E23" t="s">
-        <v>48</v>
-      </c>
-      <c r="F23" t="s">
-        <v>48</v>
-      </c>
-      <c r="G23" t="s">
-        <v>48</v>
+      <c r="E23">
+        <v>5</v>
+      </c>
+      <c r="F23">
+        <v>217000</v>
+      </c>
+      <c r="G23">
+        <v>1085000</v>
       </c>
       <c r="H23" t="s">
-        <v>48</v>
+        <v>118</v>
       </c>
       <c r="I23" t="s">
-        <v>105</v>
+        <v>48</v>
       </c>
       <c r="J23" t="s">
         <v>48</v>
       </c>
-      <c r="K23" t="s">
-        <v>48</v>
-      </c>
-      <c r="L23" t="s">
-        <v>48</v>
-      </c>
-      <c r="M23" t="s">
-        <v>48</v>
+      <c r="K23">
+        <v>5</v>
+      </c>
+      <c r="L23">
+        <v>178000</v>
+      </c>
+      <c r="M23">
+        <v>890000</v>
       </c>
       <c r="N23" t="s">
-        <v>48</v>
+        <v>119</v>
       </c>
       <c r="O23" t="s">
         <v>48</v>
@@ -5013,25 +5106,25 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="C24" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="D24" t="s">
         <v>48</v>
       </c>
       <c r="E24">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F24">
-        <v>166000</v>
+        <v>165000</v>
       </c>
       <c r="G24">
-        <v>830000</v>
+        <v>1155000</v>
       </c>
       <c r="H24" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="I24" t="s">
         <v>48</v>
@@ -5052,7 +5145,7 @@
         <v>48</v>
       </c>
       <c r="O24" t="s">
-        <v>48</v>
+        <v>123</v>
       </c>
       <c r="P24" t="s">
         <v>48</v>
@@ -5153,43 +5246,43 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="C25" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="D25" t="s">
         <v>48</v>
       </c>
       <c r="E25">
+        <v>5</v>
+      </c>
+      <c r="F25">
+        <v>162000</v>
+      </c>
+      <c r="G25">
+        <v>810000</v>
+      </c>
+      <c r="H25" t="s">
+        <v>126</v>
+      </c>
+      <c r="I25" t="s">
+        <v>48</v>
+      </c>
+      <c r="J25" t="s">
+        <v>48</v>
+      </c>
+      <c r="K25">
         <v>7</v>
       </c>
-      <c r="F25">
-        <v>99000</v>
-      </c>
-      <c r="G25">
-        <v>693000</v>
-      </c>
-      <c r="H25" t="s">
-        <v>111</v>
-      </c>
-      <c r="I25" t="s">
-        <v>48</v>
-      </c>
-      <c r="J25" t="s">
-        <v>48</v>
-      </c>
-      <c r="K25" t="s">
-        <v>48</v>
-      </c>
-      <c r="L25" t="s">
-        <v>48</v>
-      </c>
-      <c r="M25" t="s">
-        <v>48</v>
+      <c r="L25">
+        <v>151000</v>
+      </c>
+      <c r="M25">
+        <v>1057000</v>
       </c>
       <c r="N25" t="s">
-        <v>48</v>
+        <v>127</v>
       </c>
       <c r="O25" t="s">
         <v>48</v>
@@ -5293,10 +5386,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="C26" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="D26" t="s">
         <v>48</v>
@@ -5305,13 +5398,13 @@
         <v>5</v>
       </c>
       <c r="F26">
-        <v>165000</v>
+        <v>170000</v>
       </c>
       <c r="G26">
-        <v>825000</v>
+        <v>850000</v>
       </c>
       <c r="H26" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="I26" t="s">
         <v>48</v>
@@ -5319,17 +5412,17 @@
       <c r="J26" t="s">
         <v>48</v>
       </c>
-      <c r="K26" t="s">
-        <v>48</v>
-      </c>
-      <c r="L26" t="s">
-        <v>48</v>
-      </c>
-      <c r="M26" t="s">
-        <v>48</v>
+      <c r="K26">
+        <v>6</v>
+      </c>
+      <c r="L26">
+        <v>172000</v>
+      </c>
+      <c r="M26">
+        <v>1032000</v>
       </c>
       <c r="N26" t="s">
-        <v>48</v>
+        <v>131</v>
       </c>
       <c r="O26" t="s">
         <v>48</v>
@@ -5433,10 +5526,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="C27" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="D27" t="s">
         <v>48</v>
@@ -5445,13 +5538,13 @@
         <v>6</v>
       </c>
       <c r="F27">
-        <v>146000</v>
+        <v>131000</v>
       </c>
       <c r="G27">
-        <v>876000</v>
+        <v>786000</v>
       </c>
       <c r="H27" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="I27" t="s">
         <v>48</v>
@@ -5459,21 +5552,19 @@
       <c r="J27" t="s">
         <v>48</v>
       </c>
-      <c r="K27" t="s">
-        <v>48</v>
-      </c>
-      <c r="L27" t="s">
-        <v>48</v>
-      </c>
-      <c r="M27" t="s">
-        <v>48</v>
+      <c r="K27">
+        <v>7</v>
+      </c>
+      <c r="L27">
+        <v>122000</v>
+      </c>
+      <c r="M27">
+        <v>854000</v>
       </c>
       <c r="N27" t="s">
-        <v>48</v>
-      </c>
-      <c r="O27" t="s">
-        <v>48</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="O27"/>
       <c r="P27" t="s">
         <v>48</v>
       </c>
@@ -5573,10 +5664,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="C28" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="D28" t="s">
         <v>48</v>
@@ -5585,13 +5676,13 @@
         <v>5</v>
       </c>
       <c r="F28">
-        <v>140000</v>
+        <v>165000</v>
       </c>
       <c r="G28">
-        <v>700000</v>
+        <v>825000</v>
       </c>
       <c r="H28" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="I28" t="s">
         <v>48</v>
@@ -5599,17 +5690,17 @@
       <c r="J28" t="s">
         <v>48</v>
       </c>
-      <c r="K28" t="s">
-        <v>48</v>
-      </c>
-      <c r="L28" t="s">
-        <v>48</v>
-      </c>
-      <c r="M28" t="s">
-        <v>48</v>
+      <c r="K28">
+        <v>5</v>
+      </c>
+      <c r="L28">
+        <v>172000</v>
+      </c>
+      <c r="M28">
+        <v>860000</v>
       </c>
       <c r="N28" t="s">
-        <v>48</v>
+        <v>139</v>
       </c>
       <c r="O28" t="s">
         <v>48</v>
@@ -5713,10 +5804,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>121</v>
+        <v>140</v>
       </c>
       <c r="C29" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="D29" t="s">
         <v>48</v>
@@ -5725,13 +5816,13 @@
         <v>5</v>
       </c>
       <c r="F29">
-        <v>160000</v>
+        <v>166000</v>
       </c>
       <c r="G29">
-        <v>800000</v>
+        <v>830000</v>
       </c>
       <c r="H29" t="s">
-        <v>123</v>
+        <v>142</v>
       </c>
       <c r="I29" t="s">
         <v>48</v>
@@ -5739,17 +5830,17 @@
       <c r="J29" t="s">
         <v>48</v>
       </c>
-      <c r="K29" t="s">
-        <v>48</v>
-      </c>
-      <c r="L29" t="s">
-        <v>48</v>
-      </c>
-      <c r="M29" t="s">
-        <v>48</v>
+      <c r="K29">
+        <v>7</v>
+      </c>
+      <c r="L29">
+        <v>140000</v>
+      </c>
+      <c r="M29">
+        <v>980000</v>
       </c>
       <c r="N29" t="s">
-        <v>48</v>
+        <v>143</v>
       </c>
       <c r="O29" t="s">
         <v>48</v>
@@ -5853,43 +5944,43 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="C30" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="D30" t="s">
         <v>48</v>
       </c>
-      <c r="E30" t="s">
-        <v>48</v>
-      </c>
-      <c r="F30" t="s">
-        <v>48</v>
-      </c>
-      <c r="G30" t="s">
-        <v>48</v>
+      <c r="E30">
+        <v>7</v>
+      </c>
+      <c r="F30">
+        <v>99000</v>
+      </c>
+      <c r="G30">
+        <v>693000</v>
       </c>
       <c r="H30" t="s">
-        <v>48</v>
+        <v>146</v>
       </c>
       <c r="I30" t="s">
-        <v>125</v>
+        <v>48</v>
       </c>
       <c r="J30" t="s">
         <v>48</v>
       </c>
-      <c r="K30" t="s">
-        <v>48</v>
-      </c>
-      <c r="L30" t="s">
-        <v>48</v>
-      </c>
-      <c r="M30" t="s">
-        <v>48</v>
+      <c r="K30">
+        <v>9</v>
+      </c>
+      <c r="L30">
+        <v>99000</v>
+      </c>
+      <c r="M30">
+        <v>891000</v>
       </c>
       <c r="N30" t="s">
-        <v>48</v>
+        <v>147</v>
       </c>
       <c r="O30" t="s">
         <v>48</v>
@@ -5993,25 +6084,25 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="C31" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="D31" t="s">
         <v>48</v>
       </c>
       <c r="E31">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F31">
-        <v>160000</v>
+        <v>165000</v>
       </c>
       <c r="G31">
-        <v>1120000</v>
+        <v>825000</v>
       </c>
       <c r="H31" t="s">
-        <v>128</v>
+        <v>150</v>
       </c>
       <c r="I31" t="s">
         <v>48</v>
@@ -6019,17 +6110,17 @@
       <c r="J31" t="s">
         <v>48</v>
       </c>
-      <c r="K31" t="s">
-        <v>48</v>
-      </c>
-      <c r="L31" t="s">
-        <v>48</v>
-      </c>
-      <c r="M31" t="s">
-        <v>48</v>
+      <c r="K31">
+        <v>5</v>
+      </c>
+      <c r="L31">
+        <v>188000</v>
+      </c>
+      <c r="M31">
+        <v>940000</v>
       </c>
       <c r="N31" t="s">
-        <v>48</v>
+        <v>151</v>
       </c>
       <c r="O31" t="s">
         <v>48</v>
@@ -6133,25 +6224,25 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>129</v>
+        <v>152</v>
       </c>
       <c r="C32" t="s">
-        <v>130</v>
+        <v>153</v>
       </c>
       <c r="D32" t="s">
         <v>48</v>
       </c>
       <c r="E32">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F32">
-        <v>120000</v>
+        <v>146000</v>
       </c>
       <c r="G32">
-        <v>840000</v>
+        <v>876000</v>
       </c>
       <c r="H32" t="s">
-        <v>131</v>
+        <v>154</v>
       </c>
       <c r="I32" t="s">
         <v>48</v>
@@ -6159,17 +6250,17 @@
       <c r="J32" t="s">
         <v>48</v>
       </c>
-      <c r="K32" t="s">
-        <v>48</v>
-      </c>
-      <c r="L32" t="s">
-        <v>48</v>
-      </c>
-      <c r="M32" t="s">
-        <v>48</v>
+      <c r="K32">
+        <v>6</v>
+      </c>
+      <c r="L32">
+        <v>147000</v>
+      </c>
+      <c r="M32">
+        <v>882000</v>
       </c>
       <c r="N32" t="s">
-        <v>48</v>
+        <v>155</v>
       </c>
       <c r="O32" t="s">
         <v>48</v>
@@ -6273,28 +6364,28 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>132</v>
+        <v>156</v>
       </c>
       <c r="C33" t="s">
-        <v>133</v>
+        <v>157</v>
       </c>
       <c r="D33" t="s">
         <v>48</v>
       </c>
-      <c r="E33" t="s">
-        <v>48</v>
-      </c>
-      <c r="F33" t="s">
-        <v>48</v>
-      </c>
-      <c r="G33" t="s">
-        <v>48</v>
+      <c r="E33">
+        <v>5</v>
+      </c>
+      <c r="F33">
+        <v>140000</v>
+      </c>
+      <c r="G33">
+        <v>700000</v>
       </c>
       <c r="H33" t="s">
-        <v>48</v>
+        <v>158</v>
       </c>
       <c r="I33" t="s">
-        <v>133</v>
+        <v>48</v>
       </c>
       <c r="J33" t="s">
         <v>48</v>
@@ -6312,7 +6403,7 @@
         <v>48</v>
       </c>
       <c r="O33" t="s">
-        <v>48</v>
+        <v>157</v>
       </c>
       <c r="P33" t="s">
         <v>48</v>
@@ -6413,25 +6504,25 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>134</v>
+        <v>159</v>
       </c>
       <c r="C34" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="D34" t="s">
         <v>48</v>
       </c>
       <c r="E34">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F34">
-        <v>74000</v>
+        <v>160000</v>
       </c>
       <c r="G34">
-        <v>518000</v>
+        <v>800000</v>
       </c>
       <c r="H34" t="s">
-        <v>136</v>
+        <v>161</v>
       </c>
       <c r="I34" t="s">
         <v>48</v>
@@ -6439,17 +6530,17 @@
       <c r="J34" t="s">
         <v>48</v>
       </c>
-      <c r="K34" t="s">
-        <v>48</v>
-      </c>
-      <c r="L34" t="s">
-        <v>48</v>
-      </c>
-      <c r="M34" t="s">
-        <v>48</v>
+      <c r="K34">
+        <v>6</v>
+      </c>
+      <c r="L34">
+        <v>148000</v>
+      </c>
+      <c r="M34">
+        <v>888000</v>
       </c>
       <c r="N34" t="s">
-        <v>48</v>
+        <v>162</v>
       </c>
       <c r="O34" t="s">
         <v>48</v>
@@ -6553,28 +6644,28 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>137</v>
+        <v>163</v>
       </c>
       <c r="C35" t="s">
-        <v>138</v>
+        <v>164</v>
       </c>
       <c r="D35" t="s">
         <v>48</v>
       </c>
-      <c r="E35">
-        <v>7</v>
-      </c>
-      <c r="F35">
-        <v>157000</v>
-      </c>
-      <c r="G35">
-        <v>1099000</v>
+      <c r="E35" t="s">
+        <v>48</v>
+      </c>
+      <c r="F35" t="s">
+        <v>48</v>
+      </c>
+      <c r="G35" t="s">
+        <v>48</v>
       </c>
       <c r="H35" t="s">
-        <v>139</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>48</v>
+        <v>164</v>
       </c>
       <c r="J35" t="s">
         <v>48</v>
@@ -6592,7 +6683,7 @@
         <v>48</v>
       </c>
       <c r="O35" t="s">
-        <v>48</v>
+        <v>164</v>
       </c>
       <c r="P35" t="s">
         <v>48</v>
@@ -6693,25 +6784,25 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="C36" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="D36" t="s">
         <v>48</v>
       </c>
       <c r="E36">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F36">
-        <v>169474</v>
+        <v>160000</v>
       </c>
       <c r="G36">
-        <v>847370</v>
+        <v>1120000</v>
       </c>
       <c r="H36" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="I36" t="s">
         <v>48</v>
@@ -6719,17 +6810,17 @@
       <c r="J36" t="s">
         <v>48</v>
       </c>
-      <c r="K36" t="s">
-        <v>48</v>
-      </c>
-      <c r="L36" t="s">
-        <v>48</v>
-      </c>
-      <c r="M36" t="s">
-        <v>48</v>
+      <c r="K36">
+        <v>6</v>
+      </c>
+      <c r="L36">
+        <v>145000</v>
+      </c>
+      <c r="M36">
+        <v>870000</v>
       </c>
       <c r="N36" t="s">
-        <v>48</v>
+        <v>168</v>
       </c>
       <c r="O36" t="s">
         <v>48</v>
@@ -6833,47 +6924,45 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>143</v>
+        <v>169</v>
       </c>
       <c r="C37" t="s">
-        <v>144</v>
+        <v>170</v>
       </c>
       <c r="D37" t="s">
         <v>48</v>
       </c>
-      <c r="E37" t="s">
-        <v>48</v>
-      </c>
-      <c r="F37" t="s">
-        <v>48</v>
-      </c>
-      <c r="G37" t="s">
-        <v>48</v>
+      <c r="E37">
+        <v>7</v>
+      </c>
+      <c r="F37">
+        <v>120000</v>
+      </c>
+      <c r="G37">
+        <v>840000</v>
       </c>
       <c r="H37" t="s">
-        <v>48</v>
+        <v>171</v>
       </c>
       <c r="I37" t="s">
-        <v>144</v>
+        <v>48</v>
       </c>
       <c r="J37" t="s">
         <v>48</v>
       </c>
-      <c r="K37" t="s">
-        <v>48</v>
-      </c>
-      <c r="L37" t="s">
-        <v>48</v>
-      </c>
-      <c r="M37" t="s">
-        <v>48</v>
+      <c r="K37">
+        <v>7</v>
+      </c>
+      <c r="L37">
+        <v>130000</v>
+      </c>
+      <c r="M37">
+        <v>910000</v>
       </c>
       <c r="N37" t="s">
-        <v>48</v>
-      </c>
-      <c r="O37" t="s">
-        <v>48</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="O37"/>
       <c r="P37" t="s">
         <v>48</v>
       </c>
@@ -6973,25 +7062,25 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>145</v>
+        <v>173</v>
       </c>
       <c r="C38" t="s">
-        <v>146</v>
+        <v>174</v>
       </c>
       <c r="D38" t="s">
         <v>48</v>
       </c>
       <c r="E38">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F38">
-        <v>100000</v>
+        <v>74000</v>
       </c>
       <c r="G38">
-        <v>1200000</v>
+        <v>518000</v>
       </c>
       <c r="H38" t="s">
-        <v>147</v>
+        <v>175</v>
       </c>
       <c r="I38" t="s">
         <v>48</v>
@@ -6999,24 +7088,20 @@
       <c r="J38" t="s">
         <v>48</v>
       </c>
-      <c r="K38" t="s">
-        <v>48</v>
-      </c>
-      <c r="L38" t="s">
-        <v>48</v>
-      </c>
-      <c r="M38" t="s">
-        <v>48</v>
+      <c r="K38">
+        <v>8</v>
+      </c>
+      <c r="L38">
+        <v>95000</v>
+      </c>
+      <c r="M38">
+        <v>760000</v>
       </c>
       <c r="N38" t="s">
-        <v>48</v>
-      </c>
-      <c r="O38" t="s">
-        <v>48</v>
-      </c>
-      <c r="P38" t="s">
-        <v>48</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="O38"/>
+      <c r="P38"/>
       <c r="Q38" t="s">
         <v>48</v>
       </c>
@@ -7113,25 +7198,25 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>148</v>
+        <v>177</v>
       </c>
       <c r="C39" t="s">
-        <v>149</v>
+        <v>178</v>
       </c>
       <c r="D39" t="s">
         <v>48</v>
       </c>
       <c r="E39">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F39">
-        <v>99000</v>
+        <v>157000</v>
       </c>
       <c r="G39">
-        <v>990000</v>
+        <v>1099000</v>
       </c>
       <c r="H39" t="s">
-        <v>150</v>
+        <v>179</v>
       </c>
       <c r="I39" t="s">
         <v>48</v>
@@ -7139,24 +7224,20 @@
       <c r="J39" t="s">
         <v>48</v>
       </c>
-      <c r="K39" t="s">
-        <v>48</v>
-      </c>
-      <c r="L39" t="s">
-        <v>48</v>
-      </c>
-      <c r="M39" t="s">
-        <v>48</v>
+      <c r="K39">
+        <v>9</v>
+      </c>
+      <c r="L39">
+        <v>130000</v>
+      </c>
+      <c r="M39">
+        <v>1170000</v>
       </c>
       <c r="N39" t="s">
-        <v>48</v>
-      </c>
-      <c r="O39" t="s">
-        <v>48</v>
-      </c>
-      <c r="P39" t="s">
-        <v>48</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="O39"/>
+      <c r="P39"/>
       <c r="Q39" t="s">
         <v>48</v>
       </c>
@@ -7253,10 +7334,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>151</v>
+        <v>181</v>
       </c>
       <c r="C40" t="s">
-        <v>152</v>
+        <v>182</v>
       </c>
       <c r="D40" t="s">
         <v>48</v>
@@ -7265,13 +7346,13 @@
         <v>5</v>
       </c>
       <c r="F40">
-        <v>140000</v>
+        <v>169474</v>
       </c>
       <c r="G40">
-        <v>700000</v>
+        <v>847370</v>
       </c>
       <c r="H40" t="s">
-        <v>153</v>
+        <v>183</v>
       </c>
       <c r="I40" t="s">
         <v>48</v>
@@ -7279,24 +7360,20 @@
       <c r="J40" t="s">
         <v>48</v>
       </c>
-      <c r="K40" t="s">
-        <v>48</v>
-      </c>
-      <c r="L40" t="s">
-        <v>48</v>
-      </c>
-      <c r="M40" t="s">
-        <v>48</v>
+      <c r="K40">
+        <v>6</v>
+      </c>
+      <c r="L40">
+        <v>151952</v>
+      </c>
+      <c r="M40">
+        <v>911712</v>
       </c>
       <c r="N40" t="s">
-        <v>48</v>
-      </c>
-      <c r="O40" t="s">
-        <v>48</v>
-      </c>
-      <c r="P40" t="s">
-        <v>48</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="O40"/>
+      <c r="P40"/>
       <c r="Q40" t="s">
         <v>48</v>
       </c>
@@ -7393,10 +7470,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>154</v>
+        <v>185</v>
       </c>
       <c r="C41" t="s">
-        <v>155</v>
+        <v>186</v>
       </c>
       <c r="D41" t="s">
         <v>48</v>
@@ -7414,7 +7491,7 @@
         <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>155</v>
+        <v>186</v>
       </c>
       <c r="J41" t="s">
         <v>48</v>
@@ -7432,11 +7509,9 @@
         <v>48</v>
       </c>
       <c r="O41" t="s">
-        <v>48</v>
-      </c>
-      <c r="P41" t="s">
-        <v>48</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="P41"/>
       <c r="Q41" t="s">
         <v>48</v>
       </c>
@@ -7533,25 +7608,25 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>156</v>
+        <v>187</v>
       </c>
       <c r="C42" t="s">
-        <v>157</v>
+        <v>188</v>
       </c>
       <c r="D42" t="s">
         <v>48</v>
       </c>
       <c r="E42">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F42">
-        <v>136000</v>
+        <v>100000</v>
       </c>
       <c r="G42">
-        <v>680000</v>
+        <v>1200000</v>
       </c>
       <c r="H42" t="s">
-        <v>158</v>
+        <v>189</v>
       </c>
       <c r="I42" t="s">
         <v>48</v>
@@ -7572,11 +7647,9 @@
         <v>48</v>
       </c>
       <c r="O42" t="s">
-        <v>48</v>
-      </c>
-      <c r="P42" t="s">
-        <v>48</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="P42"/>
       <c r="Q42" t="s">
         <v>48</v>
       </c>
@@ -7673,25 +7746,25 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>159</v>
+        <v>190</v>
       </c>
       <c r="C43" t="s">
-        <v>160</v>
+        <v>191</v>
       </c>
       <c r="D43" t="s">
         <v>48</v>
       </c>
       <c r="E43">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F43">
-        <v>152000</v>
+        <v>99000</v>
       </c>
       <c r="G43">
-        <v>760000</v>
+        <v>990000</v>
       </c>
       <c r="H43" t="s">
-        <v>161</v>
+        <v>192</v>
       </c>
       <c r="I43" t="s">
         <v>48</v>
@@ -7699,24 +7772,20 @@
       <c r="J43" t="s">
         <v>48</v>
       </c>
-      <c r="K43" t="s">
-        <v>48</v>
-      </c>
-      <c r="L43" t="s">
-        <v>48</v>
-      </c>
-      <c r="M43" t="s">
-        <v>48</v>
+      <c r="K43">
+        <v>10</v>
+      </c>
+      <c r="L43">
+        <v>77000</v>
+      </c>
+      <c r="M43">
+        <v>770000</v>
       </c>
       <c r="N43" t="s">
-        <v>48</v>
-      </c>
-      <c r="O43" t="s">
-        <v>48</v>
-      </c>
-      <c r="P43" t="s">
-        <v>48</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="O43"/>
+      <c r="P43"/>
       <c r="Q43" t="s">
         <v>48</v>
       </c>
@@ -7813,10 +7882,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>162</v>
+        <v>194</v>
       </c>
       <c r="C44" t="s">
-        <v>163</v>
+        <v>195</v>
       </c>
       <c r="D44" t="s">
         <v>48</v>
@@ -7825,13 +7894,13 @@
         <v>5</v>
       </c>
       <c r="F44">
-        <v>167000</v>
+        <v>140000</v>
       </c>
       <c r="G44">
-        <v>835000</v>
+        <v>700000</v>
       </c>
       <c r="H44" t="s">
-        <v>164</v>
+        <v>196</v>
       </c>
       <c r="I44" t="s">
         <v>48</v>
@@ -7852,11 +7921,9 @@
         <v>48</v>
       </c>
       <c r="O44" t="s">
-        <v>48</v>
-      </c>
-      <c r="P44" t="s">
-        <v>48</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="P44"/>
       <c r="Q44" t="s">
         <v>48</v>
       </c>
@@ -7953,28 +8020,28 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>165</v>
+        <v>197</v>
       </c>
       <c r="C45" t="s">
-        <v>166</v>
+        <v>198</v>
       </c>
       <c r="D45" t="s">
         <v>48</v>
       </c>
-      <c r="E45">
-        <v>5</v>
-      </c>
-      <c r="F45">
-        <v>147000</v>
-      </c>
-      <c r="G45">
-        <v>735000</v>
+      <c r="E45" t="s">
+        <v>48</v>
+      </c>
+      <c r="F45" t="s">
+        <v>48</v>
+      </c>
+      <c r="G45" t="s">
+        <v>48</v>
       </c>
       <c r="H45" t="s">
-        <v>167</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>48</v>
+        <v>198</v>
       </c>
       <c r="J45" t="s">
         <v>48</v>
@@ -7992,11 +8059,9 @@
         <v>48</v>
       </c>
       <c r="O45" t="s">
-        <v>48</v>
-      </c>
-      <c r="P45" t="s">
-        <v>48</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="P45"/>
       <c r="Q45" t="s">
         <v>48</v>
       </c>
@@ -8093,50 +8158,48 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>168</v>
+        <v>199</v>
       </c>
       <c r="C46" t="s">
-        <v>169</v>
+        <v>200</v>
       </c>
       <c r="D46" t="s">
         <v>48</v>
       </c>
-      <c r="E46" t="s">
-        <v>48</v>
-      </c>
-      <c r="F46" t="s">
-        <v>48</v>
-      </c>
-      <c r="G46" t="s">
-        <v>48</v>
+      <c r="E46">
+        <v>5</v>
+      </c>
+      <c r="F46">
+        <v>136000</v>
+      </c>
+      <c r="G46">
+        <v>680000</v>
       </c>
       <c r="H46" t="s">
-        <v>48</v>
+        <v>201</v>
       </c>
       <c r="I46" t="s">
-        <v>169</v>
+        <v>48</v>
       </c>
       <c r="J46" t="s">
         <v>48</v>
       </c>
-      <c r="K46" t="s">
-        <v>48</v>
-      </c>
-      <c r="L46" t="s">
-        <v>48</v>
-      </c>
-      <c r="M46" t="s">
-        <v>48</v>
+      <c r="K46">
+        <v>6</v>
+      </c>
+      <c r="L46">
+        <v>140000</v>
+      </c>
+      <c r="M46">
+        <v>840000</v>
       </c>
       <c r="N46" t="s">
-        <v>48</v>
+        <v>202</v>
       </c>
       <c r="O46" t="s">
         <v>48</v>
       </c>
-      <c r="P46" t="s">
-        <v>48</v>
-      </c>
+      <c r="P46"/>
       <c r="Q46" t="s">
         <v>48</v>
       </c>
@@ -8233,10 +8296,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>170</v>
+        <v>203</v>
       </c>
       <c r="C47" t="s">
-        <v>171</v>
+        <v>204</v>
       </c>
       <c r="D47" t="s">
         <v>48</v>
@@ -8245,13 +8308,13 @@
         <v>5</v>
       </c>
       <c r="F47">
-        <v>230000</v>
+        <v>152000</v>
       </c>
       <c r="G47">
-        <v>1150000</v>
+        <v>760000</v>
       </c>
       <c r="H47" t="s">
-        <v>172</v>
+        <v>205</v>
       </c>
       <c r="I47" t="s">
         <v>48</v>
@@ -8259,24 +8322,22 @@
       <c r="J47" t="s">
         <v>48</v>
       </c>
-      <c r="K47" t="s">
-        <v>48</v>
-      </c>
-      <c r="L47" t="s">
-        <v>48</v>
-      </c>
-      <c r="M47" t="s">
-        <v>48</v>
+      <c r="K47">
+        <v>7</v>
+      </c>
+      <c r="L47">
+        <v>140000</v>
+      </c>
+      <c r="M47">
+        <v>980000</v>
       </c>
       <c r="N47" t="s">
-        <v>48</v>
+        <v>206</v>
       </c>
       <c r="O47" t="s">
         <v>48</v>
       </c>
-      <c r="P47" t="s">
-        <v>48</v>
-      </c>
+      <c r="P47"/>
       <c r="Q47" t="s">
         <v>48</v>
       </c>
@@ -8373,25 +8434,25 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>173</v>
+        <v>207</v>
       </c>
       <c r="C48" t="s">
-        <v>174</v>
+        <v>208</v>
       </c>
       <c r="D48" t="s">
         <v>48</v>
       </c>
       <c r="E48">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F48">
-        <v>120000</v>
+        <v>167000</v>
       </c>
       <c r="G48">
-        <v>720000</v>
+        <v>835000</v>
       </c>
       <c r="H48" t="s">
-        <v>175</v>
+        <v>209</v>
       </c>
       <c r="I48" t="s">
         <v>48</v>
@@ -8399,24 +8460,22 @@
       <c r="J48" t="s">
         <v>48</v>
       </c>
-      <c r="K48" t="s">
-        <v>48</v>
-      </c>
-      <c r="L48" t="s">
-        <v>48</v>
-      </c>
-      <c r="M48" t="s">
-        <v>48</v>
+      <c r="K48">
+        <v>5</v>
+      </c>
+      <c r="L48">
+        <v>189000</v>
+      </c>
+      <c r="M48">
+        <v>945000</v>
       </c>
       <c r="N48" t="s">
-        <v>48</v>
+        <v>210</v>
       </c>
       <c r="O48" t="s">
         <v>48</v>
       </c>
-      <c r="P48" t="s">
-        <v>48</v>
-      </c>
+      <c r="P48"/>
       <c r="Q48" t="s">
         <v>48</v>
       </c>
@@ -8513,25 +8572,25 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>176</v>
+        <v>211</v>
       </c>
       <c r="C49" t="s">
-        <v>177</v>
+        <v>212</v>
       </c>
       <c r="D49" t="s">
         <v>48</v>
       </c>
       <c r="E49">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F49">
-        <v>100000</v>
+        <v>147000</v>
       </c>
       <c r="G49">
-        <v>800000</v>
+        <v>735000</v>
       </c>
       <c r="H49" t="s">
-        <v>178</v>
+        <v>213</v>
       </c>
       <c r="I49" t="s">
         <v>48</v>
@@ -8539,24 +8598,22 @@
       <c r="J49" t="s">
         <v>48</v>
       </c>
-      <c r="K49" t="s">
-        <v>48</v>
-      </c>
-      <c r="L49" t="s">
-        <v>48</v>
-      </c>
-      <c r="M49" t="s">
-        <v>48</v>
+      <c r="K49">
+        <v>7</v>
+      </c>
+      <c r="L49">
+        <v>125000</v>
+      </c>
+      <c r="M49">
+        <v>875000</v>
       </c>
       <c r="N49" t="s">
-        <v>48</v>
+        <v>214</v>
       </c>
       <c r="O49" t="s">
         <v>48</v>
       </c>
-      <c r="P49" t="s">
-        <v>48</v>
-      </c>
+      <c r="P49"/>
       <c r="Q49" t="s">
         <v>48</v>
       </c>
@@ -8653,10 +8710,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>179</v>
+        <v>215</v>
       </c>
       <c r="C50" t="s">
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="D50" t="s">
         <v>48</v>
@@ -8674,29 +8731,28 @@
         <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="J50" t="s">
         <v>48</v>
       </c>
-      <c r="K50" t="s">
-        <v>48</v>
-      </c>
-      <c r="L50" t="s">
-        <v>48</v>
-      </c>
-      <c r="M50" t="s">
-        <v>48</v>
+      <c r="K50">
+        <v>7</v>
+      </c>
+      <c r="L50">
+        <v>145000</v>
+      </c>
+      <c r="M50">
+        <f>L50*K50</f>
+        <v>1015000</v>
       </c>
       <c r="N50" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="O50" t="s">
-        <v>48</v>
-      </c>
-      <c r="P50" t="s">
-        <v>48</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="P50"/>
       <c r="Q50" t="s">
         <v>48</v>
       </c>
@@ -8793,25 +8849,25 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>181</v>
+        <v>217</v>
       </c>
       <c r="C51" t="s">
-        <v>182</v>
+        <v>218</v>
       </c>
       <c r="D51" t="s">
         <v>48</v>
       </c>
       <c r="E51">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F51">
-        <v>152000</v>
+        <v>230000</v>
       </c>
       <c r="G51">
-        <v>912000</v>
+        <v>1150000</v>
       </c>
       <c r="H51" t="s">
-        <v>183</v>
+        <v>219</v>
       </c>
       <c r="I51" t="s">
         <v>48</v>
@@ -8819,24 +8875,22 @@
       <c r="J51" t="s">
         <v>48</v>
       </c>
-      <c r="K51" t="s">
-        <v>48</v>
-      </c>
-      <c r="L51" t="s">
-        <v>48</v>
-      </c>
-      <c r="M51" t="s">
-        <v>48</v>
+      <c r="K51">
+        <v>7</v>
+      </c>
+      <c r="L51">
+        <v>200000</v>
+      </c>
+      <c r="M51">
+        <v>1400000</v>
       </c>
       <c r="N51" t="s">
-        <v>48</v>
+        <v>220</v>
       </c>
       <c r="O51" t="s">
         <v>48</v>
       </c>
-      <c r="P51" t="s">
-        <v>48</v>
-      </c>
+      <c r="P51"/>
       <c r="Q51" t="s">
         <v>48</v>
       </c>
@@ -8933,25 +8987,25 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>184</v>
+        <v>221</v>
       </c>
       <c r="C52" t="s">
-        <v>185</v>
+        <v>222</v>
       </c>
       <c r="D52" t="s">
         <v>48</v>
       </c>
       <c r="E52">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F52">
-        <v>171000</v>
+        <v>120000</v>
       </c>
       <c r="G52">
-        <v>855000</v>
+        <v>720000</v>
       </c>
       <c r="H52" t="s">
-        <v>186</v>
+        <v>223</v>
       </c>
       <c r="I52" t="s">
         <v>48</v>
@@ -8959,17 +9013,17 @@
       <c r="J52" t="s">
         <v>48</v>
       </c>
-      <c r="K52" t="s">
-        <v>48</v>
-      </c>
-      <c r="L52" t="s">
-        <v>48</v>
-      </c>
-      <c r="M52" t="s">
-        <v>48</v>
+      <c r="K52">
+        <v>9</v>
+      </c>
+      <c r="L52">
+        <v>100000</v>
+      </c>
+      <c r="M52">
+        <v>900000</v>
       </c>
       <c r="N52" t="s">
-        <v>48</v>
+        <v>224</v>
       </c>
       <c r="O52" t="s">
         <v>48</v>
@@ -9073,25 +9127,25 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>187</v>
+        <v>225</v>
       </c>
       <c r="C53" t="s">
-        <v>188</v>
+        <v>226</v>
       </c>
       <c r="D53" t="s">
         <v>48</v>
       </c>
       <c r="E53">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F53">
-        <v>71000</v>
+        <v>100000</v>
       </c>
       <c r="G53">
-        <v>710000</v>
+        <v>800000</v>
       </c>
       <c r="H53" t="s">
-        <v>189</v>
+        <v>227</v>
       </c>
       <c r="I53" t="s">
         <v>48</v>
@@ -9099,17 +9153,17 @@
       <c r="J53" t="s">
         <v>48</v>
       </c>
-      <c r="K53" t="s">
-        <v>48</v>
-      </c>
-      <c r="L53" t="s">
-        <v>48</v>
-      </c>
-      <c r="M53" t="s">
-        <v>48</v>
+      <c r="K53">
+        <v>8</v>
+      </c>
+      <c r="L53">
+        <v>120000</v>
+      </c>
+      <c r="M53">
+        <v>960000</v>
       </c>
       <c r="N53" t="s">
-        <v>48</v>
+        <v>228</v>
       </c>
       <c r="O53" t="s">
         <v>48</v>
@@ -9213,43 +9267,43 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>190</v>
+        <v>229</v>
       </c>
       <c r="C54" t="s">
-        <v>191</v>
+        <v>230</v>
       </c>
       <c r="D54" t="s">
         <v>48</v>
       </c>
-      <c r="E54">
+      <c r="E54" t="s">
+        <v>48</v>
+      </c>
+      <c r="F54" t="s">
+        <v>48</v>
+      </c>
+      <c r="G54" t="s">
+        <v>48</v>
+      </c>
+      <c r="H54" t="s">
+        <v>48</v>
+      </c>
+      <c r="I54" t="s">
+        <v>231</v>
+      </c>
+      <c r="J54" t="s">
+        <v>48</v>
+      </c>
+      <c r="K54">
         <v>7</v>
       </c>
-      <c r="F54">
-        <v>123000</v>
-      </c>
-      <c r="G54">
-        <v>861000</v>
-      </c>
-      <c r="H54" t="s">
-        <v>192</v>
-      </c>
-      <c r="I54" t="s">
-        <v>48</v>
-      </c>
-      <c r="J54" t="s">
-        <v>48</v>
-      </c>
-      <c r="K54" t="s">
-        <v>48</v>
-      </c>
-      <c r="L54" t="s">
-        <v>48</v>
-      </c>
-      <c r="M54" t="s">
-        <v>48</v>
+      <c r="L54">
+        <v>169000</v>
+      </c>
+      <c r="M54">
+        <v>1183000</v>
       </c>
       <c r="N54" t="s">
-        <v>48</v>
+        <v>232</v>
       </c>
       <c r="O54" t="s">
         <v>48</v>
@@ -9353,28 +9407,28 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>193</v>
+        <v>233</v>
       </c>
       <c r="C55" t="s">
-        <v>194</v>
+        <v>234</v>
       </c>
       <c r="D55" t="s">
         <v>48</v>
       </c>
-      <c r="E55" t="s">
-        <v>48</v>
-      </c>
-      <c r="F55" t="s">
-        <v>48</v>
-      </c>
-      <c r="G55" t="s">
-        <v>48</v>
+      <c r="E55">
+        <v>6</v>
+      </c>
+      <c r="F55">
+        <v>152000</v>
+      </c>
+      <c r="G55">
+        <v>912000</v>
       </c>
       <c r="H55" t="s">
-        <v>48</v>
+        <v>235</v>
       </c>
       <c r="I55" t="s">
-        <v>194</v>
+        <v>48</v>
       </c>
       <c r="J55" t="s">
         <v>48</v>
@@ -9389,13 +9443,13 @@
         <v>48</v>
       </c>
       <c r="N55" t="s">
-        <v>48</v>
+        <v>236</v>
       </c>
       <c r="O55" t="s">
-        <v>48</v>
+        <v>234</v>
       </c>
       <c r="P55" t="s">
-        <v>48</v>
+        <v>237</v>
       </c>
       <c r="Q55" t="s">
         <v>48</v>
@@ -9493,10 +9547,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>195</v>
+        <v>238</v>
       </c>
       <c r="C56" t="s">
-        <v>196</v>
+        <v>239</v>
       </c>
       <c r="D56" t="s">
         <v>48</v>
@@ -9505,13 +9559,13 @@
         <v>5</v>
       </c>
       <c r="F56">
-        <v>180000</v>
+        <v>171000</v>
       </c>
       <c r="G56">
-        <v>900000</v>
+        <v>855000</v>
       </c>
       <c r="H56" t="s">
-        <v>197</v>
+        <v>240</v>
       </c>
       <c r="I56" t="s">
         <v>48</v>
@@ -9519,17 +9573,17 @@
       <c r="J56" t="s">
         <v>48</v>
       </c>
-      <c r="K56" t="s">
-        <v>48</v>
-      </c>
-      <c r="L56" t="s">
-        <v>48</v>
-      </c>
-      <c r="M56" t="s">
-        <v>48</v>
+      <c r="K56">
+        <v>5</v>
+      </c>
+      <c r="L56">
+        <v>172000</v>
+      </c>
+      <c r="M56">
+        <v>860000</v>
       </c>
       <c r="N56" t="s">
-        <v>48</v>
+        <v>241</v>
       </c>
       <c r="O56" t="s">
         <v>48</v>
@@ -9633,25 +9687,25 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>198</v>
+        <v>242</v>
       </c>
       <c r="C57" t="s">
-        <v>199</v>
+        <v>243</v>
       </c>
       <c r="D57" t="s">
         <v>48</v>
       </c>
       <c r="E57">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F57">
-        <v>205000</v>
+        <v>123000</v>
       </c>
       <c r="G57">
-        <v>1025000</v>
+        <v>861000</v>
       </c>
       <c r="H57" t="s">
-        <v>200</v>
+        <v>244</v>
       </c>
       <c r="I57" t="s">
         <v>48</v>
@@ -9659,17 +9713,17 @@
       <c r="J57" t="s">
         <v>48</v>
       </c>
-      <c r="K57" t="s">
-        <v>48</v>
-      </c>
-      <c r="L57" t="s">
-        <v>48</v>
-      </c>
-      <c r="M57" t="s">
-        <v>48</v>
+      <c r="K57">
+        <v>7</v>
+      </c>
+      <c r="L57">
+        <v>126000</v>
+      </c>
+      <c r="M57">
+        <v>882000</v>
       </c>
       <c r="N57" t="s">
-        <v>48</v>
+        <v>245</v>
       </c>
       <c r="O57" t="s">
         <v>48</v>
@@ -9773,25 +9827,25 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>201</v>
+        <v>246</v>
       </c>
       <c r="C58" t="s">
-        <v>202</v>
+        <v>247</v>
       </c>
       <c r="D58" t="s">
         <v>48</v>
       </c>
       <c r="E58">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F58">
-        <v>105000</v>
+        <v>180000</v>
       </c>
       <c r="G58">
-        <v>735000</v>
+        <v>900000</v>
       </c>
       <c r="H58" t="s">
-        <v>203</v>
+        <v>248</v>
       </c>
       <c r="I58" t="s">
         <v>48</v>
@@ -9812,7 +9866,7 @@
         <v>48</v>
       </c>
       <c r="O58" t="s">
-        <v>48</v>
+        <v>247</v>
       </c>
       <c r="P58" t="s">
         <v>48</v>
@@ -9913,47 +9967,45 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>204</v>
+        <v>249</v>
       </c>
       <c r="C59" t="s">
-        <v>205</v>
+        <v>250</v>
       </c>
       <c r="D59" t="s">
         <v>48</v>
       </c>
-      <c r="E59" t="s">
-        <v>48</v>
-      </c>
-      <c r="F59" t="s">
-        <v>48</v>
-      </c>
-      <c r="G59" t="s">
-        <v>48</v>
+      <c r="E59">
+        <v>5</v>
+      </c>
+      <c r="F59">
+        <v>205000</v>
+      </c>
+      <c r="G59">
+        <v>1025000</v>
       </c>
       <c r="H59" t="s">
-        <v>48</v>
+        <v>251</v>
       </c>
       <c r="I59" t="s">
-        <v>205</v>
+        <v>48</v>
       </c>
       <c r="J59" t="s">
         <v>48</v>
       </c>
-      <c r="K59" t="s">
-        <v>48</v>
-      </c>
-      <c r="L59" t="s">
-        <v>48</v>
-      </c>
-      <c r="M59" t="s">
-        <v>48</v>
+      <c r="K59">
+        <v>6</v>
+      </c>
+      <c r="L59">
+        <v>145000</v>
+      </c>
+      <c r="M59">
+        <v>870000</v>
       </c>
       <c r="N59" t="s">
-        <v>48</v>
-      </c>
-      <c r="O59" t="s">
-        <v>48</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="O59"/>
       <c r="P59" t="s">
         <v>48</v>
       </c>
@@ -10053,10 +10105,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>206</v>
+        <v>253</v>
       </c>
       <c r="C60" t="s">
-        <v>207</v>
+        <v>254</v>
       </c>
       <c r="D60" t="s">
         <v>48</v>
@@ -10065,13 +10117,13 @@
         <v>7</v>
       </c>
       <c r="F60">
-        <v>210000</v>
+        <v>105000</v>
       </c>
       <c r="G60">
-        <v>1470000</v>
+        <v>735000</v>
       </c>
       <c r="H60" t="s">
-        <v>208</v>
+        <v>255</v>
       </c>
       <c r="I60" t="s">
         <v>48</v>
@@ -10079,17 +10131,17 @@
       <c r="J60" t="s">
         <v>48</v>
       </c>
-      <c r="K60" t="s">
-        <v>48</v>
-      </c>
-      <c r="L60" t="s">
-        <v>48</v>
-      </c>
-      <c r="M60" t="s">
-        <v>48</v>
+      <c r="K60">
+        <v>8</v>
+      </c>
+      <c r="L60">
+        <v>119000</v>
+      </c>
+      <c r="M60">
+        <v>952000</v>
       </c>
       <c r="N60" t="s">
-        <v>48</v>
+        <v>256</v>
       </c>
       <c r="O60" t="s">
         <v>48</v>
@@ -10193,28 +10245,28 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>209</v>
+        <v>257</v>
       </c>
       <c r="C61" t="s">
-        <v>210</v>
+        <v>258</v>
       </c>
       <c r="D61" t="s">
         <v>48</v>
       </c>
-      <c r="E61">
-        <v>6</v>
-      </c>
-      <c r="F61">
-        <v>120000</v>
-      </c>
-      <c r="G61">
-        <v>720000</v>
+      <c r="E61" t="s">
+        <v>48</v>
+      </c>
+      <c r="F61" t="s">
+        <v>48</v>
+      </c>
+      <c r="G61" t="s">
+        <v>48</v>
       </c>
       <c r="H61" t="s">
-        <v>211</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>48</v>
+        <v>258</v>
       </c>
       <c r="J61" t="s">
         <v>48</v>
@@ -10232,7 +10284,7 @@
         <v>48</v>
       </c>
       <c r="O61" t="s">
-        <v>48</v>
+        <v>258</v>
       </c>
       <c r="P61" t="s">
         <v>48</v>
@@ -10333,43 +10385,43 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>212</v>
+        <v>259</v>
       </c>
       <c r="C62" t="s">
-        <v>213</v>
+        <v>260</v>
       </c>
       <c r="D62" t="s">
         <v>48</v>
       </c>
-      <c r="E62" t="s">
-        <v>48</v>
-      </c>
-      <c r="F62" t="s">
-        <v>48</v>
-      </c>
-      <c r="G62" t="s">
-        <v>48</v>
+      <c r="E62">
+        <v>6</v>
+      </c>
+      <c r="F62">
+        <v>120000</v>
+      </c>
+      <c r="G62">
+        <v>720000</v>
       </c>
       <c r="H62" t="s">
-        <v>48</v>
+        <v>261</v>
       </c>
       <c r="I62" t="s">
-        <v>213</v>
+        <v>48</v>
       </c>
       <c r="J62" t="s">
         <v>48</v>
       </c>
-      <c r="K62" t="s">
-        <v>48</v>
-      </c>
-      <c r="L62" t="s">
-        <v>48</v>
-      </c>
-      <c r="M62" t="s">
-        <v>48</v>
+      <c r="K62">
+        <v>9</v>
+      </c>
+      <c r="L62">
+        <v>100000</v>
+      </c>
+      <c r="M62">
+        <v>900000</v>
       </c>
       <c r="N62" t="s">
-        <v>48</v>
+        <v>262</v>
       </c>
       <c r="O62" t="s">
         <v>48</v>
@@ -10473,43 +10525,43 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>214</v>
+        <v>263</v>
       </c>
       <c r="C63" t="s">
-        <v>215</v>
+        <v>264</v>
       </c>
       <c r="D63" t="s">
         <v>48</v>
       </c>
-      <c r="E63">
-        <v>5</v>
-      </c>
-      <c r="F63">
-        <v>195409</v>
-      </c>
-      <c r="G63">
-        <v>977045</v>
+      <c r="E63" t="s">
+        <v>48</v>
+      </c>
+      <c r="F63" t="s">
+        <v>48</v>
+      </c>
+      <c r="G63" t="s">
+        <v>48</v>
       </c>
       <c r="H63" t="s">
-        <v>216</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>48</v>
+        <v>264</v>
       </c>
       <c r="J63" t="s">
         <v>48</v>
       </c>
-      <c r="K63" t="s">
-        <v>48</v>
-      </c>
-      <c r="L63" t="s">
-        <v>48</v>
-      </c>
-      <c r="M63" t="s">
-        <v>48</v>
+      <c r="K63">
+        <v>7</v>
+      </c>
+      <c r="L63">
+        <v>158000</v>
+      </c>
+      <c r="M63">
+        <v>1106000</v>
       </c>
       <c r="N63" t="s">
-        <v>48</v>
+        <v>265</v>
       </c>
       <c r="O63" t="s">
         <v>48</v>
@@ -10613,10 +10665,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>217</v>
+        <v>266</v>
       </c>
       <c r="C64" t="s">
-        <v>218</v>
+        <v>267</v>
       </c>
       <c r="D64" t="s">
         <v>48</v>
@@ -10625,13 +10677,13 @@
         <v>5</v>
       </c>
       <c r="F64">
-        <v>174000</v>
+        <v>195409</v>
       </c>
       <c r="G64">
-        <v>870000</v>
+        <v>977045</v>
       </c>
       <c r="H64" t="s">
-        <v>219</v>
+        <v>268</v>
       </c>
       <c r="I64" t="s">
         <v>48</v>
@@ -10639,17 +10691,17 @@
       <c r="J64" t="s">
         <v>48</v>
       </c>
-      <c r="K64" t="s">
-        <v>48</v>
-      </c>
-      <c r="L64" t="s">
-        <v>48</v>
-      </c>
-      <c r="M64" t="s">
-        <v>48</v>
+      <c r="K64">
+        <v>15</v>
+      </c>
+      <c r="L64">
+        <v>166548</v>
+      </c>
+      <c r="M64">
+        <v>2498220</v>
       </c>
       <c r="N64" t="s">
-        <v>48</v>
+        <v>269</v>
       </c>
       <c r="O64" t="s">
         <v>48</v>
@@ -10753,25 +10805,25 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>220</v>
+        <v>270</v>
       </c>
       <c r="C65" t="s">
-        <v>221</v>
+        <v>271</v>
       </c>
       <c r="D65" t="s">
         <v>48</v>
       </c>
       <c r="E65">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F65">
-        <v>182000</v>
+        <v>174000</v>
       </c>
       <c r="G65">
-        <v>1274000</v>
+        <v>870000</v>
       </c>
       <c r="H65" t="s">
-        <v>222</v>
+        <v>272</v>
       </c>
       <c r="I65" t="s">
         <v>48</v>
@@ -10779,17 +10831,17 @@
       <c r="J65" t="s">
         <v>48</v>
       </c>
-      <c r="K65" t="s">
-        <v>48</v>
-      </c>
-      <c r="L65" t="s">
-        <v>48</v>
-      </c>
-      <c r="M65" t="s">
-        <v>48</v>
+      <c r="K65">
+        <v>6</v>
+      </c>
+      <c r="L65">
+        <v>150000</v>
+      </c>
+      <c r="M65">
+        <v>900000</v>
       </c>
       <c r="N65" t="s">
-        <v>48</v>
+        <v>273</v>
       </c>
       <c r="O65" t="s">
         <v>48</v>
@@ -10893,25 +10945,25 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>223</v>
+        <v>274</v>
       </c>
       <c r="C66" t="s">
-        <v>224</v>
+        <v>275</v>
       </c>
       <c r="D66" t="s">
         <v>48</v>
       </c>
       <c r="E66">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F66">
-        <v>194000</v>
+        <v>182000</v>
       </c>
       <c r="G66">
-        <v>970000</v>
+        <v>1274000</v>
       </c>
       <c r="H66" t="s">
-        <v>225</v>
+        <v>276</v>
       </c>
       <c r="I66" t="s">
         <v>48</v>
@@ -10919,17 +10971,17 @@
       <c r="J66" t="s">
         <v>48</v>
       </c>
-      <c r="K66" t="s">
-        <v>48</v>
-      </c>
-      <c r="L66" t="s">
-        <v>48</v>
-      </c>
-      <c r="M66" t="s">
-        <v>48</v>
+      <c r="K66">
+        <v>7</v>
+      </c>
+      <c r="L66">
+        <v>169000</v>
+      </c>
+      <c r="M66">
+        <v>1183000</v>
       </c>
       <c r="N66" t="s">
-        <v>48</v>
+        <v>277</v>
       </c>
       <c r="O66" t="s">
         <v>48</v>
@@ -11033,10 +11085,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>226</v>
+        <v>278</v>
       </c>
       <c r="C67" t="s">
-        <v>227</v>
+        <v>279</v>
       </c>
       <c r="D67" t="s">
         <v>48</v>
@@ -11045,13 +11097,13 @@
         <v>5</v>
       </c>
       <c r="F67">
-        <v>162000</v>
+        <v>194000</v>
       </c>
       <c r="G67">
-        <v>810000</v>
+        <v>970000</v>
       </c>
       <c r="H67" t="s">
-        <v>228</v>
+        <v>280</v>
       </c>
       <c r="I67" t="s">
         <v>48</v>
@@ -11059,17 +11111,17 @@
       <c r="J67" t="s">
         <v>48</v>
       </c>
-      <c r="K67" t="s">
-        <v>48</v>
-      </c>
-      <c r="L67" t="s">
-        <v>48</v>
-      </c>
-      <c r="M67" t="s">
-        <v>48</v>
+      <c r="K67">
+        <v>7</v>
+      </c>
+      <c r="L67">
+        <v>131000</v>
+      </c>
+      <c r="M67">
+        <v>917000</v>
       </c>
       <c r="N67" t="s">
-        <v>48</v>
+        <v>281</v>
       </c>
       <c r="O67" t="s">
         <v>48</v>
@@ -11173,10 +11225,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>229</v>
+        <v>282</v>
       </c>
       <c r="C68" t="s">
-        <v>230</v>
+        <v>283</v>
       </c>
       <c r="D68" t="s">
         <v>48</v>
@@ -11185,13 +11237,13 @@
         <v>5</v>
       </c>
       <c r="F68">
-        <v>161000</v>
+        <v>162000</v>
       </c>
       <c r="G68">
-        <v>805000</v>
+        <v>810000</v>
       </c>
       <c r="H68" t="s">
-        <v>231</v>
+        <v>284</v>
       </c>
       <c r="I68" t="s">
         <v>48</v>
@@ -11199,17 +11251,17 @@
       <c r="J68" t="s">
         <v>48</v>
       </c>
-      <c r="K68" t="s">
-        <v>48</v>
-      </c>
-      <c r="L68" t="s">
-        <v>48</v>
-      </c>
-      <c r="M68" t="s">
-        <v>48</v>
+      <c r="K68">
+        <v>6</v>
+      </c>
+      <c r="L68">
+        <v>164000</v>
+      </c>
+      <c r="M68">
+        <v>984000</v>
       </c>
       <c r="N68" t="s">
-        <v>48</v>
+        <v>285</v>
       </c>
       <c r="O68" t="s">
         <v>48</v>
@@ -11313,10 +11365,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>232</v>
+        <v>286</v>
       </c>
       <c r="C69" t="s">
-        <v>233</v>
+        <v>287</v>
       </c>
       <c r="D69" t="s">
         <v>48</v>
@@ -11325,13 +11377,13 @@
         <v>5</v>
       </c>
       <c r="F69">
-        <v>139000</v>
+        <v>161000</v>
       </c>
       <c r="G69">
-        <v>695000</v>
+        <v>805000</v>
       </c>
       <c r="H69" t="s">
-        <v>234</v>
+        <v>288</v>
       </c>
       <c r="I69" t="s">
         <v>48</v>
@@ -11339,17 +11391,17 @@
       <c r="J69" t="s">
         <v>48</v>
       </c>
-      <c r="K69" t="s">
-        <v>48</v>
-      </c>
-      <c r="L69" t="s">
-        <v>48</v>
-      </c>
-      <c r="M69" t="s">
-        <v>48</v>
+      <c r="K69">
+        <v>6</v>
+      </c>
+      <c r="L69">
+        <v>168000</v>
+      </c>
+      <c r="M69">
+        <v>1008000</v>
       </c>
       <c r="N69" t="s">
-        <v>48</v>
+        <v>289</v>
       </c>
       <c r="O69" t="s">
         <v>48</v>
@@ -11453,25 +11505,25 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>235</v>
+        <v>290</v>
       </c>
       <c r="C70" t="s">
-        <v>236</v>
+        <v>291</v>
       </c>
       <c r="D70" t="s">
         <v>48</v>
       </c>
       <c r="E70">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F70">
-        <v>110000</v>
+        <v>139000</v>
       </c>
       <c r="G70">
-        <v>770000</v>
+        <v>695000</v>
       </c>
       <c r="H70" t="s">
-        <v>237</v>
+        <v>292</v>
       </c>
       <c r="I70" t="s">
         <v>48</v>
@@ -11479,17 +11531,17 @@
       <c r="J70" t="s">
         <v>48</v>
       </c>
-      <c r="K70" t="s">
-        <v>48</v>
-      </c>
-      <c r="L70" t="s">
-        <v>48</v>
-      </c>
-      <c r="M70" t="s">
-        <v>48</v>
+      <c r="K70">
+        <v>6</v>
+      </c>
+      <c r="L70">
+        <v>135000</v>
+      </c>
+      <c r="M70">
+        <v>810000</v>
       </c>
       <c r="N70" t="s">
-        <v>48</v>
+        <v>293</v>
       </c>
       <c r="O70" t="s">
         <v>48</v>
@@ -11592,26 +11644,26 @@
       <c r="A71" s="1">
         <v>69</v>
       </c>
-      <c r="B71">
-        <v>1305819830</v>
+      <c r="B71" t="s">
+        <v>294</v>
       </c>
       <c r="C71" t="s">
-        <v>238</v>
+        <v>295</v>
       </c>
       <c r="D71" t="s">
         <v>48</v>
       </c>
-      <c r="E71">
-        <v>5</v>
-      </c>
-      <c r="F71">
-        <v>190000</v>
-      </c>
-      <c r="G71">
-        <v>950000</v>
+      <c r="E71" t="s">
+        <v>48</v>
+      </c>
+      <c r="F71" t="s">
+        <v>48</v>
+      </c>
+      <c r="G71" t="s">
+        <v>48</v>
       </c>
       <c r="H71" t="s">
-        <v>239</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
         <v>48</v>
@@ -11733,25 +11785,26 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>240</v>
+        <v>296</v>
       </c>
       <c r="C72" t="s">
-        <v>241</v>
+        <v>297</v>
       </c>
       <c r="D72" t="s">
         <v>48</v>
       </c>
-      <c r="E72">
-        <v>5</v>
-      </c>
-      <c r="F72">
-        <v>159000</v>
+      <c r="E72" t="s">
+        <v>48</v>
+      </c>
+      <c r="F72" t="s">
+        <v>48</v>
       </c>
       <c r="G72">
-        <v>795000</v>
+        <f>AVERAGE(G2:G70)</f>
+        <v>910615.636363636</v>
       </c>
       <c r="H72" t="s">
-        <v>242</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
         <v>48</v>
@@ -11865,287 +11918,6 @@
         <v>48</v>
       </c>
       <c r="AT72" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="73" spans="1:46">
-      <c r="A73" s="1">
-        <v>71</v>
-      </c>
-      <c r="B73">
-        <v>3430132910</v>
-      </c>
-      <c r="C73" t="s">
-        <v>243</v>
-      </c>
-      <c r="D73" t="s">
-        <v>48</v>
-      </c>
-      <c r="E73" t="s">
-        <v>48</v>
-      </c>
-      <c r="F73" t="s">
-        <v>48</v>
-      </c>
-      <c r="G73" t="s">
-        <v>48</v>
-      </c>
-      <c r="H73" t="s">
-        <v>48</v>
-      </c>
-      <c r="I73" t="s">
-        <v>48</v>
-      </c>
-      <c r="J73" t="s">
-        <v>48</v>
-      </c>
-      <c r="K73" t="s">
-        <v>48</v>
-      </c>
-      <c r="L73" t="s">
-        <v>48</v>
-      </c>
-      <c r="M73" t="s">
-        <v>48</v>
-      </c>
-      <c r="N73" t="s">
-        <v>48</v>
-      </c>
-      <c r="O73" t="s">
-        <v>48</v>
-      </c>
-      <c r="P73" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q73" t="s">
-        <v>48</v>
-      </c>
-      <c r="R73" t="s">
-        <v>48</v>
-      </c>
-      <c r="S73" t="s">
-        <v>48</v>
-      </c>
-      <c r="T73" t="s">
-        <v>48</v>
-      </c>
-      <c r="U73" t="s">
-        <v>48</v>
-      </c>
-      <c r="V73" t="s">
-        <v>48</v>
-      </c>
-      <c r="W73" t="s">
-        <v>48</v>
-      </c>
-      <c r="X73" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y73" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z73" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA73" t="s">
-        <v>48</v>
-      </c>
-      <c r="AB73" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC73" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD73" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE73" t="s">
-        <v>48</v>
-      </c>
-      <c r="AF73" t="s">
-        <v>48</v>
-      </c>
-      <c r="AG73" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH73" t="s">
-        <v>48</v>
-      </c>
-      <c r="AI73" t="s">
-        <v>48</v>
-      </c>
-      <c r="AJ73" t="s">
-        <v>48</v>
-      </c>
-      <c r="AK73" t="s">
-        <v>48</v>
-      </c>
-      <c r="AL73" t="s">
-        <v>48</v>
-      </c>
-      <c r="AM73" t="s">
-        <v>48</v>
-      </c>
-      <c r="AN73" t="s">
-        <v>48</v>
-      </c>
-      <c r="AO73" t="s">
-        <v>48</v>
-      </c>
-      <c r="AP73" t="s">
-        <v>48</v>
-      </c>
-      <c r="AQ73" t="s">
-        <v>48</v>
-      </c>
-      <c r="AR73" t="s">
-        <v>48</v>
-      </c>
-      <c r="AS73" t="s">
-        <v>48</v>
-      </c>
-      <c r="AT73" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="74" spans="1:46">
-      <c r="A74" s="1">
-        <v>72</v>
-      </c>
-      <c r="B74" t="s">
-        <v>244</v>
-      </c>
-      <c r="C74" t="s">
-        <v>245</v>
-      </c>
-      <c r="D74" t="s">
-        <v>48</v>
-      </c>
-      <c r="E74" t="s">
-        <v>48</v>
-      </c>
-      <c r="F74" t="s">
-        <v>48</v>
-      </c>
-      <c r="G74">
-        <f>AVERAGE(G2:G73)</f>
-        <v>907033.214285714</v>
-      </c>
-      <c r="H74" t="s">
-        <v>48</v>
-      </c>
-      <c r="I74" t="s">
-        <v>48</v>
-      </c>
-      <c r="J74" t="s">
-        <v>48</v>
-      </c>
-      <c r="K74" t="s">
-        <v>48</v>
-      </c>
-      <c r="L74" t="s">
-        <v>48</v>
-      </c>
-      <c r="M74" t="s">
-        <v>48</v>
-      </c>
-      <c r="N74" t="s">
-        <v>48</v>
-      </c>
-      <c r="O74" t="s">
-        <v>48</v>
-      </c>
-      <c r="P74" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q74" t="s">
-        <v>48</v>
-      </c>
-      <c r="R74" t="s">
-        <v>48</v>
-      </c>
-      <c r="S74" t="s">
-        <v>48</v>
-      </c>
-      <c r="T74" t="s">
-        <v>48</v>
-      </c>
-      <c r="U74" t="s">
-        <v>48</v>
-      </c>
-      <c r="V74" t="s">
-        <v>48</v>
-      </c>
-      <c r="W74" t="s">
-        <v>48</v>
-      </c>
-      <c r="X74" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y74" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z74" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA74" t="s">
-        <v>48</v>
-      </c>
-      <c r="AB74" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC74" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD74" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE74" t="s">
-        <v>48</v>
-      </c>
-      <c r="AF74" t="s">
-        <v>48</v>
-      </c>
-      <c r="AG74" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH74" t="s">
-        <v>48</v>
-      </c>
-      <c r="AI74" t="s">
-        <v>48</v>
-      </c>
-      <c r="AJ74" t="s">
-        <v>48</v>
-      </c>
-      <c r="AK74" t="s">
-        <v>48</v>
-      </c>
-      <c r="AL74" t="s">
-        <v>48</v>
-      </c>
-      <c r="AM74" t="s">
-        <v>48</v>
-      </c>
-      <c r="AN74" t="s">
-        <v>48</v>
-      </c>
-      <c r="AO74" t="s">
-        <v>48</v>
-      </c>
-      <c r="AP74" t="s">
-        <v>48</v>
-      </c>
-      <c r="AQ74" t="s">
-        <v>48</v>
-      </c>
-      <c r="AR74" t="s">
-        <v>48</v>
-      </c>
-      <c r="AS74" t="s">
-        <v>48</v>
-      </c>
-      <c r="AT74" t="s">
         <v>48</v>
       </c>
     </row>

--- a/落花机密表_糙汉子版.xlsx
+++ b/落花机密表_糙汉子版.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28245" windowHeight="12615"/>
+    <workbookView windowWidth="28800" windowHeight="12615"/>
   </bookViews>
   <sheets>
     <sheet name="9.9-9.15" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2873" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2678" uniqueCount="377">
   <si>
     <t>QQ</t>
   </si>
@@ -167,507 +167,681 @@
     <t>2019-09-10 18:11:23</t>
   </si>
   <si>
+    <t>2019-09-11 10:17:19</t>
+  </si>
+  <si>
     <t>happy.my.love@qq.com</t>
   </si>
   <si>
     <t>落花@冷月小猫泪【商店非凡分解没有结晶</t>
   </si>
   <si>
+    <t>2019-09-11 22:52:37</t>
+  </si>
+  <si>
+    <t>2019-09-10 17:10:49</t>
+  </si>
+  <si>
+    <t>30137763</t>
+  </si>
+  <si>
+    <t>落花樱茶【出号价格可议私我</t>
+  </si>
+  <si>
+    <t>2019-09-09 14:02:51</t>
+  </si>
+  <si>
+    <t>2019-09-11 00:26:24</t>
+  </si>
+  <si>
+    <t>1327354755</t>
+  </si>
+  <si>
+    <t>落花 清水奈绪子（错过派对，错过一亿）</t>
+  </si>
+  <si>
+    <t>2019-09-09 22:26:41</t>
+  </si>
+  <si>
+    <t>2019-09-10 20:40:11</t>
+  </si>
+  <si>
+    <t>2019-09-11 13:20:17</t>
+  </si>
+  <si>
+    <t>2605384970</t>
+  </si>
+  <si>
+    <t>落花い清茶（勿扰，谢谢）</t>
+  </si>
+  <si>
+    <t>2019-09-09 08:26:06</t>
+  </si>
+  <si>
+    <t>2019-09-10 08:25:50</t>
+  </si>
+  <si>
+    <t>2019-09-11 08:37:57</t>
+  </si>
+  <si>
+    <t>781898849</t>
+  </si>
+  <si>
+    <t>落花-KGAoi（错过派对专业户）</t>
+  </si>
+  <si>
+    <t>2019-09-09 13:43:56</t>
+  </si>
+  <si>
+    <t>2019-09-10 21:34:22</t>
+  </si>
+  <si>
+    <t>2019-09-11 19:44:42</t>
+  </si>
+  <si>
+    <t>2661759612</t>
+  </si>
+  <si>
+    <t>落花ˊૢ路希</t>
+  </si>
+  <si>
+    <t>2019-09-09 10:03:47</t>
+  </si>
+  <si>
+    <t>2019-09-10 20:02:57</t>
+  </si>
+  <si>
+    <t>2019-09-11 07:10:39</t>
+  </si>
+  <si>
+    <t>924110951</t>
+  </si>
+  <si>
+    <t>落花@楚锦妮</t>
+  </si>
+  <si>
+    <t>1584039297</t>
+  </si>
+  <si>
+    <t>落花-第四片柠檬</t>
+  </si>
+  <si>
+    <t>2019-09-09 20:10:51</t>
+  </si>
+  <si>
+    <t>2019-09-10 20:06:26</t>
+  </si>
+  <si>
+    <t>2019-09-11 07:47:18</t>
+  </si>
+  <si>
+    <t>1305819830</t>
+  </si>
+  <si>
+    <t>落花~芝士年糕</t>
+  </si>
+  <si>
+    <t>2019-09-09 10:23:05</t>
+  </si>
+  <si>
+    <t>2019-09-10 16:53:43</t>
+  </si>
+  <si>
+    <t>2019-09-11 18:28:00</t>
+  </si>
+  <si>
+    <t>1012527207</t>
+  </si>
+  <si>
+    <t>落花 阿呜</t>
+  </si>
+  <si>
+    <t>2019-09-09 22:15:33</t>
+  </si>
+  <si>
+    <t>2019-09-10 17:32:46</t>
+  </si>
+  <si>
+    <t>2019-09-11 12:31:48</t>
+  </si>
+  <si>
+    <t>9854540</t>
+  </si>
+  <si>
+    <t>落花-淼姬</t>
+  </si>
+  <si>
+    <t>2019-09-10 22:53:48</t>
+  </si>
+  <si>
+    <t>我一般就打满免费五次……</t>
+  </si>
+  <si>
+    <t>1327856459</t>
+  </si>
+  <si>
+    <t>落花  花落不沾衣</t>
+  </si>
+  <si>
+    <t>2019-09-10 17:58:39</t>
+  </si>
+  <si>
+    <t>2019-09-11 07:03:32</t>
+  </si>
+  <si>
+    <t>28854836</t>
+  </si>
+  <si>
+    <t>落花-伊莎贝拉</t>
+  </si>
+  <si>
+    <t>cydjl@qq.com</t>
+  </si>
+  <si>
+    <t>落花 花浔</t>
+  </si>
+  <si>
+    <t>2019-09-09 19:20:47</t>
+  </si>
+  <si>
+    <t>2019-09-10 17:35:23</t>
+  </si>
+  <si>
+    <t>2019-09-11 19:34:58</t>
+  </si>
+  <si>
+    <t>992526373</t>
+  </si>
+  <si>
+    <t>落花 slily</t>
+  </si>
+  <si>
+    <t>2019-09-09 12:53:10</t>
+  </si>
+  <si>
+    <t>2019-09-10 20:20:45</t>
+  </si>
+  <si>
+    <t>2019-09-11 12:50:08</t>
+  </si>
+  <si>
+    <t>974687361</t>
+  </si>
+  <si>
+    <t>落花-清水</t>
+  </si>
+  <si>
+    <t>2019-09-09 13:53:54</t>
+  </si>
+  <si>
+    <t>2019-09-10 21:19:13</t>
+  </si>
+  <si>
+    <t>2019-09-11 12:56:45</t>
+  </si>
+  <si>
+    <t>923418164</t>
+  </si>
+  <si>
+    <t>落花 千早(</t>
+  </si>
+  <si>
+    <t>2019-09-09 13:34:11</t>
+  </si>
+  <si>
+    <t>2019-09-10 17:47:31</t>
+  </si>
+  <si>
+    <t>2019-09-11 20:05:13</t>
+  </si>
+  <si>
+    <t>845423216</t>
+  </si>
+  <si>
+    <t>落花 ¿ Clear1（给我也整一个）</t>
+  </si>
+  <si>
+    <t>2019-09-09 21:11:38</t>
+  </si>
+  <si>
+    <t>2019-09-10 17:22:35</t>
+  </si>
+  <si>
+    <t>2019-09-11 06:18:31</t>
+  </si>
+  <si>
+    <t>821515617</t>
+  </si>
+  <si>
+    <t>落花-谢南</t>
+  </si>
+  <si>
+    <t>2019-09-09 20:19:47</t>
+  </si>
+  <si>
+    <t>2019-09-10 22:04:01</t>
+  </si>
+  <si>
+    <t>2019-09-11 11:49:07</t>
+  </si>
+  <si>
+    <t>793019511</t>
+  </si>
+  <si>
+    <t>落花ฅ稷晞</t>
+  </si>
+  <si>
+    <t>2019-09-09 13:22:55</t>
+  </si>
+  <si>
+    <t>2019-09-10 16:48:17</t>
+  </si>
+  <si>
+    <t>2019-09-11 12:30:40</t>
+  </si>
+  <si>
+    <t>784945709</t>
+  </si>
+  <si>
+    <t>落花.花祭夜.今天机密85w分哦</t>
+  </si>
+  <si>
+    <t>2019-09-09 20:10:27</t>
+  </si>
+  <si>
+    <t>2019-09-10 21:48:08</t>
+  </si>
+  <si>
+    <t>2019-09-11 08:25:28</t>
+  </si>
+  <si>
+    <t>779867533</t>
+  </si>
+  <si>
+    <t>落花๑顾安白</t>
+  </si>
+  <si>
+    <t>2019-09-09 14:56:51</t>
+  </si>
+  <si>
+    <t>2019-09-10 16:40:00</t>
+  </si>
+  <si>
+    <t>2019-09-11 12:11:06</t>
+  </si>
+  <si>
+    <t>769521738</t>
+  </si>
+  <si>
+    <t>落花-白茶</t>
+  </si>
+  <si>
+    <t>2019-09-09 08:50:18</t>
+  </si>
+  <si>
+    <t>2019-09-10 19:20:34</t>
+  </si>
+  <si>
+    <t>2019-09-11 11:32:02</t>
+  </si>
+  <si>
+    <t>745415648</t>
+  </si>
+  <si>
+    <t>落花 小虚</t>
+  </si>
+  <si>
+    <t>2019-09-09 13:29:36</t>
+  </si>
+  <si>
+    <t>2019-09-10 20:26:10</t>
+  </si>
+  <si>
+    <t>2019-09-11 10:17:46</t>
+  </si>
+  <si>
+    <t>727791466</t>
+  </si>
+  <si>
+    <t>落花+天辟</t>
+  </si>
+  <si>
+    <t>2019-09-09 19:23:44</t>
+  </si>
+  <si>
+    <t>2019-09-10 17:06:14</t>
+  </si>
+  <si>
+    <t>2019-09-11 08:56:11</t>
+  </si>
+  <si>
+    <t>710237833</t>
+  </si>
+  <si>
+    <t>落花 可露丽</t>
+  </si>
+  <si>
+    <t>2019-09-09 06:37:40</t>
+  </si>
+  <si>
+    <t>2019-09-10 19:41:52</t>
+  </si>
+  <si>
+    <t>2019-09-11 14:25:45</t>
+  </si>
+  <si>
+    <t>651570472</t>
+  </si>
+  <si>
+    <t>落花 EXO</t>
+  </si>
+  <si>
+    <t>2019-09-09 13:29:08</t>
+  </si>
+  <si>
+    <t>2019-09-10 17:54:52</t>
+  </si>
+  <si>
+    <t>2019-09-11 16:49:09</t>
+  </si>
+  <si>
+    <t>648875355</t>
+  </si>
+  <si>
+    <t>落花—陆阮阮</t>
+  </si>
+  <si>
+    <t>2019-09-09 13:31:35</t>
+  </si>
+  <si>
+    <t>2019-09-10 18:43:33</t>
+  </si>
+  <si>
+    <t>2019-09-11 22:23:42</t>
+  </si>
+  <si>
+    <t>535509797</t>
+  </si>
+  <si>
+    <t>落花，灰姐</t>
+  </si>
+  <si>
+    <t>2019-09-09 19:21:23</t>
+  </si>
+  <si>
+    <t>2019-09-10 19:31:37</t>
+  </si>
+  <si>
+    <t>2019-09-11 20:58:20</t>
+  </si>
+  <si>
+    <t>505644622</t>
+  </si>
+  <si>
+    <t>落花◈啾啾</t>
+  </si>
+  <si>
+    <t>2019-09-09 19:19:44</t>
+  </si>
+  <si>
+    <t>2019-09-10 21:00:54</t>
+  </si>
+  <si>
+    <t>2019-09-11 12:51:56</t>
+  </si>
+  <si>
+    <t>491384166</t>
+  </si>
+  <si>
+    <t>落花@藤原千花</t>
+  </si>
+  <si>
+    <t>2019-09-09 13:26:12</t>
+  </si>
+  <si>
+    <t>2019-09-10 17:42:13</t>
+  </si>
+  <si>
+    <t>2019-09-11 21:42:17</t>
+  </si>
+  <si>
+    <t>3504245791</t>
+  </si>
+  <si>
+    <t>落花-瓷羽</t>
+  </si>
+  <si>
+    <t>2019-09-11 12:04:32</t>
+  </si>
+  <si>
+    <t>2753247176</t>
+  </si>
+  <si>
+    <t>落花－白寄岚</t>
+  </si>
+  <si>
+    <t>2019-09-09 06:26:42</t>
+  </si>
+  <si>
+    <t>2019-09-10 19:59:48</t>
+  </si>
+  <si>
+    <t>2019-09-11 08:13:44</t>
+  </si>
+  <si>
+    <t>3476601463</t>
+  </si>
+  <si>
+    <t>落花 阿幼</t>
+  </si>
+  <si>
+    <t>2019-09-09 20:19:37</t>
+  </si>
+  <si>
+    <t>2019-09-10 19:58:05</t>
+  </si>
+  <si>
+    <t>2019-09-11 22:29:48</t>
+  </si>
+  <si>
+    <t>2971057903</t>
+  </si>
+  <si>
+    <t>落花-细语</t>
+  </si>
+  <si>
+    <t>2019-09-09 08:31:00</t>
+  </si>
+  <si>
+    <t>2019-09-10 17:43:28</t>
+  </si>
+  <si>
+    <t>2019-09-11 18:16:28</t>
+  </si>
+  <si>
+    <t>2638588219</t>
+  </si>
+  <si>
+    <t>落花-洱瓷(其他人都有括号那我也要搞一个)</t>
+  </si>
+  <si>
+    <t>2019-09-09 16:20:58</t>
+  </si>
+  <si>
+    <t>2019-09-10 16:39:10</t>
+  </si>
+  <si>
+    <t>2019-09-11 08:44:05</t>
+  </si>
+  <si>
+    <t>2473375876</t>
+  </si>
+  <si>
+    <t>落花 林咕啾（星期六jjc结算记得留次数</t>
+  </si>
+  <si>
+    <t>2019-09-09 20:18:37</t>
+  </si>
+  <si>
+    <t>2019-09-10 21:01:51</t>
+  </si>
+  <si>
+    <t>2019-09-11 17:44:12</t>
+  </si>
+  <si>
+    <t>2406417774</t>
+  </si>
+  <si>
+    <t>落花 苏其凉</t>
+  </si>
+  <si>
+    <t>2019-09-09 22:50:03</t>
+  </si>
+  <si>
+    <t>2019-09-10 22:47:31</t>
+  </si>
+  <si>
+    <t>2019-09-11 21:04:48</t>
+  </si>
+  <si>
+    <t>1941489960</t>
+  </si>
+  <si>
+    <t>落花 早纪畈枝</t>
+  </si>
+  <si>
+    <t>2019-09-09 09:43:04</t>
+  </si>
+  <si>
+    <t>2019-09-10 21:46:46</t>
+  </si>
+  <si>
+    <t>2019-09-11 13:18:41</t>
+  </si>
+  <si>
+    <t>1937237519</t>
+  </si>
+  <si>
+    <t>落花 ♏ 桃花换酒</t>
+  </si>
+  <si>
+    <t>2019-09-09 12:27:22</t>
+  </si>
+  <si>
+    <t>2019-09-10 19:34:38</t>
+  </si>
+  <si>
+    <t>2019-09-11 19:16:05</t>
+  </si>
+  <si>
+    <t>1841469477</t>
+  </si>
+  <si>
+    <t>落花-天淼</t>
+  </si>
+  <si>
+    <t>2019-09-09 19:48:58</t>
+  </si>
+  <si>
+    <t>2019-09-10 21:43:10</t>
+  </si>
+  <si>
+    <t>2019-09-11 10:50:12</t>
+  </si>
+  <si>
+    <t>1790016705</t>
+  </si>
+  <si>
+    <t>落花      魚漁。</t>
+  </si>
+  <si>
+    <t>2019-09-09 22:22:08</t>
+  </si>
+  <si>
+    <t>打卡八次11w。</t>
+  </si>
+  <si>
+    <t>2019-09-10 22:29:40</t>
+  </si>
+  <si>
+    <t>2019-09-11 21:07:12</t>
+  </si>
+  <si>
+    <t>打卡六次15w。</t>
+  </si>
+  <si>
+    <t>1755065148</t>
+  </si>
+  <si>
+    <t>落花  赖皮蛇</t>
+  </si>
+  <si>
+    <t>2019-09-09 19:20:06</t>
+  </si>
+  <si>
+    <t>2019-09-10 16:33:34</t>
+  </si>
+  <si>
+    <t>2019-09-11 12:45:43</t>
+  </si>
+  <si>
+    <t>1664171803</t>
+  </si>
+  <si>
+    <t>落花𐂂总攻大人</t>
+  </si>
+  <si>
+    <t>2019-09-09 20:45:00</t>
+  </si>
+  <si>
+    <t>2019-09-10 17:44:43</t>
+  </si>
+  <si>
+    <t>2019-09-11 10:00:05</t>
+  </si>
+  <si>
+    <t>16500928</t>
+  </si>
+  <si>
+    <t>落花 羽川</t>
+  </si>
+  <si>
+    <t>2019-09-09 22:10:31</t>
+  </si>
+  <si>
+    <t>2019-09-10 19:16:23</t>
+  </si>
+  <si>
+    <t>2019-09-11 09:02:40</t>
+  </si>
+  <si>
+    <t>15451377</t>
+  </si>
+  <si>
+    <t>落花·紫</t>
+  </si>
+  <si>
+    <t>2019-09-09 13:44:52</t>
+  </si>
+  <si>
+    <t>2019-09-10 17:30:22</t>
+  </si>
+  <si>
+    <t>2019-09-11 18:24:21</t>
+  </si>
+  <si>
+    <t>1543607287</t>
+  </si>
+  <si>
+    <t>落花兰摧玉折</t>
+  </si>
+  <si>
+    <t>2019-09-09 22:18:19</t>
+  </si>
+  <si>
     <t>2019-09-10 20:45:02</t>
   </si>
   <si>
-    <t>2019-09-10 17:10:49</t>
-  </si>
-  <si>
-    <t>30137763</t>
-  </si>
-  <si>
-    <t>落花樱茶【出号价格可议私我</t>
-  </si>
-  <si>
-    <t>2019-09-09 14:02:51</t>
-  </si>
-  <si>
-    <t>1327354755</t>
-  </si>
-  <si>
-    <t>落花 清水奈绪子（错过派对，错过一亿）</t>
-  </si>
-  <si>
-    <t>2019-09-10 20:40:11</t>
-  </si>
-  <si>
-    <t>39302003</t>
-  </si>
-  <si>
-    <t>落花 神仙</t>
-  </si>
-  <si>
-    <t>2605384970</t>
-  </si>
-  <si>
-    <t>落花い清茶（非洲酋长）</t>
-  </si>
-  <si>
-    <t>2019-09-09 08:26:06</t>
-  </si>
-  <si>
-    <t>781898849</t>
-  </si>
-  <si>
-    <t>落花-KGAoi（错过派对专业户）</t>
-  </si>
-  <si>
-    <t>2019-09-09 13:43:56</t>
-  </si>
-  <si>
-    <t>2661759612</t>
-  </si>
-  <si>
-    <t>落花ˊૢ路希</t>
-  </si>
-  <si>
-    <t>2019-09-09 10:03:47</t>
-  </si>
-  <si>
-    <t>2019-09-10 20:02:57</t>
-  </si>
-  <si>
-    <t>924110951</t>
-  </si>
-  <si>
-    <t>落花@楚锦妮</t>
-  </si>
-  <si>
-    <t>1584039297</t>
-  </si>
-  <si>
-    <t>落花-第四片柠檬</t>
-  </si>
-  <si>
-    <t>2019-09-09 20:10:51</t>
-  </si>
-  <si>
-    <t>2019-09-10 20:06:26</t>
-  </si>
-  <si>
-    <t>1305819830</t>
-  </si>
-  <si>
-    <t>落花~芝士年糕</t>
-  </si>
-  <si>
-    <t>2019-09-09 10:23:05</t>
-  </si>
-  <si>
-    <t>2019-09-10 16:53:43</t>
-  </si>
-  <si>
-    <t>1012527207</t>
-  </si>
-  <si>
-    <t>落花 阿呜</t>
-  </si>
-  <si>
-    <t>2019-09-09 15:04:53</t>
-  </si>
-  <si>
-    <t>2019-09-10 17:32:46</t>
-  </si>
-  <si>
-    <t>9854540</t>
-  </si>
-  <si>
-    <t>落花-淼姬</t>
-  </si>
-  <si>
-    <t>2019-09-10 15:26:02</t>
-  </si>
-  <si>
-    <t>1327856459</t>
-  </si>
-  <si>
-    <t>落花  花落不沾衣</t>
-  </si>
-  <si>
-    <t>2019-09-10 17:58:39</t>
-  </si>
-  <si>
-    <t>28854836</t>
-  </si>
-  <si>
-    <t>落花-伊莎贝拉</t>
-  </si>
-  <si>
-    <t>cydjl@qq.com</t>
-  </si>
-  <si>
-    <t>落花 花浔</t>
-  </si>
-  <si>
-    <t>2019-09-09 19:20:47</t>
-  </si>
-  <si>
-    <t>2019-09-10 17:35:23</t>
-  </si>
-  <si>
-    <t>992526373</t>
-  </si>
-  <si>
-    <t>落花 slily</t>
-  </si>
-  <si>
-    <t>2019-09-09 12:53:10</t>
-  </si>
-  <si>
-    <t>2019-09-10 20:20:45</t>
-  </si>
-  <si>
-    <t>974687361</t>
-  </si>
-  <si>
-    <t>落花-清水</t>
-  </si>
-  <si>
-    <t>2019-09-09 13:53:54</t>
-  </si>
-  <si>
-    <t>923418164</t>
-  </si>
-  <si>
-    <t>落花 千早(</t>
-  </si>
-  <si>
-    <t>2019-09-09 13:34:11</t>
-  </si>
-  <si>
-    <t>2019-09-10 17:47:31</t>
-  </si>
-  <si>
-    <t>845423216</t>
-  </si>
-  <si>
-    <t>落花 ¿ Clear1（给我也整一个）</t>
-  </si>
-  <si>
-    <t>2019-09-09 05:51:01</t>
-  </si>
-  <si>
-    <t>2019-09-10 17:22:35</t>
-  </si>
-  <si>
-    <t>821515617</t>
-  </si>
-  <si>
-    <t>落花-谢南</t>
-  </si>
-  <si>
-    <t>2019-09-09 20:19:47</t>
-  </si>
-  <si>
-    <t>793019511</t>
-  </si>
-  <si>
-    <t>落花ฅ稷晞</t>
-  </si>
-  <si>
-    <t>2019-09-09 13:22:55</t>
-  </si>
-  <si>
-    <t>2019-09-10 16:48:17</t>
-  </si>
-  <si>
-    <t>784945709</t>
-  </si>
-  <si>
-    <t>落花.花祭夜.今天机密68w分哦</t>
-  </si>
-  <si>
-    <t>2019-09-09 09:57:45</t>
-  </si>
-  <si>
-    <t>落花.花祭夜.今天机密85w分哦</t>
-  </si>
-  <si>
-    <t>779867533</t>
-  </si>
-  <si>
-    <t>落花๑顾安白</t>
-  </si>
-  <si>
-    <t>2019-09-09 14:56:51</t>
-  </si>
-  <si>
-    <t>2019-09-10 16:40:00</t>
-  </si>
-  <si>
-    <t>769521738</t>
-  </si>
-  <si>
-    <t>落花-白茶</t>
-  </si>
-  <si>
-    <t>2019-09-09 08:50:18</t>
-  </si>
-  <si>
-    <t>2019-09-10 19:20:34</t>
-  </si>
-  <si>
-    <t>745415648</t>
-  </si>
-  <si>
-    <t>落花 小虚</t>
-  </si>
-  <si>
-    <t>2019-09-09 13:29:36</t>
-  </si>
-  <si>
-    <t>2019-09-10 20:26:10</t>
-  </si>
-  <si>
-    <t>727791466</t>
-  </si>
-  <si>
-    <t>落花+天辟</t>
-  </si>
-  <si>
-    <t>2019-09-09 19:23:44</t>
-  </si>
-  <si>
-    <t>2019-09-10 17:06:14</t>
-  </si>
-  <si>
-    <t>710237833</t>
-  </si>
-  <si>
-    <t>落花 可露丽</t>
-  </si>
-  <si>
-    <t>2019-09-09 06:37:40</t>
-  </si>
-  <si>
-    <t>2019-09-10 19:41:52</t>
-  </si>
-  <si>
-    <t>651570472</t>
-  </si>
-  <si>
-    <t>落花 EXO</t>
-  </si>
-  <si>
-    <t>2019-09-09 13:29:08</t>
-  </si>
-  <si>
-    <t>2019-09-10 17:54:52</t>
-  </si>
-  <si>
-    <t>648875355</t>
-  </si>
-  <si>
-    <t>落花—陆阮阮</t>
-  </si>
-  <si>
-    <t>2019-09-09 13:31:35</t>
-  </si>
-  <si>
-    <t>2019-09-10 18:43:33</t>
-  </si>
-  <si>
-    <t>535509797</t>
-  </si>
-  <si>
-    <t>落花，灰姐</t>
-  </si>
-  <si>
-    <t>2019-09-09 19:21:23</t>
-  </si>
-  <si>
-    <t>2019-09-10 19:31:37</t>
-  </si>
-  <si>
-    <t>505644622</t>
-  </si>
-  <si>
-    <t>落花◈啾啾</t>
-  </si>
-  <si>
-    <t>2019-09-09 19:19:44</t>
-  </si>
-  <si>
-    <t>491384166</t>
-  </si>
-  <si>
-    <t>落花@藤原千花</t>
-  </si>
-  <si>
-    <t>2019-09-09 13:26:12</t>
-  </si>
-  <si>
-    <t>2019-09-10 17:42:13</t>
-  </si>
-  <si>
-    <t>3504245791</t>
-  </si>
-  <si>
-    <t>落花-瓷羽</t>
-  </si>
-  <si>
-    <t>2753247176</t>
-  </si>
-  <si>
-    <t>落花－白寄岚</t>
-  </si>
-  <si>
-    <t>2019-09-09 06:26:42</t>
-  </si>
-  <si>
-    <t>2019-09-10 19:59:48</t>
-  </si>
-  <si>
-    <t>3476601463</t>
-  </si>
-  <si>
-    <t>落花 阿幼</t>
-  </si>
-  <si>
-    <t>2019-09-09 20:19:37</t>
-  </si>
-  <si>
-    <t>2019-09-10 19:58:05</t>
-  </si>
-  <si>
-    <t>2971057903</t>
-  </si>
-  <si>
-    <t>落花-细语</t>
-  </si>
-  <si>
-    <t>2019-09-09 08:31:00</t>
-  </si>
-  <si>
-    <t>2019-09-10 17:43:28</t>
-  </si>
-  <si>
-    <t>2638588219</t>
-  </si>
-  <si>
-    <t>落花-洱瓷(其他人都有括号那我也要搞一个)</t>
-  </si>
-  <si>
-    <t>2019-09-09 16:20:58</t>
-  </si>
-  <si>
-    <t>2019-09-10 16:39:10</t>
-  </si>
-  <si>
-    <t>2473375876</t>
-  </si>
-  <si>
-    <t>落花 林咕啾（星期六jjc结算记得留次数</t>
-  </si>
-  <si>
-    <t>2019-09-09 13:19:07</t>
-  </si>
-  <si>
-    <t>2019-09-10 19:24:10</t>
-  </si>
-  <si>
-    <t>2406417774</t>
-  </si>
-  <si>
-    <t>落花 苏其凉</t>
-  </si>
-  <si>
-    <t>1941489960</t>
-  </si>
-  <si>
-    <t>落花 早纪畈枝</t>
-  </si>
-  <si>
-    <t>2019-09-09 09:43:04</t>
-  </si>
-  <si>
-    <t>1937237519</t>
-  </si>
-  <si>
-    <t>落花 ♏ 桃花换酒</t>
-  </si>
-  <si>
-    <t>2019-09-09 12:27:22</t>
-  </si>
-  <si>
-    <t>2019-09-10 19:34:38</t>
-  </si>
-  <si>
-    <t>1841469477</t>
-  </si>
-  <si>
-    <t>落花-天淼</t>
-  </si>
-  <si>
-    <t>2019-09-09 19:48:58</t>
-  </si>
-  <si>
-    <t>1790016705</t>
-  </si>
-  <si>
-    <t>落花      魚漁。</t>
-  </si>
-  <si>
-    <t>1755065148</t>
-  </si>
-  <si>
-    <t>落花  赖皮蛇</t>
-  </si>
-  <si>
-    <t>2019-09-09 19:20:06</t>
-  </si>
-  <si>
-    <t>2019-09-10 16:33:34</t>
-  </si>
-  <si>
-    <t>1664171803</t>
-  </si>
-  <si>
-    <t>落花ෆ总攻大人</t>
-  </si>
-  <si>
-    <t>2019-09-09 09:51:33</t>
-  </si>
-  <si>
-    <t>2019-09-10 17:44:43</t>
-  </si>
-  <si>
-    <t>16500928</t>
-  </si>
-  <si>
-    <t>落花 羽川</t>
-  </si>
-  <si>
-    <t>2019-09-09 09:09:39</t>
-  </si>
-  <si>
-    <t>2019-09-10 19:16:23</t>
-  </si>
-  <si>
-    <t>15451377</t>
-  </si>
-  <si>
-    <t>落花·紫</t>
-  </si>
-  <si>
-    <t>2019-09-09 13:44:52</t>
-  </si>
-  <si>
-    <t>2019-09-10 17:30:22</t>
-  </si>
-  <si>
-    <t>1543607287</t>
-  </si>
-  <si>
-    <t>落花兰摧玉折</t>
-  </si>
-  <si>
     <t>1393363961</t>
   </si>
   <si>
@@ -680,6 +854,9 @@
     <t>2019-09-10 19:17:15</t>
   </si>
   <si>
+    <t>2019-09-11 19:16:24</t>
+  </si>
+  <si>
     <t>1369593175</t>
   </si>
   <si>
@@ -692,6 +869,9 @@
     <t>2019-09-10 16:39:30</t>
   </si>
   <si>
+    <t>2019-09-11 15:27:09</t>
+  </si>
+  <si>
     <t>1369562367</t>
   </si>
   <si>
@@ -704,12 +884,18 @@
     <t>2019-09-10 19:19:19</t>
   </si>
   <si>
+    <t>2019-09-11 13:35:39</t>
+  </si>
+  <si>
     <t>1239530393</t>
   </si>
   <si>
     <t>落花" 苏久久【樱茶的腿部挂件一号】</t>
   </si>
   <si>
+    <t>2019-09-09 22:15:58</t>
+  </si>
+  <si>
     <t>落花" 苏久久</t>
   </si>
   <si>
@@ -725,10 +911,13 @@
     <t>2019-09-09 13:38:39</t>
   </si>
   <si>
-    <t>2019-09-10 16:56:43</t>
-  </si>
-  <si>
-    <t>@落花 蓝二 这次也像海滩一样，衣服对迷宫闯关有加成是么</t>
+    <t>2019-09-10 22:45:10</t>
+  </si>
+  <si>
+    <t>2019-09-11 11:50:09</t>
+  </si>
+  <si>
+    <t>分子3次，分母2次</t>
   </si>
   <si>
     <t>121398489</t>
@@ -755,6 +944,9 @@
     <t>2019-09-10 19:19:54</t>
   </si>
   <si>
+    <t>2019-09-11 15:49:20</t>
+  </si>
+  <si>
     <t>1055498540</t>
   </si>
   <si>
@@ -776,24 +968,39 @@
     <t>2019-09-10 20:33:01</t>
   </si>
   <si>
+    <t>2019-09-11 06:04:36</t>
+  </si>
+  <si>
     <t>1040250547</t>
   </si>
   <si>
     <t>落花ʚ阿喵王子他父王ɞ</t>
   </si>
   <si>
-    <t>2019-09-09 14:00:19</t>
+    <t>2019-09-09 23:00:36</t>
   </si>
   <si>
     <t>2019-09-10 19:56:57</t>
   </si>
   <si>
+    <t>2019-09-11 12:53:18</t>
+  </si>
+  <si>
     <t>1025385659</t>
   </si>
   <si>
     <t>落花 柚歆</t>
   </si>
   <si>
+    <t>2019-09-09 22:17:13</t>
+  </si>
+  <si>
+    <t>2019-09-10 21:51:52</t>
+  </si>
+  <si>
+    <t>2019-09-11 22:43:00</t>
+  </si>
+  <si>
     <t>17535862313</t>
   </si>
   <si>
@@ -806,15 +1013,24 @@
     <t>2019-09-10 18:55:29</t>
   </si>
   <si>
+    <t>2019-09-11 09:14:44</t>
+  </si>
+  <si>
     <t>2126851254</t>
   </si>
   <si>
     <t>落花  啾啾哧哧</t>
   </si>
   <si>
+    <t>2019-09-09 22:36:28</t>
+  </si>
+  <si>
     <t>2019-09-10 17:49:27</t>
   </si>
   <si>
+    <t>2019-09-11 19:29:57</t>
+  </si>
+  <si>
     <t>641204920</t>
   </si>
   <si>
@@ -839,18 +1055,24 @@
     <t>2019-09-10 19:18:59</t>
   </si>
   <si>
+    <t>2019-09-11 13:03:59</t>
+  </si>
+  <si>
     <t>965462652</t>
   </si>
   <si>
     <t>落花*终年欧巴（括号里写点啥）</t>
   </si>
   <si>
-    <t>2019-09-09 14:16:23</t>
+    <t>2019-09-09 20:16:37</t>
   </si>
   <si>
     <t>2019-09-10 18:35:43</t>
   </si>
   <si>
+    <t>2019-09-11 12:23:21</t>
+  </si>
+  <si>
     <t>2953487480</t>
   </si>
   <si>
@@ -863,6 +1085,9 @@
     <t>2019-09-10 17:54:09</t>
   </si>
   <si>
+    <t>2019-09-11 18:54:13</t>
+  </si>
+  <si>
     <t>1003242662</t>
   </si>
   <si>
@@ -875,6 +1100,9 @@
     <t>2019-09-10 17:05:39</t>
   </si>
   <si>
+    <t>2019-09-11 12:59:55</t>
+  </si>
+  <si>
     <t>957600168</t>
   </si>
   <si>
@@ -887,6 +1115,9 @@
     <t>2019-09-10 17:19:23</t>
   </si>
   <si>
+    <t>2019-09-11 09:23:53</t>
+  </si>
+  <si>
     <t>3191053965</t>
   </si>
   <si>
@@ -899,16 +1130,22 @@
     <t>2019-09-10 19:24:06</t>
   </si>
   <si>
-    <t>1441657502</t>
-  </si>
-  <si>
-    <t>落花 樱井</t>
+    <t>2019-09-11 22:49:35</t>
+  </si>
+  <si>
+    <t>落花 Pixiv</t>
   </si>
   <si>
     <t>-1</t>
   </si>
   <si>
     <t>总计</t>
+  </si>
+  <si>
+    <t>1971954551</t>
+  </si>
+  <si>
+    <t>落花*凛喵</t>
   </si>
 </sst>
 </file>
@@ -916,11 +1153,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -938,16 +1175,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -961,7 +1212,61 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -976,22 +1281,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1006,77 +1312,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1088,6 +1325,36 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1103,13 +1370,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1121,19 +1430,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1151,55 +1490,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1211,67 +1508,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1300,6 +1537,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1311,26 +1557,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1353,8 +1579,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1362,8 +1588,23 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1383,17 +1624,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1403,10 +1640,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1415,133 +1652,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1899,8 +2136,8 @@
   <sheetPr/>
   <dimension ref="A1:AT72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E22" workbookViewId="0">
-      <selection activeCell="M45" sqref="M45"/>
+    <sheetView tabSelected="1" topLeftCell="H37" workbookViewId="0">
+      <selection activeCell="O66" sqref="O66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1910,19 +2147,20 @@
     <col min="3" max="3" width="41.25" customWidth="1"/>
     <col min="4" max="4" width="21.5" customWidth="1"/>
     <col min="5" max="6" width="7.625" customWidth="1"/>
-    <col min="7" max="7" width="12.625" customWidth="1"/>
+    <col min="7" max="7" width="11.5" customWidth="1"/>
     <col min="8" max="8" width="21.5" customWidth="1"/>
     <col min="9" max="9" width="17.5" customWidth="1"/>
-    <col min="10" max="10" width="11.875" customWidth="1"/>
+    <col min="10" max="10" width="14.125" customWidth="1"/>
     <col min="11" max="12" width="7.625" customWidth="1"/>
     <col min="13" max="13" width="8.375" customWidth="1"/>
     <col min="14" max="14" width="21.5" customWidth="1"/>
-    <col min="15" max="15" width="39" customWidth="1"/>
-    <col min="16" max="16" width="55.875" customWidth="1"/>
-    <col min="17" max="19" width="7.625" customWidth="1"/>
-    <col min="20" max="20" width="11.875" customWidth="1"/>
+    <col min="15" max="15" width="7.625" customWidth="1"/>
+    <col min="16" max="16" width="25.375" customWidth="1"/>
+    <col min="17" max="18" width="7.625" customWidth="1"/>
+    <col min="19" max="19" width="8.375" customWidth="1"/>
+    <col min="20" max="20" width="21.5" customWidth="1"/>
     <col min="21" max="21" width="7.625" customWidth="1"/>
-    <col min="22" max="22" width="11.875" customWidth="1"/>
+    <col min="22" max="22" width="17.25" customWidth="1"/>
     <col min="23" max="25" width="7.625" customWidth="1"/>
     <col min="26" max="26" width="11.875" customWidth="1"/>
     <col min="27" max="27" width="7.625" customWidth="1"/>
@@ -2127,17 +2365,17 @@
       <c r="P2" t="s">
         <v>48</v>
       </c>
-      <c r="Q2" t="s">
-        <v>48</v>
-      </c>
-      <c r="R2" t="s">
-        <v>48</v>
-      </c>
-      <c r="S2" t="s">
-        <v>48</v>
+      <c r="Q2">
+        <v>7</v>
+      </c>
+      <c r="R2">
+        <v>122000</v>
+      </c>
+      <c r="S2">
+        <v>854000</v>
       </c>
       <c r="T2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="U2" t="s">
         <v>48</v>
@@ -2223,13 +2461,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E3" t="s">
         <v>48</v>
@@ -2259,10 +2497,14 @@
         <v>1150000</v>
       </c>
       <c r="N3" t="s">
-        <v>53</v>
-      </c>
-      <c r="O3"/>
-      <c r="P3"/>
+        <v>54</v>
+      </c>
+      <c r="O3" t="s">
+        <v>48</v>
+      </c>
+      <c r="P3" t="s">
+        <v>48</v>
+      </c>
       <c r="Q3" t="s">
         <v>48</v>
       </c>
@@ -2278,8 +2520,9 @@
       <c r="U3" t="s">
         <v>48</v>
       </c>
-      <c r="V3" t="s">
-        <v>48</v>
+      <c r="V3" t="str">
+        <f>C3</f>
+        <v>落花@冷月小猫泪【商店非凡分解没有结晶</v>
       </c>
       <c r="W3" t="s">
         <v>48</v>
@@ -2359,10 +2602,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D4" t="s">
         <v>48</v>
@@ -2377,7 +2620,7 @@
         <v>2310000</v>
       </c>
       <c r="H4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I4" t="s">
         <v>48</v>
@@ -2385,20 +2628,24 @@
       <c r="J4" t="s">
         <v>48</v>
       </c>
-      <c r="K4" t="s">
-        <v>48</v>
-      </c>
-      <c r="L4" t="s">
-        <v>48</v>
-      </c>
-      <c r="M4" t="s">
-        <v>48</v>
+      <c r="K4">
+        <v>9</v>
+      </c>
+      <c r="L4">
+        <v>330000</v>
+      </c>
+      <c r="M4">
+        <v>2970000</v>
       </c>
       <c r="N4" t="s">
-        <v>48</v>
-      </c>
-      <c r="O4"/>
-      <c r="P4"/>
+        <v>58</v>
+      </c>
+      <c r="O4" t="s">
+        <v>48</v>
+      </c>
+      <c r="P4" t="s">
+        <v>48</v>
+      </c>
       <c r="Q4" t="s">
         <v>48</v>
       </c>
@@ -2414,8 +2661,9 @@
       <c r="U4" t="s">
         <v>48</v>
       </c>
-      <c r="V4" t="s">
-        <v>48</v>
+      <c r="V4" t="str">
+        <f>C4</f>
+        <v>落花樱茶【出号价格可议私我</v>
       </c>
       <c r="W4" t="s">
         <v>48</v>
@@ -2495,25 +2743,25 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D5" t="s">
         <v>48</v>
       </c>
-      <c r="E5" t="s">
-        <v>48</v>
-      </c>
-      <c r="F5" t="s">
-        <v>48</v>
-      </c>
-      <c r="G5" t="s">
-        <v>48</v>
+      <c r="E5">
+        <v>6</v>
+      </c>
+      <c r="F5">
+        <v>159000</v>
+      </c>
+      <c r="G5">
+        <v>954000</v>
       </c>
       <c r="H5" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="I5" t="s">
         <v>48</v>
@@ -2531,21 +2779,25 @@
         <v>954000</v>
       </c>
       <c r="N5" t="s">
-        <v>59</v>
-      </c>
-      <c r="O5"/>
-      <c r="P5"/>
-      <c r="Q5" t="s">
-        <v>48</v>
-      </c>
-      <c r="R5" t="s">
-        <v>48</v>
-      </c>
-      <c r="S5" t="s">
-        <v>48</v>
+        <v>62</v>
+      </c>
+      <c r="O5" t="s">
+        <v>48</v>
+      </c>
+      <c r="P5" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q5">
+        <v>6</v>
+      </c>
+      <c r="R5">
+        <v>160000</v>
+      </c>
+      <c r="S5">
+        <v>960000</v>
       </c>
       <c r="T5" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="U5" t="s">
         <v>48</v>
@@ -2628,28 +2880,28 @@
     </row>
     <row r="6" spans="1:46">
       <c r="A6" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C6" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D6" t="s">
         <v>48</v>
       </c>
-      <c r="E6" t="s">
-        <v>48</v>
-      </c>
-      <c r="F6" t="s">
-        <v>48</v>
-      </c>
-      <c r="G6" t="s">
-        <v>48</v>
+      <c r="E6">
+        <v>7</v>
+      </c>
+      <c r="F6">
+        <v>210000</v>
+      </c>
+      <c r="G6">
+        <v>1470000</v>
       </c>
       <c r="H6" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="I6" t="s">
         <v>48</v>
@@ -2657,31 +2909,35 @@
       <c r="J6" t="s">
         <v>48</v>
       </c>
-      <c r="K6" t="s">
-        <v>48</v>
-      </c>
-      <c r="L6" t="s">
-        <v>48</v>
-      </c>
-      <c r="M6" t="s">
-        <v>48</v>
+      <c r="K6">
+        <v>5</v>
+      </c>
+      <c r="L6">
+        <v>260000</v>
+      </c>
+      <c r="M6">
+        <v>1300000</v>
       </c>
       <c r="N6" t="s">
-        <v>48</v>
-      </c>
-      <c r="O6"/>
-      <c r="P6"/>
-      <c r="Q6" t="s">
-        <v>48</v>
-      </c>
-      <c r="R6" t="s">
-        <v>48</v>
-      </c>
-      <c r="S6" t="s">
-        <v>48</v>
+        <v>67</v>
+      </c>
+      <c r="O6" t="s">
+        <v>48</v>
+      </c>
+      <c r="P6" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q6">
+        <v>5</v>
+      </c>
+      <c r="R6">
+        <v>268000</v>
+      </c>
+      <c r="S6">
+        <v>1340000</v>
       </c>
       <c r="T6" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="U6" t="s">
         <v>48</v>
@@ -2764,60 +3020,64 @@
     </row>
     <row r="7" spans="1:46">
       <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E7">
+      <c r="F7">
+        <v>256000</v>
+      </c>
+      <c r="G7">
+        <v>1280000</v>
+      </c>
+      <c r="H7" t="s">
+        <v>71</v>
+      </c>
+      <c r="I7" t="s">
+        <v>48</v>
+      </c>
+      <c r="J7" t="s">
+        <v>48</v>
+      </c>
+      <c r="K7">
         <v>7</v>
       </c>
-      <c r="F7">
-        <v>210000</v>
-      </c>
-      <c r="G7">
-        <v>1470000</v>
-      </c>
-      <c r="H7" t="s">
-        <v>64</v>
-      </c>
-      <c r="I7" t="s">
-        <v>48</v>
-      </c>
-      <c r="J7" t="s">
-        <v>48</v>
-      </c>
-      <c r="K7" t="s">
-        <v>48</v>
-      </c>
-      <c r="L7" t="s">
-        <v>48</v>
-      </c>
-      <c r="M7" t="s">
-        <v>48</v>
+      <c r="L7">
+        <v>266000</v>
+      </c>
+      <c r="M7">
+        <v>1862000</v>
       </c>
       <c r="N7" t="s">
-        <v>48</v>
-      </c>
-      <c r="O7"/>
-      <c r="P7"/>
-      <c r="Q7" t="s">
-        <v>48</v>
-      </c>
-      <c r="R7" t="s">
-        <v>48</v>
-      </c>
-      <c r="S7" t="s">
-        <v>48</v>
+        <v>72</v>
+      </c>
+      <c r="O7" t="s">
+        <v>48</v>
+      </c>
+      <c r="P7" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q7">
+        <v>7</v>
+      </c>
+      <c r="R7">
+        <v>273000</v>
+      </c>
+      <c r="S7">
+        <v>1911000</v>
       </c>
       <c r="T7" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="U7" t="s">
         <v>48</v>
@@ -2900,13 +3160,13 @@
     </row>
     <row r="8" spans="1:46">
       <c r="A8" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="C8" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="D8" t="s">
         <v>48</v>
@@ -2915,13 +3175,13 @@
         <v>5</v>
       </c>
       <c r="F8">
-        <v>256000</v>
+        <v>161289</v>
       </c>
       <c r="G8">
-        <v>1280000</v>
+        <v>806445</v>
       </c>
       <c r="H8" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="I8" t="s">
         <v>48</v>
@@ -2929,31 +3189,35 @@
       <c r="J8" t="s">
         <v>48</v>
       </c>
-      <c r="K8" t="s">
-        <v>48</v>
-      </c>
-      <c r="L8" t="s">
-        <v>48</v>
-      </c>
-      <c r="M8" t="s">
-        <v>48</v>
+      <c r="K8">
+        <v>7</v>
+      </c>
+      <c r="L8">
+        <v>131562</v>
+      </c>
+      <c r="M8">
+        <v>920934</v>
       </c>
       <c r="N8" t="s">
-        <v>48</v>
-      </c>
-      <c r="O8"/>
-      <c r="P8"/>
-      <c r="Q8" t="s">
-        <v>48</v>
-      </c>
-      <c r="R8" t="s">
-        <v>48</v>
-      </c>
-      <c r="S8" t="s">
-        <v>48</v>
+        <v>77</v>
+      </c>
+      <c r="O8" t="s">
+        <v>48</v>
+      </c>
+      <c r="P8" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q8">
+        <v>6</v>
+      </c>
+      <c r="R8">
+        <v>144018</v>
+      </c>
+      <c r="S8">
+        <v>864108</v>
       </c>
       <c r="T8" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="U8" t="s">
         <v>48</v>
@@ -3036,49 +3300,53 @@
     </row>
     <row r="9" spans="1:46">
       <c r="A9" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="C9" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="D9" t="s">
         <v>48</v>
       </c>
-      <c r="E9">
-        <v>5</v>
-      </c>
-      <c r="F9">
-        <v>161289</v>
-      </c>
-      <c r="G9">
-        <v>806445</v>
+      <c r="E9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" t="s">
+        <v>48</v>
       </c>
       <c r="H9" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="J9" t="s">
         <v>48</v>
       </c>
-      <c r="K9">
-        <v>7</v>
-      </c>
-      <c r="L9">
-        <v>131562</v>
-      </c>
-      <c r="M9">
-        <v>920934</v>
+      <c r="K9" t="s">
+        <v>48</v>
+      </c>
+      <c r="L9" t="s">
+        <v>48</v>
+      </c>
+      <c r="M9" t="s">
+        <v>48</v>
       </c>
       <c r="N9" t="s">
-        <v>71</v>
-      </c>
-      <c r="O9"/>
-      <c r="P9"/>
+        <v>48</v>
+      </c>
+      <c r="O9" t="s">
+        <v>48</v>
+      </c>
+      <c r="P9" t="s">
+        <v>48</v>
+      </c>
       <c r="Q9" t="s">
         <v>48</v>
       </c>
@@ -3094,8 +3362,9 @@
       <c r="U9" t="s">
         <v>48</v>
       </c>
-      <c r="V9" t="s">
-        <v>48</v>
+      <c r="V9" t="str">
+        <f>C9</f>
+        <v>落花@楚锦妮</v>
       </c>
       <c r="W9" t="s">
         <v>48</v>
@@ -3172,60 +3441,64 @@
     </row>
     <row r="10" spans="1:46">
       <c r="A10" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="C10" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="D10" t="s">
         <v>48</v>
       </c>
-      <c r="E10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F10" t="s">
-        <v>48</v>
-      </c>
-      <c r="G10" t="s">
-        <v>48</v>
+      <c r="E10">
+        <v>7</v>
+      </c>
+      <c r="F10">
+        <v>110000</v>
+      </c>
+      <c r="G10">
+        <v>770000</v>
       </c>
       <c r="H10" t="s">
-        <v>48</v>
+        <v>83</v>
       </c>
       <c r="I10" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="J10" t="s">
         <v>48</v>
       </c>
-      <c r="K10" t="s">
-        <v>48</v>
-      </c>
-      <c r="L10" t="s">
-        <v>48</v>
-      </c>
-      <c r="M10" t="s">
-        <v>48</v>
+      <c r="K10">
+        <v>7</v>
+      </c>
+      <c r="L10">
+        <v>137000</v>
+      </c>
+      <c r="M10">
+        <v>959000</v>
       </c>
       <c r="N10" t="s">
-        <v>48</v>
-      </c>
-      <c r="O10"/>
-      <c r="P10"/>
-      <c r="Q10" t="s">
-        <v>48</v>
-      </c>
-      <c r="R10" t="s">
-        <v>48</v>
-      </c>
-      <c r="S10" t="s">
-        <v>48</v>
+        <v>84</v>
+      </c>
+      <c r="O10" t="s">
+        <v>48</v>
+      </c>
+      <c r="P10" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q10">
+        <v>7</v>
+      </c>
+      <c r="R10">
+        <v>125000</v>
+      </c>
+      <c r="S10">
+        <v>875000</v>
       </c>
       <c r="T10" t="s">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="U10" t="s">
         <v>48</v>
@@ -3308,28 +3581,28 @@
     </row>
     <row r="11" spans="1:46">
       <c r="A11" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="C11" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="D11" t="s">
         <v>48</v>
       </c>
       <c r="E11">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F11">
-        <v>110000</v>
+        <v>190000</v>
       </c>
       <c r="G11">
-        <v>770000</v>
+        <v>950000</v>
       </c>
       <c r="H11" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I11" t="s">
         <v>48</v>
@@ -3338,32 +3611,34 @@
         <v>48</v>
       </c>
       <c r="K11">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L11">
-        <v>137000</v>
+        <v>180000</v>
       </c>
       <c r="M11">
-        <v>959000</v>
+        <v>900000</v>
       </c>
       <c r="N11" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="O11" t="s">
         <v>48</v>
       </c>
-      <c r="P11"/>
-      <c r="Q11" t="s">
-        <v>48</v>
-      </c>
-      <c r="R11" t="s">
-        <v>48</v>
-      </c>
-      <c r="S11" t="s">
-        <v>48</v>
+      <c r="P11" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q11">
+        <v>5</v>
+      </c>
+      <c r="R11">
+        <v>190000</v>
+      </c>
+      <c r="S11">
+        <v>950000</v>
       </c>
       <c r="T11" t="s">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="U11" t="s">
         <v>48</v>
@@ -3446,13 +3721,13 @@
     </row>
     <row r="12" spans="1:46">
       <c r="A12" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="C12" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="D12" t="s">
         <v>48</v>
@@ -3461,13 +3736,13 @@
         <v>5</v>
       </c>
       <c r="F12">
-        <v>190000</v>
+        <v>159000</v>
       </c>
       <c r="G12">
-        <v>950000</v>
+        <v>795000</v>
       </c>
       <c r="H12" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="I12" t="s">
         <v>48</v>
@@ -3476,32 +3751,34 @@
         <v>48</v>
       </c>
       <c r="K12">
+        <v>7</v>
+      </c>
+      <c r="L12">
+        <v>144000</v>
+      </c>
+      <c r="M12">
+        <v>1008000</v>
+      </c>
+      <c r="N12" t="s">
+        <v>94</v>
+      </c>
+      <c r="O12" t="s">
+        <v>48</v>
+      </c>
+      <c r="P12" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q12">
         <v>5</v>
       </c>
-      <c r="L12">
-        <v>180000</v>
-      </c>
-      <c r="M12">
-        <v>900000</v>
-      </c>
-      <c r="N12" t="s">
-        <v>81</v>
-      </c>
-      <c r="O12" t="s">
-        <v>48</v>
-      </c>
-      <c r="P12"/>
-      <c r="Q12" t="s">
-        <v>48</v>
-      </c>
-      <c r="R12" t="s">
-        <v>48</v>
-      </c>
-      <c r="S12" t="s">
-        <v>48</v>
+      <c r="R12">
+        <v>171000</v>
+      </c>
+      <c r="S12">
+        <v>855000</v>
       </c>
       <c r="T12" t="s">
-        <v>48</v>
+        <v>95</v>
       </c>
       <c r="U12" t="s">
         <v>48</v>
@@ -3584,28 +3861,28 @@
     </row>
     <row r="13" spans="1:46">
       <c r="A13" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="C13" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="D13" t="s">
         <v>48</v>
       </c>
-      <c r="E13">
-        <v>5</v>
-      </c>
-      <c r="F13">
-        <v>159000</v>
-      </c>
-      <c r="G13">
-        <v>795000</v>
+      <c r="E13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" t="s">
+        <v>48</v>
+      </c>
+      <c r="G13" t="s">
+        <v>48</v>
       </c>
       <c r="H13" t="s">
-        <v>84</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
         <v>48</v>
@@ -3613,22 +3890,24 @@
       <c r="J13" t="s">
         <v>48</v>
       </c>
-      <c r="K13">
-        <v>7</v>
-      </c>
-      <c r="L13">
-        <v>144000</v>
-      </c>
-      <c r="M13">
-        <v>1008000</v>
+      <c r="K13" t="s">
+        <v>48</v>
+      </c>
+      <c r="L13" t="s">
+        <v>48</v>
+      </c>
+      <c r="M13" t="s">
+        <v>48</v>
       </c>
       <c r="N13" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="O13" t="s">
         <v>48</v>
       </c>
-      <c r="P13"/>
+      <c r="P13" t="s">
+        <v>99</v>
+      </c>
       <c r="Q13" t="s">
         <v>48</v>
       </c>
@@ -3644,8 +3923,9 @@
       <c r="U13" t="s">
         <v>48</v>
       </c>
-      <c r="V13" t="s">
-        <v>48</v>
+      <c r="V13" t="str">
+        <f>C13</f>
+        <v>落花-淼姬</v>
       </c>
       <c r="W13" t="s">
         <v>48</v>
@@ -3722,13 +4002,13 @@
     </row>
     <row r="14" spans="1:46">
       <c r="A14" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="C14" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="D14" t="s">
         <v>48</v>
@@ -3751,31 +4031,35 @@
       <c r="J14" t="s">
         <v>48</v>
       </c>
-      <c r="K14" t="s">
-        <v>48</v>
-      </c>
-      <c r="L14" t="s">
-        <v>48</v>
-      </c>
-      <c r="M14" t="s">
-        <v>48</v>
+      <c r="K14">
+        <v>6</v>
+      </c>
+      <c r="L14">
+        <v>152000</v>
+      </c>
+      <c r="M14">
+        <v>912000</v>
       </c>
       <c r="N14" t="s">
-        <v>88</v>
-      </c>
-      <c r="O14"/>
-      <c r="P14"/>
-      <c r="Q14" t="s">
-        <v>48</v>
-      </c>
-      <c r="R14" t="s">
-        <v>48</v>
-      </c>
-      <c r="S14" t="s">
-        <v>48</v>
+        <v>102</v>
+      </c>
+      <c r="O14" t="s">
+        <v>48</v>
+      </c>
+      <c r="P14" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q14">
+        <v>5</v>
+      </c>
+      <c r="R14">
+        <v>212000</v>
+      </c>
+      <c r="S14">
+        <v>1060000</v>
       </c>
       <c r="T14" t="s">
-        <v>48</v>
+        <v>103</v>
       </c>
       <c r="U14" t="s">
         <v>48</v>
@@ -3858,13 +4142,13 @@
     </row>
     <row r="15" spans="1:46">
       <c r="A15" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="C15" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="D15" t="s">
         <v>48</v>
@@ -3887,21 +4171,24 @@
       <c r="J15" t="s">
         <v>48</v>
       </c>
-      <c r="K15">
-        <v>6</v>
-      </c>
-      <c r="L15">
-        <v>152000</v>
-      </c>
-      <c r="M15">
-        <f>L15*K15</f>
-        <v>912000</v>
+      <c r="K15" t="s">
+        <v>48</v>
+      </c>
+      <c r="L15" t="s">
+        <v>48</v>
+      </c>
+      <c r="M15" t="s">
+        <v>48</v>
       </c>
       <c r="N15" t="s">
-        <v>91</v>
-      </c>
-      <c r="O15"/>
-      <c r="P15"/>
+        <v>48</v>
+      </c>
+      <c r="O15" t="s">
+        <v>48</v>
+      </c>
+      <c r="P15" t="s">
+        <v>48</v>
+      </c>
       <c r="Q15" t="s">
         <v>48</v>
       </c>
@@ -3917,8 +4204,9 @@
       <c r="U15" t="s">
         <v>48</v>
       </c>
-      <c r="V15" t="s">
-        <v>48</v>
+      <c r="V15" t="str">
+        <f>C15</f>
+        <v>落花-伊莎贝拉</v>
       </c>
       <c r="W15" t="s">
         <v>48</v>
@@ -3995,28 +4283,28 @@
     </row>
     <row r="16" spans="1:46">
       <c r="A16" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="C16" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="D16" t="s">
         <v>48</v>
       </c>
-      <c r="E16" t="s">
-        <v>48</v>
-      </c>
-      <c r="F16" t="s">
-        <v>48</v>
-      </c>
-      <c r="G16" t="s">
-        <v>48</v>
+      <c r="E16">
+        <v>6</v>
+      </c>
+      <c r="F16">
+        <v>132000</v>
+      </c>
+      <c r="G16">
+        <v>792000</v>
       </c>
       <c r="H16" t="s">
-        <v>48</v>
+        <v>108</v>
       </c>
       <c r="I16" t="s">
         <v>48</v>
@@ -4024,33 +4312,35 @@
       <c r="J16" t="s">
         <v>48</v>
       </c>
-      <c r="K16" t="s">
-        <v>48</v>
-      </c>
-      <c r="L16" t="s">
-        <v>48</v>
-      </c>
-      <c r="M16" t="s">
-        <v>48</v>
+      <c r="K16">
+        <v>8</v>
+      </c>
+      <c r="L16">
+        <v>133000</v>
+      </c>
+      <c r="M16">
+        <v>1064000</v>
       </c>
       <c r="N16" t="s">
-        <v>48</v>
+        <v>109</v>
       </c>
       <c r="O16" t="s">
-        <v>93</v>
-      </c>
-      <c r="P16"/>
-      <c r="Q16" t="s">
-        <v>48</v>
-      </c>
-      <c r="R16" t="s">
-        <v>48</v>
-      </c>
-      <c r="S16" t="s">
-        <v>48</v>
+        <v>48</v>
+      </c>
+      <c r="P16" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q16">
+        <v>7</v>
+      </c>
+      <c r="R16">
+        <v>138000</v>
+      </c>
+      <c r="S16">
+        <v>966000</v>
       </c>
       <c r="T16" t="s">
-        <v>48</v>
+        <v>110</v>
       </c>
       <c r="U16" t="s">
         <v>48</v>
@@ -4133,28 +4423,28 @@
     </row>
     <row r="17" spans="1:46">
       <c r="A17" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="C17" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="D17" t="s">
         <v>48</v>
       </c>
       <c r="E17">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F17">
-        <v>132000</v>
+        <v>150000</v>
       </c>
       <c r="G17">
-        <v>792000</v>
+        <v>750000</v>
       </c>
       <c r="H17" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="I17" t="s">
         <v>48</v>
@@ -4163,32 +4453,34 @@
         <v>48</v>
       </c>
       <c r="K17">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L17">
-        <v>133000</v>
+        <v>135000</v>
       </c>
       <c r="M17">
-        <v>1064000</v>
+        <v>945000</v>
       </c>
       <c r="N17" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="O17" t="s">
         <v>48</v>
       </c>
-      <c r="P17"/>
-      <c r="Q17" t="s">
-        <v>48</v>
-      </c>
-      <c r="R17" t="s">
-        <v>48</v>
-      </c>
-      <c r="S17" t="s">
-        <v>48</v>
+      <c r="P17" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q17">
+        <v>7</v>
+      </c>
+      <c r="R17">
+        <v>138000</v>
+      </c>
+      <c r="S17">
+        <v>966000</v>
       </c>
       <c r="T17" t="s">
-        <v>48</v>
+        <v>115</v>
       </c>
       <c r="U17" t="s">
         <v>48</v>
@@ -4271,28 +4563,28 @@
     </row>
     <row r="18" spans="1:46">
       <c r="A18" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="C18" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="D18" t="s">
         <v>48</v>
       </c>
       <c r="E18">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F18">
-        <v>150000</v>
+        <v>138000</v>
       </c>
       <c r="G18">
-        <v>750000</v>
+        <v>966000</v>
       </c>
       <c r="H18" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="I18" t="s">
         <v>48</v>
@@ -4301,30 +4593,34 @@
         <v>48</v>
       </c>
       <c r="K18">
+        <v>8</v>
+      </c>
+      <c r="L18">
+        <v>134000</v>
+      </c>
+      <c r="M18">
+        <v>1072000</v>
+      </c>
+      <c r="N18" t="s">
+        <v>119</v>
+      </c>
+      <c r="O18" t="s">
+        <v>48</v>
+      </c>
+      <c r="P18" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q18">
         <v>7</v>
       </c>
-      <c r="L18">
-        <v>135000</v>
-      </c>
-      <c r="M18">
-        <v>945000</v>
-      </c>
-      <c r="N18" t="s">
-        <v>101</v>
-      </c>
-      <c r="O18"/>
-      <c r="P18"/>
-      <c r="Q18" t="s">
-        <v>48</v>
-      </c>
-      <c r="R18" t="s">
-        <v>48</v>
-      </c>
-      <c r="S18" t="s">
-        <v>48</v>
+      <c r="R18">
+        <v>134000</v>
+      </c>
+      <c r="S18">
+        <v>938000</v>
       </c>
       <c r="T18" t="s">
-        <v>48</v>
+        <v>120</v>
       </c>
       <c r="U18" t="s">
         <v>48</v>
@@ -4407,28 +4703,28 @@
     </row>
     <row r="19" spans="1:46">
       <c r="A19" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="C19" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="D19" t="s">
         <v>48</v>
       </c>
       <c r="E19">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F19">
-        <v>138000</v>
+        <v>153000</v>
       </c>
       <c r="G19">
-        <v>966000</v>
+        <v>918000</v>
       </c>
       <c r="H19" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="I19" t="s">
         <v>48</v>
@@ -4436,33 +4732,35 @@
       <c r="J19" t="s">
         <v>48</v>
       </c>
-      <c r="K19" t="s">
-        <v>48</v>
-      </c>
-      <c r="L19" t="s">
-        <v>48</v>
-      </c>
-      <c r="M19" t="s">
-        <v>48</v>
+      <c r="K19">
+        <v>6</v>
+      </c>
+      <c r="L19">
+        <v>144000</v>
+      </c>
+      <c r="M19">
+        <v>864000</v>
       </c>
       <c r="N19" t="s">
-        <v>48</v>
+        <v>124</v>
       </c>
       <c r="O19" t="s">
-        <v>103</v>
-      </c>
-      <c r="P19"/>
-      <c r="Q19" t="s">
-        <v>48</v>
-      </c>
-      <c r="R19" t="s">
-        <v>48</v>
-      </c>
-      <c r="S19" t="s">
-        <v>48</v>
+        <v>48</v>
+      </c>
+      <c r="P19" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q19">
+        <v>6</v>
+      </c>
+      <c r="R19">
+        <v>147000</v>
+      </c>
+      <c r="S19">
+        <v>882000</v>
       </c>
       <c r="T19" t="s">
-        <v>48</v>
+        <v>125</v>
       </c>
       <c r="U19" t="s">
         <v>48</v>
@@ -4545,28 +4843,28 @@
     </row>
     <row r="20" spans="1:46">
       <c r="A20" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="C20" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
       <c r="D20" t="s">
         <v>48</v>
       </c>
       <c r="E20">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F20">
-        <v>153000</v>
+        <v>150000</v>
       </c>
       <c r="G20">
-        <v>918000</v>
+        <v>750000</v>
       </c>
       <c r="H20" t="s">
-        <v>107</v>
+        <v>128</v>
       </c>
       <c r="I20" t="s">
         <v>48</v>
@@ -4578,29 +4876,31 @@
         <v>6</v>
       </c>
       <c r="L20">
-        <v>144000</v>
+        <v>160000</v>
       </c>
       <c r="M20">
-        <v>864000</v>
+        <v>960000</v>
       </c>
       <c r="N20" t="s">
-        <v>108</v>
+        <v>129</v>
       </c>
       <c r="O20" t="s">
         <v>48</v>
       </c>
-      <c r="P20"/>
-      <c r="Q20" t="s">
-        <v>48</v>
-      </c>
-      <c r="R20" t="s">
-        <v>48</v>
-      </c>
-      <c r="S20" t="s">
-        <v>48</v>
+      <c r="P20" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q20">
+        <v>6</v>
+      </c>
+      <c r="R20">
+        <v>160000</v>
+      </c>
+      <c r="S20">
+        <v>960000</v>
       </c>
       <c r="T20" t="s">
-        <v>48</v>
+        <v>130</v>
       </c>
       <c r="U20" t="s">
         <v>48</v>
@@ -4683,64 +4983,64 @@
     </row>
     <row r="21" spans="1:46">
       <c r="A21" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="C21" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="D21" t="s">
         <v>48</v>
       </c>
       <c r="E21">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F21">
+        <v>139000</v>
+      </c>
+      <c r="G21">
+        <v>973000</v>
+      </c>
+      <c r="H21" t="s">
+        <v>133</v>
+      </c>
+      <c r="I21" t="s">
+        <v>48</v>
+      </c>
+      <c r="J21" t="s">
+        <v>48</v>
+      </c>
+      <c r="K21">
+        <v>7</v>
+      </c>
+      <c r="L21">
+        <v>144000</v>
+      </c>
+      <c r="M21">
+        <v>1008000</v>
+      </c>
+      <c r="N21" t="s">
+        <v>134</v>
+      </c>
+      <c r="O21" t="s">
+        <v>48</v>
+      </c>
+      <c r="P21" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q21">
+        <v>7</v>
+      </c>
+      <c r="R21">
         <v>150000</v>
       </c>
-      <c r="G21">
-        <v>750000</v>
-      </c>
-      <c r="H21" t="s">
-        <v>111</v>
-      </c>
-      <c r="I21" t="s">
-        <v>48</v>
-      </c>
-      <c r="J21" t="s">
-        <v>48</v>
-      </c>
-      <c r="K21">
-        <v>6</v>
-      </c>
-      <c r="L21">
-        <v>160000</v>
-      </c>
-      <c r="M21">
-        <v>960000</v>
-      </c>
-      <c r="N21" t="s">
-        <v>112</v>
-      </c>
-      <c r="O21" t="s">
-        <v>48</v>
-      </c>
-      <c r="P21" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>48</v>
-      </c>
-      <c r="R21" t="s">
-        <v>48</v>
-      </c>
-      <c r="S21" t="s">
-        <v>48</v>
+      <c r="S21">
+        <v>1050000</v>
       </c>
       <c r="T21" t="s">
-        <v>48</v>
+        <v>135</v>
       </c>
       <c r="U21" t="s">
         <v>48</v>
@@ -4823,28 +5123,28 @@
     </row>
     <row r="22" spans="1:46">
       <c r="A22" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>113</v>
+        <v>136</v>
       </c>
       <c r="C22" t="s">
-        <v>114</v>
+        <v>137</v>
       </c>
       <c r="D22" t="s">
         <v>48</v>
       </c>
       <c r="E22">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F22">
-        <v>139000</v>
+        <v>217000</v>
       </c>
       <c r="G22">
-        <v>973000</v>
+        <v>1085000</v>
       </c>
       <c r="H22" t="s">
-        <v>115</v>
+        <v>138</v>
       </c>
       <c r="I22" t="s">
         <v>48</v>
@@ -4852,35 +5152,35 @@
       <c r="J22" t="s">
         <v>48</v>
       </c>
-      <c r="K22" t="s">
-        <v>48</v>
-      </c>
-      <c r="L22" t="s">
-        <v>48</v>
-      </c>
-      <c r="M22" t="s">
-        <v>48</v>
+      <c r="K22">
+        <v>5</v>
+      </c>
+      <c r="L22">
+        <v>178000</v>
+      </c>
+      <c r="M22">
+        <v>890000</v>
       </c>
       <c r="N22" t="s">
-        <v>48</v>
+        <v>139</v>
       </c>
       <c r="O22" t="s">
-        <v>114</v>
+        <v>48</v>
       </c>
       <c r="P22" t="s">
         <v>48</v>
       </c>
-      <c r="Q22" t="s">
-        <v>48</v>
-      </c>
-      <c r="R22" t="s">
-        <v>48</v>
-      </c>
-      <c r="S22" t="s">
-        <v>48</v>
+      <c r="Q22">
+        <v>5</v>
+      </c>
+      <c r="R22">
+        <v>180000</v>
+      </c>
+      <c r="S22">
+        <v>900000</v>
       </c>
       <c r="T22" t="s">
-        <v>48</v>
+        <v>140</v>
       </c>
       <c r="U22" t="s">
         <v>48</v>
@@ -4963,28 +5263,28 @@
     </row>
     <row r="23" spans="1:46">
       <c r="A23" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>116</v>
+        <v>141</v>
       </c>
       <c r="C23" t="s">
-        <v>117</v>
+        <v>142</v>
       </c>
       <c r="D23" t="s">
         <v>48</v>
       </c>
       <c r="E23">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F23">
-        <v>217000</v>
+        <v>165000</v>
       </c>
       <c r="G23">
-        <v>1085000</v>
+        <v>1155000</v>
       </c>
       <c r="H23" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="I23" t="s">
         <v>48</v>
@@ -4993,16 +5293,16 @@
         <v>48</v>
       </c>
       <c r="K23">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L23">
-        <v>178000</v>
+        <v>158000</v>
       </c>
       <c r="M23">
-        <v>890000</v>
+        <v>1106000</v>
       </c>
       <c r="N23" t="s">
-        <v>119</v>
+        <v>144</v>
       </c>
       <c r="O23" t="s">
         <v>48</v>
@@ -5010,17 +5310,17 @@
       <c r="P23" t="s">
         <v>48</v>
       </c>
-      <c r="Q23" t="s">
-        <v>48</v>
-      </c>
-      <c r="R23" t="s">
-        <v>48</v>
-      </c>
-      <c r="S23" t="s">
-        <v>48</v>
+      <c r="Q23">
+        <v>7</v>
+      </c>
+      <c r="R23">
+        <v>159000</v>
+      </c>
+      <c r="S23">
+        <v>1113000</v>
       </c>
       <c r="T23" t="s">
-        <v>48</v>
+        <v>145</v>
       </c>
       <c r="U23" t="s">
         <v>48</v>
@@ -5103,64 +5403,64 @@
     </row>
     <row r="24" spans="1:46">
       <c r="A24" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>120</v>
+        <v>146</v>
       </c>
       <c r="C24" t="s">
-        <v>121</v>
+        <v>147</v>
       </c>
       <c r="D24" t="s">
         <v>48</v>
       </c>
       <c r="E24">
+        <v>5</v>
+      </c>
+      <c r="F24">
+        <v>162000</v>
+      </c>
+      <c r="G24">
+        <v>810000</v>
+      </c>
+      <c r="H24" t="s">
+        <v>148</v>
+      </c>
+      <c r="I24" t="s">
+        <v>48</v>
+      </c>
+      <c r="J24" t="s">
+        <v>48</v>
+      </c>
+      <c r="K24">
         <v>7</v>
       </c>
-      <c r="F24">
-        <v>165000</v>
-      </c>
-      <c r="G24">
-        <v>1155000</v>
-      </c>
-      <c r="H24" t="s">
-        <v>122</v>
-      </c>
-      <c r="I24" t="s">
-        <v>48</v>
-      </c>
-      <c r="J24" t="s">
-        <v>48</v>
-      </c>
-      <c r="K24" t="s">
-        <v>48</v>
-      </c>
-      <c r="L24" t="s">
-        <v>48</v>
-      </c>
-      <c r="M24" t="s">
-        <v>48</v>
+      <c r="L24">
+        <v>151000</v>
+      </c>
+      <c r="M24">
+        <v>1057000</v>
       </c>
       <c r="N24" t="s">
-        <v>48</v>
+        <v>149</v>
       </c>
       <c r="O24" t="s">
-        <v>123</v>
+        <v>48</v>
       </c>
       <c r="P24" t="s">
         <v>48</v>
       </c>
-      <c r="Q24" t="s">
-        <v>48</v>
-      </c>
-      <c r="R24" t="s">
-        <v>48</v>
-      </c>
-      <c r="S24" t="s">
-        <v>48</v>
+      <c r="Q24">
+        <v>6</v>
+      </c>
+      <c r="R24">
+        <v>152000</v>
+      </c>
+      <c r="S24">
+        <v>912000</v>
       </c>
       <c r="T24" t="s">
-        <v>48</v>
+        <v>150</v>
       </c>
       <c r="U24" t="s">
         <v>48</v>
@@ -5243,13 +5543,13 @@
     </row>
     <row r="25" spans="1:46">
       <c r="A25" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>124</v>
+        <v>151</v>
       </c>
       <c r="C25" t="s">
-        <v>125</v>
+        <v>152</v>
       </c>
       <c r="D25" t="s">
         <v>48</v>
@@ -5258,13 +5558,13 @@
         <v>5</v>
       </c>
       <c r="F25">
-        <v>162000</v>
+        <v>170000</v>
       </c>
       <c r="G25">
-        <v>810000</v>
+        <v>850000</v>
       </c>
       <c r="H25" t="s">
-        <v>126</v>
+        <v>153</v>
       </c>
       <c r="I25" t="s">
         <v>48</v>
@@ -5273,16 +5573,16 @@
         <v>48</v>
       </c>
       <c r="K25">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L25">
-        <v>151000</v>
+        <v>172000</v>
       </c>
       <c r="M25">
-        <v>1057000</v>
+        <v>1032000</v>
       </c>
       <c r="N25" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
       <c r="O25" t="s">
         <v>48</v>
@@ -5290,17 +5590,17 @@
       <c r="P25" t="s">
         <v>48</v>
       </c>
-      <c r="Q25" t="s">
-        <v>48</v>
-      </c>
-      <c r="R25" t="s">
-        <v>48</v>
-      </c>
-      <c r="S25" t="s">
-        <v>48</v>
+      <c r="Q25">
+        <v>5</v>
+      </c>
+      <c r="R25">
+        <v>178000</v>
+      </c>
+      <c r="S25">
+        <v>890000</v>
       </c>
       <c r="T25" t="s">
-        <v>48</v>
+        <v>155</v>
       </c>
       <c r="U25" t="s">
         <v>48</v>
@@ -5383,28 +5683,28 @@
     </row>
     <row r="26" spans="1:46">
       <c r="A26" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>128</v>
+        <v>156</v>
       </c>
       <c r="C26" t="s">
-        <v>129</v>
+        <v>157</v>
       </c>
       <c r="D26" t="s">
         <v>48</v>
       </c>
       <c r="E26">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F26">
-        <v>170000</v>
+        <v>131000</v>
       </c>
       <c r="G26">
-        <v>850000</v>
+        <v>786000</v>
       </c>
       <c r="H26" t="s">
-        <v>130</v>
+        <v>158</v>
       </c>
       <c r="I26" t="s">
         <v>48</v>
@@ -5413,16 +5713,16 @@
         <v>48</v>
       </c>
       <c r="K26">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L26">
-        <v>172000</v>
+        <v>122000</v>
       </c>
       <c r="M26">
-        <v>1032000</v>
+        <v>854000</v>
       </c>
       <c r="N26" t="s">
-        <v>131</v>
+        <v>159</v>
       </c>
       <c r="O26" t="s">
         <v>48</v>
@@ -5430,17 +5730,17 @@
       <c r="P26" t="s">
         <v>48</v>
       </c>
-      <c r="Q26" t="s">
-        <v>48</v>
-      </c>
-      <c r="R26" t="s">
-        <v>48</v>
-      </c>
-      <c r="S26" t="s">
-        <v>48</v>
+      <c r="Q26">
+        <v>7</v>
+      </c>
+      <c r="R26">
+        <v>123000</v>
+      </c>
+      <c r="S26">
+        <v>861000</v>
       </c>
       <c r="T26" t="s">
-        <v>48</v>
+        <v>160</v>
       </c>
       <c r="U26" t="s">
         <v>48</v>
@@ -5523,28 +5823,28 @@
     </row>
     <row r="27" spans="1:46">
       <c r="A27" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="C27" t="s">
-        <v>133</v>
+        <v>162</v>
       </c>
       <c r="D27" t="s">
         <v>48</v>
       </c>
       <c r="E27">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F27">
-        <v>131000</v>
+        <v>165000</v>
       </c>
       <c r="G27">
-        <v>786000</v>
+        <v>825000</v>
       </c>
       <c r="H27" t="s">
-        <v>134</v>
+        <v>163</v>
       </c>
       <c r="I27" t="s">
         <v>48</v>
@@ -5553,32 +5853,34 @@
         <v>48</v>
       </c>
       <c r="K27">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L27">
-        <v>122000</v>
+        <v>172000</v>
       </c>
       <c r="M27">
-        <v>854000</v>
+        <v>860000</v>
       </c>
       <c r="N27" t="s">
-        <v>135</v>
-      </c>
-      <c r="O27"/>
+        <v>164</v>
+      </c>
+      <c r="O27" t="s">
+        <v>48</v>
+      </c>
       <c r="P27" t="s">
         <v>48</v>
       </c>
-      <c r="Q27" t="s">
-        <v>48</v>
-      </c>
-      <c r="R27" t="s">
-        <v>48</v>
-      </c>
-      <c r="S27" t="s">
-        <v>48</v>
+      <c r="Q27">
+        <v>5</v>
+      </c>
+      <c r="R27">
+        <v>182000</v>
+      </c>
+      <c r="S27">
+        <v>910000</v>
       </c>
       <c r="T27" t="s">
-        <v>48</v>
+        <v>165</v>
       </c>
       <c r="U27" t="s">
         <v>48</v>
@@ -5661,13 +5963,13 @@
     </row>
     <row r="28" spans="1:46">
       <c r="A28" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>136</v>
+        <v>166</v>
       </c>
       <c r="C28" t="s">
-        <v>137</v>
+        <v>167</v>
       </c>
       <c r="D28" t="s">
         <v>48</v>
@@ -5676,13 +5978,13 @@
         <v>5</v>
       </c>
       <c r="F28">
-        <v>165000</v>
+        <v>166000</v>
       </c>
       <c r="G28">
-        <v>825000</v>
+        <v>830000</v>
       </c>
       <c r="H28" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="I28" t="s">
         <v>48</v>
@@ -5691,16 +5993,16 @@
         <v>48</v>
       </c>
       <c r="K28">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L28">
-        <v>172000</v>
+        <v>140000</v>
       </c>
       <c r="M28">
-        <v>860000</v>
+        <v>980000</v>
       </c>
       <c r="N28" t="s">
-        <v>139</v>
+        <v>169</v>
       </c>
       <c r="O28" t="s">
         <v>48</v>
@@ -5708,17 +6010,17 @@
       <c r="P28" t="s">
         <v>48</v>
       </c>
-      <c r="Q28" t="s">
-        <v>48</v>
-      </c>
-      <c r="R28" t="s">
-        <v>48</v>
-      </c>
-      <c r="S28" t="s">
-        <v>48</v>
+      <c r="Q28">
+        <v>6</v>
+      </c>
+      <c r="R28">
+        <v>153000</v>
+      </c>
+      <c r="S28">
+        <v>918000</v>
       </c>
       <c r="T28" t="s">
-        <v>48</v>
+        <v>170</v>
       </c>
       <c r="U28" t="s">
         <v>48</v>
@@ -5801,28 +6103,28 @@
     </row>
     <row r="29" spans="1:46">
       <c r="A29" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>140</v>
+        <v>171</v>
       </c>
       <c r="C29" t="s">
-        <v>141</v>
+        <v>172</v>
       </c>
       <c r="D29" t="s">
         <v>48</v>
       </c>
       <c r="E29">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F29">
-        <v>166000</v>
+        <v>99000</v>
       </c>
       <c r="G29">
-        <v>830000</v>
+        <v>693000</v>
       </c>
       <c r="H29" t="s">
-        <v>142</v>
+        <v>173</v>
       </c>
       <c r="I29" t="s">
         <v>48</v>
@@ -5831,16 +6133,16 @@
         <v>48</v>
       </c>
       <c r="K29">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="L29">
-        <v>140000</v>
+        <v>99000</v>
       </c>
       <c r="M29">
-        <v>980000</v>
+        <v>891000</v>
       </c>
       <c r="N29" t="s">
-        <v>143</v>
+        <v>174</v>
       </c>
       <c r="O29" t="s">
         <v>48</v>
@@ -5848,17 +6150,17 @@
       <c r="P29" t="s">
         <v>48</v>
       </c>
-      <c r="Q29" t="s">
-        <v>48</v>
-      </c>
-      <c r="R29" t="s">
-        <v>48</v>
-      </c>
-      <c r="S29" t="s">
-        <v>48</v>
+      <c r="Q29">
+        <v>9</v>
+      </c>
+      <c r="R29">
+        <v>100000</v>
+      </c>
+      <c r="S29">
+        <v>900000</v>
       </c>
       <c r="T29" t="s">
-        <v>48</v>
+        <v>175</v>
       </c>
       <c r="U29" t="s">
         <v>48</v>
@@ -5941,28 +6243,28 @@
     </row>
     <row r="30" spans="1:46">
       <c r="A30" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>144</v>
+        <v>176</v>
       </c>
       <c r="C30" t="s">
-        <v>145</v>
+        <v>177</v>
       </c>
       <c r="D30" t="s">
         <v>48</v>
       </c>
       <c r="E30">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F30">
-        <v>99000</v>
+        <v>165000</v>
       </c>
       <c r="G30">
-        <v>693000</v>
+        <v>825000</v>
       </c>
       <c r="H30" t="s">
-        <v>146</v>
+        <v>178</v>
       </c>
       <c r="I30" t="s">
         <v>48</v>
@@ -5971,16 +6273,16 @@
         <v>48</v>
       </c>
       <c r="K30">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="L30">
-        <v>99000</v>
+        <v>188000</v>
       </c>
       <c r="M30">
-        <v>891000</v>
+        <v>940000</v>
       </c>
       <c r="N30" t="s">
-        <v>147</v>
+        <v>179</v>
       </c>
       <c r="O30" t="s">
         <v>48</v>
@@ -5988,17 +6290,17 @@
       <c r="P30" t="s">
         <v>48</v>
       </c>
-      <c r="Q30" t="s">
-        <v>48</v>
-      </c>
-      <c r="R30" t="s">
-        <v>48</v>
-      </c>
-      <c r="S30" t="s">
-        <v>48</v>
+      <c r="Q30">
+        <v>5</v>
+      </c>
+      <c r="R30">
+        <v>200000</v>
+      </c>
+      <c r="S30">
+        <v>1000000</v>
       </c>
       <c r="T30" t="s">
-        <v>48</v>
+        <v>180</v>
       </c>
       <c r="U30" t="s">
         <v>48</v>
@@ -6081,28 +6383,28 @@
     </row>
     <row r="31" spans="1:46">
       <c r="A31" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>148</v>
+        <v>181</v>
       </c>
       <c r="C31" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="D31" t="s">
         <v>48</v>
       </c>
       <c r="E31">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F31">
-        <v>165000</v>
+        <v>146000</v>
       </c>
       <c r="G31">
-        <v>825000</v>
+        <v>876000</v>
       </c>
       <c r="H31" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
       <c r="I31" t="s">
         <v>48</v>
@@ -6111,16 +6413,16 @@
         <v>48</v>
       </c>
       <c r="K31">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L31">
-        <v>188000</v>
+        <v>147000</v>
       </c>
       <c r="M31">
-        <v>940000</v>
+        <v>882000</v>
       </c>
       <c r="N31" t="s">
-        <v>151</v>
+        <v>184</v>
       </c>
       <c r="O31" t="s">
         <v>48</v>
@@ -6128,17 +6430,17 @@
       <c r="P31" t="s">
         <v>48</v>
       </c>
-      <c r="Q31" t="s">
-        <v>48</v>
-      </c>
-      <c r="R31" t="s">
-        <v>48</v>
-      </c>
-      <c r="S31" t="s">
-        <v>48</v>
+      <c r="Q31">
+        <v>6</v>
+      </c>
+      <c r="R31">
+        <v>159000</v>
+      </c>
+      <c r="S31">
+        <v>954000</v>
       </c>
       <c r="T31" t="s">
-        <v>48</v>
+        <v>185</v>
       </c>
       <c r="U31" t="s">
         <v>48</v>
@@ -6221,28 +6523,28 @@
     </row>
     <row r="32" spans="1:46">
       <c r="A32" s="1">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>152</v>
+        <v>186</v>
       </c>
       <c r="C32" t="s">
-        <v>153</v>
+        <v>187</v>
       </c>
       <c r="D32" t="s">
         <v>48</v>
       </c>
       <c r="E32">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F32">
-        <v>146000</v>
+        <v>140000</v>
       </c>
       <c r="G32">
-        <v>876000</v>
+        <v>700000</v>
       </c>
       <c r="H32" t="s">
-        <v>154</v>
+        <v>188</v>
       </c>
       <c r="I32" t="s">
         <v>48</v>
@@ -6254,13 +6556,13 @@
         <v>6</v>
       </c>
       <c r="L32">
-        <v>147000</v>
+        <v>160000</v>
       </c>
       <c r="M32">
-        <v>882000</v>
+        <v>960000</v>
       </c>
       <c r="N32" t="s">
-        <v>155</v>
+        <v>189</v>
       </c>
       <c r="O32" t="s">
         <v>48</v>
@@ -6268,17 +6570,17 @@
       <c r="P32" t="s">
         <v>48</v>
       </c>
-      <c r="Q32" t="s">
-        <v>48</v>
-      </c>
-      <c r="R32" t="s">
-        <v>48</v>
-      </c>
-      <c r="S32" t="s">
-        <v>48</v>
+      <c r="Q32">
+        <v>6</v>
+      </c>
+      <c r="R32">
+        <v>161000</v>
+      </c>
+      <c r="S32">
+        <v>966000</v>
       </c>
       <c r="T32" t="s">
-        <v>48</v>
+        <v>190</v>
       </c>
       <c r="U32" t="s">
         <v>48</v>
@@ -6361,13 +6663,13 @@
     </row>
     <row r="33" spans="1:46">
       <c r="A33" s="1">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>156</v>
+        <v>191</v>
       </c>
       <c r="C33" t="s">
-        <v>157</v>
+        <v>192</v>
       </c>
       <c r="D33" t="s">
         <v>48</v>
@@ -6376,13 +6678,13 @@
         <v>5</v>
       </c>
       <c r="F33">
-        <v>140000</v>
+        <v>160000</v>
       </c>
       <c r="G33">
-        <v>700000</v>
+        <v>800000</v>
       </c>
       <c r="H33" t="s">
-        <v>158</v>
+        <v>193</v>
       </c>
       <c r="I33" t="s">
         <v>48</v>
@@ -6390,35 +6692,35 @@
       <c r="J33" t="s">
         <v>48</v>
       </c>
-      <c r="K33" t="s">
-        <v>48</v>
-      </c>
-      <c r="L33" t="s">
-        <v>48</v>
-      </c>
-      <c r="M33" t="s">
-        <v>48</v>
+      <c r="K33">
+        <v>6</v>
+      </c>
+      <c r="L33">
+        <v>148000</v>
+      </c>
+      <c r="M33">
+        <v>888000</v>
       </c>
       <c r="N33" t="s">
-        <v>48</v>
+        <v>194</v>
       </c>
       <c r="O33" t="s">
-        <v>157</v>
+        <v>48</v>
       </c>
       <c r="P33" t="s">
         <v>48</v>
       </c>
-      <c r="Q33" t="s">
-        <v>48</v>
-      </c>
-      <c r="R33" t="s">
-        <v>48</v>
-      </c>
-      <c r="S33" t="s">
-        <v>48</v>
+      <c r="Q33">
+        <v>6</v>
+      </c>
+      <c r="R33">
+        <v>148000</v>
+      </c>
+      <c r="S33">
+        <v>888000</v>
       </c>
       <c r="T33" t="s">
-        <v>48</v>
+        <v>195</v>
       </c>
       <c r="U33" t="s">
         <v>48</v>
@@ -6501,46 +6803,46 @@
     </row>
     <row r="34" spans="1:46">
       <c r="A34" s="1">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>159</v>
+        <v>196</v>
       </c>
       <c r="C34" t="s">
-        <v>160</v>
+        <v>197</v>
       </c>
       <c r="D34" t="s">
         <v>48</v>
       </c>
-      <c r="E34">
-        <v>5</v>
-      </c>
-      <c r="F34">
-        <v>160000</v>
-      </c>
-      <c r="G34">
-        <v>800000</v>
+      <c r="E34" t="s">
+        <v>48</v>
+      </c>
+      <c r="F34" t="s">
+        <v>48</v>
+      </c>
+      <c r="G34" t="s">
+        <v>48</v>
       </c>
       <c r="H34" t="s">
-        <v>161</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>48</v>
+        <v>197</v>
       </c>
       <c r="J34" t="s">
         <v>48</v>
       </c>
-      <c r="K34">
-        <v>6</v>
-      </c>
-      <c r="L34">
-        <v>148000</v>
-      </c>
-      <c r="M34">
-        <v>888000</v>
+      <c r="K34" t="s">
+        <v>48</v>
+      </c>
+      <c r="L34" t="s">
+        <v>48</v>
+      </c>
+      <c r="M34" t="s">
+        <v>48</v>
       </c>
       <c r="N34" t="s">
-        <v>162</v>
+        <v>48</v>
       </c>
       <c r="O34" t="s">
         <v>48</v>
@@ -6548,17 +6850,17 @@
       <c r="P34" t="s">
         <v>48</v>
       </c>
-      <c r="Q34" t="s">
-        <v>48</v>
-      </c>
-      <c r="R34" t="s">
-        <v>48</v>
-      </c>
-      <c r="S34" t="s">
-        <v>48</v>
+      <c r="Q34">
+        <v>10</v>
+      </c>
+      <c r="R34">
+        <v>100000</v>
+      </c>
+      <c r="S34">
+        <v>1000000</v>
       </c>
       <c r="T34" t="s">
-        <v>48</v>
+        <v>198</v>
       </c>
       <c r="U34" t="s">
         <v>48</v>
@@ -6641,64 +6943,64 @@
     </row>
     <row r="35" spans="1:46">
       <c r="A35" s="1">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>163</v>
+        <v>199</v>
       </c>
       <c r="C35" t="s">
-        <v>164</v>
+        <v>200</v>
       </c>
       <c r="D35" t="s">
         <v>48</v>
       </c>
-      <c r="E35" t="s">
-        <v>48</v>
-      </c>
-      <c r="F35" t="s">
-        <v>48</v>
-      </c>
-      <c r="G35" t="s">
-        <v>48</v>
+      <c r="E35">
+        <v>7</v>
+      </c>
+      <c r="F35">
+        <v>160000</v>
+      </c>
+      <c r="G35">
+        <v>1120000</v>
       </c>
       <c r="H35" t="s">
-        <v>48</v>
+        <v>201</v>
       </c>
       <c r="I35" t="s">
-        <v>164</v>
+        <v>48</v>
       </c>
       <c r="J35" t="s">
         <v>48</v>
       </c>
-      <c r="K35" t="s">
-        <v>48</v>
-      </c>
-      <c r="L35" t="s">
-        <v>48</v>
-      </c>
-      <c r="M35" t="s">
-        <v>48</v>
+      <c r="K35">
+        <v>6</v>
+      </c>
+      <c r="L35">
+        <v>145000</v>
+      </c>
+      <c r="M35">
+        <v>870000</v>
       </c>
       <c r="N35" t="s">
-        <v>48</v>
+        <v>202</v>
       </c>
       <c r="O35" t="s">
-        <v>164</v>
+        <v>48</v>
       </c>
       <c r="P35" t="s">
         <v>48</v>
       </c>
-      <c r="Q35" t="s">
-        <v>48</v>
-      </c>
-      <c r="R35" t="s">
-        <v>48</v>
-      </c>
-      <c r="S35" t="s">
-        <v>48</v>
+      <c r="Q35">
+        <v>7</v>
+      </c>
+      <c r="R35">
+        <v>145000</v>
+      </c>
+      <c r="S35">
+        <v>1015000</v>
       </c>
       <c r="T35" t="s">
-        <v>48</v>
+        <v>203</v>
       </c>
       <c r="U35" t="s">
         <v>48</v>
@@ -6781,13 +7083,13 @@
     </row>
     <row r="36" spans="1:46">
       <c r="A36" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>165</v>
+        <v>204</v>
       </c>
       <c r="C36" t="s">
-        <v>166</v>
+        <v>205</v>
       </c>
       <c r="D36" t="s">
         <v>48</v>
@@ -6796,13 +7098,13 @@
         <v>7</v>
       </c>
       <c r="F36">
-        <v>160000</v>
+        <v>120000</v>
       </c>
       <c r="G36">
-        <v>1120000</v>
+        <v>840000</v>
       </c>
       <c r="H36" t="s">
-        <v>167</v>
+        <v>206</v>
       </c>
       <c r="I36" t="s">
         <v>48</v>
@@ -6811,16 +7113,16 @@
         <v>48</v>
       </c>
       <c r="K36">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L36">
-        <v>145000</v>
+        <v>130000</v>
       </c>
       <c r="M36">
-        <v>870000</v>
+        <v>910000</v>
       </c>
       <c r="N36" t="s">
-        <v>168</v>
+        <v>207</v>
       </c>
       <c r="O36" t="s">
         <v>48</v>
@@ -6828,17 +7130,17 @@
       <c r="P36" t="s">
         <v>48</v>
       </c>
-      <c r="Q36" t="s">
-        <v>48</v>
-      </c>
-      <c r="R36" t="s">
-        <v>48</v>
-      </c>
-      <c r="S36" t="s">
-        <v>48</v>
+      <c r="Q36">
+        <v>7</v>
+      </c>
+      <c r="R36">
+        <v>140000</v>
+      </c>
+      <c r="S36">
+        <v>980000</v>
       </c>
       <c r="T36" t="s">
-        <v>48</v>
+        <v>208</v>
       </c>
       <c r="U36" t="s">
         <v>48</v>
@@ -6921,13 +7223,13 @@
     </row>
     <row r="37" spans="1:46">
       <c r="A37" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>169</v>
+        <v>209</v>
       </c>
       <c r="C37" t="s">
-        <v>170</v>
+        <v>210</v>
       </c>
       <c r="D37" t="s">
         <v>48</v>
@@ -6936,13 +7238,13 @@
         <v>7</v>
       </c>
       <c r="F37">
-        <v>120000</v>
+        <v>74000</v>
       </c>
       <c r="G37">
-        <v>840000</v>
+        <v>518000</v>
       </c>
       <c r="H37" t="s">
-        <v>171</v>
+        <v>211</v>
       </c>
       <c r="I37" t="s">
         <v>48</v>
@@ -6951,32 +7253,34 @@
         <v>48</v>
       </c>
       <c r="K37">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L37">
-        <v>130000</v>
+        <v>95000</v>
       </c>
       <c r="M37">
-        <v>910000</v>
+        <v>760000</v>
       </c>
       <c r="N37" t="s">
-        <v>172</v>
-      </c>
-      <c r="O37"/>
+        <v>212</v>
+      </c>
+      <c r="O37" t="s">
+        <v>48</v>
+      </c>
       <c r="P37" t="s">
         <v>48</v>
       </c>
-      <c r="Q37" t="s">
-        <v>48</v>
-      </c>
-      <c r="R37" t="s">
-        <v>48</v>
-      </c>
-      <c r="S37" t="s">
-        <v>48</v>
+      <c r="Q37">
+        <v>8</v>
+      </c>
+      <c r="R37">
+        <v>100000</v>
+      </c>
+      <c r="S37">
+        <v>800000</v>
       </c>
       <c r="T37" t="s">
-        <v>48</v>
+        <v>213</v>
       </c>
       <c r="U37" t="s">
         <v>48</v>
@@ -7059,13 +7363,13 @@
     </row>
     <row r="38" spans="1:46">
       <c r="A38" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>173</v>
+        <v>214</v>
       </c>
       <c r="C38" t="s">
-        <v>174</v>
+        <v>215</v>
       </c>
       <c r="D38" t="s">
         <v>48</v>
@@ -7074,13 +7378,13 @@
         <v>7</v>
       </c>
       <c r="F38">
-        <v>74000</v>
+        <v>157000</v>
       </c>
       <c r="G38">
-        <v>518000</v>
+        <v>1099000</v>
       </c>
       <c r="H38" t="s">
-        <v>175</v>
+        <v>216</v>
       </c>
       <c r="I38" t="s">
         <v>48</v>
@@ -7089,30 +7393,34 @@
         <v>48</v>
       </c>
       <c r="K38">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L38">
-        <v>95000</v>
+        <v>130000</v>
       </c>
       <c r="M38">
-        <v>760000</v>
+        <v>1170000</v>
       </c>
       <c r="N38" t="s">
-        <v>176</v>
-      </c>
-      <c r="O38"/>
-      <c r="P38"/>
-      <c r="Q38" t="s">
-        <v>48</v>
-      </c>
-      <c r="R38" t="s">
-        <v>48</v>
-      </c>
-      <c r="S38" t="s">
-        <v>48</v>
+        <v>217</v>
+      </c>
+      <c r="O38" t="s">
+        <v>48</v>
+      </c>
+      <c r="P38" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q38">
+        <v>7</v>
+      </c>
+      <c r="R38">
+        <v>130000</v>
+      </c>
+      <c r="S38">
+        <v>910000</v>
       </c>
       <c r="T38" t="s">
-        <v>48</v>
+        <v>218</v>
       </c>
       <c r="U38" t="s">
         <v>48</v>
@@ -7195,28 +7503,28 @@
     </row>
     <row r="39" spans="1:46">
       <c r="A39" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>177</v>
+        <v>219</v>
       </c>
       <c r="C39" t="s">
-        <v>178</v>
+        <v>220</v>
       </c>
       <c r="D39" t="s">
         <v>48</v>
       </c>
       <c r="E39">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F39">
-        <v>157000</v>
+        <v>169474</v>
       </c>
       <c r="G39">
-        <v>1099000</v>
+        <v>847370</v>
       </c>
       <c r="H39" t="s">
-        <v>179</v>
+        <v>221</v>
       </c>
       <c r="I39" t="s">
         <v>48</v>
@@ -7225,30 +7533,34 @@
         <v>48</v>
       </c>
       <c r="K39">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="L39">
-        <v>130000</v>
+        <v>151952</v>
       </c>
       <c r="M39">
-        <v>1170000</v>
+        <v>911712</v>
       </c>
       <c r="N39" t="s">
-        <v>180</v>
-      </c>
-      <c r="O39"/>
-      <c r="P39"/>
-      <c r="Q39" t="s">
-        <v>48</v>
-      </c>
-      <c r="R39" t="s">
-        <v>48</v>
-      </c>
-      <c r="S39" t="s">
-        <v>48</v>
+        <v>222</v>
+      </c>
+      <c r="O39" t="s">
+        <v>48</v>
+      </c>
+      <c r="P39" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q39">
+        <v>6</v>
+      </c>
+      <c r="R39">
+        <v>160787</v>
+      </c>
+      <c r="S39">
+        <v>964722</v>
       </c>
       <c r="T39" t="s">
-        <v>48</v>
+        <v>223</v>
       </c>
       <c r="U39" t="s">
         <v>48</v>
@@ -7331,60 +7643,64 @@
     </row>
     <row r="40" spans="1:46">
       <c r="A40" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>181</v>
+        <v>224</v>
       </c>
       <c r="C40" t="s">
-        <v>182</v>
+        <v>225</v>
       </c>
       <c r="D40" t="s">
         <v>48</v>
       </c>
       <c r="E40">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F40">
-        <v>169474</v>
+        <v>100000</v>
       </c>
       <c r="G40">
-        <v>847370</v>
+        <v>900000</v>
       </c>
       <c r="H40" t="s">
-        <v>183</v>
+        <v>226</v>
       </c>
       <c r="I40" t="s">
-        <v>48</v>
+        <v>225</v>
       </c>
       <c r="J40" t="s">
         <v>48</v>
       </c>
       <c r="K40">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="L40">
-        <v>151952</v>
+        <v>100000</v>
       </c>
       <c r="M40">
-        <v>911712</v>
+        <v>900000</v>
       </c>
       <c r="N40" t="s">
-        <v>184</v>
-      </c>
-      <c r="O40"/>
-      <c r="P40"/>
-      <c r="Q40" t="s">
-        <v>48</v>
-      </c>
-      <c r="R40" t="s">
-        <v>48</v>
-      </c>
-      <c r="S40" t="s">
-        <v>48</v>
+        <v>227</v>
+      </c>
+      <c r="O40" t="s">
+        <v>48</v>
+      </c>
+      <c r="P40" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q40">
+        <v>8</v>
+      </c>
+      <c r="R40">
+        <v>118000</v>
+      </c>
+      <c r="S40">
+        <v>944000</v>
       </c>
       <c r="T40" t="s">
-        <v>48</v>
+        <v>228</v>
       </c>
       <c r="U40" t="s">
         <v>48</v>
@@ -7467,62 +7783,64 @@
     </row>
     <row r="41" spans="1:46">
       <c r="A41" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>185</v>
+        <v>229</v>
       </c>
       <c r="C41" t="s">
-        <v>186</v>
+        <v>230</v>
       </c>
       <c r="D41" t="s">
         <v>48</v>
       </c>
-      <c r="E41" t="s">
-        <v>48</v>
-      </c>
-      <c r="F41" t="s">
-        <v>48</v>
-      </c>
-      <c r="G41" t="s">
-        <v>48</v>
+      <c r="E41">
+        <v>12</v>
+      </c>
+      <c r="F41">
+        <v>100000</v>
+      </c>
+      <c r="G41">
+        <v>1200000</v>
       </c>
       <c r="H41" t="s">
-        <v>48</v>
+        <v>231</v>
       </c>
       <c r="I41" t="s">
-        <v>186</v>
+        <v>48</v>
       </c>
       <c r="J41" t="s">
         <v>48</v>
       </c>
-      <c r="K41" t="s">
-        <v>48</v>
-      </c>
-      <c r="L41" t="s">
-        <v>48</v>
-      </c>
-      <c r="M41" t="s">
-        <v>48</v>
+      <c r="K41">
+        <v>11</v>
+      </c>
+      <c r="L41">
+        <v>90000</v>
+      </c>
+      <c r="M41">
+        <v>990000</v>
       </c>
       <c r="N41" t="s">
-        <v>48</v>
+        <v>232</v>
       </c>
       <c r="O41" t="s">
-        <v>186</v>
-      </c>
-      <c r="P41"/>
-      <c r="Q41" t="s">
-        <v>48</v>
-      </c>
-      <c r="R41" t="s">
-        <v>48</v>
-      </c>
-      <c r="S41" t="s">
-        <v>48</v>
+        <v>48</v>
+      </c>
+      <c r="P41" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q41">
+        <v>10</v>
+      </c>
+      <c r="R41">
+        <v>94000</v>
+      </c>
+      <c r="S41">
+        <v>940000</v>
       </c>
       <c r="T41" t="s">
-        <v>48</v>
+        <v>233</v>
       </c>
       <c r="U41" t="s">
         <v>48</v>
@@ -7605,28 +7923,28 @@
     </row>
     <row r="42" spans="1:46">
       <c r="A42" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>187</v>
+        <v>234</v>
       </c>
       <c r="C42" t="s">
-        <v>188</v>
+        <v>235</v>
       </c>
       <c r="D42" t="s">
         <v>48</v>
       </c>
       <c r="E42">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F42">
-        <v>100000</v>
+        <v>99000</v>
       </c>
       <c r="G42">
-        <v>1200000</v>
+        <v>990000</v>
       </c>
       <c r="H42" t="s">
-        <v>189</v>
+        <v>236</v>
       </c>
       <c r="I42" t="s">
         <v>48</v>
@@ -7634,33 +7952,35 @@
       <c r="J42" t="s">
         <v>48</v>
       </c>
-      <c r="K42" t="s">
-        <v>48</v>
-      </c>
-      <c r="L42" t="s">
-        <v>48</v>
-      </c>
-      <c r="M42" t="s">
-        <v>48</v>
+      <c r="K42">
+        <v>10</v>
+      </c>
+      <c r="L42">
+        <v>77000</v>
+      </c>
+      <c r="M42">
+        <v>770000</v>
       </c>
       <c r="N42" t="s">
-        <v>48</v>
+        <v>237</v>
       </c>
       <c r="O42" t="s">
-        <v>188</v>
-      </c>
-      <c r="P42"/>
-      <c r="Q42" t="s">
-        <v>48</v>
-      </c>
-      <c r="R42" t="s">
-        <v>48</v>
-      </c>
-      <c r="S42" t="s">
-        <v>48</v>
+        <v>48</v>
+      </c>
+      <c r="P42" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q42">
+        <v>11</v>
+      </c>
+      <c r="R42">
+        <v>80000</v>
+      </c>
+      <c r="S42">
+        <v>880000</v>
       </c>
       <c r="T42" t="s">
-        <v>48</v>
+        <v>238</v>
       </c>
       <c r="U42" t="s">
         <v>48</v>
@@ -7743,28 +8063,28 @@
     </row>
     <row r="43" spans="1:46">
       <c r="A43" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>190</v>
+        <v>239</v>
       </c>
       <c r="C43" t="s">
-        <v>191</v>
+        <v>240</v>
       </c>
       <c r="D43" t="s">
         <v>48</v>
       </c>
       <c r="E43">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F43">
-        <v>99000</v>
+        <v>140000</v>
       </c>
       <c r="G43">
-        <v>990000</v>
+        <v>700000</v>
       </c>
       <c r="H43" t="s">
-        <v>192</v>
+        <v>241</v>
       </c>
       <c r="I43" t="s">
         <v>48</v>
@@ -7773,30 +8093,34 @@
         <v>48</v>
       </c>
       <c r="K43">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="L43">
-        <v>77000</v>
+        <v>150000</v>
       </c>
       <c r="M43">
-        <v>770000</v>
+        <v>900000</v>
       </c>
       <c r="N43" t="s">
-        <v>193</v>
-      </c>
-      <c r="O43"/>
-      <c r="P43"/>
-      <c r="Q43" t="s">
-        <v>48</v>
-      </c>
-      <c r="R43" t="s">
-        <v>48</v>
-      </c>
-      <c r="S43" t="s">
-        <v>48</v>
+        <v>242</v>
+      </c>
+      <c r="O43" t="s">
+        <v>48</v>
+      </c>
+      <c r="P43" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q43">
+        <v>6</v>
+      </c>
+      <c r="R43">
+        <v>150000</v>
+      </c>
+      <c r="S43">
+        <v>900000</v>
       </c>
       <c r="T43" t="s">
-        <v>48</v>
+        <v>243</v>
       </c>
       <c r="U43" t="s">
         <v>48</v>
@@ -7879,68 +8203,71 @@
     </row>
     <row r="44" spans="1:46">
       <c r="A44" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>194</v>
+        <v>244</v>
       </c>
       <c r="C44" t="s">
-        <v>195</v>
+        <v>245</v>
       </c>
       <c r="D44" t="s">
         <v>48</v>
       </c>
-      <c r="E44">
-        <v>5</v>
-      </c>
-      <c r="F44">
-        <v>140000</v>
-      </c>
-      <c r="G44">
-        <v>700000</v>
+      <c r="E44" t="s">
+        <v>48</v>
+      </c>
+      <c r="F44" t="s">
+        <v>48</v>
+      </c>
+      <c r="G44" t="s">
+        <v>48</v>
       </c>
       <c r="H44" t="s">
-        <v>196</v>
+        <v>246</v>
       </c>
       <c r="I44" t="s">
-        <v>48</v>
+        <v>245</v>
       </c>
       <c r="J44" t="s">
-        <v>48</v>
-      </c>
-      <c r="K44" t="s">
-        <v>48</v>
-      </c>
-      <c r="L44" t="s">
-        <v>48</v>
-      </c>
-      <c r="M44" t="s">
-        <v>48</v>
+        <v>247</v>
+      </c>
+      <c r="K44">
+        <v>7</v>
+      </c>
+      <c r="L44">
+        <v>130000</v>
+      </c>
+      <c r="M44">
+        <v>910000</v>
       </c>
       <c r="N44" t="s">
-        <v>48</v>
+        <v>248</v>
       </c>
       <c r="O44" t="s">
-        <v>195</v>
-      </c>
-      <c r="P44"/>
-      <c r="Q44" t="s">
-        <v>48</v>
-      </c>
-      <c r="R44" t="s">
-        <v>48</v>
-      </c>
-      <c r="S44" t="s">
-        <v>48</v>
+        <v>48</v>
+      </c>
+      <c r="P44" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q44">
+        <v>6</v>
+      </c>
+      <c r="R44">
+        <v>150000</v>
+      </c>
+      <c r="S44">
+        <f>R44*Q44</f>
+        <v>900000</v>
       </c>
       <c r="T44" t="s">
-        <v>48</v>
+        <v>249</v>
       </c>
       <c r="U44" t="s">
         <v>48</v>
       </c>
       <c r="V44" t="s">
-        <v>48</v>
+        <v>250</v>
       </c>
       <c r="W44" t="s">
         <v>48</v>
@@ -8017,62 +8344,64 @@
     </row>
     <row r="45" spans="1:46">
       <c r="A45" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>197</v>
+        <v>251</v>
       </c>
       <c r="C45" t="s">
-        <v>198</v>
+        <v>252</v>
       </c>
       <c r="D45" t="s">
         <v>48</v>
       </c>
-      <c r="E45" t="s">
-        <v>48</v>
-      </c>
-      <c r="F45" t="s">
-        <v>48</v>
-      </c>
-      <c r="G45" t="s">
-        <v>48</v>
+      <c r="E45">
+        <v>5</v>
+      </c>
+      <c r="F45">
+        <v>136000</v>
+      </c>
+      <c r="G45">
+        <v>680000</v>
       </c>
       <c r="H45" t="s">
-        <v>48</v>
+        <v>253</v>
       </c>
       <c r="I45" t="s">
-        <v>198</v>
+        <v>48</v>
       </c>
       <c r="J45" t="s">
         <v>48</v>
       </c>
-      <c r="K45" t="s">
-        <v>48</v>
-      </c>
-      <c r="L45" t="s">
-        <v>48</v>
-      </c>
-      <c r="M45" t="s">
-        <v>48</v>
+      <c r="K45">
+        <v>6</v>
+      </c>
+      <c r="L45">
+        <v>140000</v>
+      </c>
+      <c r="M45">
+        <v>840000</v>
       </c>
       <c r="N45" t="s">
-        <v>48</v>
+        <v>254</v>
       </c>
       <c r="O45" t="s">
-        <v>198</v>
-      </c>
-      <c r="P45"/>
-      <c r="Q45" t="s">
-        <v>48</v>
-      </c>
-      <c r="R45" t="s">
-        <v>48</v>
-      </c>
-      <c r="S45" t="s">
-        <v>48</v>
+        <v>48</v>
+      </c>
+      <c r="P45" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q45">
+        <v>6</v>
+      </c>
+      <c r="R45">
+        <v>150000</v>
+      </c>
+      <c r="S45">
+        <v>900000</v>
       </c>
       <c r="T45" t="s">
-        <v>48</v>
+        <v>255</v>
       </c>
       <c r="U45" t="s">
         <v>48</v>
@@ -8155,13 +8484,13 @@
     </row>
     <row r="46" spans="1:46">
       <c r="A46" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>199</v>
+        <v>256</v>
       </c>
       <c r="C46" t="s">
-        <v>200</v>
+        <v>257</v>
       </c>
       <c r="D46" t="s">
         <v>48</v>
@@ -8170,13 +8499,13 @@
         <v>5</v>
       </c>
       <c r="F46">
-        <v>136000</v>
+        <v>152000</v>
       </c>
       <c r="G46">
-        <v>680000</v>
+        <v>760000</v>
       </c>
       <c r="H46" t="s">
-        <v>201</v>
+        <v>258</v>
       </c>
       <c r="I46" t="s">
         <v>48</v>
@@ -8185,32 +8514,34 @@
         <v>48</v>
       </c>
       <c r="K46">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L46">
         <v>140000</v>
       </c>
       <c r="M46">
-        <v>840000</v>
+        <v>980000</v>
       </c>
       <c r="N46" t="s">
-        <v>202</v>
+        <v>259</v>
       </c>
       <c r="O46" t="s">
         <v>48</v>
       </c>
-      <c r="P46"/>
-      <c r="Q46" t="s">
-        <v>48</v>
-      </c>
-      <c r="R46" t="s">
-        <v>48</v>
-      </c>
-      <c r="S46" t="s">
-        <v>48</v>
+      <c r="P46" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q46">
+        <v>6</v>
+      </c>
+      <c r="R46">
+        <v>161000</v>
+      </c>
+      <c r="S46">
+        <v>966000</v>
       </c>
       <c r="T46" t="s">
-        <v>48</v>
+        <v>260</v>
       </c>
       <c r="U46" t="s">
         <v>48</v>
@@ -8293,13 +8624,13 @@
     </row>
     <row r="47" spans="1:46">
       <c r="A47" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>203</v>
+        <v>261</v>
       </c>
       <c r="C47" t="s">
-        <v>204</v>
+        <v>262</v>
       </c>
       <c r="D47" t="s">
         <v>48</v>
@@ -8308,13 +8639,13 @@
         <v>5</v>
       </c>
       <c r="F47">
-        <v>152000</v>
+        <v>167000</v>
       </c>
       <c r="G47">
-        <v>760000</v>
+        <v>835000</v>
       </c>
       <c r="H47" t="s">
-        <v>205</v>
+        <v>263</v>
       </c>
       <c r="I47" t="s">
         <v>48</v>
@@ -8323,32 +8654,34 @@
         <v>48</v>
       </c>
       <c r="K47">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L47">
-        <v>140000</v>
+        <v>189000</v>
       </c>
       <c r="M47">
-        <v>980000</v>
+        <v>945000</v>
       </c>
       <c r="N47" t="s">
-        <v>206</v>
+        <v>264</v>
       </c>
       <c r="O47" t="s">
         <v>48</v>
       </c>
-      <c r="P47"/>
-      <c r="Q47" t="s">
-        <v>48</v>
-      </c>
-      <c r="R47" t="s">
-        <v>48</v>
-      </c>
-      <c r="S47" t="s">
-        <v>48</v>
+      <c r="P47" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q47">
+        <v>5</v>
+      </c>
+      <c r="R47">
+        <v>197000</v>
+      </c>
+      <c r="S47">
+        <v>985000</v>
       </c>
       <c r="T47" t="s">
-        <v>48</v>
+        <v>265</v>
       </c>
       <c r="U47" t="s">
         <v>48</v>
@@ -8431,13 +8764,13 @@
     </row>
     <row r="48" spans="1:46">
       <c r="A48" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>207</v>
+        <v>266</v>
       </c>
       <c r="C48" t="s">
-        <v>208</v>
+        <v>267</v>
       </c>
       <c r="D48" t="s">
         <v>48</v>
@@ -8446,13 +8779,13 @@
         <v>5</v>
       </c>
       <c r="F48">
-        <v>167000</v>
+        <v>147000</v>
       </c>
       <c r="G48">
-        <v>835000</v>
+        <v>735000</v>
       </c>
       <c r="H48" t="s">
-        <v>209</v>
+        <v>268</v>
       </c>
       <c r="I48" t="s">
         <v>48</v>
@@ -8461,32 +8794,34 @@
         <v>48</v>
       </c>
       <c r="K48">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L48">
-        <v>189000</v>
+        <v>125000</v>
       </c>
       <c r="M48">
-        <v>945000</v>
+        <v>875000</v>
       </c>
       <c r="N48" t="s">
-        <v>210</v>
+        <v>269</v>
       </c>
       <c r="O48" t="s">
         <v>48</v>
       </c>
-      <c r="P48"/>
-      <c r="Q48" t="s">
-        <v>48</v>
-      </c>
-      <c r="R48" t="s">
-        <v>48</v>
-      </c>
-      <c r="S48" t="s">
-        <v>48</v>
+      <c r="P48" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q48">
+        <v>7</v>
+      </c>
+      <c r="R48">
+        <v>129000</v>
+      </c>
+      <c r="S48">
+        <v>903000</v>
       </c>
       <c r="T48" t="s">
-        <v>48</v>
+        <v>270</v>
       </c>
       <c r="U48" t="s">
         <v>48</v>
@@ -8569,13 +8904,13 @@
     </row>
     <row r="49" spans="1:46">
       <c r="A49" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>211</v>
+        <v>271</v>
       </c>
       <c r="C49" t="s">
-        <v>212</v>
+        <v>272</v>
       </c>
       <c r="D49" t="s">
         <v>48</v>
@@ -8584,16 +8919,16 @@
         <v>5</v>
       </c>
       <c r="F49">
-        <v>147000</v>
+        <v>150000</v>
       </c>
       <c r="G49">
-        <v>735000</v>
+        <v>750000</v>
       </c>
       <c r="H49" t="s">
-        <v>213</v>
+        <v>273</v>
       </c>
       <c r="I49" t="s">
-        <v>48</v>
+        <v>272</v>
       </c>
       <c r="J49" t="s">
         <v>48</v>
@@ -8602,29 +8937,31 @@
         <v>7</v>
       </c>
       <c r="L49">
-        <v>125000</v>
+        <v>145000</v>
       </c>
       <c r="M49">
-        <v>875000</v>
+        <v>1015000</v>
       </c>
       <c r="N49" t="s">
-        <v>214</v>
+        <v>274</v>
       </c>
       <c r="O49" t="s">
         <v>48</v>
       </c>
-      <c r="P49"/>
-      <c r="Q49" t="s">
-        <v>48</v>
-      </c>
-      <c r="R49" t="s">
-        <v>48</v>
-      </c>
-      <c r="S49" t="s">
-        <v>48</v>
+      <c r="P49" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q49">
+        <v>7</v>
+      </c>
+      <c r="R49">
+        <v>145000</v>
+      </c>
+      <c r="S49">
+        <v>1015000</v>
       </c>
       <c r="T49" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="U49" t="s">
         <v>48</v>
@@ -8707,31 +9044,31 @@
     </row>
     <row r="50" spans="1:46">
       <c r="A50" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>215</v>
+        <v>275</v>
       </c>
       <c r="C50" t="s">
-        <v>216</v>
+        <v>276</v>
       </c>
       <c r="D50" t="s">
         <v>48</v>
       </c>
-      <c r="E50" t="s">
-        <v>48</v>
-      </c>
-      <c r="F50" t="s">
-        <v>48</v>
-      </c>
-      <c r="G50" t="s">
-        <v>48</v>
+      <c r="E50">
+        <v>5</v>
+      </c>
+      <c r="F50">
+        <v>230000</v>
+      </c>
+      <c r="G50">
+        <v>1150000</v>
       </c>
       <c r="H50" t="s">
-        <v>48</v>
+        <v>277</v>
       </c>
       <c r="I50" t="s">
-        <v>216</v>
+        <v>48</v>
       </c>
       <c r="J50" t="s">
         <v>48</v>
@@ -8740,30 +9077,31 @@
         <v>7</v>
       </c>
       <c r="L50">
-        <v>145000</v>
+        <v>200000</v>
       </c>
       <c r="M50">
-        <f>L50*K50</f>
-        <v>1015000</v>
+        <v>1400000</v>
       </c>
       <c r="N50" t="s">
-        <v>52</v>
+        <v>278</v>
       </c>
       <c r="O50" t="s">
-        <v>216</v>
-      </c>
-      <c r="P50"/>
-      <c r="Q50" t="s">
-        <v>48</v>
-      </c>
-      <c r="R50" t="s">
-        <v>48</v>
-      </c>
-      <c r="S50" t="s">
-        <v>48</v>
+        <v>48</v>
+      </c>
+      <c r="P50" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q50">
+        <v>7</v>
+      </c>
+      <c r="R50">
+        <v>200000</v>
+      </c>
+      <c r="S50">
+        <v>1400000</v>
       </c>
       <c r="T50" t="s">
-        <v>48</v>
+        <v>279</v>
       </c>
       <c r="U50" t="s">
         <v>48</v>
@@ -8846,28 +9184,28 @@
     </row>
     <row r="51" spans="1:46">
       <c r="A51" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>217</v>
+        <v>280</v>
       </c>
       <c r="C51" t="s">
-        <v>218</v>
+        <v>281</v>
       </c>
       <c r="D51" t="s">
         <v>48</v>
       </c>
       <c r="E51">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F51">
-        <v>230000</v>
+        <v>120000</v>
       </c>
       <c r="G51">
-        <v>1150000</v>
+        <v>720000</v>
       </c>
       <c r="H51" t="s">
-        <v>219</v>
+        <v>282</v>
       </c>
       <c r="I51" t="s">
         <v>48</v>
@@ -8876,32 +9214,34 @@
         <v>48</v>
       </c>
       <c r="K51">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="L51">
-        <v>200000</v>
+        <v>100000</v>
       </c>
       <c r="M51">
-        <v>1400000</v>
+        <v>900000</v>
       </c>
       <c r="N51" t="s">
-        <v>220</v>
+        <v>283</v>
       </c>
       <c r="O51" t="s">
         <v>48</v>
       </c>
-      <c r="P51"/>
-      <c r="Q51" t="s">
-        <v>48</v>
-      </c>
-      <c r="R51" t="s">
-        <v>48</v>
-      </c>
-      <c r="S51" t="s">
-        <v>48</v>
+      <c r="P51" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q51">
+        <v>8</v>
+      </c>
+      <c r="R51">
+        <v>110000</v>
+      </c>
+      <c r="S51">
+        <v>880000</v>
       </c>
       <c r="T51" t="s">
-        <v>48</v>
+        <v>284</v>
       </c>
       <c r="U51" t="s">
         <v>48</v>
@@ -8984,46 +9324,46 @@
     </row>
     <row r="52" spans="1:46">
       <c r="A52" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>221</v>
+        <v>285</v>
       </c>
       <c r="C52" t="s">
-        <v>222</v>
+        <v>286</v>
       </c>
       <c r="D52" t="s">
         <v>48</v>
       </c>
       <c r="E52">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F52">
+        <v>100000</v>
+      </c>
+      <c r="G52">
+        <v>800000</v>
+      </c>
+      <c r="H52" t="s">
+        <v>287</v>
+      </c>
+      <c r="I52" t="s">
+        <v>48</v>
+      </c>
+      <c r="J52" t="s">
+        <v>48</v>
+      </c>
+      <c r="K52">
+        <v>8</v>
+      </c>
+      <c r="L52">
         <v>120000</v>
       </c>
-      <c r="G52">
-        <v>720000</v>
-      </c>
-      <c r="H52" t="s">
-        <v>223</v>
-      </c>
-      <c r="I52" t="s">
-        <v>48</v>
-      </c>
-      <c r="J52" t="s">
-        <v>48</v>
-      </c>
-      <c r="K52">
-        <v>9</v>
-      </c>
-      <c r="L52">
-        <v>100000</v>
-      </c>
       <c r="M52">
-        <v>900000</v>
+        <v>960000</v>
       </c>
       <c r="N52" t="s">
-        <v>224</v>
+        <v>288</v>
       </c>
       <c r="O52" t="s">
         <v>48</v>
@@ -9031,17 +9371,17 @@
       <c r="P52" t="s">
         <v>48</v>
       </c>
-      <c r="Q52" t="s">
-        <v>48</v>
-      </c>
-      <c r="R52" t="s">
-        <v>48</v>
-      </c>
-      <c r="S52" t="s">
-        <v>48</v>
+      <c r="Q52">
+        <v>8</v>
+      </c>
+      <c r="R52">
+        <v>120000</v>
+      </c>
+      <c r="S52">
+        <v>960000</v>
       </c>
       <c r="T52" t="s">
-        <v>48</v>
+        <v>289</v>
       </c>
       <c r="U52" t="s">
         <v>48</v>
@@ -9124,46 +9464,46 @@
     </row>
     <row r="53" spans="1:46">
       <c r="A53" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>225</v>
+        <v>290</v>
       </c>
       <c r="C53" t="s">
-        <v>226</v>
+        <v>291</v>
       </c>
       <c r="D53" t="s">
         <v>48</v>
       </c>
       <c r="E53">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F53">
-        <v>100000</v>
+        <v>169000</v>
       </c>
       <c r="G53">
-        <v>800000</v>
+        <v>845000</v>
       </c>
       <c r="H53" t="s">
-        <v>227</v>
+        <v>292</v>
       </c>
       <c r="I53" t="s">
-        <v>48</v>
+        <v>293</v>
       </c>
       <c r="J53" t="s">
         <v>48</v>
       </c>
       <c r="K53">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L53">
-        <v>120000</v>
+        <v>169000</v>
       </c>
       <c r="M53">
-        <v>960000</v>
+        <v>1183000</v>
       </c>
       <c r="N53" t="s">
-        <v>228</v>
+        <v>294</v>
       </c>
       <c r="O53" t="s">
         <v>48</v>
@@ -9186,8 +9526,9 @@
       <c r="U53" t="s">
         <v>48</v>
       </c>
-      <c r="V53" t="s">
-        <v>48</v>
+      <c r="V53" t="str">
+        <f t="shared" ref="V53:V57" si="0">C53</f>
+        <v>落花" 苏久久【樱茶的腿部挂件一号】</v>
       </c>
       <c r="W53" t="s">
         <v>48</v>
@@ -9264,46 +9605,46 @@
     </row>
     <row r="54" spans="1:46">
       <c r="A54" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>229</v>
+        <v>295</v>
       </c>
       <c r="C54" t="s">
-        <v>230</v>
+        <v>296</v>
       </c>
       <c r="D54" t="s">
         <v>48</v>
       </c>
-      <c r="E54" t="s">
-        <v>48</v>
-      </c>
-      <c r="F54" t="s">
-        <v>48</v>
-      </c>
-      <c r="G54" t="s">
-        <v>48</v>
+      <c r="E54">
+        <v>6</v>
+      </c>
+      <c r="F54">
+        <v>152000</v>
+      </c>
+      <c r="G54">
+        <v>912000</v>
       </c>
       <c r="H54" t="s">
-        <v>48</v>
+        <v>297</v>
       </c>
       <c r="I54" t="s">
-        <v>231</v>
+        <v>48</v>
       </c>
       <c r="J54" t="s">
         <v>48</v>
       </c>
       <c r="K54">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L54">
-        <v>169000</v>
+        <v>120000</v>
       </c>
       <c r="M54">
-        <v>1183000</v>
+        <v>960000</v>
       </c>
       <c r="N54" t="s">
-        <v>232</v>
+        <v>298</v>
       </c>
       <c r="O54" t="s">
         <v>48</v>
@@ -9311,23 +9652,23 @@
       <c r="P54" t="s">
         <v>48</v>
       </c>
-      <c r="Q54" t="s">
-        <v>48</v>
-      </c>
-      <c r="R54" t="s">
-        <v>48</v>
-      </c>
-      <c r="S54" t="s">
-        <v>48</v>
+      <c r="Q54">
+        <v>8</v>
+      </c>
+      <c r="R54">
+        <v>120000</v>
+      </c>
+      <c r="S54">
+        <v>960000</v>
       </c>
       <c r="T54" t="s">
-        <v>48</v>
+        <v>299</v>
       </c>
       <c r="U54" t="s">
         <v>48</v>
       </c>
       <c r="V54" t="s">
-        <v>48</v>
+        <v>300</v>
       </c>
       <c r="W54" t="s">
         <v>48</v>
@@ -9404,28 +9745,28 @@
     </row>
     <row r="55" spans="1:46">
       <c r="A55" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>233</v>
+        <v>301</v>
       </c>
       <c r="C55" t="s">
-        <v>234</v>
+        <v>302</v>
       </c>
       <c r="D55" t="s">
         <v>48</v>
       </c>
       <c r="E55">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F55">
-        <v>152000</v>
+        <v>171000</v>
       </c>
       <c r="G55">
-        <v>912000</v>
+        <v>855000</v>
       </c>
       <c r="H55" t="s">
-        <v>235</v>
+        <v>303</v>
       </c>
       <c r="I55" t="s">
         <v>48</v>
@@ -9433,23 +9774,23 @@
       <c r="J55" t="s">
         <v>48</v>
       </c>
-      <c r="K55" t="s">
-        <v>48</v>
-      </c>
-      <c r="L55" t="s">
-        <v>48</v>
-      </c>
-      <c r="M55" t="s">
-        <v>48</v>
+      <c r="K55">
+        <v>5</v>
+      </c>
+      <c r="L55">
+        <v>172000</v>
+      </c>
+      <c r="M55">
+        <v>860000</v>
       </c>
       <c r="N55" t="s">
-        <v>236</v>
+        <v>304</v>
       </c>
       <c r="O55" t="s">
-        <v>234</v>
+        <v>48</v>
       </c>
       <c r="P55" t="s">
-        <v>237</v>
+        <v>48</v>
       </c>
       <c r="Q55" t="s">
         <v>48</v>
@@ -9466,8 +9807,9 @@
       <c r="U55" t="s">
         <v>48</v>
       </c>
-      <c r="V55" t="s">
-        <v>48</v>
+      <c r="V55" t="str">
+        <f t="shared" si="0"/>
+        <v>落花_鸭鸭</v>
       </c>
       <c r="W55" t="s">
         <v>48</v>
@@ -9544,28 +9886,28 @@
     </row>
     <row r="56" spans="1:46">
       <c r="A56" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>238</v>
+        <v>305</v>
       </c>
       <c r="C56" t="s">
-        <v>239</v>
+        <v>306</v>
       </c>
       <c r="D56" t="s">
         <v>48</v>
       </c>
       <c r="E56">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F56">
-        <v>171000</v>
+        <v>123000</v>
       </c>
       <c r="G56">
-        <v>855000</v>
+        <v>861000</v>
       </c>
       <c r="H56" t="s">
-        <v>240</v>
+        <v>307</v>
       </c>
       <c r="I56" t="s">
         <v>48</v>
@@ -9574,16 +9916,16 @@
         <v>48</v>
       </c>
       <c r="K56">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L56">
-        <v>172000</v>
+        <v>126000</v>
       </c>
       <c r="M56">
-        <v>860000</v>
+        <v>882000</v>
       </c>
       <c r="N56" t="s">
-        <v>241</v>
+        <v>308</v>
       </c>
       <c r="O56" t="s">
         <v>48</v>
@@ -9591,17 +9933,17 @@
       <c r="P56" t="s">
         <v>48</v>
       </c>
-      <c r="Q56" t="s">
-        <v>48</v>
-      </c>
-      <c r="R56" t="s">
-        <v>48</v>
-      </c>
-      <c r="S56" t="s">
-        <v>48</v>
+      <c r="Q56">
+        <v>7</v>
+      </c>
+      <c r="R56">
+        <v>133000</v>
+      </c>
+      <c r="S56">
+        <v>931000</v>
       </c>
       <c r="T56" t="s">
-        <v>48</v>
+        <v>309</v>
       </c>
       <c r="U56" t="s">
         <v>48</v>
@@ -9684,28 +10026,28 @@
     </row>
     <row r="57" spans="1:46">
       <c r="A57" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>242</v>
+        <v>310</v>
       </c>
       <c r="C57" t="s">
-        <v>243</v>
+        <v>311</v>
       </c>
       <c r="D57" t="s">
         <v>48</v>
       </c>
       <c r="E57">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F57">
-        <v>123000</v>
+        <v>180000</v>
       </c>
       <c r="G57">
-        <v>861000</v>
+        <v>900000</v>
       </c>
       <c r="H57" t="s">
-        <v>244</v>
+        <v>312</v>
       </c>
       <c r="I57" t="s">
         <v>48</v>
@@ -9713,17 +10055,17 @@
       <c r="J57" t="s">
         <v>48</v>
       </c>
-      <c r="K57">
-        <v>7</v>
-      </c>
-      <c r="L57">
-        <v>126000</v>
-      </c>
-      <c r="M57">
-        <v>882000</v>
+      <c r="K57" t="s">
+        <v>48</v>
+      </c>
+      <c r="L57" t="s">
+        <v>48</v>
+      </c>
+      <c r="M57" t="s">
+        <v>48</v>
       </c>
       <c r="N57" t="s">
-        <v>245</v>
+        <v>48</v>
       </c>
       <c r="O57" t="s">
         <v>48</v>
@@ -9746,8 +10088,9 @@
       <c r="U57" t="s">
         <v>48</v>
       </c>
-      <c r="V57" t="s">
-        <v>48</v>
+      <c r="V57" t="str">
+        <f t="shared" si="0"/>
+        <v>落花-凛喵</v>
       </c>
       <c r="W57" t="s">
         <v>48</v>
@@ -9824,13 +10167,13 @@
     </row>
     <row r="58" spans="1:46">
       <c r="A58" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>246</v>
+        <v>313</v>
       </c>
       <c r="C58" t="s">
-        <v>247</v>
+        <v>314</v>
       </c>
       <c r="D58" t="s">
         <v>48</v>
@@ -9839,13 +10182,13 @@
         <v>5</v>
       </c>
       <c r="F58">
-        <v>180000</v>
+        <v>205000</v>
       </c>
       <c r="G58">
-        <v>900000</v>
+        <v>1025000</v>
       </c>
       <c r="H58" t="s">
-        <v>248</v>
+        <v>315</v>
       </c>
       <c r="I58" t="s">
         <v>48</v>
@@ -9853,35 +10196,35 @@
       <c r="J58" t="s">
         <v>48</v>
       </c>
-      <c r="K58" t="s">
-        <v>48</v>
-      </c>
-      <c r="L58" t="s">
-        <v>48</v>
-      </c>
-      <c r="M58" t="s">
-        <v>48</v>
+      <c r="K58">
+        <v>6</v>
+      </c>
+      <c r="L58">
+        <v>145000</v>
+      </c>
+      <c r="M58">
+        <v>870000</v>
       </c>
       <c r="N58" t="s">
-        <v>48</v>
+        <v>316</v>
       </c>
       <c r="O58" t="s">
-        <v>247</v>
+        <v>48</v>
       </c>
       <c r="P58" t="s">
         <v>48</v>
       </c>
-      <c r="Q58" t="s">
-        <v>48</v>
-      </c>
-      <c r="R58" t="s">
-        <v>48</v>
-      </c>
-      <c r="S58" t="s">
-        <v>48</v>
+      <c r="Q58">
+        <v>6</v>
+      </c>
+      <c r="R58">
+        <v>152000</v>
+      </c>
+      <c r="S58">
+        <v>912000</v>
       </c>
       <c r="T58" t="s">
-        <v>48</v>
+        <v>317</v>
       </c>
       <c r="U58" t="s">
         <v>48</v>
@@ -9964,28 +10307,28 @@
     </row>
     <row r="59" spans="1:46">
       <c r="A59" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>249</v>
+        <v>318</v>
       </c>
       <c r="C59" t="s">
-        <v>250</v>
+        <v>319</v>
       </c>
       <c r="D59" t="s">
         <v>48</v>
       </c>
       <c r="E59">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F59">
-        <v>205000</v>
+        <v>105000</v>
       </c>
       <c r="G59">
-        <v>1025000</v>
+        <v>735000</v>
       </c>
       <c r="H59" t="s">
-        <v>251</v>
+        <v>320</v>
       </c>
       <c r="I59" t="s">
         <v>48</v>
@@ -9994,32 +10337,34 @@
         <v>48</v>
       </c>
       <c r="K59">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L59">
-        <v>145000</v>
+        <v>119000</v>
       </c>
       <c r="M59">
-        <v>870000</v>
+        <v>952000</v>
       </c>
       <c r="N59" t="s">
-        <v>252</v>
-      </c>
-      <c r="O59"/>
+        <v>321</v>
+      </c>
+      <c r="O59" t="s">
+        <v>48</v>
+      </c>
       <c r="P59" t="s">
         <v>48</v>
       </c>
-      <c r="Q59" t="s">
-        <v>48</v>
-      </c>
-      <c r="R59" t="s">
-        <v>48</v>
-      </c>
-      <c r="S59" t="s">
-        <v>48</v>
+      <c r="Q59">
+        <v>8</v>
+      </c>
+      <c r="R59">
+        <v>120000</v>
+      </c>
+      <c r="S59">
+        <v>960000</v>
       </c>
       <c r="T59" t="s">
-        <v>48</v>
+        <v>322</v>
       </c>
       <c r="U59" t="s">
         <v>48</v>
@@ -10102,46 +10447,46 @@
     </row>
     <row r="60" spans="1:46">
       <c r="A60" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>253</v>
+        <v>323</v>
       </c>
       <c r="C60" t="s">
-        <v>254</v>
+        <v>324</v>
       </c>
       <c r="D60" t="s">
         <v>48</v>
       </c>
       <c r="E60">
+        <v>8</v>
+      </c>
+      <c r="F60">
+        <v>118000</v>
+      </c>
+      <c r="G60">
+        <v>944000</v>
+      </c>
+      <c r="H60" t="s">
+        <v>325</v>
+      </c>
+      <c r="I60" t="s">
+        <v>324</v>
+      </c>
+      <c r="J60" t="s">
+        <v>48</v>
+      </c>
+      <c r="K60">
         <v>7</v>
       </c>
-      <c r="F60">
-        <v>105000</v>
-      </c>
-      <c r="G60">
-        <v>735000</v>
-      </c>
-      <c r="H60" t="s">
-        <v>255</v>
-      </c>
-      <c r="I60" t="s">
-        <v>48</v>
-      </c>
-      <c r="J60" t="s">
-        <v>48</v>
-      </c>
-      <c r="K60">
-        <v>8</v>
-      </c>
       <c r="L60">
-        <v>119000</v>
+        <v>118000</v>
       </c>
       <c r="M60">
-        <v>952000</v>
+        <v>826000</v>
       </c>
       <c r="N60" t="s">
-        <v>256</v>
+        <v>326</v>
       </c>
       <c r="O60" t="s">
         <v>48</v>
@@ -10149,17 +10494,17 @@
       <c r="P60" t="s">
         <v>48</v>
       </c>
-      <c r="Q60" t="s">
-        <v>48</v>
-      </c>
-      <c r="R60" t="s">
-        <v>48</v>
-      </c>
-      <c r="S60" t="s">
-        <v>48</v>
+      <c r="Q60">
+        <v>7</v>
+      </c>
+      <c r="R60">
+        <v>129000</v>
+      </c>
+      <c r="S60">
+        <v>903000</v>
       </c>
       <c r="T60" t="s">
-        <v>48</v>
+        <v>327</v>
       </c>
       <c r="U60" t="s">
         <v>48</v>
@@ -10242,64 +10587,64 @@
     </row>
     <row r="61" spans="1:46">
       <c r="A61" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>257</v>
+        <v>328</v>
       </c>
       <c r="C61" t="s">
-        <v>258</v>
+        <v>329</v>
       </c>
       <c r="D61" t="s">
         <v>48</v>
       </c>
-      <c r="E61" t="s">
-        <v>48</v>
-      </c>
-      <c r="F61" t="s">
-        <v>48</v>
-      </c>
-      <c r="G61" t="s">
-        <v>48</v>
+      <c r="E61">
+        <v>6</v>
+      </c>
+      <c r="F61">
+        <v>120000</v>
+      </c>
+      <c r="G61">
+        <v>720000</v>
       </c>
       <c r="H61" t="s">
-        <v>48</v>
+        <v>330</v>
       </c>
       <c r="I61" t="s">
-        <v>258</v>
+        <v>48</v>
       </c>
       <c r="J61" t="s">
         <v>48</v>
       </c>
-      <c r="K61" t="s">
-        <v>48</v>
-      </c>
-      <c r="L61" t="s">
-        <v>48</v>
-      </c>
-      <c r="M61" t="s">
-        <v>48</v>
+      <c r="K61">
+        <v>9</v>
+      </c>
+      <c r="L61">
+        <v>100000</v>
+      </c>
+      <c r="M61">
+        <v>900000</v>
       </c>
       <c r="N61" t="s">
-        <v>48</v>
+        <v>331</v>
       </c>
       <c r="O61" t="s">
-        <v>258</v>
+        <v>48</v>
       </c>
       <c r="P61" t="s">
         <v>48</v>
       </c>
-      <c r="Q61" t="s">
-        <v>48</v>
-      </c>
-      <c r="R61" t="s">
-        <v>48</v>
-      </c>
-      <c r="S61" t="s">
-        <v>48</v>
+      <c r="Q61">
+        <v>9</v>
+      </c>
+      <c r="R61">
+        <v>100000</v>
+      </c>
+      <c r="S61">
+        <v>900000</v>
       </c>
       <c r="T61" t="s">
-        <v>48</v>
+        <v>332</v>
       </c>
       <c r="U61" t="s">
         <v>48</v>
@@ -10382,46 +10727,46 @@
     </row>
     <row r="62" spans="1:46">
       <c r="A62" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>259</v>
+        <v>333</v>
       </c>
       <c r="C62" t="s">
-        <v>260</v>
+        <v>334</v>
       </c>
       <c r="D62" t="s">
         <v>48</v>
       </c>
       <c r="E62">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F62">
-        <v>120000</v>
+        <v>156000</v>
       </c>
       <c r="G62">
-        <v>720000</v>
+        <v>1092000</v>
       </c>
       <c r="H62" t="s">
-        <v>261</v>
+        <v>335</v>
       </c>
       <c r="I62" t="s">
-        <v>48</v>
+        <v>334</v>
       </c>
       <c r="J62" t="s">
         <v>48</v>
       </c>
       <c r="K62">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="L62">
-        <v>100000</v>
+        <v>158000</v>
       </c>
       <c r="M62">
-        <v>900000</v>
+        <v>1106000</v>
       </c>
       <c r="N62" t="s">
-        <v>262</v>
+        <v>336</v>
       </c>
       <c r="O62" t="s">
         <v>48</v>
@@ -10429,17 +10774,17 @@
       <c r="P62" t="s">
         <v>48</v>
       </c>
-      <c r="Q62" t="s">
-        <v>48</v>
-      </c>
-      <c r="R62" t="s">
-        <v>48</v>
-      </c>
-      <c r="S62" t="s">
-        <v>48</v>
+      <c r="Q62">
+        <v>7</v>
+      </c>
+      <c r="R62">
+        <v>162000</v>
+      </c>
+      <c r="S62">
+        <v>1134000</v>
       </c>
       <c r="T62" t="s">
-        <v>48</v>
+        <v>337</v>
       </c>
       <c r="U62" t="s">
         <v>48</v>
@@ -10522,46 +10867,46 @@
     </row>
     <row r="63" spans="1:46">
       <c r="A63" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>263</v>
+        <v>338</v>
       </c>
       <c r="C63" t="s">
-        <v>264</v>
+        <v>339</v>
       </c>
       <c r="D63" t="s">
         <v>48</v>
       </c>
-      <c r="E63" t="s">
-        <v>48</v>
-      </c>
-      <c r="F63" t="s">
-        <v>48</v>
-      </c>
-      <c r="G63" t="s">
-        <v>48</v>
+      <c r="E63">
+        <v>5</v>
+      </c>
+      <c r="F63">
+        <v>195409</v>
+      </c>
+      <c r="G63">
+        <v>977045</v>
       </c>
       <c r="H63" t="s">
-        <v>48</v>
+        <v>340</v>
       </c>
       <c r="I63" t="s">
-        <v>264</v>
+        <v>48</v>
       </c>
       <c r="J63" t="s">
         <v>48</v>
       </c>
       <c r="K63">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="L63">
-        <v>158000</v>
+        <v>166548</v>
       </c>
       <c r="M63">
-        <v>1106000</v>
+        <v>2498220</v>
       </c>
       <c r="N63" t="s">
-        <v>265</v>
+        <v>341</v>
       </c>
       <c r="O63" t="s">
         <v>48</v>
@@ -10569,8 +10914,8 @@
       <c r="P63" t="s">
         <v>48</v>
       </c>
-      <c r="Q63" t="s">
-        <v>48</v>
+      <c r="Q63">
+        <v>15</v>
       </c>
       <c r="R63" t="s">
         <v>48</v>
@@ -10584,8 +10929,9 @@
       <c r="U63" t="s">
         <v>48</v>
       </c>
-      <c r="V63" t="s">
-        <v>48</v>
+      <c r="V63" t="str">
+        <f>C63</f>
+        <v>落花.燃犀犀</v>
       </c>
       <c r="W63" t="s">
         <v>48</v>
@@ -10662,13 +11008,13 @@
     </row>
     <row r="64" spans="1:46">
       <c r="A64" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>266</v>
+        <v>342</v>
       </c>
       <c r="C64" t="s">
-        <v>267</v>
+        <v>343</v>
       </c>
       <c r="D64" t="s">
         <v>48</v>
@@ -10677,13 +11023,13 @@
         <v>5</v>
       </c>
       <c r="F64">
-        <v>195409</v>
+        <v>174000</v>
       </c>
       <c r="G64">
-        <v>977045</v>
+        <v>870000</v>
       </c>
       <c r="H64" t="s">
-        <v>268</v>
+        <v>344</v>
       </c>
       <c r="I64" t="s">
         <v>48</v>
@@ -10692,16 +11038,16 @@
         <v>48</v>
       </c>
       <c r="K64">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="L64">
-        <v>166548</v>
+        <v>150000</v>
       </c>
       <c r="M64">
-        <v>2498220</v>
+        <v>900000</v>
       </c>
       <c r="N64" t="s">
-        <v>269</v>
+        <v>345</v>
       </c>
       <c r="O64" t="s">
         <v>48</v>
@@ -10709,17 +11055,17 @@
       <c r="P64" t="s">
         <v>48</v>
       </c>
-      <c r="Q64" t="s">
-        <v>48</v>
-      </c>
-      <c r="R64" t="s">
-        <v>48</v>
-      </c>
-      <c r="S64" t="s">
-        <v>48</v>
+      <c r="Q64">
+        <v>6</v>
+      </c>
+      <c r="R64">
+        <v>153000</v>
+      </c>
+      <c r="S64">
+        <v>918000</v>
       </c>
       <c r="T64" t="s">
-        <v>48</v>
+        <v>346</v>
       </c>
       <c r="U64" t="s">
         <v>48</v>
@@ -10802,28 +11148,28 @@
     </row>
     <row r="65" spans="1:46">
       <c r="A65" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>270</v>
+        <v>347</v>
       </c>
       <c r="C65" t="s">
-        <v>271</v>
+        <v>348</v>
       </c>
       <c r="D65" t="s">
         <v>48</v>
       </c>
       <c r="E65">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F65">
-        <v>174000</v>
+        <v>182000</v>
       </c>
       <c r="G65">
-        <v>870000</v>
+        <v>1274000</v>
       </c>
       <c r="H65" t="s">
-        <v>272</v>
+        <v>349</v>
       </c>
       <c r="I65" t="s">
         <v>48</v>
@@ -10832,16 +11178,16 @@
         <v>48</v>
       </c>
       <c r="K65">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L65">
-        <v>150000</v>
+        <v>169000</v>
       </c>
       <c r="M65">
-        <v>900000</v>
+        <v>1183000</v>
       </c>
       <c r="N65" t="s">
-        <v>273</v>
+        <v>350</v>
       </c>
       <c r="O65" t="s">
         <v>48</v>
@@ -10849,17 +11195,17 @@
       <c r="P65" t="s">
         <v>48</v>
       </c>
-      <c r="Q65" t="s">
-        <v>48</v>
-      </c>
-      <c r="R65" t="s">
-        <v>48</v>
-      </c>
-      <c r="S65" t="s">
-        <v>48</v>
+      <c r="Q65">
+        <v>7</v>
+      </c>
+      <c r="R65">
+        <v>180000</v>
+      </c>
+      <c r="S65">
+        <v>1260000</v>
       </c>
       <c r="T65" t="s">
-        <v>48</v>
+        <v>351</v>
       </c>
       <c r="U65" t="s">
         <v>48</v>
@@ -10942,28 +11288,28 @@
     </row>
     <row r="66" spans="1:46">
       <c r="A66" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>274</v>
+        <v>352</v>
       </c>
       <c r="C66" t="s">
-        <v>275</v>
+        <v>353</v>
       </c>
       <c r="D66" t="s">
         <v>48</v>
       </c>
       <c r="E66">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F66">
-        <v>182000</v>
+        <v>194000</v>
       </c>
       <c r="G66">
-        <v>1274000</v>
+        <v>970000</v>
       </c>
       <c r="H66" t="s">
-        <v>276</v>
+        <v>354</v>
       </c>
       <c r="I66" t="s">
         <v>48</v>
@@ -10975,13 +11321,13 @@
         <v>7</v>
       </c>
       <c r="L66">
-        <v>169000</v>
+        <v>131000</v>
       </c>
       <c r="M66">
-        <v>1183000</v>
+        <v>917000</v>
       </c>
       <c r="N66" t="s">
-        <v>277</v>
+        <v>355</v>
       </c>
       <c r="O66" t="s">
         <v>48</v>
@@ -10989,17 +11335,17 @@
       <c r="P66" t="s">
         <v>48</v>
       </c>
-      <c r="Q66" t="s">
-        <v>48</v>
-      </c>
-      <c r="R66" t="s">
-        <v>48</v>
-      </c>
-      <c r="S66" t="s">
-        <v>48</v>
+      <c r="Q66">
+        <v>7</v>
+      </c>
+      <c r="R66">
+        <v>133000</v>
+      </c>
+      <c r="S66">
+        <v>931000</v>
       </c>
       <c r="T66" t="s">
-        <v>48</v>
+        <v>356</v>
       </c>
       <c r="U66" t="s">
         <v>48</v>
@@ -11082,13 +11428,13 @@
     </row>
     <row r="67" spans="1:46">
       <c r="A67" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>278</v>
+        <v>357</v>
       </c>
       <c r="C67" t="s">
-        <v>279</v>
+        <v>358</v>
       </c>
       <c r="D67" t="s">
         <v>48</v>
@@ -11097,13 +11443,13 @@
         <v>5</v>
       </c>
       <c r="F67">
-        <v>194000</v>
+        <v>162000</v>
       </c>
       <c r="G67">
-        <v>970000</v>
+        <v>810000</v>
       </c>
       <c r="H67" t="s">
-        <v>280</v>
+        <v>359</v>
       </c>
       <c r="I67" t="s">
         <v>48</v>
@@ -11112,16 +11458,16 @@
         <v>48</v>
       </c>
       <c r="K67">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L67">
-        <v>131000</v>
+        <v>164000</v>
       </c>
       <c r="M67">
-        <v>917000</v>
+        <v>984000</v>
       </c>
       <c r="N67" t="s">
-        <v>281</v>
+        <v>360</v>
       </c>
       <c r="O67" t="s">
         <v>48</v>
@@ -11129,17 +11475,17 @@
       <c r="P67" t="s">
         <v>48</v>
       </c>
-      <c r="Q67" t="s">
-        <v>48</v>
-      </c>
-      <c r="R67" t="s">
-        <v>48</v>
-      </c>
-      <c r="S67" t="s">
-        <v>48</v>
+      <c r="Q67">
+        <v>5</v>
+      </c>
+      <c r="R67">
+        <v>171000</v>
+      </c>
+      <c r="S67">
+        <v>855000</v>
       </c>
       <c r="T67" t="s">
-        <v>48</v>
+        <v>361</v>
       </c>
       <c r="U67" t="s">
         <v>48</v>
@@ -11222,13 +11568,13 @@
     </row>
     <row r="68" spans="1:46">
       <c r="A68" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>282</v>
+        <v>362</v>
       </c>
       <c r="C68" t="s">
-        <v>283</v>
+        <v>363</v>
       </c>
       <c r="D68" t="s">
         <v>48</v>
@@ -11237,13 +11583,13 @@
         <v>5</v>
       </c>
       <c r="F68">
-        <v>162000</v>
+        <v>161000</v>
       </c>
       <c r="G68">
-        <v>810000</v>
+        <v>805000</v>
       </c>
       <c r="H68" t="s">
-        <v>284</v>
+        <v>364</v>
       </c>
       <c r="I68" t="s">
         <v>48</v>
@@ -11255,13 +11601,13 @@
         <v>6</v>
       </c>
       <c r="L68">
-        <v>164000</v>
+        <v>168000</v>
       </c>
       <c r="M68">
-        <v>984000</v>
+        <v>1008000</v>
       </c>
       <c r="N68" t="s">
-        <v>285</v>
+        <v>365</v>
       </c>
       <c r="O68" t="s">
         <v>48</v>
@@ -11269,17 +11615,17 @@
       <c r="P68" t="s">
         <v>48</v>
       </c>
-      <c r="Q68" t="s">
-        <v>48</v>
-      </c>
-      <c r="R68" t="s">
-        <v>48</v>
-      </c>
-      <c r="S68" t="s">
-        <v>48</v>
+      <c r="Q68">
+        <v>6</v>
+      </c>
+      <c r="R68">
+        <v>168000</v>
+      </c>
+      <c r="S68">
+        <v>1008000</v>
       </c>
       <c r="T68" t="s">
-        <v>48</v>
+        <v>366</v>
       </c>
       <c r="U68" t="s">
         <v>48</v>
@@ -11362,13 +11708,13 @@
     </row>
     <row r="69" spans="1:46">
       <c r="A69" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>286</v>
+        <v>367</v>
       </c>
       <c r="C69" t="s">
-        <v>287</v>
+        <v>368</v>
       </c>
       <c r="D69" t="s">
         <v>48</v>
@@ -11377,13 +11723,13 @@
         <v>5</v>
       </c>
       <c r="F69">
-        <v>161000</v>
+        <v>139000</v>
       </c>
       <c r="G69">
-        <v>805000</v>
+        <v>695000</v>
       </c>
       <c r="H69" t="s">
-        <v>288</v>
+        <v>369</v>
       </c>
       <c r="I69" t="s">
         <v>48</v>
@@ -11395,13 +11741,13 @@
         <v>6</v>
       </c>
       <c r="L69">
-        <v>168000</v>
+        <v>135000</v>
       </c>
       <c r="M69">
-        <v>1008000</v>
+        <v>810000</v>
       </c>
       <c r="N69" t="s">
-        <v>289</v>
+        <v>370</v>
       </c>
       <c r="O69" t="s">
         <v>48</v>
@@ -11409,17 +11755,17 @@
       <c r="P69" t="s">
         <v>48</v>
       </c>
-      <c r="Q69" t="s">
-        <v>48</v>
-      </c>
-      <c r="R69" t="s">
-        <v>48</v>
-      </c>
-      <c r="S69" t="s">
-        <v>48</v>
+      <c r="Q69">
+        <v>7</v>
+      </c>
+      <c r="R69">
+        <v>140000</v>
+      </c>
+      <c r="S69">
+        <v>980000</v>
       </c>
       <c r="T69" t="s">
-        <v>48</v>
+        <v>371</v>
       </c>
       <c r="U69" t="s">
         <v>48</v>
@@ -11502,28 +11848,28 @@
     </row>
     <row r="70" spans="1:46">
       <c r="A70" s="1">
-        <v>68</v>
-      </c>
-      <c r="B70" t="s">
-        <v>290</v>
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>1372951725</v>
       </c>
       <c r="C70" t="s">
-        <v>291</v>
+        <v>372</v>
       </c>
       <c r="D70" t="s">
         <v>48</v>
       </c>
-      <c r="E70">
-        <v>5</v>
-      </c>
-      <c r="F70">
-        <v>139000</v>
-      </c>
-      <c r="G70">
-        <v>695000</v>
+      <c r="E70" t="s">
+        <v>48</v>
+      </c>
+      <c r="F70" t="s">
+        <v>48</v>
+      </c>
+      <c r="G70" t="s">
+        <v>48</v>
       </c>
       <c r="H70" t="s">
-        <v>292</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
         <v>48</v>
@@ -11531,17 +11877,17 @@
       <c r="J70" t="s">
         <v>48</v>
       </c>
-      <c r="K70">
-        <v>6</v>
-      </c>
-      <c r="L70">
-        <v>135000</v>
-      </c>
-      <c r="M70">
-        <v>810000</v>
+      <c r="K70" t="s">
+        <v>48</v>
+      </c>
+      <c r="L70" t="s">
+        <v>48</v>
+      </c>
+      <c r="M70" t="s">
+        <v>48</v>
       </c>
       <c r="N70" t="s">
-        <v>293</v>
+        <v>48</v>
       </c>
       <c r="O70" t="s">
         <v>48</v>
@@ -11642,13 +11988,13 @@
     </row>
     <row r="71" spans="1:46">
       <c r="A71" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>294</v>
+        <v>373</v>
       </c>
       <c r="C71" t="s">
-        <v>295</v>
+        <v>374</v>
       </c>
       <c r="D71" t="s">
         <v>48</v>
@@ -11659,8 +12005,9 @@
       <c r="F71" t="s">
         <v>48</v>
       </c>
-      <c r="G71" t="s">
-        <v>48</v>
+      <c r="G71">
+        <f>AVERAGE(G2:G70)</f>
+        <v>910964.918032787</v>
       </c>
       <c r="H71" t="s">
         <v>48</v>
@@ -11782,13 +12129,13 @@
     </row>
     <row r="72" spans="1:46">
       <c r="A72" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>296</v>
+        <v>375</v>
       </c>
       <c r="C72" t="s">
-        <v>297</v>
+        <v>376</v>
       </c>
       <c r="D72" t="s">
         <v>48</v>
@@ -11799,9 +12146,8 @@
       <c r="F72" t="s">
         <v>48</v>
       </c>
-      <c r="G72">
-        <f>AVERAGE(G2:G70)</f>
-        <v>910615.636363636</v>
+      <c r="G72" t="s">
+        <v>48</v>
       </c>
       <c r="H72" t="s">
         <v>48</v>

--- a/落花机密表_糙汉子版.xlsx
+++ b/落花机密表_糙汉子版.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView/>
+    <workbookView windowWidth="28800" windowHeight="12615"/>
   </bookViews>
   <sheets>
     <sheet name="9.9-9.15" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2556" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2421" uniqueCount="432">
   <si>
     <t>QQ</t>
   </si>
@@ -170,6 +170,9 @@
     <t>落花樱茶【出号价格可议私我</t>
   </si>
   <si>
+    <t>2019-09-13 09:47:26</t>
+  </si>
+  <si>
     <t>2019-09-09 14:02:51</t>
   </si>
   <si>
@@ -215,10 +218,19 @@
     <t>2019-09-10 22:53:48</t>
   </si>
   <si>
+    <t>1372951725</t>
+  </si>
+  <si>
+    <t>落花 Pixiv</t>
+  </si>
+  <si>
     <t>28854836</t>
   </si>
   <si>
-    <t>落花-伊莎贝拉</t>
+    <t>落花 伊莎贝拉</t>
+  </si>
+  <si>
+    <t>2019-09-13 08:40:59</t>
   </si>
   <si>
     <t>1041544486</t>
@@ -242,7 +254,7 @@
     <t>845423216</t>
   </si>
   <si>
-    <t>落花 ¿ Clear1（给我也整一个）</t>
+    <t>落花_Clear1（坚定不移的白嫖主义者）</t>
   </si>
   <si>
     <t>2019-09-09 05:51:01</t>
@@ -257,6 +269,9 @@
     <t>2019-09-12 06:41:13</t>
   </si>
   <si>
+    <t>2019-09-13 05:46:37</t>
+  </si>
+  <si>
     <t>1327856459</t>
   </si>
   <si>
@@ -272,6 +287,9 @@
     <t>2019-09-12 07:54:00</t>
   </si>
   <si>
+    <t>2019-09-13 07:44:42</t>
+  </si>
+  <si>
     <t>2661759612</t>
   </si>
   <si>
@@ -290,6 +308,9 @@
     <t>2019-09-12 07:19:24</t>
   </si>
   <si>
+    <t>2019-09-13 09:23:29</t>
+  </si>
+  <si>
     <t>1584039297</t>
   </si>
   <si>
@@ -305,6 +326,9 @@
     <t>2019-09-12 07:14:41</t>
   </si>
   <si>
+    <t>2019-09-13 07:53:05</t>
+  </si>
+  <si>
     <t>2753247176</t>
   </si>
   <si>
@@ -323,6 +347,9 @@
     <t>2019-09-12 09:56:45</t>
   </si>
   <si>
+    <t>2019-09-13 09:24:54</t>
+  </si>
+  <si>
     <t>784945709</t>
   </si>
   <si>
@@ -338,10 +365,16 @@
     <t>2019-09-11 08:25:28</t>
   </si>
   <si>
+    <t>2019-09-12 19:24:50</t>
+  </si>
+  <si>
+    <t>2019-09-13 09:36:11</t>
+  </si>
+  <si>
     <t>2605384970</t>
   </si>
   <si>
-    <t>落花い清茶（非洲酋长）</t>
+    <t>落花い清茶（勿扰，谢谢）</t>
   </si>
   <si>
     <t>2019-09-09 08:26:06</t>
@@ -356,6 +389,9 @@
     <t>2019-09-12 08:25:20</t>
   </si>
   <si>
+    <t>2019-09-13 08:16:08</t>
+  </si>
+  <si>
     <t>2638588219</t>
   </si>
   <si>
@@ -425,6 +461,9 @@
     <t>2019-09-12 07:29:54</t>
   </si>
   <si>
+    <t>2019-09-13 07:00:12</t>
+  </si>
+  <si>
     <t>2126851254</t>
   </si>
   <si>
@@ -458,6 +497,9 @@
     <t>2019-09-12 09:30:04</t>
   </si>
   <si>
+    <t>2019-09-13 08:55:54</t>
+  </si>
+  <si>
     <t>3191053965</t>
   </si>
   <si>
@@ -479,7 +521,7 @@
     <t>1664171803</t>
   </si>
   <si>
-    <t>落花ෆ总攻大人</t>
+    <t>落花𐂂总攻大人</t>
   </si>
   <si>
     <t>2019-09-09 09:51:33</t>
@@ -491,6 +533,9 @@
     <t>2019-09-11 10:00:05</t>
   </si>
   <si>
+    <t>2019-09-12 19:50:35</t>
+  </si>
+  <si>
     <t>joshuab@qq.com</t>
   </si>
   <si>
@@ -506,6 +551,12 @@
     <t>2019-09-11 10:17:19</t>
   </si>
   <si>
+    <t>2019-09-12 19:08:34</t>
+  </si>
+  <si>
+    <t>2019-09-13 08:13:25</t>
+  </si>
+  <si>
     <t>745415648</t>
   </si>
   <si>
@@ -521,6 +572,9 @@
     <t>2019-09-11 10:17:46</t>
   </si>
   <si>
+    <t>2019-09-12 19:28:15</t>
+  </si>
+  <si>
     <t>1841469477</t>
   </si>
   <si>
@@ -650,6 +704,9 @@
     <t>2019-09-11 18:54:13</t>
   </si>
   <si>
+    <t>2019-09-12 20:04:26</t>
+  </si>
+  <si>
     <t>793019511</t>
   </si>
   <si>
@@ -716,6 +773,9 @@
     <t>2019-09-11 12:50:08</t>
   </si>
   <si>
+    <t>2019-09-12 23:10:39</t>
+  </si>
+  <si>
     <t>505644622</t>
   </si>
   <si>
@@ -746,6 +806,9 @@
     <t>2019-09-11 12:53:18</t>
   </si>
   <si>
+    <t>2019-09-12 22:58:48</t>
+  </si>
+  <si>
     <t>1025385659</t>
   </si>
   <si>
@@ -758,6 +821,9 @@
     <t>2019-09-11 22:43:00</t>
   </si>
   <si>
+    <t>2019-09-12 18:33:44</t>
+  </si>
+  <si>
     <t>974687361</t>
   </si>
   <si>
@@ -776,6 +842,9 @@
     <t>2019-09-12 05:39:30</t>
   </si>
   <si>
+    <t>2019-09-13 07:07:11</t>
+  </si>
+  <si>
     <t>1003242662</t>
   </si>
   <si>
@@ -860,6 +929,9 @@
     <t>2019-09-11 13:35:39</t>
   </si>
   <si>
+    <t>2019-09-12 19:05:44</t>
+  </si>
+  <si>
     <t>710237833</t>
   </si>
   <si>
@@ -908,6 +980,9 @@
     <t>2019-09-11 15:49:20</t>
   </si>
   <si>
+    <t>2019-09-12 21:40:21</t>
+  </si>
+  <si>
     <t>651570472</t>
   </si>
   <si>
@@ -953,6 +1028,9 @@
     <t>2019-09-11 19:34:58</t>
   </si>
   <si>
+    <t>2019-09-12 21:35:41</t>
+  </si>
+  <si>
     <t>923418164</t>
   </si>
   <si>
@@ -968,6 +1046,9 @@
     <t>2019-09-11 20:05:13</t>
   </si>
   <si>
+    <t>2019-09-12 22:59:57</t>
+  </si>
+  <si>
     <t>648875355</t>
   </si>
   <si>
@@ -983,6 +1064,9 @@
     <t>2019-09-11 22:23:42</t>
   </si>
   <si>
+    <t>2019-09-12 20:08:13</t>
+  </si>
+  <si>
     <t>535509797</t>
   </si>
   <si>
@@ -995,6 +1079,9 @@
     <t>2019-09-11 20:58:20</t>
   </si>
   <si>
+    <t>2019-09-12 22:40:28</t>
+  </si>
+  <si>
     <t>491384166</t>
   </si>
   <si>
@@ -1025,6 +1112,9 @@
     <t>2019-09-11 22:29:48</t>
   </si>
   <si>
+    <t>2019-09-13 01:01:00</t>
+  </si>
+  <si>
     <t>2971057903</t>
   </si>
   <si>
@@ -1058,6 +1148,9 @@
     <t>2019-09-11 17:44:12</t>
   </si>
   <si>
+    <t>2019-09-12 19:20:36</t>
+  </si>
+  <si>
     <t>2406417774</t>
   </si>
   <si>
@@ -1070,6 +1163,9 @@
     <t>2019-09-11 21:04:48</t>
   </si>
   <si>
+    <t>2019-09-12 23:34:42</t>
+  </si>
+  <si>
     <t>1937237519</t>
   </si>
   <si>
@@ -1100,6 +1196,9 @@
     <t>2019-09-11 21:07:12</t>
   </si>
   <si>
+    <t>2019-09-12 22:47:51</t>
+  </si>
+  <si>
     <t>15451377</t>
   </si>
   <si>
@@ -1160,6 +1259,12 @@
     <t>2019-09-11 23:38:27</t>
   </si>
   <si>
+    <t>2019-09-13 02:20:06</t>
+  </si>
+  <si>
+    <t>2019-09-13 08:08:51</t>
+  </si>
+  <si>
     <t>121398489</t>
   </si>
   <si>
@@ -1182,12 +1287,6 @@
   </si>
   <si>
     <t>2019-09-10 19:06:06</t>
-  </si>
-  <si>
-    <t>1372951725</t>
-  </si>
-  <si>
-    <t>落花 Pixiv</t>
   </si>
   <si>
     <t>1971954551</t>
@@ -1225,7 +1324,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1241,13 +1340,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -1256,53 +1349,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1317,15 +1364,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1336,6 +1375,22 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1361,6 +1416,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -1369,16 +1446,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1386,7 +1471,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1401,7 +1493,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1413,13 +1547,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1431,97 +1637,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1534,54 +1674,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1610,17 +1702,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1642,35 +1739,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1680,6 +1751,21 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1699,159 +1785,165 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2209,8 +2301,8 @@
   <sheetPr/>
   <dimension ref="A1:AT71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="Q52" workbookViewId="0">
+      <selection activeCell="AE70" sqref="AE70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2237,10 +2329,11 @@
     <col min="23" max="24" width="7.625" customWidth="1"/>
     <col min="25" max="25" width="8.375" customWidth="1"/>
     <col min="26" max="26" width="21.5" customWidth="1"/>
-    <col min="27" max="27" width="7.625" customWidth="1"/>
+    <col min="27" max="27" width="38.25" customWidth="1"/>
     <col min="28" max="28" width="11.875" customWidth="1"/>
-    <col min="29" max="31" width="7.625" customWidth="1"/>
-    <col min="32" max="32" width="11.875" customWidth="1"/>
+    <col min="29" max="30" width="7.625" customWidth="1"/>
+    <col min="31" max="31" width="8.375" customWidth="1"/>
+    <col min="32" max="32" width="21.5" customWidth="1"/>
     <col min="33" max="33" width="7.625" customWidth="1"/>
     <col min="34" max="34" width="11.875" customWidth="1"/>
     <col min="35" max="37" width="7.625" customWidth="1"/>
@@ -2540,8 +2633,8 @@
       <c r="C3" t="s">
         <v>50</v>
       </c>
-      <c r="D3" s="2">
-        <v>43720.7181944445</v>
+      <c r="D3" t="s">
+        <v>51</v>
       </c>
       <c r="E3">
         <v>7</v>
@@ -2553,7 +2646,7 @@
         <v>2310000</v>
       </c>
       <c r="H3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I3" t="s">
         <v>47</v>
@@ -2571,7 +2664,7 @@
         <v>2970000</v>
       </c>
       <c r="N3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O3" t="s">
         <v>47</v>
@@ -2589,7 +2682,7 @@
         <v>2970000</v>
       </c>
       <c r="T3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="U3" t="s">
         <v>47</v>
@@ -2607,7 +2700,7 @@
         <v>2520000</v>
       </c>
       <c r="Z3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AA3" t="s">
         <v>47</v>
@@ -2675,10 +2768,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D4" t="s">
         <v>47</v>
@@ -2693,7 +2786,7 @@
         <v>1280000</v>
       </c>
       <c r="H4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I4" t="s">
         <v>47</v>
@@ -2711,7 +2804,7 @@
         <v>1862000</v>
       </c>
       <c r="N4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O4" t="s">
         <v>47</v>
@@ -2729,7 +2822,7 @@
         <v>1911000</v>
       </c>
       <c r="T4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U4" t="s">
         <v>47</v>
@@ -2747,7 +2840,7 @@
         <v>1925000</v>
       </c>
       <c r="Z4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AA4" t="s">
         <v>47</v>
@@ -2815,10 +2908,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D5" t="s">
         <v>47</v>
@@ -2955,10 +3048,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D6" t="s">
         <v>47</v>
@@ -2991,7 +3084,7 @@
         <v>47</v>
       </c>
       <c r="N6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O6" t="s">
         <v>47</v>
@@ -3095,10 +3188,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D7" t="s">
         <v>47</v>
@@ -3235,25 +3328,25 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D8" t="s">
         <v>47</v>
       </c>
-      <c r="E8">
-        <v>5</v>
-      </c>
-      <c r="F8">
-        <v>205000</v>
-      </c>
-      <c r="G8">
-        <v>1025000</v>
+      <c r="E8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" t="s">
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
         <v>47</v>
@@ -3261,71 +3354,71 @@
       <c r="J8" t="s">
         <v>47</v>
       </c>
-      <c r="K8">
-        <v>6</v>
-      </c>
-      <c r="L8">
-        <v>145000</v>
-      </c>
-      <c r="M8">
-        <v>870000</v>
+      <c r="K8" t="s">
+        <v>47</v>
+      </c>
+      <c r="L8" t="s">
+        <v>47</v>
+      </c>
+      <c r="M8" t="s">
+        <v>47</v>
       </c>
       <c r="N8" t="s">
+        <v>47</v>
+      </c>
+      <c r="O8" t="s">
+        <v>47</v>
+      </c>
+      <c r="P8" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>47</v>
+      </c>
+      <c r="R8" t="s">
+        <v>47</v>
+      </c>
+      <c r="S8" t="s">
+        <v>47</v>
+      </c>
+      <c r="T8" t="s">
+        <v>47</v>
+      </c>
+      <c r="U8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V8" t="s">
+        <v>47</v>
+      </c>
+      <c r="W8" t="s">
+        <v>47</v>
+      </c>
+      <c r="X8" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC8">
+        <v>9</v>
+      </c>
+      <c r="AD8">
+        <v>182000</v>
+      </c>
+      <c r="AE8">
+        <v>1638000</v>
+      </c>
+      <c r="AF8" t="s">
         <v>71</v>
-      </c>
-      <c r="O8" t="s">
-        <v>47</v>
-      </c>
-      <c r="P8" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q8">
-        <v>6</v>
-      </c>
-      <c r="R8">
-        <v>152000</v>
-      </c>
-      <c r="S8">
-        <v>912000</v>
-      </c>
-      <c r="T8" t="s">
-        <v>72</v>
-      </c>
-      <c r="U8" t="s">
-        <v>47</v>
-      </c>
-      <c r="V8" t="s">
-        <v>47</v>
-      </c>
-      <c r="W8">
-        <v>6</v>
-      </c>
-      <c r="X8">
-        <v>154000</v>
-      </c>
-      <c r="Y8">
-        <v>924000</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA8" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>47</v>
-      </c>
-      <c r="AC8" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE8" t="s">
-        <v>47</v>
-      </c>
-      <c r="AF8" t="s">
-        <v>47</v>
       </c>
       <c r="AG8" t="s">
         <v>47</v>
@@ -3375,10 +3468,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D9" t="s">
         <v>47</v>
@@ -3387,13 +3480,13 @@
         <v>5</v>
       </c>
       <c r="F9">
-        <v>150000</v>
+        <v>205000</v>
       </c>
       <c r="G9">
-        <v>750000</v>
+        <v>1025000</v>
       </c>
       <c r="H9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I9" t="s">
         <v>47</v>
@@ -3405,13 +3498,13 @@
         <v>6</v>
       </c>
       <c r="L9">
-        <v>160000</v>
+        <v>145000</v>
       </c>
       <c r="M9">
-        <v>960000</v>
+        <v>870000</v>
       </c>
       <c r="N9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="O9" t="s">
         <v>47</v>
@@ -3423,13 +3516,13 @@
         <v>6</v>
       </c>
       <c r="R9">
-        <v>160000</v>
+        <v>152000</v>
       </c>
       <c r="S9">
-        <v>960000</v>
+        <v>912000</v>
       </c>
       <c r="T9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="U9" t="s">
         <v>47</v>
@@ -3441,13 +3534,13 @@
         <v>6</v>
       </c>
       <c r="X9">
-        <v>160000</v>
+        <v>154000</v>
       </c>
       <c r="Y9">
-        <v>960000</v>
+        <v>924000</v>
       </c>
       <c r="Z9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AA9" t="s">
         <v>47</v>
@@ -3515,97 +3608,97 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10">
+        <v>5</v>
+      </c>
+      <c r="F10">
+        <v>150000</v>
+      </c>
+      <c r="G10">
+        <v>750000</v>
+      </c>
+      <c r="H10" t="s">
         <v>80</v>
       </c>
-      <c r="C10" t="s">
+      <c r="I10" t="s">
+        <v>47</v>
+      </c>
+      <c r="J10" t="s">
+        <v>47</v>
+      </c>
+      <c r="K10">
+        <v>6</v>
+      </c>
+      <c r="L10">
+        <v>160000</v>
+      </c>
+      <c r="M10">
+        <v>960000</v>
+      </c>
+      <c r="N10" t="s">
         <v>81</v>
       </c>
-      <c r="D10" t="s">
-        <v>47</v>
-      </c>
-      <c r="E10" t="s">
-        <v>47</v>
-      </c>
-      <c r="F10" t="s">
-        <v>47</v>
-      </c>
-      <c r="G10" t="s">
-        <v>47</v>
-      </c>
-      <c r="H10" t="s">
-        <v>47</v>
-      </c>
-      <c r="I10" t="s">
-        <v>47</v>
-      </c>
-      <c r="J10" t="s">
-        <v>47</v>
-      </c>
-      <c r="K10">
-        <v>5</v>
-      </c>
-      <c r="L10">
-        <v>152000</v>
-      </c>
-      <c r="M10">
-        <v>760000</v>
-      </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
+        <v>47</v>
+      </c>
+      <c r="P10" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q10">
+        <v>6</v>
+      </c>
+      <c r="R10">
+        <v>160000</v>
+      </c>
+      <c r="S10">
+        <v>960000</v>
+      </c>
+      <c r="T10" t="s">
         <v>82</v>
       </c>
-      <c r="O10" t="s">
-        <v>47</v>
-      </c>
-      <c r="P10" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q10">
-        <v>5</v>
-      </c>
-      <c r="R10">
-        <v>212000</v>
-      </c>
-      <c r="S10">
-        <v>1060000</v>
-      </c>
-      <c r="T10" t="s">
+      <c r="U10" t="s">
+        <v>47</v>
+      </c>
+      <c r="V10" t="s">
+        <v>47</v>
+      </c>
+      <c r="W10">
+        <v>6</v>
+      </c>
+      <c r="X10">
+        <v>160000</v>
+      </c>
+      <c r="Y10">
+        <v>960000</v>
+      </c>
+      <c r="Z10" t="s">
         <v>83</v>
       </c>
-      <c r="U10" t="s">
-        <v>47</v>
-      </c>
-      <c r="V10" t="s">
-        <v>47</v>
-      </c>
-      <c r="W10">
-        <v>5</v>
-      </c>
-      <c r="X10">
-        <v>212000</v>
-      </c>
-      <c r="Y10">
-        <v>1060000</v>
-      </c>
-      <c r="Z10" t="s">
+      <c r="AA10" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC10">
+        <v>6</v>
+      </c>
+      <c r="AD10">
+        <v>160000</v>
+      </c>
+      <c r="AE10">
+        <v>960000</v>
+      </c>
+      <c r="AF10" t="s">
         <v>84</v>
-      </c>
-      <c r="AA10" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB10" t="s">
-        <v>47</v>
-      </c>
-      <c r="AC10" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD10" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE10" t="s">
-        <v>47</v>
-      </c>
-      <c r="AF10" t="s">
-        <v>47</v>
       </c>
       <c r="AG10" t="s">
         <v>47</v>
@@ -3663,89 +3756,89 @@
       <c r="D11" t="s">
         <v>47</v>
       </c>
-      <c r="E11">
+      <c r="E11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" t="s">
+        <v>47</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>47</v>
+      </c>
+      <c r="J11" t="s">
+        <v>47</v>
+      </c>
+      <c r="K11">
         <v>5</v>
       </c>
-      <c r="F11">
-        <v>161289</v>
-      </c>
-      <c r="G11">
-        <v>806445</v>
-      </c>
-      <c r="H11" t="s">
+      <c r="L11">
+        <v>152000</v>
+      </c>
+      <c r="M11">
+        <v>760000</v>
+      </c>
+      <c r="N11" t="s">
         <v>87</v>
       </c>
-      <c r="I11" t="s">
-        <v>47</v>
-      </c>
-      <c r="J11" t="s">
-        <v>47</v>
-      </c>
-      <c r="K11">
-        <v>7</v>
-      </c>
-      <c r="L11">
-        <v>131562</v>
-      </c>
-      <c r="M11">
-        <v>920934</v>
-      </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
+        <v>47</v>
+      </c>
+      <c r="P11" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q11">
+        <v>5</v>
+      </c>
+      <c r="R11">
+        <v>212000</v>
+      </c>
+      <c r="S11">
+        <v>1060000</v>
+      </c>
+      <c r="T11" t="s">
         <v>88</v>
       </c>
-      <c r="O11" t="s">
-        <v>47</v>
-      </c>
-      <c r="P11" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q11">
-        <v>6</v>
-      </c>
-      <c r="R11">
-        <v>144018</v>
-      </c>
-      <c r="S11">
-        <v>864108</v>
-      </c>
-      <c r="T11" t="s">
+      <c r="U11" t="s">
+        <v>47</v>
+      </c>
+      <c r="V11" t="s">
+        <v>47</v>
+      </c>
+      <c r="W11">
+        <v>5</v>
+      </c>
+      <c r="X11">
+        <v>212000</v>
+      </c>
+      <c r="Y11">
+        <v>1060000</v>
+      </c>
+      <c r="Z11" t="s">
         <v>89</v>
       </c>
-      <c r="U11" t="s">
-        <v>47</v>
-      </c>
-      <c r="V11" t="s">
-        <v>47</v>
-      </c>
-      <c r="W11">
-        <v>7</v>
-      </c>
-      <c r="X11">
-        <v>139209</v>
-      </c>
-      <c r="Y11">
-        <v>974463</v>
-      </c>
-      <c r="Z11" t="s">
+      <c r="AA11" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC11">
+        <v>5</v>
+      </c>
+      <c r="AD11">
+        <v>212000</v>
+      </c>
+      <c r="AE11">
+        <v>1060000</v>
+      </c>
+      <c r="AF11" t="s">
         <v>90</v>
-      </c>
-      <c r="AA11" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB11" t="s">
-        <v>47</v>
-      </c>
-      <c r="AC11" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD11" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE11" t="s">
-        <v>47</v>
-      </c>
-      <c r="AF11" t="s">
-        <v>47</v>
       </c>
       <c r="AG11" t="s">
         <v>47</v>
@@ -3803,17 +3896,17 @@
       <c r="D12" t="s">
         <v>47</v>
       </c>
-      <c r="E12" t="s">
-        <v>47</v>
-      </c>
-      <c r="F12" t="s">
-        <v>47</v>
-      </c>
-      <c r="G12" t="s">
-        <v>47</v>
+      <c r="E12">
+        <v>5</v>
+      </c>
+      <c r="F12">
+        <v>161289</v>
+      </c>
+      <c r="G12">
+        <v>806445</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>93</v>
       </c>
       <c r="I12" t="s">
         <v>47</v>
@@ -3825,13 +3918,13 @@
         <v>7</v>
       </c>
       <c r="L12">
-        <v>137000</v>
+        <v>131562</v>
       </c>
       <c r="M12">
-        <v>959000</v>
+        <v>920934</v>
       </c>
       <c r="N12" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O12" t="s">
         <v>47</v>
@@ -3840,52 +3933,52 @@
         <v>47</v>
       </c>
       <c r="Q12">
+        <v>6</v>
+      </c>
+      <c r="R12">
+        <v>144018</v>
+      </c>
+      <c r="S12">
+        <v>864108</v>
+      </c>
+      <c r="T12" t="s">
+        <v>95</v>
+      </c>
+      <c r="U12" t="s">
+        <v>47</v>
+      </c>
+      <c r="V12" t="s">
+        <v>47</v>
+      </c>
+      <c r="W12">
         <v>7</v>
       </c>
-      <c r="R12">
-        <v>125000</v>
-      </c>
-      <c r="S12">
-        <v>875000</v>
-      </c>
-      <c r="T12" t="s">
-        <v>94</v>
-      </c>
-      <c r="U12" t="s">
-        <v>47</v>
-      </c>
-      <c r="V12" t="s">
-        <v>47</v>
-      </c>
-      <c r="W12">
+      <c r="X12">
+        <v>139209</v>
+      </c>
+      <c r="Y12">
+        <v>974463</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC12">
         <v>6</v>
       </c>
-      <c r="X12">
-        <v>142000</v>
-      </c>
-      <c r="Y12">
-        <v>852000</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>95</v>
-      </c>
-      <c r="AA12" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB12" t="s">
-        <v>47</v>
-      </c>
-      <c r="AC12" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD12" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE12" t="s">
-        <v>47</v>
+      <c r="AD12">
+        <v>152468</v>
+      </c>
+      <c r="AE12">
+        <v>914808</v>
       </c>
       <c r="AF12" t="s">
-        <v>47</v>
+        <v>97</v>
       </c>
       <c r="AG12" t="s">
         <v>47</v>
@@ -3935,43 +4028,43 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C13" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D13" t="s">
         <v>47</v>
       </c>
-      <c r="E13">
+      <c r="E13" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13" t="s">
+        <v>47</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>47</v>
+      </c>
+      <c r="J13" t="s">
+        <v>47</v>
+      </c>
+      <c r="K13">
         <v>7</v>
       </c>
-      <c r="F13">
-        <v>160000</v>
-      </c>
-      <c r="G13">
-        <v>1120000</v>
-      </c>
-      <c r="H13" t="s">
-        <v>98</v>
-      </c>
-      <c r="I13" t="s">
-        <v>47</v>
-      </c>
-      <c r="J13" t="s">
-        <v>47</v>
-      </c>
-      <c r="K13">
-        <v>6</v>
-      </c>
       <c r="L13">
-        <v>145000</v>
+        <v>137000</v>
       </c>
       <c r="M13">
-        <v>870000</v>
+        <v>959000</v>
       </c>
       <c r="N13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O13" t="s">
         <v>47</v>
@@ -3983,13 +4076,13 @@
         <v>7</v>
       </c>
       <c r="R13">
-        <v>145000</v>
+        <v>125000</v>
       </c>
       <c r="S13">
-        <v>1015000</v>
+        <v>875000</v>
       </c>
       <c r="T13" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="U13" t="s">
         <v>47</v>
@@ -4001,13 +4094,13 @@
         <v>6</v>
       </c>
       <c r="X13">
-        <v>145000</v>
+        <v>142000</v>
       </c>
       <c r="Y13">
-        <v>870000</v>
+        <v>852000</v>
       </c>
       <c r="Z13" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AA13" t="s">
         <v>47</v>
@@ -4015,17 +4108,17 @@
       <c r="AB13" t="s">
         <v>47</v>
       </c>
-      <c r="AC13" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD13" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE13" t="s">
-        <v>47</v>
+      <c r="AC13">
+        <v>6</v>
+      </c>
+      <c r="AD13">
+        <v>150000</v>
+      </c>
+      <c r="AE13">
+        <v>900000</v>
       </c>
       <c r="AF13" t="s">
-        <v>47</v>
+        <v>103</v>
       </c>
       <c r="AG13" t="s">
         <v>47</v>
@@ -4075,10 +4168,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C14" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D14" t="s">
         <v>47</v>
@@ -4087,13 +4180,13 @@
         <v>7</v>
       </c>
       <c r="F14">
-        <v>165000</v>
+        <v>160000</v>
       </c>
       <c r="G14">
-        <v>1155000</v>
+        <v>1120000</v>
       </c>
       <c r="H14" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="I14" t="s">
         <v>47</v>
@@ -4102,16 +4195,16 @@
         <v>47</v>
       </c>
       <c r="K14">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L14">
-        <v>158000</v>
+        <v>145000</v>
       </c>
       <c r="M14">
-        <v>1106000</v>
+        <v>870000</v>
       </c>
       <c r="N14" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="O14" t="s">
         <v>47</v>
@@ -4123,13 +4216,13 @@
         <v>7</v>
       </c>
       <c r="R14">
-        <v>159000</v>
+        <v>145000</v>
       </c>
       <c r="S14">
-        <v>1113000</v>
+        <v>1015000</v>
       </c>
       <c r="T14" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="U14" t="s">
         <v>47</v>
@@ -4137,17 +4230,17 @@
       <c r="V14" t="s">
         <v>47</v>
       </c>
-      <c r="W14" t="s">
-        <v>47</v>
-      </c>
-      <c r="X14" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>47</v>
+      <c r="W14">
+        <v>6</v>
+      </c>
+      <c r="X14">
+        <v>145000</v>
+      </c>
+      <c r="Y14">
+        <v>870000</v>
       </c>
       <c r="Z14" t="s">
-        <v>47</v>
+        <v>109</v>
       </c>
       <c r="AA14" t="s">
         <v>47</v>
@@ -4155,17 +4248,17 @@
       <c r="AB14" t="s">
         <v>47</v>
       </c>
-      <c r="AC14" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD14" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE14" t="s">
-        <v>47</v>
+      <c r="AC14">
+        <v>6</v>
+      </c>
+      <c r="AD14">
+        <v>150000</v>
+      </c>
+      <c r="AE14">
+        <v>900000</v>
       </c>
       <c r="AF14" t="s">
-        <v>47</v>
+        <v>110</v>
       </c>
       <c r="AG14" t="s">
         <v>47</v>
@@ -4215,10 +4308,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C15" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D15" t="s">
         <v>47</v>
@@ -4227,13 +4320,13 @@
         <v>7</v>
       </c>
       <c r="F15">
-        <v>210000</v>
+        <v>165000</v>
       </c>
       <c r="G15">
-        <v>1470000</v>
+        <v>1155000</v>
       </c>
       <c r="H15" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="I15" t="s">
         <v>47</v>
@@ -4242,16 +4335,16 @@
         <v>47</v>
       </c>
       <c r="K15">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L15">
-        <v>260000</v>
+        <v>158000</v>
       </c>
       <c r="M15">
-        <v>1300000</v>
+        <v>1106000</v>
       </c>
       <c r="N15" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="O15" t="s">
         <v>47</v>
@@ -4260,16 +4353,16 @@
         <v>47</v>
       </c>
       <c r="Q15">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="R15">
-        <v>268000</v>
+        <v>159000</v>
       </c>
       <c r="S15">
-        <v>1340000</v>
+        <v>1113000</v>
       </c>
       <c r="T15" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="U15" t="s">
         <v>47</v>
@@ -4278,16 +4371,16 @@
         <v>47</v>
       </c>
       <c r="W15">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="X15">
-        <v>268000</v>
+        <v>169000</v>
       </c>
       <c r="Y15">
-        <v>1340000</v>
+        <v>1183000</v>
       </c>
       <c r="Z15" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="AA15" t="s">
         <v>47</v>
@@ -4295,17 +4388,17 @@
       <c r="AB15" t="s">
         <v>47</v>
       </c>
-      <c r="AC15" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD15" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE15" t="s">
-        <v>47</v>
+      <c r="AC15">
+        <v>7</v>
+      </c>
+      <c r="AD15">
+        <v>171000</v>
+      </c>
+      <c r="AE15">
+        <v>1197000</v>
       </c>
       <c r="AF15" t="s">
-        <v>47</v>
+        <v>117</v>
       </c>
       <c r="AG15" t="s">
         <v>47</v>
@@ -4355,10 +4448,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="C16" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="D16" t="s">
         <v>47</v>
@@ -4367,13 +4460,13 @@
         <v>7</v>
       </c>
       <c r="F16">
-        <v>157000</v>
+        <v>210000</v>
       </c>
       <c r="G16">
-        <v>1099000</v>
+        <v>1470000</v>
       </c>
       <c r="H16" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="I16" t="s">
         <v>47</v>
@@ -4382,16 +4475,16 @@
         <v>47</v>
       </c>
       <c r="K16">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="L16">
-        <v>130000</v>
+        <v>260000</v>
       </c>
       <c r="M16">
-        <v>1170000</v>
+        <v>1300000</v>
       </c>
       <c r="N16" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="O16" t="s">
         <v>47</v>
@@ -4400,16 +4493,16 @@
         <v>47</v>
       </c>
       <c r="Q16">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="R16">
-        <v>130000</v>
+        <v>268000</v>
       </c>
       <c r="S16">
-        <v>910000</v>
+        <v>1340000</v>
       </c>
       <c r="T16" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="U16" t="s">
         <v>47</v>
@@ -4418,16 +4511,16 @@
         <v>47</v>
       </c>
       <c r="W16">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="X16">
-        <v>132000</v>
+        <v>268000</v>
       </c>
       <c r="Y16">
-        <v>1188000</v>
+        <v>1340000</v>
       </c>
       <c r="Z16" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="AA16" t="s">
         <v>47</v>
@@ -4435,17 +4528,17 @@
       <c r="AB16" t="s">
         <v>47</v>
       </c>
-      <c r="AC16" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD16" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE16" t="s">
-        <v>47</v>
+      <c r="AC16">
+        <v>5</v>
+      </c>
+      <c r="AD16">
+        <v>271000</v>
+      </c>
+      <c r="AE16">
+        <v>1355000</v>
       </c>
       <c r="AF16" t="s">
-        <v>47</v>
+        <v>124</v>
       </c>
       <c r="AG16" t="s">
         <v>47</v>
@@ -4495,25 +4588,25 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C17" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="D17" t="s">
         <v>47</v>
       </c>
-      <c r="E17" t="s">
-        <v>47</v>
-      </c>
-      <c r="F17" t="s">
-        <v>47</v>
-      </c>
-      <c r="G17" t="s">
-        <v>47</v>
+      <c r="E17">
+        <v>7</v>
+      </c>
+      <c r="F17">
+        <v>157000</v>
+      </c>
+      <c r="G17">
+        <v>1099000</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>127</v>
       </c>
       <c r="I17" t="s">
         <v>47</v>
@@ -4522,16 +4615,16 @@
         <v>47</v>
       </c>
       <c r="K17">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="L17">
-        <v>172000</v>
+        <v>130000</v>
       </c>
       <c r="M17">
-        <v>860000</v>
+        <v>1170000</v>
       </c>
       <c r="N17" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="O17" t="s">
         <v>47</v>
@@ -4540,16 +4633,16 @@
         <v>47</v>
       </c>
       <c r="Q17">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="R17">
-        <v>182000</v>
+        <v>130000</v>
       </c>
       <c r="S17">
         <v>910000</v>
       </c>
       <c r="T17" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="U17" t="s">
         <v>47</v>
@@ -4558,16 +4651,16 @@
         <v>47</v>
       </c>
       <c r="W17">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="X17">
-        <v>193000</v>
+        <v>132000</v>
       </c>
       <c r="Y17">
-        <v>965000</v>
+        <v>1188000</v>
       </c>
       <c r="Z17" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="AA17" t="s">
         <v>47</v>
@@ -4635,25 +4728,25 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="C18" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="D18" t="s">
         <v>47</v>
       </c>
-      <c r="E18">
-        <v>5</v>
-      </c>
-      <c r="F18">
-        <v>167000</v>
-      </c>
-      <c r="G18">
-        <v>835000</v>
+      <c r="E18" t="s">
+        <v>47</v>
+      </c>
+      <c r="F18" t="s">
+        <v>47</v>
+      </c>
+      <c r="G18" t="s">
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>126</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
         <v>47</v>
@@ -4665,13 +4758,13 @@
         <v>5</v>
       </c>
       <c r="L18">
-        <v>189000</v>
+        <v>172000</v>
       </c>
       <c r="M18">
-        <v>945000</v>
+        <v>860000</v>
       </c>
       <c r="N18" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="O18" t="s">
         <v>47</v>
@@ -4683,13 +4776,13 @@
         <v>5</v>
       </c>
       <c r="R18">
-        <v>197000</v>
+        <v>182000</v>
       </c>
       <c r="S18">
-        <v>985000</v>
+        <v>910000</v>
       </c>
       <c r="T18" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="U18" t="s">
         <v>47</v>
@@ -4701,13 +4794,13 @@
         <v>5</v>
       </c>
       <c r="X18">
-        <v>197000</v>
+        <v>193000</v>
       </c>
       <c r="Y18">
-        <v>985000</v>
+        <v>965000</v>
       </c>
       <c r="Z18" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="AA18" t="s">
         <v>47</v>
@@ -4775,25 +4868,25 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="C19" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="D19" t="s">
         <v>47</v>
       </c>
       <c r="E19">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F19">
-        <v>120000</v>
+        <v>167000</v>
       </c>
       <c r="G19">
-        <v>720000</v>
+        <v>835000</v>
       </c>
       <c r="H19" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="I19" t="s">
         <v>47</v>
@@ -4802,16 +4895,16 @@
         <v>47</v>
       </c>
       <c r="K19">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="L19">
-        <v>100000</v>
+        <v>189000</v>
       </c>
       <c r="M19">
-        <v>900000</v>
+        <v>945000</v>
       </c>
       <c r="N19" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="O19" t="s">
         <v>47</v>
@@ -4820,16 +4913,16 @@
         <v>47</v>
       </c>
       <c r="Q19">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="R19">
-        <v>100000</v>
+        <v>197000</v>
       </c>
       <c r="S19">
-        <v>900000</v>
+        <v>985000</v>
       </c>
       <c r="T19" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="U19" t="s">
         <v>47</v>
@@ -4838,16 +4931,16 @@
         <v>47</v>
       </c>
       <c r="W19">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="X19">
-        <v>120000</v>
+        <v>197000</v>
       </c>
       <c r="Y19">
-        <v>960000</v>
+        <v>985000</v>
       </c>
       <c r="Z19" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="AA19" t="s">
         <v>47</v>
@@ -4915,25 +5008,25 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="C20" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="D20" t="s">
         <v>47</v>
       </c>
-      <c r="E20" t="s">
-        <v>47</v>
-      </c>
-      <c r="F20" t="s">
-        <v>47</v>
-      </c>
-      <c r="G20" t="s">
-        <v>47</v>
+      <c r="E20">
+        <v>6</v>
+      </c>
+      <c r="F20">
+        <v>120000</v>
+      </c>
+      <c r="G20">
+        <v>720000</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>144</v>
       </c>
       <c r="I20" t="s">
         <v>47</v>
@@ -4942,70 +5035,70 @@
         <v>47</v>
       </c>
       <c r="K20">
+        <v>9</v>
+      </c>
+      <c r="L20">
+        <v>100000</v>
+      </c>
+      <c r="M20">
+        <v>900000</v>
+      </c>
+      <c r="N20" t="s">
+        <v>145</v>
+      </c>
+      <c r="O20" t="s">
+        <v>47</v>
+      </c>
+      <c r="P20" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q20">
+        <v>9</v>
+      </c>
+      <c r="R20">
+        <v>100000</v>
+      </c>
+      <c r="S20">
+        <v>900000</v>
+      </c>
+      <c r="T20" t="s">
+        <v>146</v>
+      </c>
+      <c r="U20" t="s">
+        <v>47</v>
+      </c>
+      <c r="V20" t="s">
+        <v>47</v>
+      </c>
+      <c r="W20">
+        <v>8</v>
+      </c>
+      <c r="X20">
+        <v>120000</v>
+      </c>
+      <c r="Y20">
+        <v>960000</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>147</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC20">
         <v>7</v>
       </c>
-      <c r="L20">
-        <v>158000</v>
-      </c>
-      <c r="M20">
-        <v>1106000</v>
-      </c>
-      <c r="N20" t="s">
-        <v>138</v>
-      </c>
-      <c r="O20" t="s">
-        <v>47</v>
-      </c>
-      <c r="P20" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q20">
-        <v>7</v>
-      </c>
-      <c r="R20">
-        <v>162000</v>
-      </c>
-      <c r="S20">
-        <v>1134000</v>
-      </c>
-      <c r="T20" t="s">
-        <v>139</v>
-      </c>
-      <c r="U20" t="s">
-        <v>47</v>
-      </c>
-      <c r="V20" t="s">
-        <v>47</v>
-      </c>
-      <c r="W20">
-        <v>7</v>
-      </c>
-      <c r="X20">
-        <v>163000</v>
-      </c>
-      <c r="Y20">
-        <v>1141000</v>
-      </c>
-      <c r="Z20" t="s">
-        <v>140</v>
-      </c>
-      <c r="AA20" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB20" t="s">
-        <v>47</v>
-      </c>
-      <c r="AC20" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD20" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE20" t="s">
-        <v>47</v>
+      <c r="AD20">
+        <v>126000</v>
+      </c>
+      <c r="AE20">
+        <v>882000</v>
       </c>
       <c r="AF20" t="s">
-        <v>47</v>
+        <v>148</v>
       </c>
       <c r="AG20" t="s">
         <v>47</v>
@@ -5055,25 +5148,25 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="C21" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="D21" t="s">
         <v>47</v>
       </c>
-      <c r="E21">
-        <v>5</v>
-      </c>
-      <c r="F21">
-        <v>161000</v>
-      </c>
-      <c r="G21">
-        <v>805000</v>
+      <c r="E21" t="s">
+        <v>47</v>
+      </c>
+      <c r="F21" t="s">
+        <v>47</v>
+      </c>
+      <c r="G21" t="s">
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>143</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
         <v>47</v>
@@ -5082,16 +5175,16 @@
         <v>47</v>
       </c>
       <c r="K21">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L21">
-        <v>168000</v>
+        <v>158000</v>
       </c>
       <c r="M21">
-        <v>1008000</v>
+        <v>1106000</v>
       </c>
       <c r="N21" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="O21" t="s">
         <v>47</v>
@@ -5100,16 +5193,16 @@
         <v>47</v>
       </c>
       <c r="Q21">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R21">
-        <v>168000</v>
+        <v>162000</v>
       </c>
       <c r="S21">
-        <v>1008000</v>
+        <v>1134000</v>
       </c>
       <c r="T21" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="U21" t="s">
         <v>47</v>
@@ -5118,16 +5211,16 @@
         <v>47</v>
       </c>
       <c r="W21">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="X21">
-        <v>168000</v>
+        <v>163000</v>
       </c>
       <c r="Y21">
-        <v>1008000</v>
+        <v>1141000</v>
       </c>
       <c r="Z21" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="AA21" t="s">
         <v>47</v>
@@ -5195,10 +5288,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="C22" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="D22" t="s">
         <v>47</v>
@@ -5207,13 +5300,13 @@
         <v>5</v>
       </c>
       <c r="F22">
-        <v>139000</v>
+        <v>161000</v>
       </c>
       <c r="G22">
-        <v>695000</v>
+        <v>805000</v>
       </c>
       <c r="H22" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="I22" t="s">
         <v>47</v>
@@ -5225,13 +5318,13 @@
         <v>6</v>
       </c>
       <c r="L22">
-        <v>135000</v>
+        <v>168000</v>
       </c>
       <c r="M22">
-        <v>810000</v>
+        <v>1008000</v>
       </c>
       <c r="N22" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="O22" t="s">
         <v>47</v>
@@ -5240,16 +5333,16 @@
         <v>47</v>
       </c>
       <c r="Q22">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R22">
-        <v>140000</v>
+        <v>168000</v>
       </c>
       <c r="S22">
-        <v>980000</v>
+        <v>1008000</v>
       </c>
       <c r="T22" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="U22" t="s">
         <v>47</v>
@@ -5261,13 +5354,13 @@
         <v>6</v>
       </c>
       <c r="X22">
-        <v>140000</v>
+        <v>168000</v>
       </c>
       <c r="Y22">
-        <v>840000</v>
+        <v>1008000</v>
       </c>
       <c r="Z22" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="AA22" t="s">
         <v>47</v>
@@ -5275,17 +5368,17 @@
       <c r="AB22" t="s">
         <v>47</v>
       </c>
-      <c r="AC22" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD22" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE22" t="s">
-        <v>47</v>
+      <c r="AC22">
+        <v>5</v>
+      </c>
+      <c r="AD22">
+        <v>176000</v>
+      </c>
+      <c r="AE22">
+        <v>880000</v>
       </c>
       <c r="AF22" t="s">
-        <v>47</v>
+        <v>160</v>
       </c>
       <c r="AG22" t="s">
         <v>47</v>
@@ -5335,10 +5428,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="C23" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="D23" t="s">
         <v>47</v>
@@ -5347,13 +5440,13 @@
         <v>5</v>
       </c>
       <c r="F23">
-        <v>152000</v>
+        <v>139000</v>
       </c>
       <c r="G23">
-        <v>760000</v>
+        <v>695000</v>
       </c>
       <c r="H23" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="I23" t="s">
         <v>47</v>
@@ -5362,52 +5455,52 @@
         <v>47</v>
       </c>
       <c r="K23">
+        <v>6</v>
+      </c>
+      <c r="L23">
+        <v>135000</v>
+      </c>
+      <c r="M23">
+        <v>810000</v>
+      </c>
+      <c r="N23" t="s">
+        <v>164</v>
+      </c>
+      <c r="O23" t="s">
+        <v>47</v>
+      </c>
+      <c r="P23" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q23">
         <v>7</v>
       </c>
-      <c r="L23">
+      <c r="R23">
         <v>140000</v>
       </c>
-      <c r="M23">
+      <c r="S23">
         <v>980000</v>
       </c>
-      <c r="N23" t="s">
-        <v>156</v>
-      </c>
-      <c r="O23" t="s">
-        <v>47</v>
-      </c>
-      <c r="P23" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q23">
+      <c r="T23" t="s">
+        <v>165</v>
+      </c>
+      <c r="U23" t="s">
+        <v>47</v>
+      </c>
+      <c r="V23" t="s">
+        <v>47</v>
+      </c>
+      <c r="W23">
         <v>6</v>
       </c>
-      <c r="R23">
-        <v>161000</v>
-      </c>
-      <c r="S23">
-        <v>966000</v>
-      </c>
-      <c r="T23" t="s">
-        <v>157</v>
-      </c>
-      <c r="U23" t="s">
-        <v>47</v>
-      </c>
-      <c r="V23" t="s">
-        <v>47</v>
-      </c>
-      <c r="W23" t="s">
-        <v>47</v>
-      </c>
-      <c r="X23" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y23" t="s">
-        <v>47</v>
+      <c r="X23">
+        <v>140000</v>
+      </c>
+      <c r="Y23">
+        <v>840000</v>
       </c>
       <c r="Z23" t="s">
-        <v>47</v>
+        <v>166</v>
       </c>
       <c r="AA23" t="s">
         <v>47</v>
@@ -5475,10 +5568,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="C24" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="D24" t="s">
         <v>47</v>
@@ -5487,13 +5580,13 @@
         <v>5</v>
       </c>
       <c r="F24">
-        <v>183000</v>
+        <v>152000</v>
       </c>
       <c r="G24">
-        <v>915000</v>
+        <v>760000</v>
       </c>
       <c r="H24" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="I24" t="s">
         <v>47</v>
@@ -5505,13 +5598,13 @@
         <v>7</v>
       </c>
       <c r="L24">
-        <v>122000</v>
+        <v>140000</v>
       </c>
       <c r="M24">
-        <v>854000</v>
+        <v>980000</v>
       </c>
       <c r="N24" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="O24" t="s">
         <v>47</v>
@@ -5520,16 +5613,16 @@
         <v>47</v>
       </c>
       <c r="Q24">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R24">
-        <v>122000</v>
+        <v>161000</v>
       </c>
       <c r="S24">
-        <v>854000</v>
+        <v>966000</v>
       </c>
       <c r="T24" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="U24" t="s">
         <v>47</v>
@@ -5537,17 +5630,17 @@
       <c r="V24" t="s">
         <v>47</v>
       </c>
-      <c r="W24" t="s">
-        <v>47</v>
-      </c>
-      <c r="X24" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y24" t="s">
-        <v>47</v>
+      <c r="W24">
+        <v>6</v>
+      </c>
+      <c r="X24">
+        <v>167000</v>
+      </c>
+      <c r="Y24">
+        <v>1002000</v>
       </c>
       <c r="Z24" t="s">
-        <v>47</v>
+        <v>172</v>
       </c>
       <c r="AA24" t="s">
         <v>47</v>
@@ -5615,25 +5708,25 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="C25" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="D25" t="s">
         <v>47</v>
       </c>
       <c r="E25">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F25">
-        <v>131000</v>
+        <v>183000</v>
       </c>
       <c r="G25">
-        <v>786000</v>
+        <v>915000</v>
       </c>
       <c r="H25" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="I25" t="s">
         <v>47</v>
@@ -5651,7 +5744,7 @@
         <v>854000</v>
       </c>
       <c r="N25" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="O25" t="s">
         <v>47</v>
@@ -5663,31 +5756,31 @@
         <v>7</v>
       </c>
       <c r="R25">
+        <v>122000</v>
+      </c>
+      <c r="S25">
+        <v>854000</v>
+      </c>
+      <c r="T25" t="s">
+        <v>177</v>
+      </c>
+      <c r="U25" t="s">
+        <v>47</v>
+      </c>
+      <c r="V25" t="s">
+        <v>47</v>
+      </c>
+      <c r="W25">
+        <v>7</v>
+      </c>
+      <c r="X25">
         <v>123000</v>
       </c>
-      <c r="S25">
+      <c r="Y25">
         <v>861000</v>
       </c>
-      <c r="T25" t="s">
-        <v>167</v>
-      </c>
-      <c r="U25" t="s">
-        <v>47</v>
-      </c>
-      <c r="V25" t="s">
-        <v>47</v>
-      </c>
-      <c r="W25" t="s">
-        <v>47</v>
-      </c>
-      <c r="X25" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y25" t="s">
-        <v>47</v>
-      </c>
       <c r="Z25" t="s">
-        <v>47</v>
+        <v>178</v>
       </c>
       <c r="AA25" t="s">
         <v>47</v>
@@ -5695,17 +5788,17 @@
       <c r="AB25" t="s">
         <v>47</v>
       </c>
-      <c r="AC25" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD25" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE25" t="s">
-        <v>47</v>
+      <c r="AC25">
+        <v>7</v>
+      </c>
+      <c r="AD25">
+        <v>124000</v>
+      </c>
+      <c r="AE25">
+        <v>868000</v>
       </c>
       <c r="AF25" t="s">
-        <v>47</v>
+        <v>179</v>
       </c>
       <c r="AG25" t="s">
         <v>47</v>
@@ -5755,25 +5848,25 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="C26" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="D26" t="s">
         <v>47</v>
       </c>
-      <c r="E26" t="s">
-        <v>47</v>
-      </c>
-      <c r="F26" t="s">
-        <v>47</v>
-      </c>
-      <c r="G26" t="s">
-        <v>47</v>
+      <c r="E26">
+        <v>6</v>
+      </c>
+      <c r="F26">
+        <v>131000</v>
+      </c>
+      <c r="G26">
+        <v>786000</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>182</v>
       </c>
       <c r="I26" t="s">
         <v>47</v>
@@ -5782,16 +5875,16 @@
         <v>47</v>
       </c>
       <c r="K26">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L26">
-        <v>150000</v>
+        <v>122000</v>
       </c>
       <c r="M26">
-        <v>900000</v>
+        <v>854000</v>
       </c>
       <c r="N26" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="O26" t="s">
         <v>47</v>
@@ -5800,16 +5893,16 @@
         <v>47</v>
       </c>
       <c r="Q26">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R26">
-        <v>150000</v>
+        <v>123000</v>
       </c>
       <c r="S26">
-        <v>900000</v>
+        <v>861000</v>
       </c>
       <c r="T26" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="U26" t="s">
         <v>47</v>
@@ -5818,16 +5911,16 @@
         <v>47</v>
       </c>
       <c r="W26">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="X26">
-        <v>150000</v>
+        <v>124000</v>
       </c>
       <c r="Y26">
-        <v>900000</v>
+        <v>868000</v>
       </c>
       <c r="Z26" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="AA26" t="s">
         <v>47</v>
@@ -5895,25 +5988,25 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="C27" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="D27" t="s">
         <v>47</v>
       </c>
-      <c r="E27">
-        <v>5</v>
-      </c>
-      <c r="F27">
-        <v>170000</v>
-      </c>
-      <c r="G27">
-        <v>850000</v>
+      <c r="E27" t="s">
+        <v>47</v>
+      </c>
+      <c r="F27" t="s">
+        <v>47</v>
+      </c>
+      <c r="G27" t="s">
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>175</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
         <v>47</v>
@@ -5925,13 +6018,13 @@
         <v>6</v>
       </c>
       <c r="L27">
-        <v>172000</v>
+        <v>150000</v>
       </c>
       <c r="M27">
-        <v>1032000</v>
+        <v>900000</v>
       </c>
       <c r="N27" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="O27" t="s">
         <v>47</v>
@@ -5940,16 +6033,16 @@
         <v>47</v>
       </c>
       <c r="Q27">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R27">
-        <v>178000</v>
+        <v>150000</v>
       </c>
       <c r="S27">
-        <v>890000</v>
+        <v>900000</v>
       </c>
       <c r="T27" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="U27" t="s">
         <v>47</v>
@@ -5958,16 +6051,16 @@
         <v>47</v>
       </c>
       <c r="W27">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="X27">
-        <v>180000</v>
+        <v>150000</v>
       </c>
       <c r="Y27">
         <v>900000</v>
       </c>
       <c r="Z27" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="AA27" t="s">
         <v>47</v>
@@ -6035,25 +6128,25 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="C28" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="D28" t="s">
         <v>47</v>
       </c>
-      <c r="E28" t="s">
-        <v>47</v>
-      </c>
-      <c r="F28" t="s">
-        <v>47</v>
-      </c>
-      <c r="G28" t="s">
-        <v>47</v>
+      <c r="E28">
+        <v>5</v>
+      </c>
+      <c r="F28">
+        <v>170000</v>
+      </c>
+      <c r="G28">
+        <v>850000</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>193</v>
       </c>
       <c r="I28" t="s">
         <v>47</v>
@@ -6062,16 +6155,16 @@
         <v>47</v>
       </c>
       <c r="K28">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L28">
-        <v>144000</v>
+        <v>172000</v>
       </c>
       <c r="M28">
-        <v>1008000</v>
+        <v>1032000</v>
       </c>
       <c r="N28" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="O28" t="s">
         <v>47</v>
@@ -6080,16 +6173,16 @@
         <v>47</v>
       </c>
       <c r="Q28">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="R28">
-        <v>150000</v>
+        <v>178000</v>
       </c>
       <c r="S28">
-        <v>1050000</v>
+        <v>890000</v>
       </c>
       <c r="T28" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="U28" t="s">
         <v>47</v>
@@ -6098,20 +6191,18 @@
         <v>47</v>
       </c>
       <c r="W28">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="X28">
-        <v>158000</v>
+        <v>180000</v>
       </c>
       <c r="Y28">
-        <v>948000</v>
+        <v>900000</v>
       </c>
       <c r="Z28" t="s">
-        <v>183</v>
-      </c>
-      <c r="AA28" t="s">
-        <v>47</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="AA28"/>
       <c r="AB28" t="s">
         <v>47</v>
       </c>
@@ -6175,83 +6266,81 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="C29" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="D29" t="s">
         <v>47</v>
       </c>
-      <c r="E29">
+      <c r="E29" t="s">
+        <v>47</v>
+      </c>
+      <c r="F29" t="s">
+        <v>47</v>
+      </c>
+      <c r="G29" t="s">
+        <v>47</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>47</v>
+      </c>
+      <c r="J29" t="s">
+        <v>47</v>
+      </c>
+      <c r="K29">
+        <v>7</v>
+      </c>
+      <c r="L29">
+        <v>144000</v>
+      </c>
+      <c r="M29">
+        <v>1008000</v>
+      </c>
+      <c r="N29" t="s">
+        <v>199</v>
+      </c>
+      <c r="O29" t="s">
+        <v>47</v>
+      </c>
+      <c r="P29" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q29">
+        <v>7</v>
+      </c>
+      <c r="R29">
+        <v>150000</v>
+      </c>
+      <c r="S29">
+        <v>1050000</v>
+      </c>
+      <c r="T29" t="s">
+        <v>200</v>
+      </c>
+      <c r="U29" t="s">
+        <v>47</v>
+      </c>
+      <c r="V29" t="s">
+        <v>47</v>
+      </c>
+      <c r="W29">
         <v>6</v>
       </c>
-      <c r="F29">
-        <v>152000</v>
-      </c>
-      <c r="G29">
-        <v>912000</v>
-      </c>
-      <c r="H29" t="s">
-        <v>186</v>
-      </c>
-      <c r="I29" t="s">
-        <v>47</v>
-      </c>
-      <c r="J29" t="s">
-        <v>47</v>
-      </c>
-      <c r="K29">
-        <v>8</v>
-      </c>
-      <c r="L29">
-        <v>120000</v>
-      </c>
-      <c r="M29">
-        <v>960000</v>
-      </c>
-      <c r="N29" t="s">
-        <v>187</v>
-      </c>
-      <c r="O29" t="s">
-        <v>47</v>
-      </c>
-      <c r="P29" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q29">
-        <v>8</v>
-      </c>
-      <c r="R29">
-        <v>120000</v>
-      </c>
-      <c r="S29">
-        <v>960000</v>
-      </c>
-      <c r="T29" t="s">
-        <v>188</v>
-      </c>
-      <c r="U29" t="s">
-        <v>47</v>
-      </c>
-      <c r="V29" t="s">
-        <v>47</v>
-      </c>
-      <c r="W29">
-        <v>7</v>
-      </c>
       <c r="X29">
-        <v>130000</v>
+        <v>158000</v>
       </c>
       <c r="Y29">
-        <v>910000</v>
+        <v>948000</v>
       </c>
       <c r="Z29" t="s">
-        <v>189</v>
-      </c>
-      <c r="AA29" t="s">
-        <v>47</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="AA29"/>
       <c r="AB29" t="s">
         <v>47</v>
       </c>
@@ -6315,25 +6404,25 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="C30" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="D30" t="s">
         <v>47</v>
       </c>
-      <c r="E30" t="s">
-        <v>47</v>
-      </c>
-      <c r="F30" t="s">
-        <v>47</v>
-      </c>
-      <c r="G30" t="s">
-        <v>47</v>
+      <c r="E30">
+        <v>6</v>
+      </c>
+      <c r="F30">
+        <v>152000</v>
+      </c>
+      <c r="G30">
+        <v>912000</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>204</v>
       </c>
       <c r="I30" t="s">
         <v>47</v>
@@ -6341,17 +6430,17 @@
       <c r="J30" t="s">
         <v>47</v>
       </c>
-      <c r="K30" t="s">
-        <v>47</v>
-      </c>
-      <c r="L30" t="s">
-        <v>47</v>
-      </c>
-      <c r="M30" t="s">
-        <v>47</v>
+      <c r="K30">
+        <v>8</v>
+      </c>
+      <c r="L30">
+        <v>120000</v>
+      </c>
+      <c r="M30">
+        <v>960000</v>
       </c>
       <c r="N30" t="s">
-        <v>47</v>
+        <v>205</v>
       </c>
       <c r="O30" t="s">
         <v>47</v>
@@ -6360,16 +6449,16 @@
         <v>47</v>
       </c>
       <c r="Q30">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="R30">
-        <v>100000</v>
+        <v>120000</v>
       </c>
       <c r="S30">
-        <v>1000000</v>
+        <v>960000</v>
       </c>
       <c r="T30" t="s">
-        <v>192</v>
+        <v>206</v>
       </c>
       <c r="U30" t="s">
         <v>47</v>
@@ -6378,20 +6467,18 @@
         <v>47</v>
       </c>
       <c r="W30">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="X30">
-        <v>100000</v>
+        <v>130000</v>
       </c>
       <c r="Y30">
-        <v>1000000</v>
+        <v>910000</v>
       </c>
       <c r="Z30" t="s">
-        <v>193</v>
-      </c>
-      <c r="AA30" t="s">
-        <v>47</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="AA30"/>
       <c r="AB30" t="s">
         <v>47</v>
       </c>
@@ -6455,25 +6542,25 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>194</v>
+        <v>208</v>
       </c>
       <c r="C31" t="s">
-        <v>195</v>
+        <v>209</v>
       </c>
       <c r="D31" t="s">
         <v>47</v>
       </c>
-      <c r="E31">
-        <v>5</v>
-      </c>
-      <c r="F31">
-        <v>162000</v>
-      </c>
-      <c r="G31">
-        <v>810000</v>
+      <c r="E31" t="s">
+        <v>47</v>
+      </c>
+      <c r="F31" t="s">
+        <v>47</v>
+      </c>
+      <c r="G31" t="s">
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>196</v>
+        <v>47</v>
       </c>
       <c r="I31" t="s">
         <v>47</v>
@@ -6481,17 +6568,17 @@
       <c r="J31" t="s">
         <v>47</v>
       </c>
-      <c r="K31">
-        <v>7</v>
-      </c>
-      <c r="L31">
-        <v>151000</v>
-      </c>
-      <c r="M31">
-        <v>1057000</v>
+      <c r="K31" t="s">
+        <v>47</v>
+      </c>
+      <c r="L31" t="s">
+        <v>47</v>
+      </c>
+      <c r="M31" t="s">
+        <v>47</v>
       </c>
       <c r="N31" t="s">
-        <v>197</v>
+        <v>47</v>
       </c>
       <c r="O31" t="s">
         <v>47</v>
@@ -6500,16 +6587,16 @@
         <v>47</v>
       </c>
       <c r="Q31">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="R31">
-        <v>152000</v>
+        <v>100000</v>
       </c>
       <c r="S31">
-        <v>912000</v>
+        <v>1000000</v>
       </c>
       <c r="T31" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="U31" t="s">
         <v>47</v>
@@ -6518,20 +6605,18 @@
         <v>47</v>
       </c>
       <c r="W31">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="X31">
-        <v>153000</v>
+        <v>100000</v>
       </c>
       <c r="Y31">
-        <v>918000</v>
+        <v>1000000</v>
       </c>
       <c r="Z31" t="s">
-        <v>199</v>
-      </c>
-      <c r="AA31" t="s">
-        <v>47</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="AA31"/>
       <c r="AB31" t="s">
         <v>47</v>
       </c>
@@ -6595,25 +6680,25 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="C32" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="D32" t="s">
         <v>47</v>
       </c>
       <c r="E32">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F32">
-        <v>182000</v>
+        <v>162000</v>
       </c>
       <c r="G32">
-        <v>1274000</v>
+        <v>810000</v>
       </c>
       <c r="H32" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="I32" t="s">
         <v>47</v>
@@ -6625,13 +6710,13 @@
         <v>7</v>
       </c>
       <c r="L32">
-        <v>169000</v>
+        <v>151000</v>
       </c>
       <c r="M32">
-        <v>1183000</v>
+        <v>1057000</v>
       </c>
       <c r="N32" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="O32" t="s">
         <v>47</v>
@@ -6640,16 +6725,16 @@
         <v>47</v>
       </c>
       <c r="Q32">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R32">
-        <v>180000</v>
+        <v>152000</v>
       </c>
       <c r="S32">
-        <v>1260000</v>
+        <v>912000</v>
       </c>
       <c r="T32" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="U32" t="s">
         <v>47</v>
@@ -6658,20 +6743,18 @@
         <v>47</v>
       </c>
       <c r="W32">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="X32">
-        <v>189000</v>
+        <v>153000</v>
       </c>
       <c r="Y32">
-        <v>1323000</v>
+        <v>918000</v>
       </c>
       <c r="Z32" t="s">
-        <v>205</v>
-      </c>
-      <c r="AA32" t="s">
-        <v>47</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="AA32"/>
       <c r="AB32" t="s">
         <v>47</v>
       </c>
@@ -6735,25 +6818,25 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="C33" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="D33" t="s">
         <v>47</v>
       </c>
       <c r="E33">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F33">
-        <v>194000</v>
+        <v>182000</v>
       </c>
       <c r="G33">
-        <v>970000</v>
+        <v>1274000</v>
       </c>
       <c r="H33" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="I33" t="s">
         <v>47</v>
@@ -6765,13 +6848,13 @@
         <v>7</v>
       </c>
       <c r="L33">
-        <v>131000</v>
+        <v>169000</v>
       </c>
       <c r="M33">
-        <v>917000</v>
+        <v>1183000</v>
       </c>
       <c r="N33" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="O33" t="s">
         <v>47</v>
@@ -6783,13 +6866,13 @@
         <v>7</v>
       </c>
       <c r="R33">
-        <v>133000</v>
+        <v>180000</v>
       </c>
       <c r="S33">
-        <v>931000</v>
+        <v>1260000</v>
       </c>
       <c r="T33" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="U33" t="s">
         <v>47</v>
@@ -6797,21 +6880,19 @@
       <c r="V33" t="s">
         <v>47</v>
       </c>
-      <c r="W33" t="s">
-        <v>47</v>
-      </c>
-      <c r="X33" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y33" t="s">
-        <v>47</v>
+      <c r="W33">
+        <v>7</v>
+      </c>
+      <c r="X33">
+        <v>189000</v>
+      </c>
+      <c r="Y33">
+        <v>1323000</v>
       </c>
       <c r="Z33" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA33" t="s">
-        <v>47</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="AA33"/>
       <c r="AB33" t="s">
         <v>47</v>
       </c>
@@ -6875,10 +6956,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="C34" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="D34" t="s">
         <v>47</v>
@@ -6887,13 +6968,13 @@
         <v>5</v>
       </c>
       <c r="F34">
-        <v>217000</v>
+        <v>194000</v>
       </c>
       <c r="G34">
-        <v>1085000</v>
+        <v>970000</v>
       </c>
       <c r="H34" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="I34" t="s">
         <v>47</v>
@@ -6902,16 +6983,16 @@
         <v>47</v>
       </c>
       <c r="K34">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L34">
-        <v>178000</v>
+        <v>131000</v>
       </c>
       <c r="M34">
-        <v>890000</v>
+        <v>917000</v>
       </c>
       <c r="N34" t="s">
-        <v>214</v>
+        <v>227</v>
       </c>
       <c r="O34" t="s">
         <v>47</v>
@@ -6920,16 +7001,16 @@
         <v>47</v>
       </c>
       <c r="Q34">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="R34">
-        <v>180000</v>
+        <v>133000</v>
       </c>
       <c r="S34">
-        <v>900000</v>
+        <v>931000</v>
       </c>
       <c r="T34" t="s">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="U34" t="s">
         <v>47</v>
@@ -6938,20 +7019,18 @@
         <v>47</v>
       </c>
       <c r="W34">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="X34">
-        <v>184000</v>
+        <v>134000</v>
       </c>
       <c r="Y34">
-        <v>920000</v>
+        <v>938000</v>
       </c>
       <c r="Z34" t="s">
-        <v>216</v>
-      </c>
-      <c r="AA34" t="s">
-        <v>47</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="AA34"/>
       <c r="AB34" t="s">
         <v>47</v>
       </c>
@@ -7015,10 +7094,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="C35" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="D35" t="s">
         <v>47</v>
@@ -7027,13 +7106,13 @@
         <v>5</v>
       </c>
       <c r="F35">
-        <v>159000</v>
+        <v>217000</v>
       </c>
       <c r="G35">
-        <v>795000</v>
+        <v>1085000</v>
       </c>
       <c r="H35" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="I35" t="s">
         <v>47</v>
@@ -7042,16 +7121,16 @@
         <v>47</v>
       </c>
       <c r="K35">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L35">
-        <v>144000</v>
+        <v>178000</v>
       </c>
       <c r="M35">
-        <v>1008000</v>
+        <v>890000</v>
       </c>
       <c r="N35" t="s">
-        <v>220</v>
+        <v>233</v>
       </c>
       <c r="O35" t="s">
         <v>47</v>
@@ -7063,13 +7142,13 @@
         <v>5</v>
       </c>
       <c r="R35">
-        <v>171000</v>
+        <v>180000</v>
       </c>
       <c r="S35">
-        <v>855000</v>
+        <v>900000</v>
       </c>
       <c r="T35" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
       <c r="U35" t="s">
         <v>47</v>
@@ -7081,17 +7160,15 @@
         <v>5</v>
       </c>
       <c r="X35">
-        <v>174000</v>
+        <v>184000</v>
       </c>
       <c r="Y35">
-        <v>870000</v>
+        <v>920000</v>
       </c>
       <c r="Z35" t="s">
-        <v>222</v>
-      </c>
-      <c r="AA35" t="s">
-        <v>47</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="AA35"/>
       <c r="AB35" t="s">
         <v>47</v>
       </c>
@@ -7155,25 +7232,25 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="C36" t="s">
-        <v>224</v>
+        <v>237</v>
       </c>
       <c r="D36" t="s">
         <v>47</v>
       </c>
-      <c r="E36" t="s">
-        <v>47</v>
-      </c>
-      <c r="F36" t="s">
-        <v>47</v>
-      </c>
-      <c r="G36" t="s">
-        <v>47</v>
+      <c r="E36">
+        <v>5</v>
+      </c>
+      <c r="F36">
+        <v>159000</v>
+      </c>
+      <c r="G36">
+        <v>795000</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>238</v>
       </c>
       <c r="I36" t="s">
         <v>47</v>
@@ -7182,16 +7259,16 @@
         <v>47</v>
       </c>
       <c r="K36">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L36">
-        <v>140000</v>
+        <v>144000</v>
       </c>
       <c r="M36">
-        <v>840000</v>
+        <v>1008000</v>
       </c>
       <c r="N36" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="O36" t="s">
         <v>47</v>
@@ -7200,16 +7277,16 @@
         <v>47</v>
       </c>
       <c r="Q36">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R36">
-        <v>150000</v>
+        <v>171000</v>
       </c>
       <c r="S36">
-        <v>900000</v>
+        <v>855000</v>
       </c>
       <c r="T36" t="s">
-        <v>226</v>
+        <v>240</v>
       </c>
       <c r="U36" t="s">
         <v>47</v>
@@ -7218,34 +7295,32 @@
         <v>47</v>
       </c>
       <c r="W36">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="X36">
-        <v>150000</v>
+        <v>174000</v>
       </c>
       <c r="Y36">
-        <v>900000</v>
+        <v>870000</v>
       </c>
       <c r="Z36" t="s">
-        <v>227</v>
-      </c>
-      <c r="AA36" t="s">
-        <v>47</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="AA36"/>
       <c r="AB36" t="s">
         <v>47</v>
       </c>
-      <c r="AC36" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD36" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE36" t="s">
-        <v>47</v>
+      <c r="AC36">
+        <v>5</v>
+      </c>
+      <c r="AD36">
+        <v>176000</v>
+      </c>
+      <c r="AE36">
+        <v>880000</v>
       </c>
       <c r="AF36" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="AG36" t="s">
         <v>47</v>
@@ -7295,61 +7370,61 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="C37" t="s">
-        <v>229</v>
+        <v>243</v>
       </c>
       <c r="D37" t="s">
         <v>47</v>
       </c>
-      <c r="E37">
-        <v>5</v>
-      </c>
-      <c r="F37">
+      <c r="E37" t="s">
+        <v>47</v>
+      </c>
+      <c r="F37" t="s">
+        <v>47</v>
+      </c>
+      <c r="G37" t="s">
+        <v>47</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>47</v>
+      </c>
+      <c r="J37" t="s">
+        <v>47</v>
+      </c>
+      <c r="K37">
+        <v>6</v>
+      </c>
+      <c r="L37">
+        <v>140000</v>
+      </c>
+      <c r="M37">
+        <v>840000</v>
+      </c>
+      <c r="N37" t="s">
+        <v>244</v>
+      </c>
+      <c r="O37" t="s">
+        <v>47</v>
+      </c>
+      <c r="P37" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q37">
+        <v>6</v>
+      </c>
+      <c r="R37">
         <v>150000</v>
       </c>
-      <c r="G37">
-        <v>750000</v>
-      </c>
-      <c r="H37" t="s">
-        <v>230</v>
-      </c>
-      <c r="I37" t="s">
-        <v>47</v>
-      </c>
-      <c r="J37" t="s">
-        <v>47</v>
-      </c>
-      <c r="K37">
-        <v>7</v>
-      </c>
-      <c r="L37">
-        <v>135000</v>
-      </c>
-      <c r="M37">
-        <v>945000</v>
-      </c>
-      <c r="N37" t="s">
-        <v>231</v>
-      </c>
-      <c r="O37" t="s">
-        <v>47</v>
-      </c>
-      <c r="P37" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q37">
-        <v>7</v>
-      </c>
-      <c r="R37">
-        <v>138000</v>
-      </c>
       <c r="S37">
-        <v>966000</v>
+        <v>900000</v>
       </c>
       <c r="T37" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="U37" t="s">
         <v>47</v>
@@ -7357,21 +7432,19 @@
       <c r="V37" t="s">
         <v>47</v>
       </c>
-      <c r="W37" t="s">
-        <v>47</v>
-      </c>
-      <c r="X37" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y37" t="s">
-        <v>47</v>
+      <c r="W37">
+        <v>6</v>
+      </c>
+      <c r="X37">
+        <v>150000</v>
+      </c>
+      <c r="Y37">
+        <v>900000</v>
       </c>
       <c r="Z37" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA37" t="s">
-        <v>47</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="AA37"/>
       <c r="AB37" t="s">
         <v>47</v>
       </c>
@@ -7435,25 +7508,25 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>233</v>
+        <v>247</v>
       </c>
       <c r="C38" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="D38" t="s">
         <v>47</v>
       </c>
-      <c r="E38" t="s">
-        <v>47</v>
-      </c>
-      <c r="F38" t="s">
-        <v>47</v>
-      </c>
-      <c r="G38" t="s">
-        <v>47</v>
+      <c r="E38">
+        <v>5</v>
+      </c>
+      <c r="F38">
+        <v>150000</v>
+      </c>
+      <c r="G38">
+        <v>750000</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>249</v>
       </c>
       <c r="I38" t="s">
         <v>47</v>
@@ -7462,16 +7535,16 @@
         <v>47</v>
       </c>
       <c r="K38">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L38">
-        <v>160000</v>
+        <v>135000</v>
       </c>
       <c r="M38">
-        <v>960000</v>
+        <v>945000</v>
       </c>
       <c r="N38" t="s">
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="O38" t="s">
         <v>47</v>
@@ -7480,16 +7553,16 @@
         <v>47</v>
       </c>
       <c r="Q38">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R38">
-        <v>161000</v>
+        <v>138000</v>
       </c>
       <c r="S38">
         <v>966000</v>
       </c>
       <c r="T38" t="s">
-        <v>236</v>
+        <v>251</v>
       </c>
       <c r="U38" t="s">
         <v>47</v>
@@ -7498,20 +7571,18 @@
         <v>47</v>
       </c>
       <c r="W38">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="X38">
-        <v>174000</v>
+        <v>155000</v>
       </c>
       <c r="Y38">
-        <v>870000</v>
+        <v>930000</v>
       </c>
       <c r="Z38" t="s">
-        <v>237</v>
-      </c>
-      <c r="AA38" t="s">
-        <v>47</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="AA38"/>
       <c r="AB38" t="s">
         <v>47</v>
       </c>
@@ -7575,25 +7646,25 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="C39" t="s">
-        <v>239</v>
+        <v>254</v>
       </c>
       <c r="D39" t="s">
         <v>47</v>
       </c>
-      <c r="E39">
-        <v>7</v>
-      </c>
-      <c r="F39">
-        <v>105000</v>
-      </c>
-      <c r="G39">
-        <v>735000</v>
+      <c r="E39" t="s">
+        <v>47</v>
+      </c>
+      <c r="F39" t="s">
+        <v>47</v>
+      </c>
+      <c r="G39" t="s">
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>240</v>
+        <v>47</v>
       </c>
       <c r="I39" t="s">
         <v>47</v>
@@ -7602,16 +7673,16 @@
         <v>47</v>
       </c>
       <c r="K39">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L39">
-        <v>119000</v>
+        <v>160000</v>
       </c>
       <c r="M39">
-        <v>952000</v>
+        <v>960000</v>
       </c>
       <c r="N39" t="s">
-        <v>241</v>
+        <v>255</v>
       </c>
       <c r="O39" t="s">
         <v>47</v>
@@ -7620,16 +7691,16 @@
         <v>47</v>
       </c>
       <c r="Q39">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="R39">
-        <v>120000</v>
+        <v>161000</v>
       </c>
       <c r="S39">
-        <v>960000</v>
+        <v>966000</v>
       </c>
       <c r="T39" t="s">
-        <v>242</v>
+        <v>256</v>
       </c>
       <c r="U39" t="s">
         <v>47</v>
@@ -7637,21 +7708,19 @@
       <c r="V39" t="s">
         <v>47</v>
       </c>
-      <c r="W39" t="s">
-        <v>47</v>
-      </c>
-      <c r="X39" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y39" t="s">
-        <v>47</v>
+      <c r="W39">
+        <v>5</v>
+      </c>
+      <c r="X39">
+        <v>174000</v>
+      </c>
+      <c r="Y39">
+        <v>870000</v>
       </c>
       <c r="Z39" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA39" t="s">
-        <v>47</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="AA39"/>
       <c r="AB39" t="s">
         <v>47</v>
       </c>
@@ -7715,25 +7784,25 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>243</v>
+        <v>258</v>
       </c>
       <c r="C40" t="s">
-        <v>244</v>
+        <v>259</v>
       </c>
       <c r="D40" t="s">
         <v>47</v>
       </c>
-      <c r="E40" t="s">
-        <v>47</v>
-      </c>
-      <c r="F40" t="s">
-        <v>47</v>
-      </c>
-      <c r="G40" t="s">
-        <v>47</v>
+      <c r="E40">
+        <v>7</v>
+      </c>
+      <c r="F40">
+        <v>105000</v>
+      </c>
+      <c r="G40">
+        <v>735000</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>260</v>
       </c>
       <c r="I40" t="s">
         <v>47</v>
@@ -7742,16 +7811,16 @@
         <v>47</v>
       </c>
       <c r="K40">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L40">
-        <v>118000</v>
+        <v>119000</v>
       </c>
       <c r="M40">
-        <v>826000</v>
+        <v>952000</v>
       </c>
       <c r="N40" t="s">
-        <v>245</v>
+        <v>261</v>
       </c>
       <c r="O40" t="s">
         <v>47</v>
@@ -7760,16 +7829,16 @@
         <v>47</v>
       </c>
       <c r="Q40">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R40">
-        <v>129000</v>
+        <v>120000</v>
       </c>
       <c r="S40">
-        <v>903000</v>
+        <v>960000</v>
       </c>
       <c r="T40" t="s">
-        <v>246</v>
+        <v>262</v>
       </c>
       <c r="U40" t="s">
         <v>47</v>
@@ -7777,21 +7846,19 @@
       <c r="V40" t="s">
         <v>47</v>
       </c>
-      <c r="W40" t="s">
-        <v>47</v>
-      </c>
-      <c r="X40" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y40" t="s">
-        <v>47</v>
+      <c r="W40">
+        <v>8</v>
+      </c>
+      <c r="X40">
+        <v>121000</v>
+      </c>
+      <c r="Y40">
+        <v>968000</v>
       </c>
       <c r="Z40" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA40" t="s">
-        <v>47</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="AA40"/>
       <c r="AB40" t="s">
         <v>47</v>
       </c>
@@ -7855,25 +7922,25 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>247</v>
+        <v>264</v>
       </c>
       <c r="C41" t="s">
-        <v>248</v>
+        <v>265</v>
       </c>
       <c r="D41" t="s">
         <v>47</v>
       </c>
-      <c r="E41">
-        <v>8</v>
-      </c>
-      <c r="F41">
-        <v>138000</v>
-      </c>
-      <c r="G41">
-        <v>1104000</v>
+      <c r="E41" t="s">
+        <v>47</v>
+      </c>
+      <c r="F41" t="s">
+        <v>47</v>
+      </c>
+      <c r="G41" t="s">
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>249</v>
+        <v>47</v>
       </c>
       <c r="I41" t="s">
         <v>47</v>
@@ -7882,16 +7949,16 @@
         <v>47</v>
       </c>
       <c r="K41">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L41">
-        <v>134000</v>
+        <v>118000</v>
       </c>
       <c r="M41">
-        <v>1072000</v>
+        <v>826000</v>
       </c>
       <c r="N41" t="s">
-        <v>250</v>
+        <v>266</v>
       </c>
       <c r="O41" t="s">
         <v>47</v>
@@ -7903,13 +7970,13 @@
         <v>7</v>
       </c>
       <c r="R41">
-        <v>134000</v>
+        <v>129000</v>
       </c>
       <c r="S41">
-        <v>938000</v>
+        <v>903000</v>
       </c>
       <c r="T41" t="s">
-        <v>251</v>
+        <v>267</v>
       </c>
       <c r="U41" t="s">
         <v>47</v>
@@ -7921,17 +7988,15 @@
         <v>7</v>
       </c>
       <c r="X41">
-        <v>138000</v>
+        <v>129000</v>
       </c>
       <c r="Y41">
-        <v>966000</v>
+        <v>903000</v>
       </c>
       <c r="Z41" t="s">
-        <v>252</v>
-      </c>
-      <c r="AA41" t="s">
-        <v>47</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="AA41"/>
       <c r="AB41" t="s">
         <v>47</v>
       </c>
@@ -7995,25 +8060,25 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>253</v>
+        <v>269</v>
       </c>
       <c r="C42" t="s">
-        <v>254</v>
+        <v>270</v>
       </c>
       <c r="D42" t="s">
         <v>47</v>
       </c>
       <c r="E42">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F42">
-        <v>162000</v>
+        <v>138000</v>
       </c>
       <c r="G42">
-        <v>810000</v>
+        <v>1104000</v>
       </c>
       <c r="H42" t="s">
-        <v>255</v>
+        <v>271</v>
       </c>
       <c r="I42" t="s">
         <v>47</v>
@@ -8022,16 +8087,16 @@
         <v>47</v>
       </c>
       <c r="K42">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L42">
-        <v>164000</v>
+        <v>134000</v>
       </c>
       <c r="M42">
-        <v>984000</v>
+        <v>1072000</v>
       </c>
       <c r="N42" t="s">
-        <v>256</v>
+        <v>272</v>
       </c>
       <c r="O42" t="s">
         <v>47</v>
@@ -8040,16 +8105,16 @@
         <v>47</v>
       </c>
       <c r="Q42">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="R42">
-        <v>171000</v>
+        <v>134000</v>
       </c>
       <c r="S42">
-        <v>855000</v>
+        <v>938000</v>
       </c>
       <c r="T42" t="s">
-        <v>257</v>
+        <v>273</v>
       </c>
       <c r="U42" t="s">
         <v>47</v>
@@ -8058,34 +8123,32 @@
         <v>47</v>
       </c>
       <c r="W42">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="X42">
-        <v>178000</v>
+        <v>138000</v>
       </c>
       <c r="Y42">
-        <v>1068000</v>
+        <v>966000</v>
       </c>
       <c r="Z42" t="s">
-        <v>258</v>
-      </c>
-      <c r="AA42" t="s">
-        <v>47</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="AA42"/>
       <c r="AB42" t="s">
         <v>47</v>
       </c>
-      <c r="AC42" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD42" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE42" t="s">
-        <v>47</v>
+      <c r="AC42">
+        <v>7</v>
+      </c>
+      <c r="AD42">
+        <v>138000</v>
+      </c>
+      <c r="AE42">
+        <v>966000</v>
       </c>
       <c r="AF42" t="s">
-        <v>47</v>
+        <v>275</v>
       </c>
       <c r="AG42" t="s">
         <v>47</v>
@@ -8135,10 +8198,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>259</v>
+        <v>276</v>
       </c>
       <c r="C43" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="D43" t="s">
         <v>47</v>
@@ -8147,13 +8210,13 @@
         <v>5</v>
       </c>
       <c r="F43">
-        <v>174000</v>
+        <v>162000</v>
       </c>
       <c r="G43">
-        <v>870000</v>
+        <v>810000</v>
       </c>
       <c r="H43" t="s">
-        <v>261</v>
+        <v>278</v>
       </c>
       <c r="I43" t="s">
         <v>47</v>
@@ -8165,13 +8228,13 @@
         <v>6</v>
       </c>
       <c r="L43">
-        <v>150000</v>
+        <v>164000</v>
       </c>
       <c r="M43">
-        <v>900000</v>
+        <v>984000</v>
       </c>
       <c r="N43" t="s">
-        <v>262</v>
+        <v>279</v>
       </c>
       <c r="O43" t="s">
         <v>47</v>
@@ -8180,16 +8243,16 @@
         <v>47</v>
       </c>
       <c r="Q43">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R43">
-        <v>153000</v>
+        <v>171000</v>
       </c>
       <c r="S43">
-        <v>918000</v>
+        <v>855000</v>
       </c>
       <c r="T43" t="s">
-        <v>263</v>
+        <v>280</v>
       </c>
       <c r="U43" t="s">
         <v>47</v>
@@ -8201,17 +8264,15 @@
         <v>6</v>
       </c>
       <c r="X43">
-        <v>153000</v>
+        <v>178000</v>
       </c>
       <c r="Y43">
-        <v>918000</v>
+        <v>1068000</v>
       </c>
       <c r="Z43" t="s">
-        <v>264</v>
-      </c>
-      <c r="AA43" t="s">
-        <v>47</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="AA43"/>
       <c r="AB43" t="s">
         <v>47</v>
       </c>
@@ -8275,25 +8336,25 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>265</v>
+        <v>282</v>
       </c>
       <c r="C44" t="s">
-        <v>266</v>
+        <v>283</v>
       </c>
       <c r="D44" t="s">
         <v>47</v>
       </c>
       <c r="E44">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F44">
-        <v>100000</v>
+        <v>174000</v>
       </c>
       <c r="G44">
-        <v>1200000</v>
+        <v>870000</v>
       </c>
       <c r="H44" t="s">
-        <v>267</v>
+        <v>284</v>
       </c>
       <c r="I44" t="s">
         <v>47</v>
@@ -8302,16 +8363,16 @@
         <v>47</v>
       </c>
       <c r="K44">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="L44">
-        <v>90000</v>
+        <v>150000</v>
       </c>
       <c r="M44">
-        <v>990000</v>
+        <v>900000</v>
       </c>
       <c r="N44" t="s">
-        <v>268</v>
+        <v>285</v>
       </c>
       <c r="O44" t="s">
         <v>47</v>
@@ -8320,16 +8381,16 @@
         <v>47</v>
       </c>
       <c r="Q44">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="R44">
-        <v>94000</v>
+        <v>153000</v>
       </c>
       <c r="S44">
-        <v>940000</v>
+        <v>918000</v>
       </c>
       <c r="T44" t="s">
-        <v>269</v>
+        <v>286</v>
       </c>
       <c r="U44" t="s">
         <v>47</v>
@@ -8338,20 +8399,18 @@
         <v>47</v>
       </c>
       <c r="W44">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="X44">
-        <v>95000</v>
+        <v>153000</v>
       </c>
       <c r="Y44">
-        <v>855000</v>
+        <v>918000</v>
       </c>
       <c r="Z44" t="s">
-        <v>270</v>
-      </c>
-      <c r="AA44" t="s">
-        <v>47</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="AA44"/>
       <c r="AB44" t="s">
         <v>47</v>
       </c>
@@ -8415,25 +8474,25 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>271</v>
+        <v>288</v>
       </c>
       <c r="C45" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="D45" t="s">
         <v>47</v>
       </c>
-      <c r="E45" t="s">
-        <v>47</v>
-      </c>
-      <c r="F45" t="s">
-        <v>47</v>
-      </c>
-      <c r="G45" t="s">
-        <v>47</v>
+      <c r="E45">
+        <v>12</v>
+      </c>
+      <c r="F45">
+        <v>100000</v>
+      </c>
+      <c r="G45">
+        <v>1200000</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>290</v>
       </c>
       <c r="I45" t="s">
         <v>47</v>
@@ -8442,16 +8501,16 @@
         <v>47</v>
       </c>
       <c r="K45">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="L45">
-        <v>159000</v>
+        <v>90000</v>
       </c>
       <c r="M45">
-        <v>954000</v>
+        <v>990000</v>
       </c>
       <c r="N45" t="s">
-        <v>273</v>
+        <v>291</v>
       </c>
       <c r="O45" t="s">
         <v>47</v>
@@ -8460,16 +8519,16 @@
         <v>47</v>
       </c>
       <c r="Q45">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="R45">
-        <v>160000</v>
+        <v>94000</v>
       </c>
       <c r="S45">
-        <v>960000</v>
+        <v>940000</v>
       </c>
       <c r="T45" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="U45" t="s">
         <v>47</v>
@@ -8478,20 +8537,18 @@
         <v>47</v>
       </c>
       <c r="W45">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="X45">
-        <v>156000</v>
+        <v>95000</v>
       </c>
       <c r="Y45">
-        <v>1092000</v>
+        <v>855000</v>
       </c>
       <c r="Z45" t="s">
-        <v>275</v>
-      </c>
-      <c r="AA45" t="s">
-        <v>47</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="AA45"/>
       <c r="AB45" t="s">
         <v>47</v>
       </c>
@@ -8555,25 +8612,25 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>276</v>
+        <v>294</v>
       </c>
       <c r="C46" t="s">
-        <v>277</v>
+        <v>295</v>
       </c>
       <c r="D46" t="s">
         <v>47</v>
       </c>
-      <c r="E46">
-        <v>8</v>
-      </c>
-      <c r="F46">
-        <v>100000</v>
-      </c>
-      <c r="G46">
-        <v>800000</v>
+      <c r="E46" t="s">
+        <v>47</v>
+      </c>
+      <c r="F46" t="s">
+        <v>47</v>
+      </c>
+      <c r="G46" t="s">
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>278</v>
+        <v>47</v>
       </c>
       <c r="I46" t="s">
         <v>47</v>
@@ -8582,16 +8639,16 @@
         <v>47</v>
       </c>
       <c r="K46">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L46">
-        <v>120000</v>
+        <v>159000</v>
       </c>
       <c r="M46">
-        <v>960000</v>
+        <v>954000</v>
       </c>
       <c r="N46" t="s">
-        <v>279</v>
+        <v>296</v>
       </c>
       <c r="O46" t="s">
         <v>47</v>
@@ -8600,16 +8657,16 @@
         <v>47</v>
       </c>
       <c r="Q46">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="R46">
-        <v>120000</v>
+        <v>160000</v>
       </c>
       <c r="S46">
         <v>960000</v>
       </c>
       <c r="T46" t="s">
-        <v>280</v>
+        <v>297</v>
       </c>
       <c r="U46" t="s">
         <v>47</v>
@@ -8617,21 +8674,19 @@
       <c r="V46" t="s">
         <v>47</v>
       </c>
-      <c r="W46" t="s">
-        <v>47</v>
-      </c>
-      <c r="X46" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y46" t="s">
-        <v>47</v>
+      <c r="W46">
+        <v>7</v>
+      </c>
+      <c r="X46">
+        <v>156000</v>
+      </c>
+      <c r="Y46">
+        <v>1092000</v>
       </c>
       <c r="Z46" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA46" t="s">
-        <v>47</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="AA46"/>
       <c r="AB46" t="s">
         <v>47</v>
       </c>
@@ -8695,25 +8750,25 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>281</v>
+        <v>299</v>
       </c>
       <c r="C47" t="s">
-        <v>282</v>
+        <v>300</v>
       </c>
       <c r="D47" t="s">
         <v>47</v>
       </c>
       <c r="E47">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F47">
-        <v>166000</v>
+        <v>100000</v>
       </c>
       <c r="G47">
-        <v>830000</v>
+        <v>800000</v>
       </c>
       <c r="H47" t="s">
-        <v>283</v>
+        <v>301</v>
       </c>
       <c r="I47" t="s">
         <v>47</v>
@@ -8722,16 +8777,16 @@
         <v>47</v>
       </c>
       <c r="K47">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L47">
-        <v>140000</v>
+        <v>120000</v>
       </c>
       <c r="M47">
-        <v>980000</v>
+        <v>960000</v>
       </c>
       <c r="N47" t="s">
-        <v>284</v>
+        <v>302</v>
       </c>
       <c r="O47" t="s">
         <v>47</v>
@@ -8740,16 +8795,16 @@
         <v>47</v>
       </c>
       <c r="Q47">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="R47">
-        <v>153000</v>
+        <v>120000</v>
       </c>
       <c r="S47">
-        <v>918000</v>
+        <v>960000</v>
       </c>
       <c r="T47" t="s">
-        <v>285</v>
+        <v>303</v>
       </c>
       <c r="U47" t="s">
         <v>47</v>
@@ -8758,20 +8813,18 @@
         <v>47</v>
       </c>
       <c r="W47">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="X47">
-        <v>157000</v>
+        <v>120000</v>
       </c>
       <c r="Y47">
-        <v>942000</v>
+        <v>960000</v>
       </c>
       <c r="Z47" t="s">
-        <v>286</v>
-      </c>
-      <c r="AA47" t="s">
-        <v>47</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="AA47"/>
       <c r="AB47" t="s">
         <v>47</v>
       </c>
@@ -8835,61 +8888,61 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>287</v>
+        <v>305</v>
       </c>
       <c r="C48" t="s">
-        <v>288</v>
+        <v>306</v>
       </c>
       <c r="D48" t="s">
         <v>47</v>
       </c>
       <c r="E48">
+        <v>5</v>
+      </c>
+      <c r="F48">
+        <v>166000</v>
+      </c>
+      <c r="G48">
+        <v>830000</v>
+      </c>
+      <c r="H48" t="s">
+        <v>307</v>
+      </c>
+      <c r="I48" t="s">
+        <v>47</v>
+      </c>
+      <c r="J48" t="s">
+        <v>47</v>
+      </c>
+      <c r="K48">
+        <v>7</v>
+      </c>
+      <c r="L48">
+        <v>140000</v>
+      </c>
+      <c r="M48">
+        <v>980000</v>
+      </c>
+      <c r="N48" t="s">
+        <v>308</v>
+      </c>
+      <c r="O48" t="s">
+        <v>47</v>
+      </c>
+      <c r="P48" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q48">
         <v>6</v>
       </c>
-      <c r="F48">
-        <v>120000</v>
-      </c>
-      <c r="G48">
-        <v>720000</v>
-      </c>
-      <c r="H48" t="s">
-        <v>289</v>
-      </c>
-      <c r="I48" t="s">
-        <v>47</v>
-      </c>
-      <c r="J48" t="s">
-        <v>47</v>
-      </c>
-      <c r="K48">
-        <v>9</v>
-      </c>
-      <c r="L48">
-        <v>100000</v>
-      </c>
-      <c r="M48">
-        <v>900000</v>
-      </c>
-      <c r="N48" t="s">
-        <v>290</v>
-      </c>
-      <c r="O48" t="s">
-        <v>47</v>
-      </c>
-      <c r="P48" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q48">
-        <v>8</v>
-      </c>
       <c r="R48">
-        <v>110000</v>
+        <v>153000</v>
       </c>
       <c r="S48">
-        <v>880000</v>
+        <v>918000</v>
       </c>
       <c r="T48" t="s">
-        <v>291</v>
+        <v>309</v>
       </c>
       <c r="U48" t="s">
         <v>47</v>
@@ -8898,20 +8951,18 @@
         <v>47</v>
       </c>
       <c r="W48">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="X48">
-        <v>123000</v>
+        <v>157000</v>
       </c>
       <c r="Y48">
-        <v>861000</v>
+        <v>942000</v>
       </c>
       <c r="Z48" t="s">
-        <v>292</v>
-      </c>
-      <c r="AA48" t="s">
-        <v>47</v>
-      </c>
+        <v>310</v>
+      </c>
+      <c r="AA48"/>
       <c r="AB48" t="s">
         <v>47</v>
       </c>
@@ -8975,25 +9026,25 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>293</v>
+        <v>311</v>
       </c>
       <c r="C49" t="s">
-        <v>294</v>
+        <v>312</v>
       </c>
       <c r="D49" t="s">
         <v>47</v>
       </c>
-      <c r="E49" t="s">
-        <v>47</v>
-      </c>
-      <c r="F49" t="s">
-        <v>47</v>
-      </c>
-      <c r="G49" t="s">
-        <v>47</v>
+      <c r="E49">
+        <v>6</v>
+      </c>
+      <c r="F49">
+        <v>120000</v>
+      </c>
+      <c r="G49">
+        <v>720000</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>313</v>
       </c>
       <c r="I49" t="s">
         <v>47</v>
@@ -9002,56 +9053,54 @@
         <v>47</v>
       </c>
       <c r="K49">
+        <v>9</v>
+      </c>
+      <c r="L49">
+        <v>100000</v>
+      </c>
+      <c r="M49">
+        <v>900000</v>
+      </c>
+      <c r="N49" t="s">
+        <v>314</v>
+      </c>
+      <c r="O49" t="s">
+        <v>47</v>
+      </c>
+      <c r="P49" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q49">
+        <v>8</v>
+      </c>
+      <c r="R49">
+        <v>110000</v>
+      </c>
+      <c r="S49">
+        <v>880000</v>
+      </c>
+      <c r="T49" t="s">
+        <v>315</v>
+      </c>
+      <c r="U49" t="s">
+        <v>47</v>
+      </c>
+      <c r="V49" t="s">
+        <v>47</v>
+      </c>
+      <c r="W49">
         <v>7</v>
       </c>
-      <c r="L49">
-        <v>126000</v>
-      </c>
-      <c r="M49">
-        <v>882000</v>
-      </c>
-      <c r="N49" t="s">
-        <v>295</v>
-      </c>
-      <c r="O49" t="s">
-        <v>47</v>
-      </c>
-      <c r="P49" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q49">
-        <v>7</v>
-      </c>
-      <c r="R49">
-        <v>133000</v>
-      </c>
-      <c r="S49">
-        <v>931000</v>
-      </c>
-      <c r="T49" t="s">
-        <v>296</v>
-      </c>
-      <c r="U49" t="s">
-        <v>47</v>
-      </c>
-      <c r="V49" t="s">
-        <v>47</v>
-      </c>
-      <c r="W49" t="s">
-        <v>47</v>
-      </c>
-      <c r="X49" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y49" t="s">
-        <v>47</v>
+      <c r="X49">
+        <v>123000</v>
+      </c>
+      <c r="Y49">
+        <v>861000</v>
       </c>
       <c r="Z49" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA49" t="s">
-        <v>47</v>
-      </c>
+        <v>316</v>
+      </c>
+      <c r="AA49"/>
       <c r="AB49" t="s">
         <v>47</v>
       </c>
@@ -9115,43 +9164,43 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>297</v>
+        <v>317</v>
       </c>
       <c r="C50" t="s">
-        <v>298</v>
+        <v>318</v>
       </c>
       <c r="D50" t="s">
         <v>47</v>
       </c>
-      <c r="E50">
+      <c r="E50" t="s">
+        <v>47</v>
+      </c>
+      <c r="F50" t="s">
+        <v>47</v>
+      </c>
+      <c r="G50" t="s">
+        <v>47</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>47</v>
+      </c>
+      <c r="J50" t="s">
+        <v>47</v>
+      </c>
+      <c r="K50">
         <v>7</v>
       </c>
-      <c r="F50">
-        <v>99000</v>
-      </c>
-      <c r="G50">
-        <v>693000</v>
-      </c>
-      <c r="H50" t="s">
-        <v>299</v>
-      </c>
-      <c r="I50" t="s">
-        <v>47</v>
-      </c>
-      <c r="J50" t="s">
-        <v>47</v>
-      </c>
-      <c r="K50">
-        <v>9</v>
-      </c>
       <c r="L50">
-        <v>99000</v>
+        <v>126000</v>
       </c>
       <c r="M50">
-        <v>891000</v>
+        <v>882000</v>
       </c>
       <c r="N50" t="s">
-        <v>300</v>
+        <v>319</v>
       </c>
       <c r="O50" t="s">
         <v>47</v>
@@ -9160,16 +9209,16 @@
         <v>47</v>
       </c>
       <c r="Q50">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="R50">
-        <v>100000</v>
+        <v>133000</v>
       </c>
       <c r="S50">
-        <v>900000</v>
+        <v>931000</v>
       </c>
       <c r="T50" t="s">
-        <v>301</v>
+        <v>320</v>
       </c>
       <c r="U50" t="s">
         <v>47</v>
@@ -9178,20 +9227,18 @@
         <v>47</v>
       </c>
       <c r="W50">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="X50">
-        <v>100000</v>
+        <v>134000</v>
       </c>
       <c r="Y50">
-        <v>900000</v>
+        <v>938000</v>
       </c>
       <c r="Z50" t="s">
-        <v>302</v>
-      </c>
-      <c r="AA50" t="s">
-        <v>47</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="AA50"/>
       <c r="AB50" t="s">
         <v>47</v>
       </c>
@@ -9255,25 +9302,25 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>303</v>
+        <v>322</v>
       </c>
       <c r="C51" t="s">
-        <v>304</v>
+        <v>323</v>
       </c>
       <c r="D51" t="s">
         <v>47</v>
       </c>
-      <c r="E51" t="s">
-        <v>47</v>
-      </c>
-      <c r="F51" t="s">
-        <v>47</v>
-      </c>
-      <c r="G51" t="s">
-        <v>47</v>
+      <c r="E51">
+        <v>7</v>
+      </c>
+      <c r="F51">
+        <v>99000</v>
+      </c>
+      <c r="G51">
+        <v>693000</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>324</v>
       </c>
       <c r="I51" t="s">
         <v>47</v>
@@ -9282,34 +9329,34 @@
         <v>47</v>
       </c>
       <c r="K51">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="L51">
-        <v>180000</v>
+        <v>99000</v>
       </c>
       <c r="M51">
+        <v>891000</v>
+      </c>
+      <c r="N51" t="s">
+        <v>325</v>
+      </c>
+      <c r="O51" t="s">
+        <v>47</v>
+      </c>
+      <c r="P51" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q51">
+        <v>9</v>
+      </c>
+      <c r="R51">
+        <v>100000</v>
+      </c>
+      <c r="S51">
         <v>900000</v>
       </c>
-      <c r="N51" t="s">
-        <v>305</v>
-      </c>
-      <c r="O51" t="s">
-        <v>47</v>
-      </c>
-      <c r="P51" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q51">
-        <v>5</v>
-      </c>
-      <c r="R51">
-        <v>190000</v>
-      </c>
-      <c r="S51">
-        <v>950000</v>
-      </c>
       <c r="T51" t="s">
-        <v>306</v>
+        <v>326</v>
       </c>
       <c r="U51" t="s">
         <v>47</v>
@@ -9318,20 +9365,18 @@
         <v>47</v>
       </c>
       <c r="W51">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="X51">
-        <v>210000</v>
+        <v>100000</v>
       </c>
       <c r="Y51">
-        <v>1050000</v>
+        <v>900000</v>
       </c>
       <c r="Z51" t="s">
-        <v>307</v>
-      </c>
-      <c r="AA51" t="s">
-        <v>47</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="AA51"/>
       <c r="AB51" t="s">
         <v>47</v>
       </c>
@@ -9395,10 +9440,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>308</v>
+        <v>328</v>
       </c>
       <c r="C52" t="s">
-        <v>309</v>
+        <v>329</v>
       </c>
       <c r="D52" t="s">
         <v>47</v>
@@ -9422,16 +9467,16 @@
         <v>47</v>
       </c>
       <c r="K52">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="L52">
-        <v>133000</v>
+        <v>180000</v>
       </c>
       <c r="M52">
-        <v>1064000</v>
+        <v>900000</v>
       </c>
       <c r="N52" t="s">
-        <v>310</v>
+        <v>330</v>
       </c>
       <c r="O52" t="s">
         <v>47</v>
@@ -9440,16 +9485,16 @@
         <v>47</v>
       </c>
       <c r="Q52">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="R52">
-        <v>138000</v>
+        <v>190000</v>
       </c>
       <c r="S52">
-        <v>966000</v>
+        <v>950000</v>
       </c>
       <c r="T52" t="s">
-        <v>311</v>
+        <v>331</v>
       </c>
       <c r="U52" t="s">
         <v>47</v>
@@ -9457,21 +9502,19 @@
       <c r="V52" t="s">
         <v>47</v>
       </c>
-      <c r="W52" t="s">
-        <v>47</v>
-      </c>
-      <c r="X52" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y52" t="s">
-        <v>47</v>
+      <c r="W52">
+        <v>5</v>
+      </c>
+      <c r="X52">
+        <v>210000</v>
+      </c>
+      <c r="Y52">
+        <v>1050000</v>
       </c>
       <c r="Z52" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA52" t="s">
-        <v>47</v>
-      </c>
+        <v>332</v>
+      </c>
+      <c r="AA52"/>
       <c r="AB52" t="s">
         <v>47</v>
       </c>
@@ -9535,25 +9578,25 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>312</v>
+        <v>333</v>
       </c>
       <c r="C53" t="s">
-        <v>313</v>
+        <v>334</v>
       </c>
       <c r="D53" t="s">
         <v>47</v>
       </c>
-      <c r="E53">
-        <v>6</v>
-      </c>
-      <c r="F53">
-        <v>153000</v>
-      </c>
-      <c r="G53">
-        <v>918000</v>
+      <c r="E53" t="s">
+        <v>47</v>
+      </c>
+      <c r="F53" t="s">
+        <v>47</v>
+      </c>
+      <c r="G53" t="s">
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>314</v>
+        <v>47</v>
       </c>
       <c r="I53" t="s">
         <v>47</v>
@@ -9562,16 +9605,16 @@
         <v>47</v>
       </c>
       <c r="K53">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L53">
-        <v>144000</v>
+        <v>133000</v>
       </c>
       <c r="M53">
-        <v>864000</v>
+        <v>1064000</v>
       </c>
       <c r="N53" t="s">
-        <v>315</v>
+        <v>335</v>
       </c>
       <c r="O53" t="s">
         <v>47</v>
@@ -9580,16 +9623,16 @@
         <v>47</v>
       </c>
       <c r="Q53">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R53">
-        <v>147000</v>
+        <v>138000</v>
       </c>
       <c r="S53">
-        <v>882000</v>
+        <v>966000</v>
       </c>
       <c r="T53" t="s">
-        <v>316</v>
+        <v>336</v>
       </c>
       <c r="U53" t="s">
         <v>47</v>
@@ -9597,21 +9640,19 @@
       <c r="V53" t="s">
         <v>47</v>
       </c>
-      <c r="W53" t="s">
-        <v>47</v>
-      </c>
-      <c r="X53" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y53" t="s">
-        <v>47</v>
+      <c r="W53">
+        <v>7</v>
+      </c>
+      <c r="X53">
+        <v>138000</v>
+      </c>
+      <c r="Y53">
+        <v>966000</v>
       </c>
       <c r="Z53" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA53" t="s">
-        <v>47</v>
-      </c>
+        <v>337</v>
+      </c>
+      <c r="AA53"/>
       <c r="AB53" t="s">
         <v>47</v>
       </c>
@@ -9675,10 +9716,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>317</v>
+        <v>338</v>
       </c>
       <c r="C54" t="s">
-        <v>318</v>
+        <v>339</v>
       </c>
       <c r="D54" t="s">
         <v>47</v>
@@ -9687,13 +9728,13 @@
         <v>6</v>
       </c>
       <c r="F54">
-        <v>165000</v>
+        <v>153000</v>
       </c>
       <c r="G54">
-        <v>990000</v>
+        <v>918000</v>
       </c>
       <c r="H54" t="s">
-        <v>319</v>
+        <v>340</v>
       </c>
       <c r="I54" t="s">
         <v>47</v>
@@ -9702,16 +9743,16 @@
         <v>47</v>
       </c>
       <c r="K54">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L54">
-        <v>188000</v>
+        <v>144000</v>
       </c>
       <c r="M54">
-        <v>940000</v>
+        <v>864000</v>
       </c>
       <c r="N54" t="s">
-        <v>320</v>
+        <v>341</v>
       </c>
       <c r="O54" t="s">
         <v>47</v>
@@ -9720,16 +9761,16 @@
         <v>47</v>
       </c>
       <c r="Q54">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R54">
-        <v>200000</v>
+        <v>147000</v>
       </c>
       <c r="S54">
-        <v>1000000</v>
+        <v>882000</v>
       </c>
       <c r="T54" t="s">
-        <v>321</v>
+        <v>342</v>
       </c>
       <c r="U54" t="s">
         <v>47</v>
@@ -9737,21 +9778,19 @@
       <c r="V54" t="s">
         <v>47</v>
       </c>
-      <c r="W54" t="s">
-        <v>47</v>
-      </c>
-      <c r="X54" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y54" t="s">
-        <v>47</v>
+      <c r="W54">
+        <v>6</v>
+      </c>
+      <c r="X54">
+        <v>155000</v>
+      </c>
+      <c r="Y54">
+        <v>930000</v>
       </c>
       <c r="Z54" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA54" t="s">
-        <v>47</v>
-      </c>
+        <v>343</v>
+      </c>
+      <c r="AA54"/>
       <c r="AB54" t="s">
         <v>47</v>
       </c>
@@ -9815,25 +9854,25 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>322</v>
+        <v>344</v>
       </c>
       <c r="C55" t="s">
-        <v>323</v>
+        <v>345</v>
       </c>
       <c r="D55" t="s">
         <v>47</v>
       </c>
-      <c r="E55" t="s">
-        <v>47</v>
-      </c>
-      <c r="F55" t="s">
-        <v>47</v>
-      </c>
-      <c r="G55" t="s">
-        <v>47</v>
+      <c r="E55">
+        <v>6</v>
+      </c>
+      <c r="F55">
+        <v>165000</v>
+      </c>
+      <c r="G55">
+        <v>990000</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>346</v>
       </c>
       <c r="I55" t="s">
         <v>47</v>
@@ -9842,16 +9881,16 @@
         <v>47</v>
       </c>
       <c r="K55">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L55">
-        <v>147000</v>
+        <v>188000</v>
       </c>
       <c r="M55">
-        <v>882000</v>
+        <v>940000</v>
       </c>
       <c r="N55" t="s">
-        <v>324</v>
+        <v>347</v>
       </c>
       <c r="O55" t="s">
         <v>47</v>
@@ -9860,16 +9899,16 @@
         <v>47</v>
       </c>
       <c r="Q55">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R55">
-        <v>159000</v>
+        <v>200000</v>
       </c>
       <c r="S55">
-        <v>954000</v>
+        <v>1000000</v>
       </c>
       <c r="T55" t="s">
-        <v>325</v>
+        <v>348</v>
       </c>
       <c r="U55" t="s">
         <v>47</v>
@@ -9877,21 +9916,19 @@
       <c r="V55" t="s">
         <v>47</v>
       </c>
-      <c r="W55" t="s">
-        <v>47</v>
-      </c>
-      <c r="X55" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y55" t="s">
-        <v>47</v>
+      <c r="W55">
+        <v>5</v>
+      </c>
+      <c r="X55">
+        <v>210000</v>
+      </c>
+      <c r="Y55">
+        <v>1050000</v>
       </c>
       <c r="Z55" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA55" t="s">
-        <v>47</v>
-      </c>
+        <v>349</v>
+      </c>
+      <c r="AA55"/>
       <c r="AB55" t="s">
         <v>47</v>
       </c>
@@ -9955,25 +9992,25 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>326</v>
+        <v>350</v>
       </c>
       <c r="C56" t="s">
-        <v>327</v>
+        <v>351</v>
       </c>
       <c r="D56" t="s">
         <v>47</v>
       </c>
-      <c r="E56">
-        <v>5</v>
-      </c>
-      <c r="F56">
-        <v>160000</v>
-      </c>
-      <c r="G56">
-        <v>800000</v>
+      <c r="E56" t="s">
+        <v>47</v>
+      </c>
+      <c r="F56" t="s">
+        <v>47</v>
+      </c>
+      <c r="G56" t="s">
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>328</v>
+        <v>47</v>
       </c>
       <c r="I56" t="s">
         <v>47</v>
@@ -9985,13 +10022,13 @@
         <v>6</v>
       </c>
       <c r="L56">
-        <v>148000</v>
+        <v>147000</v>
       </c>
       <c r="M56">
-        <v>888000</v>
+        <v>882000</v>
       </c>
       <c r="N56" t="s">
-        <v>329</v>
+        <v>352</v>
       </c>
       <c r="O56" t="s">
         <v>47</v>
@@ -10003,13 +10040,13 @@
         <v>6</v>
       </c>
       <c r="R56">
-        <v>148000</v>
+        <v>159000</v>
       </c>
       <c r="S56">
-        <v>888000</v>
+        <v>954000</v>
       </c>
       <c r="T56" t="s">
-        <v>330</v>
+        <v>353</v>
       </c>
       <c r="U56" t="s">
         <v>47</v>
@@ -10021,17 +10058,15 @@
         <v>6</v>
       </c>
       <c r="X56">
-        <v>168000</v>
+        <v>176000</v>
       </c>
       <c r="Y56">
-        <v>1008000</v>
+        <v>1056000</v>
       </c>
       <c r="Z56" t="s">
-        <v>331</v>
-      </c>
-      <c r="AA56" t="s">
-        <v>47</v>
-      </c>
+        <v>354</v>
+      </c>
+      <c r="AA56"/>
       <c r="AB56" t="s">
         <v>47</v>
       </c>
@@ -10095,25 +10130,25 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="C57" t="s">
-        <v>333</v>
+        <v>356</v>
       </c>
       <c r="D57" t="s">
         <v>47</v>
       </c>
-      <c r="E57" t="s">
-        <v>47</v>
-      </c>
-      <c r="F57" t="s">
-        <v>47</v>
-      </c>
-      <c r="G57" t="s">
-        <v>47</v>
+      <c r="E57">
+        <v>5</v>
+      </c>
+      <c r="F57">
+        <v>160000</v>
+      </c>
+      <c r="G57">
+        <v>800000</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>357</v>
       </c>
       <c r="I57" t="s">
         <v>47</v>
@@ -10122,16 +10157,16 @@
         <v>47</v>
       </c>
       <c r="K57">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L57">
-        <v>130000</v>
+        <v>148000</v>
       </c>
       <c r="M57">
-        <v>910000</v>
+        <v>888000</v>
       </c>
       <c r="N57" t="s">
-        <v>334</v>
+        <v>358</v>
       </c>
       <c r="O57" t="s">
         <v>47</v>
@@ -10140,16 +10175,16 @@
         <v>47</v>
       </c>
       <c r="Q57">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R57">
-        <v>140000</v>
+        <v>148000</v>
       </c>
       <c r="S57">
-        <v>980000</v>
+        <v>888000</v>
       </c>
       <c r="T57" t="s">
-        <v>335</v>
+        <v>359</v>
       </c>
       <c r="U57" t="s">
         <v>47</v>
@@ -10157,21 +10192,19 @@
       <c r="V57" t="s">
         <v>47</v>
       </c>
-      <c r="W57" t="s">
-        <v>47</v>
-      </c>
-      <c r="X57" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y57" t="s">
-        <v>47</v>
+      <c r="W57">
+        <v>6</v>
+      </c>
+      <c r="X57">
+        <v>168000</v>
+      </c>
+      <c r="Y57">
+        <v>1008000</v>
       </c>
       <c r="Z57" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA57" t="s">
-        <v>47</v>
-      </c>
+        <v>360</v>
+      </c>
+      <c r="AA57"/>
       <c r="AB57" t="s">
         <v>47</v>
       </c>
@@ -10235,43 +10268,43 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>336</v>
+        <v>361</v>
       </c>
       <c r="C58" t="s">
-        <v>337</v>
+        <v>362</v>
       </c>
       <c r="D58" t="s">
         <v>47</v>
       </c>
-      <c r="E58">
+      <c r="E58" t="s">
+        <v>47</v>
+      </c>
+      <c r="F58" t="s">
+        <v>47</v>
+      </c>
+      <c r="G58" t="s">
+        <v>47</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>47</v>
+      </c>
+      <c r="J58" t="s">
+        <v>47</v>
+      </c>
+      <c r="K58">
         <v>7</v>
       </c>
-      <c r="F58">
-        <v>74000</v>
-      </c>
-      <c r="G58">
-        <v>518000</v>
-      </c>
-      <c r="H58" t="s">
-        <v>338</v>
-      </c>
-      <c r="I58" t="s">
-        <v>47</v>
-      </c>
-      <c r="J58" t="s">
-        <v>47</v>
-      </c>
-      <c r="K58">
-        <v>8</v>
-      </c>
       <c r="L58">
-        <v>95000</v>
+        <v>130000</v>
       </c>
       <c r="M58">
-        <v>760000</v>
+        <v>910000</v>
       </c>
       <c r="N58" t="s">
-        <v>339</v>
+        <v>363</v>
       </c>
       <c r="O58" t="s">
         <v>47</v>
@@ -10280,16 +10313,16 @@
         <v>47</v>
       </c>
       <c r="Q58">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R58">
-        <v>100000</v>
+        <v>140000</v>
       </c>
       <c r="S58">
-        <v>800000</v>
+        <v>980000</v>
       </c>
       <c r="T58" t="s">
-        <v>340</v>
+        <v>364</v>
       </c>
       <c r="U58" t="s">
         <v>47</v>
@@ -10298,20 +10331,18 @@
         <v>47</v>
       </c>
       <c r="W58">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="X58">
-        <v>109000</v>
+        <v>150000</v>
       </c>
       <c r="Y58">
-        <v>872000</v>
+        <v>900000</v>
       </c>
       <c r="Z58" t="s">
-        <v>341</v>
-      </c>
-      <c r="AA58" t="s">
-        <v>47</v>
-      </c>
+        <v>365</v>
+      </c>
+      <c r="AA58"/>
       <c r="AB58" t="s">
         <v>47</v>
       </c>
@@ -10375,25 +10406,25 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>342</v>
+        <v>366</v>
       </c>
       <c r="C59" t="s">
-        <v>343</v>
+        <v>367</v>
       </c>
       <c r="D59" t="s">
         <v>47</v>
       </c>
       <c r="E59">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F59">
-        <v>169474</v>
+        <v>74000</v>
       </c>
       <c r="G59">
-        <v>847370</v>
+        <v>518000</v>
       </c>
       <c r="H59" t="s">
-        <v>344</v>
+        <v>368</v>
       </c>
       <c r="I59" t="s">
         <v>47</v>
@@ -10402,16 +10433,16 @@
         <v>47</v>
       </c>
       <c r="K59">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L59">
-        <v>151952</v>
+        <v>95000</v>
       </c>
       <c r="M59">
-        <v>911712</v>
+        <v>760000</v>
       </c>
       <c r="N59" t="s">
-        <v>345</v>
+        <v>369</v>
       </c>
       <c r="O59" t="s">
         <v>47</v>
@@ -10420,16 +10451,16 @@
         <v>47</v>
       </c>
       <c r="Q59">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="R59">
-        <v>160787</v>
+        <v>100000</v>
       </c>
       <c r="S59">
-        <v>964722</v>
+        <v>800000</v>
       </c>
       <c r="T59" t="s">
-        <v>346</v>
+        <v>370</v>
       </c>
       <c r="U59" t="s">
         <v>47</v>
@@ -10437,21 +10468,19 @@
       <c r="V59" t="s">
         <v>47</v>
       </c>
-      <c r="W59" t="s">
-        <v>47</v>
-      </c>
-      <c r="X59" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y59" t="s">
-        <v>47</v>
+      <c r="W59">
+        <v>8</v>
+      </c>
+      <c r="X59">
+        <v>109000</v>
+      </c>
+      <c r="Y59">
+        <v>872000</v>
       </c>
       <c r="Z59" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA59" t="s">
-        <v>47</v>
-      </c>
+        <v>371</v>
+      </c>
+      <c r="AA59"/>
       <c r="AB59" t="s">
         <v>47</v>
       </c>
@@ -10515,25 +10544,25 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>347</v>
+        <v>372</v>
       </c>
       <c r="C60" t="s">
-        <v>348</v>
+        <v>373</v>
       </c>
       <c r="D60" t="s">
         <v>47</v>
       </c>
-      <c r="E60" t="s">
-        <v>47</v>
-      </c>
-      <c r="F60" t="s">
-        <v>47</v>
-      </c>
-      <c r="G60" t="s">
-        <v>47</v>
+      <c r="E60">
+        <v>5</v>
+      </c>
+      <c r="F60">
+        <v>169474</v>
+      </c>
+      <c r="G60">
+        <v>847370</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>374</v>
       </c>
       <c r="I60" t="s">
         <v>47</v>
@@ -10542,16 +10571,16 @@
         <v>47</v>
       </c>
       <c r="K60">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="L60">
-        <v>100000</v>
+        <v>151952</v>
       </c>
       <c r="M60">
-        <v>900000</v>
+        <v>911712</v>
       </c>
       <c r="N60" t="s">
-        <v>349</v>
+        <v>375</v>
       </c>
       <c r="O60" t="s">
         <v>47</v>
@@ -10560,16 +10589,16 @@
         <v>47</v>
       </c>
       <c r="Q60">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="R60">
-        <v>118000</v>
+        <v>160787</v>
       </c>
       <c r="S60">
-        <v>944000</v>
+        <v>964722</v>
       </c>
       <c r="T60" t="s">
-        <v>350</v>
+        <v>376</v>
       </c>
       <c r="U60" t="s">
         <v>47</v>
@@ -10577,21 +10606,19 @@
       <c r="V60" t="s">
         <v>47</v>
       </c>
-      <c r="W60" t="s">
-        <v>47</v>
-      </c>
-      <c r="X60" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y60" t="s">
-        <v>47</v>
+      <c r="W60">
+        <v>6</v>
+      </c>
+      <c r="X60">
+        <v>161825</v>
+      </c>
+      <c r="Y60">
+        <v>970950</v>
       </c>
       <c r="Z60" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA60" t="s">
-        <v>47</v>
-      </c>
+        <v>377</v>
+      </c>
+      <c r="AA60"/>
       <c r="AB60" t="s">
         <v>47</v>
       </c>
@@ -10655,25 +10682,25 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>351</v>
+        <v>378</v>
       </c>
       <c r="C61" t="s">
-        <v>352</v>
+        <v>379</v>
       </c>
       <c r="D61" t="s">
         <v>47</v>
       </c>
-      <c r="E61">
-        <v>10</v>
-      </c>
-      <c r="F61">
-        <v>99000</v>
-      </c>
-      <c r="G61">
-        <v>990000</v>
+      <c r="E61" t="s">
+        <v>47</v>
+      </c>
+      <c r="F61" t="s">
+        <v>47</v>
+      </c>
+      <c r="G61" t="s">
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>353</v>
+        <v>47</v>
       </c>
       <c r="I61" t="s">
         <v>47</v>
@@ -10682,16 +10709,16 @@
         <v>47</v>
       </c>
       <c r="K61">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L61">
-        <v>77000</v>
+        <v>100000</v>
       </c>
       <c r="M61">
-        <v>770000</v>
+        <v>900000</v>
       </c>
       <c r="N61" t="s">
-        <v>354</v>
+        <v>380</v>
       </c>
       <c r="O61" t="s">
         <v>47</v>
@@ -10700,16 +10727,16 @@
         <v>47</v>
       </c>
       <c r="Q61">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="R61">
-        <v>80000</v>
+        <v>118000</v>
       </c>
       <c r="S61">
-        <v>880000</v>
+        <v>944000</v>
       </c>
       <c r="T61" t="s">
-        <v>355</v>
+        <v>381</v>
       </c>
       <c r="U61" t="s">
         <v>47</v>
@@ -10718,20 +10745,18 @@
         <v>47</v>
       </c>
       <c r="W61">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="X61">
-        <v>80000</v>
+        <v>125000</v>
       </c>
       <c r="Y61">
-        <v>880000</v>
+        <v>875000</v>
       </c>
       <c r="Z61" t="s">
-        <v>356</v>
-      </c>
-      <c r="AA61" t="s">
-        <v>47</v>
-      </c>
+        <v>382</v>
+      </c>
+      <c r="AA61"/>
       <c r="AB61" t="s">
         <v>47</v>
       </c>
@@ -10795,25 +10820,25 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="C62" t="s">
-        <v>358</v>
+        <v>384</v>
       </c>
       <c r="D62" t="s">
         <v>47</v>
       </c>
-      <c r="E62" t="s">
-        <v>47</v>
-      </c>
-      <c r="F62" t="s">
-        <v>47</v>
-      </c>
-      <c r="G62" t="s">
-        <v>47</v>
+      <c r="E62">
+        <v>10</v>
+      </c>
+      <c r="F62">
+        <v>99000</v>
+      </c>
+      <c r="G62">
+        <v>990000</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>385</v>
       </c>
       <c r="I62" t="s">
         <v>47</v>
@@ -10822,16 +10847,16 @@
         <v>47</v>
       </c>
       <c r="K62">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="L62">
-        <v>130000</v>
+        <v>77000</v>
       </c>
       <c r="M62">
-        <v>910000</v>
+        <v>770000</v>
       </c>
       <c r="N62" t="s">
-        <v>359</v>
+        <v>386</v>
       </c>
       <c r="O62" t="s">
         <v>47</v>
@@ -10840,16 +10865,16 @@
         <v>47</v>
       </c>
       <c r="Q62">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="R62">
-        <v>150000</v>
+        <v>80000</v>
       </c>
       <c r="S62">
-        <v>900000</v>
+        <v>880000</v>
       </c>
       <c r="T62" t="s">
-        <v>360</v>
+        <v>387</v>
       </c>
       <c r="U62" t="s">
         <v>47</v>
@@ -10857,21 +10882,19 @@
       <c r="V62" t="s">
         <v>47</v>
       </c>
-      <c r="W62" t="s">
-        <v>47</v>
-      </c>
-      <c r="X62" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y62" t="s">
-        <v>47</v>
+      <c r="W62">
+        <v>11</v>
+      </c>
+      <c r="X62">
+        <v>80000</v>
+      </c>
+      <c r="Y62">
+        <v>880000</v>
       </c>
       <c r="Z62" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA62" t="s">
-        <v>47</v>
-      </c>
+        <v>388</v>
+      </c>
+      <c r="AA62"/>
       <c r="AB62" t="s">
         <v>47</v>
       </c>
@@ -10935,25 +10958,25 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>361</v>
+        <v>389</v>
       </c>
       <c r="C63" t="s">
-        <v>362</v>
+        <v>390</v>
       </c>
       <c r="D63" t="s">
         <v>47</v>
       </c>
-      <c r="E63">
-        <v>5</v>
-      </c>
-      <c r="F63">
-        <v>147000</v>
-      </c>
-      <c r="G63">
-        <v>735000</v>
+      <c r="E63" t="s">
+        <v>47</v>
+      </c>
+      <c r="F63" t="s">
+        <v>47</v>
+      </c>
+      <c r="G63" t="s">
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>363</v>
+        <v>47</v>
       </c>
       <c r="I63" t="s">
         <v>47</v>
@@ -10965,13 +10988,13 @@
         <v>7</v>
       </c>
       <c r="L63">
-        <v>125000</v>
+        <v>130000</v>
       </c>
       <c r="M63">
-        <v>875000</v>
+        <v>910000</v>
       </c>
       <c r="N63" t="s">
-        <v>364</v>
+        <v>391</v>
       </c>
       <c r="O63" t="s">
         <v>47</v>
@@ -10980,16 +11003,16 @@
         <v>47</v>
       </c>
       <c r="Q63">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R63">
-        <v>129000</v>
+        <v>150000</v>
       </c>
       <c r="S63">
-        <v>903000</v>
+        <v>900000</v>
       </c>
       <c r="T63" t="s">
-        <v>365</v>
+        <v>392</v>
       </c>
       <c r="U63" t="s">
         <v>47</v>
@@ -11001,17 +11024,15 @@
         <v>7</v>
       </c>
       <c r="X63">
-        <v>137000</v>
+        <v>150000</v>
       </c>
       <c r="Y63">
-        <v>959000</v>
+        <v>1050000</v>
       </c>
       <c r="Z63" t="s">
-        <v>366</v>
-      </c>
-      <c r="AA63" t="s">
-        <v>47</v>
-      </c>
+        <v>393</v>
+      </c>
+      <c r="AA63"/>
       <c r="AB63" t="s">
         <v>47</v>
       </c>
@@ -11075,25 +11096,25 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>367</v>
+        <v>394</v>
       </c>
       <c r="C64" t="s">
-        <v>368</v>
+        <v>395</v>
       </c>
       <c r="D64" t="s">
         <v>47</v>
       </c>
-      <c r="E64" t="s">
-        <v>47</v>
-      </c>
-      <c r="F64" t="s">
-        <v>47</v>
-      </c>
-      <c r="G64" t="s">
-        <v>47</v>
+      <c r="E64">
+        <v>5</v>
+      </c>
+      <c r="F64">
+        <v>147000</v>
+      </c>
+      <c r="G64">
+        <v>735000</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>396</v>
       </c>
       <c r="I64" t="s">
         <v>47</v>
@@ -11105,13 +11126,13 @@
         <v>7</v>
       </c>
       <c r="L64">
-        <v>145000</v>
+        <v>125000</v>
       </c>
       <c r="M64">
-        <v>1015000</v>
+        <v>875000</v>
       </c>
       <c r="N64" t="s">
-        <v>369</v>
+        <v>397</v>
       </c>
       <c r="O64" t="s">
         <v>47</v>
@@ -11123,13 +11144,13 @@
         <v>7</v>
       </c>
       <c r="R64">
-        <v>145000</v>
+        <v>129000</v>
       </c>
       <c r="S64">
-        <v>1015000</v>
+        <v>903000</v>
       </c>
       <c r="T64" t="s">
-        <v>370</v>
+        <v>398</v>
       </c>
       <c r="U64" t="s">
         <v>47</v>
@@ -11137,17 +11158,17 @@
       <c r="V64" t="s">
         <v>47</v>
       </c>
-      <c r="W64" t="s">
-        <v>47</v>
-      </c>
-      <c r="X64" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y64" t="s">
-        <v>47</v>
+      <c r="W64">
+        <v>7</v>
+      </c>
+      <c r="X64">
+        <v>137000</v>
+      </c>
+      <c r="Y64">
+        <v>959000</v>
       </c>
       <c r="Z64" t="s">
-        <v>47</v>
+        <v>399</v>
       </c>
       <c r="AA64" t="s">
         <v>47</v>
@@ -11215,25 +11236,25 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>371</v>
+        <v>400</v>
       </c>
       <c r="C65" t="s">
-        <v>372</v>
+        <v>401</v>
       </c>
       <c r="D65" t="s">
         <v>47</v>
       </c>
-      <c r="E65">
-        <v>5</v>
-      </c>
-      <c r="F65">
-        <v>230000</v>
-      </c>
-      <c r="G65">
-        <v>1150000</v>
+      <c r="E65" t="s">
+        <v>47</v>
+      </c>
+      <c r="F65" t="s">
+        <v>47</v>
+      </c>
+      <c r="G65" t="s">
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>373</v>
+        <v>47</v>
       </c>
       <c r="I65" t="s">
         <v>47</v>
@@ -11245,13 +11266,13 @@
         <v>7</v>
       </c>
       <c r="L65">
-        <v>200000</v>
+        <v>145000</v>
       </c>
       <c r="M65">
-        <v>1400000</v>
+        <v>1015000</v>
       </c>
       <c r="N65" t="s">
-        <v>374</v>
+        <v>402</v>
       </c>
       <c r="O65" t="s">
         <v>47</v>
@@ -11263,13 +11284,13 @@
         <v>7</v>
       </c>
       <c r="R65">
-        <v>200000</v>
+        <v>145000</v>
       </c>
       <c r="S65">
-        <v>1400000</v>
+        <v>1015000</v>
       </c>
       <c r="T65" t="s">
-        <v>375</v>
+        <v>403</v>
       </c>
       <c r="U65" t="s">
         <v>47</v>
@@ -11277,20 +11298,20 @@
       <c r="V65" t="s">
         <v>47</v>
       </c>
-      <c r="W65">
-        <v>7</v>
-      </c>
-      <c r="X65">
-        <v>200000</v>
-      </c>
-      <c r="Y65">
-        <v>1400000</v>
+      <c r="W65" t="s">
+        <v>47</v>
+      </c>
+      <c r="X65" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>47</v>
       </c>
       <c r="Z65" t="s">
-        <v>376</v>
+        <v>47</v>
       </c>
       <c r="AA65" t="s">
-        <v>47</v>
+        <v>401</v>
       </c>
       <c r="AB65" t="s">
         <v>47</v>
@@ -11355,25 +11376,25 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>377</v>
+        <v>404</v>
       </c>
       <c r="C66" t="s">
-        <v>378</v>
+        <v>405</v>
       </c>
       <c r="D66" t="s">
         <v>47</v>
       </c>
-      <c r="E66" t="s">
-        <v>47</v>
-      </c>
-      <c r="F66" t="s">
-        <v>47</v>
-      </c>
-      <c r="G66" t="s">
-        <v>47</v>
+      <c r="E66">
+        <v>5</v>
+      </c>
+      <c r="F66">
+        <v>230000</v>
+      </c>
+      <c r="G66">
+        <v>1150000</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>406</v>
       </c>
       <c r="I66" t="s">
         <v>47</v>
@@ -11385,13 +11406,13 @@
         <v>7</v>
       </c>
       <c r="L66">
-        <v>169000</v>
+        <v>200000</v>
       </c>
       <c r="M66">
-        <v>1183000</v>
+        <v>1400000</v>
       </c>
       <c r="N66" t="s">
-        <v>379</v>
+        <v>407</v>
       </c>
       <c r="O66" t="s">
         <v>47</v>
@@ -11400,16 +11421,16 @@
         <v>47</v>
       </c>
       <c r="Q66">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R66">
-        <v>153000</v>
+        <v>200000</v>
       </c>
       <c r="S66">
-        <v>918000</v>
+        <v>1400000</v>
       </c>
       <c r="T66" t="s">
-        <v>380</v>
+        <v>408</v>
       </c>
       <c r="U66" t="s">
         <v>47</v>
@@ -11417,17 +11438,17 @@
       <c r="V66" t="s">
         <v>47</v>
       </c>
-      <c r="W66" t="s">
-        <v>47</v>
-      </c>
-      <c r="X66" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y66" t="s">
-        <v>47</v>
+      <c r="W66">
+        <v>7</v>
+      </c>
+      <c r="X66">
+        <v>200000</v>
+      </c>
+      <c r="Y66">
+        <v>1400000</v>
       </c>
       <c r="Z66" t="s">
-        <v>47</v>
+        <v>409</v>
       </c>
       <c r="AA66" t="s">
         <v>47</v>
@@ -11495,10 +11516,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>381</v>
+        <v>410</v>
       </c>
       <c r="C67" t="s">
-        <v>382</v>
+        <v>411</v>
       </c>
       <c r="D67" t="s">
         <v>47</v>
@@ -11522,16 +11543,16 @@
         <v>47</v>
       </c>
       <c r="K67">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L67">
-        <v>172000</v>
+        <v>169000</v>
       </c>
       <c r="M67">
-        <v>860000</v>
+        <v>1183000</v>
       </c>
       <c r="N67" t="s">
-        <v>383</v>
+        <v>412</v>
       </c>
       <c r="O67" t="s">
         <v>47</v>
@@ -11539,17 +11560,17 @@
       <c r="P67" t="s">
         <v>47</v>
       </c>
-      <c r="Q67" t="s">
-        <v>47</v>
-      </c>
-      <c r="R67" t="s">
-        <v>47</v>
-      </c>
-      <c r="S67" t="s">
-        <v>47</v>
+      <c r="Q67">
+        <v>6</v>
+      </c>
+      <c r="R67">
+        <v>153000</v>
+      </c>
+      <c r="S67">
+        <v>918000</v>
       </c>
       <c r="T67" t="s">
-        <v>47</v>
+        <v>413</v>
       </c>
       <c r="U67" t="s">
         <v>47</v>
@@ -11561,31 +11582,29 @@
         <v>5</v>
       </c>
       <c r="X67">
-        <v>180000</v>
+        <v>178000</v>
       </c>
       <c r="Y67">
-        <v>900000</v>
+        <v>890000</v>
       </c>
       <c r="Z67" t="s">
-        <v>384</v>
-      </c>
-      <c r="AA67" t="s">
-        <v>47</v>
-      </c>
+        <v>414</v>
+      </c>
+      <c r="AA67"/>
       <c r="AB67" t="s">
         <v>47</v>
       </c>
-      <c r="AC67" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD67" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE67" t="s">
-        <v>47</v>
+      <c r="AC67">
+        <v>7</v>
+      </c>
+      <c r="AD67">
+        <v>167000</v>
+      </c>
+      <c r="AE67">
+        <v>1169000</v>
       </c>
       <c r="AF67" t="s">
-        <v>47</v>
+        <v>415</v>
       </c>
       <c r="AG67" t="s">
         <v>47</v>
@@ -11635,43 +11654,43 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>385</v>
+        <v>416</v>
       </c>
       <c r="C68" t="s">
-        <v>386</v>
+        <v>417</v>
       </c>
       <c r="D68" t="s">
         <v>47</v>
       </c>
-      <c r="E68">
+      <c r="E68" t="s">
+        <v>47</v>
+      </c>
+      <c r="F68" t="s">
+        <v>47</v>
+      </c>
+      <c r="G68" t="s">
+        <v>47</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>47</v>
+      </c>
+      <c r="J68" t="s">
+        <v>47</v>
+      </c>
+      <c r="K68">
         <v>5</v>
       </c>
-      <c r="F68">
-        <v>195409</v>
-      </c>
-      <c r="G68">
-        <v>977045</v>
-      </c>
-      <c r="H68" t="s">
-        <v>387</v>
-      </c>
-      <c r="I68" t="s">
-        <v>47</v>
-      </c>
-      <c r="J68" t="s">
-        <v>47</v>
-      </c>
-      <c r="K68">
-        <v>15</v>
-      </c>
       <c r="L68">
-        <v>166548</v>
+        <v>172000</v>
       </c>
       <c r="M68">
-        <v>2498220</v>
+        <v>860000</v>
       </c>
       <c r="N68" t="s">
-        <v>388</v>
+        <v>418</v>
       </c>
       <c r="O68" t="s">
         <v>47</v>
@@ -11697,17 +11716,17 @@
       <c r="V68" t="s">
         <v>47</v>
       </c>
-      <c r="W68" t="s">
-        <v>47</v>
-      </c>
-      <c r="X68" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y68" t="s">
-        <v>47</v>
+      <c r="W68">
+        <v>5</v>
+      </c>
+      <c r="X68">
+        <v>180000</v>
+      </c>
+      <c r="Y68">
+        <v>900000</v>
       </c>
       <c r="Z68" t="s">
-        <v>47</v>
+        <v>419</v>
       </c>
       <c r="AA68" t="s">
         <v>47</v>
@@ -11775,25 +11794,25 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>389</v>
+        <v>420</v>
       </c>
       <c r="C69" t="s">
-        <v>390</v>
+        <v>421</v>
       </c>
       <c r="D69" t="s">
         <v>47</v>
       </c>
-      <c r="E69" t="s">
-        <v>47</v>
-      </c>
-      <c r="F69" t="s">
-        <v>47</v>
-      </c>
-      <c r="G69" t="s">
-        <v>47</v>
+      <c r="E69">
+        <v>5</v>
+      </c>
+      <c r="F69">
+        <v>195409</v>
+      </c>
+      <c r="G69">
+        <v>977045</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>422</v>
       </c>
       <c r="I69" t="s">
         <v>47</v>
@@ -11801,17 +11820,17 @@
       <c r="J69" t="s">
         <v>47</v>
       </c>
-      <c r="K69" t="s">
-        <v>47</v>
-      </c>
-      <c r="L69" t="s">
-        <v>47</v>
-      </c>
-      <c r="M69" t="s">
-        <v>47</v>
+      <c r="K69">
+        <v>15</v>
+      </c>
+      <c r="L69">
+        <v>166548</v>
+      </c>
+      <c r="M69">
+        <v>2498220</v>
       </c>
       <c r="N69" t="s">
-        <v>47</v>
+        <v>423</v>
       </c>
       <c r="O69" t="s">
         <v>47</v>
@@ -11850,7 +11869,7 @@
         <v>47</v>
       </c>
       <c r="AA69" t="s">
-        <v>47</v>
+        <v>421</v>
       </c>
       <c r="AB69" t="s">
         <v>47</v>
@@ -11915,10 +11934,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>391</v>
+        <v>424</v>
       </c>
       <c r="C70" t="s">
-        <v>392</v>
+        <v>425</v>
       </c>
       <c r="D70" t="s">
         <v>47</v>
@@ -11969,7 +11988,7 @@
         <v>875000</v>
       </c>
       <c r="T70" t="s">
-        <v>393</v>
+        <v>426</v>
       </c>
       <c r="U70" t="s">
         <v>47</v>
@@ -11987,7 +12006,7 @@
         <v>920000</v>
       </c>
       <c r="Z70" t="s">
-        <v>394</v>
+        <v>427</v>
       </c>
       <c r="AA70" t="s">
         <v>47</v>
@@ -12055,10 +12074,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>395</v>
+        <v>428</v>
       </c>
       <c r="C71" t="s">
-        <v>396</v>
+        <v>429</v>
       </c>
       <c r="D71" t="s">
         <v>47</v>
@@ -12109,7 +12128,7 @@
         <v>875000</v>
       </c>
       <c r="T71" t="s">
-        <v>397</v>
+        <v>430</v>
       </c>
       <c r="U71" t="s">
         <v>47</v>
@@ -12127,7 +12146,7 @@
         <v>885000</v>
       </c>
       <c r="Z71" t="s">
-        <v>398</v>
+        <v>431</v>
       </c>
       <c r="AA71" t="s">
         <v>47</v>

--- a/落花机密表_糙汉子版.xlsx
+++ b/落花机密表_糙汉子版.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28245" windowHeight="13650"/>
+    <workbookView/>
   </bookViews>
   <sheets>
     <sheet name="9.16-9.22" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3061" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2870" uniqueCount="280">
   <si>
     <t>QQ</t>
   </si>
@@ -176,6 +176,9 @@
     <t>2019-09-16 13:05:36</t>
   </si>
   <si>
+    <t>2019-09-17 09:17:37</t>
+  </si>
+  <si>
     <t>924110951</t>
   </si>
   <si>
@@ -188,10 +191,28 @@
     <t>落花❀淼姬</t>
   </si>
   <si>
+    <t>2019-09-16 17:54:12</t>
+  </si>
+  <si>
+    <t>我就第一关打了7次</t>
+  </si>
+  <si>
     <t>metalzone@vip.qq.com</t>
   </si>
   <si>
-    <t>落花 亦闲（出号，有意私聊）</t>
+    <t>排名：110.落花。亦闲（许愿谜阁46/54）</t>
+  </si>
+  <si>
+    <t>2019-09-16 17:53:25</t>
+  </si>
+  <si>
+    <t>我反正两个号今天都打了。每个号打了10次</t>
+  </si>
+  <si>
+    <t>2019-09-17 15:25:06</t>
+  </si>
+  <si>
+    <t>我打了他一下，他打了我三次</t>
   </si>
   <si>
     <t>1372951725</t>
@@ -206,6 +227,12 @@
     <t>落花 青青子衿</t>
   </si>
   <si>
+    <t>2019-09-16 18:23:26</t>
+  </si>
+  <si>
+    <t>2019-09-17 11:57:52</t>
+  </si>
+  <si>
     <t>845423216</t>
   </si>
   <si>
@@ -215,10 +242,19 @@
     <t>2019-09-16 06:35:12</t>
   </si>
   <si>
+    <t>2019-09-17 06:57:04</t>
+  </si>
+  <si>
     <t>1327856459</t>
   </si>
   <si>
-    <t>落花  花落不沾衣</t>
+    <t>落花  桃花不沾衣</t>
+  </si>
+  <si>
+    <t>2019-09-16 14:01:04</t>
+  </si>
+  <si>
+    <t>2019-09-17 08:03:36</t>
   </si>
   <si>
     <t>2661759612</t>
@@ -230,6 +266,9 @@
     <t>2019-09-16 10:44:51</t>
   </si>
   <si>
+    <t>2019-09-17 09:43:22</t>
+  </si>
+  <si>
     <t>1584039297</t>
   </si>
   <si>
@@ -242,12 +281,18 @@
     <t>落花－白寄岚</t>
   </si>
   <si>
+    <t>2019-09-17 09:32:41</t>
+  </si>
+  <si>
     <t>1412977517</t>
   </si>
   <si>
     <t>落花满纸荒唐言</t>
   </si>
   <si>
+    <t>2019-09-17 10:06:45</t>
+  </si>
+  <si>
     <t>2605384970</t>
   </si>
   <si>
@@ -257,6 +302,9 @@
     <t>2019-09-16 06:45:53</t>
   </si>
   <si>
+    <t>2019-09-17 07:52:12</t>
+  </si>
+  <si>
     <t>2638588219</t>
   </si>
   <si>
@@ -269,6 +317,9 @@
     <t>清新才打了一次退出来竟然就没了</t>
   </si>
   <si>
+    <t>2019-09-17 10:17:08</t>
+  </si>
+  <si>
     <t>727791466</t>
   </si>
   <si>
@@ -278,6 +329,9 @@
     <t>2019-09-16 08:35:08</t>
   </si>
   <si>
+    <t>2019-09-17 08:32:56</t>
+  </si>
+  <si>
     <t>16500928</t>
   </si>
   <si>
@@ -296,6 +350,9 @@
     <t>2019-09-16 08:35:21</t>
   </si>
   <si>
+    <t>2019-09-17 14:28:27</t>
+  </si>
+  <si>
     <t>2126851254</t>
   </si>
   <si>
@@ -305,18 +362,30 @@
     <t>2019-09-16 08:38:30</t>
   </si>
   <si>
+    <t>2019-09-17 12:46:27</t>
+  </si>
+  <si>
     <t>957600168</t>
   </si>
   <si>
     <t>落花   莫名</t>
   </si>
   <si>
+    <t>2019-09-16 16:52:53</t>
+  </si>
+  <si>
+    <t>2019-09-17 07:11:54</t>
+  </si>
+  <si>
     <t>3191053965</t>
   </si>
   <si>
     <t>落花—星煌</t>
   </si>
   <si>
+    <t>2019-09-16 18:17:03</t>
+  </si>
+  <si>
     <t>1664171803</t>
   </si>
   <si>
@@ -335,18 +404,27 @@
     <t>2019-09-16 10:21:50</t>
   </si>
   <si>
+    <t>2019-09-17 15:12:47</t>
+  </si>
+  <si>
     <t>745415648</t>
   </si>
   <si>
     <t>落花 小虚</t>
   </si>
   <si>
+    <t>2019-09-17 09:36:58</t>
+  </si>
+  <si>
     <t>1841469477</t>
   </si>
   <si>
     <t>落花-天淼</t>
   </si>
   <si>
+    <t>2019-09-17 12:03:57</t>
+  </si>
+  <si>
     <t>769521738</t>
   </si>
   <si>
@@ -359,6 +437,12 @@
     <t>落花-谢南</t>
   </si>
   <si>
+    <t>2019-09-16 13:28:00</t>
+  </si>
+  <si>
+    <t>2019-09-17 13:06:15</t>
+  </si>
+  <si>
     <t>july401@qq.com</t>
   </si>
   <si>
@@ -374,6 +458,12 @@
     <t>落花-瓷羽</t>
   </si>
   <si>
+    <t>2019-09-16 15:16:18</t>
+  </si>
+  <si>
+    <t>2019-09-17 15:11:32</t>
+  </si>
+  <si>
     <t>779867533</t>
   </si>
   <si>
@@ -383,15 +473,21 @@
     <t>2019-09-16 12:36:00</t>
   </si>
   <si>
+    <t>2019-09-17 12:21:57</t>
+  </si>
+  <si>
     <t>965462652</t>
   </si>
   <si>
-    <t>落花*终年欧巴（括号里写点啥）</t>
+    <t>落花*终年欧巴（不要绿帽，快拿掉快拿掉）</t>
   </si>
   <si>
     <t>2019-09-16 08:34:51</t>
   </si>
   <si>
+    <t>2019-09-17 13:16:33</t>
+  </si>
+  <si>
     <t>2953487480</t>
   </si>
   <si>
@@ -401,25 +497,28 @@
     <t>2019-09-16 08:35:33</t>
   </si>
   <si>
+    <t>2019-09-17 13:41:31</t>
+  </si>
+  <si>
     <t>1012527207</t>
   </si>
   <si>
     <t>落花 阿呜</t>
   </si>
   <si>
+    <t>2019-09-16 17:56:44</t>
+  </si>
+  <si>
+    <t>2019-09-17 14:42:26</t>
+  </si>
+  <si>
     <t>1755065148</t>
   </si>
   <si>
     <t>落花  赖皮蛇</t>
   </si>
   <si>
-    <t>992526373</t>
-  </si>
-  <si>
-    <t>落花 slily</t>
-  </si>
-  <si>
-    <t>2019-09-16 12:49:27</t>
+    <t>2019-09-17 12:40:32</t>
   </si>
   <si>
     <t>505644622</t>
@@ -434,16 +533,25 @@
     <t>落花ʚ阿喵王子他父王ɞ</t>
   </si>
   <si>
+    <t>2019-09-17 19:47:27</t>
+  </si>
+  <si>
     <t>1025385659</t>
   </si>
   <si>
     <t>落花 柚歆</t>
   </si>
   <si>
+    <t>2019-09-16 18:33:05</t>
+  </si>
+  <si>
     <t>974687361</t>
   </si>
   <si>
-    <t>落花-清水</t>
+    <t>落花-华姒音( 清水 )</t>
+  </si>
+  <si>
+    <t>2019-09-17 08:17:51</t>
   </si>
   <si>
     <t>1003242662</t>
@@ -455,18 +563,30 @@
     <t>2019-09-16 11:44:11</t>
   </si>
   <si>
+    <t>2019-09-17 11:51:23</t>
+  </si>
+  <si>
     <t>108932610</t>
   </si>
   <si>
     <t>落花～羽汐</t>
   </si>
   <si>
+    <t>2019-09-17 12:51:45</t>
+  </si>
+  <si>
     <t>1941489960</t>
   </si>
   <si>
     <t>落花 早纪畈枝</t>
   </si>
   <si>
+    <t>2019-09-16 13:28:30</t>
+  </si>
+  <si>
+    <t>2019-09-17 13:01:11</t>
+  </si>
+  <si>
     <t>1327354755</t>
   </si>
   <si>
@@ -476,12 +596,18 @@
     <t>2019-09-16 12:02:58</t>
   </si>
   <si>
+    <t>2019-09-17 19:22:50</t>
+  </si>
+  <si>
     <t>1369562367</t>
   </si>
   <si>
     <t>落花ω天天</t>
   </si>
   <si>
+    <t>2019-09-17 09:56:17</t>
+  </si>
+  <si>
     <t>710237833</t>
   </si>
   <si>
@@ -491,6 +617,9 @@
     <t>2019-09-16 06:18:51</t>
   </si>
   <si>
+    <t>2019-09-17 07:55:13</t>
+  </si>
+  <si>
     <t>1369593175</t>
   </si>
   <si>
@@ -500,6 +629,9 @@
     <t>2019-09-16 12:33:31</t>
   </si>
   <si>
+    <t>2019-09-17 12:20:34</t>
+  </si>
+  <si>
     <t>1130056290</t>
   </si>
   <si>
@@ -509,6 +641,9 @@
     <t>2019-09-16 08:37:17</t>
   </si>
   <si>
+    <t>2019-09-17 11:41:36</t>
+  </si>
+  <si>
     <t>651570472</t>
   </si>
   <si>
@@ -518,6 +653,9 @@
     <t>2019-09-16 12:37:03</t>
   </si>
   <si>
+    <t>2019-09-17 15:17:08</t>
+  </si>
+  <si>
     <t>1305819830</t>
   </si>
   <si>
@@ -527,6 +665,9 @@
     <t>2019-09-16 09:40:47</t>
   </si>
   <si>
+    <t>2019-09-17 09:05:33</t>
+  </si>
+  <si>
     <t>cydjl@qq.com</t>
   </si>
   <si>
@@ -539,6 +680,12 @@
     <t>落花 千早(</t>
   </si>
   <si>
+    <t>2019-09-16 13:24:38</t>
+  </si>
+  <si>
+    <t>2019-09-17 19:21:55</t>
+  </si>
+  <si>
     <t>648875355</t>
   </si>
   <si>
@@ -548,18 +695,30 @@
     <t>2019-09-16 12:02:34</t>
   </si>
   <si>
+    <t>2019-09-17 18:36:57</t>
+  </si>
+  <si>
     <t>535509797</t>
   </si>
   <si>
     <t>落花，灰姐</t>
   </si>
   <si>
+    <t>2019-09-17 19:36:09</t>
+  </si>
+  <si>
     <t>491384166</t>
   </si>
   <si>
     <t>落花@藤原千花</t>
   </si>
   <si>
+    <t>2019-09-16 14:29:16</t>
+  </si>
+  <si>
+    <t>2019-09-17 17:53:56</t>
+  </si>
+  <si>
     <t>3476601463</t>
   </si>
   <si>
@@ -569,10 +728,7 @@
     <t>2019-09-16 07:26:43</t>
   </si>
   <si>
-    <t>2971057903</t>
-  </si>
-  <si>
-    <t>落花-细语</t>
+    <t>2019-09-17 14:11:13</t>
   </si>
   <si>
     <t>2473375876</t>
@@ -584,18 +740,27 @@
     <t>2019-09-16 08:34:33</t>
   </si>
   <si>
+    <t>2019-09-17 12:49:49</t>
+  </si>
+  <si>
     <t>2406417774</t>
   </si>
   <si>
     <t>落花 苏其凉</t>
   </si>
   <si>
+    <t>2019-09-17 19:27:50</t>
+  </si>
+  <si>
     <t>1937237519</t>
   </si>
   <si>
     <t>落花 ♏ 桃花换酒</t>
   </si>
   <si>
+    <t>2019-09-17 19:17:41</t>
+  </si>
+  <si>
     <t>1790016705</t>
   </si>
   <si>
@@ -611,6 +776,9 @@
     <t>2019-09-16 08:40:28</t>
   </si>
   <si>
+    <t>2019-09-17 09:25:49</t>
+  </si>
+  <si>
     <t>1543607287</t>
   </si>
   <si>
@@ -638,10 +806,19 @@
     <t>落花_鸭鸭</t>
   </si>
   <si>
+    <t>2019-09-17 08:08:14</t>
+  </si>
+  <si>
     <t>2187199328</t>
   </si>
   <si>
-    <t>落花.燃犀犀</t>
+    <t>落花·燃犀犀</t>
+  </si>
+  <si>
+    <t>2019-09-16 18:20:30</t>
+  </si>
+  <si>
+    <t>2019-09-17 19:46:59</t>
   </si>
   <si>
     <t>1971954551</t>
@@ -653,6 +830,9 @@
     <t>2019-09-16 12:44:43</t>
   </si>
   <si>
+    <t>2019-09-17 11:29:17</t>
+  </si>
+  <si>
     <t>603321690</t>
   </si>
   <si>
@@ -660,6 +840,21 @@
   </si>
   <si>
     <t>2019-09-16 06:38:38</t>
+  </si>
+  <si>
+    <t>2019-09-17 07:00:43</t>
+  </si>
+  <si>
+    <t>落花ฅ稷晞(落月冲鸭)</t>
+  </si>
+  <si>
+    <t>2019-09-17 13:33:17</t>
+  </si>
+  <si>
+    <t>落花.花祭夜.今天机密90w分哦</t>
+  </si>
+  <si>
+    <t>2019-09-17 14:10:54</t>
   </si>
 </sst>
 </file>
@@ -667,13 +862,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -697,32 +892,23 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -733,9 +919,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -750,10 +943,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -765,23 +958,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -803,15 +982,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -825,11 +1012,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -842,25 +1044,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -878,19 +1116,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -902,13 +1158,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -920,67 +1182,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -998,31 +1224,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1051,6 +1253,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1071,6 +1293,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1113,198 +1350,159 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1655,7 +1853,7 @@
   <dimension ref="A1:AT70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1668,11 +1866,12 @@
     <col min="7" max="7" width="8.375" customWidth="1"/>
     <col min="8" max="8" width="21.5" customWidth="1"/>
     <col min="9" max="9" width="7.625" customWidth="1"/>
-    <col min="10" max="10" width="31.625" customWidth="1"/>
-    <col min="11" max="13" width="7.625" customWidth="1"/>
-    <col min="14" max="14" width="11.875" customWidth="1"/>
+    <col min="10" max="10" width="40.125" customWidth="1"/>
+    <col min="11" max="12" width="7.625" customWidth="1"/>
+    <col min="13" max="13" width="8.375" customWidth="1"/>
+    <col min="14" max="14" width="21.5" customWidth="1"/>
     <col min="15" max="15" width="7.625" customWidth="1"/>
-    <col min="16" max="16" width="11.875" customWidth="1"/>
+    <col min="16" max="16" width="27.5" customWidth="1"/>
     <col min="17" max="19" width="7.625" customWidth="1"/>
     <col min="20" max="20" width="11.875" customWidth="1"/>
     <col min="21" max="21" width="7.625" customWidth="1"/>
@@ -1699,150 +1898,150 @@
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="U1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="W1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="X1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Y1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="Z1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AA1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AB1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AC1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AD1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AE1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AF1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AG1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AH1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AI1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AK1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AL1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AM1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AN1" s="2" t="s">
+      <c r="AN1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AO1" s="2" t="s">
+      <c r="AO1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AP1" s="2" t="s">
+      <c r="AP1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AQ1" s="2" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AR1" s="2" t="s">
+      <c r="AR1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AS1" s="2" t="s">
+      <c r="AS1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AT1" s="2" t="s">
+      <c r="AT1" s="1" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:46">
-      <c r="A2" s="2">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" t="s">
         <v>45</v>
       </c>
       <c r="C2" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="2">
         <v>43724.2083333333</v>
       </c>
       <c r="E2" t="s">
@@ -1973,17 +2172,17 @@
       </c>
     </row>
     <row r="3" spans="1:46">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" t="s">
         <v>48</v>
       </c>
       <c r="C3" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="4">
-        <v>43723.5455555556</v>
+      <c r="D3" s="2">
+        <v>43724.8246180556</v>
       </c>
       <c r="E3" t="s">
         <v>47</v>
@@ -2113,10 +2312,10 @@
       </c>
     </row>
     <row r="4" spans="1:46">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" t="s">
         <v>50</v>
       </c>
       <c r="C4" t="s">
@@ -2143,17 +2342,17 @@
       <c r="J4" t="s">
         <v>47</v>
       </c>
-      <c r="K4" t="s">
-        <v>47</v>
-      </c>
-      <c r="L4" t="s">
-        <v>47</v>
-      </c>
-      <c r="M4" t="s">
-        <v>47</v>
+      <c r="K4">
+        <v>7</v>
+      </c>
+      <c r="L4">
+        <v>265000</v>
+      </c>
+      <c r="M4">
+        <v>1855000</v>
       </c>
       <c r="N4" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="O4" t="s">
         <v>47</v>
@@ -2253,14 +2452,14 @@
       </c>
     </row>
     <row r="5" spans="1:46">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>53</v>
+      <c r="B5" t="s">
+        <v>54</v>
       </c>
       <c r="C5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D5" t="s">
         <v>47</v>
@@ -2393,14 +2592,14 @@
       </c>
     </row>
     <row r="6" spans="1:46">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>55</v>
+      <c r="B6" t="s">
+        <v>56</v>
       </c>
       <c r="C6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D6" t="s">
         <v>47</v>
@@ -2415,13 +2614,13 @@
         <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="I6" t="s">
         <v>47</v>
       </c>
       <c r="J6" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="K6" t="s">
         <v>47</v>
@@ -2533,14 +2732,14 @@
       </c>
     </row>
     <row r="7" spans="1:46">
-      <c r="A7" s="2">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>57</v>
+      <c r="B7" t="s">
+        <v>60</v>
       </c>
       <c r="C7" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D7" t="s">
         <v>47</v>
@@ -2555,13 +2754,13 @@
         <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="I7" t="s">
         <v>47</v>
       </c>
       <c r="J7" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="K7" t="s">
         <v>47</v>
@@ -2573,13 +2772,13 @@
         <v>47</v>
       </c>
       <c r="N7" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="O7" t="s">
         <v>47</v>
       </c>
       <c r="P7" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="Q7" t="s">
         <v>47</v>
@@ -2673,14 +2872,14 @@
       </c>
     </row>
     <row r="8" spans="1:46">
-      <c r="A8" s="2">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>59</v>
+      <c r="B8" t="s">
+        <v>66</v>
       </c>
       <c r="C8" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="D8" t="s">
         <v>47</v>
@@ -2813,29 +3012,29 @@
       </c>
     </row>
     <row r="9" spans="1:46">
-      <c r="A9" s="2">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>61</v>
+      <c r="B9" t="s">
+        <v>68</v>
       </c>
       <c r="C9" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="D9" t="s">
         <v>47</v>
       </c>
-      <c r="E9" t="s">
-        <v>47</v>
-      </c>
-      <c r="F9" t="s">
-        <v>47</v>
-      </c>
-      <c r="G9" t="s">
-        <v>47</v>
+      <c r="E9">
+        <v>5</v>
+      </c>
+      <c r="F9">
+        <v>183000</v>
+      </c>
+      <c r="G9">
+        <v>915000</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="I9" t="s">
         <v>47</v>
@@ -2843,17 +3042,17 @@
       <c r="J9" t="s">
         <v>47</v>
       </c>
-      <c r="K9" t="s">
-        <v>47</v>
-      </c>
-      <c r="L9" t="s">
-        <v>47</v>
-      </c>
-      <c r="M9" t="s">
-        <v>47</v>
+      <c r="K9">
+        <v>5</v>
+      </c>
+      <c r="L9">
+        <v>184000</v>
+      </c>
+      <c r="M9">
+        <v>920000</v>
       </c>
       <c r="N9" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="O9" t="s">
         <v>47</v>
@@ -2953,14 +3152,14 @@
       </c>
     </row>
     <row r="10" spans="1:46">
-      <c r="A10" s="2">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>63</v>
+      <c r="B10" t="s">
+        <v>72</v>
       </c>
       <c r="C10" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="D10" t="s">
         <v>47</v>
@@ -2975,7 +3174,7 @@
         <v>800000</v>
       </c>
       <c r="H10" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="I10" t="s">
         <v>47</v>
@@ -2983,17 +3182,17 @@
       <c r="J10" t="s">
         <v>47</v>
       </c>
-      <c r="K10" t="s">
-        <v>47</v>
-      </c>
-      <c r="L10" t="s">
-        <v>47</v>
-      </c>
-      <c r="M10" t="s">
-        <v>47</v>
+      <c r="K10">
+        <v>5</v>
+      </c>
+      <c r="L10">
+        <v>160000</v>
+      </c>
+      <c r="M10">
+        <v>800000</v>
       </c>
       <c r="N10" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="O10" t="s">
         <v>47</v>
@@ -3093,29 +3292,29 @@
       </c>
     </row>
     <row r="11" spans="1:46">
-      <c r="A11" s="2">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>66</v>
+      <c r="B11" t="s">
+        <v>76</v>
       </c>
       <c r="C11" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="D11" t="s">
         <v>47</v>
       </c>
-      <c r="E11" t="s">
-        <v>47</v>
-      </c>
-      <c r="F11" t="s">
-        <v>47</v>
-      </c>
-      <c r="G11" t="s">
-        <v>47</v>
+      <c r="E11">
+        <v>5</v>
+      </c>
+      <c r="F11">
+        <v>220000</v>
+      </c>
+      <c r="G11">
+        <v>1100000</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="I11" t="s">
         <v>47</v>
@@ -3123,17 +3322,17 @@
       <c r="J11" t="s">
         <v>47</v>
       </c>
-      <c r="K11" t="s">
-        <v>47</v>
-      </c>
-      <c r="L11" t="s">
-        <v>47</v>
-      </c>
-      <c r="M11" t="s">
-        <v>47</v>
+      <c r="K11">
+        <v>5</v>
+      </c>
+      <c r="L11">
+        <v>240000</v>
+      </c>
+      <c r="M11">
+        <v>1200000</v>
       </c>
       <c r="N11" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="O11" t="s">
         <v>47</v>
@@ -3233,14 +3432,14 @@
       </c>
     </row>
     <row r="12" spans="1:46">
-      <c r="A12" s="2">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>68</v>
+      <c r="B12" t="s">
+        <v>80</v>
       </c>
       <c r="C12" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="D12" t="s">
         <v>47</v>
@@ -3255,7 +3454,7 @@
         <v>1131860</v>
       </c>
       <c r="H12" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="I12" t="s">
         <v>47</v>
@@ -3263,17 +3462,17 @@
       <c r="J12" t="s">
         <v>47</v>
       </c>
-      <c r="K12" t="s">
-        <v>47</v>
-      </c>
-      <c r="L12" t="s">
-        <v>47</v>
-      </c>
-      <c r="M12" t="s">
-        <v>47</v>
+      <c r="K12">
+        <v>5</v>
+      </c>
+      <c r="L12">
+        <v>214443</v>
+      </c>
+      <c r="M12">
+        <v>1072215</v>
       </c>
       <c r="N12" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="O12" t="s">
         <v>47</v>
@@ -3373,14 +3572,14 @@
       </c>
     </row>
     <row r="13" spans="1:46">
-      <c r="A13" s="2">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>71</v>
+      <c r="B13" t="s">
+        <v>84</v>
       </c>
       <c r="C13" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="D13" t="s">
         <v>47</v>
@@ -3513,14 +3712,14 @@
       </c>
     </row>
     <row r="14" spans="1:46">
-      <c r="A14" s="2">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>73</v>
+      <c r="B14" t="s">
+        <v>86</v>
       </c>
       <c r="C14" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="D14" t="s">
         <v>47</v>
@@ -3543,17 +3742,17 @@
       <c r="J14" t="s">
         <v>47</v>
       </c>
-      <c r="K14" t="s">
-        <v>47</v>
-      </c>
-      <c r="L14" t="s">
-        <v>47</v>
-      </c>
-      <c r="M14" t="s">
-        <v>47</v>
+      <c r="K14">
+        <v>5</v>
+      </c>
+      <c r="L14">
+        <v>200000</v>
+      </c>
+      <c r="M14">
+        <v>1000000</v>
       </c>
       <c r="N14" t="s">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="O14" t="s">
         <v>47</v>
@@ -3653,14 +3852,14 @@
       </c>
     </row>
     <row r="15" spans="1:46">
-      <c r="A15" s="2">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>75</v>
+      <c r="B15" t="s">
+        <v>89</v>
       </c>
       <c r="C15" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="D15" t="s">
         <v>47</v>
@@ -3683,17 +3882,17 @@
       <c r="J15" t="s">
         <v>47</v>
       </c>
-      <c r="K15" t="s">
-        <v>47</v>
-      </c>
-      <c r="L15" t="s">
-        <v>47</v>
-      </c>
-      <c r="M15" t="s">
-        <v>47</v>
+      <c r="K15">
+        <v>5</v>
+      </c>
+      <c r="L15">
+        <v>180000</v>
+      </c>
+      <c r="M15">
+        <v>900000</v>
       </c>
       <c r="N15" t="s">
-        <v>47</v>
+        <v>91</v>
       </c>
       <c r="O15" t="s">
         <v>47</v>
@@ -3793,14 +3992,14 @@
       </c>
     </row>
     <row r="16" spans="1:46">
-      <c r="A16" s="2">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>77</v>
+      <c r="B16" t="s">
+        <v>92</v>
       </c>
       <c r="C16" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="D16" t="s">
         <v>47</v>
@@ -3815,7 +4014,7 @@
         <v>2740000</v>
       </c>
       <c r="H16" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="I16" t="s">
         <v>47</v>
@@ -3823,17 +4022,17 @@
       <c r="J16" t="s">
         <v>47</v>
       </c>
-      <c r="K16" t="s">
-        <v>47</v>
-      </c>
-      <c r="L16" t="s">
-        <v>47</v>
-      </c>
-      <c r="M16" t="s">
-        <v>47</v>
+      <c r="K16">
+        <v>6</v>
+      </c>
+      <c r="L16">
+        <v>240000</v>
+      </c>
+      <c r="M16">
+        <v>1440000</v>
       </c>
       <c r="N16" t="s">
-        <v>47</v>
+        <v>95</v>
       </c>
       <c r="O16" t="s">
         <v>47</v>
@@ -3933,14 +4132,14 @@
       </c>
     </row>
     <row r="17" spans="1:46">
-      <c r="A17" s="2">
+      <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>80</v>
+      <c r="B17" t="s">
+        <v>96</v>
       </c>
       <c r="C17" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="D17" t="s">
         <v>47</v>
@@ -3955,25 +4154,25 @@
         <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="I17" t="s">
         <v>47</v>
       </c>
       <c r="J17" t="s">
-        <v>83</v>
-      </c>
-      <c r="K17" t="s">
-        <v>47</v>
-      </c>
-      <c r="L17" t="s">
-        <v>47</v>
-      </c>
-      <c r="M17" t="s">
-        <v>47</v>
+        <v>99</v>
+      </c>
+      <c r="K17">
+        <v>7</v>
+      </c>
+      <c r="L17">
+        <v>191000</v>
+      </c>
+      <c r="M17">
+        <v>1337000</v>
       </c>
       <c r="N17" t="s">
-        <v>47</v>
+        <v>100</v>
       </c>
       <c r="O17" t="s">
         <v>47</v>
@@ -4073,14 +4272,14 @@
       </c>
     </row>
     <row r="18" spans="1:46">
-      <c r="A18" s="2">
+      <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>84</v>
+      <c r="B18" t="s">
+        <v>101</v>
       </c>
       <c r="C18" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="D18" t="s">
         <v>47</v>
@@ -4095,7 +4294,7 @@
         <v>1105000</v>
       </c>
       <c r="H18" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="I18" t="s">
         <v>47</v>
@@ -4103,17 +4302,17 @@
       <c r="J18" t="s">
         <v>47</v>
       </c>
-      <c r="K18" t="s">
-        <v>47</v>
-      </c>
-      <c r="L18" t="s">
-        <v>47</v>
-      </c>
-      <c r="M18" t="s">
-        <v>47</v>
+      <c r="K18">
+        <v>5</v>
+      </c>
+      <c r="L18">
+        <v>240000</v>
+      </c>
+      <c r="M18">
+        <v>1200000</v>
       </c>
       <c r="N18" t="s">
-        <v>47</v>
+        <v>104</v>
       </c>
       <c r="O18" t="s">
         <v>47</v>
@@ -4213,14 +4412,14 @@
       </c>
     </row>
     <row r="19" spans="1:46">
-      <c r="A19" s="2">
+      <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>87</v>
+      <c r="B19" t="s">
+        <v>105</v>
       </c>
       <c r="C19" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="D19" t="s">
         <v>47</v>
@@ -4235,7 +4434,7 @@
         <v>1040000</v>
       </c>
       <c r="H19" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="I19" t="s">
         <v>47</v>
@@ -4243,17 +4442,17 @@
       <c r="J19" t="s">
         <v>47</v>
       </c>
-      <c r="K19" t="s">
-        <v>47</v>
-      </c>
-      <c r="L19" t="s">
-        <v>47</v>
-      </c>
-      <c r="M19" t="s">
-        <v>47</v>
+      <c r="K19">
+        <v>5</v>
+      </c>
+      <c r="L19">
+        <v>188000</v>
+      </c>
+      <c r="M19">
+        <v>940000</v>
       </c>
       <c r="N19" t="s">
-        <v>47</v>
+        <v>100</v>
       </c>
       <c r="O19" t="s">
         <v>47</v>
@@ -4353,14 +4552,14 @@
       </c>
     </row>
     <row r="20" spans="1:46">
-      <c r="A20" s="2">
+      <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>90</v>
+      <c r="B20" t="s">
+        <v>108</v>
       </c>
       <c r="C20" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="D20" t="s">
         <v>47</v>
@@ -4375,7 +4574,7 @@
         <v>888000</v>
       </c>
       <c r="H20" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="I20" t="s">
         <v>47</v>
@@ -4383,17 +4582,17 @@
       <c r="J20" t="s">
         <v>47</v>
       </c>
-      <c r="K20" t="s">
-        <v>47</v>
-      </c>
-      <c r="L20" t="s">
-        <v>47</v>
-      </c>
-      <c r="M20" t="s">
-        <v>47</v>
+      <c r="K20">
+        <v>8</v>
+      </c>
+      <c r="L20">
+        <v>110000</v>
+      </c>
+      <c r="M20">
+        <v>880000</v>
       </c>
       <c r="N20" t="s">
-        <v>47</v>
+        <v>111</v>
       </c>
       <c r="O20" t="s">
         <v>47</v>
@@ -4493,14 +4692,14 @@
       </c>
     </row>
     <row r="21" spans="1:46">
-      <c r="A21" s="2">
+      <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>93</v>
+      <c r="B21" t="s">
+        <v>112</v>
       </c>
       <c r="C21" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="D21" t="s">
         <v>47</v>
@@ -4515,7 +4714,7 @@
         <v>940000</v>
       </c>
       <c r="H21" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="I21" t="s">
         <v>47</v>
@@ -4523,17 +4722,17 @@
       <c r="J21" t="s">
         <v>47</v>
       </c>
-      <c r="K21" t="s">
-        <v>47</v>
-      </c>
-      <c r="L21" t="s">
-        <v>47</v>
-      </c>
-      <c r="M21" t="s">
-        <v>47</v>
+      <c r="K21">
+        <v>7</v>
+      </c>
+      <c r="L21">
+        <v>171000</v>
+      </c>
+      <c r="M21">
+        <v>1197000</v>
       </c>
       <c r="N21" t="s">
-        <v>47</v>
+        <v>115</v>
       </c>
       <c r="O21" t="s">
         <v>47</v>
@@ -4633,29 +4832,29 @@
       </c>
     </row>
     <row r="22" spans="1:46">
-      <c r="A22" s="2">
+      <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>96</v>
+      <c r="B22" t="s">
+        <v>116</v>
       </c>
       <c r="C22" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="D22" t="s">
         <v>47</v>
       </c>
-      <c r="E22" t="s">
-        <v>47</v>
-      </c>
-      <c r="F22" t="s">
-        <v>47</v>
-      </c>
-      <c r="G22" t="s">
-        <v>47</v>
+      <c r="E22">
+        <v>5</v>
+      </c>
+      <c r="F22">
+        <v>191000</v>
+      </c>
+      <c r="G22">
+        <v>955000</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>118</v>
       </c>
       <c r="I22" t="s">
         <v>47</v>
@@ -4663,17 +4862,17 @@
       <c r="J22" t="s">
         <v>47</v>
       </c>
-      <c r="K22" t="s">
-        <v>47</v>
-      </c>
-      <c r="L22" t="s">
-        <v>47</v>
-      </c>
-      <c r="M22" t="s">
-        <v>47</v>
+      <c r="K22">
+        <v>5</v>
+      </c>
+      <c r="L22">
+        <v>198000</v>
+      </c>
+      <c r="M22">
+        <v>990000</v>
       </c>
       <c r="N22" t="s">
-        <v>47</v>
+        <v>119</v>
       </c>
       <c r="O22" t="s">
         <v>47</v>
@@ -4773,29 +4972,29 @@
       </c>
     </row>
     <row r="23" spans="1:46">
-      <c r="A23" s="2">
+      <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>98</v>
+      <c r="B23" t="s">
+        <v>120</v>
       </c>
       <c r="C23" t="s">
-        <v>99</v>
+        <v>121</v>
       </c>
       <c r="D23" t="s">
         <v>47</v>
       </c>
-      <c r="E23" t="s">
-        <v>47</v>
-      </c>
-      <c r="F23" t="s">
-        <v>47</v>
-      </c>
-      <c r="G23" t="s">
-        <v>47</v>
+      <c r="E23">
+        <v>6</v>
+      </c>
+      <c r="F23">
+        <v>147000</v>
+      </c>
+      <c r="G23">
+        <v>882000</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>122</v>
       </c>
       <c r="I23" t="s">
         <v>47</v>
@@ -4913,14 +5112,14 @@
       </c>
     </row>
     <row r="24" spans="1:46">
-      <c r="A24" s="2">
+      <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>100</v>
+      <c r="B24" t="s">
+        <v>123</v>
       </c>
       <c r="C24" t="s">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="D24" t="s">
         <v>47</v>
@@ -4935,7 +5134,7 @@
         <v>940000</v>
       </c>
       <c r="H24" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="I24" t="s">
         <v>47</v>
@@ -5053,14 +5252,14 @@
       </c>
     </row>
     <row r="25" spans="1:46">
-      <c r="A25" s="2">
+      <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>103</v>
+      <c r="B25" t="s">
+        <v>126</v>
       </c>
       <c r="C25" t="s">
-        <v>104</v>
+        <v>127</v>
       </c>
       <c r="D25" t="s">
         <v>47</v>
@@ -5075,7 +5274,7 @@
         <v>980000</v>
       </c>
       <c r="H25" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="I25" t="s">
         <v>47</v>
@@ -5083,17 +5282,17 @@
       <c r="J25" t="s">
         <v>47</v>
       </c>
-      <c r="K25" t="s">
-        <v>47</v>
-      </c>
-      <c r="L25" t="s">
-        <v>47</v>
-      </c>
-      <c r="M25" t="s">
-        <v>47</v>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>170000</v>
+      </c>
+      <c r="M25">
+        <v>170000</v>
       </c>
       <c r="N25" t="s">
-        <v>47</v>
+        <v>129</v>
       </c>
       <c r="O25" t="s">
         <v>47</v>
@@ -5193,14 +5392,14 @@
       </c>
     </row>
     <row r="26" spans="1:46">
-      <c r="A26" s="2">
+      <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>106</v>
+      <c r="B26" t="s">
+        <v>130</v>
       </c>
       <c r="C26" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="D26" t="s">
         <v>47</v>
@@ -5223,17 +5422,17 @@
       <c r="J26" t="s">
         <v>47</v>
       </c>
-      <c r="K26" t="s">
-        <v>47</v>
-      </c>
-      <c r="L26" t="s">
-        <v>47</v>
-      </c>
-      <c r="M26" t="s">
-        <v>47</v>
+      <c r="K26">
+        <v>7</v>
+      </c>
+      <c r="L26">
+        <v>146000</v>
+      </c>
+      <c r="M26">
+        <v>1022000</v>
       </c>
       <c r="N26" t="s">
-        <v>47</v>
+        <v>132</v>
       </c>
       <c r="O26" t="s">
         <v>47</v>
@@ -5333,14 +5532,14 @@
       </c>
     </row>
     <row r="27" spans="1:46">
-      <c r="A27" s="2">
+      <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>108</v>
+      <c r="B27" t="s">
+        <v>133</v>
       </c>
       <c r="C27" t="s">
-        <v>109</v>
+        <v>134</v>
       </c>
       <c r="D27" t="s">
         <v>47</v>
@@ -5363,17 +5562,17 @@
       <c r="J27" t="s">
         <v>47</v>
       </c>
-      <c r="K27" t="s">
-        <v>47</v>
-      </c>
-      <c r="L27" t="s">
-        <v>47</v>
-      </c>
-      <c r="M27" t="s">
-        <v>47</v>
+      <c r="K27">
+        <v>5</v>
+      </c>
+      <c r="L27">
+        <v>170000</v>
+      </c>
+      <c r="M27">
+        <v>850000</v>
       </c>
       <c r="N27" t="s">
-        <v>47</v>
+        <v>135</v>
       </c>
       <c r="O27" t="s">
         <v>47</v>
@@ -5473,14 +5672,14 @@
       </c>
     </row>
     <row r="28" spans="1:46">
-      <c r="A28" s="2">
+      <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>110</v>
+      <c r="B28" t="s">
+        <v>136</v>
       </c>
       <c r="C28" t="s">
-        <v>111</v>
+        <v>137</v>
       </c>
       <c r="D28" t="s">
         <v>47</v>
@@ -5613,29 +5812,29 @@
       </c>
     </row>
     <row r="29" spans="1:46">
-      <c r="A29" s="2">
+      <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>112</v>
+      <c r="B29" t="s">
+        <v>138</v>
       </c>
       <c r="C29" t="s">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="D29" t="s">
         <v>47</v>
       </c>
-      <c r="E29" t="s">
-        <v>47</v>
-      </c>
-      <c r="F29" t="s">
-        <v>47</v>
-      </c>
-      <c r="G29" t="s">
-        <v>47</v>
+      <c r="E29">
+        <v>5</v>
+      </c>
+      <c r="F29">
+        <v>180000</v>
+      </c>
+      <c r="G29">
+        <v>900000</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>140</v>
       </c>
       <c r="I29" t="s">
         <v>47</v>
@@ -5643,17 +5842,17 @@
       <c r="J29" t="s">
         <v>47</v>
       </c>
-      <c r="K29" t="s">
-        <v>47</v>
-      </c>
-      <c r="L29" t="s">
-        <v>47</v>
-      </c>
-      <c r="M29" t="s">
-        <v>47</v>
+      <c r="K29">
+        <v>6</v>
+      </c>
+      <c r="L29">
+        <v>157000</v>
+      </c>
+      <c r="M29">
+        <v>942000</v>
       </c>
       <c r="N29" t="s">
-        <v>47</v>
+        <v>141</v>
       </c>
       <c r="O29" t="s">
         <v>47</v>
@@ -5753,14 +5952,14 @@
       </c>
     </row>
     <row r="30" spans="1:46">
-      <c r="A30" s="2">
+      <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>114</v>
+      <c r="B30" t="s">
+        <v>142</v>
       </c>
       <c r="C30" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
       <c r="D30" t="s">
         <v>47</v>
@@ -5775,7 +5974,7 @@
         <v>876000</v>
       </c>
       <c r="H30" t="s">
-        <v>116</v>
+        <v>144</v>
       </c>
       <c r="I30" t="s">
         <v>47</v>
@@ -5893,29 +6092,29 @@
       </c>
     </row>
     <row r="31" spans="1:46">
-      <c r="A31" s="2">
+      <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>117</v>
+      <c r="B31" t="s">
+        <v>145</v>
       </c>
       <c r="C31" t="s">
-        <v>118</v>
+        <v>146</v>
       </c>
       <c r="D31" t="s">
         <v>47</v>
       </c>
-      <c r="E31" t="s">
-        <v>47</v>
-      </c>
-      <c r="F31" t="s">
-        <v>47</v>
-      </c>
-      <c r="G31" t="s">
-        <v>47</v>
+      <c r="E31">
+        <v>10</v>
+      </c>
+      <c r="F31">
+        <v>100000</v>
+      </c>
+      <c r="G31">
+        <v>1000000</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>147</v>
       </c>
       <c r="I31" t="s">
         <v>47</v>
@@ -5923,17 +6122,17 @@
       <c r="J31" t="s">
         <v>47</v>
       </c>
-      <c r="K31" t="s">
-        <v>47</v>
-      </c>
-      <c r="L31" t="s">
-        <v>47</v>
-      </c>
-      <c r="M31" t="s">
-        <v>47</v>
+      <c r="K31">
+        <v>10</v>
+      </c>
+      <c r="L31">
+        <v>100000</v>
+      </c>
+      <c r="M31">
+        <v>1000000</v>
       </c>
       <c r="N31" t="s">
-        <v>47</v>
+        <v>148</v>
       </c>
       <c r="O31" t="s">
         <v>47</v>
@@ -6033,14 +6232,14 @@
       </c>
     </row>
     <row r="32" spans="1:46">
-      <c r="A32" s="2">
+      <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32" s="3" t="s">
-        <v>119</v>
+      <c r="B32" t="s">
+        <v>149</v>
       </c>
       <c r="C32" t="s">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="D32" t="s">
         <v>47</v>
@@ -6055,7 +6254,7 @@
         <v>885000</v>
       </c>
       <c r="H32" t="s">
-        <v>121</v>
+        <v>151</v>
       </c>
       <c r="I32" t="s">
         <v>47</v>
@@ -6063,17 +6262,17 @@
       <c r="J32" t="s">
         <v>47</v>
       </c>
-      <c r="K32" t="s">
-        <v>47</v>
-      </c>
-      <c r="L32" t="s">
-        <v>47</v>
-      </c>
-      <c r="M32" t="s">
-        <v>47</v>
+      <c r="K32">
+        <v>6</v>
+      </c>
+      <c r="L32">
+        <v>152000</v>
+      </c>
+      <c r="M32">
+        <v>912000</v>
       </c>
       <c r="N32" t="s">
-        <v>47</v>
+        <v>152</v>
       </c>
       <c r="O32" t="s">
         <v>47</v>
@@ -6173,14 +6372,14 @@
       </c>
     </row>
     <row r="33" spans="1:46">
-      <c r="A33" s="2">
+      <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33" s="3" t="s">
-        <v>122</v>
+      <c r="B33" t="s">
+        <v>153</v>
       </c>
       <c r="C33" t="s">
-        <v>123</v>
+        <v>154</v>
       </c>
       <c r="D33" t="s">
         <v>47</v>
@@ -6195,7 +6394,7 @@
         <v>1456000</v>
       </c>
       <c r="H33" t="s">
-        <v>124</v>
+        <v>155</v>
       </c>
       <c r="I33" t="s">
         <v>47</v>
@@ -6203,17 +6402,17 @@
       <c r="J33" t="s">
         <v>47</v>
       </c>
-      <c r="K33" t="s">
-        <v>47</v>
-      </c>
-      <c r="L33" t="s">
-        <v>47</v>
-      </c>
-      <c r="M33" t="s">
-        <v>47</v>
+      <c r="K33">
+        <v>7</v>
+      </c>
+      <c r="L33">
+        <v>184000</v>
+      </c>
+      <c r="M33">
+        <v>1288000</v>
       </c>
       <c r="N33" t="s">
-        <v>47</v>
+        <v>156</v>
       </c>
       <c r="O33" t="s">
         <v>47</v>
@@ -6313,14 +6512,14 @@
       </c>
     </row>
     <row r="34" spans="1:46">
-      <c r="A34" s="2">
+      <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="B34" s="3" t="s">
-        <v>125</v>
+      <c r="B34" t="s">
+        <v>157</v>
       </c>
       <c r="C34" t="s">
-        <v>126</v>
+        <v>158</v>
       </c>
       <c r="D34" t="s">
         <v>47</v>
@@ -6335,7 +6534,7 @@
         <v>1190000</v>
       </c>
       <c r="H34" t="s">
-        <v>127</v>
+        <v>159</v>
       </c>
       <c r="I34" t="s">
         <v>47</v>
@@ -6343,17 +6542,17 @@
       <c r="J34" t="s">
         <v>47</v>
       </c>
-      <c r="K34" t="s">
-        <v>47</v>
-      </c>
-      <c r="L34" t="s">
-        <v>47</v>
-      </c>
-      <c r="M34" t="s">
-        <v>47</v>
+      <c r="K34">
+        <v>5</v>
+      </c>
+      <c r="L34">
+        <v>232000</v>
+      </c>
+      <c r="M34">
+        <v>1160000</v>
       </c>
       <c r="N34" t="s">
-        <v>47</v>
+        <v>160</v>
       </c>
       <c r="O34" t="s">
         <v>47</v>
@@ -6453,29 +6652,29 @@
       </c>
     </row>
     <row r="35" spans="1:46">
-      <c r="A35" s="2">
+      <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="B35" s="3" t="s">
-        <v>128</v>
+      <c r="B35" t="s">
+        <v>161</v>
       </c>
       <c r="C35" t="s">
-        <v>129</v>
+        <v>162</v>
       </c>
       <c r="D35" t="s">
         <v>47</v>
       </c>
-      <c r="E35" t="s">
-        <v>47</v>
-      </c>
-      <c r="F35" t="s">
-        <v>47</v>
-      </c>
-      <c r="G35" t="s">
-        <v>47</v>
+      <c r="E35">
+        <v>5</v>
+      </c>
+      <c r="F35">
+        <v>226000</v>
+      </c>
+      <c r="G35">
+        <v>1130000</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>163</v>
       </c>
       <c r="I35" t="s">
         <v>47</v>
@@ -6483,17 +6682,17 @@
       <c r="J35" t="s">
         <v>47</v>
       </c>
-      <c r="K35" t="s">
-        <v>47</v>
-      </c>
-      <c r="L35" t="s">
-        <v>47</v>
-      </c>
-      <c r="M35" t="s">
-        <v>47</v>
+      <c r="K35">
+        <v>5</v>
+      </c>
+      <c r="L35">
+        <v>227000</v>
+      </c>
+      <c r="M35">
+        <v>1135000</v>
       </c>
       <c r="N35" t="s">
-        <v>47</v>
+        <v>164</v>
       </c>
       <c r="O35" t="s">
         <v>47</v>
@@ -6593,14 +6792,14 @@
       </c>
     </row>
     <row r="36" spans="1:46">
-      <c r="A36" s="2">
+      <c r="A36" s="1">
         <v>34</v>
       </c>
-      <c r="B36" s="3" t="s">
-        <v>130</v>
+      <c r="B36" t="s">
+        <v>165</v>
       </c>
       <c r="C36" t="s">
-        <v>131</v>
+        <v>166</v>
       </c>
       <c r="D36" t="s">
         <v>47</v>
@@ -6623,17 +6822,17 @@
       <c r="J36" t="s">
         <v>47</v>
       </c>
-      <c r="K36" t="s">
-        <v>47</v>
-      </c>
-      <c r="L36" t="s">
-        <v>47</v>
-      </c>
-      <c r="M36" t="s">
-        <v>47</v>
+      <c r="K36">
+        <v>6</v>
+      </c>
+      <c r="L36">
+        <v>145000</v>
+      </c>
+      <c r="M36">
+        <v>870000</v>
       </c>
       <c r="N36" t="s">
-        <v>47</v>
+        <v>167</v>
       </c>
       <c r="O36" t="s">
         <v>47</v>
@@ -6733,29 +6932,29 @@
       </c>
     </row>
     <row r="37" spans="1:46">
-      <c r="A37" s="2">
+      <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="B37" s="3" t="s">
-        <v>132</v>
+      <c r="B37" t="s">
+        <v>168</v>
       </c>
       <c r="C37" t="s">
-        <v>133</v>
+        <v>169</v>
       </c>
       <c r="D37" t="s">
         <v>47</v>
       </c>
-      <c r="E37">
-        <v>6</v>
-      </c>
-      <c r="F37">
-        <v>158000</v>
-      </c>
-      <c r="G37">
-        <v>948000</v>
+      <c r="E37" t="s">
+        <v>47</v>
+      </c>
+      <c r="F37" t="s">
+        <v>47</v>
+      </c>
+      <c r="G37" t="s">
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>134</v>
+        <v>47</v>
       </c>
       <c r="I37" t="s">
         <v>47</v>
@@ -6873,14 +7072,14 @@
       </c>
     </row>
     <row r="38" spans="1:46">
-      <c r="A38" s="2">
+      <c r="A38" s="1">
         <v>36</v>
       </c>
-      <c r="B38" s="3" t="s">
-        <v>135</v>
+      <c r="B38" t="s">
+        <v>170</v>
       </c>
       <c r="C38" t="s">
-        <v>136</v>
+        <v>171</v>
       </c>
       <c r="D38" t="s">
         <v>47</v>
@@ -6903,17 +7102,17 @@
       <c r="J38" t="s">
         <v>47</v>
       </c>
-      <c r="K38" t="s">
-        <v>47</v>
-      </c>
-      <c r="L38" t="s">
-        <v>47</v>
-      </c>
-      <c r="M38" t="s">
-        <v>47</v>
+      <c r="K38">
+        <v>7</v>
+      </c>
+      <c r="L38">
+        <v>133000</v>
+      </c>
+      <c r="M38">
+        <v>931000</v>
       </c>
       <c r="N38" t="s">
-        <v>47</v>
+        <v>172</v>
       </c>
       <c r="O38" t="s">
         <v>47</v>
@@ -7013,29 +7212,29 @@
       </c>
     </row>
     <row r="39" spans="1:46">
-      <c r="A39" s="2">
+      <c r="A39" s="1">
         <v>37</v>
       </c>
-      <c r="B39" s="3" t="s">
-        <v>137</v>
+      <c r="B39" t="s">
+        <v>173</v>
       </c>
       <c r="C39" t="s">
-        <v>138</v>
+        <v>174</v>
       </c>
       <c r="D39" t="s">
         <v>47</v>
       </c>
-      <c r="E39" t="s">
-        <v>47</v>
-      </c>
-      <c r="F39" t="s">
-        <v>47</v>
-      </c>
-      <c r="G39" t="s">
-        <v>47</v>
+      <c r="E39">
+        <v>6</v>
+      </c>
+      <c r="F39">
+        <v>143000</v>
+      </c>
+      <c r="G39">
+        <v>858000</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>175</v>
       </c>
       <c r="I39" t="s">
         <v>47</v>
@@ -7153,14 +7352,14 @@
       </c>
     </row>
     <row r="40" spans="1:46">
-      <c r="A40" s="2">
+      <c r="A40" s="1">
         <v>38</v>
       </c>
-      <c r="B40" s="3" t="s">
-        <v>139</v>
+      <c r="B40" t="s">
+        <v>176</v>
       </c>
       <c r="C40" t="s">
-        <v>140</v>
+        <v>177</v>
       </c>
       <c r="D40" t="s">
         <v>47</v>
@@ -7183,17 +7382,17 @@
       <c r="J40" t="s">
         <v>47</v>
       </c>
-      <c r="K40" t="s">
-        <v>47</v>
-      </c>
-      <c r="L40" t="s">
-        <v>47</v>
-      </c>
-      <c r="M40" t="s">
-        <v>47</v>
+      <c r="K40">
+        <v>7</v>
+      </c>
+      <c r="L40">
+        <v>139000</v>
+      </c>
+      <c r="M40">
+        <v>973000</v>
       </c>
       <c r="N40" t="s">
-        <v>47</v>
+        <v>178</v>
       </c>
       <c r="O40" t="s">
         <v>47</v>
@@ -7293,29 +7492,29 @@
       </c>
     </row>
     <row r="41" spans="1:46">
-      <c r="A41" s="2">
+      <c r="A41" s="1">
         <v>39</v>
       </c>
-      <c r="B41" s="3" t="s">
-        <v>141</v>
+      <c r="B41" t="s">
+        <v>179</v>
       </c>
       <c r="C41" t="s">
-        <v>142</v>
+        <v>180</v>
       </c>
       <c r="D41" t="s">
         <v>47</v>
       </c>
-      <c r="E41" t="s">
-        <v>47</v>
-      </c>
-      <c r="F41" t="s">
-        <v>47</v>
-      </c>
-      <c r="G41" t="s">
-        <v>47</v>
+      <c r="E41">
+        <v>7</v>
+      </c>
+      <c r="F41">
+        <v>185000</v>
+      </c>
+      <c r="G41">
+        <v>1295000</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>181</v>
       </c>
       <c r="I41" t="s">
         <v>47</v>
@@ -7323,17 +7522,17 @@
       <c r="J41" t="s">
         <v>47</v>
       </c>
-      <c r="K41" t="s">
-        <v>47</v>
-      </c>
-      <c r="L41" t="s">
-        <v>47</v>
-      </c>
-      <c r="M41" t="s">
-        <v>47</v>
+      <c r="K41">
+        <v>5</v>
+      </c>
+      <c r="L41">
+        <v>220000</v>
+      </c>
+      <c r="M41">
+        <v>1100000</v>
       </c>
       <c r="N41" t="s">
-        <v>47</v>
+        <v>182</v>
       </c>
       <c r="O41" t="s">
         <v>47</v>
@@ -7433,47 +7632,47 @@
       </c>
     </row>
     <row r="42" spans="1:46">
-      <c r="A42" s="2">
+      <c r="A42" s="1">
         <v>40</v>
       </c>
-      <c r="B42" s="3" t="s">
-        <v>143</v>
+      <c r="B42" t="s">
+        <v>183</v>
       </c>
       <c r="C42" t="s">
-        <v>144</v>
+        <v>184</v>
       </c>
       <c r="D42" t="s">
         <v>47</v>
       </c>
-      <c r="E42">
-        <v>7</v>
-      </c>
-      <c r="F42">
+      <c r="E42" t="s">
+        <v>47</v>
+      </c>
+      <c r="F42" t="s">
+        <v>47</v>
+      </c>
+      <c r="G42" t="s">
+        <v>47</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>47</v>
+      </c>
+      <c r="J42" t="s">
+        <v>47</v>
+      </c>
+      <c r="K42">
+        <v>5</v>
+      </c>
+      <c r="L42">
         <v>185000</v>
       </c>
-      <c r="G42">
-        <v>1295000</v>
-      </c>
-      <c r="H42" t="s">
-        <v>145</v>
-      </c>
-      <c r="I42" t="s">
-        <v>47</v>
-      </c>
-      <c r="J42" t="s">
-        <v>47</v>
-      </c>
-      <c r="K42" t="s">
-        <v>47</v>
-      </c>
-      <c r="L42" t="s">
-        <v>47</v>
-      </c>
-      <c r="M42" t="s">
-        <v>47</v>
+      <c r="M42">
+        <v>925000</v>
       </c>
       <c r="N42" t="s">
-        <v>47</v>
+        <v>185</v>
       </c>
       <c r="O42" t="s">
         <v>47</v>
@@ -7573,29 +7772,29 @@
       </c>
     </row>
     <row r="43" spans="1:46">
-      <c r="A43" s="2">
+      <c r="A43" s="1">
         <v>41</v>
       </c>
-      <c r="B43" s="3" t="s">
-        <v>146</v>
+      <c r="B43" t="s">
+        <v>186</v>
       </c>
       <c r="C43" t="s">
-        <v>147</v>
+        <v>187</v>
       </c>
       <c r="D43" t="s">
         <v>47</v>
       </c>
-      <c r="E43" t="s">
-        <v>47</v>
-      </c>
-      <c r="F43" t="s">
-        <v>47</v>
-      </c>
-      <c r="G43" t="s">
-        <v>47</v>
+      <c r="E43">
+        <v>9</v>
+      </c>
+      <c r="F43">
+        <v>97000</v>
+      </c>
+      <c r="G43">
+        <v>873000</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>188</v>
       </c>
       <c r="I43" t="s">
         <v>47</v>
@@ -7603,17 +7802,17 @@
       <c r="J43" t="s">
         <v>47</v>
       </c>
-      <c r="K43" t="s">
-        <v>47</v>
-      </c>
-      <c r="L43" t="s">
-        <v>47</v>
-      </c>
-      <c r="M43" t="s">
-        <v>47</v>
+      <c r="K43">
+        <v>8</v>
+      </c>
+      <c r="L43">
+        <v>125000</v>
+      </c>
+      <c r="M43">
+        <v>1000000</v>
       </c>
       <c r="N43" t="s">
-        <v>47</v>
+        <v>189</v>
       </c>
       <c r="O43" t="s">
         <v>47</v>
@@ -7713,29 +7912,29 @@
       </c>
     </row>
     <row r="44" spans="1:46">
-      <c r="A44" s="2">
+      <c r="A44" s="1">
         <v>42</v>
       </c>
-      <c r="B44" s="3" t="s">
-        <v>148</v>
+      <c r="B44" t="s">
+        <v>190</v>
       </c>
       <c r="C44" t="s">
-        <v>149</v>
+        <v>191</v>
       </c>
       <c r="D44" t="s">
         <v>47</v>
       </c>
-      <c r="E44" t="s">
-        <v>47</v>
-      </c>
-      <c r="F44" t="s">
-        <v>47</v>
-      </c>
-      <c r="G44" t="s">
-        <v>47</v>
+      <c r="E44">
+        <v>6</v>
+      </c>
+      <c r="F44">
+        <v>168000</v>
+      </c>
+      <c r="G44">
+        <v>1008000</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>192</v>
       </c>
       <c r="I44" t="s">
         <v>47</v>
@@ -7743,17 +7942,17 @@
       <c r="J44" t="s">
         <v>47</v>
       </c>
-      <c r="K44" t="s">
-        <v>47</v>
-      </c>
-      <c r="L44" t="s">
-        <v>47</v>
-      </c>
-      <c r="M44" t="s">
-        <v>47</v>
+      <c r="K44">
+        <v>5</v>
+      </c>
+      <c r="L44">
+        <v>200000</v>
+      </c>
+      <c r="M44">
+        <v>1000000</v>
       </c>
       <c r="N44" t="s">
-        <v>47</v>
+        <v>193</v>
       </c>
       <c r="O44" t="s">
         <v>47</v>
@@ -7853,47 +8052,47 @@
       </c>
     </row>
     <row r="45" spans="1:46">
-      <c r="A45" s="2">
+      <c r="A45" s="1">
         <v>43</v>
       </c>
-      <c r="B45" s="3" t="s">
-        <v>150</v>
+      <c r="B45" t="s">
+        <v>194</v>
       </c>
       <c r="C45" t="s">
-        <v>151</v>
+        <v>195</v>
       </c>
       <c r="D45" t="s">
         <v>47</v>
       </c>
       <c r="E45">
+        <v>7</v>
+      </c>
+      <c r="F45">
+        <v>133000</v>
+      </c>
+      <c r="G45">
+        <v>931000</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>47</v>
+      </c>
+      <c r="J45" t="s">
+        <v>47</v>
+      </c>
+      <c r="K45">
         <v>6</v>
       </c>
-      <c r="F45">
-        <v>168000</v>
-      </c>
-      <c r="G45">
-        <v>1008000</v>
-      </c>
-      <c r="H45" t="s">
-        <v>152</v>
-      </c>
-      <c r="I45" t="s">
-        <v>47</v>
-      </c>
-      <c r="J45" t="s">
-        <v>47</v>
-      </c>
-      <c r="K45" t="s">
-        <v>47</v>
-      </c>
-      <c r="L45" t="s">
-        <v>47</v>
-      </c>
-      <c r="M45" t="s">
-        <v>47</v>
+      <c r="L45">
+        <v>170000</v>
+      </c>
+      <c r="M45">
+        <v>1020000</v>
       </c>
       <c r="N45" t="s">
-        <v>47</v>
+        <v>196</v>
       </c>
       <c r="O45" t="s">
         <v>47</v>
@@ -7993,29 +8192,29 @@
       </c>
     </row>
     <row r="46" spans="1:46">
-      <c r="A46" s="2">
+      <c r="A46" s="1">
         <v>44</v>
       </c>
-      <c r="B46" s="3" t="s">
-        <v>153</v>
+      <c r="B46" t="s">
+        <v>197</v>
       </c>
       <c r="C46" t="s">
-        <v>154</v>
+        <v>198</v>
       </c>
       <c r="D46" t="s">
         <v>47</v>
       </c>
-      <c r="E46" t="s">
-        <v>47</v>
-      </c>
-      <c r="F46" t="s">
-        <v>47</v>
-      </c>
-      <c r="G46" t="s">
-        <v>47</v>
+      <c r="E46">
+        <v>5</v>
+      </c>
+      <c r="F46">
+        <v>182000</v>
+      </c>
+      <c r="G46">
+        <v>910000</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>199</v>
       </c>
       <c r="I46" t="s">
         <v>47</v>
@@ -8023,17 +8222,17 @@
       <c r="J46" t="s">
         <v>47</v>
       </c>
-      <c r="K46" t="s">
-        <v>47</v>
-      </c>
-      <c r="L46" t="s">
-        <v>47</v>
-      </c>
-      <c r="M46" t="s">
-        <v>47</v>
+      <c r="K46">
+        <v>6</v>
+      </c>
+      <c r="L46">
+        <v>174000</v>
+      </c>
+      <c r="M46">
+        <v>1044000</v>
       </c>
       <c r="N46" t="s">
-        <v>47</v>
+        <v>200</v>
       </c>
       <c r="O46" t="s">
         <v>47</v>
@@ -8133,29 +8332,29 @@
       </c>
     </row>
     <row r="47" spans="1:46">
-      <c r="A47" s="2">
+      <c r="A47" s="1">
         <v>45</v>
       </c>
-      <c r="B47" s="3" t="s">
-        <v>155</v>
+      <c r="B47" t="s">
+        <v>201</v>
       </c>
       <c r="C47" t="s">
-        <v>156</v>
+        <v>202</v>
       </c>
       <c r="D47" t="s">
         <v>47</v>
       </c>
       <c r="E47">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F47">
-        <v>182000</v>
+        <v>127000</v>
       </c>
       <c r="G47">
-        <v>910000</v>
+        <v>889000</v>
       </c>
       <c r="H47" t="s">
-        <v>157</v>
+        <v>203</v>
       </c>
       <c r="I47" t="s">
         <v>47</v>
@@ -8163,17 +8362,17 @@
       <c r="J47" t="s">
         <v>47</v>
       </c>
-      <c r="K47" t="s">
-        <v>47</v>
-      </c>
-      <c r="L47" t="s">
-        <v>47</v>
-      </c>
-      <c r="M47" t="s">
-        <v>47</v>
+      <c r="K47">
+        <v>7</v>
+      </c>
+      <c r="L47">
+        <v>128000</v>
+      </c>
+      <c r="M47">
+        <v>896000</v>
       </c>
       <c r="N47" t="s">
-        <v>47</v>
+        <v>204</v>
       </c>
       <c r="O47" t="s">
         <v>47</v>
@@ -8273,47 +8472,47 @@
       </c>
     </row>
     <row r="48" spans="1:46">
-      <c r="A48" s="2">
+      <c r="A48" s="1">
         <v>46</v>
       </c>
-      <c r="B48" s="3" t="s">
-        <v>158</v>
+      <c r="B48" t="s">
+        <v>205</v>
       </c>
       <c r="C48" t="s">
-        <v>159</v>
+        <v>206</v>
       </c>
       <c r="D48" t="s">
         <v>47</v>
       </c>
       <c r="E48">
+        <v>6</v>
+      </c>
+      <c r="F48">
+        <v>166000</v>
+      </c>
+      <c r="G48">
+        <v>996000</v>
+      </c>
+      <c r="H48" t="s">
+        <v>207</v>
+      </c>
+      <c r="I48" t="s">
+        <v>47</v>
+      </c>
+      <c r="J48" t="s">
+        <v>47</v>
+      </c>
+      <c r="K48">
         <v>7</v>
       </c>
-      <c r="F48">
-        <v>127000</v>
-      </c>
-      <c r="G48">
-        <v>889000</v>
-      </c>
-      <c r="H48" t="s">
-        <v>160</v>
-      </c>
-      <c r="I48" t="s">
-        <v>47</v>
-      </c>
-      <c r="J48" t="s">
-        <v>47</v>
-      </c>
-      <c r="K48" t="s">
-        <v>47</v>
-      </c>
-      <c r="L48" t="s">
-        <v>47</v>
-      </c>
-      <c r="M48" t="s">
-        <v>47</v>
+      <c r="L48">
+        <v>133000</v>
+      </c>
+      <c r="M48">
+        <v>931000</v>
       </c>
       <c r="N48" t="s">
-        <v>47</v>
+        <v>208</v>
       </c>
       <c r="O48" t="s">
         <v>47</v>
@@ -8413,29 +8612,29 @@
       </c>
     </row>
     <row r="49" spans="1:46">
-      <c r="A49" s="2">
-        <v>47</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>161</v>
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>209</v>
       </c>
       <c r="C49" t="s">
-        <v>162</v>
+        <v>210</v>
       </c>
       <c r="D49" t="s">
         <v>47</v>
       </c>
       <c r="E49">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F49">
-        <v>166000</v>
+        <v>107000</v>
       </c>
       <c r="G49">
-        <v>996000</v>
+        <v>963000</v>
       </c>
       <c r="H49" t="s">
-        <v>163</v>
+        <v>211</v>
       </c>
       <c r="I49" t="s">
         <v>47</v>
@@ -8443,17 +8642,17 @@
       <c r="J49" t="s">
         <v>47</v>
       </c>
-      <c r="K49" t="s">
-        <v>47</v>
-      </c>
-      <c r="L49" t="s">
-        <v>47</v>
-      </c>
-      <c r="M49" t="s">
-        <v>47</v>
+      <c r="K49">
+        <v>9</v>
+      </c>
+      <c r="L49">
+        <v>104000</v>
+      </c>
+      <c r="M49">
+        <v>936000</v>
       </c>
       <c r="N49" t="s">
-        <v>47</v>
+        <v>212</v>
       </c>
       <c r="O49" t="s">
         <v>47</v>
@@ -8553,29 +8752,29 @@
       </c>
     </row>
     <row r="50" spans="1:46">
-      <c r="A50" s="2">
+      <c r="A50" s="1">
         <v>48</v>
       </c>
-      <c r="B50" s="3" t="s">
-        <v>164</v>
+      <c r="B50" t="s">
+        <v>213</v>
       </c>
       <c r="C50" t="s">
-        <v>165</v>
+        <v>214</v>
       </c>
       <c r="D50" t="s">
         <v>47</v>
       </c>
       <c r="E50">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F50">
-        <v>107000</v>
+        <v>200000</v>
       </c>
       <c r="G50">
-        <v>963000</v>
+        <v>1000000</v>
       </c>
       <c r="H50" t="s">
-        <v>166</v>
+        <v>215</v>
       </c>
       <c r="I50" t="s">
         <v>47</v>
@@ -8583,17 +8782,17 @@
       <c r="J50" t="s">
         <v>47</v>
       </c>
-      <c r="K50" t="s">
-        <v>47</v>
-      </c>
-      <c r="L50" t="s">
-        <v>47</v>
-      </c>
-      <c r="M50" t="s">
-        <v>47</v>
+      <c r="K50">
+        <v>5</v>
+      </c>
+      <c r="L50">
+        <v>190000</v>
+      </c>
+      <c r="M50">
+        <v>950000</v>
       </c>
       <c r="N50" t="s">
-        <v>47</v>
+        <v>216</v>
       </c>
       <c r="O50" t="s">
         <v>47</v>
@@ -8693,29 +8892,29 @@
       </c>
     </row>
     <row r="51" spans="1:46">
-      <c r="A51" s="2">
+      <c r="A51" s="1">
         <v>49</v>
       </c>
-      <c r="B51" s="3" t="s">
-        <v>167</v>
+      <c r="B51" t="s">
+        <v>217</v>
       </c>
       <c r="C51" t="s">
-        <v>168</v>
+        <v>218</v>
       </c>
       <c r="D51" t="s">
         <v>47</v>
       </c>
-      <c r="E51">
-        <v>5</v>
-      </c>
-      <c r="F51">
-        <v>200000</v>
-      </c>
-      <c r="G51">
-        <v>1000000</v>
+      <c r="E51" t="s">
+        <v>47</v>
+      </c>
+      <c r="F51" t="s">
+        <v>47</v>
+      </c>
+      <c r="G51" t="s">
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>169</v>
+        <v>47</v>
       </c>
       <c r="I51" t="s">
         <v>47</v>
@@ -8833,29 +9032,29 @@
       </c>
     </row>
     <row r="52" spans="1:46">
-      <c r="A52" s="2">
+      <c r="A52" s="1">
         <v>50</v>
       </c>
-      <c r="B52" s="3" t="s">
-        <v>170</v>
+      <c r="B52" t="s">
+        <v>219</v>
       </c>
       <c r="C52" t="s">
-        <v>171</v>
+        <v>220</v>
       </c>
       <c r="D52" t="s">
         <v>47</v>
       </c>
-      <c r="E52" t="s">
-        <v>47</v>
-      </c>
-      <c r="F52" t="s">
-        <v>47</v>
-      </c>
-      <c r="G52" t="s">
-        <v>47</v>
+      <c r="E52">
+        <v>6</v>
+      </c>
+      <c r="F52">
+        <v>180000</v>
+      </c>
+      <c r="G52">
+        <v>1080000</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>221</v>
       </c>
       <c r="I52" t="s">
         <v>47</v>
@@ -8863,17 +9062,17 @@
       <c r="J52" t="s">
         <v>47</v>
       </c>
-      <c r="K52" t="s">
-        <v>47</v>
-      </c>
-      <c r="L52" t="s">
-        <v>47</v>
-      </c>
-      <c r="M52" t="s">
-        <v>47</v>
+      <c r="K52">
+        <v>6</v>
+      </c>
+      <c r="L52">
+        <v>175000</v>
+      </c>
+      <c r="M52">
+        <v>1050000</v>
       </c>
       <c r="N52" t="s">
-        <v>47</v>
+        <v>222</v>
       </c>
       <c r="O52" t="s">
         <v>47</v>
@@ -8973,29 +9172,29 @@
       </c>
     </row>
     <row r="53" spans="1:46">
-      <c r="A53" s="2">
+      <c r="A53" s="1">
         <v>51</v>
       </c>
-      <c r="B53" s="3" t="s">
-        <v>172</v>
+      <c r="B53" t="s">
+        <v>223</v>
       </c>
       <c r="C53" t="s">
-        <v>173</v>
+        <v>224</v>
       </c>
       <c r="D53" t="s">
         <v>47</v>
       </c>
-      <c r="E53" t="s">
-        <v>47</v>
-      </c>
-      <c r="F53" t="s">
-        <v>47</v>
-      </c>
-      <c r="G53" t="s">
-        <v>47</v>
+      <c r="E53">
+        <v>5</v>
+      </c>
+      <c r="F53">
+        <v>217000</v>
+      </c>
+      <c r="G53">
+        <v>1085000</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>225</v>
       </c>
       <c r="I53" t="s">
         <v>47</v>
@@ -9003,17 +9202,17 @@
       <c r="J53" t="s">
         <v>47</v>
       </c>
-      <c r="K53" t="s">
-        <v>47</v>
-      </c>
-      <c r="L53" t="s">
-        <v>47</v>
-      </c>
-      <c r="M53" t="s">
-        <v>47</v>
+      <c r="K53">
+        <v>5</v>
+      </c>
+      <c r="L53">
+        <v>220000</v>
+      </c>
+      <c r="M53">
+        <v>1100000</v>
       </c>
       <c r="N53" t="s">
-        <v>47</v>
+        <v>226</v>
       </c>
       <c r="O53" t="s">
         <v>47</v>
@@ -9113,29 +9312,29 @@
       </c>
     </row>
     <row r="54" spans="1:46">
-      <c r="A54" s="2">
+      <c r="A54" s="1">
         <v>52</v>
       </c>
-      <c r="B54" s="3" t="s">
-        <v>174</v>
+      <c r="B54" t="s">
+        <v>227</v>
       </c>
       <c r="C54" t="s">
-        <v>175</v>
+        <v>228</v>
       </c>
       <c r="D54" t="s">
         <v>47</v>
       </c>
-      <c r="E54">
-        <v>5</v>
-      </c>
-      <c r="F54">
-        <v>217000</v>
-      </c>
-      <c r="G54">
-        <v>1085000</v>
+      <c r="E54" t="s">
+        <v>47</v>
+      </c>
+      <c r="F54" t="s">
+        <v>47</v>
+      </c>
+      <c r="G54" t="s">
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>176</v>
+        <v>47</v>
       </c>
       <c r="I54" t="s">
         <v>47</v>
@@ -9143,17 +9342,17 @@
       <c r="J54" t="s">
         <v>47</v>
       </c>
-      <c r="K54" t="s">
-        <v>47</v>
-      </c>
-      <c r="L54" t="s">
-        <v>47</v>
-      </c>
-      <c r="M54" t="s">
-        <v>47</v>
+      <c r="K54">
+        <v>6</v>
+      </c>
+      <c r="L54">
+        <v>161000</v>
+      </c>
+      <c r="M54">
+        <v>966000</v>
       </c>
       <c r="N54" t="s">
-        <v>47</v>
+        <v>229</v>
       </c>
       <c r="O54" t="s">
         <v>47</v>
@@ -9253,29 +9452,29 @@
       </c>
     </row>
     <row r="55" spans="1:46">
-      <c r="A55" s="2">
+      <c r="A55" s="1">
         <v>53</v>
       </c>
-      <c r="B55" s="3" t="s">
-        <v>177</v>
+      <c r="B55" t="s">
+        <v>230</v>
       </c>
       <c r="C55" t="s">
-        <v>178</v>
+        <v>231</v>
       </c>
       <c r="D55" t="s">
         <v>47</v>
       </c>
-      <c r="E55" t="s">
-        <v>47</v>
-      </c>
-      <c r="F55" t="s">
-        <v>47</v>
-      </c>
-      <c r="G55" t="s">
-        <v>47</v>
+      <c r="E55">
+        <v>5</v>
+      </c>
+      <c r="F55">
+        <v>176000</v>
+      </c>
+      <c r="G55">
+        <v>880000</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>232</v>
       </c>
       <c r="I55" t="s">
         <v>47</v>
@@ -9283,17 +9482,17 @@
       <c r="J55" t="s">
         <v>47</v>
       </c>
-      <c r="K55" t="s">
-        <v>47</v>
-      </c>
-      <c r="L55" t="s">
-        <v>47</v>
-      </c>
-      <c r="M55" t="s">
-        <v>47</v>
+      <c r="K55">
+        <v>6</v>
+      </c>
+      <c r="L55">
+        <v>180000</v>
+      </c>
+      <c r="M55">
+        <v>1080000</v>
       </c>
       <c r="N55" t="s">
-        <v>47</v>
+        <v>233</v>
       </c>
       <c r="O55" t="s">
         <v>47</v>
@@ -9393,29 +9592,29 @@
       </c>
     </row>
     <row r="56" spans="1:46">
-      <c r="A56" s="2">
+      <c r="A56" s="1">
         <v>54</v>
       </c>
-      <c r="B56" s="3" t="s">
-        <v>179</v>
+      <c r="B56" t="s">
+        <v>234</v>
       </c>
       <c r="C56" t="s">
-        <v>180</v>
+        <v>235</v>
       </c>
       <c r="D56" t="s">
         <v>47</v>
       </c>
-      <c r="E56" t="s">
-        <v>47</v>
-      </c>
-      <c r="F56" t="s">
-        <v>47</v>
-      </c>
-      <c r="G56" t="s">
-        <v>47</v>
+      <c r="E56">
+        <v>6</v>
+      </c>
+      <c r="F56">
+        <v>150000</v>
+      </c>
+      <c r="G56">
+        <v>900000</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>236</v>
       </c>
       <c r="I56" t="s">
         <v>47</v>
@@ -9423,17 +9622,17 @@
       <c r="J56" t="s">
         <v>47</v>
       </c>
-      <c r="K56" t="s">
-        <v>47</v>
-      </c>
-      <c r="L56" t="s">
-        <v>47</v>
-      </c>
-      <c r="M56" t="s">
-        <v>47</v>
+      <c r="K56">
+        <v>7</v>
+      </c>
+      <c r="L56">
+        <v>140000</v>
+      </c>
+      <c r="M56">
+        <v>980000</v>
       </c>
       <c r="N56" t="s">
-        <v>47</v>
+        <v>237</v>
       </c>
       <c r="O56" t="s">
         <v>47</v>
@@ -9533,47 +9732,47 @@
       </c>
     </row>
     <row r="57" spans="1:46">
-      <c r="A57" s="2">
+      <c r="A57" s="1">
         <v>55</v>
       </c>
-      <c r="B57" s="3" t="s">
-        <v>181</v>
+      <c r="B57" t="s">
+        <v>238</v>
       </c>
       <c r="C57" t="s">
-        <v>182</v>
+        <v>239</v>
       </c>
       <c r="D57" t="s">
         <v>47</v>
       </c>
       <c r="E57">
+        <v>5</v>
+      </c>
+      <c r="F57">
+        <v>205924</v>
+      </c>
+      <c r="G57">
+        <v>1029620</v>
+      </c>
+      <c r="H57" t="s">
+        <v>240</v>
+      </c>
+      <c r="I57" t="s">
+        <v>47</v>
+      </c>
+      <c r="J57" t="s">
+        <v>47</v>
+      </c>
+      <c r="K57">
         <v>6</v>
       </c>
-      <c r="F57">
-        <v>150000</v>
-      </c>
-      <c r="G57">
-        <v>900000</v>
-      </c>
-      <c r="H57" t="s">
-        <v>183</v>
-      </c>
-      <c r="I57" t="s">
-        <v>47</v>
-      </c>
-      <c r="J57" t="s">
-        <v>47</v>
-      </c>
-      <c r="K57" t="s">
-        <v>47</v>
-      </c>
-      <c r="L57" t="s">
-        <v>47</v>
-      </c>
-      <c r="M57" t="s">
-        <v>47</v>
+      <c r="L57">
+        <v>153704</v>
+      </c>
+      <c r="M57">
+        <v>922224</v>
       </c>
       <c r="N57" t="s">
-        <v>47</v>
+        <v>241</v>
       </c>
       <c r="O57" t="s">
         <v>47</v>
@@ -9673,14 +9872,14 @@
       </c>
     </row>
     <row r="58" spans="1:46">
-      <c r="A58" s="2">
+      <c r="A58" s="1">
         <v>56</v>
       </c>
-      <c r="B58" s="3" t="s">
-        <v>184</v>
+      <c r="B58" t="s">
+        <v>242</v>
       </c>
       <c r="C58" t="s">
-        <v>185</v>
+        <v>243</v>
       </c>
       <c r="D58" t="s">
         <v>47</v>
@@ -9703,17 +9902,17 @@
       <c r="J58" t="s">
         <v>47</v>
       </c>
-      <c r="K58" t="s">
-        <v>47</v>
-      </c>
-      <c r="L58" t="s">
-        <v>47</v>
-      </c>
-      <c r="M58" t="s">
-        <v>47</v>
+      <c r="K58">
+        <v>8</v>
+      </c>
+      <c r="L58">
+        <v>122000</v>
+      </c>
+      <c r="M58">
+        <v>976000</v>
       </c>
       <c r="N58" t="s">
-        <v>47</v>
+        <v>244</v>
       </c>
       <c r="O58" t="s">
         <v>47</v>
@@ -9813,29 +10012,29 @@
       </c>
     </row>
     <row r="59" spans="1:46">
-      <c r="A59" s="2">
+      <c r="A59" s="1">
         <v>57</v>
       </c>
-      <c r="B59" s="3" t="s">
-        <v>186</v>
+      <c r="B59" t="s">
+        <v>245</v>
       </c>
       <c r="C59" t="s">
-        <v>187</v>
+        <v>246</v>
       </c>
       <c r="D59" t="s">
         <v>47</v>
       </c>
-      <c r="E59">
-        <v>5</v>
-      </c>
-      <c r="F59">
-        <v>205924</v>
-      </c>
-      <c r="G59">
-        <v>1029620</v>
+      <c r="E59" t="s">
+        <v>47</v>
+      </c>
+      <c r="F59" t="s">
+        <v>47</v>
+      </c>
+      <c r="G59" t="s">
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>188</v>
+        <v>47</v>
       </c>
       <c r="I59" t="s">
         <v>47</v>
@@ -9843,17 +10042,17 @@
       <c r="J59" t="s">
         <v>47</v>
       </c>
-      <c r="K59" t="s">
-        <v>47</v>
-      </c>
-      <c r="L59" t="s">
-        <v>47</v>
-      </c>
-      <c r="M59" t="s">
-        <v>47</v>
+      <c r="K59">
+        <v>9</v>
+      </c>
+      <c r="L59">
+        <v>100000</v>
+      </c>
+      <c r="M59">
+        <v>900000</v>
       </c>
       <c r="N59" t="s">
-        <v>47</v>
+        <v>247</v>
       </c>
       <c r="O59" t="s">
         <v>47</v>
@@ -9953,14 +10152,14 @@
       </c>
     </row>
     <row r="60" spans="1:46">
-      <c r="A60" s="2">
+      <c r="A60" s="1">
         <v>58</v>
       </c>
-      <c r="B60" s="3" t="s">
-        <v>189</v>
+      <c r="B60" t="s">
+        <v>248</v>
       </c>
       <c r="C60" t="s">
-        <v>190</v>
+        <v>249</v>
       </c>
       <c r="D60" t="s">
         <v>47</v>
@@ -10093,29 +10292,29 @@
       </c>
     </row>
     <row r="61" spans="1:46">
-      <c r="A61" s="2">
+      <c r="A61" s="1">
         <v>59</v>
       </c>
-      <c r="B61" s="3" t="s">
-        <v>191</v>
+      <c r="B61" t="s">
+        <v>250</v>
       </c>
       <c r="C61" t="s">
-        <v>192</v>
+        <v>251</v>
       </c>
       <c r="D61" t="s">
         <v>47</v>
       </c>
-      <c r="E61" t="s">
-        <v>47</v>
-      </c>
-      <c r="F61" t="s">
-        <v>47</v>
-      </c>
-      <c r="G61" t="s">
-        <v>47</v>
+      <c r="E61">
+        <v>5</v>
+      </c>
+      <c r="F61">
+        <v>172000</v>
+      </c>
+      <c r="G61">
+        <v>860000</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>252</v>
       </c>
       <c r="I61" t="s">
         <v>47</v>
@@ -10123,17 +10322,17 @@
       <c r="J61" t="s">
         <v>47</v>
       </c>
-      <c r="K61" t="s">
-        <v>47</v>
-      </c>
-      <c r="L61" t="s">
-        <v>47</v>
-      </c>
-      <c r="M61" t="s">
-        <v>47</v>
+      <c r="K61">
+        <v>6</v>
+      </c>
+      <c r="L61">
+        <v>166000</v>
+      </c>
+      <c r="M61">
+        <v>996000</v>
       </c>
       <c r="N61" t="s">
-        <v>47</v>
+        <v>253</v>
       </c>
       <c r="O61" t="s">
         <v>47</v>
@@ -10233,14 +10432,14 @@
       </c>
     </row>
     <row r="62" spans="1:46">
-      <c r="A62" s="2">
+      <c r="A62" s="1">
         <v>60</v>
       </c>
-      <c r="B62" s="3" t="s">
-        <v>193</v>
+      <c r="B62" t="s">
+        <v>254</v>
       </c>
       <c r="C62" t="s">
-        <v>194</v>
+        <v>255</v>
       </c>
       <c r="D62" t="s">
         <v>47</v>
@@ -10373,29 +10572,29 @@
       </c>
     </row>
     <row r="63" spans="1:46">
-      <c r="A63" s="2">
+      <c r="A63" s="1">
         <v>61</v>
       </c>
-      <c r="B63" s="3" t="s">
-        <v>195</v>
+      <c r="B63" t="s">
+        <v>256</v>
       </c>
       <c r="C63" t="s">
-        <v>196</v>
+        <v>257</v>
       </c>
       <c r="D63" t="s">
         <v>47</v>
       </c>
-      <c r="E63">
-        <v>5</v>
-      </c>
-      <c r="F63">
-        <v>172000</v>
-      </c>
-      <c r="G63">
-        <v>860000</v>
+      <c r="E63" t="s">
+        <v>47</v>
+      </c>
+      <c r="F63" t="s">
+        <v>47</v>
+      </c>
+      <c r="G63" t="s">
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>197</v>
+        <v>47</v>
       </c>
       <c r="I63" t="s">
         <v>47</v>
@@ -10513,29 +10712,29 @@
       </c>
     </row>
     <row r="64" spans="1:46">
-      <c r="A64" s="2">
+      <c r="A64" s="1">
         <v>62</v>
       </c>
-      <c r="B64" s="3" t="s">
-        <v>198</v>
+      <c r="B64" t="s">
+        <v>258</v>
       </c>
       <c r="C64" t="s">
-        <v>199</v>
+        <v>259</v>
       </c>
       <c r="D64" t="s">
         <v>47</v>
       </c>
-      <c r="E64" t="s">
-        <v>47</v>
-      </c>
-      <c r="F64" t="s">
-        <v>47</v>
-      </c>
-      <c r="G64" t="s">
-        <v>47</v>
+      <c r="E64">
+        <v>8</v>
+      </c>
+      <c r="F64">
+        <v>115000</v>
+      </c>
+      <c r="G64">
+        <v>920000</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>260</v>
       </c>
       <c r="I64" t="s">
         <v>47</v>
@@ -10653,14 +10852,14 @@
       </c>
     </row>
     <row r="65" spans="1:46">
-      <c r="A65" s="2">
+      <c r="A65" s="1">
         <v>63</v>
       </c>
-      <c r="B65" s="3" t="s">
-        <v>200</v>
+      <c r="B65" t="s">
+        <v>261</v>
       </c>
       <c r="C65" t="s">
-        <v>201</v>
+        <v>262</v>
       </c>
       <c r="D65" t="s">
         <v>47</v>
@@ -10683,17 +10882,17 @@
       <c r="J65" t="s">
         <v>47</v>
       </c>
-      <c r="K65" t="s">
-        <v>47</v>
-      </c>
-      <c r="L65" t="s">
-        <v>47</v>
-      </c>
-      <c r="M65" t="s">
-        <v>47</v>
+      <c r="K65">
+        <v>5</v>
+      </c>
+      <c r="L65">
+        <v>178000</v>
+      </c>
+      <c r="M65">
+        <v>890000</v>
       </c>
       <c r="N65" t="s">
-        <v>47</v>
+        <v>263</v>
       </c>
       <c r="O65" t="s">
         <v>47</v>
@@ -10793,29 +10992,29 @@
       </c>
     </row>
     <row r="66" spans="1:46">
-      <c r="A66" s="2">
+      <c r="A66" s="1">
         <v>64</v>
       </c>
-      <c r="B66" s="3" t="s">
-        <v>202</v>
+      <c r="B66" t="s">
+        <v>264</v>
       </c>
       <c r="C66" t="s">
-        <v>203</v>
+        <v>265</v>
       </c>
       <c r="D66" t="s">
         <v>47</v>
       </c>
       <c r="E66">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F66">
-        <v>115000</v>
+        <v>205384</v>
       </c>
       <c r="G66">
-        <v>920000</v>
+        <v>1026920</v>
       </c>
       <c r="H66" t="s">
-        <v>204</v>
+        <v>266</v>
       </c>
       <c r="I66" t="s">
         <v>47</v>
@@ -10823,17 +11022,17 @@
       <c r="J66" t="s">
         <v>47</v>
       </c>
-      <c r="K66" t="s">
-        <v>47</v>
-      </c>
-      <c r="L66" t="s">
-        <v>47</v>
-      </c>
-      <c r="M66" t="s">
-        <v>47</v>
+      <c r="K66">
+        <v>5</v>
+      </c>
+      <c r="L66">
+        <v>207222</v>
+      </c>
+      <c r="M66">
+        <v>1036110</v>
       </c>
       <c r="N66" t="s">
-        <v>47</v>
+        <v>267</v>
       </c>
       <c r="O66" t="s">
         <v>47</v>
@@ -10933,29 +11132,29 @@
       </c>
     </row>
     <row r="67" spans="1:46">
-      <c r="A67" s="2">
+      <c r="A67" s="1">
         <v>65</v>
       </c>
-      <c r="B67" s="3" t="s">
-        <v>205</v>
+      <c r="B67" t="s">
+        <v>268</v>
       </c>
       <c r="C67" t="s">
-        <v>206</v>
+        <v>269</v>
       </c>
       <c r="D67" t="s">
         <v>47</v>
       </c>
-      <c r="E67" t="s">
-        <v>47</v>
-      </c>
-      <c r="F67" t="s">
-        <v>47</v>
-      </c>
-      <c r="G67" t="s">
-        <v>47</v>
+      <c r="E67">
+        <v>5</v>
+      </c>
+      <c r="F67">
+        <v>200000</v>
+      </c>
+      <c r="G67">
+        <v>1000000</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>270</v>
       </c>
       <c r="I67" t="s">
         <v>47</v>
@@ -10963,17 +11162,17 @@
       <c r="J67" t="s">
         <v>47</v>
       </c>
-      <c r="K67" t="s">
-        <v>47</v>
-      </c>
-      <c r="L67" t="s">
-        <v>47</v>
-      </c>
-      <c r="M67" t="s">
-        <v>47</v>
+      <c r="K67">
+        <v>5</v>
+      </c>
+      <c r="L67">
+        <v>181000</v>
+      </c>
+      <c r="M67">
+        <v>905000</v>
       </c>
       <c r="N67" t="s">
-        <v>47</v>
+        <v>271</v>
       </c>
       <c r="O67" t="s">
         <v>47</v>
@@ -11073,29 +11272,29 @@
       </c>
     </row>
     <row r="68" spans="1:46">
-      <c r="A68" s="2">
+      <c r="A68" s="1">
         <v>66</v>
       </c>
-      <c r="B68" s="3" t="s">
-        <v>207</v>
+      <c r="B68" t="s">
+        <v>272</v>
       </c>
       <c r="C68" t="s">
-        <v>208</v>
+        <v>273</v>
       </c>
       <c r="D68" t="s">
         <v>47</v>
       </c>
-      <c r="E68" t="s">
-        <v>47</v>
-      </c>
-      <c r="F68" t="s">
-        <v>47</v>
-      </c>
-      <c r="G68" t="s">
-        <v>47</v>
+      <c r="E68">
+        <v>5</v>
+      </c>
+      <c r="F68">
+        <v>243000</v>
+      </c>
+      <c r="G68">
+        <v>1215000</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>274</v>
       </c>
       <c r="I68" t="s">
         <v>47</v>
@@ -11103,17 +11302,17 @@
       <c r="J68" t="s">
         <v>47</v>
       </c>
-      <c r="K68" t="s">
-        <v>47</v>
-      </c>
-      <c r="L68" t="s">
-        <v>47</v>
-      </c>
-      <c r="M68" t="s">
-        <v>47</v>
+      <c r="K68">
+        <v>5</v>
+      </c>
+      <c r="L68">
+        <v>227000</v>
+      </c>
+      <c r="M68">
+        <v>1135000</v>
       </c>
       <c r="N68" t="s">
-        <v>47</v>
+        <v>275</v>
       </c>
       <c r="O68" t="s">
         <v>47</v>
@@ -11213,47 +11412,47 @@
       </c>
     </row>
     <row r="69" spans="1:46">
-      <c r="A69" s="2">
+      <c r="A69" s="1">
         <v>67</v>
       </c>
-      <c r="B69" s="3" t="s">
-        <v>209</v>
+      <c r="B69">
+        <v>793019511</v>
       </c>
       <c r="C69" t="s">
-        <v>210</v>
+        <v>276</v>
       </c>
       <c r="D69" t="s">
         <v>47</v>
       </c>
-      <c r="E69">
+      <c r="E69" t="s">
+        <v>47</v>
+      </c>
+      <c r="F69" t="s">
+        <v>47</v>
+      </c>
+      <c r="G69" t="s">
+        <v>47</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>47</v>
+      </c>
+      <c r="J69" t="s">
+        <v>47</v>
+      </c>
+      <c r="K69">
         <v>5</v>
       </c>
-      <c r="F69">
-        <v>200000</v>
-      </c>
-      <c r="G69">
-        <v>1000000</v>
-      </c>
-      <c r="H69" t="s">
-        <v>211</v>
-      </c>
-      <c r="I69" t="s">
-        <v>47</v>
-      </c>
-      <c r="J69" t="s">
-        <v>47</v>
-      </c>
-      <c r="K69" t="s">
-        <v>47</v>
-      </c>
-      <c r="L69" t="s">
-        <v>47</v>
-      </c>
-      <c r="M69" t="s">
-        <v>47</v>
+      <c r="L69">
+        <v>236000</v>
+      </c>
+      <c r="M69">
+        <v>1180000</v>
       </c>
       <c r="N69" t="s">
-        <v>47</v>
+        <v>277</v>
       </c>
       <c r="O69" t="s">
         <v>47</v>
@@ -11353,29 +11552,29 @@
       </c>
     </row>
     <row r="70" spans="1:46">
-      <c r="A70" s="2">
+      <c r="A70" s="1">
         <v>68</v>
       </c>
-      <c r="B70" s="3" t="s">
-        <v>212</v>
+      <c r="B70">
+        <v>784945709</v>
       </c>
       <c r="C70" t="s">
-        <v>213</v>
+        <v>278</v>
       </c>
       <c r="D70" t="s">
         <v>47</v>
       </c>
-      <c r="E70">
-        <v>5</v>
-      </c>
-      <c r="F70">
-        <v>243000</v>
-      </c>
-      <c r="G70">
-        <v>1215000</v>
+      <c r="E70" t="s">
+        <v>47</v>
+      </c>
+      <c r="F70" t="s">
+        <v>47</v>
+      </c>
+      <c r="G70" t="s">
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>214</v>
+        <v>47</v>
       </c>
       <c r="I70" t="s">
         <v>47</v>
@@ -11383,17 +11582,17 @@
       <c r="J70" t="s">
         <v>47</v>
       </c>
-      <c r="K70" t="s">
-        <v>47</v>
-      </c>
-      <c r="L70" t="s">
-        <v>47</v>
-      </c>
-      <c r="M70" t="s">
-        <v>47</v>
+      <c r="K70">
+        <v>7</v>
+      </c>
+      <c r="L70">
+        <v>226000</v>
+      </c>
+      <c r="M70">
+        <v>1582000</v>
       </c>
       <c r="N70" t="s">
-        <v>47</v>
+        <v>279</v>
       </c>
       <c r="O70" t="s">
         <v>47</v>
